--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E0B832-3FCF-4A69-AC10-09C9C987AD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AB78C-8EEE-422C-9AB7-CC4D5A93E07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,6 +739,959 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Statistics calculator'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> USGS_14158850_flow_MCKENZIE R BLW TRAIL BR DAM NR BELKNAP SPRINGS_23773359</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Statistics calculator'!$H$4:$H$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>1028.4968260000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>628.832581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556.13385000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>810.27526899999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>614.57843000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>774.50817900000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>405.26113900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392.68936200000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390.095642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>408.02020299999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>694.376892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1162.594116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1328.0009769999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>648.52282700000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1033.142212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1153.48938</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1087.191284</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>511.77423099999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>412.83529700000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>402.48840300000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>398.56552099999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397.366333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>455.72894300000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>687.99774200000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1020.8994750000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>996.81182899999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1209.025635</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1641.126953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>595.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>488.900665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>423.19278000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>404.266144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>399.73043799999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>525.58905000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1219.908447</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1066.3558350000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>535.66290300000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>629.44635000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1042.4613039999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1130.0858149999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>456.208282</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>434.57574499999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>406.96002199999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>398.71585099999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>396.80670199999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>494.49713100000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>568.45214799999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>556.50811799999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>639.72113000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1364.0234379999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1839.16687</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>796.79888900000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>649.08575399999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>425.09390300000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>406.121307</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>399.262024</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>395.71624800000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>448.34594700000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1260.344482</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1395.111938</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>790.02154499999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>753.03955099999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>474.180634</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>517.30841099999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>420.49987800000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>400.55059799999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>393.38009599999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>389.88262900000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>386.87347399999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>383.97323599999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>787.59930399999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1423.3125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1307.6096190000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1336.3754879999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1200.4194339999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>500.92709400000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>436.33517499999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>409.02572600000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>400.65811200000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>396.101563</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>392.82687399999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1190.0145259999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>877.31616199999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>553.19439699999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>411.354736</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1106.007568</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2542.1633299999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1280.238159</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>530.292419</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>427.36657700000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>413.72854599999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>408.86523399999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>410.989777</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>643.694885</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1257.695557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>493.29040500000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1133.4672849999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>654.38177499999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1025.2438959999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>907.38537599999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>442.66372699999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>411.42950400000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>404.79760700000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>400.903076</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>397.51174900000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>394.514679</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>439.40954599999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1007.874512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B3-4822-AF0B-C859ACF8BB3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Statistics calculator'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14158850_flow_MCKENZIE R BLW TRAIL BR DAM NR BELKNAP SPRINGS_23773359.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Statistics calculator'!$I$4:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>1351.4923100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1035.700562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>991.09222399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1196.871216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1176.111938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1279.1579589999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>825.16625999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>719.93640100000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>707.87573199999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>678.90423599999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>946.42828399999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1409.924927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1561.7685550000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1148.4418949999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1149.443481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1441.413452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1464.1297609999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1501.9652100000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1033.8477780000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>887.4375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>793.30554199999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>745.39343299999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>786.22570800000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>918.89282200000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1595.6573490000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1422.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1402.0225829999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1791.1527100000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1798.4073490000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1281.5010990000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1024.6129149999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>885.74230999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>796.38201900000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>820.245544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1196.8671879999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1614.6099850000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1025.7650149999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>992.23205600000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1137.719971</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1561.857788</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1216.6606449999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>970.26275599999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>803.92834500000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>705.91772500000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>715.51385500000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>822.73376499999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>812.07128899999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>851.21130400000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>861.99066200000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1630.7633060000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1952.201294</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1413.715332</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1292.4205320000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>911.171875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>850.10467500000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>766.54736300000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>708.05377199999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>698.65429700000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1033.2142329999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1513.271606</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1260.665405</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1210.1175539999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>930.53008999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>944.802368</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>763.13403300000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>692.95660399999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>624.40258800000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>608.09906000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>574.85827600000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>555.50769000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>713.16815199999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1351.6357419999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1099.654419</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1394.8095699999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1485.4270019999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1372.7429199999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>976.98852499999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>799.22711200000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>703.88140899999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>636.21698000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>590.60699499999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>980.22009300000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>992.93054199999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1040.915649</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>924.10693400000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1413.880981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1728.1054690000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1762.0623780000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1765.6082759999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1199.4376219999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910.91625999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>778.49505599999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>672.80059800000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>888.09045400000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1267.0722659999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1044.9929199999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1216.7695309999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1160.3663329999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>983.05316200000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1368.8576660000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1082.9212649999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>811.29077099999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>702.262878</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>708.31597899999997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>604.39343299999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>548.89679000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>622.53692599999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>919.52148399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97B3-4822-AF0B-C859ACF8BB3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="13206144"/>
+        <c:axId val="646079568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13206144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646079568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646079568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13206144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1728,6 +2681,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2283,7 +3276,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>748665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1C27B8-74B0-4A07-9CEE-1A5ED2F49C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2651,14 +4201,17 @@
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2">
+        <f>AVERAGE(G4:G111)</f>
+        <v>30.435185185185187</v>
+      </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>441.3364324351852</v>
+        <v>713.9868392777779</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>471.86507424999996</v>
+        <v>1055.7140361851846</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2669,13 +4222,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>6.9173173957937872E-2</v>
+        <v>0.47861834155525246</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2691,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
@@ -2727,7 +4280,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.71245264434774069</v>
+        <v>-0.68282457641696159</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2743,42 +4296,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>677.28088400000001</v>
+        <v>1028.4968260000001</v>
       </c>
       <c r="I4">
-        <v>1167.973755</v>
+        <v>1351.4923100000001</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>490.69287099999997</v>
+        <v>322.99548400000003</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>696.10868075000008</v>
+        <v>295.77827381481552</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>235.94445156481481</v>
+        <v>314.50998672222215</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>484567.29541550553</v>
+        <v>87484.787260871992</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>55669.784224221243</v>
+        <v>98916.531748012349</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>164242.98090906552</v>
+        <v>93025.220970219423</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>240779.4936502226</v>
+        <v>104326.08268439428</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>528001.79854416265</v>
+        <v>406413.2252007621</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +4340,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.53505787048928366</v>
+        <v>0.90859566275346781</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2803,42 +4356,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>521.49670400000002</v>
+        <v>628.832581</v>
       </c>
       <c r="I5">
-        <v>579.50970500000005</v>
+        <v>1035.700562</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>58.013001000000031</v>
+        <v>406.86798099999999</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>107.64463075000009</v>
+        <v>-20.013474185184577</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>80.160271564814821</v>
+        <v>-85.154258277777899</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>11587.366529303865</v>
+        <v>400.53914896104948</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>6425.6691373448593</v>
+        <v>7251.2477028385056</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>8628.8228334142241</v>
+        <v>1704.2325498008481</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>3365.5082850260046</v>
+        <v>165541.55396301634</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>19091.853251270615</v>
+        <v>103499.7193877908</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +4400,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.82038749345405981</v>
+        <v>0.54168578244525034</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2863,42 +4416,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>546.18933100000004</v>
+        <v>556.13385000000005</v>
       </c>
       <c r="I6">
-        <v>737.89788799999997</v>
+        <v>991.09222399999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>191.70855699999993</v>
+        <v>434.95837399999994</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>266.03281375</v>
+        <v>-64.621812185184581</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>104.85289856481484</v>
+        <v>-157.85298927777785</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>70773.457991742194</v>
+        <v>4175.9786100972706</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>10994.13033744335</v>
+        <v>24917.566223930251</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>27894.311635041027</v>
+        <v>10200.746225978515</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>36752.170827022223</v>
+        <v>189188.78711272383</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>87948.696926721605</v>
+        <v>76787.394242050708</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +4460,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>441.3364324351852</v>
+        <v>713.9868392777779</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2923,42 +4476,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>660.94854699999996</v>
+        <v>810.27526899999998</v>
       </c>
       <c r="I7">
-        <v>997.17987100000005</v>
+        <v>1196.871216</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>336.23132400000009</v>
+        <v>386.59594700000002</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>525.31479675000014</v>
+        <v>141.15717981481544</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>219.61211456481476</v>
+        <v>96.288429722222077</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>275955.63568449399</v>
+        <v>19925.349413272139</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>48229.480863629324</v>
+        <v>9271.4616983713004</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>115365.4933264534</v>
+        <v>13591.80318838592</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>113051.50323879304</v>
+        <v>149456.42623682684</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>308961.92819555709</v>
+        <v>233177.3212824089</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +4520,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>268.69084545909823</v>
+        <v>391.46398625255648</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -2983,42 +4536,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>471.18301400000001</v>
+        <v>614.57843000000003</v>
       </c>
       <c r="I8">
-        <v>543.96307400000001</v>
+        <v>1176.111938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>72.780059999999992</v>
+        <v>561.53350799999998</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>72.097999750000042</v>
+        <v>120.39790181481544</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>29.846581564814812</v>
+        <v>-99.408409277777878</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>5198.121567951006</v>
+        <v>14495.65476140994</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>890.81843110514342</v>
+        <v>9882.0318351381957</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>2151.8788301983741</v>
+        <v>-11968.563899792889</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>5296.9371336035992</v>
+        <v>315319.88060678606</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>10532.227558872974</v>
+        <v>213559.60686902353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +4580,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>471.86507424999996</v>
+        <v>1055.7140361851846</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3043,42 +4596,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>479.67987099999999</v>
+        <v>774.50817900000004</v>
       </c>
       <c r="I9">
-        <v>847.96118200000001</v>
+        <v>1279.1579589999999</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>368.28131100000002</v>
+        <v>504.64977999999985</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>376.09610775000004</v>
+        <v>223.44392281481532</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>38.34343856481479</v>
+        <v>60.521339722222137</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>141448.28226469964</v>
+        <v>49927.186642873145</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>1470.219280973726</v>
+        <v>3662.8325617726232</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>14420.81800197809</v>
+        <v>13523.125561541419</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>135631.12403187875</v>
+        <v>254671.40045404824</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>165343.68695864835</v>
+        <v>319418.39456807019</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +4640,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>460.09628107828104</v>
+        <v>335.34299442584756</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3102,42 +4655,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>199.78741500000001</v>
+        <v>405.26113900000001</v>
       </c>
       <c r="I10">
-        <v>130.51414500000001</v>
+        <v>825.16625999999997</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-69.273269999999997</v>
+        <v>419.90512099999995</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-341.35092924999992</v>
+        <v>-230.5477761851846</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-241.54901743518519</v>
+        <v>-308.72570027777789</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>116520.45689983845</v>
+        <v>53152.277103933971</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>58345.927823903403</v>
+        <v>95311.558012004345</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>82452.981560924891</v>
+        <v>71176.02365025552</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>4798.7859364929</v>
+        <v>176320.31064202459</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>96610.494366440893</v>
+        <v>12360.863592128861</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,42 +4707,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>183.45039399999999</v>
+        <v>392.68936200000002</v>
       </c>
       <c r="I11">
-        <v>50.801338000000001</v>
+        <v>719.93640100000005</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-132.64905599999997</v>
+        <v>327.24703900000003</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-421.06373624999998</v>
+        <v>-335.77763518518452</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-257.88603843518524</v>
+        <v>-321.29747727777789</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>177294.66998480953</v>
+        <v>112746.62029055487</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>66505.208819793843</v>
+        <v>103232.0689050642</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>108586.4588702302</v>
+        <v>107884.50711129782</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>17595.772057691131</v>
+        <v>107090.62453426754</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>152517.65998549902</v>
+        <v>35.397284686530909</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +4751,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.90575244601053095</v>
+        <v>0.73599305869366072</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3214,42 +4767,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>187.11146500000001</v>
+        <v>390.095642</v>
       </c>
       <c r="I12">
-        <v>52.073120000000003</v>
+        <v>707.87573199999997</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-135.03834499999999</v>
+        <v>317.78008999999997</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-419.79195424999995</v>
+        <v>-347.8383041851846</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-254.22496743518519</v>
+        <v>-323.89119727777791</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>176225.28485303404</v>
+        <v>120991.485858425</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>64630.334067420968</v>
+        <v>104905.50767403244</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>106721.59589875898</v>
+        <v>112661.76480161134</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>18235.354620339021</v>
+        <v>100984.18560040808</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>151525.9264080126</v>
+        <v>37.345632160510412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,42 +4819,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>199.127151</v>
+        <v>408.02020299999998</v>
       </c>
       <c r="I13">
-        <v>159.83656300000001</v>
+        <v>678.90423599999997</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-39.290587999999985</v>
+        <v>270.88403299999999</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-312.02851124999995</v>
+        <v>-376.8098001851846</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-242.2092814351852</v>
+        <v>-305.96663627777792</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>97361.791832891351</v>
+        <v>141985.62551559875</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>58665.336013348751</v>
+        <v>93615.582515138056</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>75576.201497153088</v>
+        <v>115291.22707916255</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>1543.7503053857429</v>
+        <v>73378.15933434508</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>79242.176492026309</v>
+        <v>1230.7890527459551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,42 +4871,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>373.47872899999999</v>
+        <v>694.376892</v>
       </c>
       <c r="I14">
-        <v>743.54663100000005</v>
+        <v>946.42828399999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>370.06790200000006</v>
+        <v>252.05139199999996</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>271.68155675000008</v>
+        <v>-109.28575218518461</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-67.857703435185215</v>
+        <v>-19.609947277777906</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>73810.868278103517</v>
+        <v>11943.375630681581</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>4604.6679154975473</v>
+        <v>384.55003223722912</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>-18435.686506750946</v>
+        <v>2143.0878385637716</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>136950.25209068164</v>
+        <v>63529.904209137647</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>91331.004116584823</v>
+        <v>54029.025224553814</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,42 +4923,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>882.57959000000005</v>
+        <v>1162.594116</v>
       </c>
       <c r="I15">
-        <v>1709.0405270000001</v>
+        <v>1409.924927</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>826.46093700000006</v>
+        <v>247.33081100000004</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>1237.1754527500002</v>
+        <v>354.21089081481546</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>441.24315756481485</v>
+        <v>448.60727672222208</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>1530603.100887168</v>
+        <v>125465.35517182511</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>194695.52409776804</v>
+        <v>201248.48872812834</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>545895.20323308953</v>
+        <v>158901.58311378671</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>683037.68038691801</v>
+        <v>61172.530069917739</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>1607073.6713763974</v>
+        <v>484329.82194246334</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,42 +4975,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>728.06463599999995</v>
+        <v>1328.0009769999999</v>
       </c>
       <c r="I16">
-        <v>1217.0961910000001</v>
+        <v>1561.7685550000001</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>489.03155500000014</v>
+        <v>233.76757800000019</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>745.23111675000018</v>
+        <v>506.05451881481554</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>286.72820356481475</v>
+        <v>614.01413772222202</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>555369.41737245244</v>
+        <v>256091.17601289449</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>82213.062719505848</v>
+        <v>377013.36132276384</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>213678.77934632829</v>
+        <v>310724.62901051296</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>239151.86178571815</v>
+        <v>54647.28052398617</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>601803.20300853986</v>
+        <v>718733.83751291479</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3474,42 +5027,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>460.28924599999999</v>
+        <v>648.52282700000001</v>
       </c>
       <c r="I17">
-        <v>543.63909899999999</v>
+        <v>1148.4418949999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>83.349852999999996</v>
+        <v>499.91906799999992</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>71.774024750000024</v>
+        <v>92.727858814815363</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>18.95281356481479</v>
+        <v>-65.464012277777897</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>5151.5106288136158</v>
+        <v>8598.4558003803304</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>359.20914202262747</v>
+        <v>4285.5369035050553</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>1360.3197098831529</v>
+        <v>-6070.337687945128</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>6947.1979951216081</v>
+        <v>249919.07454998855</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>10465.835586271673</v>
+        <v>188751.19544259904</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3526,42 +5079,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>891.96508800000004</v>
+        <v>1033.142212</v>
       </c>
       <c r="I18">
-        <v>1486.1547849999999</v>
+        <v>1149.443481</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>594.18969699999991</v>
+        <v>116.30126900000005</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>1014.28971075</v>
+        <v>93.729444814815452</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>450.62865556481484</v>
+        <v>319.15537272222207</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1028783.6173333188</v>
+        <v>8785.2088252935355</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>203066.18521615252</v>
+        <v>101860.1519374605</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>457068.00870849745</v>
+        <v>29914.25589491937</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>353061.39602095168</v>
+        <v>13525.985171010372</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1091645.3898562533</v>
+        <v>189622.48681999571</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3578,42 +5131,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>840.67498799999998</v>
+        <v>1153.48938</v>
       </c>
       <c r="I19">
-        <v>1261.269409</v>
+        <v>1441.413452</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>420.59442100000001</v>
+        <v>287.92407200000002</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>789.40433475000009</v>
+        <v>385.69941581481544</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>399.33855556481478</v>
+        <v>439.50254072222208</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>623159.20372209023</v>
+        <v>148764.0393598899</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>159471.28196059266</v>
+        <v>193162.48330128848</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>315239.58679566858</v>
+        <v>169515.8732056882</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>176899.66697632524</v>
+        <v>82900.271237061199</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>672290.08605843713</v>
+        <v>529149.47689652571</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3630,42 +5183,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>488.157196</v>
+        <v>1087.191284</v>
       </c>
       <c r="I20">
-        <v>497.22387700000002</v>
+        <v>1464.1297609999999</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>9.0666810000000169</v>
+        <v>376.93847699999992</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>25.358802750000052</v>
+        <v>408.41572481481535</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>46.820763564814797</v>
+        <v>373.20444472222209</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>643.06887691341024</v>
+        <v>166803.40427601099</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2192.183900792289</v>
+        <v>139281.55756042214</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>1187.3185078445276</v>
+        <v>152422.56379533702</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>82.204704355761308</v>
+        <v>142082.61544307947</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>3123.4064599852491</v>
+        <v>562714.4030099517</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3682,42 +5235,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>344.46902499999999</v>
+        <v>511.77423099999999</v>
       </c>
       <c r="I21">
-        <v>337.02191199999999</v>
+        <v>1501.9652100000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-7.4471130000000016</v>
+        <v>990.19097900000008</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-134.84316224999998</v>
+        <v>446.2511738148155</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-96.867407435185214</v>
+        <v>-202.21260827777792</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>18182.67840557982</v>
+        <v>199140.11013110066</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>9383.2946232141749</v>
+        <v>40889.938946502058</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>13061.907537519533</v>
+        <v>-90237.613804113877</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>55.459492034769028</v>
+        <v>980478.17489297863</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>10881.519173622673</v>
+        <v>620909.9127260478</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3734,42 +5287,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>235.25680500000001</v>
+        <v>412.83529700000003</v>
       </c>
       <c r="I22">
-        <v>121.14922300000001</v>
+        <v>1033.8477780000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-114.10758200000001</v>
+        <v>621.01248099999998</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-350.71585124999996</v>
+        <v>-21.866258185184506</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-206.07962743518519</v>
+        <v>-301.15154227777788</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>123001.60831801209</v>
+        <v>478.13324702114841</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>42468.812843824729</v>
+        <v>90692.251416284242</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>72275.391961213812</v>
+        <v>6585.0573763123984</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>13020.540269886726</v>
+        <v>385656.50155777531</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>102519.84908589115</v>
+        <v>102311.02012026116</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3786,42 +5339,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>198.83509799999999</v>
+        <v>402.48840300000001</v>
       </c>
       <c r="I23">
-        <v>56.475966999999997</v>
+        <v>887.4375</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-142.35913099999999</v>
+        <v>484.94909699999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-415.38910724999994</v>
+        <v>-168.27653618518457</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-242.50133443518521</v>
+        <v>-311.4984362777779</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>172548.11042195195</v>
+        <v>28316.992630483732</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>58806.897202845546</v>
+        <v>97031.275803500859</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>100732.41281796525</v>
+        <v>52417.877883925903</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>20266.122179075159</v>
+        <v>235175.62668111539</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>148117.57785498741</v>
+        <v>30085.1317049754</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3838,42 +5391,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>194.02856399999999</v>
+        <v>398.56552099999999</v>
       </c>
       <c r="I24">
-        <v>36.944035</v>
+        <v>793.30554199999995</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-157.08452899999997</v>
+        <v>394.74002099999996</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-434.92103924999998</v>
+        <v>-262.40849418518462</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-247.30786843518521</v>
+        <v>-315.42131827777791</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>189156.31038230003</v>
+        <v>68858.217820536069</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>61161.181789954877</v>
+        <v>99490.608024091271</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>107559.39515453302</v>
+        <v>82769.23316317756</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>24675.549251151831</v>
+        <v>155819.68417908042</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>163533.21110337679</v>
+        <v>6291.4566015362343</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3890,42 +5443,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>203.09356700000001</v>
+        <v>397.366333</v>
       </c>
       <c r="I25">
-        <v>54.953960000000002</v>
+        <v>745.39343299999996</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-148.13960700000001</v>
+        <v>348.02709999999996</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-416.91111424999997</v>
+        <v>-310.32060318518461</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-238.24286543518519</v>
+        <v>-316.62050627777791</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>173814.87718517653</v>
+        <v>96298.876761216801</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>56759.662930767758</v>
+        <v>100248.5449955964</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>99326.098490695862</v>
+        <v>98253.866488918575</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>21945.343162114452</v>
+        <v>121122.86233440998</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>149291.41500512665</v>
+        <v>986.37412923271779</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -3942,42 +5495,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>233.77612300000001</v>
+        <v>455.72894300000002</v>
       </c>
       <c r="I26">
-        <v>215.176086</v>
+        <v>786.22570800000005</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-18.600037000000015</v>
+        <v>330.49676500000004</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-256.68898824999997</v>
+        <v>-269.48832818518451</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-207.56030943518519</v>
+        <v>-258.25789627777789</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>65889.236688808625</v>
+        <v>72623.95902804572</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>43081.282052829825</v>
+        <v>66697.140989823485</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>53278.44582977461</v>
+        <v>69597.488708521152</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>345.96137640136953</v>
+        <v>109228.11167546525</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>51148.502299682987</v>
+        <v>5218.4541542664456</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -3994,42 +5547,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>253.5737</v>
+        <v>687.99774200000002</v>
       </c>
       <c r="I27">
-        <v>143.42907700000001</v>
+        <v>918.89282200000002</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-110.144623</v>
+        <v>230.89508000000001</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-328.43599724999996</v>
+        <v>-136.82121418518454</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-187.7627324351852</v>
+        <v>-25.989097277777887</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>107870.20428960198</v>
+        <v>18720.044651108143</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>35254.843691526949</v>
+        <v>675.43317731380193</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>61668.040273734965</v>
+        <v>3555.8598451224448</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>12131.837975812128</v>
+        <v>53312.537968206401</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>88748.79242238577</v>
+        <v>41986.461755359589</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4046,42 +5599,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>874.22070299999996</v>
+        <v>1020.8994750000001</v>
       </c>
       <c r="I28">
-        <v>639.10144000000003</v>
+        <v>1595.6573490000001</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-235.11926299999993</v>
+        <v>574.75787400000002</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>167.23636575000006</v>
+        <v>539.9433128148155</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>432.88427056481476</v>
+        <v>306.91263572222215</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>27968.002029267795</v>
+        <v>291538.78105343768</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>187388.79170243174</v>
+        <v>94195.365965961435</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>72393.99219959935</v>
+        <v>165715.42527658332</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>55281.067833663139</v>
+        <v>330346.61372499989</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>39110.998217111264</v>
+        <v>777342.88771384303</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4098,42 +5651,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>580.47082499999999</v>
+        <v>996.81182899999999</v>
       </c>
       <c r="I29">
-        <v>517.02081299999998</v>
+        <v>1422.75</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-63.450012000000015</v>
+        <v>425.93817100000001</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>45.155738750000012</v>
+        <v>367.03596381481543</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>139.13439256481479</v>
+        <v>282.82498972222209</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>2039.0407420582526</v>
+        <v>134715.3987334705</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>19358.379194379988</v>
+        <v>79989.974811375025</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>6282.716281796721</v>
+        <v>103806.94269361105</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>4025.9040228001459</v>
+        <v>181423.32551482526</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>5728.1254614797126</v>
+        <v>502345.21799695445</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4150,42 +5703,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>1005.263245</v>
+        <v>1209.025635</v>
       </c>
       <c r="I30">
-        <v>1352.5634769999999</v>
+        <v>1402.0225829999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>347.30023199999994</v>
+        <v>192.99694799999997</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>880.69840275000001</v>
+        <v>346.30854681481537</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>563.92681256481478</v>
+        <v>495.03879572222206</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>775629.67660640122</v>
+        <v>119929.60959698918</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>318013.44992951176</v>
+        <v>245063.40927010789</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>496649.44309373101</v>
+        <v>171436.16596351896</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>120617.45114725379</v>
+        <v>37247.821937314693</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>830334.72674632678</v>
+        <v>473393.1846393912</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4202,42 +5755,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>850.99786400000005</v>
+        <v>1641.126953</v>
       </c>
       <c r="I31">
-        <v>567.08264199999996</v>
+        <v>1791.1527100000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-283.91522200000009</v>
+        <v>150.02575700000011</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>95.217567750000001</v>
+        <v>735.4386738148155</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>409.66143156481485</v>
+        <v>927.14011372222205</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>9066.38520822584</v>
+        <v>540870.04294249462</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>167822.48851173348</v>
+        <v>859588.79047285486</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>39006.965114584746</v>
+        <v>681854.69567638822</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>80607.853283309334</v>
+        <v>22507.727763423081</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>15812.109219918311</v>
+        <v>1160286.3130487632</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4254,42 +5807,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>429.87789900000001</v>
+        <v>595.9375</v>
       </c>
       <c r="I32">
-        <v>455.79904199999999</v>
+        <v>1798.4073490000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>25.921142999999972</v>
+        <v>1202.4698490000001</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-16.066032249999978</v>
+        <v>742.6933128148155</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-11.458533435185188</v>
+        <v>-118.0493392777779</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>258.11739225803933</v>
+        <v>551593.35689984541</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>131.29798848525687</v>
+        <v>13935.646503919917</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>184.09316770738826</v>
+        <v>-87674.454863812993</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>671.90565442644754</v>
+        <v>1445933.737754083</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>209.16707542427207</v>
+        <v>1175967.8419062039</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4306,42 +5859,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>440.55081200000001</v>
+        <v>488.900665</v>
       </c>
       <c r="I33">
-        <v>346.51458700000001</v>
+        <v>1281.5010990000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-94.036225000000002</v>
+        <v>792.60043400000006</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-125.35048724999996</v>
+        <v>225.7870628148155</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-0.78562043518519431</v>
+        <v>-225.0861742777779</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>15712.744653812402</v>
+        <v>50979.79773454144</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>0.61719946818057414</v>
+        <v>50663.785851006207</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>98.477904344021113</v>
+        <v>-50821.546170403148</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>8842.8116122506253</v>
+        <v>628215.44797698851</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>8991.1823717341522</v>
+        <v>322072.43498806184</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4358,42 +5911,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>239.179947</v>
+        <v>423.19278000000003</v>
       </c>
       <c r="I34">
-        <v>135.293396</v>
+        <v>1024.6129149999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-103.886551</v>
+        <v>601.42013499999985</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-336.57167824999999</v>
+        <v>-31.101121185184638</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-202.1564854351852</v>
+        <v>-290.79405927777788</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>113280.49460002151</v>
+        <v>967.27973897554068</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>40867.244603506246</v>
+        <v>84561.184911247794</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>68040.147572041969</v>
+        <v>9044.0212775299351</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>10792.415478675601</v>
+        <v>361706.17878341803</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>93662.340150468081</v>
+        <v>96488.558918587616</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4410,42 +5963,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>197.79006999999999</v>
+        <v>404.266144</v>
       </c>
       <c r="I35">
-        <v>59.259926</v>
+        <v>885.74230999999997</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-138.53014399999998</v>
+        <v>481.47616599999998</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-412.60514824999996</v>
+        <v>-169.97172618518459</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-243.54636243518522</v>
+        <v>-309.72069527777791</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>170243.00836240445</v>
+        <v>28890.387702371365</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>59314.830655410595</v>
+        <v>95926.909083350154</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>100488.48297831781</v>
+        <v>52643.761211639459</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>19190.600796660729</v>
+        <v>231819.29842605954</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>145982.45676971611</v>
+        <v>29499.941723012082</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4462,42 +6015,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>194.46151699999999</v>
+        <v>399.73043799999999</v>
       </c>
       <c r="I36">
-        <v>40.599651000000001</v>
+        <v>796.38201900000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-153.86186599999999</v>
+        <v>396.65158100000002</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-431.26542324999997</v>
+        <v>-259.33201718518455</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-246.87491543518522</v>
+        <v>-314.25640127777791</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>185989.86529100162</v>
+        <v>67253.095137336859</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>60947.223871129849</v>
+        <v>98757.085744059776</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>106468.6148949631</v>
+        <v>81496.746456722962</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>23673.473809001953</v>
+        <v>157332.47670979958</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>160589.96799503139</v>
+        <v>6788.9656414572819</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4514,42 +6067,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>229.06599399999999</v>
+        <v>525.58905000000004</v>
       </c>
       <c r="I37">
-        <v>126.51290899999999</v>
+        <v>820.245544</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-102.553085</v>
+        <v>294.65649399999995</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-345.35216524999998</v>
+        <v>-235.46849218518457</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-212.27043843518521</v>
+        <v>-188.39778927777786</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>119268.11804286329</v>
+        <v>55445.410811964328</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>45058.739033465754</v>
+        <v>35493.727004753993</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>73308.055532158032</v>
+        <v>44361.743372260484</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>10517.135243017225</v>
+        <v>86822.449456372007</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>99113.850908144625</v>
+        <v>11290.912329244384</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4566,42 +6119,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>510.726135</v>
+        <v>1219.908447</v>
       </c>
       <c r="I38">
-        <v>242.026398</v>
+        <v>1196.8671879999999</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-268.69973700000003</v>
+        <v>-23.041259000000082</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-229.83867624999996</v>
+        <v>141.15315181481537</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>69.389702564814797</v>
+        <v>505.92160772222212</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>52825.817100352295</v>
+        <v>19924.212267256316</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>4814.9308220334651</v>
+        <v>255956.67316023799</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>-15948.437382878261</v>
+        <v>71412.429501210296</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>72199.54866386918</v>
+        <v>530.89961630508481</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>39724.489826554709</v>
+        <v>233173.43118209476</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4618,42 +6171,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>981.05908199999999</v>
+        <v>1066.3558350000001</v>
       </c>
       <c r="I39">
-        <v>1202.6229249999999</v>
+        <v>1614.6099850000001</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>221.56384299999991</v>
+        <v>548.25414999999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>730.75785074999999</v>
+        <v>558.89594881481548</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>539.72264956481479</v>
+        <v>352.36899572222217</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>534007.03643275925</v>
+        <v>312364.68160161283</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>291300.53845326387</v>
+        <v>124163.90914628742</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>394406.56339707947</v>
+        <v>196937.604197095</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>49090.536524928604</v>
+        <v>300582.61299222248</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>579557.1237616376</v>
+        <v>811122.05061059096</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4670,42 +6223,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>524.08642599999996</v>
+        <v>535.66290300000003</v>
       </c>
       <c r="I40">
-        <v>579.41332999999997</v>
+        <v>1025.7650149999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>55.326904000000013</v>
+        <v>490.10211199999992</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>107.54825575000001</v>
+        <v>-29.94902118518462</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>82.749993564814758</v>
+        <v>-178.32393627777788</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>11566.62731486741</v>
+        <v>896.94386995063712</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>6847.5614349768839</v>
+        <v>31799.426249600983</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>8899.6174712195534</v>
+        <v>5340.6273454086813</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>3061.0663062252174</v>
+        <v>240200.08018686046</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>19065.229641124351</v>
+        <v>97205.630856676769</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4722,42 +6275,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>548.20336899999995</v>
+        <v>629.44635000000005</v>
       </c>
       <c r="I41">
-        <v>753.01348900000005</v>
+        <v>992.23205600000006</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>204.8101200000001</v>
+        <v>362.785706</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>281.14841475000009</v>
+        <v>-63.481980185184511</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>106.86693656481475</v>
+        <v>-84.540489277777851</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>79044.431116438063</v>
+        <v>4029.961808232159</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>11420.542130748139</v>
+        <v>7147.0943273260718</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>30045.469804386488</v>
+        <v>5366.7976651776971</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>41947.185254414442</v>
+        <v>131613.46847791845</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>97142.587588906797</v>
+        <v>77420.400628796371</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4774,42 +6327,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>475.01394699999997</v>
+        <v>1042.4613039999999</v>
       </c>
       <c r="I42">
-        <v>521.90570100000002</v>
+        <v>1137.719971</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>46.891754000000049</v>
+        <v>95.258667000000059</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>50.040626750000058</v>
+        <v>82.005934814815419</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>33.677514564814771</v>
+        <v>328.47446472222202</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>2504.0643255328214</v>
+        <v>6724.9733448517554</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>1134.1749872633111</v>
+        <v>107895.47397455027</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>1685.2439362055866</v>
+        <v>26936.855542341928</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>2198.8365931965204</v>
+        <v>9074.2136386169004</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>6491.4070370692571</v>
+        <v>179549.76691912202</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4826,42 +6379,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>492.56149299999998</v>
+        <v>1130.0858149999999</v>
       </c>
       <c r="I43">
-        <v>430.890961</v>
+        <v>1561.857788</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-61.67053199999998</v>
+        <v>431.77197300000012</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-40.974113249999959</v>
+        <v>506.14375181481546</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>51.225060564814783</v>
+        <v>416.09897572222201</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>1678.8779566238222</v>
+        <v>256181.49750117751</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>2624.0068298689425</v>
+        <v>173138.3575970823</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>-2098.9014328208277</v>
+        <v>210605.89669834726</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>3803.2545171630218</v>
+        <v>186427.03666831282</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>109.10787350326991</v>
+        <v>718885.14568712097</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4878,42 +6431,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>339.218323</v>
+        <v>456.208282</v>
       </c>
       <c r="I44">
-        <v>249.62434400000001</v>
+        <v>1216.6606449999999</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-89.59397899999999</v>
+        <v>760.45236299999988</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-222.24073024999996</v>
+        <v>160.94660881481536</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-102.1181094351852</v>
+        <v>-257.77855727777791</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>49390.942182053244</v>
+        <v>25903.810888989203</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>10428.108274616461</v>
+        <v>66449.784592212629</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>22694.803212624971</v>
+        <v>-41488.584619033994</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>8027.081073052439</v>
+        <v>578287.79639228364</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>36753.524852180271</v>
+        <v>252680.95495926222</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4930,42 +6483,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>309.17401100000001</v>
+        <v>434.57574499999998</v>
       </c>
       <c r="I45">
-        <v>169.43563800000001</v>
+        <v>970.26275599999997</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-139.738373</v>
+        <v>535.68701099999998</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-302.42943624999998</v>
+        <v>-85.451280185184601</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-132.16242143518519</v>
+        <v>-279.41109427777792</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>91463.563910492798</v>
+        <v>7301.9212852869223</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>17466.905639611497</v>
+        <v>78070.559605505303</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>39969.806608077975</v>
+        <v>23876.035703979429</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>19526.812888687127</v>
+        <v>286960.5737541141</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>73930.042014484818</v>
+        <v>65677.3454918153</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -4982,42 +6535,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>216.915222</v>
+        <v>406.96002199999998</v>
       </c>
       <c r="I46">
-        <v>61.893813999999999</v>
+        <v>803.92834500000004</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-155.02140800000001</v>
+        <v>396.96832300000005</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-409.97126024999994</v>
+        <v>-251.78569118518453</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-224.4212104351852</v>
+        <v>-307.02681727777792</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>168076.43423097319</v>
+        <v>63396.034285601112</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>50364.879693193681</v>
+        <v>94265.466527722034</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>92006.246468943311</v>
+        <v>77304.959400672669</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>24031.636938302465</v>
+        <v>157583.84946543237</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>143976.70068494952</v>
+        <v>8089.4744515805169</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5034,42 +6587,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>197.30638099999999</v>
+        <v>398.71585099999999</v>
       </c>
       <c r="I47">
-        <v>34.411304000000001</v>
+        <v>705.91772500000002</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-162.89507699999999</v>
+        <v>307.20187400000003</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-437.45377024999993</v>
+        <v>-349.79631118518455</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-244.03005143518521</v>
+        <v>-315.27098827777792</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>191365.80110593972</v>
+        <v>122357.45931876247</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>59550.66600345914</v>
+        <v>99395.796049646786</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>106751.86605462318</v>
+        <v>110280.62872327428</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>26534.806110835925</v>
+        <v>94372.991389111892</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>165588.06015199199</v>
+        <v>65.110605227838917</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5086,42 +6639,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>222.48667900000001</v>
+        <v>396.80670199999997</v>
       </c>
       <c r="I48">
-        <v>61.766506</v>
+        <v>715.51385500000004</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-160.72017300000002</v>
+        <v>318.70715300000006</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-410.09856824999997</v>
+        <v>-340.20018118518453</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-218.84975343518519</v>
+        <v>-317.18013727777793</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>168180.83568069988</v>
+        <v>115736.16327843239</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>47895.214578641353</v>
+        <v>100603.23948355006</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>89749.970545634962</v>
+        <v>107904.74017024176</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>25830.974009149933</v>
+        <v>101574.24937336546</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>144073.32905401191</v>
+        <v>2.3317770159135778</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5138,42 +6691,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>283.24401899999998</v>
+        <v>494.49713100000002</v>
       </c>
       <c r="I49">
-        <v>202.870575</v>
+        <v>822.73376499999995</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-80.373443999999978</v>
+        <v>328.23663399999992</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-268.99449924999999</v>
+        <v>-232.98027118518462</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-158.09241343518522</v>
+        <v>-219.48970827777788</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>72358.040626758244</v>
+        <v>54279.806761522166</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>24993.211185761535</v>
+        <v>48175.732039864037</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>42525.989587221622</v>
+        <v>51136.771756913753</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>6459.8905004211329</v>
+        <v>107739.28789964991</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>56865.965162298075</v>
+        <v>11825.893854034479</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5190,42 +6743,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>340.37512199999998</v>
+        <v>568.45214799999997</v>
       </c>
       <c r="I50">
-        <v>328.30999800000001</v>
+        <v>812.07128899999998</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-12.065123999999969</v>
+        <v>243.61914100000001</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-143.55507624999996</v>
+        <v>-243.64274718518459</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-100.96131043518523</v>
+        <v>-145.53469127777794</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>20608.059917143302</v>
+        <v>59361.788255943771</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>10193.186204789841</v>
+        <v>21180.346365318135</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>14493.508617822932</v>
+        <v>35458.471993665538</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>145.56721713537524</v>
+        <v>59350.28586157789</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>12774.974881131218</v>
+        <v>9620.5592773111093</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5242,42 +6795,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>332.3349</v>
+        <v>556.50811799999997</v>
       </c>
       <c r="I51">
-        <v>267.64648399999999</v>
+        <v>851.21130400000004</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-64.688416000000018</v>
+        <v>294.70318600000007</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-204.21859024999998</v>
+        <v>-204.50273218518453</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-109.0015324351852</v>
+        <v>-157.47872127777794</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>41705.232603697383</v>
+        <v>41821.367471205311</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>11881.33407321873</v>
+        <v>24799.54765528407</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>22260.139289003168</v>
+        <v>32204.828762334742</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>4184.5911645890583</v>
+        <v>86849.967838550641</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>30168.1981874173</v>
+        <v>18830.553718300387</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5294,42 +6847,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>377.57681300000002</v>
+        <v>639.72113000000002</v>
       </c>
       <c r="I52">
-        <v>467.49136399999998</v>
+        <v>861.99066200000004</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>89.91455099999996</v>
+        <v>222.26953200000003</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.3737102499999878</v>
+        <v>-193.72337418518453</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-63.759619435185186</v>
+        <v>-74.265709277777887</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>19.129341350954956</v>
+        <v>37528.745705693022</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>4065.2890705196446</v>
+        <v>5515.3955745314242</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>278.86610105976786</v>
+        <v>14387.003787547095</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>8084.6264815315935</v>
+        <v>49403.744855499033</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>684.08044516014422</v>
+        <v>21905.131540390958</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5346,42 +6899,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>975.05383300000005</v>
+        <v>1364.0234379999999</v>
       </c>
       <c r="I53">
-        <v>380.68139600000001</v>
+        <v>1630.7633060000001</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-594.37243699999999</v>
+        <v>266.73986800000011</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-91.183678249999957</v>
+        <v>575.04926981481549</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>533.71740056481485</v>
+        <v>650.03659872222204</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>8314.4631791995162</v>
+        <v>330681.66271455248</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>284854.26366566302</v>
+        <v>422547.57967835513</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>-48666.315729528425</v>
+        <v>373803.07144812</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>353278.59386531898</v>
+        <v>71150.157180657479</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>3679.0334449536435</v>
+        <v>840479.08993568167</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5398,42 +6951,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>916.92956500000003</v>
+        <v>1839.16687</v>
       </c>
       <c r="I54">
-        <v>1369.4798579999999</v>
+        <v>1952.201294</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>452.5502929999999</v>
+        <v>113.03442399999994</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>897.61478375000002</v>
+        <v>896.48725781481539</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>475.59313256481482</v>
+        <v>1125.180030722222</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>805712.30000655924</v>
+        <v>803689.40342432726</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>226188.82774281353</v>
+        <v>1266030.1015360605</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>426899.42684015137</v>
+        <v>1008709.5602901545</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>204801.76769438575</v>
+        <v>12776.781009011764</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>861450.21841918875</v>
+        <v>1533175.0358830495</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5450,42 +7003,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>570.23651099999995</v>
+        <v>796.79888900000003</v>
       </c>
       <c r="I55">
-        <v>692.77044699999999</v>
+        <v>1413.715332</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>122.53393600000004</v>
+        <v>616.91644299999996</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>220.90537275000003</v>
+        <v>358.00129581481542</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>128.90007856481475</v>
+        <v>82.812049722222127</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>48799.183709816454</v>
+        <v>128164.92780508698</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>16615.230254015416</v>
+        <v>6857.8355791957902</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>28474.71990286469</v>
+        <v>29646.821109636447</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>15014.565471652106</v>
+        <v>380585.89764377219</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>63219.063680179497</v>
+        <v>489619.96352731279</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5502,42 +7055,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>452.23498499999999</v>
+        <v>649.08575399999995</v>
       </c>
       <c r="I56">
-        <v>484.53933699999999</v>
+        <v>1292.4205320000001</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>32.304351999999994</v>
+        <v>643.33477800000014</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>12.674262750000025</v>
+        <v>236.70649581481553</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>10.898552564814793</v>
+        <v>-64.901085277777952</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>160.63693625603821</v>
+        <v>56029.965160929278</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>118.77844800803109</v>
+        <v>4212.1508702334058</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>138.13111880114937</v>
+        <v>-15362.508470681332</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1043.5711581399037</v>
+        <v>413879.63658430945</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>1866.4909628364944</v>
+        <v>334585.53687626618</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5554,42 +7107,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>273.484283</v>
+        <v>425.09390300000001</v>
       </c>
       <c r="I57">
-        <v>155.090103</v>
+        <v>911.171875</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-118.39418000000001</v>
+        <v>486.07797199999999</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-316.77497124999996</v>
+        <v>-144.54216118518457</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-167.8521494351852</v>
+        <v>-288.89293627777789</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>100346.38241043831</v>
+        <v>20892.436360083877</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>28174.344070011743</v>
+        <v>83459.128631196232</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>53171.359811581489</v>
+        <v>41757.209360723828</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>14017.181857872401</v>
+        <v>236271.79486363276</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>81936.961115116574</v>
+        <v>38881.938312774007</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5606,42 +7159,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>217.67448400000001</v>
+        <v>406.121307</v>
       </c>
       <c r="I58">
-        <v>68.851746000000006</v>
+        <v>850.10467500000004</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-148.82273800000002</v>
+        <v>443.98336800000004</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-403.01332824999997</v>
+        <v>-205.60936118518453</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-223.6619484351852</v>
+        <v>-307.8655322777779</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>162419.74274714221</v>
+        <v>42275.209406979666</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>50024.667177823438</v>
+        <v>94781.185964679506</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>90138.746241743866</v>
+        <v>63300.03542257072</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>22148.207345816649</v>
+        <v>197121.23106062345</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>138744.84162871825</v>
+        <v>18528.065201701855</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5658,42 +7211,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>195.729782</v>
+        <v>399.262024</v>
       </c>
       <c r="I59">
-        <v>34.378563</v>
+        <v>766.54736300000002</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-161.35121900000001</v>
+        <v>367.28533900000002</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-437.48651124999998</v>
+        <v>-289.16667318518455</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-245.6066504351852</v>
+        <v>-314.72481527777791</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>191394.44752569636</v>
+        <v>83617.364880987327</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>60322.626737991261</v>
+        <v>99051.70935163142</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>107449.59663868746</v>
+        <v>91007.92780269678</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>26034.215872785964</v>
+        <v>134898.52024434492</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>165614.70749522524</v>
+        <v>2762.6086539542739</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5710,42 +7263,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>196.65347299999999</v>
+        <v>395.71624800000001</v>
       </c>
       <c r="I60">
-        <v>29.98443</v>
+        <v>708.05377199999998</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-166.66904299999999</v>
+        <v>312.33752399999997</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-441.88064424999999</v>
+        <v>-347.66026418518459</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-244.68295943518521</v>
+        <v>-318.2705912777779</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>195258.50376279504</v>
+        <v>120867.65929331235</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>59869.750637960489</v>
+        <v>101296.16927230635</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>108120.66375221625</v>
+        <v>110650.03784600717</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>27778.569894535845</v>
+        <v>97554.728898450558</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>169210.46990743664</v>
+        <v>35.201287322639132</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5762,42 +7315,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>230.44549599999999</v>
+        <v>448.34594700000002</v>
       </c>
       <c r="I61">
-        <v>77.778496000000004</v>
+        <v>698.65429700000004</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-152.66699999999997</v>
+        <v>250.30835000000002</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-394.08657824999995</v>
+        <v>-357.05973918518453</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-210.89093643518521</v>
+        <v>-265.64089227777788</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>155304.23115679334</v>
+        <v>127491.657346992</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>44474.987070509327</v>
+        <v>70565.083650133995</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>83109.287523680381</v>
+        <v>94849.667713623072</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>23307.212888999991</v>
+        <v>62654.270079722512</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>132174.37314501015</v>
+        <v>235.08685269984554</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5814,42 +7367,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>392.23529100000002</v>
+        <v>1260.344482</v>
       </c>
       <c r="I62">
-        <v>478.47592200000003</v>
+        <v>1033.2142329999999</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>86.240631000000008</v>
+        <v>-227.13024900000005</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>6.6108477500000618</v>
+        <v>-22.499803185184646</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-49.101141435185184</v>
+        <v>546.35764272222207</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>43.703307973680879</v>
+        <v>506.24114337204514</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>2410.9220902380594</v>
+        <v>298506.67376098328</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-324.60017037922876</v>
+        <v>-12292.939429971428</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>7437.4464352781624</v>
+        <v>51588.150010802026</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1379.3416851349891</v>
+        <v>101906.12890268255</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5866,42 +7419,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>752.83679199999995</v>
+        <v>1395.111938</v>
       </c>
       <c r="I63">
-        <v>1144.134888</v>
+        <v>1513.271606</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>391.2980960000001</v>
+        <v>118.15966800000001</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>672.26981375000014</v>
+        <v>457.55756981481545</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>311.50035956481474</v>
+        <v>681.12509872222211</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>451946.70247945987</v>
+        <v>209358.92969483972</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>97032.474009008874</v>
+        <v>463931.40010935679</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>209412.28870769608</v>
+        <v>311653.94491121621</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>153114.19993322529</v>
+        <v>13961.707141870227</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>493925.66914428904</v>
+        <v>638856.13831419707</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5918,42 +7471,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>457.95837399999999</v>
+        <v>790.02154499999995</v>
       </c>
       <c r="I64">
-        <v>681.47070299999996</v>
+        <v>1260.665405</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>223.51232899999997</v>
+        <v>470.64386000000002</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>209.60562874999999</v>
+        <v>204.9513688148154</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>16.62194156481479</v>
+        <v>76.034705722222043</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>43934.519603682827</v>
+        <v>42005.063579066482</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>276.28894138411755</v>
+        <v>5781.2764742649051</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>3484.0525127387627</v>
+        <v>15583.417015201085</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>49957.761215004226</v>
+        <v>221505.64295569962</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>57664.467899695657</v>
+        <v>298857.45422010589</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -5970,42 +7523,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>475.75552399999998</v>
+        <v>753.03955099999996</v>
       </c>
       <c r="I65">
-        <v>734.77398700000003</v>
+        <v>1210.1175539999999</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>259.01846300000005</v>
+        <v>457.07800299999997</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>262.90891275000007</v>
+        <v>154.40351781481536</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>34.419091564814778</v>
+        <v>39.052711722222057</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>69121.096403387142</v>
+        <v>23840.446313590004</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>1184.6738641471038</v>
+        <v>1525.11429285898</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>9049.0859411481524</v>
+        <v>6029.8760701189622</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>67090.564174882398</v>
+        <v>208920.30082646798</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>86105.598428978687</v>
+        <v>246145.68609078287</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6022,42 +7575,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>405.29562399999998</v>
+        <v>474.180634</v>
       </c>
       <c r="I66">
-        <v>394.23089599999997</v>
+        <v>930.53008999999997</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-11.064728000000002</v>
+        <v>456.34945599999998</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-77.634178249999991</v>
+        <v>-125.1839461851846</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-36.040808435185227</v>
+        <v>-239.80620527777791</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>6027.0656325527716</v>
+        <v>15671.020382495193</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1298.9398726617185</v>
+        <v>57507.016089727753</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2797.9985463312732</v>
+        <v>30019.887096366678</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>122.42820571398406</v>
+        <v>208254.82599149592</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>2218.9315628465633</v>
+        <v>46890.979433347129</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6074,42 +7627,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>443.66198700000001</v>
+        <v>517.30841099999998</v>
       </c>
       <c r="I67">
-        <v>380.46527099999997</v>
+        <v>944.802368</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-63.196716000000038</v>
+        <v>427.49395700000002</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-91.399803249999991</v>
+        <v>-110.91166818518457</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>2.3255545648148086</v>
+        <v>-196.67842827777793</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>8353.9240341387085</v>
+        <v>12301.398139620482</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>5.4082040339309936</v>
+        <v>38682.404149817034</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>-212.55522967121286</v>
+        <v>21813.932576328527</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>3993.8249131846605</v>
+        <v>182751.08327151785</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3705.2982944683813</v>
+        <v>53275.808299318931</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6126,42 +7679,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>301.61782799999997</v>
+        <v>420.49987800000002</v>
       </c>
       <c r="I68">
-        <v>172.18266299999999</v>
+        <v>763.13403300000004</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-129.43516499999998</v>
+        <v>342.63415500000002</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-299.68241124999997</v>
+        <v>-292.58000318518452</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-139.71860443518523</v>
+        <v>-293.48696127777788</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>89809.547612614115</v>
+        <v>85603.058263842584</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>19521.288425315761</v>
+        <v>86134.596440063891</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>41871.208273621247</v>
+        <v>85868.416065462385</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>16753.46193857722</v>
+        <v>117398.16417256404</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>72443.751601168842</v>
+        <v>2415.4466507696316</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6178,42 +7731,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>219.76473999999999</v>
+        <v>400.55059799999998</v>
       </c>
       <c r="I69">
-        <v>82.549271000000005</v>
+        <v>692.95660399999997</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>-137.21546899999998</v>
+        <v>292.40600599999999</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-389.31580324999993</v>
+        <v>-362.7574321851846</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-221.57169243518521</v>
+        <v>-313.43624127777792</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>151566.79466019265</v>
+        <v>131592.95460558881</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>49094.014888592312</v>
+        <v>98242.27734634142</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>86261.361417866065</v>
+        <v>113701.32603970269</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>18828.084932889957</v>
+        <v>85501.272344872035</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>128728.22721071767</v>
+        <v>442.27079583869551</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6230,42 +7783,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>179.75689700000001</v>
+        <v>393.38009599999998</v>
       </c>
       <c r="I70">
-        <v>35.783707</v>
+        <v>624.40258800000004</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>-143.97319000000002</v>
+        <v>231.02249200000006</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-436.08136724999997</v>
+        <v>-431.31144818518453</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-261.57953543518522</v>
+        <v>-320.60674327777792</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>190166.95886262934</v>
+        <v>186029.56533560113</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>68423.853358487322</v>
+        <v>102788.68383518299</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>114069.96145719539</v>
+        <v>138281.35874107407</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>20728.279438776106</v>
+        <v>53371.39180989009</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>164473.01310790671</v>
+        <v>8025.3380770000449</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6282,42 +7835,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>176.916763</v>
+        <v>389.88262900000001</v>
       </c>
       <c r="I71">
-        <v>19.473002999999999</v>
+        <v>608.09906000000001</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>-157.44376</v>
+        <v>218.216431</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-452.39207124999996</v>
+        <v>-447.61497618518456</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-264.4196694351852</v>
+        <v>-324.1042102777779</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>204658.58612986503</v>
+        <v>200359.16690526335</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>69917.761584212611</v>
+        <v>105043.53911978207</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>119621.36193502374</v>
+        <v>145073.89836500559</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>24788.537562937599</v>
+        <v>47618.410758377759</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>177968.75309481547</v>
+        <v>11212.22180037941</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6334,42 +7887,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>182.92454499999999</v>
+        <v>386.87347399999999</v>
       </c>
       <c r="I72">
-        <v>23.638721</v>
+        <v>574.85827600000005</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-159.28582399999999</v>
+        <v>187.98480200000006</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-448.22635324999999</v>
+        <v>-480.85576018518452</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-258.41188743518524</v>
+        <v>-327.11336527777792</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>200906.86374779377</v>
+        <v>231222.2621032717</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>66776.703567814839</v>
+        <v>107003.15374335296</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>115827.01794152257</v>
+        <v>157294.34592737985</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>25371.973727358974</v>
+        <v>35338.285782979226</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>174471.37813819127</v>
+        <v>19356.757119738639</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6386,42 +7939,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>179.27148399999999</v>
+        <v>383.97323599999999</v>
       </c>
       <c r="I73">
-        <v>27.850822000000001</v>
+        <v>555.50769000000003</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-151.42066199999999</v>
+        <v>171.53445400000004</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-444.01425224999997</v>
+        <v>-500.20634618518454</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-262.06494843518522</v>
+        <v>-330.01360327777792</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>197148.65620112661</v>
+        <v>250206.38876393269</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>68678.037198336286</v>
+        <v>108908.97834838259</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>116360.57212038356</v>
+        <v>165074.89868698432</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>22928.216880518241</v>
+        <v>29424.068909078131</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>170970.35003695774</v>
+        <v>25115.640755808206</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6438,42 +7991,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>261.98361199999999</v>
+        <v>787.59930399999996</v>
       </c>
       <c r="I74">
-        <v>171.47735599999999</v>
+        <v>713.16815199999996</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-90.506256000000008</v>
+        <v>-74.431151999999997</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-300.38771824999998</v>
+        <v>-342.5458841851846</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>-179.35282043518521</v>
+        <v>73.612464722222057</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>90232.781275441375</v>
+        <v>117337.6827722099</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>32167.434198055787</v>
+        <v>5418.7949624803869</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>53875.384492227255</v>
+        <v>-25215.646815324264</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>8191.3823751375376</v>
+        <v>5539.9963880471032</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>72823.921134451142</v>
+        <v>0.67024885879545382</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6490,42 +8043,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>957.469604</v>
+        <v>1423.3125</v>
       </c>
       <c r="I75">
-        <v>1799.2924800000001</v>
+        <v>1351.6357419999999</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>841.82287600000006</v>
+        <v>-71.676758000000063</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>1327.4274057500002</v>
+        <v>295.92170581481537</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>516.1331715648148</v>
+        <v>709.3256607222221</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>1762063.5175361757</v>
+        <v>87569.655972350127</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>266393.45078955457</v>
+        <v>503142.89295901696</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>685129.31695180188</v>
+        <v>209904.85949914093</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>708665.75455691153</v>
+        <v>5137.5576373905733</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>1844044.6271178541</v>
+        <v>406596.12314285379</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6542,42 +8095,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>714.54162599999995</v>
+        <v>1307.6096190000001</v>
       </c>
       <c r="I76">
-        <v>1022.244202</v>
+        <v>1099.654419</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>307.70257600000002</v>
+        <v>-207.9552000000001</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>550.37912774999995</v>
+        <v>43.940382814815393</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>273.20519356481475</v>
+        <v>593.62277972222216</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>302917.18426285079</v>
+        <v>1930.757241912524</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>74641.077790787895</v>
+        <v>352388.00460513792</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>150366.43613097264</v>
+        <v>26084.012188589273</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>94680.875277035782</v>
+        <v>43245.365207040042</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>337453.83674076793</v>
+        <v>148739.48204879652</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6594,42 +8147,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>676.13195800000005</v>
+        <v>1336.3754879999999</v>
       </c>
       <c r="I77">
-        <v>926.53161599999999</v>
+        <v>1394.8095699999999</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>250.39965799999993</v>
+        <v>58.434081999999989</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>454.66654175000002</v>
+        <v>339.09553381481533</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>234.79552556481485</v>
+        <v>622.388648722222</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>206721.66418690453</v>
+        <v>114985.78105315457</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>55128.938825257625</v>
+        <v>387367.63005827344</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>106753.66962692809</v>
+        <v>211049.21107874345</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>62699.988726516931</v>
+        <v>3414.5419391827227</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>235414.36615449432</v>
+        <v>463519.5906680632</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6646,42 +8199,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>868.09912099999997</v>
+        <v>1200.4194339999999</v>
       </c>
       <c r="I78">
-        <v>1124.2146</v>
+        <v>1485.4270019999999</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>256.11547900000005</v>
+        <v>285.00756799999999</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>652.34952575000011</v>
+        <v>429.71296581481533</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>426.76268856481477</v>
+        <v>486.43259472222201</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>425559.90374625009</v>
+        <v>184653.23298936465</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>182126.39235106908</v>
+        <v>236616.66920819349</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>278398.43749305193</v>
+        <v>209026.39294708212</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>65595.138583399472</v>
+        <v>81229.313817274626</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>466322.59173667931</v>
+        <v>595119.92466088838</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6698,42 +8251,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>444.843842</v>
+        <v>500.92709400000001</v>
       </c>
       <c r="I79">
-        <v>439.63168300000001</v>
+        <v>1372.7429199999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>-5.2121589999999856</v>
+        <v>871.8158259999999</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-32.233391249999954</v>
+        <v>317.02888381481534</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>3.5074095648147932</v>
+        <v>-213.05974527777789</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>1038.9915114755736</v>
+        <v>100507.31317286768</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>12.301921855354296</v>
+        <v>45394.455057831598</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-113.0557047766673</v>
+        <v>-67546.093231282794</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>27.16660144128085</v>
+        <v>760062.83446406212</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>2.9061706367642324</v>
+        <v>433959.57388850267</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6750,42 +8303,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>301.100525</v>
+        <v>436.33517499999999</v>
       </c>
       <c r="I80">
-        <v>195.84678600000001</v>
+        <v>976.98852499999998</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>-105.253739</v>
+        <v>540.65335000000005</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-276.01828824999996</v>
+        <v>-78.725511185184587</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-140.2359074351852</v>
+        <v>-277.65166427777791</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>76186.095448460066</v>
+        <v>6197.7061113686232</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>19666.10973416983</v>
+        <v>77090.446676219901</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>38707.67512144526</v>
+        <v>21858.269201685322</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>11078.34957348012</v>
+        <v>292306.04486622254</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>60265.166506872236</v>
+        <v>69169.886692730477</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6802,42 +8355,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>251.96376000000001</v>
+        <v>409.02572600000002</v>
       </c>
       <c r="I81">
-        <v>95.190078999999997</v>
+        <v>799.22711200000003</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>-156.77368100000001</v>
+        <v>390.20138600000001</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-376.67499524999994</v>
+        <v>-256.48692418518453</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-189.37267243518519</v>
+        <v>-304.96111327777788</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>141884.05204658749</v>
+        <v>65785.542277976594</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>35862.009065243947</v>
+        <v>93001.280611621667</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>71331.950490003175</v>
+        <v>78218.537940706883</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>24577.987054289766</v>
+        <v>152257.12163632101</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>119817.29799647618</v>
+        <v>7265.9040937588061</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6854,42 +8407,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>218.43057300000001</v>
+        <v>400.65811200000002</v>
       </c>
       <c r="I82">
-        <v>52.746143000000004</v>
+        <v>703.88140899999996</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>-165.68443000000002</v>
+        <v>303.22329699999995</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-419.11893124999995</v>
+        <v>-351.83262718518461</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-222.90585943518519</v>
+        <v>-313.32872727777789</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>175660.67853214219</v>
+        <v>123786.1975520291</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>49687.022170538541</v>
+        <v>98174.891337512119</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>93424.065575837536</v>
+        <v>110239.26929073081</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>27451.330344424907</v>
+        <v>91944.367843550179</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>151002.41304332099</v>
+        <v>102.11972109903115</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6906,42 +8459,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>186.17387400000001</v>
+        <v>396.101563</v>
       </c>
       <c r="I83">
-        <v>23.016473999999999</v>
+        <v>636.21698000000004</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>-163.15740000000002</v>
+        <v>240.11541700000004</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-448.84860024999995</v>
+        <v>-419.49705618518453</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-255.16255843518519</v>
+        <v>-317.8852762777779</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>201465.06594638425</v>
+        <v>175977.78014803588</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>65107.9312271893</v>
+        <v>101051.04887419919</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>114529.35718984168</v>
+        <v>133351.93760314191</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>26620.337174760007</v>
+        <v>57655.41348108391</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>174991.58762521506</v>
+        <v>6048.1510120853727</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -6958,42 +8511,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>190.89115899999999</v>
+        <v>392.82687399999998</v>
       </c>
       <c r="I84">
-        <v>22.703617000000001</v>
+        <v>590.60699499999998</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-168.18754199999998</v>
+        <v>197.78012100000001</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-449.16145724999996</v>
+        <v>-465.10704118518458</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-250.44527343518521</v>
+        <v>-321.15996527777793</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>201746.01467894352</v>
+        <v>216324.55976003699</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>62722.834986024689</v>
+        <v>103143.72329722352</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>112490.36397752249</v>
+        <v>149373.76119748392</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>28287.049284001758</v>
+        <v>39116.976262774646</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>175253.43415918984</v>
+        <v>15222.585974008729</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7010,42 +8563,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>393.79522700000001</v>
+        <v>1190.0145259999999</v>
       </c>
       <c r="I85">
-        <v>402.845978</v>
+        <v>980.22009300000002</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>9.0507509999999911</v>
+        <v>-209.79443299999991</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>-69.019096249999961</v>
+        <v>-75.493943185184548</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>-47.541205435185191</v>
+        <v>476.02768672222203</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>4763.6356471667586</v>
+        <v>5699.3354576478723</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>2260.1662142304817</v>
+        <v>226602.35852610995</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>3281.2510337720678</v>
+        <v>-35937.207135982258</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>81.91609366400084</v>
+        <v>44013.704117791451</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>1481.5150826270681</v>
+        <v>70880.145387521101</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7062,42 +8615,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>506.20892300000003</v>
+        <v>877.31616199999996</v>
       </c>
       <c r="I86">
-        <v>647.79370100000006</v>
+        <v>992.93054199999995</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>141.58477800000003</v>
+        <v>115.61437999999998</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>175.92862675000009</v>
+        <v>-62.783494185184622</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>64.872490564814825</v>
+        <v>163.32932272222206</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>30950.881710140849</v>
+        <v>3941.7671421011114</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>4208.4400320819886</v>
+        <v>26676.467660899762</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>11412.92817892021</v>
+        <v>-10254.385583400772</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>20046.249361309292</v>
+        <v>13366.684862784396</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>42624.603743244086</v>
+        <v>77809.589288383388</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7114,42 +8667,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>774.52142300000003</v>
+        <v>553.19439699999998</v>
       </c>
       <c r="I87">
-        <v>1322.5902100000001</v>
+        <v>1040.915649</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>548.06878700000004</v>
+        <v>487.72125200000005</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>850.72513575000016</v>
+        <v>-14.798387185184538</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>333.18499056481483</v>
+        <v>-160.79244227777792</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>723733.25659685617</v>
+        <v>218.99226328263396</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>111012.23793767575</v>
+        <v>25854.209493652546</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>283448.84632811463</v>
+        <v>2379.4688172779934</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>300379.39528365142</v>
+        <v>237872.01965244755</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>776608.22047225619</v>
+        <v>106882.44662638892</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7166,42 +8719,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>305.369507</v>
+        <v>411.354736</v>
       </c>
       <c r="I88">
-        <v>878.75824</v>
+        <v>924.10693400000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>573.388733</v>
+        <v>512.75219800000002</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>406.89316575000004</v>
+        <v>-131.60710218518454</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-135.9669254351852</v>
+        <v>-302.6321032777779</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>165562.04833405701</v>
+        <v>17320.429345581608</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>18487.004812297211</v>
+        <v>91586.189934331633</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>-55324.012727616711</v>
+        <v>39828.534140595839</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>328774.63913134526</v>
+        <v>262914.81655383122</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>191337.83773326987</v>
+        <v>44150.454206075599</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7218,42 +8771,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>945.14306599999998</v>
+        <v>1106.007568</v>
       </c>
       <c r="I89">
-        <v>1536.482422</v>
+        <v>1413.880981</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>591.33935600000007</v>
+        <v>307.87341300000003</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>1064.6173477500001</v>
+        <v>358.16694481481545</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>503.80663356481477</v>
+        <v>392.02072872222209</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>1133410.0971302448</v>
+        <v>128283.56035797906</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>253821.12402391154</v>
+        <v>153680.25174790205</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>536361.28200462926</v>
+        <v>140408.86671051587</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>349682.23395449482</v>
+        <v>94786.038432268586</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>1199344.7384598977</v>
+        <v>489851.80961708596</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7270,42 +8823,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>1706.5040280000001</v>
+        <v>2542.1633299999999</v>
       </c>
       <c r="I90">
-        <v>1923.0491939999999</v>
+        <v>1728.1054690000001</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>216.54516599999988</v>
+        <v>-814.05786099999978</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>1451.18411975</v>
+        <v>672.39143281481552</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>1265.1675955648147</v>
+        <v>1828.1764907222218</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>2105935.3494145824</v>
+        <v>452110.23892276059</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>1600649.0448672546</v>
+        <v>3342229.2812294182</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>1835991.1235059497</v>
+        <v>1229250.2100350761</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>46891.808917967508</v>
+        <v>662690.20105589496</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>2195472.7077840292</v>
+        <v>1028436.5951496776</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7322,42 +8875,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>709.93566899999996</v>
+        <v>1280.238159</v>
       </c>
       <c r="I91">
-        <v>937.92755099999999</v>
+        <v>1762.0623780000001</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>227.99188200000003</v>
+        <v>481.82421900000008</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>466.06247675000003</v>
+        <v>706.34834181481551</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>268.59923656481476</v>
+        <v>566.25131972222209</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>217214.23223434432</v>
+        <v>498927.97998453944</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>72145.549883201325</v>
+        <v>320640.5570871582</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>125184.02544655674</v>
+        <v>399970.6807362425</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>51980.298257901937</v>
+        <v>232154.57801496005</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>246602.73903745395</v>
+        <v>1098462.334867876</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7374,42 +8927,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>506.51361100000003</v>
+        <v>530.292419</v>
       </c>
       <c r="I92">
-        <v>577.82372999999995</v>
+        <v>1765.6082759999999</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>71.310118999999929</v>
+        <v>1235.3158570000001</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>105.95865574999999</v>
+        <v>709.89423981481536</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>65.177178564814824</v>
+        <v>-183.69442027777791</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>11227.236728347007</v>
+        <v>503949.83172225457</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>4248.0646056697569</v>
+        <v>33743.640041188904</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>6906.0862263054923</v>
+        <v>-130403.61084131635</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>5085.133071794151</v>
+        <v>1526005.2665556446</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>18628.782396546289</v>
+        <v>1105907.6461737102</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7426,42 +8979,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>293.807343</v>
+        <v>427.36657700000001</v>
       </c>
       <c r="I93">
-        <v>184.39047199999999</v>
+        <v>1199.4376219999999</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>-109.41687100000001</v>
+        <v>772.07104499999991</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>-287.47460224999998</v>
+        <v>143.72358581481535</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-147.5290894351852</v>
+        <v>-286.6202622777779</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>82641.646938795689</v>
+        <v>20656.469119468591</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>21764.832229574873</v>
+        <v>82151.174748182195</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>42410.86630568454</v>
+        <v>-41194.091861745095</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>11972.051659430645</v>
+        <v>596093.69852739188</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>66021.226583959768</v>
+        <v>235662.462445618</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7478,42 +9031,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>208.600739</v>
+        <v>413.72854599999999</v>
       </c>
       <c r="I94">
-        <v>67.474593999999996</v>
+        <v>910.91625999999997</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>-141.12614500000001</v>
+        <v>497.18771399999997</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-404.39048025</v>
+        <v>-144.7977761851846</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-232.7356934351852</v>
+        <v>-300.25829327777791</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>163531.66051682565</v>
+        <v>20966.395988174812</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>54165.902998756508</v>
+        <v>90155.042682084095</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>94116.098839571307</v>
+        <v>43476.733147781204</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>19916.588802561026</v>
+        <v>247195.62295254576</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>139772.6742381365</v>
+        <v>38781.196745989946</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7530,42 +9083,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>203.947281</v>
+        <v>408.86523399999999</v>
       </c>
       <c r="I95">
-        <v>31.208216</v>
+        <v>778.49505599999998</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>-172.73906500000001</v>
+        <v>369.62982199999999</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-440.65685824999997</v>
+        <v>-277.21898018518459</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-237.3891514351852</v>
+        <v>-305.12160527777792</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>194178.46672276055</v>
+        <v>76850.362974913762</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>56353.609219117294</v>
+        <v>93099.194007288112</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>104607.15765406218</v>
+        <v>84585.500247572025</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>29838.784577074228</v>
+        <v>136626.20531175166</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>168205.15391630612</v>
+        <v>4161.3100246811719</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7582,42 +9135,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>216.201447</v>
+        <v>410.989777</v>
       </c>
       <c r="I96">
-        <v>38.002150999999998</v>
+        <v>672.80059800000004</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-178.199296</v>
+        <v>261.81082100000003</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-433.86292324999999</v>
+        <v>-382.91343818518453</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-225.1349854351852</v>
+        <v>-302.9970622777779</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>188237.03617103538</v>
+        <v>146622.70114279914</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>50685.761666901053</v>
+        <v>91807.219748963616</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>97677.722906755618</v>
+        <v>116021.64687679442</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>31754.989094895616</v>
+        <v>68544.905992694054</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>162678.54258083715</v>
+        <v>1696.3064705913334</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7634,42 +9187,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>307.53720099999998</v>
+        <v>643.694885</v>
       </c>
       <c r="I97">
-        <v>171.70541399999999</v>
+        <v>888.09045400000002</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-135.83178699999999</v>
+        <v>244.39556900000002</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-300.15966025</v>
+        <v>-167.62358218518455</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>-133.79923143518522</v>
+        <v>-70.291954277777904</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>90095.821641395436</v>
+        <v>28097.665304593316</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>17902.234332646258</v>
+        <v>4940.9588361892193</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>40161.131849296318</v>
+        <v>11782.589174838338</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>18450.274359613366</v>
+        <v>59729.194146833775</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>72700.886102395176</v>
+        <v>30312.068659343957</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7686,42 +9239,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>578.402466</v>
+        <v>1257.695557</v>
       </c>
       <c r="I98">
-        <v>620.50982699999997</v>
+        <v>1267.0722659999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>42.107360999999969</v>
+        <v>9.3767089999998916</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>148.64475275000001</v>
+        <v>211.35822981481533</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>137.0660335648148</v>
+        <v>543.7087177222221</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>22095.262520108634</v>
+        <v>44672.301310452291</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>18787.097557190937</v>
+        <v>295619.16972714302</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>20374.146669665097</v>
+        <v>114917.31211265198</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>1773.0298503843185</v>
+        <v>87.922671670678966</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>32103.105319878796</v>
+        <v>305903.48925250239</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7738,42 +9291,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>317.61395299999998</v>
+        <v>493.29040500000002</v>
       </c>
       <c r="I99">
-        <v>498.21441700000003</v>
+        <v>1044.9929199999999</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>180.60046400000004</v>
+        <v>551.70251499999995</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>26.349342750000062</v>
+        <v>-10.721116185184655</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-123.72247943518522</v>
+        <v>-220.69643427777788</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>694.28786335698078</v>
+        <v>114.94233225622838</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>15307.251917589831</v>
+        <v>48706.916102925534</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>-3260.0060165175296</v>
+        <v>2366.1121135480262</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>32616.527597015312</v>
+        <v>304375.66505732515</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>3235.1051281553132</v>
+        <v>109565.02547508615</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7790,42 +9343,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>891.24127199999998</v>
+        <v>1133.4672849999999</v>
       </c>
       <c r="I100">
-        <v>939.29571499999997</v>
+        <v>1216.7695309999999</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>48.054442999999992</v>
+        <v>83.302245999999968</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>467.43064075000001</v>
+        <v>161.05549481481535</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>449.90483956481478</v>
+        <v>419.48044572222204</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>218491.40391195557</v>
+        <v>25938.872410045013</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>202414.36466384173</v>
+        <v>175963.84434331406</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>210299.30743430732</v>
+        <v>67559.630750931756</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>2309.2294920402483</v>
+        <v>6939.2641886445108</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>247963.44709246504</v>
+        <v>252790.43509544292</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7842,42 +9395,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>534.59344499999997</v>
+        <v>654.38177499999995</v>
       </c>
       <c r="I101">
-        <v>628.34002699999996</v>
+        <v>1160.3663329999999</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>93.746581999999989</v>
+        <v>505.98455799999999</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>156.47495275</v>
+        <v>104.65229681481537</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>93.257012564814772</v>
+        <v>-59.605064277777956</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>24484.410838114731</v>
+        <v>10952.103228616215</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>8696.8703925140198</v>
+        <v>3552.763687558042</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>14592.386634685548</v>
+        <v>-6237.8068784641673</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>8788.4216366827222</v>
+        <v>256020.37293445534</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>34970.344380161616</v>
+        <v>199254.65241570727</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7894,42 +9447,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>682.67132600000002</v>
+        <v>1025.2438959999999</v>
       </c>
       <c r="I102">
-        <v>855.50854500000003</v>
+        <v>983.05316200000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>172.837219</v>
+        <v>-42.190733999999907</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>383.64347075000006</v>
+        <v>-72.660874185184525</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>241.33489356481482</v>
+        <v>311.25705672222205</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>147182.31264910614</v>
+        <v>5279.6026373552149</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>58242.530851940501</v>
+        <v>96880.955359380547</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>92586.556180287414</v>
+        <v>-22616.20983774422</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>29872.704271653962</v>
+        <v>1780.0580354587482</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>171538.53882640164</v>
+        <v>72396.686023258997</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -7946,42 +9499,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>682.18206799999996</v>
+        <v>907.38537599999995</v>
       </c>
       <c r="I103">
-        <v>921.39282200000002</v>
+        <v>1368.8576660000001</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>239.21075400000007</v>
+        <v>461.47229000000016</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>449.52774775000006</v>
+        <v>313.14362981481554</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>240.84563556481476</v>
+        <v>193.39853672222205</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>202075.19599718769</v>
+        <v>98058.932893598234</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>58006.620170619564</v>
+        <v>37402.994006296671</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>108266.7961108685</v>
+        <v>60561.51979007051</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>57221.784829248551</v>
+        <v>212956.67443784425</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>230454.13716200524</v>
+        <v>428855.79969184677</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -7998,42 +9551,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>288.56265300000001</v>
+        <v>442.66372699999999</v>
       </c>
       <c r="I104">
-        <v>224.56788599999999</v>
+        <v>1082.9212649999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>-63.994767000000024</v>
+        <v>640.25753799999995</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>-247.29718824999998</v>
+        <v>27.20722881481538</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-152.77377943518519</v>
+        <v>-271.32311227777791</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>61155.899316355928</v>
+        <v>740.23329978172035</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>23339.827682910614</v>
+        <v>73616.23125609968</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>37780.526092646964</v>
+        <v>-7381.9499984893482</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>4095.330203384292</v>
+        <v>409929.71496582136</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>46988.602723623051</v>
+        <v>136112.61048298576</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8050,42 +9603,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>276.23269699999997</v>
+        <v>411.42950400000001</v>
       </c>
       <c r="I105">
-        <v>105.31714599999999</v>
+        <v>811.29077099999995</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>-170.91555099999999</v>
+        <v>399.86126699999994</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-366.54792824999998</v>
+        <v>-244.42326518518462</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-165.10373543518523</v>
+        <v>-302.5573352777779</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>134357.38370436712</v>
+        <v>59742.732563787082</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>27259.243454651638</v>
+        <v>91540.941130389707</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>60518.432170103253</v>
+        <v>73952.051794323124</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>29212.125573633599</v>
+        <v>159889.03284684525</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>112908.96085641105</v>
+        <v>9468.0551286028494</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8102,42 +9655,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>205.04248000000001</v>
+        <v>404.79760700000003</v>
       </c>
       <c r="I106">
-        <v>40.775886999999997</v>
+        <v>702.262878</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>-164.266593</v>
+        <v>297.46527099999997</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-431.08918724999995</v>
+        <v>-353.45115818518457</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-236.29395243518519</v>
+        <v>-309.18923227777788</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>185837.88736386554</v>
+        <v>124927.72122244837</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>55834.831957441558</v>
+        <v>95597.981356521675</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>101863.76790737413</v>
+        <v>109283.29224696865</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>26983.513575827648</v>
+        <v>88485.58745110342</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>160448.75055933307</v>
+        <v>137.45126804283569</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8154,42 +9707,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>199.23170500000001</v>
+        <v>400.903076</v>
       </c>
       <c r="I107">
-        <v>21.204737000000002</v>
+        <v>708.31597899999997</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>-178.02696800000001</v>
+        <v>307.41290299999997</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-450.66033724999994</v>
+        <v>-347.3980571851846</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-242.1047274351852</v>
+        <v>-313.0837632777779</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>203094.73957028368</v>
+        <v>120685.41013604079</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>58614.699046465314</v>
+        <v>98021.44282817567</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>109106.99811575987</v>
+        <v>108764.69109892628</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>31693.601335273026</v>
+        <v>94502.692930887395</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>176510.6415092432</v>
+        <v>32.15865629007962</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8206,42 +9759,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>201.65411399999999</v>
+        <v>397.51174900000001</v>
       </c>
       <c r="I108">
-        <v>18.901112000000001</v>
+        <v>604.39343299999996</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-182.75300199999998</v>
+        <v>206.88168399999995</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-452.96396224999995</v>
+        <v>-451.32060318518461</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-239.68231843518521</v>
+        <v>-316.47509027777789</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>205176.35109721939</v>
+        <v>203690.28685943887</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>57447.613770465527</v>
+        <v>100156.48276632767</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>108567.4526396677</v>
+        <v>142831.72863725247</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>33398.659740011994</v>
+        <v>42800.031174675838</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>178451.5999511776</v>
+        <v>12010.714699566099</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8258,42 +9811,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>202.52533</v>
+        <v>394.514679</v>
       </c>
       <c r="I109">
-        <v>28.272175000000001</v>
+        <v>548.89679000000001</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-174.25315499999999</v>
+        <v>154.38211100000001</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-443.59289924999996</v>
+        <v>-506.81724618518456</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-238.81110243518521</v>
+        <v>-319.4721602777779</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>196774.66026502062</v>
+        <v>256863.72103073398</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>57030.742646308521</v>
+        <v>102062.46119255021</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>105934.90930231253</v>
+        <v>161914.00050481531</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>30364.162027454022</v>
+        <v>23833.836196816323</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>170622.08077048094</v>
+        <v>27254.724370539134</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8310,42 +9863,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>223.343536</v>
+        <v>439.40954599999998</v>
       </c>
       <c r="I110">
-        <v>85.348808000000005</v>
+        <v>622.53692599999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-137.99472800000001</v>
+        <v>183.12738000000002</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-386.51626624999994</v>
+        <v>-433.17711018518457</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-217.9928964351852</v>
+        <v>-274.57729327777793</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>149394.82407584085</v>
+        <v>187642.40878838755</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>47520.902896201384</v>
+        <v>75392.689983750868</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>84257.800399150714</v>
+        <v>118940.59842453775</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>19042.544955793986</v>
+        <v>33535.637305664408</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>126727.18875100646</v>
+        <v>8363.0866385131012</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8362,42 +9915,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>388.22634900000003</v>
+        <v>1007.874512</v>
       </c>
       <c r="I111">
-        <v>408.345642</v>
+        <v>919.52148399999999</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>20.119292999999971</v>
+        <v>-88.353027999999995</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-63.519432249999966</v>
+        <v>-136.19255218518458</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>-53.110083435185174</v>
+        <v>293.88767272222208</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>4034.7182733623358</v>
+        <v>18548.411270714227</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>2820.6809624923308</v>
+        <v>86369.964178083916</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>3373.5223465530903</v>
+        <v>-40025.312203803674</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>404.78595081984781</v>
+        <v>7806.2575567687827</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>1088.3922535383076</v>
+        <v>42244.490181090056</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
@@ -21118,6 +22671,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D995EA9-2E06-4560-A103-04740B894547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F462E-190A-4A8D-B25A-D6DA26852E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t>simulated flow on reach 23773373</t>
+    <t>simulated temperatures on reach 23772751</t>
   </si>
   <si>
-    <t>gaged flow at USGS gage 14158500</t>
+    <t>measured stream temperatures at USGS gage 14164900</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulated v. gaged flow at the outlet of Clear Lake, 2010-18 (CW3M ver. 98)</a:t>
+              <a:t>Simulated v. measured</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> stream temperatures</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> above Hayden Bridge, 2010-18 (CW3M ver. 98)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -750,7 +758,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simulated flow on reach 23773373</c:v>
+                  <c:v>simulated temperatures on reach 23772751</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -774,328 +782,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>547.29949999999997</c:v>
+                  <c:v>4.7275349999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>434.72363300000001</c:v>
+                  <c:v>6.1626500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>416.19131499999997</c:v>
+                  <c:v>7.7647190000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>483.17001299999998</c:v>
+                  <c:v>8.7394440000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>437.47421300000002</c:v>
+                  <c:v>10.895346999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>473.07403599999998</c:v>
+                  <c:v>12.041124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.508759</c:v>
+                  <c:v>15.565261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>371.30618299999998</c:v>
+                  <c:v>15.418196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>370.60470600000002</c:v>
+                  <c:v>16.614798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>377.082672</c:v>
+                  <c:v>14.551155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>456.72323599999999</c:v>
+                  <c:v>9.5244169999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>608.92083700000001</c:v>
+                  <c:v>6.6511800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>627.442139</c:v>
+                  <c:v>5.9907450000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>434.78814699999998</c:v>
+                  <c:v>5.5388979999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>565.23681599999998</c:v>
+                  <c:v>6.738721</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>579.80285600000002</c:v>
+                  <c:v>8.0542259999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>508.13568099999998</c:v>
+                  <c:v>9.7390469999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>404.260468</c:v>
+                  <c:v>11.279282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>376.55847199999999</c:v>
+                  <c:v>13.358419</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>373.89291400000002</c:v>
+                  <c:v>15.152473000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>372.87762500000002</c:v>
+                  <c:v>17.007148999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>372.63012700000002</c:v>
+                  <c:v>14.107922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>390.97814899999997</c:v>
+                  <c:v>10.607386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>457.35363799999999</c:v>
+                  <c:v>6.5614030000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>540.68841599999996</c:v>
+                  <c:v>6.3881779999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>566.37756300000001</c:v>
+                  <c:v>6.1364869999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>599.04547100000002</c:v>
+                  <c:v>6.6723759999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>680.20837400000005</c:v>
+                  <c:v>8.7064810000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>429.095032</c:v>
+                  <c:v>10.619035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.39407299999999</c:v>
+                  <c:v>10.813514</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>379.44470200000001</c:v>
+                  <c:v>14.513451</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>374.64855999999997</c:v>
+                  <c:v>15.289508</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>373.475708</c:v>
+                  <c:v>17.181339000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>409.07839999999999</c:v>
+                  <c:v>14.215125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>610.46807899999999</c:v>
+                  <c:v>9.6511329999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>559.92895499999997</c:v>
+                  <c:v>5.7783899999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>415.01101699999998</c:v>
+                  <c:v>5.4992270000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>450.06332400000002</c:v>
+                  <c:v>5.9884880000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>574.71203600000001</c:v>
+                  <c:v>7.3878209999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>515.74169900000004</c:v>
+                  <c:v>8.9383820000000007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>393.22958399999999</c:v>
+                  <c:v>11.033396</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>383.51483200000001</c:v>
+                  <c:v>13.514919000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>375.891907</c:v>
+                  <c:v>15.611948999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>373.41403200000002</c:v>
+                  <c:v>14.909757000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>373.25735500000002</c:v>
+                  <c:v>16.552647</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>401.638397</c:v>
+                  <c:v>13.421500999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>417.75390599999997</c:v>
+                  <c:v>9.4158310000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>417.04070999999999</c:v>
+                  <c:v>6.1741349999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>432.68768299999999</c:v>
+                  <c:v>6.163926</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>646.39935300000002</c:v>
+                  <c:v>5.6749840000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>747.51580799999999</c:v>
+                  <c:v>7.5663410000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>480.43673699999999</c:v>
+                  <c:v>9.4826519999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>449.11077899999998</c:v>
+                  <c:v>11.436361</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>380.83746300000001</c:v>
+                  <c:v>13.574808000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>375.60879499999999</c:v>
+                  <c:v>15.500493000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>373.40905800000002</c:v>
+                  <c:v>15.345357999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>372.45739700000001</c:v>
+                  <c:v>17.055077000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>389.580963</c:v>
+                  <c:v>14.612627</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>603.79559300000005</c:v>
+                  <c:v>9.8216470000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>637.53497300000004</c:v>
+                  <c:v>6.6149459999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>476.978363</c:v>
+                  <c:v>5.8225959999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>475.95977800000003</c:v>
+                  <c:v>6.6302139999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>392.74298099999999</c:v>
+                  <c:v>8.7359899999999993</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>405.44396999999998</c:v>
+                  <c:v>9.6482729999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>379.18585200000001</c:v>
+                  <c:v>12.460485</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>373.97943099999998</c:v>
+                  <c:v>14.855195999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>371.78298999999998</c:v>
+                  <c:v>15.279545000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>370.85949699999998</c:v>
+                  <c:v>14.812206</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>370.079407</c:v>
+                  <c:v>16.262654999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>369.32437099999999</c:v>
+                  <c:v>16.541996000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>473.70327800000001</c:v>
+                  <c:v>11.254122000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>668.39593500000001</c:v>
+                  <c:v>6.8625230000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>637.540527</c:v>
+                  <c:v>6.5806110000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>562.02093500000001</c:v>
+                  <c:v>6.4230900000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>577.13189699999998</c:v>
+                  <c:v>7.4702000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>401.99520899999999</c:v>
+                  <c:v>9.8483719999999995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>383.17617799999999</c:v>
+                  <c:v>12.070455000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>376.1026</c:v>
+                  <c:v>14.555984</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>373.49960299999998</c:v>
+                  <c:v>15.188807000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>372.14581299999998</c:v>
+                  <c:v>15.615691</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>371.30218500000001</c:v>
+                  <c:v>17.271536000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>580.43951400000003</c:v>
+                  <c:v>12.931481</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>508.77359000000001</c:v>
+                  <c:v>9.4772859999999994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>418.23178100000001</c:v>
+                  <c:v>6.7547280000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>377.04577599999999</c:v>
+                  <c:v>4.1905950000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>574.86492899999996</c:v>
+                  <c:v>4.7459280000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>931.18786599999999</c:v>
+                  <c:v>6.1841929999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>594.79064900000003</c:v>
+                  <c:v>8.5678520000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>411.55682400000001</c:v>
+                  <c:v>11.300515000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>380.682343</c:v>
+                  <c:v>13.585314</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>376.72280899999998</c:v>
+                  <c:v>15.703260999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>375.34982300000001</c:v>
+                  <c:v>13.843431000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>375.43502799999999</c:v>
+                  <c:v>14.891836</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>434.81234699999999</c:v>
+                  <c:v>11.794454</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>600.07031300000006</c:v>
+                  <c:v>7.7232640000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>398.56967200000003</c:v>
+                  <c:v>4.1864150000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>568.15399200000002</c:v>
+                  <c:v>5.3123110000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>433.28787199999999</c:v>
+                  <c:v>5.6927399999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>541.56036400000005</c:v>
+                  <c:v>7.6800879999999996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>513.02374299999997</c:v>
+                  <c:v>8.8228159999999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>385.03088400000001</c:v>
+                  <c:v>12.990052</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>376.24456800000002</c:v>
+                  <c:v>14.684977</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>374.27654999999999</c:v>
+                  <c:v>16.392443</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>373.212738</c:v>
+                  <c:v>15.642115</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>372.33102400000001</c:v>
+                  <c:v>18.338342999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>371.56933600000002</c:v>
+                  <c:v>14.586402</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>386.90426600000001</c:v>
+                  <c:v>11.111635</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>550.22039800000005</c:v>
+                  <c:v>7.7483259999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gaged flow at USGS gage 14158500</c:v>
+                  <c:v>measured stream temperatures at USGS gage 14164900</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1140,328 +1148,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>633.59283400000004</c:v>
+                  <c:v>6.7575260000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.65698200000003</c:v>
+                  <c:v>7.0468979999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.90524299999998</c:v>
+                  <c:v>7.5625140000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516.30627400000003</c:v>
+                  <c:v>8.5006950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.29437300000001</c:v>
+                  <c:v>10.083938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.17913799999997</c:v>
+                  <c:v>11.837152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.57525600000002</c:v>
+                  <c:v>16.065334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.82794200000001</c:v>
+                  <c:v>15.599329000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.34721400000001</c:v>
+                  <c:v>13.234444999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.03131099999999</c:v>
+                  <c:v>11.104032999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>366.80126999999999</c:v>
+                  <c:v>7.7684309999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656.46301300000005</c:v>
+                  <c:v>6.5254580000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758.90728799999999</c:v>
+                  <c:v>5.8123259999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>523.816101</c:v>
+                  <c:v>5.5251479999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>472.20327800000001</c:v>
+                  <c:v>6.5961270000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>686.89923099999999</c:v>
+                  <c:v>7.4708329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>778.66332999999997</c:v>
+                  <c:v>8.912903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>826.61328100000003</c:v>
+                  <c:v>10.841665000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>513.37567100000001</c:v>
+                  <c:v>13.848522000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>398.268799</c:v>
+                  <c:v>15.150067999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310.50412</c:v>
+                  <c:v>12.886526999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>267.33938599999999</c:v>
+                  <c:v>10.686559000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>271.36877399999997</c:v>
+                  <c:v>7.3908750000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>332.02279700000003</c:v>
+                  <c:v>4.6762090000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>747.57867399999998</c:v>
+                  <c:v>5.7243950000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>626.625</c:v>
+                  <c:v>6.0212640000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>563.50689699999998</c:v>
+                  <c:v>6.2946020000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>898.37103300000001</c:v>
+                  <c:v>8.0125010000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>996.23992899999996</c:v>
+                  <c:v>9.9014100000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>681.18328899999995</c:v>
+                  <c:v>11.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>481.72918700000002</c:v>
+                  <c:v>14.857324999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366.778595</c:v>
+                  <c:v>15.432864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>294.694458</c:v>
+                  <c:v>12.870347000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>274.35879499999999</c:v>
+                  <c:v>10.587904999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>514.78887899999995</c:v>
+                  <c:v>8.4551409999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>824.81103499999995</c:v>
+                  <c:v>6.7407919999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>412.20935100000003</c:v>
+                  <c:v>4.9180770000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>382.81478900000002</c:v>
+                  <c:v>6.1956850000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>437.68179300000003</c:v>
+                  <c:v>7.492057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>782.16125499999998</c:v>
+                  <c:v>8.5971530000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>584.118652</c:v>
+                  <c:v>11.077218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>451.94134500000001</c:v>
+                  <c:v>13.704166000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>334.18719499999997</c:v>
+                  <c:v>16.750347000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>244.20327800000001</c:v>
+                  <c:v>15.772145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>220.821213</c:v>
+                  <c:v>13.215868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>315.99529999999999</c:v>
+                  <c:v>9.9914310000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>307.77313199999998</c:v>
+                  <c:v>7.4102540000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>356.69754</c:v>
+                  <c:v>4.2807459999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>335.19628899999998</c:v>
+                  <c:v>5.2900869999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>805.42468299999996</c:v>
+                  <c:v>5.9716139999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1049.1136469999999</c:v>
+                  <c:v>7.3243400000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>720.01660200000003</c:v>
+                  <c:v>8.8320469999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>658.71105999999997</c:v>
+                  <c:v>11.221339</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>441.70452899999998</c:v>
+                  <c:v>13.324306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>362.28997800000002</c:v>
+                  <c:v>16.180609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>278.85382099999998</c:v>
+                  <c:v>15.435485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>235.81594799999999</c:v>
+                  <c:v>13.738193000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>223.83869899999999</c:v>
+                  <c:v>11.838914000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>411.79901100000001</c:v>
+                  <c:v>8.3758119999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>656.54193099999998</c:v>
+                  <c:v>7.792554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>514.29370100000006</c:v>
+                  <c:v>6.7203629999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>565.96466099999998</c:v>
+                  <c:v>7.6048359999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>385.28106700000001</c:v>
+                  <c:v>8.8436210000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>396.03781099999998</c:v>
+                  <c:v>10.058611000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>293.912689</c:v>
+                  <c:v>13.074730000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>220.25415000000001</c:v>
+                  <c:v>16.857534000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.981537</c:v>
+                  <c:v>18.027048000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>152.941193</c:v>
+                  <c:v>17.185048999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>139.972916</c:v>
+                  <c:v>14.390521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>126.537308</c:v>
+                  <c:v>11.777958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.43119799999999</c:v>
+                  <c:v>8.0507980000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>607.42169200000001</c:v>
+                  <c:v>7.1561149999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>434.39514200000002</c:v>
+                  <c:v>6.2070230000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>641.31897000000004</c:v>
+                  <c:v>7.2024429999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>707.70825200000002</c:v>
+                  <c:v>7.5207629999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>676.07458499999996</c:v>
+                  <c:v>10.099689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>452.76947000000001</c:v>
+                  <c:v>12.167942999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>336.61318999999997</c:v>
+                  <c:v>14.868748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>252.70665</c:v>
+                  <c:v>16.696805999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>204.46639999999999</c:v>
+                  <c:v>16.748556000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>178.68644699999999</c:v>
+                  <c:v>14.161457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>331.07891799999999</c:v>
+                  <c:v>11.1876</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>404.97912600000001</c:v>
+                  <c:v>9.3414070000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>411.908569</c:v>
+                  <c:v>6.1767459999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>335.74652099999997</c:v>
+                  <c:v>4.7506050000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>599.73553500000003</c:v>
+                  <c:v>6.3771940000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>821.78002900000001</c:v>
+                  <c:v>7.0906229999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>915.23547399999995</c:v>
+                  <c:v>8.3418410000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>970.514771</c:v>
+                  <c:v>10.444659</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>608.74694799999997</c:v>
+                  <c:v>13.197846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>433.807343</c:v>
+                  <c:v>16.418118</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>333.24765000000002</c:v>
+                  <c:v>14.948691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>279.36144999999999</c:v>
+                  <c:v>12.859022</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>325.57327299999997</c:v>
+                  <c:v>10.140311000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>611.67675799999995</c:v>
+                  <c:v>7.9655129999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>490.97482300000001</c:v>
+                  <c:v>5.5748559999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>515.40911900000003</c:v>
+                  <c:v>6.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>531.03466800000001</c:v>
+                  <c:v>6.0133390000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>404.23397799999998</c:v>
+                  <c:v>7.0182650000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>656.39202899999998</c:v>
+                  <c:v>8.6028570000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>521.24169900000004</c:v>
+                  <c:v>11.752383999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>358.698395</c:v>
+                  <c:v>13.440951999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>279.09741200000002</c:v>
+                  <c:v>16.549931999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>232.69052099999999</c:v>
+                  <c:v>16.771944000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>199.79652400000001</c:v>
+                  <c:v>13.094060000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>175.65425099999999</c:v>
+                  <c:v>10.210146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>177.17825300000001</c:v>
+                  <c:v>7.540826</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>328.79098499999998</c:v>
+                  <c:v>6.1656829999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,8 +1640,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>flow, cfs</a:t>
+                  <a:t>stream</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> temperature,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> deg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2680,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V39" sqref="V38:W39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,11 +2733,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>458.23363581481465</v>
+        <v>10.825251249999997</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>459.16568304629612</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2727,13 +2748,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>2.0340000354276558E-3</v>
+        <v>-5.2904508969420005E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2748,10 +2769,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2785,7 +2806,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.37853187841417313</v>
+        <v>0.77749636844181347</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2801,42 +2822,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>547.29949999999997</v>
+        <v>4.7275349999999996</v>
       </c>
       <c r="I4">
-        <v>633.59283400000004</v>
+        <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>86.293334000000073</v>
+        <v>2.0299910000000008</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>174.42715095370392</v>
+        <v>-3.4950206481481469</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>89.065864185185319</v>
+        <v>-6.0977162499999977</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>30424.830989826212</v>
+        <v>12.215169330981894</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>7932.7281630538773</v>
+        <v>37.182143465514038</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>15535.504937051412</v>
+        <v>21.311644200298481</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>7446.5394928355681</v>
+        <v>4.1208634600810035</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>30750.848388151127</v>
+        <v>16.546388709487537</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2866,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.78832476405498664</v>
+        <v>0.46613495806369637</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2861,42 +2882,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>434.72363300000001</v>
+        <v>6.1626500000000002</v>
       </c>
       <c r="I5">
-        <v>425.65698200000003</v>
+        <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-9.0666509999999789</v>
+        <v>0.88424799999999948</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-33.508701046296096</v>
+        <v>-3.2056486481481477</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-23.510002814814641</v>
+        <v>-4.6626012499999971</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1122.8330458100452</v>
+        <v>10.276183255374047</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>552.72023235259235</v>
+        <v>21.739850416501536</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>787.78965591920348</v>
+        <v>14.946661393916354</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>82.204160355800624</v>
+        <v>0.78189452550399907</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1061.238373770276</v>
+        <v>14.275953281785545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2926,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.3969341305464813</v>
+        <v>0.82714360348615079</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2921,42 +2942,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>416.19131499999997</v>
+        <v>7.7647190000000004</v>
       </c>
       <c r="I6">
-        <v>373.90524299999998</v>
+        <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-42.28607199999999</v>
+        <v>-0.20220500000000019</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-85.260440046296139</v>
+        <v>-2.6900326481481471</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-42.042320814814673</v>
+        <v>-3.060532249999997</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7269.3426368880582</v>
+        <v>7.2362756481029331</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1767.5567394957991</v>
+        <v>9.3668576532900438</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>3584.5467732386546</v>
+        <v>8.2329316732102988</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>1788.1118851891831</v>
+        <v>4.0886862025000074E-2</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>7111.2778347296853</v>
+        <v>10.645454362537544</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2986,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>458.23363581481465</v>
+        <v>10.825251249999997</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2981,42 +3002,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>483.17001299999998</v>
+        <v>8.7394440000000007</v>
       </c>
       <c r="I7">
-        <v>516.30627400000003</v>
+        <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>33.136261000000047</v>
+        <v>-0.23874900000000032</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>57.140590953703907</v>
+        <v>-1.751851648148147</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>24.936377185185336</v>
+        <v>-2.0858072499999967</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3265.0471345385085</v>
+        <v>3.068984197119379</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>621.82290712183169</v>
+        <v>4.350591884152549</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>1424.8793286059497</v>
+        <v>3.6540248686318484</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>1098.0117930601241</v>
+        <v>5.7001085001000151E-2</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>3372.4313057874515</v>
+        <v>5.4035617594140488</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +3046,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>104.06269315301547</v>
+        <v>3.9511171658907891</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3041,42 +3062,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>437.47421300000002</v>
+        <v>10.895346999999999</v>
       </c>
       <c r="I8">
-        <v>510.29437300000001</v>
+        <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>72.820159999999987</v>
+        <v>-0.81140899999999938</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>51.128689953703883</v>
+        <v>-0.16860864814814747</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-20.759422814814627</v>
+        <v>7.00957500000019E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2614.1429363819802</v>
+        <v>2.8428876230345793E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>430.95363560424607</v>
+        <v>4.9134141680627665E-3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-1061.4020927165038</v>
+        <v>-1.1818749648430828E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>5302.775702425598</v>
+        <v>0.65838456528099898</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2710.3203562649419</v>
+        <v>0.54954533462555877</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3106,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>459.16568304629612</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3101,42 +3122,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>473.07403599999998</v>
+        <v>12.041124</v>
       </c>
       <c r="I9">
-        <v>628.17913799999997</v>
+        <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>155.10510199999999</v>
+        <v>-0.20397200000000026</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>169.01345495370384</v>
+        <v>1.5846053518518524</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>14.840400185185331</v>
+        <v>1.2158727500000026</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>28565.547955387679</v>
+        <v>2.5109741211175329</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>220.23747765644882</v>
+        <v>1.4783465441925689</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>2508.2273081937592</v>
+        <v>1.9266784668208334</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>24057.592666430399</v>
+        <v>4.1604576784000105E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>28881.473712974828</v>
+        <v>1.0239431278505673</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3166,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>210.46385366426577</v>
+        <v>3.6942891261951312</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3160,42 +3181,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>374.508759</v>
+        <v>15.565261</v>
       </c>
       <c r="I10">
-        <v>374.57525600000002</v>
+        <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.6497000000026674E-2</v>
+        <v>0.50007300000000043</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-84.590427046296099</v>
+        <v>5.8127873518518527</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-83.72487681481465</v>
+        <v>4.7400097500000022</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>7155.540347874743</v>
+        <v>33.788496797848872</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>7009.8549976558879</v>
+        <v>22.467692430095084</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>7082.323084163706</v>
+        <v>27.552668722454474</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>4.4218510090035471E-3</v>
+        <v>0.25007300532900045</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>6998.7245132397829</v>
+        <v>27.458467226847592</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,42 +3233,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>371.30618299999998</v>
+        <v>15.418196</v>
       </c>
       <c r="I11">
-        <v>275.82794200000001</v>
+        <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-95.478240999999969</v>
+        <v>0.18113300000000088</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-183.33774104629612</v>
+        <v>5.3467823518518536</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-86.927452814814671</v>
+        <v>4.5929447500000027</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>33612.727291958734</v>
+        <v>28.588081518074439</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>7556.3820528718315</v>
+        <v>21.095141476552588</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>15937.082833976616</v>
+        <v>24.55747593233064</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>9116.0945044540749</v>
+        <v>3.2809163689000317E-2</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>33271.837136063907</v>
+        <v>22.791818363045095</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3277,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.63002708715299005</v>
+        <v>0.90947435559566536</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3272,42 +3293,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>370.60470600000002</v>
+        <v>16.614798</v>
       </c>
       <c r="I12">
-        <v>241.34721400000001</v>
+        <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-129.25749200000001</v>
+        <v>-3.3803530000000013</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-217.81846904629612</v>
+        <v>2.9818983518518518</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-87.628929814814626</v>
+        <v>5.7895467500000031</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>47444.885457672259</v>
+        <v>8.8917177807767906</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>7678.8293404897076</v>
+        <v>33.518851570435601</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>19087.199336428253</v>
+        <v>17.263839911794253</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>16707.499238130069</v>
+        <v>11.426786404609009</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>47039.719967633704</v>
+        <v>5.8042145250390709</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,42 +3345,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>377.082672</v>
+        <v>14.551155</v>
       </c>
       <c r="I13">
-        <v>229.03131099999999</v>
+        <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-148.05136100000001</v>
+        <v>-3.4471220000000002</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-230.13437204629614</v>
+        <v>0.85148635185185206</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-81.150963814814645</v>
+        <v>3.7259037500000023</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>52961.829197143052</v>
+        <v>0.725029007389976</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>6585.4789280733557</v>
+        <v>13.882358754264079</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>18675.626098474069</v>
+        <v>3.1725561914386371</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>21919.205493952326</v>
+        <v>11.882650082884002</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>52533.705700515806</v>
+        <v>7.771926413306364E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,42 +3397,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>456.72323599999999</v>
+        <v>9.5244169999999997</v>
       </c>
       <c r="I14">
-        <v>366.80126999999999</v>
+        <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-89.921965999999998</v>
+        <v>-1.755986</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-92.364413046296136</v>
+        <v>-2.4841156481481477</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5103998148146616</v>
+        <v>-1.3008342499999976</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>8531.1847973867989</v>
+        <v>6.1708305533744916</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>2.281307600592164</v>
+        <v>1.6921697459730562</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>139.50719236059061</v>
+        <v>3.2314227160720539</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>8085.9599693051559</v>
+        <v>3.0834868321960003</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>8359.8775184940878</v>
+        <v>9.3441500408100477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,42 +3449,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>608.92083700000001</v>
+        <v>6.6511800000000001</v>
       </c>
       <c r="I15">
-        <v>656.46301300000005</v>
+        <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>47.54217600000004</v>
+        <v>-0.12572199999999967</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>197.29732995370392</v>
+        <v>-3.7270886481481469</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>150.68720118518536</v>
+        <v>-4.1740712499999972</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>38926.236406860713</v>
+        <v>13.891189791154781</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>22706.632601024528</v>
+        <v>17.422870800076538</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>29730.182452033681</v>
+        <v>15.557133572436536</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>2260.2584988149797</v>
+        <v>1.5806021283999917E-2</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>39294.885979226499</v>
+        <v>18.488221992745537</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,42 +3501,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>627.442139</v>
+        <v>5.9907450000000004</v>
       </c>
       <c r="I16">
-        <v>758.90728799999999</v>
+        <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>131.465149</v>
+        <v>-0.17841900000000077</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>299.74160495370387</v>
+        <v>-4.4402206481481477</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>169.20850318518535</v>
+        <v>-4.8345062499999969</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>89845.029740222279</v>
+        <v>19.715559404241155</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>28631.51755017088</v>
+        <v>23.372450681289031</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>50718.828316541367</v>
+        <v>21.466274474851257</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>17283.085401592201</v>
+        <v>3.1833339561000276E-2</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>90404.645118377812</v>
+        <v>25.129419562087538</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3532,42 +3553,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>434.78814699999998</v>
+        <v>5.5388979999999997</v>
       </c>
       <c r="I17">
-        <v>523.816101</v>
+        <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>89.027954000000022</v>
+        <v>-1.3749999999999929E-2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>64.650417953703879</v>
+        <v>-4.7273986481481476</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-23.445488814814667</v>
+        <v>-5.2863532499999977</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>4179.6765415885966</v>
+        <v>22.348297978512932</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>549.69094576559962</v>
+        <v>27.945530683785538</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>-1515.7606510066576</v>
+        <v>24.990699207683555</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>7925.9765934261204</v>
+        <v>1.8906249999999804E-4</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>4301.0597397660495</v>
+        <v>28.091094460660536</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3584,42 +3605,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>565.23681599999998</v>
+        <v>6.738721</v>
       </c>
       <c r="I18">
-        <v>472.20327800000001</v>
+        <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-93.033537999999965</v>
+        <v>-0.14259399999999989</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>13.037594953703888</v>
+        <v>-3.6564196481481472</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>107.00318018518533</v>
+        <v>-4.0865302499999974</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>169.97888217684508</v>
+        <v>13.36940464336382</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>11449.680569743237</v>
+        <v>16.69972948416504</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>1395.0641220126402</v>
+        <v>14.942069498851751</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>8655.2391927974368</v>
+        <v>2.0333048835999967E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>195.15090278211051</v>
+        <v>17.885491921938041</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3636,42 +3657,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>579.80285600000002</v>
+        <v>8.0542259999999999</v>
       </c>
       <c r="I19">
-        <v>686.89923099999999</v>
+        <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>107.09637499999997</v>
+        <v>-0.58339300000000005</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>227.73354795370386</v>
+        <v>-2.7817136481481475</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>121.56922018518537</v>
+        <v>-2.7710252499999974</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>51862.568863581939</v>
+        <v>7.7379308202936752</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>14779.075296434083</v>
+        <v>7.6785809361375481</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>27685.389834737296</v>
+        <v>7.708198757288125</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>11469.633538140617</v>
+        <v>0.34034739244900009</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>52287.954421395058</v>
+        <v>11.252121795933046</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3688,42 +3709,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>508.13568099999998</v>
+        <v>9.7390469999999993</v>
       </c>
       <c r="I20">
-        <v>778.66332999999997</v>
+        <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>270.527649</v>
+        <v>-0.82614399999999932</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>319.49764695370385</v>
+        <v>-1.3396436481481473</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>49.90204518518533</v>
+        <v>-1.086204249999998</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>102078.74640895359</v>
+        <v>1.7946451040236771</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2490.2141136642781</v>
+        <v>1.1798396727180582</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>15943.586014844119</v>
+        <v>1.4551266241040195</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>73185.2088734672</v>
+        <v>0.68251390873599893</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>102675.18891561139</v>
+        <v>3.6570758292780523</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3740,42 +3761,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>404.260468</v>
+        <v>11.279282</v>
       </c>
       <c r="I21">
-        <v>826.61328100000003</v>
+        <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>422.35281300000003</v>
+        <v>-0.43761699999999948</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>367.44759795370391</v>
+        <v>0.58911835185185346</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-53.973167814814644</v>
+        <v>0.45403075000000293</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>135017.73724194683</v>
+        <v>0.34706043248864421</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>2913.1028439661436</v>
+        <v>0.20614392194556516</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-19832.310867505803</v>
+        <v>0.26747784713006262</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>178381.89864901299</v>
+        <v>0.19150863868899953</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>135703.56298676308</v>
+        <v>2.6941118906261311E-4</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3792,42 +3813,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>376.55847199999999</v>
+        <v>13.358419</v>
       </c>
       <c r="I22">
-        <v>513.37567100000001</v>
+        <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>136.81719900000002</v>
+        <v>0.49010300000000129</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>54.209987953703887</v>
+        <v>3.5959753518518536</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-81.675163814814653</v>
+        <v>2.5331677500000023</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2938.7227939407207</v>
+        <v>12.931038731126062</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>6670.8323841768088</v>
+        <v>6.4169388496400739</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>-4427.6096465178944</v>
+        <v>9.1092087911060258</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>18718.945942205606</v>
+        <v>0.24020095060900126</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>3040.6440443642205</v>
+        <v>9.1401660278055843</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3844,42 +3865,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>373.89291400000002</v>
+        <v>15.152473000000001</v>
       </c>
       <c r="I23">
-        <v>398.268799</v>
+        <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>24.375884999999982</v>
+        <v>-2.4050000000013227E-3</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-60.896884046296123</v>
+        <v>4.8975213518518519</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-84.340721814814628</v>
+        <v>4.3272217500000032</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>3708.4304865480353</v>
+        <v>23.985715391844792</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>7113.3573562439478</v>
+        <v>18.72484807367309</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5136.0871567376844</v>
+        <v>21.192660914822753</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>594.18376953322411</v>
+        <v>5.7840250000063621E-6</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>3595.7816542273499</v>
+        <v>18.704039921080579</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3896,42 +3917,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>372.87762500000002</v>
+        <v>17.007148999999998</v>
       </c>
       <c r="I24">
-        <v>310.50412</v>
+        <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-62.373505000000023</v>
+        <v>-4.1206219999999991</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-148.66156304629612</v>
+        <v>2.6339803518518519</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-85.356010814814624</v>
+        <v>6.181897750000001</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>22100.260327367876</v>
+        <v>6.9378524939416053</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>7285.6485822187515</v>
+        <v>38.215859791455074</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>12689.157983126897</v>
+        <v>16.282997210657175</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>3890.454125985028</v>
+        <v>16.979525666883994</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>21824.009842879572</v>
+        <v>4.24885771753807</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3948,42 +3969,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>372.63012700000002</v>
+        <v>14.107922</v>
       </c>
       <c r="I25">
-        <v>267.33938599999999</v>
+        <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-105.29074100000003</v>
+        <v>-3.4213629999999995</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-191.82629704629613</v>
+        <v>0.4340123518518535</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-85.603508814814631</v>
+        <v>3.282670750000003</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>36797.328238493843</v>
+        <v>0.18836672155997708</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>7327.9607214080461</v>
+        <v>10.775927252905582</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>16421.00411011586</v>
+        <v>1.424719652562789</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>11086.140140329086</v>
+        <v>11.705724777768996</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>36440.614612360863</v>
+        <v>1.9235540210061533E-2</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4000,42 +4021,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>390.97814899999997</v>
+        <v>10.607386</v>
       </c>
       <c r="I26">
-        <v>271.36877399999997</v>
+        <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-119.609375</v>
+        <v>-3.2165109999999997</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-187.79690904629615</v>
+        <v>-2.861671648148147</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-67.255486814814674</v>
+        <v>-0.21786524999999735</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>35267.679047342826</v>
+        <v>8.1891646218149319</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>4523.3005066977103</v>
+        <v>4.7465267157561344E-2</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>12630.372540226121</v>
+        <v>0.62345880904170048</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>14306.402587890625</v>
+        <v>10.345943013120998</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>34918.476581069786</v>
+        <v>11.794940226564043</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4052,42 +4073,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>457.35363799999999</v>
+        <v>6.5614030000000003</v>
       </c>
       <c r="I27">
-        <v>332.02279700000003</v>
+        <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-125.33084099999996</v>
+        <v>-1.8851940000000003</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-127.1428860462961</v>
+        <v>-5.5763376481481473</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-0.87999781481465789</v>
+        <v>-4.263848249999997</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>16165.313472181435</v>
+        <v>31.095541566154409</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>0.77439615407857287</v>
+        <v>18.180401899028038</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>111.88546188996962</v>
+        <v>23.776657522465577</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>15707.819705767271</v>
+        <v>3.5539564176360008</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>15929.175834339118</v>
+        <v>37.81072059228503</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4104,42 +4125,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>540.68841599999996</v>
+        <v>6.3881779999999999</v>
       </c>
       <c r="I28">
-        <v>747.57867399999998</v>
+        <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>206.89025800000002</v>
+        <v>-0.66378299999999957</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>288.41299095370385</v>
+        <v>-4.528151648148147</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>82.454780185185314</v>
+        <v>-4.4370732499999974</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>83182.053350861257</v>
+        <v>20.50415734862678</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>6798.7907753872287</v>
+        <v>19.687619025865541</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>23781.029771639493</v>
+        <v>20.091740549941544</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>42803.578855306572</v>
+        <v>0.4406078710889994</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>83720.551122386358</v>
+        <v>26.018734483164032</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4156,42 +4177,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>566.37756300000001</v>
+        <v>6.1364869999999998</v>
       </c>
       <c r="I29">
-        <v>626.625</v>
+        <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>60.247436999999991</v>
+        <v>-0.11522299999999941</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>167.45931695370388</v>
+        <v>-4.2312826481481469</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>108.14392718518536</v>
+        <v>-4.6887642499999975</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>28042.622834601054</v>
+        <v>17.903752848519595</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>11695.108987034673</v>
+        <v>21.984510192078041</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>18109.70817912223</v>
+        <v>19.839486812282349</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>3629.7536650689681</v>
+        <v>1.3276339728999864E-2</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>28355.651532147724</v>
+        <v>23.078293498162534</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4208,42 +4229,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>599.04547100000002</v>
+        <v>6.6723759999999999</v>
       </c>
       <c r="I30">
-        <v>563.50689699999998</v>
+        <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-35.53857400000004</v>
+        <v>-0.37777399999999961</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>104.34121395370386</v>
+        <v>-3.9579446481481471</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>140.81183518518537</v>
+        <v>-4.1528752499999975</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>10887.088929332604</v>
+        <v>15.665325837804559</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>19827.97292821981</v>
+        <v>17.246372842062542</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>14692.477822271112</v>
+        <v>16.43685037016439</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1262.9902419534787</v>
+        <v>0.14271319507599969</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>11082.459520564249</v>
+        <v>20.526782626525534</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4260,42 +4281,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>680.20837400000005</v>
+        <v>8.7064810000000001</v>
       </c>
       <c r="I31">
-        <v>898.37103300000001</v>
+        <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>218.16265899999996</v>
+        <v>-0.69397999999999982</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>439.20534995370389</v>
+        <v>-2.240045648148147</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>221.9747381851854</v>
+        <v>-2.1187702499999972</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>192901.33942795551</v>
+        <v>5.0178045057874519</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>49272.784392381604</v>
+        <v>4.4891873722850502</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>97492.492565506152</v>
+        <v>4.7461420779382548</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>47594.945781950264</v>
+        <v>0.48160824039999978</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>193720.9284009496</v>
+        <v>7.9115639688750461</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4312,42 +4333,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>429.095032</v>
+        <v>10.619035</v>
       </c>
       <c r="I32">
-        <v>996.23992899999996</v>
+        <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>567.1448969999999</v>
+        <v>-0.71762499999999996</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>537.07424595370389</v>
+        <v>-0.35113664814814705</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-29.138603814814644</v>
+        <v>-0.2062162499999971</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>288448.74566673965</v>
+        <v>0.12329694567271562</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>849.05823227673056</v>
+        <v>4.2525141764061303E-2</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-15649.593671985294</v>
+        <v>7.2410082818679306E-2</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>321653.3341931405</v>
+        <v>0.51498564062499996</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>289450.77150686359</v>
+        <v>0.85348265520155708</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4364,42 +4385,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>403.39407299999999</v>
+        <v>10.813514</v>
       </c>
       <c r="I33">
-        <v>681.18328899999995</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>277.78921599999995</v>
+        <v>0.83023600000000108</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>222.01760595370382</v>
+        <v>1.3912033518518534</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-54.839562814814656</v>
+        <v>-1.1737249999997701E-2</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>49291.817353414102</v>
+        <v>1.9354467662038317</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>3007.3776497200024</v>
+        <v>1.3776303756244602E-4</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-12175.34844769291</v>
+        <v>-1.6328901541519968E-2</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>77166.848525894631</v>
+        <v>0.68929181569600184</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>49706.547855394405</v>
+        <v>0.66994020375156804</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4416,42 +4437,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>379.44470200000001</v>
+        <v>14.513451</v>
       </c>
       <c r="I34">
-        <v>481.72918700000002</v>
+        <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>102.28448500000002</v>
+        <v>0.34387399999999957</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>22.563503953703901</v>
+        <v>4.6047783518518521</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-78.788933814814641</v>
+        <v>3.6881997500000026</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>509.11171066881155</v>
+        <v>21.20398366968346</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>6207.6960916752423</v>
+        <v>13.602817395900081</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>-1777.754419638685</v>
+        <v>16.983342366105425</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>10462.115871715228</v>
+        <v>0.1182493278759997</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>552.04092549566599</v>
+        <v>16.25761872543908</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4468,42 +4489,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>374.64855999999997</v>
+        <v>15.289508</v>
       </c>
       <c r="I35">
-        <v>366.778595</v>
+        <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8699649999999792</v>
+        <v>0.14335600000000071</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-92.387088046296128</v>
+        <v>5.180317351851853</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-83.585075814814672</v>
+        <v>4.4642567500000023</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>8535.3740376740734</v>
+        <v>26.835687865897395</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>6986.4648989683164</v>
+        <v>19.929588329920584</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>7722.1817586596198</v>
+        <v>23.126266705146772</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>61.936349101224671</v>
+        <v>2.0550942736000201E-2</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>8364.0244904394131</v>
+        <v>21.230095253962592</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4520,42 +4541,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>373.475708</v>
+        <v>17.181339000000001</v>
       </c>
       <c r="I36">
-        <v>294.694458</v>
+        <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-78.78125</v>
+        <v>-4.3109920000000006</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-164.47122504629613</v>
+        <v>2.6178003518518533</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-84.75792781481465</v>
+        <v>6.3560877500000039</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>27050.783868229388</v>
+        <v>6.8528786821556871</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>7183.9063274613309</v>
+        <v>40.399851485700111</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>13940.240220088102</v>
+        <v>16.638968748351264</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>6206.4853515625</v>
+        <v>18.584652024064006</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>26745.062680345563</v>
+        <v>4.1824166266680765</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4572,42 +4593,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>409.07839999999999</v>
+        <v>14.215125</v>
       </c>
       <c r="I37">
-        <v>274.35879499999999</v>
+        <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-134.719605</v>
+        <v>-3.6272200000000012</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-184.80688804629614</v>
+        <v>0.33535835185185192</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-49.15523581481466</v>
+        <v>3.3898737500000031</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>34153.585869356233</v>
+        <v>0.11246522415679051</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>2416.2372080100376</v>
+        <v>11.491244040939083</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>9084.2261621177386</v>
+        <v>1.1368224737858577</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>18149.371971356024</v>
+        <v>13.156724928400008</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>33809.957084673435</v>
+        <v>5.6333242389061594E-2</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4624,42 +4645,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>610.46807899999999</v>
+        <v>9.6511329999999997</v>
       </c>
       <c r="I38">
-        <v>514.78887899999995</v>
+        <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-95.679200000000037</v>
+        <v>-1.1959920000000004</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>55.623195953703828</v>
+        <v>-1.797405648148148</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>152.23444318518534</v>
+        <v>-1.1741182499999976</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3093.9399281041337</v>
+        <v>3.230667063994864</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>23175.325691903425</v>
+        <v>1.3785536649830568</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>8467.7662641925563</v>
+        <v>2.1103667741438148</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>9154.5093126400079</v>
+        <v>1.430396864064001</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>3198.4955317354488</v>
+        <v>5.6174225971550529</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4676,42 +4697,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>559.92895499999997</v>
+        <v>5.7783899999999999</v>
       </c>
       <c r="I39">
-        <v>824.81103499999995</v>
+        <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>264.88207999999997</v>
+        <v>0.96240199999999998</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>365.64535195370382</v>
+        <v>-3.5117546481481474</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>101.69531918518533</v>
+        <v>-5.0468612499999974</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>133696.52340534795</v>
+        <v>12.332420708790119</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>10341.937944176723</v>
+        <v>25.470808476751536</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>37184.420775511338</v>
+        <v>17.72333845324626</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>70162.516305126381</v>
+        <v>0.92621760960400001</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>134378.98959337469</v>
+        <v>16.682807364910541</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4728,42 +4749,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>415.01101699999998</v>
+        <v>5.4992270000000003</v>
       </c>
       <c r="I40">
-        <v>412.20935100000003</v>
+        <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-2.8016659999999547</v>
+        <v>-0.58115000000000006</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-46.956332046296097</v>
+        <v>-5.3344696481481471</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-43.222618814814666</v>
+        <v>-5.326024249999997</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>2204.897119242014</v>
+        <v>28.456566427013815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>1868.1947772107708</v>
+        <v>28.36653431158803</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>2029.5756409789226</v>
+        <v>28.411514706925981</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>7.849332375555746</v>
+        <v>0.33773532250000005</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>2118.2347927151759</v>
+        <v>34.894707619863027</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4780,42 +4801,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>450.06332400000002</v>
+        <v>5.9884880000000003</v>
       </c>
       <c r="I41">
-        <v>382.81478900000002</v>
+        <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-67.248535000000004</v>
+        <v>0.20719699999999985</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-76.350894046296105</v>
+        <v>-4.0568616481481472</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-8.1703118148146245</v>
+        <v>-4.8367632499999971</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>5829.4590216687338</v>
+        <v>16.458126432215302</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>66.753995151299449</v>
+        <v>23.394278736550532</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>623.81061169811267</v>
+        <v>19.622079330097378</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>4522.3654596462256</v>
+        <v>4.2930596808999938E-2</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>5688.002454876475</v>
+        <v>21.432883663139037</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4832,42 +4853,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>574.71203600000001</v>
+        <v>7.3878209999999997</v>
       </c>
       <c r="I42">
-        <v>437.68179300000003</v>
+        <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-137.03024299999998</v>
+        <v>0.10423600000000022</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-21.483890046296096</v>
+        <v>-2.7604896481481473</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>116.47840018518536</v>
+        <v>-3.4374302499999976</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>461.55753152134048</v>
+        <v>7.6203030975330828</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>13567.21770970019</v>
+        <v>11.815926723615046</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>-2502.4091423469972</v>
+        <v>9.488990621356292</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>18777.287496639045</v>
+        <v>1.0865143696000045E-2</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>422.37824308484733</v>
+        <v>11.110183908233045</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4884,42 +4905,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>515.74169900000004</v>
+        <v>8.9383820000000007</v>
       </c>
       <c r="I43">
-        <v>782.16125499999998</v>
+        <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>266.41955599999994</v>
+        <v>-0.34122900000000023</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>322.99557195370386</v>
+        <v>-1.6553936481481468</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>57.508063185185392</v>
+        <v>-1.8868692499999966</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>104326.13950170028</v>
+        <v>2.7403281303292304</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>3307.1773313112753</v>
+        <v>3.5602755665955499</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>18574.849760448695</v>
+        <v>3.1235113713360523</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>70979.379819237103</v>
+        <v>0.11643723044100016</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>104929.10247098246</v>
+        <v>4.9644218116530485</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4936,42 +4957,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>393.22958399999999</v>
+        <v>11.033396</v>
       </c>
       <c r="I44">
-        <v>584.118652</v>
+        <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>190.88906800000001</v>
+        <v>4.3822000000000472E-2</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>124.95296895370387</v>
+        <v>0.82467135185185292</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-65.004051814814659</v>
+        <v>0.20814475000000243</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>15613.244450345284</v>
+        <v>0.68008283856516261</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>4225.5267523431094</v>
+        <v>4.3324236952563509E-2</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-8122.4492682814944</v>
+        <v>0.17165101236336797</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>36438.636281908628</v>
+        <v>1.9203676840000414E-3</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>15847.037299944377</v>
+        <v>6.3487243105563959E-2</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4988,42 +5009,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>383.51483200000001</v>
+        <v>13.514919000000001</v>
       </c>
       <c r="I45">
-        <v>451.94134500000001</v>
+        <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>68.426513</v>
+        <v>0.18924699999999994</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-7.2243380462961113</v>
+        <v>3.4516193518518534</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-74.718803814814635</v>
+        <v>2.6896677500000035</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>52.191060207161513</v>
+        <v>11.913676150078208</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>5582.8996435167583</v>
+        <v>7.2343126053900813</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>539.79389717310039</v>
+        <v>9.2837092559518446</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>4682.1876813391691</v>
+        <v>3.5814427008999977E-2</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>39.592923698200622</v>
+        <v>8.2881501377675821</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5040,42 +5061,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>375.891907</v>
+        <v>15.611948999999999</v>
       </c>
       <c r="I46">
-        <v>334.18719499999997</v>
+        <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-41.704712000000029</v>
+        <v>1.1383980000000022</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-124.97848804629615</v>
+        <v>6.4978003518518541</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-82.341728814814644</v>
+        <v>4.7866977500000019</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>15619.62247433819</v>
+        <v>42.221409412526079</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>6780.1603042124761</v>
+        <v>22.912475349855079</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>10290.944770393671</v>
+        <v>31.103006324158489</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>1739.2830030029463</v>
+        <v>1.295950006404005</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>15387.51947882332</v>
+        <v>35.10675964666811</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5092,42 +5113,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>373.41403200000002</v>
+        <v>14.909757000000001</v>
       </c>
       <c r="I47">
-        <v>244.20327800000001</v>
+        <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-129.21075400000001</v>
+        <v>0.86238799999999927</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-214.96240504629611</v>
+        <v>5.5195983518518528</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-84.819603814814627</v>
+        <v>4.0845057500000035</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>46208.835583287873</v>
+        <v>30.46596596576569</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>7194.3651913021158</v>
+        <v>16.68318722178309</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>18233.026031106543</v>
+        <v>22.544831205829436</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>16695.418949248517</v>
+        <v>0.74371306254399872</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>45808.994066337582</v>
+        <v>24.47175777378909</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5144,42 +5165,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>373.25735500000002</v>
+        <v>16.552647</v>
       </c>
       <c r="I48">
-        <v>220.821213</v>
+        <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-152.43614200000002</v>
+        <v>-3.3367789999999999</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-238.34447004629612</v>
+        <v>2.9633213518518531</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-84.976280814814629</v>
+        <v>5.727395750000003</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>56808.086401649751</v>
+        <v>8.7812734343410934</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>7220.9683011182324</v>
+        <v>32.803062077118099</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>20253.626617312235</v>
+        <v>16.972114116480565</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>23236.777387844169</v>
+        <v>11.134094094841</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>56364.658506800326</v>
+        <v>5.7150484453805772</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5196,42 +5217,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>401.638397</v>
+        <v>13.421500999999999</v>
       </c>
       <c r="I49">
-        <v>315.99529999999999</v>
+        <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-85.643097000000012</v>
+        <v>-3.4300699999999988</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-143.17038304629614</v>
+        <v>-0.26111564814814692</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-56.59523881481465</v>
+        <v>2.5962497500000019</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>20497.758581623162</v>
+        <v>6.8181381707826866E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>3203.0210565059028</v>
+        <v>6.7405127643750724</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>8102.7620197136202</v>
+        <v>-0.67792143622571488</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>7334.7400637514111</v>
+        <v>11.765380204899992</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>20231.744175367989</v>
+        <v>0.69525620931005738</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5248,42 +5269,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>417.75390599999997</v>
+        <v>9.4158310000000007</v>
       </c>
       <c r="I50">
-        <v>307.77313199999998</v>
+        <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-109.980774</v>
+        <v>-2.0055770000000006</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-151.39255104629615</v>
+        <v>-2.8422926481481472</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-40.479729814814675</v>
+        <v>-1.4094202499999966</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>22919.704512305387</v>
+        <v>8.0786274977170081</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1638.6085258803962</v>
+        <v>1.9864654411100529</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>6128.3295623296071</v>
+        <v>4.0059848147261139</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>12095.770649639075</v>
+        <v>4.0223391029290028</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>22638.363208207862</v>
+        <v>11.662206217507544</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5300,42 +5321,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>417.04070999999999</v>
+        <v>6.1741349999999997</v>
       </c>
       <c r="I51">
-        <v>356.69754</v>
+        <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-60.343169999999986</v>
+        <v>-1.893389</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-102.46814304629612</v>
+        <v>-5.9718006481481476</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-41.192925814814657</v>
+        <v>-4.6511162499999976</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>10499.720339356203</v>
+        <v>35.662402981222634</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1696.8571371848238</v>
+        <v>21.632882371014041</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>4220.9626148878924</v>
+        <v>27.775539036362368</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>3641.2981656488982</v>
+        <v>3.584921905321</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>10309.57875331522</v>
+        <v>42.830548967277529</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5352,42 +5373,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>432.68768299999999</v>
+        <v>6.163926</v>
       </c>
       <c r="I52">
-        <v>335.19628899999998</v>
+        <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-97.491394000000014</v>
+        <v>-0.87383900000000025</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-123.96939404629615</v>
+        <v>-4.9624596481481476</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-25.545952814814655</v>
+        <v>-4.6613252499999973</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>15368.410660205845</v>
+        <v>24.626005759498636</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>652.59570521673675</v>
+        <v>21.727953086287538</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>3166.9162907878463</v>
+        <v>23.131638460019062</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>9504.5719040632393</v>
+        <v>0.76359459792100048</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>15138.188711228986</v>
+        <v>30.638043274478036</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5404,42 +5425,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>646.39935300000002</v>
+        <v>5.6749840000000003</v>
       </c>
       <c r="I53">
-        <v>805.42468299999996</v>
+        <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>159.02532999999994</v>
+        <v>0.29662999999999951</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>346.25899995370384</v>
+        <v>-4.2809326481481476</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>188.16571718518537</v>
+        <v>-5.1502672499999971</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>119895.29504893908</v>
+        <v>18.326384337980713</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>35406.337123815167</v>
+        <v>26.525252746422531</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>65154.073058113754</v>
+        <v>22.047947217213164</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>25289.055581608882</v>
+        <v>8.7989356899999704E-2</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>120541.62324554558</v>
+        <v>23.557794554587538</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5456,42 +5477,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>747.51580799999999</v>
+        <v>7.5663410000000004</v>
       </c>
       <c r="I54">
-        <v>1049.1136469999999</v>
+        <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>301.59783899999991</v>
+        <v>-0.24200100000000013</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>589.94796395370372</v>
+        <v>-2.928206648148147</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>289.28217218518535</v>
+        <v>-3.2589102499999969</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>348038.6001731205</v>
+        <v>8.5743941742590053</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>83684.175144179215</v>
+        <v>10.620496017555043</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>170661.42848875484</v>
+        <v>9.5427626597681314</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>90961.256489469859</v>
+        <v>5.8564484001000061E-2</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>349139.18761820463</v>
+        <v>12.256379580376542</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5508,42 +5529,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>480.43673699999999</v>
+        <v>9.4826519999999999</v>
       </c>
       <c r="I55">
-        <v>720.01660200000003</v>
+        <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>239.57986500000004</v>
+        <v>-0.65060500000000054</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>260.85091895370391</v>
+        <v>-1.420499648148148</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>22.203101185185346</v>
+        <v>-1.3425992499999975</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>68043.201918991806</v>
+        <v>2.0178192503890124</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>492.97770223957895</v>
+        <v>1.8025727461005556</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>5791.6993477776696</v>
+        <v>1.9071617622289638</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>57398.511713418244</v>
+        <v>0.42328686602500071</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>68530.321384713912</v>
+        <v>3.9728631822180547</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5560,42 +5581,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>449.11077899999998</v>
+        <v>11.436361</v>
       </c>
       <c r="I56">
-        <v>658.71105999999997</v>
+        <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>209.600281</v>
+        <v>-0.21502199999999938</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>199.54537695370385</v>
+        <v>0.96879235185185308</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-9.1228568148146678</v>
+        <v>0.61110975000000245</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>39818.357463595763</v>
+        <v>0.93855862100664467</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>83.226516463610423</v>
+        <v>0.37345512654506552</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>-1820.423902006859</v>
+        <v>0.59203845194210036</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>43932.277795278962</v>
+        <v>4.6234460483999734E-2</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>40191.197607926733</v>
+        <v>0.15688550570006493</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5612,42 +5633,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>380.83746300000001</v>
+        <v>13.574808000000001</v>
       </c>
       <c r="I57">
-        <v>441.70452899999998</v>
+        <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>60.867065999999966</v>
+        <v>-0.25050200000000089</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-17.461154046296144</v>
+        <v>3.0717593518518527</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-77.396172814814634</v>
+        <v>2.7495567500000035</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>304.89190062848422</v>
+        <v>9.4357055156893139</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>5990.1675663806518</v>
+        <v>7.560062321470582</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>1351.4264961132362</v>
+        <v>8.4459766602598982</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>3704.7997234483519</v>
+        <v>6.2751252004000446E-2</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>273.21137209555269</v>
+        <v>6.2452746434975754</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5664,42 +5685,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>375.60879499999999</v>
+        <v>15.500493000000001</v>
       </c>
       <c r="I58">
-        <v>362.28997800000002</v>
+        <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-13.318816999999967</v>
+        <v>0.68011599999999994</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-96.875705046296105</v>
+        <v>5.9280623518518532</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-82.624840814814661</v>
+        <v>4.6752417500000032</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>9384.9022282169608</v>
+        <v>35.141923247443323</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>6826.8643196734629</v>
+        <v>21.857885420943092</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>8004.3397082731526</v>
+        <v>27.715124603980993</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>177.39088627948811</v>
+        <v>0.46255777345599991</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>9205.1854748862406</v>
+        <v>28.679856630485094</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5716,42 +5737,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>373.40905800000002</v>
+        <v>15.345357999999999</v>
       </c>
       <c r="I59">
-        <v>278.85382099999998</v>
+        <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-94.555237000000034</v>
+        <v>9.0127000000000734E-2</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-180.31186204629614</v>
+        <v>5.1829383518518526</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-84.824577814814631</v>
+        <v>4.5201067500000018</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>32512.367594602532</v>
+        <v>26.862849959096799</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>7195.2090014615424</v>
+        <v>20.431365031395579</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>15294.877573080168</v>
+        <v>23.427434629039443</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>8940.6928441261753</v>
+        <v>8.1228761290001329E-3</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>32177.117962997203</v>
+        <v>21.254255229639085</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5768,42 +5789,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>372.45739700000001</v>
+        <v>17.055077000000001</v>
       </c>
       <c r="I60">
-        <v>235.81594799999999</v>
+        <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-136.64144900000002</v>
+        <v>-3.3168839999999999</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-223.34973504629613</v>
+        <v>3.4856463518518535</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-85.776238814814633</v>
+        <v>6.2298257500000034</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>49885.104145250683</v>
+        <v>12.149730490178134</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>7357.5631452161124</v>
+        <v>38.810728875363104</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>19158.10021255667</v>
+        <v>21.71496939816025</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>18670.885584819607</v>
+        <v>11.001719469455999</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>49469.627852888349</v>
+        <v>8.4852296388930828</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5820,42 +5841,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>389.580963</v>
+        <v>14.612627</v>
       </c>
       <c r="I61">
-        <v>223.83869899999999</v>
+        <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-165.74226400000001</v>
+        <v>-2.773712999999999</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-235.32698404629613</v>
+        <v>1.5863673518518535</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-68.65267281481465</v>
+        <v>3.7873757500000025</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>55378.789420325716</v>
+        <v>2.5165613750214626</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>4713.1894846179903</v>
+        <v>14.344215071688081</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>16155.826440227476</v>
+        <v>6.0081692389954311</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>27470.498075845699</v>
+        <v>7.6934838063689943</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>54940.986404420953</v>
+        <v>1.0275121707375696</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5872,42 +5893,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>603.79559300000005</v>
+        <v>9.8216470000000005</v>
       </c>
       <c r="I62">
-        <v>411.79901100000001</v>
+        <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-191.99658200000005</v>
+        <v>-1.4458350000000006</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-47.366672046296117</v>
+        <v>-1.8767346481481475</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>145.56195718518541</v>
+        <v>-1.0036042499999969</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2243.60162074137</v>
+        <v>3.5221329395597509</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>21188.28337958175</v>
+        <v>1.0072214906180561</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-6894.7854884076742</v>
+        <v>1.8834988690037295</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>36862.687499682739</v>
+        <v>2.090438847225002</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2156.1743816925996</v>
+        <v>5.9997526394405503</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5924,42 +5945,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>637.53497300000004</v>
+        <v>6.6149459999999998</v>
       </c>
       <c r="I63">
-        <v>656.54193099999998</v>
+        <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>19.006957999999941</v>
+        <v>1.1776080000000002</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>197.37624795370385</v>
+        <v>-2.4599926481481473</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>179.30133718518539</v>
+        <v>-4.2103052499999976</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>38957.383256281988</v>
+        <v>6.0515638289429345</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>32148.969516395544</v>
+        <v>17.726670298177542</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>35389.825186693815</v>
+        <v>10.357319961459542</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>361.26445241376172</v>
+        <v>1.3867606016640004</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>39326.179939254602</v>
+        <v>9.1972526101575465</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5976,42 +5997,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>476.978363</v>
+        <v>5.8225959999999999</v>
       </c>
       <c r="I64">
-        <v>514.29370100000006</v>
+        <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>37.315338000000054</v>
+        <v>0.89776699999999998</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>55.128017953703932</v>
+        <v>-3.5321836481481474</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>18.744727185185354</v>
+        <v>-5.0026552499999974</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>3039.0983635039029</v>
+        <v>12.476321324245156</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>351.36479724702684</v>
+        <v>25.026559550352538</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1033.3596568021803</v>
+        <v>17.670297071372474</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>1392.4344500542479</v>
+        <v>0.80598558628899997</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>3142.7309085672373</v>
+        <v>16.850107544988042</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6028,42 +6049,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>475.95977800000003</v>
+        <v>6.6302139999999996</v>
       </c>
       <c r="I65">
-        <v>565.96466099999998</v>
+        <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>90.00488299999995</v>
+        <v>0.9746220000000001</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>106.79897795370385</v>
+        <v>-2.6477106481481476</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>17.726142185185381</v>
+        <v>-4.1950372499999977</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>11406.021691955722</v>
+        <v>7.0103716763170842</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>314.21611676940876</v>
+        <v>17.598337528887544</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>1893.1338684398333</v>
+        <v>11.107244796203117</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>8100.8789638436801</v>
+        <v>0.94988804288400019</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>11605.973787451036</v>
+        <v>10.371074382432548</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6080,42 +6101,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>392.74298099999999</v>
+        <v>8.7359899999999993</v>
       </c>
       <c r="I66">
-        <v>385.28106700000001</v>
+        <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-7.4619139999999788</v>
+        <v>0.10763100000000136</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-73.884616046296117</v>
+        <v>-1.4089256481481467</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-65.490654814814661</v>
+        <v>-2.0892612499999981</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>5458.9364883085973</v>
+        <v>1.9850714820096753</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>4289.0258680732068</v>
+        <v>4.3650125707515546</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>4838.7518856130955</v>
+        <v>2.9436137608070543</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>55.680160543395687</v>
+        <v>1.1584432161000293E-2</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>5322.0772966802651</v>
+        <v>3.9268584477150497</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6132,42 +6153,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>405.44396999999998</v>
+        <v>9.6482729999999997</v>
       </c>
       <c r="I67">
-        <v>396.03781099999998</v>
+        <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-9.4061590000000024</v>
+        <v>0.4103380000000012</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-63.127872046296147</v>
+        <v>-0.19393564814814646</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-52.789665814814668</v>
+        <v>-1.1769782499999977</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3985.1282290935387</v>
+        <v>3.7611035622641661E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>2786.7488168398127</v>
+        <v>1.3852778009730571</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>3332.4992689243541</v>
+        <v>0.22825803977002071</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>88.475827133281044</v>
+        <v>0.16837727424400098</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3868.3206243951163</v>
+        <v>0.58773727292005706</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6184,42 +6205,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>379.18585200000001</v>
+        <v>12.460485</v>
       </c>
       <c r="I68">
-        <v>293.912689</v>
+        <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-85.273163000000011</v>
+        <v>0.61424500000000037</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-165.25299404629612</v>
+        <v>2.8221833518518533</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-79.047783814814636</v>
+        <v>1.6352337500000029</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>27308.552041265182</v>
+        <v>7.9647188714697617</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>6248.5521260336709</v>
+        <v>2.6739894171390719</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>13062.882948122466</v>
+        <v>4.6149294656362834</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>7271.5123280245707</v>
+        <v>0.37729692002500048</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>27001.373562117144</v>
+        <v>5.0601546467015774</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6236,42 +6257,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>373.97943099999998</v>
+        <v>14.855195999999999</v>
       </c>
       <c r="I69">
-        <v>220.25415000000001</v>
+        <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>-153.72528099999997</v>
+        <v>2.0023380000000017</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-238.91153304629611</v>
+        <v>6.6049873518518538</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-84.25420481481467</v>
+        <v>4.0299447500000021</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>57078.720622531437</v>
+        <v>43.625857918122968</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>7098.7710289767392</v>
+        <v>16.24045468805258</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>20129.301237903997</v>
+        <v>26.617734102411795</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>23631.46201852895</v>
+        <v>4.0093574662440066</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>56634.235668683563</v>
+        <v>36.388435175947606</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6288,42 +6309,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>371.78298999999998</v>
+        <v>15.279545000000001</v>
       </c>
       <c r="I70">
-        <v>173.981537</v>
+        <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>-197.80145299999998</v>
+        <v>2.747503</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-285.18414604629612</v>
+        <v>7.7745013518518533</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-86.450645814814663</v>
+        <v>4.4542937500000033</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>81329.99715615515</v>
+        <v>60.442871269946295</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>7473.7141617985317</v>
+        <v>19.84073281128909</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>24654.353601848725</v>
+        <v>34.629912780920286</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>39125.414808911199</v>
+        <v>7.5487727350089999</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>80799.255680627146</v>
+        <v>51.865876428310607</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6340,42 +6361,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>370.85949699999998</v>
+        <v>14.812206</v>
       </c>
       <c r="I71">
-        <v>152.941193</v>
+        <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>-217.91830399999998</v>
+        <v>2.3728429999999996</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-306.22449004629613</v>
+        <v>6.932502351851852</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-87.374138814814671</v>
+        <v>3.9869547500000024</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>93773.438304114112</v>
+        <v>48.059588858431461</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>7634.2401336305038</v>
+        <v>15.895808178547583</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>26756.101101800912</v>
+        <v>27.63957318110193</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>47488.387218236407</v>
+        <v>5.6303839026489984</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>93203.475639836877</v>
+        <v>40.447027420905087</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6392,42 +6413,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>370.079407</v>
+        <v>16.262654999999999</v>
       </c>
       <c r="I72">
-        <v>139.972916</v>
+        <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-230.10649100000001</v>
+        <v>-1.8721339999999991</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-319.19276704629613</v>
+        <v>4.1379743518518524</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-88.154228814814644</v>
+        <v>5.4374037500000014</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>101884.02253467106</v>
+        <v>17.122831736583759</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>7771.1680579346967</v>
+        <v>29.565359540514077</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>28138.192222233018</v>
+        <v>22.499837258163087</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>52948.997200333084</v>
+        <v>3.5048857139559964</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>101289.88577704395</v>
+        <v>12.711148390265079</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6444,42 +6465,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>369.32437099999999</v>
+        <v>16.541996000000001</v>
       </c>
       <c r="I73">
-        <v>126.537308</v>
+        <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-242.78706299999999</v>
+        <v>-4.7640380000000011</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-332.62837504629613</v>
+        <v>1.5254113518518526</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-88.909264814814662</v>
+        <v>5.7167447500000037</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>110641.63588593944</v>
+        <v>2.3268797923584965</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>7904.8573699108401</v>
+        <v>32.681170536652608</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>29573.74428191263</v>
+        <v>8.7203873372894876</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>58945.557960165963</v>
+        <v>22.69605806544401</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>110022.45388583299</v>
+        <v>0.90765015149556749</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6496,42 +6517,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>473.70327800000001</v>
+        <v>11.254122000000001</v>
       </c>
       <c r="I74">
-        <v>221.43119799999999</v>
+        <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-252.27208000000002</v>
+        <v>-3.2033240000000003</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-237.73448504629613</v>
+        <v>-2.201748648148147</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>15.469642185185364</v>
+        <v>0.4288707500000033</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>56517.685380227595</v>
+        <v>4.8476971096221924</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>239.3098293376666</v>
+        <v>0.18393012020556532</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>-3677.6674187455019</v>
+        <v>-0.9442655940427892</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>63641.202347526407</v>
+        <v>10.261284648976002</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>56075.394555039158</v>
+        <v>7.6975908364355456</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6548,42 +6569,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>668.39593500000001</v>
+        <v>6.8625230000000004</v>
       </c>
       <c r="I75">
-        <v>607.42169200000001</v>
+        <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>-60.974243000000001</v>
+        <v>0.29359199999999941</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>148.25600895370388</v>
+        <v>-3.0964316481481475</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>210.16229918518536</v>
+        <v>-3.962728249999997</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>21979.844190880725</v>
+        <v>9.5878889516534525</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>44168.191998803362</v>
+        <v>15.703215183348039</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>31157.823709729837</v>
+        <v>12.270317166310715</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>3717.8583094230494</v>
+        <v>8.6196262463999654E-2</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>22257.076108314024</v>
+        <v>13.462560821064045</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6600,42 +6621,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>637.540527</v>
+        <v>6.5806110000000002</v>
       </c>
       <c r="I76">
-        <v>434.39514200000002</v>
+        <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-203.14538499999998</v>
+        <v>-0.37358799999999981</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>-24.770541046296103</v>
+        <v>-4.0455236481481469</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>179.30689118518535</v>
+        <v>-4.2446402499999971</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>613.57970372624004</v>
+        <v>16.366261587725891</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>32150.9612264959</v>
+        <v>18.016970851920039</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>-4441.5287079863829</v>
+        <v>17.171792509256452</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>41268.047446798213</v>
+        <v>0.13956799374399986</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>568.27378735895513</v>
+        <v>21.328032169098034</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6652,42 +6673,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>562.02093500000001</v>
+        <v>6.4230900000000002</v>
       </c>
       <c r="I77">
-        <v>641.31897000000004</v>
+        <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>79.298035000000027</v>
+        <v>0.77935299999999952</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>182.15328695370391</v>
+        <v>-3.0501036481481476</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>103.78729918518536</v>
+        <v>-4.4021612499999971</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>33179.819948038399</v>
+        <v>9.3031322644466385</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>10771.803472155178</v>
+        <v>19.379023671001537</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>18905.197690628989</v>
+        <v>13.427048088361401</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>6288.1783548612293</v>
+        <v>0.6073910986089992</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>33520.239593701015</v>
+        <v>13.124739616268045</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6704,42 +6725,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>577.13189699999998</v>
+        <v>7.4702000000000002</v>
       </c>
       <c r="I78">
-        <v>707.70825200000002</v>
+        <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>130.57635500000004</v>
+        <v>5.0562999999999469E-2</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>248.54256895370389</v>
+        <v>-2.7317836481481477</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>118.89826118518533</v>
+        <v>-3.3550512499999972</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>61773.408582106655</v>
+        <v>7.4626419002896025</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>14136.79651286055</v>
+        <v>11.256368890126543</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>29551.279279094422</v>
+        <v>9.165274143448995</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>17050.184485086033</v>
+        <v>2.5566169689999465E-3</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>62237.584120745552</v>
+        <v>10.919642594388048</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6756,42 +6777,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>401.99520899999999</v>
+        <v>9.8483719999999995</v>
       </c>
       <c r="I79">
-        <v>676.07458499999996</v>
+        <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>274.07937599999997</v>
+        <v>0.25131700000000023</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>216.90890195370383</v>
+        <v>-0.15285764814814762</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-56.238426814814659</v>
+        <v>-0.97687924999999787</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>47049.471746761505</v>
+        <v>2.3365460597382898E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>3162.7606506052643</v>
+        <v>0.95429306908055833</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-12198.615408005182</v>
+        <v>0.14932346467972601</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>75119.504348549352</v>
+        <v>6.3160234489000114E-2</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>47454.679141902488</v>
+        <v>0.52644057862505911</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6808,42 +6829,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>383.17617799999999</v>
+        <v>12.070455000000001</v>
       </c>
       <c r="I80">
-        <v>452.76947000000001</v>
+        <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>69.593292000000019</v>
+        <v>9.7487999999998465E-2</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-6.3962130462961113</v>
+        <v>1.915396351851852</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-75.057457814814654</v>
+        <v>1.2452037500000035</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>40.911541333608582</v>
+        <v>3.6687431846873837</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>5633.6219736226813</v>
+        <v>1.5505323790140713</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>480.08349089693752</v>
+        <v>2.3850587200622524</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>4843.2262913972663</v>
+        <v>9.5039101439997001E-3</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>29.857108051788881</v>
+        <v>1.8028211355180677</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6860,42 +6881,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>376.1026</v>
+        <v>14.555984</v>
       </c>
       <c r="I81">
-        <v>336.61318999999997</v>
+        <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>-39.489410000000021</v>
+        <v>0.3127639999999996</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-122.55249304629615</v>
+        <v>4.6162013518518528</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-82.131035814814652</v>
+        <v>3.7307327500000032</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>15019.113551862467</v>
+        <v>21.309314920838872</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>6745.5070440143672</v>
+        <v>13.918366851922586</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>10065.363195580172</v>
+        <v>17.221813563947993</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>1559.4135021481015</v>
+        <v>9.7821319695999748E-2</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>14791.532840194272</v>
+        <v>16.349865967260584</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6912,42 +6933,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>373.49960299999998</v>
+        <v>15.188807000000001</v>
       </c>
       <c r="I82">
-        <v>252.70665</v>
+        <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>-120.79295299999998</v>
+        <v>1.5079989999999981</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-206.45903304629613</v>
+        <v>6.4442593518518514</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-84.734032814814668</v>
+        <v>4.3635557500000033</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>42625.332326411597</v>
+        <v>41.528478593930046</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>7179.8563170620891</v>
+        <v>19.040618783358092</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>17494.106481059764</v>
+        <v>28.119884949264442</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>14590.937494460204</v>
+        <v>2.2740609840009944</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>42241.341898123021</v>
+        <v>34.475155182247576</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6964,42 +6985,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>372.14581299999998</v>
+        <v>15.615691</v>
       </c>
       <c r="I83">
-        <v>204.46639999999999</v>
+        <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>-167.67941299999998</v>
+        <v>1.1328650000000007</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-254.69928304629613</v>
+        <v>6.4960093518518534</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-86.087822814814672</v>
+        <v>4.7904397500000027</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>64871.724784297272</v>
+        <v>42.198137499346736</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>7411.1132369949255</v>
+        <v>22.948312998380089</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>21926.506749949873</v>
+        <v>31.118741415482873</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>28116.385544024564</v>
+        <v>1.2833831082250016</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>64397.809973091753</v>
+        <v>35.085539161372601</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7016,42 +7037,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>371.30218500000001</v>
+        <v>17.271536000000001</v>
       </c>
       <c r="I84">
-        <v>178.68644699999999</v>
+        <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-192.61573800000002</v>
+        <v>-3.1100790000000007</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-280.47923604629614</v>
+        <v>3.9089103518518531</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-86.931450814814639</v>
+        <v>6.4462847500000038</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>78668.601853113913</v>
+        <v>15.279580138814579</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>7557.077140768537</v>
+        <v>41.554587078082612</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>24382.466912935379</v>
+        <v>25.197949190259749</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>37100.822525284653</v>
+        <v>9.6725913862410042</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>78146.630774265635</v>
+        <v>11.130268806333083</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7068,42 +7089,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>580.43951400000003</v>
+        <v>12.931481</v>
       </c>
       <c r="I85">
-        <v>331.07891799999999</v>
+        <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-249.36059600000004</v>
+        <v>-1.743881</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>-128.08676504629614</v>
+        <v>0.93505335185185245</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>122.20587818518538</v>
+        <v>2.1062297500000025</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>16406.219380025068</v>
+        <v>0.8743247708093842</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>14934.27666301237</v>
+        <v>4.436203759785073</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-15652.955606382127</v>
+        <v>1.9694371875075916</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>62180.706837475234</v>
+        <v>3.0411209421610002</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>16168.322262565145</v>
+        <v>0.13129661662656428</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7120,42 +7141,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>508.77359000000001</v>
+        <v>9.4772859999999994</v>
       </c>
       <c r="I86">
-        <v>404.97912600000001</v>
+        <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-103.794464</v>
+        <v>-0.13587899999999919</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-54.186557046296116</v>
+        <v>-0.91113964814814707</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>50.539954185185366</v>
+        <v>-1.3479652499999979</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>2936.1829645315033</v>
+        <v>0.83017545842752927</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>2554.2869690406355</v>
+        <v>1.8170103152075567</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>-2738.586110572739</v>
+        <v>1.2281845836009271</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>10773.290757047296</v>
+        <v>1.846310264099978E-2</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>2836.0428156161888</v>
+        <v>2.201793758258054</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7172,42 +7193,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>418.23178100000001</v>
+        <v>6.7547280000000001</v>
       </c>
       <c r="I87">
-        <v>411.908569</v>
+        <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>-6.3232120000000123</v>
+        <v>-0.57798200000000044</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>-47.257114046296124</v>
+        <v>-4.0758006481481477</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>-40.001854814814635</v>
+        <v>-4.0705232499999973</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>2233.2348279846383</v>
+        <v>16.612150923444862</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>1600.1483886255089</v>
+        <v>16.569159528790539</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>1890.3722150470749</v>
+        <v>16.590641300652095</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>39.983009996944155</v>
+        <v>0.3340631923240005</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>2146.0118153970411</v>
+        <v>21.608601059277539</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7224,42 +7245,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>377.04577599999999</v>
+        <v>4.1905950000000001</v>
       </c>
       <c r="I88">
-        <v>335.74652099999997</v>
+        <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>-41.299255000000016</v>
+        <v>0.56001000000000012</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-123.41916204629615</v>
+        <v>-5.5019416481481471</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-81.187859814814658</v>
+        <v>-6.6346562499999973</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>15232.289560209909</v>
+        <v>30.271361899627149</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>6591.4685813099968</v>
+        <v>44.018663555664027</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>10020.137626676586</v>
+        <v>36.50349154302139</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>1705.6284635550264</v>
+        <v>0.31361120010000015</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>15003.093295657593</v>
+        <v>36.901327062639027</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7276,42 +7297,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>574.86492899999996</v>
+        <v>4.7459280000000001</v>
       </c>
       <c r="I89">
-        <v>599.73553500000003</v>
+        <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>24.870606000000066</v>
+        <v>1.6312660000000001</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>140.5698519537039</v>
+        <v>-3.8753526481481471</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>116.63129318518531</v>
+        <v>-6.0793232499999972</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>19759.883278286234</v>
+        <v>15.018358147508856</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>13602.858550048653</v>
+        <v>36.958171177990529</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>16394.843616210535</v>
+        <v>23.559521455836087</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>618.54704280723934</v>
+        <v>2.6610287627560005</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>20022.787473014367</v>
+        <v>19.785213299277537</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7328,42 +7349,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>931.18786599999999</v>
+        <v>6.1841929999999996</v>
       </c>
       <c r="I90">
-        <v>821.78002900000001</v>
+        <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>-109.40783699999997</v>
+        <v>0.90643000000000029</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>362.61434595370389</v>
+        <v>-3.1619236481481474</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>472.95423018518534</v>
+        <v>-4.6410582499999977</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>131489.16389143246</v>
+        <v>9.9977611567184894</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>223685.70385006128</v>
+        <v>21.539421679893042</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>171499.98884463849</v>
+        <v>14.67467183310805</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>11970.074797018562</v>
+        <v>0.82161534490000054</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>132165.97999795739</v>
+        <v>13.947448165698043</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7380,42 +7401,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>594.79064900000003</v>
+        <v>8.5678520000000002</v>
       </c>
       <c r="I91">
-        <v>915.23547399999995</v>
+        <v>8.3418410000000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>320.44482499999992</v>
+        <v>-0.22601099999999974</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>456.06979095370383</v>
+        <v>-1.9107056481481468</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>136.55701318518538</v>
+        <v>-2.2573992499999971</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>207999.65422055512</v>
+        <v>3.6507960738652296</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>18647.817850058895</v>
+        <v>5.0958513739005493</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>62279.528456629676</v>
+        <v>4.3132254971003849</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>102684.88586928058</v>
+        <v>5.1080972120999879E-2</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>208850.6801046383</v>
+        <v>6.1673264698050465</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7432,42 +7453,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>411.55682400000001</v>
+        <v>11.300515000000001</v>
       </c>
       <c r="I92">
-        <v>970.514771</v>
+        <v>10.444659</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>558.95794699999999</v>
+        <v>-0.85585600000000106</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>511.34908795370387</v>
+        <v>0.19211235185185238</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-46.676811814814641</v>
+        <v>0.47526375000000343</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>261477.88975108479</v>
+        <v>3.6907155734049929E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>2178.7247611956195</v>
+        <v>0.22587563206406575</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-23868.145150092136</v>
+        <v>9.130403676243147E-2</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>312433.98651445482</v>
+        <v>0.73248949273600183</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>262431.96146662213</v>
+        <v>0.1448504607600607</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7484,42 +7505,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>380.682343</v>
+        <v>13.585314</v>
       </c>
       <c r="I93">
-        <v>608.74694799999997</v>
+        <v>13.197846</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>228.06460499999997</v>
+        <v>-0.38746800000000015</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>149.58126495370385</v>
+        <v>2.9452993518518529</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-77.551292814814644</v>
+        <v>2.760062750000003</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>22374.554825150153</v>
+        <v>8.6747882720189455</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>6014.2030172491213</v>
+        <v>7.6179463839375794</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>-11600.220478035058</v>
+        <v>8.129211028645452</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>52013.464053806012</v>
+        <v>0.15013145102400011</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>22654.25714495506</v>
+        <v>5.6292058477275759</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7536,42 +7557,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>376.72280899999998</v>
+        <v>15.703260999999999</v>
       </c>
       <c r="I94">
-        <v>433.807343</v>
+        <v>16.418118</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>57.084534000000019</v>
+        <v>0.7148570000000003</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-25.358340046296121</v>
+        <v>6.1655713518518525</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-81.510826814814664</v>
+        <v>4.8780097500000021</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>643.04540990358555</v>
+        <v>38.014270094776279</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>6644.0148880347087</v>
+        <v>23.794979121095082</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>2066.9792638248223</v>
+        <v>30.07571716865403</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>3258.6440219971582</v>
+        <v>0.51102053044900042</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>596.6437806750655</v>
+        <v>31.28015848325559</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7588,42 +7609,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>375.34982300000001</v>
+        <v>13.843431000000001</v>
       </c>
       <c r="I95">
-        <v>333.24765000000002</v>
+        <v>14.948691</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>-42.102172999999993</v>
+        <v>1.1052599999999995</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-125.9180330462961</v>
+        <v>4.6961443518518529</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-82.883812814814632</v>
+        <v>3.0181797500000034</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>15855.351046248117</v>
+        <v>22.053771773430061</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>6869.7264267212304</v>
+        <v>9.1094090033100823</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>10436.566681018849</v>
+        <v>14.173807785836154</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>1772.5929713219284</v>
+        <v>1.2215996675999987</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>15621.496650101042</v>
+        <v>17.002755371880085</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7640,42 +7661,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>375.43502799999999</v>
+        <v>14.891836</v>
       </c>
       <c r="I96">
-        <v>279.36144999999999</v>
+        <v>12.859022</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-96.073577999999998</v>
+        <v>-2.0328140000000001</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-179.80423304629613</v>
+        <v>2.6064753518518522</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-82.798607814814659</v>
+        <v>4.0665847500000023</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>32329.56222136677</v>
+        <v>6.7937137598112365</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>6855.6094560714873</v>
+        <v>16.537111528932581</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>14887.540175443812</v>
+        <v>10.599452917091632</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>9230.1323897220827</v>
+        <v>4.1323327585960001</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>31995.258858169582</v>
+        <v>4.136223463555571</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7692,42 +7713,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>434.81234699999999</v>
+        <v>11.794454</v>
       </c>
       <c r="I97">
-        <v>325.57327299999997</v>
+        <v>10.140311000000001</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-109.23907400000002</v>
+        <v>-1.6541429999999995</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-133.59241004629615</v>
+        <v>-0.11223564814814679</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>-23.421288814814659</v>
+        <v>0.96920275000000267</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>17846.932021977729</v>
+        <v>1.2596840715234607E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>548.55676974696223</v>
+        <v>0.93935397060756765</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>3128.9064191614493</v>
+        <v>-0.10877909883321658</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>11933.175288377479</v>
+        <v>2.7361890644489981</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>17598.771862158264</v>
+        <v>0.46914314607005814</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7744,42 +7765,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>600.07031300000006</v>
+        <v>7.7232640000000004</v>
       </c>
       <c r="I98">
-        <v>611.67675799999995</v>
+        <v>7.9655129999999996</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>11.606444999999894</v>
+        <v>0.24224899999999927</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>152.51107495370383</v>
+        <v>-2.2870336481481477</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>141.83667718518541</v>
+        <v>-3.101987249999997</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>23259.627983534265</v>
+        <v>5.2305229077618254</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>20117.642994934497</v>
+        <v>9.6223248991625443</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>21631.664105374104</v>
+        <v>7.094349216876533</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>134.70956553802253</v>
+        <v>5.8684578000999646E-2</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>23544.791745937706</v>
+        <v>8.17810285851305</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7796,42 +7817,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>398.56967200000003</v>
+        <v>4.1864150000000002</v>
       </c>
       <c r="I99">
-        <v>490.97482300000001</v>
+        <v>5.5748559999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>92.405150999999989</v>
+        <v>1.3884409999999994</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>31.809139953703891</v>
+        <v>-4.6776906481481477</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-59.663963814814622</v>
+        <v>-6.6388362499999971</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>1011.8213845943212</v>
+        <v>21.880789799772639</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>3559.7885780955085</v>
+        <v>44.074146754314022</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>-1897.859375178163</v>
+        <v>31.054422241211906</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>8538.7119313327985</v>
+        <v>1.9277684104809982</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>1071.9853382953465</v>
+        <v>27.56665028122254</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7848,42 +7869,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>568.15399200000002</v>
+        <v>5.3123110000000002</v>
       </c>
       <c r="I100">
-        <v>515.40911900000003</v>
+        <v>6.7227480000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-52.744872999999984</v>
+        <v>1.4104369999999999</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>56.243435953703909</v>
+        <v>-3.5297986481481471</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>109.92035618518537</v>
+        <v>-5.5129402499999971</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>3163.3240878783936</v>
+        <v>12.459478496468487</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>12082.484703878019</v>
+        <v>30.392510200070031</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>6182.2985131097948</v>
+        <v>19.459569041771498</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>2782.0216277861273</v>
+        <v>1.9893325309689998</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>3269.0358774594165</v>
+        <v>16.830532916260537</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7900,42 +7921,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>433.28787199999999</v>
+        <v>5.6927399999999997</v>
       </c>
       <c r="I101">
-        <v>531.03466800000001</v>
+        <v>6.0133390000000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>97.746796000000018</v>
+        <v>0.32059900000000052</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>71.868984953703887</v>
+        <v>-4.2392076481481471</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-24.945763814814654</v>
+        <v>-5.1325112499999976</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>5165.1509982757152</v>
+        <v>17.970881484117744</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>622.29113230451617</v>
+        <v>26.342671731376537</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>-1792.8267242655652</v>
+        <v>21.757780945206395</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>9554.4361282656191</v>
+        <v>0.10278371880100033</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>5299.9902872283956</v>
+        <v>23.154499501700034</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7952,42 +7973,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>541.56036400000005</v>
+        <v>7.6800879999999996</v>
       </c>
       <c r="I102">
-        <v>404.23397799999998</v>
+        <v>7.0182650000000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-137.32638600000007</v>
+        <v>-0.66182299999999916</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-54.931705046296145</v>
+        <v>-3.2342816481481469</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>83.326728185185402</v>
+        <v>-3.1451632499999977</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>3017.4922192932772</v>
+        <v>10.460577779547894</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>6943.3436300477715</v>
+        <v>9.8920518691505475</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>-4577.2792551414959</v>
+        <v>10.172343779904974</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>18858.536291821016</v>
+        <v>0.43800968332899887</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>2915.9630441170748</v>
+        <v>14.49314430768904</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8004,42 +8025,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>513.02374299999997</v>
+        <v>8.8228159999999995</v>
       </c>
       <c r="I103">
-        <v>656.39202899999998</v>
+        <v>8.6028570000000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>143.36828600000001</v>
+        <v>-0.21995899999999935</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>197.22634595370386</v>
+        <v>-1.6496896481481471</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>54.79010718518532</v>
+        <v>-2.0024352499999978</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>38898.231538250075</v>
+        <v>2.7214759352071574</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>3001.9558453640961</v>
+        <v>4.0097469304425539</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>10806.052634545875</v>
+        <v>3.3033967030119435</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>20554.465430577799</v>
+        <v>4.8381961680999716E-2</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>39266.748789734505</v>
+        <v>4.9390362024330496</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8056,42 +8077,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>385.03088400000001</v>
+        <v>12.990052</v>
       </c>
       <c r="I104">
-        <v>521.24169900000004</v>
+        <v>11.752383999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>136.21081500000003</v>
+        <v>-1.2376680000000011</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>62.076015953703916</v>
+        <v>1.499837351851852</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-73.202751814814633</v>
+        <v>2.164800750000003</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>3853.4317566845029</v>
+        <v>2.2495120820099759</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>5358.6428732613467</v>
+        <v>4.6863622872005761</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>-4544.1351895114612</v>
+        <v>3.2468490241669077</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>18553.386122964232</v>
+        <v>1.5318220782240026</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>3970.0160263483149</v>
+        <v>0.85957513612256609</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8108,42 +8129,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>376.24456800000002</v>
+        <v>14.684977</v>
       </c>
       <c r="I105">
-        <v>358.698395</v>
+        <v>13.440951999999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>-17.54617300000001</v>
+        <v>-1.2440250000000006</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-100.46728804629612</v>
+        <v>3.188405351851852</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-81.989067814814632</v>
+        <v>3.8597257500000026</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>10093.675967377436</v>
+        <v>10.165928687717532</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>6722.2072411422723</v>
+        <v>14.897482865213084</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>8237.2192927982887</v>
+        <v>12.306370237980412</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>307.86818694592938</v>
+        <v>1.5475982006250015</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>9907.2641640631427</v>
+        <v>6.8418904135505727</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8160,42 +8181,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>374.27654999999999</v>
+        <v>16.392443</v>
       </c>
       <c r="I106">
-        <v>279.09741200000002</v>
+        <v>16.549931999999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>-95.179137999999966</v>
+        <v>0.15748899999999821</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-180.0682710462961</v>
+        <v>6.297385351851851</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-83.957085814814661</v>
+        <v>5.5671917500000028</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>32424.582237602361</v>
+        <v>39.65706226971826</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>7048.7922585161532</v>
+        <v>30.993623981268094</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>15118.007284759187</v>
+        <v>35.058751777400488</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>9059.0683104230375</v>
+        <v>2.4802785120999437E-2</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>32089.786682631358</v>
+        <v>32.771969689420573</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8212,42 +8233,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>373.212738</v>
+        <v>15.642115</v>
       </c>
       <c r="I107">
-        <v>232.69052099999999</v>
+        <v>16.771944000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>-140.52221700000001</v>
+        <v>1.1298290000000009</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-226.47516204629613</v>
+        <v>6.519397351851854</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-85.020897814814646</v>
+        <v>4.8168637500000031</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>51290.999023896096</v>
+        <v>42.502541831332969</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>7228.5530652371535</v>
+        <v>23.202176386064092</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>19255.121609931732</v>
+        <v>31.403048775981212</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>19746.493470595091</v>
+        <v>1.2765135692410019</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>50869.696640368667</v>
+        <v>35.363154662902609</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8264,42 +8285,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>372.33102400000001</v>
+        <v>18.338342999999998</v>
       </c>
       <c r="I108">
-        <v>199.79652400000001</v>
+        <v>13.094060000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-172.53450000000001</v>
+        <v>-5.2442829999999976</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-259.36915904629609</v>
+        <v>2.8415133518518534</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-85.902611814814634</v>
+        <v>7.513091750000001</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>67272.360664382839</v>
+        <v>8.0741981287523554</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>7379.2587166067306</v>
+        <v>56.446547643918073</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>22280.488186288891</v>
+        <v>21.348550521313008</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>29768.153690250001</v>
+        <v>27.502504184088973</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>66789.740763183014</v>
+        <v>5.1474931440765781</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8316,42 +8337,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>371.56933600000002</v>
+        <v>14.586402</v>
       </c>
       <c r="I109">
-        <v>175.65425099999999</v>
+        <v>10.210146</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-195.91508500000003</v>
+        <v>-4.3762559999999997</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-283.51143204629614</v>
+        <v>-4.2400648148147368E-2</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-86.664299814814626</v>
+        <v>3.7611507500000023</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>80378.73210094159</v>
+        <v>1.797814963382993E-3</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>7510.7008623920783</v>
+        <v>14.14625496422558</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>24570.319747787653</v>
+        <v>-0.15947522958289068</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>38382.720530557235</v>
+        <v>19.151616577535997</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>79851.108722319099</v>
+        <v>0.37835446857755928</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8368,42 +8389,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>386.90426600000001</v>
+        <v>11.111635</v>
       </c>
       <c r="I110">
-        <v>177.17825300000001</v>
+        <v>7.540826</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-209.72601299999999</v>
+        <v>-3.5708089999999997</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-281.98743004629614</v>
+        <v>-2.7117206481481473</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-71.32936981481464</v>
+        <v>0.28638375000000238</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>79516.910704114765</v>
+        <v>7.3534288735930078</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>5087.8789981785903</v>
+        <v>8.2015652264063862E-2</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>20113.985680901431</v>
+        <v>-0.77659272816910341</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>43985.000528876168</v>
+        <v>12.750676914480998</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>78992.128209181988</v>
+        <v>10.787449222837544</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8420,42 +8441,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>550.22039800000005</v>
+        <v>7.7483259999999996</v>
       </c>
       <c r="I111">
-        <v>328.79098499999998</v>
+        <v>6.1656829999999996</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-221.42941300000007</v>
+        <v>-1.582643</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-130.37469804629615</v>
+        <v>-4.0868636481481477</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>91.986762185185398</v>
+        <v>-3.0769252499999977</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>16997.561890662895</v>
+        <v>16.702454478554788</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>8461.5644173138535</v>
+        <v>9.4674689940875485</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>-11992.746344149999</v>
+        <v>12.574973952294142</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>49030.984941524599</v>
+        <v>2.5047588654490003</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>16755.399849966041</v>
+        <v>21.711576276408042</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C796A6-2AA0-4DCB-B874-9054BFAAE201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B29C7-4D18-4E8B-80CE-42F5DBEEBF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</t>
+    <t xml:space="preserve"> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</c:v>
+                  <c:v> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -749,328 +749,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.0482469999999999</c:v>
+                  <c:v>7111.201172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2584140000000001</c:v>
+                  <c:v>3667.6291500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5942040000000004</c:v>
+                  <c:v>3724.2719729999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6540220000000003</c:v>
+                  <c:v>5032.7763670000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0343770000000001</c:v>
+                  <c:v>4270.2626950000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6242190000000001</c:v>
+                  <c:v>5865.7426759999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0310640000000006</c:v>
+                  <c:v>2054.6665039999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9651149999999999</c:v>
+                  <c:v>1906.699341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6830489999999996</c:v>
+                  <c:v>3006.6757809999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8958880000000002</c:v>
+                  <c:v>3606.1042480000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0282349999999996</c:v>
+                  <c:v>6240.0634769999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.909681</c:v>
+                  <c:v>9308.9296880000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9722099999999996</c:v>
+                  <c:v>8819.5214840000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0752300000000004</c:v>
+                  <c:v>3703.1691890000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1937959999999999</c:v>
+                  <c:v>6786.3930659999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4721979999999997</c:v>
+                  <c:v>7433.7104490000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0275030000000003</c:v>
+                  <c:v>6511.7651370000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0077749999999996</c:v>
+                  <c:v>5914.8100590000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5165620000000004</c:v>
+                  <c:v>2684.1071780000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0695010000000007</c:v>
+                  <c:v>1981.3063959999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.4527559999999999</c:v>
+                  <c:v>2898.5991210000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.843153</c:v>
+                  <c:v>3279.6906739999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0598099999999997</c:v>
+                  <c:v>4177.9633789999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9150720000000003</c:v>
+                  <c:v>3512.5729980000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9718720000000003</c:v>
+                  <c:v>9342.6738280000009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0863909999999999</c:v>
+                  <c:v>5434.9077150000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2516379999999998</c:v>
+                  <c:v>7711.9755859999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.64663</c:v>
+                  <c:v>9701.2285159999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.5829050000000002</c:v>
+                  <c:v>6177.5473629999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.4740099999999998</c:v>
+                  <c:v>4656.3022460000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.960483</c:v>
+                  <c:v>2312.6696780000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1209220000000002</c:v>
+                  <c:v>1992.829346</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.3607829999999996</c:v>
+                  <c:v>2926.8774410000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.9818829999999998</c:v>
+                  <c:v>4267.826172</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.1174439999999999</c:v>
+                  <c:v>8797.7978519999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8891349999999996</c:v>
+                  <c:v>9638.2666019999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9424729999999997</c:v>
+                  <c:v>5345.5776370000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.1307260000000001</c:v>
+                  <c:v>3937.619385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4909759999999999</c:v>
+                  <c:v>4005.2077640000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.9781550000000001</c:v>
+                  <c:v>5503.7890630000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8422720000000004</c:v>
+                  <c:v>4152.0869140000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.1654229999999997</c:v>
+                  <c:v>2985.3583979999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.1980930000000001</c:v>
+                  <c:v>2122.342529</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.9609120000000004</c:v>
+                  <c:v>1956.7921140000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.6930249999999996</c:v>
+                  <c:v>3080.296143</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.790896</c:v>
+                  <c:v>4902.7509769999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0710119999999996</c:v>
+                  <c:v>5351.7001950000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8583990000000004</c:v>
+                  <c:v>3675.8620609999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.1720030000000001</c:v>
+                  <c:v>4597.7158200000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.0037159999999998</c:v>
+                  <c:v>9728.1103519999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4242179999999998</c:v>
+                  <c:v>10753.436523</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8541270000000001</c:v>
+                  <c:v>6420.2231449999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.6275510000000004</c:v>
+                  <c:v>5377.4853519999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.1857090000000001</c:v>
+                  <c:v>2612.29126</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.0560530000000004</c:v>
+                  <c:v>2179.2348630000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.0426649999999995</c:v>
+                  <c:v>1977.307251</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.2682169999999999</c:v>
+                  <c:v>2874.430664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.9289440000000004</c:v>
+                  <c:v>3969.1657709999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.0887450000000003</c:v>
+                  <c:v>9081.4443360000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9474879999999999</c:v>
+                  <c:v>11023.336914</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1608799999999997</c:v>
+                  <c:v>6276.7563479999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.4030139999999998</c:v>
+                  <c:v>4579.0200199999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.8735819999999999</c:v>
+                  <c:v>2942.1972660000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.1087930000000004</c:v>
+                  <c:v>3181.891357</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0569730000000002</c:v>
+                  <c:v>2298.4904790000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.98203</c:v>
+                  <c:v>2035.682129</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.3369940000000007</c:v>
+                  <c:v>1902.7143550000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.4494959999999999</c:v>
+                  <c:v>1871.8629149999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.9428590000000003</c:v>
+                  <c:v>2298.9545899999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.3185650000000004</c:v>
+                  <c:v>2605.5385740000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.0622999999999996</c:v>
+                  <c:v>6155.123047</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9333390000000001</c:v>
+                  <c:v>11333.908203000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9859439999999999</c:v>
+                  <c:v>8122.5058589999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1781740000000003</c:v>
+                  <c:v>7092.0200199999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.2992889999999999</c:v>
+                  <c:v>7717.7236329999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.2593329999999998</c:v>
+                  <c:v>4824.3227539999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.0047280000000001</c:v>
+                  <c:v>2805.422607</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.4298529999999996</c:v>
+                  <c:v>2348.8791500000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.8495999999999997</c:v>
+                  <c:v>2106.248047</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.1722940000000008</c:v>
+                  <c:v>1931.257568</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.0893309999999996</c:v>
+                  <c:v>2865.7460940000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.4159550000000003</c:v>
+                  <c:v>8619.4023440000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.1637690000000003</c:v>
+                  <c:v>7136.2739259999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.8289619999999998</c:v>
+                  <c:v>5778.0986329999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.4277199999999999</c:v>
+                  <c:v>2518.5190429999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.8263319999999998</c:v>
+                  <c:v>7058.2358400000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.1319749999999997</c:v>
+                  <c:v>14235.340819999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.4354750000000003</c:v>
+                  <c:v>11117.672852</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.2650949999999996</c:v>
+                  <c:v>4351.6860349999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.1630710000000004</c:v>
+                  <c:v>2701.5139159999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.2424330000000001</c:v>
+                  <c:v>2058.804443</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.6095309999999996</c:v>
+                  <c:v>1992.714966</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.4986920000000001</c:v>
+                  <c:v>3109.4345699999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.3474279999999998</c:v>
+                  <c:v>6127.0126950000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.8383349999999998</c:v>
+                  <c:v>8497.1630860000005</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5731630000000001</c:v>
+                  <c:v>3933.9594729999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.009252</c:v>
+                  <c:v>8213.8994139999995</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.1295549999999999</c:v>
+                  <c:v>3880.7773440000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.3720679999999996</c:v>
+                  <c:v>5097.1000979999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.817564</c:v>
+                  <c:v>6100.6689450000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.3859409999999999</c:v>
+                  <c:v>2381.5954590000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.3863799999999999</c:v>
+                  <c:v>2213.6997070000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.4037159999999993</c:v>
+                  <c:v>1986.431763</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.3046699999999998</c:v>
+                  <c:v>1938.3717039999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.1027199999999997</c:v>
+                  <c:v>2673.5659179999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.9124160000000003</c:v>
+                  <c:v>3102.6916500000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.186598</c:v>
+                  <c:v>3851.9145509999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.9419570000000004</c:v>
+                  <c:v>6790.9130859999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1091,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,328 +1115,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.995069</c:v>
+                  <c:v>7731.4653319999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7064260000000004</c:v>
+                  <c:v>3764.2907709999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4635199999999999</c:v>
+                  <c:v>4031.554443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8469829999999998</c:v>
+                  <c:v>5563.5078130000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3546389999999997</c:v>
+                  <c:v>4884.7182620000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6800379999999997</c:v>
+                  <c:v>7665.8681640000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.584220999999999</c:v>
+                  <c:v>2627.0671390000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.261647999999999</c:v>
+                  <c:v>1990.168091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.806131000000001</c:v>
+                  <c:v>2384.7985840000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8069469999999992</c:v>
+                  <c:v>3398.7834469999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3599959999999998</c:v>
+                  <c:v>5645.6079099999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.272043</c:v>
+                  <c:v>11827.931640999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6519149999999998</c:v>
+                  <c:v>10789.300781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.530357</c:v>
+                  <c:v>3880.3869629999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.778022</c:v>
+                  <c:v>6301.9423829999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.180104</c:v>
+                  <c:v>8257.7431639999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3966960000000004</c:v>
+                  <c:v>6898.2861329999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9151740000000004</c:v>
+                  <c:v>6224.9716799999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.210819000000001</c:v>
+                  <c:v>3586.1628420000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.696068</c:v>
+                  <c:v>2766.5927729999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.140558</c:v>
+                  <c:v>2568.4582519999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.113104</c:v>
+                  <c:v>2841.3374020000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8270860000000004</c:v>
+                  <c:v>3978.67749</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.21502</c:v>
+                  <c:v>4171.935547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3466950000000004</c:v>
+                  <c:v>12011.785156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3152239999999997</c:v>
+                  <c:v>6274.9853519999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1118129999999997</c:v>
+                  <c:v>8751.96875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5996569999999997</c:v>
+                  <c:v>9398.6601559999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8391130000000002</c:v>
+                  <c:v>6719.7983400000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6897059999999993</c:v>
+                  <c:v>5210.1948240000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292591</c:v>
+                  <c:v>3293.6625979999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.783275</c:v>
+                  <c:v>2860.4638669999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.040979999999999</c:v>
+                  <c:v>2684.0275879999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8601080000000003</c:v>
+                  <c:v>3626.814453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1383010000000002</c:v>
+                  <c:v>5968.6997069999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9432869999999998</c:v>
+                  <c:v>9865.5234380000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7774809999999999</c:v>
+                  <c:v>5165.4565430000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4470419999999997</c:v>
+                  <c:v>4384.8510740000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2057549999999999</c:v>
+                  <c:v>4295.7241210000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2931949999999999</c:v>
+                  <c:v>5470.6733400000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0125589999999995</c:v>
+                  <c:v>4222.9233400000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.620977999999999</c:v>
+                  <c:v>3116.2150879999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.109044999999998</c:v>
+                  <c:v>2251.0541990000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.403063</c:v>
+                  <c:v>2185.2485350000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.773477</c:v>
+                  <c:v>2879.4721679999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6693629999999997</c:v>
+                  <c:v>3710.0266109999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3303070000000004</c:v>
+                  <c:v>4405.0717770000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3336269999999999</c:v>
+                  <c:v>2784.196289</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5585680000000002</c:v>
+                  <c:v>3600.7658689999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6808779999999999</c:v>
+                  <c:v>11908.654296999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.966812</c:v>
+                  <c:v>9075.5693360000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9964919999999999</c:v>
+                  <c:v>6030.7529299999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3046369999999996</c:v>
+                  <c:v>5272.5742190000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.878055</c:v>
+                  <c:v>3332.3615719999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.008330999999998</c:v>
+                  <c:v>2467.9572750000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.785382999999999</c:v>
+                  <c:v>2476.669922</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.869374000000001</c:v>
+                  <c:v>2288.59375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.811021</c:v>
+                  <c:v>2809.5463869999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.4374570000000002</c:v>
+                  <c:v>6130.9331050000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9163920000000001</c:v>
+                  <c:v>10606.087890999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9007389999999997</c:v>
+                  <c:v>5744.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5825889999999996</c:v>
+                  <c:v>5008.0356449999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.894501</c:v>
+                  <c:v>3114.3237300000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3208640000000003</c:v>
+                  <c:v>3157.3017580000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.762707000000001</c:v>
+                  <c:v>2357.8728030000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.518577000000001</c:v>
+                  <c:v>1993.559082</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.680610999999999</c:v>
+                  <c:v>1708.6188959999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.090021</c:v>
+                  <c:v>1607.1839600000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.509548000000001</c:v>
+                  <c:v>1578.5704350000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.196471000000001</c:v>
+                  <c:v>1602.200928</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.740685</c:v>
+                  <c:v>3245.6198730000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.9052759999999997</c:v>
+                  <c:v>10816.071289</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9835349999999998</c:v>
+                  <c:v>7089.7407229999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8835810000000004</c:v>
+                  <c:v>7053.9790039999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9938599999999997</c:v>
+                  <c:v>8079.7070309999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9413900000000002</c:v>
+                  <c:v>4306.8090819999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.368010999999999</c:v>
+                  <c:v>3055.006836</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.459146</c:v>
+                  <c:v>2420.9304200000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.561928</c:v>
+                  <c:v>1992.960327</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.301983</c:v>
+                  <c:v>1834.895874</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.822082999999999</c:v>
+                  <c:v>1755.045288</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9084380000000003</c:v>
+                  <c:v>4155.1914059999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2723960000000005</c:v>
+                  <c:v>4667.6010740000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.093515</c:v>
+                  <c:v>7449.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.808535</c:v>
+                  <c:v>5269.7221680000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.1422619999999997</c:v>
+                  <c:v>7626.1015630000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3439209999999999</c:v>
+                  <c:v>10718.837890999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1178819999999998</c:v>
+                  <c:v>7868.5170900000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1831309999999995</c:v>
+                  <c:v>7053.4711909999996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.747901000000001</c:v>
+                  <c:v>3840.7082519999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.931585</c:v>
+                  <c:v>2523.6594239999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.562736999999998</c:v>
+                  <c:v>3196.7001949999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.422396000000001</c:v>
+                  <c:v>2396.444336</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.4957209999999996</c:v>
+                  <c:v>4457.8056640000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.7252989999999997</c:v>
+                  <c:v>8033.3442379999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4009349999999996</c:v>
+                  <c:v>4622.6630859999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1181070000000002</c:v>
+                  <c:v>6787.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2502230000000001</c:v>
+                  <c:v>4740.3745120000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8250279999999997</c:v>
+                  <c:v>4707.0249020000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.2287509999999999</c:v>
+                  <c:v>6125.1625979999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.341208999999999</c:v>
+                  <c:v>4413.2910160000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.749307</c:v>
+                  <c:v>3377.5207519999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.671403999999999</c:v>
+                  <c:v>2121.132568</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.85783</c:v>
+                  <c:v>1941.7574460000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.116732000000001</c:v>
+                  <c:v>1797.482544</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.4111759999999993</c:v>
+                  <c:v>1652.9334719999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3036919999999999</c:v>
+                  <c:v>2287.5051269999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5905180000000003</c:v>
+                  <c:v>4750.248047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:Q3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I111"/>
+      <selection activeCell="H3" sqref="H3:I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,11 +2577,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>6.1677418425925925</v>
+        <v>4896.6372895740733</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>9.0553829907407408</v>
+        <v>4809.4943316574072</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>0.46818450282840252</v>
+        <v>-1.7796490277564768E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>-2.7523359027306293E-2</v>
+        <v>0.77506496843922812</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2666,42 +2666,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.0482469999999999</v>
+        <v>7111.201172</v>
       </c>
       <c r="I4">
-        <v>5.995069</v>
+        <v>7731.4653319999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.94682200000000005</v>
+        <v>620.26415999999972</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.0603139907407408</v>
+        <v>2921.9710003425926</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-1.1194948425925926</v>
+        <v>2214.5638824259267</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>9.3655217219235194</v>
+        <v>8537914.5268430915</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>1.2532687025914135</v>
+        <v>4904293.1893453943</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3.4260057293482147</v>
+        <v>6470891.4428546606</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.8964718996840001</v>
+        <v>384727.62818050524</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>2.9815910569006236E-2</v>
+        <v>8036250.0301244101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.83438868394159227</v>
+        <v>0.47401317478340216</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2726,42 +2726,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.2584140000000001</v>
+        <v>3667.6291500000002</v>
       </c>
       <c r="I5">
-        <v>5.7064260000000004</v>
+        <v>3764.2907709999999</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.4480120000000003</v>
+        <v>96.661620999999741</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.3489569907407404</v>
+        <v>-1045.2035606574073</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-0.90932784259259236</v>
+        <v>-1229.0081395740731</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>11.215512925831275</v>
+        <v>1092450.4832109225</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>0.8268771253140984</v>
+        <v>1510461.0071393242</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>3.045299835325658</v>
+        <v>1284563.683559757</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.20071475214400028</v>
+        <v>9343.4689743475901</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>0.21281230662691317</v>
+        <v>1282208.6381268243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.8914137957923749</v>
+        <v>0.79472443584883856</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2786,42 +2786,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>5.5942040000000004</v>
+        <v>3724.2719729999999</v>
       </c>
       <c r="I6">
-        <v>5.4635199999999999</v>
+        <v>4031.554443</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.13068400000000047</v>
+        <v>307.2824700000001</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5918629907407409</v>
+        <v>-777.93988865740721</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.57353784259259211</v>
+        <v>-1172.3653165740734</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12.90147974425302</v>
+        <v>605190.47036429914</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>0.32894565688576494</v>
+        <v>1374440.4355058274</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>2.0600693505976202</v>
+        <v>912029.74384144065</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>1.7078307856000122E-2</v>
+        <v>94422.516369300967</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>0.49592840358450624</v>
+        <v>748368.3314367017</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>6.1677418425925925</v>
+        <v>4896.6372895740733</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2846,42 +2846,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5.6540220000000003</v>
+        <v>5032.7763670000004</v>
       </c>
       <c r="I7">
-        <v>5.8469829999999998</v>
+        <v>5563.5078130000002</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0.19296099999999949</v>
+        <v>530.73144599999978</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-3.208399990740741</v>
+        <v>754.01348134259297</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.51371984259259218</v>
+        <v>136.1390774259271</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>10.293830500585187</v>
+        <v>568536.3300463768</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>0.26390807667335769</v>
+        <v>18533.848402382573</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>1.6482187382174076</v>
+        <v>102650.69971669211</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>3.7233947520999802E-2</v>
+        <v>281675.86777325068</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>0.10288623510133965</v>
+        <v>444716.29501436971</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1.1659043892769339</v>
+        <v>2703.6520559443484</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -2906,42 +2906,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>6.0343770000000001</v>
+        <v>4270.2626950000003</v>
       </c>
       <c r="I8">
-        <v>7.3546389999999997</v>
+        <v>4884.7182620000003</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.3202619999999996</v>
+        <v>614.45556699999997</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7007439907407411</v>
+        <v>75.223930342593121</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1333648425925924</v>
+        <v>-626.37459457407294</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8925301220407422</v>
+        <v>5658.6396961873024</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>1.778618123974695E-2</v>
+        <v>392345.13272783428</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.22681945461543637</v>
+        <v>-47118.358870610071</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1.743091748643999</v>
+        <v>377555.64381729148</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>1.4087248622617836</v>
+        <v>142.0632183115118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>9.0553829907407408</v>
+        <v>4809.4943316574072</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -2966,42 +2966,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>6.6242190000000001</v>
+        <v>5865.7426759999998</v>
       </c>
       <c r="I9">
-        <v>9.6800379999999997</v>
+        <v>7665.8681640000004</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3.0558189999999996</v>
+        <v>1800.1254880000006</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.62465500925925888</v>
+        <v>2856.3738323425932</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.45647715740740757</v>
+        <v>969.10538642592655</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.39019388059268478</v>
+        <v>8158871.4700915134</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.20837139523474715</v>
+        <v>939165.24999974447</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>0.28514074298696435</v>
+        <v>2768127.2665692735</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>9.3380297607609979</v>
+        <v>3240451.7725472404</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>12.336224297338838</v>
+        <v>7668639.6358737852</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.1858969541271742</v>
+        <v>2630.7375473779985</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3025,42 +3025,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>8.0310640000000006</v>
+        <v>2054.6665039999998</v>
       </c>
       <c r="I10">
-        <v>14.584220999999999</v>
+        <v>2627.0671390000002</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.5531569999999988</v>
+        <v>572.40063500000042</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.5288380092592586</v>
+        <v>-2182.427192657407</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>1.8633221574074081</v>
+        <v>-2841.9707855740735</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>30.568049732629881</v>
+        <v>4762988.4512504907</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3.471969462285398</v>
+        <v>8076797.9460565168</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>10.302006367369041</v>
+        <v>6202394.3231747905</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>42.943866666648987</v>
+        <v>327642.4869484037</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>70.837121407073298</v>
+        <v>5150948.6683768211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,42 +3077,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>7.9651149999999999</v>
+        <v>1906.699341</v>
       </c>
       <c r="I11">
-        <v>15.261647999999999</v>
+        <v>1990.168091</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>7.2965329999999993</v>
+        <v>83.46875</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.2062650092592584</v>
+        <v>-2819.3262406574072</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>1.7973731574074074</v>
+        <v>-2989.9379485740733</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>38.517725365155826</v>
+        <v>7948600.4512594286</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>3.230550266968673</v>
+        <v>8939728.9363233373</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>11.154974135399426</v>
+        <v>8429610.5163522623</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>53.239393820088992</v>
+        <v>6967.0322265625</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>82.69912919973234</v>
+        <v>8447563.2022598162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.94414712613679808</v>
+        <v>0.89147318291064626</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3137,42 +3137,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>6.6830489999999996</v>
+        <v>3006.6757809999999</v>
       </c>
       <c r="I12">
-        <v>12.806131000000001</v>
+        <v>2384.7985840000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>6.123082000000001</v>
+        <v>-621.8771969999998</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.7507480092592598</v>
+        <v>-2424.6957476574071</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0.51530715740740707</v>
+        <v>-1889.9615085740734</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>14.0681106289623</v>
+        <v>5879149.4687079126</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>0.26554146647530219</v>
+        <v>3571954.5038915873</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>1.9327872948028801</v>
+        <v>4582581.6330757337</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>37.492133178724011</v>
+        <v>386731.24814857653</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>44.068210605184241</v>
+        <v>6309333.6828200351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,42 +3189,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>5.8958880000000002</v>
+        <v>3606.1042480000001</v>
       </c>
       <c r="I13">
-        <v>9.8069469999999992</v>
+        <v>3398.7834469999998</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.911058999999999</v>
+        <v>-207.3208010000003</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75156400925925837</v>
+        <v>-1410.7108846574074</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-0.27185384259259227</v>
+        <v>-1290.5330415740732</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.56484846001385058</v>
+        <v>1990105.2000908849</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>7.390451173235793E-2</v>
+        <v>1665475.5313944286</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>-0.20431556387142399</v>
+        <v>1820569.0087585754</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>15.296382501480991</v>
+        <v>42981.914527281726</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>13.243814177700667</v>
+        <v>2243566.1337139173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,42 +3241,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>5.0282349999999996</v>
+        <v>6240.0634769999997</v>
       </c>
       <c r="I14">
-        <v>6.3599959999999998</v>
+        <v>5645.6079099999997</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.3317610000000002</v>
+        <v>-594.45556699999997</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6953869907407411</v>
+        <v>836.11357834259252</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1395068425925929</v>
+        <v>1343.4261874259264</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>7.2651110298544275</v>
+        <v>699085.91588885465</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.2984758443153404</v>
+        <v>1804793.9210617603</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>3.0714119193841323</v>
+        <v>1123256.8768078377</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.7735873611210005</v>
+        <v>353377.42113729147</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>3.6961661040432123E-2</v>
+        <v>560956.99026119721</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,42 +3293,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>4.909681</v>
+        <v>9308.9296880000002</v>
       </c>
       <c r="I15">
-        <v>5.272043</v>
+        <v>11827.931640999999</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.36236200000000007</v>
+        <v>2519.001952999999</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7833399907407408</v>
+        <v>7018.437309342592</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2580608425925925</v>
+        <v>4412.2923984259269</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>14.313661485538148</v>
+        <v>49258462.265172079</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>1.5827170836647839</v>
+        <v>19468324.209207218</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>4.759671896565548</v>
+        <v>30967397.588841233</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.13130621904400006</v>
+        <v>6345370.839217809</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>0.80227641662170979</v>
+        <v>48042841.38610895</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,42 +3345,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>4.9722099999999996</v>
+        <v>8819.5214840000008</v>
       </c>
       <c r="I16">
-        <v>4.6519149999999998</v>
+        <v>10789.300781</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32029499999999977</v>
+        <v>1969.7792969999991</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.403467990740741</v>
+        <v>5979.8064493425927</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1955318425925929</v>
+        <v>3922.8841944259275</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.3905303454783</v>
+        <v>35758085.171599269</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>1.4292963866528403</v>
+        <v>15389020.402876759</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>5.2644862007677808</v>
+        <v>23458088.205852281</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.10258888702499985</v>
+        <v>3880030.4788898109</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>2.2977310167242289</v>
+        <v>34723483.023183994</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3397,42 +3397,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.0752300000000004</v>
+        <v>3703.1691890000002</v>
       </c>
       <c r="I17">
-        <v>3.530357</v>
+        <v>3880.3869629999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5448730000000004</v>
+        <v>177.21777399999974</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5250259907407404</v>
+        <v>-929.10736865740728</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0925118425925922</v>
+        <v>-1193.4681005740731</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>30.5259121983607</v>
+        <v>863240.50249349128</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>1.1935821262050608</v>
+        <v>1424366.107087886</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>6.0361563255161279</v>
+        <v>1108860.006500931</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>2.386632586129001</v>
+        <v>31406.139421514981</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>6.9557988079371542</v>
+        <v>1032764.7262619107</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3449,42 +3449,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.1937959999999999</v>
+        <v>6786.3930659999996</v>
       </c>
       <c r="I18">
-        <v>4.778022</v>
+        <v>6301.9423829999996</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.41577399999999987</v>
+        <v>-484.45068300000003</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2773609907407408</v>
+        <v>1492.4480513425924</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-0.97394584259259265</v>
+        <v>1889.7557764259263</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>18.295817045110613</v>
+        <v>2227401.1859563012</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>0.94857050430339529</v>
+        <v>3571176.8945351555</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>4.1659179541996778</v>
+        <v>2820362.3260402814</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>0.17286801907599988</v>
+        <v>234692.4642591665</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1.9313212408955802</v>
+        <v>1974882.4056088515</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3501,42 +3501,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.4721979999999997</v>
+        <v>7433.7104490000002</v>
       </c>
       <c r="I19">
-        <v>5.180104</v>
+        <v>8257.7431639999995</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.29209399999999963</v>
+        <v>824.03271499999937</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8752789907407408</v>
+        <v>3448.2488323425923</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-0.69554384259259283</v>
+        <v>2537.0731594259269</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>15.017787256076575</v>
+        <v>11890420.009752052</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>0.48378123696846953</v>
+        <v>6436740.2162794545</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>2.69542644033816</v>
+        <v>8748459.559558183</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>8.5318904835999784E-2</v>
+        <v>679029.91539027018</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>0.9754285081209505</v>
+        <v>11297032.69910047</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3553,42 +3553,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6.0275030000000003</v>
+        <v>6511.7651370000003</v>
       </c>
       <c r="I20">
-        <v>6.3966960000000004</v>
+        <v>6898.2861329999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>0.3691930000000001</v>
+        <v>386.52099599999929</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6586869907407404</v>
+        <v>2088.7918013425924</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.14023884259259223</v>
+        <v>1615.127847425927</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>7.0686165147340541</v>
+        <v>4363051.1893560318</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>1.966693297170986E-2</v>
+        <v>2608637.9635307086</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>0.3728511863974634</v>
+        <v>3373665.8058233857</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.13630347124900008</v>
+        <v>149398.48034883145</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>5.2420006194136101E-2</v>
+        <v>4006598.0923883487</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3605,42 +3605,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>7.0077749999999996</v>
+        <v>5914.8100590000004</v>
       </c>
       <c r="I21">
-        <v>8.9151740000000004</v>
+        <v>6224.9716799999997</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.9073990000000007</v>
+        <v>310.16162099999929</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.14020899074074045</v>
+        <v>1415.4773483425924</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.84003315740740714</v>
+        <v>1018.1727694259271</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>1.9658561084537042E-2</v>
+        <v>2003576.1236709768</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.7056557055438577</v>
+        <v>1036675.788400462</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-0.1177802011888501</v>
+        <v>1441200.4918216451</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>3.6381709452010029</v>
+        <v>96200.231141347205</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>7.5483834595563239</v>
+        <v>1764472.2527882173</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3657,42 +3657,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>7.5165620000000004</v>
+        <v>2684.1071780000002</v>
       </c>
       <c r="I22">
-        <v>13.210819000000001</v>
+        <v>3586.1628420000002</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>5.6942570000000003</v>
+        <v>902.05566399999998</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>4.1554360092592599</v>
+        <v>-1223.331489657407</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>1.3488201574074079</v>
+        <v>-2212.5301115740731</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>17.267648427048524</v>
+        <v>1496539.9335874105</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>1.8193158170285446</v>
+        <v>4895289.49462198</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>5.6049358521054859</v>
+        <v>2706657.7573037799</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>32.424562782049001</v>
+        <v>813704.42095448088</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>49.604935845194021</v>
+        <v>1717343.2777445721</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3709,42 +3709,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>8.0695010000000007</v>
+        <v>1981.3063959999999</v>
       </c>
       <c r="I23">
-        <v>15.696068</v>
+        <v>2766.5927729999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>7.6265669999999997</v>
+        <v>785.2863769999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.6406850092592595</v>
+        <v>-2042.9015586574073</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>1.9017591574074082</v>
+        <v>-2915.3308935740733</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>44.098697392200648</v>
+        <v>4173446.7783648642</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>3.6166878927829353</v>
+        <v>8499154.2190274056</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>12.628983527816896</v>
+        <v>5955734.0264845667</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>58.164524205488995</v>
+        <v>616674.693901786</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>90.788999361934216</v>
+        <v>4537089.642587278</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3761,42 +3761,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>7.4527559999999999</v>
+        <v>2898.5991210000002</v>
       </c>
       <c r="I24">
-        <v>14.140558</v>
+        <v>2568.4582519999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>6.6878020000000005</v>
+        <v>-330.14086900000029</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>5.0851750092592596</v>
+        <v>-2241.0360796574073</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>1.2850141574074074</v>
+        <v>-1998.0381685740731</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>25.859004874794909</v>
+        <v>5022242.7103262413</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>1.6512613847374693</v>
+        <v>3992156.523078836</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>6.5345218797924929</v>
+        <v>4477675.6243071062</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>44.726695591204006</v>
+        <v>108992.99338407535</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>63.565797479816624</v>
+        <v>5420417.6309993388</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3813,42 +3813,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>5.843153</v>
+        <v>3279.6906739999999</v>
       </c>
       <c r="I25">
-        <v>10.113104</v>
+        <v>2841.3374020000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>4.2699509999999998</v>
+        <v>-438.35327199999983</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>1.057721009259259</v>
+        <v>-1968.1569296574071</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-0.32458884259259246</v>
+        <v>-1616.9466155740733</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1.1187737334284256</v>
+        <v>3873641.6997584715</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>0.10535791673559877</v>
+        <v>2614516.3576164502</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>-0.34332443818133168</v>
+        <v>3182404.6863282039</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>18.232481542400997</v>
+        <v>192153.59107310584</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>15.565882553102432</v>
+        <v>4224257.627861998</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -3865,42 +3865,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>5.0598099999999997</v>
+        <v>4177.9633789999998</v>
       </c>
       <c r="I26">
-        <v>5.8270860000000004</v>
+        <v>3978.67749</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.76727600000000074</v>
+        <v>-199.28588899999977</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2282969907407404</v>
+        <v>-830.81684165740717</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1079318425925928</v>
+        <v>-718.67391057407349</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>10.421901460425721</v>
+        <v>690256.62438158912</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1.2275129678306178</v>
+        <v>516492.18973983137</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>3.5767330333875109</v>
+        <v>597086.3885647296</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>0.5887124601760011</v>
+        <v>39714.865554520227</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.11604640309246887</v>
+        <v>842650.19363407278</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -3917,42 +3917,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>4.9150720000000003</v>
+        <v>3512.5729980000001</v>
       </c>
       <c r="I27">
-        <v>3.21502</v>
+        <v>4171.935547</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7000520000000003</v>
+        <v>659.36254899999994</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8403629907407408</v>
+        <v>-637.55878465740716</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2526698425925922</v>
+        <v>-1384.0642915740732</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>34.109839863614134</v>
+        <v>406481.20389383007</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1.5691817345409496</v>
+        <v>1915633.9632104412</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>7.3160465882948049</v>
+        <v>882422.3476236813</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.8901768027040013</v>
+        <v>434758.97102377733</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>8.7185662797233938</v>
+        <v>525192.61568989838</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -3969,42 +3969,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>4.9718720000000003</v>
+        <v>9342.6738280000009</v>
       </c>
       <c r="I28">
-        <v>4.3466950000000004</v>
+        <v>12011.785156</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.62517699999999987</v>
+        <v>2669.111327999999</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7086879907407404</v>
+        <v>7202.2908243425927</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1958698425925922</v>
+        <v>4446.0365384259276</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>22.171742594146071</v>
+        <v>51872993.118409507</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>1.4301046804224313</v>
+        <v>19767240.901018403</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>5.6309779663047586</v>
+        <v>32021648.165396962</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.39084628132899984</v>
+        <v>7124155.2812579181</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>3.3162116029164488</v>
+        <v>50625329.161105417</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4021,42 +4021,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.0863909999999999</v>
+        <v>5434.9077150000003</v>
       </c>
       <c r="I29">
-        <v>4.3152239999999997</v>
+        <v>6274.9853519999997</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.77116700000000016</v>
+        <v>840.07763699999941</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7401589907407411</v>
+        <v>1465.4910203425925</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0813508425925926</v>
+        <v>538.27042542592699</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>22.46910725750028</v>
+        <v>2147663.9307047729</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>1.1693196447757099</v>
+        <v>289735.05088820844</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>5.1257749186603538</v>
+        <v>788830.47497768304</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.59469854188900029</v>
+        <v>705730.43618750281</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>3.4318223571239144</v>
+        <v>1899843.3811933056</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4073,42 +4073,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.2516379999999998</v>
+        <v>7711.9755859999996</v>
       </c>
       <c r="I30">
-        <v>4.1118129999999997</v>
+        <v>8751.96875</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1398250000000001</v>
+        <v>1039.9931640000004</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9435699907407411</v>
+        <v>3942.4744183425928</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-0.9161038425925927</v>
+        <v>2815.3382964259263</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>24.438884253352413</v>
+        <v>15543104.539285766</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>0.8392462504129139</v>
+        <v>7926129.7233224371</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4.528823464643021</v>
+        <v>11099399.212639431</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1.2992010306250001</v>
+        <v>1081585.7811667318</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>4.226843405804118</v>
+        <v>14863580.669749908</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4125,42 +4125,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>5.64663</v>
+        <v>9701.2285159999992</v>
       </c>
       <c r="I31">
-        <v>5.5996569999999997</v>
+        <v>9398.6601559999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6973000000000376E-2</v>
+        <v>-302.5683599999993</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4557259907407412</v>
+        <v>4589.1658243425927</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-0.52111184259259247</v>
+        <v>4804.5912264259259</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>11.942042123081077</v>
+        <v>21060442.96331403</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>0.27155755249024688</v>
+        <v>23084096.853048984</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>1.8008197385300198</v>
+        <v>22049065.856250122</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>2.2064627290000354E-3</v>
+        <v>91547.612473089175</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>0.32272038838345096</v>
+        <v>20268209.889821917</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4177,42 +4177,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>6.5829050000000002</v>
+        <v>6177.5473629999997</v>
       </c>
       <c r="I32">
-        <v>7.8391130000000002</v>
+        <v>6719.7983400000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.256208</v>
+        <v>542.2509770000006</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2162699907407406</v>
+        <v>1910.3040083425931</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>0.41516315740740772</v>
+        <v>1280.9100734259264</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.4793126903764813</v>
+        <v>3649261.4042897779</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.17236044726848801</v>
+        <v>1640730.6162040122</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-0.50495048961580447</v>
+        <v>2446927.6475919522</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.5780585392640001</v>
+        <v>294036.12205745518</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2.7934815458133775</v>
+        <v>3323916.2157901693</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4229,42 +4229,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>6.4740099999999998</v>
+        <v>4656.3022460000002</v>
       </c>
       <c r="I33">
-        <v>9.6897059999999993</v>
+        <v>5210.1948240000002</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>3.2156959999999994</v>
+        <v>553.89257799999996</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0.63432300925925844</v>
+        <v>400.70049234259295</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.30626815740740732</v>
+        <v>-240.3350435740731</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.40236568007572127</v>
+        <v>160560.8845635964</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>9.3800184241728424E-2</v>
+        <v>57760.933169751617</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>0.19427293924695485</v>
+        <v>-96302.370287309619</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>10.340700764415997</v>
+        <v>306796.98796348606</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>12.404231526062464</v>
+        <v>98318.327395266315</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4281,42 +4281,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>7.960483</v>
+        <v>2312.6696780000002</v>
       </c>
       <c r="I34">
-        <v>14.292591</v>
+        <v>3293.6625979999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>6.3321079999999998</v>
+        <v>980.99291999999969</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>5.237208009259259</v>
+        <v>-1515.8317336574073</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>1.7927411574074075</v>
+        <v>-2583.9676115740731</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>27.428347732249332</v>
+        <v>2297745.8447628212</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3.2139208574624507</v>
+        <v>6676888.6176638203</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>9.3889583481027881</v>
+        <v>3916860.1043669172</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>40.095591723664</v>
+        <v>962347.10909012577</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>66.013173830623856</v>
+        <v>2569527.8618269959</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4333,42 +4333,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>8.1209220000000002</v>
+        <v>1992.829346</v>
       </c>
       <c r="I35">
-        <v>15.783275</v>
+        <v>2860.4638669999999</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>7.6623529999999995</v>
+        <v>867.63452099999995</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>6.7278920092592589</v>
+        <v>-1949.0304646574073</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>1.9531801574074077</v>
+        <v>-2903.8079435740733</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>45.26453088825459</v>
+        <v>3798719.7521626689</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>3.8149127272900261</v>
+        <v>8432100.5731638893</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>13.140785173665039</v>
+        <v>5659610.1455400465</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>58.711653496608996</v>
+        <v>752789.66203089932</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>92.458477901201263</v>
+        <v>4146002.2067970159</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4385,42 +4385,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>7.3607829999999996</v>
+        <v>2926.8774410000001</v>
       </c>
       <c r="I36">
-        <v>13.040979999999999</v>
+        <v>2684.0275879999999</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.6801969999999997</v>
+        <v>-242.84985300000017</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.9855970092592585</v>
+        <v>-2125.4667436574073</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>1.1930411574074071</v>
+        <v>-1969.7598485740732</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>15.884983520216347</v>
+        <v>4517608.878393623</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>1.4233472032680057</v>
+        <v>3879953.861054556</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>4.7549812688861666</v>
+        <v>4186659.0511358432</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>32.264637958808997</v>
+        <v>58976.051102121688</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>47.241402768441162</v>
+        <v>4895641.6914997101</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4437,42 +4437,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>5.9818829999999998</v>
+        <v>4267.826172</v>
       </c>
       <c r="I37">
-        <v>8.8601080000000003</v>
+        <v>3626.814453</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>2.8782250000000005</v>
+        <v>-641.01171900000008</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19527499074074051</v>
+        <v>-1182.6798786574072</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-0.18585884259259267</v>
+        <v>-628.81111757407325</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>3.8132322008796293E-2</v>
+        <v>1398731.6953810996</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>3.4543509369858137E-2</v>
+        <v>395403.42158475495</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>3.6293583766353277E-2</v>
+        <v>743682.25623093359</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>8.2841791506250022</v>
+        <v>410896.02389533509</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>7.2488355255527308</v>
+        <v>1612450.0362850258</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4489,42 +4489,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>5.1174439999999999</v>
+        <v>8797.7978519999997</v>
       </c>
       <c r="I38">
-        <v>7.1383010000000002</v>
+        <v>5968.6997069999998</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>2.0208570000000003</v>
+        <v>-2829.0981449999999</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9170819907407406</v>
+        <v>1159.2053753425926</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0502978425925926</v>
+        <v>3901.1605624259264</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.6752033592224809</v>
+        <v>1343757.1022231609</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>1.1031255581546544</v>
+        <v>15219053.733827371</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>2.0135070789481126</v>
+        <v>4522246.2940386655</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>4.0838630144490011</v>
+        <v>8003796.3140424406</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>0.9419850780273773</v>
+        <v>1149317.8268571214</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4541,42 +4541,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>4.8891349999999996</v>
+        <v>9638.2666019999997</v>
       </c>
       <c r="I39">
-        <v>4.9432869999999998</v>
+        <v>9865.5234380000002</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.41520000000002E-2</v>
+        <v>227.25683600000048</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1120959907407411</v>
+        <v>5056.029106342593</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2786068425925929</v>
+        <v>4741.6293124259264</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>16.909333437066078</v>
+        <v>25563430.324183479</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>1.6348354579245998</v>
+        <v>22483048.536456764</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>5.2577540711586792</v>
+        <v>23973815.815112699</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>2.9324391040000215E-3</v>
+        <v>51645.669508731109</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>1.499289661548451</v>
+        <v>24689829.556019042</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4593,42 +4593,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4.9424729999999997</v>
+        <v>5345.5776370000003</v>
       </c>
       <c r="I40">
-        <v>3.7774809999999999</v>
+        <v>5165.4565430000002</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1649919999999998</v>
+        <v>-180.12109400000008</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.277901990740741</v>
+        <v>355.96221134259304</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2252688425925928</v>
+        <v>448.94034742592703</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>27.856249423865076</v>
+        <v>126709.09590390888</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>1.5012837366281919</v>
+        <v>201547.43554691208</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>6.4668488635120491</v>
+        <v>159805.79883064498</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>1.3572063600639996</v>
+        <v>32443.608503756866</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>5.7133468956314513</v>
+        <v>72263.791012472735</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4645,42 +4645,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.1307260000000001</v>
+        <v>3937.619385</v>
       </c>
       <c r="I41">
-        <v>4.4470419999999997</v>
+        <v>4384.8510740000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-0.6836840000000004</v>
+        <v>447.23168900000019</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.6083409907407411</v>
+        <v>-424.64325765740705</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0370158425925924</v>
+        <v>-959.01790457407333</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>21.236806686941357</v>
+        <v>180321.89627389499</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1.0754018577880244</v>
+        <v>919715.34129364637</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>4.7789226154669917</v>
+        <v>407240.48715011484</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.46742381185600057</v>
+        <v>200016.18364579289</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>2.9608079482981737</v>
+        <v>261925.13045163167</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4697,42 +4697,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5.4909759999999999</v>
+        <v>4005.2077640000002</v>
       </c>
       <c r="I42">
-        <v>5.2057549999999999</v>
+        <v>4295.7241210000002</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.28522099999999995</v>
+        <v>290.51635699999997</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8496279907407409</v>
+        <v>-513.77021065740701</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-0.67676584259259265</v>
+        <v>-891.42952557407307</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.819635667094595</v>
+        <v>263959.82935895637</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>0.4580120057000619</v>
+        <v>794646.59906521696</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>2.6052967308216868</v>
+        <v>457989.93514042388</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>8.1351018840999975E-2</v>
+        <v>84399.753684551426</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>0.92541868532126548</v>
+        <v>361096.6361657324</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4749,42 +4749,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>5.9781550000000001</v>
+        <v>5503.7890630000002</v>
       </c>
       <c r="I43">
-        <v>6.2931949999999999</v>
+        <v>5470.6733400000003</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0.31503999999999976</v>
+        <v>-33.115722999999889</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.762187990740741</v>
+        <v>661.17900834259308</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1895868425925924</v>
+        <v>607.15177342592688</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>7.6296824961923715</v>
+        <v>437157.68107289477</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>3.5943170884228409E-2</v>
+        <v>368633.27597424807</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>0.52367449981171388</v>
+        <v>401436.0074672011</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>9.9250201599999852E-2</v>
+        <v>1096.6511098127216</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1.5738494703487729E-2</v>
+        <v>329517.38718859741</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4801,42 +4801,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>6.8422720000000004</v>
+        <v>4152.0869140000004</v>
       </c>
       <c r="I44">
-        <v>9.0125589999999995</v>
+        <v>4222.9233400000003</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>2.1702869999999992</v>
+        <v>70.836425999999847</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-4.282399074074128E-2</v>
+        <v>-586.57099165740692</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.67453015740740785</v>
+        <v>-744.55037557407286</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>1.833894182963095E-3</v>
+        <v>344065.52825395373</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>0.45499093325206241</v>
+        <v>554355.26176749298</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8886073215165592E-2</v>
+        <v>436731.65213937865</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>4.7101456623689968</v>
+        <v>5017.7992484534543</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>8.0929846590795602</v>
+        <v>453890.48585069657</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4853,42 +4853,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>7.1654229999999997</v>
+        <v>2985.3583979999999</v>
       </c>
       <c r="I45">
-        <v>11.620977999999999</v>
+        <v>3116.2150879999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>4.4555549999999995</v>
+        <v>130.85669000000007</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>2.5655950092592583</v>
+        <v>-1693.2792436574073</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>0.99768115740740715</v>
+        <v>-1911.2788915740734</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>6.5822777515360134</v>
+        <v>2867194.5970010012</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>0.99536769184578355</v>
+        <v>3652987.0013766186</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2.5596457982764442</v>
+        <v>3236328.8759429147</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>19.851970358024996</v>
+        <v>17123.473317756117</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>29.737784588455497</v>
+        <v>3169903.2158578704</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -4905,42 +4905,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>8.1980930000000001</v>
+        <v>2122.342529</v>
       </c>
       <c r="I46">
-        <v>16.109044999999998</v>
+        <v>2251.0541990000002</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>7.9109519999999982</v>
+        <v>128.71167000000014</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.0536620092592575</v>
+        <v>-2558.440132657407</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>2.0303511574074076</v>
+        <v>-2774.2947605740733</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>49.754147740867346</v>
+        <v>6545615.912392051</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4.1223258223855996</v>
+        <v>7696711.4185487544</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>14.321410824460193</v>
+        <v>7097867.0552738812</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>62.58316154630397</v>
+        <v>16566.693994188936</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>98.829508467478462</v>
+        <v>6999109.8891314641</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -4957,42 +4957,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>7.9609120000000004</v>
+        <v>1956.7921140000001</v>
       </c>
       <c r="I47">
-        <v>16.403063</v>
+        <v>2185.2485350000002</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>8.4421509999999991</v>
+        <v>228.45642100000009</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>7.3476800092592587</v>
+        <v>-2624.245796657407</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>1.7931701574074079</v>
+        <v>-2939.8451755740734</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>53.988401518468137</v>
+        <v>6886666.0012740688</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>3.2154592134165081</v>
+        <v>8642689.6563461553</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>13.175640518782689</v>
+        <v>7714876.3448238187</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>71.269913506800989</v>
+        <v>52192.336296129281</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>104.76179919527171</v>
+        <v>7351628.9784307433</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5009,42 +5009,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>6.6930249999999996</v>
+        <v>3080.296143</v>
       </c>
       <c r="I48">
-        <v>13.773477</v>
+        <v>2879.4721679999998</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>7.0804520000000002</v>
+        <v>-200.82397500000025</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>4.7180940092592589</v>
+        <v>-1930.0221636574074</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>0.52528315740740705</v>
+        <v>-1816.3411465740733</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>22.260411080208108</v>
+        <v>3724985.5522088204</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>0.27592239545589475</v>
+        <v>3299095.1607380193</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>2.4783353181286754</v>
+        <v>3505578.669650869</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>50.132800524304002</v>
+        <v>40330.268934800726</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>57.847207284623074</v>
+        <v>4068955.1276949467</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5061,42 +5061,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>5.790896</v>
+        <v>4902.7509769999997</v>
       </c>
       <c r="I49">
-        <v>7.6693629999999997</v>
+        <v>3710.0266109999998</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>1.8784669999999997</v>
+        <v>-1192.7243659999999</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3860199907407411</v>
+        <v>-1099.4677206574074</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-0.37684584259259246</v>
+        <v>6.1136874259264005</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1.921051414732964</v>
+        <v>1208829.2687675948</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>0.14201278907932097</v>
+        <v>37.377173941930579</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>0.52231587126087176</v>
+        <v>-6721.8019789951522</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>3.5286382700889987</v>
+        <v>1422591.4132501017</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>2.2548661003735613</v>
+        <v>1408044.9025060232</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5113,42 +5113,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>5.0710119999999996</v>
+        <v>5351.7001950000003</v>
       </c>
       <c r="I50">
-        <v>6.3303070000000004</v>
+        <v>4405.0717770000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>1.2592950000000007</v>
+        <v>-946.62841800000024</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7250759907407405</v>
+        <v>-404.42255465740709</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0967298425925929</v>
+        <v>455.06290542592706</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>7.4260391553116278</v>
+        <v>163557.60271562342</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1.2028163476331735</v>
+        <v>207082.24789468624</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>2.9886721623779464</v>
+        <v>-184037.70274217546</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>1.5858238970250018</v>
+        <v>896105.36176518316</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>2.6427430402895288E-2</v>
+        <v>241636.65315221131</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5165,42 +5165,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>4.8583990000000004</v>
+        <v>3675.8620609999998</v>
       </c>
       <c r="I51">
-        <v>3.3336269999999999</v>
+        <v>2784.196289</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5247720000000005</v>
+        <v>-891.66577199999983</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7217559907407409</v>
+        <v>-2025.2980426574072</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3093428425925921</v>
+        <v>-1220.7752285740735</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>32.738491617577559</v>
+        <v>4101832.1615919247</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1.7143786794484495</v>
+        <v>1490292.1587000813</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>7.4917402535376754</v>
+        <v>2472433.6809557201</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>2.3249296519840015</v>
+        <v>795067.84895635571</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>8.0322069410036363</v>
+        <v>4462406.9809063924</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5217,42 +5217,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.1720030000000001</v>
+        <v>4597.7158200000003</v>
       </c>
       <c r="I52">
-        <v>4.5585680000000002</v>
+        <v>3600.7658689999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.61343499999999995</v>
+        <v>-996.94995100000051</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4968149907407406</v>
+        <v>-1208.7284626574074</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99573884259259238</v>
+        <v>-298.92146957407294</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>20.221345060950647</v>
+        <v>1461024.4964381394</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>0.99149584264763546</v>
+        <v>89354.04497232342</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>4.4776533542332038</v>
+        <v>361314.88837356213</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>0.37630249922499992</v>
+        <v>993909.20479890343</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>2.5894404556842092</v>
+        <v>1679282.7386606671</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5269,42 +5269,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.0037159999999998</v>
+        <v>9728.1103519999997</v>
       </c>
       <c r="I53">
-        <v>4.6808779999999999</v>
+        <v>11908.654296999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32283799999999996</v>
+        <v>2180.5439449999994</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.374504990740741</v>
+        <v>7099.1599653425919</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1640258425925927</v>
+        <v>4831.4730624259264</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>19.136293914015649</v>
+        <v>50398072.21352303</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>1.3549561622233954</v>
+        <v>23343131.95294736</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>5.0920368577724924</v>
+        <v>34299400.138405308</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>0.10422437424399997</v>
+        <v>4754771.8960761605</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>2.2107640864092102</v>
+        <v>49168382.512430437</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5321,42 +5321,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>5.4242179999999998</v>
+        <v>10753.436523</v>
       </c>
       <c r="I54">
-        <v>5.966812</v>
+        <v>9075.5693360000005</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0.54259400000000024</v>
+        <v>-1677.8671869999998</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0885709907407408</v>
+        <v>4266.0750043425933</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-0.74352384259259274</v>
+        <v>5856.799233425927</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>9.5392707648452415</v>
+        <v>18199395.942676656</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>0.55282770450365459</v>
+        <v>34302097.260658525</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>2.2964261711555669</v>
+        <v>24985544.815171208</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.29440824883600025</v>
+        <v>2815238.2972112922</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>4.0372801644284001E-2</v>
+        <v>17463473.048645586</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5373,42 +5373,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>5.8541270000000001</v>
+        <v>6420.2231449999999</v>
       </c>
       <c r="I55">
-        <v>6.9964919999999999</v>
+        <v>6030.7529299999997</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1.1423649999999999</v>
+        <v>-389.47021500000028</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0588909907407409</v>
+        <v>1221.2585983425924</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-0.31361484259259242</v>
+        <v>1523.5858554259266</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>4.2390321117533896</v>
+        <v>1491472.5640257136</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>9.835426949437652E-2</v>
+        <v>2321313.8588539525</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>0.64569877397646414</v>
+        <v>1860692.3262520668</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1.3049977932249996</v>
+        <v>151687.04837214644</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.68682682340280254</v>
+        <v>1286218.2858587091</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5425,42 +5425,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>6.6275510000000004</v>
+        <v>5377.4853519999997</v>
       </c>
       <c r="I56">
-        <v>9.3046369999999996</v>
+        <v>5272.5742190000001</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>2.6770859999999992</v>
+        <v>-104.91113299999961</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.24925400925925878</v>
+        <v>463.07988734259288</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.45980915740740791</v>
+        <v>480.8480624259264</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>6.2127561131814661E-2</v>
+        <v>214442.98206122851</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.21142446123571043</v>
+        <v>231214.85913876761</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.11460927597791803</v>
+        <v>222671.06657710206</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>7.1667894513959958</v>
+        <v>11006.345827343606</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>9.840111228566041</v>
+        <v>141328.57490619426</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5477,42 +5477,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>7.1857090000000001</v>
+        <v>2612.29126</v>
       </c>
       <c r="I57">
-        <v>11.878055</v>
+        <v>3332.3615719999998</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>4.6923459999999997</v>
+        <v>720.07031199999983</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>2.822672009259259</v>
+        <v>-1477.1327596574074</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>1.0179671574074076</v>
+        <v>-2284.3460295740733</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>7.9674772718557021</v>
+        <v>2181921.1896531079</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>1.0362571335601178</v>
+        <v>5218236.7828308335</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>2.8733874015591034</v>
+        <v>3374282.3546771924</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>22.018110983715996</v>
+        <v>518501.2542237771</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>32.607676355660153</v>
+        <v>2446958.5205918825</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5529,42 +5529,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>8.0560530000000004</v>
+        <v>2179.2348630000001</v>
       </c>
       <c r="I58">
-        <v>16.008330999999998</v>
+        <v>2467.9572750000002</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>7.952277999999998</v>
+        <v>288.72241200000008</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>6.9529480092592575</v>
+        <v>-2341.537056657407</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>1.8883111574074078</v>
+        <v>-2717.4024265740732</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>48.343486019462269</v>
+        <v>5482795.7876998326</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>3.5657190271893042</v>
+        <v>7384275.9479506612</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>13.129329302757881</v>
+        <v>6362898.4796739509</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>63.238725389283971</v>
+        <v>83360.631191097782</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>96.837194964884191</v>
+        <v>5898486.6131915199</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5581,42 +5581,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>8.0426649999999995</v>
+        <v>1977.307251</v>
       </c>
       <c r="I59">
-        <v>16.785382999999999</v>
+        <v>2476.669922</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>8.742718</v>
+        <v>499.36267100000009</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>7.7300000092592587</v>
+        <v>-2332.8244096574072</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>1.874923157407407</v>
+        <v>-2919.3300385740731</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>59.752900143148139</v>
+        <v>5442069.7262934307</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>3.5153368461825605</v>
+        <v>8522487.8741208985</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>14.493156024119655</v>
+        <v>6810284.3738316977</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>76.435118027523998</v>
+        <v>249363.07718825433</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>112.7343037474717</v>
+        <v>5856242.0601233896</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5633,42 +5633,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>7.2682169999999999</v>
+        <v>2874.430664</v>
       </c>
       <c r="I60">
-        <v>13.869374000000001</v>
+        <v>2288.59375</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>6.6011570000000006</v>
+        <v>-585.83691399999998</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>4.8139910092592597</v>
+        <v>-2520.9005816574072</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>1.1004751574074074</v>
+        <v>-2022.2066255740733</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>23.174509437228984</v>
+        <v>6354939.7426006543</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>1.2110455720708582</v>
+        <v>4089319.6365156802</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>5.2976775136724283</v>
+        <v>5097781.8586411439</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>43.57527373864901</v>
+        <v>343204.88980504335</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>59.315137888011883</v>
+        <v>6801891.1043140609</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5685,42 +5685,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>5.9289440000000004</v>
+        <v>3969.1657709999999</v>
       </c>
       <c r="I61">
-        <v>10.811021</v>
+        <v>2809.5463869999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>4.8820769999999998</v>
+        <v>-1159.6193840000001</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.7556380092592594</v>
+        <v>-1999.9479446574073</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-0.23879784259259207</v>
+        <v>-927.47151857407334</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3.0822648195558155</v>
+        <v>3999791.7813393879</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>5.7024409626876382E-2</v>
+        <v>860203.4177660977</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>-0.41924256898466433</v>
+        <v>1854894.7573005024</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>23.834675833928998</v>
+        <v>1344717.1157485396</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>21.560041333614045</v>
+        <v>4355948.4356074603</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5737,42 +5737,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>5.0887450000000003</v>
+        <v>9081.4443360000005</v>
       </c>
       <c r="I62">
-        <v>7.4374570000000002</v>
+        <v>6130.9331050000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>2.3487119999999999</v>
+        <v>-2950.5112310000004</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6179259907407406</v>
+        <v>1321.4387733425929</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0789968425925922</v>
+        <v>4184.8070464259272</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2.617684511514407</v>
+        <v>1746200.4316931765</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>1.1642341863247831</v>
+        <v>17512610.015816092</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>1.7457370355577506</v>
+        <v>5529966.2901045159</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>5.5164480589439995</v>
+        <v>8705516.5242571384</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1.6121765809501181</v>
+        <v>1523486.1599779534</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5789,42 +5789,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>4.9474879999999999</v>
+        <v>11023.336914</v>
       </c>
       <c r="I63">
-        <v>6.9163920000000001</v>
+        <v>10606.087890999999</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1.9689040000000002</v>
+        <v>-417.24902300000031</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1389909907407407</v>
+        <v>5796.593559342592</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2202538425925926</v>
+        <v>6126.6996244259262</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>4.5752824584700553</v>
+        <v>33600496.892212018</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>1.4890194403619879</v>
+        <v>37536448.287940785</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>2.6101119757223255</v>
+        <v>35513987.582974002</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>3.876582961216001</v>
+        <v>174096.74719445477</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>0.56047705818613613</v>
+        <v>32597826.170122866</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5841,42 +5841,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>5.1608799999999997</v>
+        <v>6276.7563479999999</v>
       </c>
       <c r="I64">
-        <v>5.9007389999999997</v>
+        <v>5744.9121089999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>0.73985900000000004</v>
+        <v>-531.84423900000002</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1546439907407411</v>
+        <v>935.41777734259267</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0068618425925928</v>
+        <v>1380.1190584259266</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>9.9517787083166684</v>
+        <v>875006.41816855629</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1.0137707700689511</v>
+        <v>1904728.6154304661</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>3.176290661240873</v>
+        <v>1290987.9021009321</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.54739133988100008</v>
+        <v>282858.29455748916</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>7.1290517952524876E-2</v>
+        <v>719570.16927208833</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -5893,42 +5893,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>5.4030139999999998</v>
+        <v>4579.0200199999999</v>
       </c>
       <c r="I65">
-        <v>6.5825889999999996</v>
+        <v>5008.0356449999999</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>1.1795749999999998</v>
+        <v>429.015625</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4727939907407412</v>
+        <v>198.54131334259273</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-0.76472784259259274</v>
+        <v>-317.61726957407336</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>6.1147101206435215</v>
+        <v>39418.653103801589</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>0.58480867323632135</v>
+        <v>100880.7299316896</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>1.8910144137150948</v>
+        <v>-63060.149841524842</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>1.3913971806249996</v>
+        <v>184054.40649414063</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>0.17209816400900599</v>
+        <v>12409.593591601079</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -5945,42 +5945,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>5.8735819999999999</v>
+        <v>2942.1972660000001</v>
       </c>
       <c r="I66">
-        <v>6.894501</v>
+        <v>3114.3237300000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.0209190000000001</v>
+        <v>172.12646399999994</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1608819907407408</v>
+        <v>-1695.1706016574071</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.29415984259259265</v>
+        <v>-1954.4400235740732</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>4.6694109779076669</v>
+        <v>2873603.3687235359</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>8.6530012994098876E-2</v>
+        <v>3819835.8057482238</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>0.63564470625746461</v>
+        <v>3313109.2706653788</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.0422756045610002</v>
+        <v>29627.519609143277</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.5281788728755249</v>
+        <v>3176641.6246416033</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -5997,42 +5997,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>6.1087930000000004</v>
+        <v>3181.891357</v>
       </c>
       <c r="I67">
-        <v>7.3208640000000003</v>
+        <v>3157.3017580000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>1.2120709999999999</v>
+        <v>-24.589598999999907</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7345189907407406</v>
+        <v>-1652.1925736574071</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-5.8948842592592143E-2</v>
+        <v>-1714.7459325740733</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.0085561292402772</v>
+        <v>2729740.3004486868</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>3.4749660430062057E-3</v>
+        <v>2940353.6132793282</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.10224788695903771</v>
+        <v>2833090.4955081288</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>1.4691161090409997</v>
+        <v>604.64837898079645</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1.3296907099039144</v>
+        <v>3025288.091396064</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6049,42 +6049,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>7.0569730000000002</v>
+        <v>2298.4904790000001</v>
       </c>
       <c r="I68">
-        <v>10.762707000000001</v>
+        <v>2357.8728030000002</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.7057340000000005</v>
+        <v>59.382324000000153</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>1.7073240092592599</v>
+        <v>-2451.621528657407</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>0.88923115740740766</v>
+        <v>-2598.1468105740732</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>2.9149552725931134</v>
+        <v>6010448.1197764808</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>0.79073205130411783</v>
+        <v>6750366.849296229</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>1.5182057048230673</v>
+        <v>6369672.6554159755</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>13.732464478756004</v>
+        <v>3526.2604036409944</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>21.113704797788088</v>
+        <v>6445325.1182897165</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6101,42 +6101,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>7.98203</v>
+        <v>2035.682129</v>
       </c>
       <c r="I69">
-        <v>15.518577000000001</v>
+        <v>1993.559082</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>7.5365470000000006</v>
+        <v>-42.123047000000042</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>6.4631940092592597</v>
+        <v>-2815.9352496574074</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>1.8142881574074075</v>
+        <v>-2860.9551605740735</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>41.772876801324784</v>
+        <v>7929491.3302631257</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>3.2916415181087655</v>
+        <v>8185064.4308154229</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>11.726096350025577</v>
+        <v>8056264.4843498021</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>56.79954068320901</v>
+        <v>1774.3510885642127</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>87.438118141006427</v>
+        <v>8427863.0792914964</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6153,42 +6153,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>8.3369940000000007</v>
+        <v>1902.7143550000001</v>
       </c>
       <c r="I70">
-        <v>17.680610999999999</v>
+        <v>1708.6188959999999</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>9.3436169999999983</v>
+        <v>-194.09545900000012</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>8.6252280092592581</v>
+        <v>-3100.8754356574073</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>2.1692521574074082</v>
+        <v>-2993.9229345740732</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>74.394558211710432</v>
+        <v>9615428.4674635157</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>4.705654922416695</v>
+        <v>8963574.5381686296</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>18.71029446721645</v>
+        <v>9283782.0840720832</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>87.303178642688962</v>
+        <v>37673.047204420727</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>132.54615623558271</v>
+        <v>10163461.277766615</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6205,42 +6205,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>8.4494959999999999</v>
+        <v>1871.8629149999999</v>
       </c>
       <c r="I71">
-        <v>17.090021</v>
+        <v>1607.1839600000001</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>8.6405250000000002</v>
+        <v>-264.67895499999986</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>8.0346380092592593</v>
+        <v>-3202.3103716574069</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>2.2817541574074074</v>
+        <v>-3024.7743745740736</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>64.5554079398336</v>
+        <v>10254791.716424599</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>5.2064020348459881</v>
+        <v>9149260.0170799773</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>18.333068680890889</v>
+        <v>9686266.3516221028</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>74.658672275625008</v>
+        <v>70054.949219891947</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>119.29618199233627</v>
+        <v>10820503.207445955</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6257,42 +6257,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>6.9428590000000003</v>
+        <v>2298.9545899999998</v>
       </c>
       <c r="I72">
-        <v>13.509548000000001</v>
+        <v>1578.5704350000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>6.5666890000000002</v>
+        <v>-720.38415499999974</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>4.4541650092592597</v>
+        <v>-3230.9238966574071</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>0.77511715740740783</v>
+        <v>-2597.6826995740735</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>19.839585929709543</v>
+        <v>10438869.225991884</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>0.60080660770734029</v>
+        <v>6747955.4076664457</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>3.4524997206005779</v>
+        <v>8392915.1099873986</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>43.121404422721</v>
+        <v>518953.33077506366</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>53.902117652945329</v>
+        <v>11009567.651423084</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6309,42 +6309,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>6.3185650000000004</v>
+        <v>2605.5385740000002</v>
       </c>
       <c r="I73">
-        <v>11.196471000000001</v>
+        <v>1602.200928</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>4.8779060000000003</v>
+        <v>-1003.3376460000002</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>2.1410880092592599</v>
+        <v>-3207.293403657407</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>0.15082315740740793</v>
+        <v>-2291.0987155740731</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>4.5842578633937805</v>
+        <v>10286730.977144314</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>2.2747624810339748E-2</v>
+        <v>5249133.324505168</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>0.32292565384362304</v>
+        <v>7348225.7975886827</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>23.793966944836004</v>
+        <v>1006686.4318808217</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>25.288116938559423</v>
+        <v>10853310.940461418</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6361,42 +6361,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>5.0622999999999996</v>
+        <v>6155.123047</v>
       </c>
       <c r="I74">
-        <v>6.740685</v>
+        <v>3245.6198730000001</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>1.6783850000000005</v>
+        <v>-2909.5031739999999</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-2.3146979907407408</v>
+        <v>-1563.8744586574071</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1054418425925929</v>
+        <v>1258.4857574259267</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>5.3578267883392225</v>
+        <v>2445703.3224409982</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>1.2220016673545071</v>
+        <v>1583786.4016439086</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>2.5587640119298172</v>
+        <v>-1968113.7326225282</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>2.8169762082250016</v>
+        <v>8465208.7195160743</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>0.32826386161996934</v>
+        <v>2725858.5098309265</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6413,42 +6413,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>4.9333390000000001</v>
+        <v>11333.908203000001</v>
       </c>
       <c r="I75">
-        <v>5.9052759999999997</v>
+        <v>10816.071289</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>0.97193699999999961</v>
+        <v>-517.83691400000134</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>-3.1501069907407411</v>
+        <v>6006.5769573425923</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2344028425925924</v>
+        <v>6437.2709134259276</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>9.9231740531136872</v>
+        <v>36078966.744478993</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>1.5237503778006725</v>
+        <v>41438456.812839478</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>3.8885010238411679</v>
+        <v>38665963.136755876</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>0.94466153196899927</v>
+        <v>268155.06950104481</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>6.8888318527839679E-2</v>
+        <v>35039698.873559617</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6465,42 +6465,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>4.9859439999999999</v>
+        <v>8122.5058589999999</v>
       </c>
       <c r="I76">
-        <v>4.9835349999999998</v>
+        <v>7089.7407229999999</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-2.4090000000001055E-3</v>
+        <v>-1032.765136</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>-4.071847990740741</v>
+        <v>2280.2463913425927</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1817978425925926</v>
+        <v>3225.8685694259266</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>16.579946059699409</v>
+        <v>5199523.6052309163</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>1.3966461407565063</v>
+        <v>10406228.027210074</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>4.8121011708223902</v>
+        <v>7355775.1643789606</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>5.8032810000005079E-6</v>
+        <v>1066603.8261370985</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>1.4023458460431175</v>
+        <v>4809702.6697045872</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6517,42 +6517,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>5.1781740000000003</v>
+        <v>7092.0200199999999</v>
       </c>
       <c r="I77">
-        <v>5.8835810000000004</v>
+        <v>7053.9790039999998</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>0.70540700000000012</v>
+        <v>-38.041016000000127</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>-3.1718019907407404</v>
+        <v>2244.4846723425926</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>-0.98956784259259223</v>
+        <v>2195.3827304259266</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>10.060327868466924</v>
+        <v>5037711.4443808356</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>0.97924451509335741</v>
+        <v>4819705.3330523968</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>3.1387132531082038</v>
+        <v>4927502.8883666219</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>0.49759903564900015</v>
+        <v>1447.1188983122656</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>8.0747384462931907E-2</v>
+        <v>4654123.2728021955</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6569,42 +6569,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5.2992889999999999</v>
+        <v>7717.7236329999996</v>
       </c>
       <c r="I78">
-        <v>5.9938599999999997</v>
+        <v>8079.7070309999999</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>0.69457099999999983</v>
+        <v>361.98339800000031</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>-3.0615229907407411</v>
+        <v>3270.2126993425927</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>-0.86845284259259259</v>
+        <v>2821.0863434259263</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>9.3729230228341311</v>
+        <v>10694291.098941566</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>0.75421033980715435</v>
+        <v>7958528.1570642637</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>2.6587883439713722</v>
+        <v>9225552.3862134237</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>0.48242887404099977</v>
+        <v>131031.98042762662</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>3.0234895183395206E-2</v>
+        <v>10131932.978781315</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6621,42 +6621,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>6.2593329999999998</v>
+        <v>4824.3227539999998</v>
       </c>
       <c r="I79">
-        <v>7.9413900000000002</v>
+        <v>4306.8090819999998</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>1.6820570000000004</v>
+        <v>-517.51367200000004</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-1.1139929907407407</v>
+        <v>-502.68524965740744</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>9.1591157407407309E-2</v>
+        <v>-72.314535574073489</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>1.2409803834194999</v>
+        <v>252692.46022313004</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>8.3889401152284632E-3</v>
+        <v>5229.3920552939398</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-0.10203190736568361</v>
+        <v>36351.450368912607</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>2.829315751249001</v>
+        <v>267820.40070692362</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>3.1458277862746922</v>
+        <v>347897.31445004436</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6673,42 +6673,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>7.0047280000000001</v>
+        <v>2805.422607</v>
       </c>
       <c r="I80">
-        <v>10.368010999999999</v>
+        <v>3055.006836</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>3.3632829999999991</v>
+        <v>249.58422900000005</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>1.3126280092592584</v>
+        <v>-1754.4874956574072</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>0.83698615740740756</v>
+        <v>-2091.2146825740733</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>1.7229922906919237</v>
+        <v>3078226.3724182006</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>0.70054582769161766</v>
+        <v>4373178.8486133823</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>1.0986514735752417</v>
+        <v>3669010.0113113858</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>11.311672538088994</v>
+        <v>62292.287365524469</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>17.642260994667925</v>
+        <v>3391602.7275314471</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6725,42 +6725,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>7.4298529999999996</v>
+        <v>2348.8791500000002</v>
       </c>
       <c r="I81">
-        <v>13.459146</v>
+        <v>2420.9304200000001</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>6.0292930000000009</v>
+        <v>72.051269999999931</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>4.4037630092592597</v>
+        <v>-2388.5639116574071</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>1.2621111574074071</v>
+        <v>-2547.7581395740731</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>19.393128641720171</v>
+        <v>5705237.5600721333</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>1.5929245736522648</v>
+        <v>6491071.5377659425</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>5.5580384285641307</v>
+        <v>6085483.1478180457</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>36.352374079849014</v>
+        <v>5191.3855086128897</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>53.164574586658034</v>
+        <v>6129124.5040562572</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6777,42 +6777,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>7.8495999999999997</v>
+        <v>2106.248047</v>
       </c>
       <c r="I82">
-        <v>15.561928</v>
+        <v>1992.960327</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>7.7123280000000003</v>
+        <v>-113.28772000000004</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>6.5065450092592592</v>
+        <v>-2816.5340046574074</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>1.6818581574074072</v>
+        <v>-2790.3892425740733</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>42.335127957516576</v>
+        <v>7932863.7993914923</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>2.8286468616378388</v>
+        <v>7786272.1250731098</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>10.943085800361139</v>
+        <v>7859226.1879401039</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>59.480003179584003</v>
+        <v>12834.107502798408</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>88.250733560024955</v>
+        <v>8431339.9029833972</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6829,42 +6829,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>8.1722940000000008</v>
+        <v>1931.257568</v>
       </c>
       <c r="I83">
-        <v>16.301983</v>
+        <v>1834.895874</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>8.1296889999999991</v>
+        <v>-96.361693999999943</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>7.2466000092592591</v>
+        <v>-2974.5984576574074</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>2.0045521574074083</v>
+        <v>-2965.3797215740733</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>52.513211694196293</v>
+        <v>8848235.9842978269</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>4.0182293517666947</v>
+        <v>8793476.8931227289</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>14.526187682429192</v>
+        <v>8820813.9461627901</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>66.09184323672099</v>
+        <v>9285.576070549625</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>102.70284383649023</v>
+        <v>9374260.4958415311</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -6881,42 +6881,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>7.0893309999999996</v>
+        <v>2865.7460940000001</v>
       </c>
       <c r="I84">
-        <v>12.822082999999999</v>
+        <v>1755.045288</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>5.7327519999999996</v>
+        <v>-1110.7008060000001</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>3.7667000092592584</v>
+        <v>-3054.4490436574069</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>0.9215891574074071</v>
+        <v>-2030.8911955740732</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>14.188028959753698</v>
+        <v>9329658.9602996483</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>0.84932657505089459</v>
+        <v>4124519.0482602883</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>3.4713498877397124</v>
+        <v>6203253.6700934758</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>32.864445493503993</v>
+        <v>1233656.2804490498</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>44.280256239166143</v>
+        <v>9869600.3043541908</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -6933,42 +6933,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>5.4159550000000003</v>
+        <v>8619.4023440000001</v>
       </c>
       <c r="I85">
-        <v>9.9084380000000003</v>
+        <v>4155.1914059999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>4.492483</v>
+        <v>-4464.2109380000002</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>0.85305500925925948</v>
+        <v>-654.30292565740729</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>-0.75178684259259221</v>
+        <v>3722.7650544259268</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>0.72770284882231528</v>
+        <v>428112.31852384267</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>0.56518345669533898</v>
+        <v>13858979.650454873</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-0.64131553196881319</v>
+        <v>-2435816.0666460409</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>20.182403505288999</v>
+        <v>19929179.298958842</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>13.992807742042546</v>
+        <v>549741.99826893839</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -6985,42 +6985,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>5.1637690000000003</v>
+        <v>7136.2739259999998</v>
       </c>
       <c r="I86">
-        <v>8.2723960000000005</v>
+        <v>4667.6010740000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>3.1086270000000003</v>
+        <v>-2468.6728519999997</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-0.7829869907407403</v>
+        <v>-141.89325765740705</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0039728425925922</v>
+        <v>2239.6366364259266</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>0.61306862766924008</v>
+        <v>20133.696568631305</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>1.0079614686634499</v>
+        <v>5015972.2632212378</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>0.78609767480700077</v>
+        <v>-317789.33831135248</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>9.6635618251290012</v>
+        <v>6094345.6502018124</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>4.4295691222922864</v>
+        <v>52457.588044493306</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7037,42 +7037,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.8289619999999998</v>
+        <v>5778.0986329999996</v>
       </c>
       <c r="I87">
-        <v>5.093515</v>
+        <v>7449.6606449999999</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>0.26455300000000026</v>
+        <v>1671.5620120000003</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>-3.9618679907407408</v>
+        <v>2640.1663133425927</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3387798425925928</v>
+        <v>881.46134342592632</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>15.696397976056074</v>
+        <v>6970478.1621090174</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>1.7923314669322474</v>
+        <v>776974.09995423886</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>5.3040690050165207</v>
+        <v>2327204.5454268367</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>6.998828980900014E-2</v>
+        <v>2794119.5599614894</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>1.1539633093464505</v>
+        <v>6517928.2533502569</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7089,42 +7089,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.4277199999999999</v>
+        <v>2518.5190429999998</v>
       </c>
       <c r="I88">
-        <v>3.808535</v>
+        <v>5269.7221680000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>-0.61918499999999987</v>
+        <v>2751.2031250000005</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-5.2468479907407408</v>
+        <v>460.22783634259304</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-1.7400218425925926</v>
+        <v>-2378.1182465740735</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>27.529413837940147</v>
+        <v>211809.6613445846</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>3.0276760126993212</v>
+        <v>5655446.3946885457</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>9.1296301086519467</v>
+        <v>-1094476.2151876271</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>0.38339006422499983</v>
+        <v>7569118.6350097684</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>5.5658569261357096</v>
+        <v>139192.32651008869</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7141,42 +7141,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>4.8263319999999998</v>
+        <v>7058.2358400000003</v>
       </c>
       <c r="I89">
-        <v>5.1422619999999997</v>
+        <v>7626.1015630000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>0.31592999999999982</v>
+        <v>567.86572299999989</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>-3.9131209907407412</v>
+        <v>2816.607231342593</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3414098425925927</v>
+        <v>2161.598550425927</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>15.312515888175799</v>
+        <v>7933276.2956513874</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>1.7993803658042842</v>
+        <v>4672508.2932034684</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>5.2490990122353081</v>
+        <v>6088374.1083893329</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>9.9811764899999891E-2</v>
+        <v>322471.47935831262</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>1.0516089075637289</v>
+        <v>7449975.2199085234</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7193,42 +7193,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.1319749999999997</v>
+        <v>14235.340819999999</v>
       </c>
       <c r="I90">
-        <v>5.3439209999999999</v>
+        <v>10718.837890999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>0.21194600000000019</v>
+        <v>-3516.5029290000002</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>-3.7114619907407409</v>
+        <v>5909.343559342592</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0357668425925928</v>
+        <v>9338.7035304259261</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>13.774950108713224</v>
+        <v>34920341.302343771</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>1.0728129522142289</v>
+        <v>87211383.629189655</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>3.8442092675519559</v>
+        <v>55185607.560132369</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>4.4921106916000084E-2</v>
+        <v>12365792.84966558</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>0.67868078068996918</v>
+        <v>33898019.843244411</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7245,42 +7245,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>5.4354750000000003</v>
+        <v>11117.672852</v>
       </c>
       <c r="I91">
-        <v>6.1178819999999998</v>
+        <v>7868.5170900000003</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>0.68240699999999954</v>
+        <v>-3249.1557619999994</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>-2.937500990740741</v>
+        <v>3059.0227583425931</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>-0.73226684259259223</v>
+        <v>6221.0355624259264</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>8.6289120706028353</v>
+        <v>9357620.236057926</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>0.53621472876052423</v>
+        <v>38701283.468968064</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>2.1510345756023339</v>
+        <v>19030289.365919523</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>0.46567931364899939</v>
+        <v>10557013.165737797</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>2.4860039033581197E-3</v>
+        <v>8832069.548179647</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7297,42 +7297,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>6.2650949999999996</v>
+        <v>4351.6860349999997</v>
       </c>
       <c r="I92">
-        <v>8.1831309999999995</v>
+        <v>7053.4711909999996</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>1.9180359999999999</v>
+        <v>2701.7851559999999</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>-0.87225199074074133</v>
+        <v>2243.9768593425924</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>9.7353157407407132E-2</v>
+        <v>-544.95125457407357</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>0.7608235353511863</v>
+        <v>5035432.1452650446</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>9.4776372571913903E-3</v>
+        <v>296971.86986185674</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-8.4916485353507626E-2</v>
+        <v>-1222858.0047339352</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>3.6788620972959993</v>
+        <v>7299643.0291819442</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>4.0617934557953381</v>
+        <v>4651932.4783401825</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7349,42 +7349,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>7.1630710000000004</v>
+        <v>2701.5139159999999</v>
       </c>
       <c r="I93">
-        <v>11.747901000000001</v>
+        <v>3840.7082519999999</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>4.5848300000000002</v>
+        <v>1139.194336</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>2.6925180092592598</v>
+        <v>-968.7860796574073</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>0.99532915740740791</v>
+        <v>-2195.1233735740734</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>7.2496532301854471</v>
+        <v>938546.46813796833</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>0.99068013158534063</v>
+        <v>4818566.6252112212</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>2.6799416814602903</v>
+        <v>2126604.9674491691</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>21.0206661289</v>
+        <v>1297763.7351744811</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>31.138176221997753</v>
+        <v>1114986.1323921089</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7401,42 +7401,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>8.2424330000000001</v>
+        <v>2058.804443</v>
       </c>
       <c r="I94">
-        <v>15.931585</v>
+        <v>2523.6594239999999</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>7.689152</v>
+        <v>464.85498099999995</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>6.8762020092592593</v>
+        <v>-2285.8349076574073</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>2.0746911574074076</v>
+        <v>-2837.8328465740733</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>47.282154072141076</v>
+        <v>5225041.2250651475</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>4.3043433986244883</v>
+        <v>8053295.2650947077</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>14.265995505157234</v>
+        <v>6486817.3827958042</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>59.123058479104003</v>
+        <v>216090.1533605103</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>95.332633202451461</v>
+        <v>5631023.9505044846</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7453,42 +7453,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>7.6095309999999996</v>
+        <v>1992.714966</v>
       </c>
       <c r="I95">
-        <v>16.562736999999998</v>
+        <v>3196.7001949999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>8.953205999999998</v>
+        <v>1203.9852289999999</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>7.5073540092592577</v>
+        <v>-1612.7941366574073</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>1.4417891574074071</v>
+        <v>-2903.9223235740733</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>56.360364220341047</v>
+        <v>2601104.9272365118</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>2.078755974417561</v>
+        <v>8432764.8613518439</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>10.824021611369025</v>
+        <v>4683428.8967688195</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>80.159897678435968</v>
+        <v>1449580.4316501822</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>108.05592432252342</v>
+        <v>2889786.1255089422</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7505,42 +7505,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>6.4986920000000001</v>
+        <v>3109.4345699999999</v>
       </c>
       <c r="I96">
-        <v>13.422396000000001</v>
+        <v>2396.444336</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>6.9237040000000007</v>
+        <v>-712.99023399999987</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>4.3670130092592601</v>
+        <v>-2413.0499956574072</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>0.33095015740740763</v>
+        <v>-1787.2027195740734</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>19.070802623039619</v>
+        <v>5822810.2815422127</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>0.10952800668798789</v>
+        <v>3194093.5608529639</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>1.4452636428145489</v>
+        <v>4312609.5147071239</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>47.937677079616009</v>
+        <v>508355.07377937459</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>52.630006943588597</v>
+        <v>6250964.8051014477</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7557,42 +7557,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>5.3474279999999998</v>
+        <v>6127.0126950000003</v>
       </c>
       <c r="I97">
-        <v>8.4957209999999996</v>
+        <v>4457.8056640000004</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>3.1482929999999998</v>
+        <v>-1669.2070309999999</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-0.55966199074074119</v>
+        <v>-351.68866765740677</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>-0.82031384259259266</v>
+        <v>1230.3754054259271</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>0.31322154387988949</v>
+        <v>123684.91895864191</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>0.67291480034902484</v>
+        <v>1513823.6382770145</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>0.45909847817755739</v>
+        <v>-432709.08705268597</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>9.9117488138489982</v>
+        <v>2786252.1123398347</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>5.4194869573233015</v>
+        <v>192573.19560398327</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7609,42 +7609,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>4.8383349999999998</v>
+        <v>8497.1630860000005</v>
       </c>
       <c r="I98">
-        <v>6.7252989999999997</v>
+        <v>8033.3442379999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>1.8869639999999999</v>
+        <v>-463.8188480000008</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>-2.3300839907407411</v>
+        <v>3223.8499063425925</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3294068425925927</v>
+        <v>3600.5257964259272</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>5.4292914039062978</v>
+        <v>10393208.218625143</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>1.7673225531320065</v>
+        <v>12963786.010728557</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>3.0976296011061968</v>
+        <v>11607554.751591813</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>3.5606331372959996</v>
+        <v>215127.92376004785</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>0.31086998377622826</v>
+        <v>9838930.4803034868</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7661,42 +7661,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>4.5731630000000001</v>
+        <v>3933.9594729999999</v>
       </c>
       <c r="I99">
-        <v>4.4009349999999996</v>
+        <v>4622.6630859999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>-0.17222800000000049</v>
+        <v>688.70361299999968</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>-4.6544479907407412</v>
+        <v>-186.83124565740764</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-1.5945788425925924</v>
+        <v>-962.6778165740734</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>21.663886098510524</v>
+        <v>34905.914353898603</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>2.5426816852439318</v>
+        <v>926748.57852382527</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>7.4218842899827884</v>
+        <v>179858.29563728752</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>2.9662483984000169E-2</v>
+        <v>474312.66655925335</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>3.1216064190320072</v>
+        <v>75061.864224047997</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7713,42 +7713,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.009252</v>
+        <v>8213.8994139999995</v>
       </c>
       <c r="I100">
-        <v>6.1181070000000002</v>
+        <v>6787.6606449999999</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>1.1088550000000001</v>
+        <v>-1426.2387689999996</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>-2.9372759907407406</v>
+        <v>1978.1663133425927</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1584898425925925</v>
+        <v>3317.2621244259262</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>8.6275902457819988</v>
+        <v>3913141.9632434249</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>1.3420987153902098</v>
+        <v>11004228.002150809</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>3.4028044001642419</v>
+        <v>6562096.1870666519</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>1.2295594110250003</v>
+        <v>2034157.0261986342</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>2.4636175991914169E-3</v>
+        <v>3575969.3307663305</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7765,42 +7765,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.1295549999999999</v>
+        <v>3880.7773440000001</v>
       </c>
       <c r="I101">
-        <v>4.2502230000000001</v>
+        <v>4740.3745120000003</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>-0.87933199999999978</v>
+        <v>859.59716800000024</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>-4.8051599907407407</v>
+        <v>-69.119819657406879</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0381868425925926</v>
+        <v>-1015.8599455740732</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>23.089562536615556</v>
+        <v>4777.5494694724503</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>1.0778319201323767</v>
+        <v>1031971.429021759</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>4.9886538789393811</v>
+        <v>70216.05623526311</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>0.7732247662239996</v>
+        <v>738907.29123362061</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>3.6768785116976352</v>
+        <v>24418.055655164204</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7817,42 +7817,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5.3720679999999996</v>
+        <v>5097.1000979999999</v>
       </c>
       <c r="I102">
-        <v>4.8250279999999997</v>
+        <v>4707.0249020000001</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-0.54703999999999997</v>
+        <v>-390.07519599999978</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-4.2303549907407412</v>
+        <v>-102.46942965740709</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>-0.79567384259259288</v>
+        <v>200.4628084259266</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>17.895903347685095</v>
+        <v>10499.984014314299</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>0.63309686378606223</v>
+        <v>40185.33756200975</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>3.3659828110134384</v>
+        <v>-20541.309646926758</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>0.29925276159999997</v>
+        <v>152158.65853443823</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>1.8028804630897661</v>
+        <v>35952.857521540544</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -7869,42 +7869,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>5.817564</v>
+        <v>6100.6689450000003</v>
       </c>
       <c r="I103">
-        <v>6.2287509999999999</v>
+        <v>6125.1625979999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>0.41118699999999997</v>
+        <v>24.49365299999954</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>-2.8266319907407409</v>
+        <v>1315.6682663425927</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>-0.35017784259259255</v>
+        <v>1204.0316554259271</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>7.989848411078964</v>
+        <v>1730982.9870609234</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>0.12262452144280252</v>
+        <v>1449692.2272676984</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>0.9898238923207977</v>
+        <v>1584106.2407158313</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>0.16907474896899999</v>
+        <v>599.93903728438647</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>3.722117287561816E-3</v>
+        <v>1509274.433443018</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -7921,42 +7921,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>7.3859409999999999</v>
+        <v>2381.5954590000001</v>
       </c>
       <c r="I104">
-        <v>10.341208999999999</v>
+        <v>4413.2910160000001</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>2.9552679999999993</v>
+        <v>2031.695557</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>1.2858260092592584</v>
+        <v>-396.20331565740707</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>1.2181991574074074</v>
+        <v>-2515.0418305740732</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>1.6533485260875904</v>
+        <v>156977.06733792296</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>1.4840091871081174</v>
+        <v>6325435.4095373852</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>1.5663921610521578</v>
+        <v>996467.91229052248</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>8.7336089518239959</v>
+        <v>4127786.8363335403</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>17.417828113958258</v>
+        <v>233623.62017794279</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -7973,42 +7973,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>7.3863799999999999</v>
+        <v>2213.6997070000002</v>
       </c>
       <c r="I105">
-        <v>12.749307</v>
+        <v>3377.5207519999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>5.362927</v>
+        <v>1163.8210449999997</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>3.6939240092592591</v>
+        <v>-1431.9735796574073</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>1.2186381574074074</v>
+        <v>-2682.9375825740731</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>13.645074586181998</v>
+        <v>2050548.3328368489</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>1.4850789586893212</v>
+        <v>7198154.0719884112</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>4.5015567482466867</v>
+        <v>3841895.7341159862</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>28.760986007328999</v>
+        <v>1354479.4247848913</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>43.316999921199191</v>
+        <v>2307715.0547310412</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8025,42 +8025,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>8.4037159999999993</v>
+        <v>1986.431763</v>
       </c>
       <c r="I106">
-        <v>16.671403999999999</v>
+        <v>2121.132568</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>8.2676879999999997</v>
+        <v>134.70080499999995</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>7.6160210092592582</v>
+        <v>-2688.3617636574072</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>2.2359741574074068</v>
+        <v>-2910.2055265740732</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>58.003776013478408</v>
+        <v>7227288.9722951651</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>4.9995804325937625</v>
+        <v>8469296.2069022786</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>17.029226158975579</v>
+        <v>7823685.2620262094</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>68.354664865343992</v>
+        <v>18144.306867648011</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>110.32691871695242</v>
+        <v>7703426.4594799746</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8077,42 +8077,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>8.3046699999999998</v>
+        <v>1938.3717039999999</v>
       </c>
       <c r="I107">
-        <v>16.85783</v>
+        <v>1941.7574460000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>8.5531600000000001</v>
+        <v>3.3857420000001639</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>7.802447009259259</v>
+        <v>-2867.7368856574071</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>2.1369281574074073</v>
+        <v>-2958.2655855740732</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>60.878179332298757</v>
+        <v>8223914.8453600444</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>4.5664619499206172</v>
+        <v>8751335.2747919131</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>16.673268710765324</v>
+        <v>8483527.3373216782</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>73.156545985600005</v>
+        <v>11.46324889056511</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>114.2779848131421</v>
+        <v>8731314.8899603393</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8129,42 +8129,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>7.1027199999999997</v>
+        <v>2673.5659179999998</v>
       </c>
       <c r="I108">
-        <v>12.116732000000001</v>
+        <v>1797.482544</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>5.014012000000001</v>
+        <v>-876.08337399999982</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>3.0613490092592599</v>
+        <v>-3012.0117876574072</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>0.9349781574074072</v>
+        <v>-2223.0713715740735</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>9.371857756492652</v>
+        <v>9072215.0089871697</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>0.87418415482895029</v>
+        <v>4942046.3231122326</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>2.8622944558582142</v>
+        <v>6695917.1759848297</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>25.140316336144011</v>
+        <v>767522.07819922362</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>35.39048389293022</v>
+        <v>9604760.1370142996</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8181,42 +8181,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>5.9124160000000003</v>
+        <v>3102.6916500000002</v>
       </c>
       <c r="I109">
-        <v>9.4111759999999993</v>
+        <v>1652.9334719999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>3.498759999999999</v>
+        <v>-1449.7581780000003</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>0.3557930092592585</v>
+        <v>-3156.5608596574075</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-0.25532584259259217</v>
+        <v>-1793.9456395740731</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>0.12658866543775879</v>
+        <v>9963876.4607211109</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>6.5191285895617151E-2</v>
+        <v>3218240.9577468303</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>-9.0843149877674126E-2</v>
+        <v>5662698.5902325939</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>12.241321537599992</v>
+        <v>2101798.7746778806</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>10.519865133437095</v>
+        <v>10521614.45614462</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8233,42 +8233,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>5.186598</v>
+        <v>3851.9145509999998</v>
       </c>
       <c r="I110">
-        <v>6.3036919999999999</v>
+        <v>2287.5051269999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>1.1170939999999998</v>
+        <v>-1564.4094239999999</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-2.751690990740741</v>
+        <v>-2521.9892046574073</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-0.98114384259259246</v>
+        <v>-1044.7227385740734</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>7.5718033085237604</v>
+        <v>6360429.5484085018</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>0.96264323985735789</v>
+        <v>1091445.6004937119</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>2.6998046722827884</v>
+        <v>2634779.468543936</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>1.2478990048359995</v>
+        <v>2447376.8459000117</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>1.8482445299098836E-2</v>
+        <v>6807570.6417784607</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8285,42 +8285,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>4.9419570000000004</v>
+        <v>6790.9130859999996</v>
       </c>
       <c r="I111">
-        <v>5.5905180000000003</v>
+        <v>4750.248047</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>0.64856099999999994</v>
+        <v>-2040.6650389999995</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-3.4648649907407405</v>
+        <v>-59.246284657407159</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2257848425925921</v>
+        <v>1894.2757964259263</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>12.005289404060832</v>
+        <v>3510.1222457065192</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>1.5025484803297458</v>
+        <v>3588280.7929250775</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>4.2471789872797219</v>
+        <v>-112228.80305468709</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>0.42063137072099993</v>
+        <v>4164313.8013968696</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>0.33318736445735764</v>
+        <v>21429.810341410859</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B29C7-4D18-4E8B-80CE-42F5DBEEBF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C85098-7B8D-4C9D-BF54-797C92E591B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
+    <t>simulated flow on reach 23809000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
+    <t xml:space="preserve"> USGS_14211010_flow_CLACKAMAS RIVER NEAR OREGON CITY</t>
   </si>
 </sst>
 </file>
@@ -681,6 +681,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulated v. observed monthly flows for 2010-18 for</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Clackamas River near Oregon City (CW3M ver. 112)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -725,7 +759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
+                  <c:v>simulated flow on reach 23809000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -749,328 +783,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>7111.201172</c:v>
+                  <c:v>5497.205078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3667.6291500000002</c:v>
+                  <c:v>3375.1770019999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3724.2719729999999</c:v>
+                  <c:v>3496.9733890000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5032.7763670000004</c:v>
+                  <c:v>4158.4990230000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4270.2626950000003</c:v>
+                  <c:v>3527.1999510000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5865.7426759999998</c:v>
+                  <c:v>4039.014893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2054.6665039999998</c:v>
+                  <c:v>1430.650269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1906.699341</c:v>
+                  <c:v>1288.085327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3006.6757809999999</c:v>
+                  <c:v>1602.123413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3606.1042480000001</c:v>
+                  <c:v>1952.9389650000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6240.0634769999997</c:v>
+                  <c:v>3832.4221189999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9308.9296880000002</c:v>
+                  <c:v>7348.5322269999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8819.5214840000008</c:v>
+                  <c:v>7215.3969729999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3703.1691890000002</c:v>
+                  <c:v>3396.6352539999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6786.3930659999996</c:v>
+                  <c:v>6862.1464839999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7433.7104490000002</c:v>
+                  <c:v>6542.6201170000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6511.7651370000003</c:v>
+                  <c:v>4236.3427730000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5914.8100590000004</c:v>
+                  <c:v>2521.5395509999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2684.1071780000002</c:v>
+                  <c:v>1616.7705080000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1981.3063959999999</c:v>
+                  <c:v>1385.954956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2898.5991210000002</c:v>
+                  <c:v>1382.7739260000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3279.6906739999999</c:v>
+                  <c:v>1823.5395510000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4177.9633789999998</c:v>
+                  <c:v>3160.7309570000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3512.5729980000001</c:v>
+                  <c:v>3115.163818</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9342.6738280000009</c:v>
+                  <c:v>4953.3159180000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5434.9077150000003</c:v>
+                  <c:v>5752.984375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7711.9755859999996</c:v>
+                  <c:v>5977.6870120000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9701.2285159999992</c:v>
+                  <c:v>9871.0595699999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6177.5473629999997</c:v>
+                  <c:v>3945.1547850000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4656.3022460000002</c:v>
+                  <c:v>3017.5473630000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2312.6696780000002</c:v>
+                  <c:v>1668.654663</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1992.829346</c:v>
+                  <c:v>1396.5029300000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2926.8774410000001</c:v>
+                  <c:v>1381.071655</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4267.826172</c:v>
+                  <c:v>2896.2958979999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8797.7978519999997</c:v>
+                  <c:v>6287.6240230000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9638.2666019999997</c:v>
+                  <c:v>5596.2822269999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5345.5776370000003</c:v>
+                  <c:v>4098.1967770000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3937.619385</c:v>
+                  <c:v>4344.4868159999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4005.2077640000002</c:v>
+                  <c:v>5144.3833009999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5503.7890630000002</c:v>
+                  <c:v>4538.8168949999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4152.0869140000004</c:v>
+                  <c:v>2561.619385</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2985.3583979999999</c:v>
+                  <c:v>2177.7033689999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2122.342529</c:v>
+                  <c:v>1472.8623050000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1956.7921140000001</c:v>
+                  <c:v>1370.4888920000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3080.296143</c:v>
+                  <c:v>1975.344482</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4902.7509769999997</c:v>
+                  <c:v>3294.086914</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5351.7001950000003</c:v>
+                  <c:v>3137.66626</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3675.8620609999998</c:v>
+                  <c:v>3178.1987300000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4597.7158200000003</c:v>
+                  <c:v>3386.0927729999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9728.1103519999997</c:v>
+                  <c:v>6650.8862300000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10753.436523</c:v>
+                  <c:v>8674.3496090000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6420.2231449999999</c:v>
+                  <c:v>4538.8974609999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5377.4853519999997</c:v>
+                  <c:v>3557.773682</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2612.29126</c:v>
+                  <c:v>2022.331909</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2179.2348630000001</c:v>
+                  <c:v>1580.033936</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1977.307251</c:v>
+                  <c:v>1373.219482</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2874.430664</c:v>
+                  <c:v>1383.0970460000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3969.1657709999999</c:v>
+                  <c:v>2632.9094239999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9081.4443360000005</c:v>
+                  <c:v>5211.3408200000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11023.336914</c:v>
+                  <c:v>6918.091797</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6276.7563479999999</c:v>
+                  <c:v>4828.9853519999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4579.0200199999999</c:v>
+                  <c:v>3748.3359380000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2942.1972660000001</c:v>
+                  <c:v>3187.9873050000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3181.891357</c:v>
+                  <c:v>2908.7160640000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2298.4904790000001</c:v>
+                  <c:v>1909.8842770000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2035.682129</c:v>
+                  <c:v>1446.455322</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1902.7143550000001</c:v>
+                  <c:v>1281.341187</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1871.8629149999999</c:v>
+                  <c:v>1258.7966309999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2298.9545899999998</c:v>
+                  <c:v>1392.7360839999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2605.5385740000002</c:v>
+                  <c:v>1393.935303</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6155.123047</c:v>
+                  <c:v>5046.9750979999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11333.908203000001</c:v>
+                  <c:v>9266.15625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8122.5058589999999</c:v>
+                  <c:v>6409.1166990000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7092.0200199999999</c:v>
+                  <c:v>6725.6997069999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7717.7236329999996</c:v>
+                  <c:v>5940.0141599999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4824.3227539999998</c:v>
+                  <c:v>2875.6176759999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2805.422607</c:v>
+                  <c:v>2072.4179690000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2348.8791500000002</c:v>
+                  <c:v>1865.9614260000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2106.248047</c:v>
+                  <c:v>1492.4938959999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1931.257568</c:v>
+                  <c:v>1327.869385</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2865.7460940000001</c:v>
+                  <c:v>1497.9609379999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8619.4023440000001</c:v>
+                  <c:v>5582.1308589999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7136.2739259999998</c:v>
+                  <c:v>4613.9912109999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5778.0986329999996</c:v>
+                  <c:v>3877.6770019999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2518.5190429999998</c:v>
+                  <c:v>1668.634033</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7058.2358400000003</c:v>
+                  <c:v>7381.3012699999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14235.340819999999</c:v>
+                  <c:v>11356.832031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>11117.672852</c:v>
+                  <c:v>5819.4760740000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4351.6860349999997</c:v>
+                  <c:v>3168.7993160000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2701.5139159999999</c:v>
+                  <c:v>1876.889038</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2058.804443</c:v>
+                  <c:v>1428.689331</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1992.714966</c:v>
+                  <c:v>1392.4183350000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3109.4345699999999</c:v>
+                  <c:v>1886.575439</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6127.0126950000003</c:v>
+                  <c:v>3514.8640140000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8497.1630860000005</c:v>
+                  <c:v>5294.2954099999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3933.9594729999999</c:v>
+                  <c:v>2211.9626459999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8213.8994139999995</c:v>
+                  <c:v>6584.2724609999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3880.7773440000001</c:v>
+                  <c:v>3353.6511230000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5097.1000979999999</c:v>
+                  <c:v>5374.2470700000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6100.6689450000003</c:v>
+                  <c:v>4924.1303710000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2381.5954590000001</c:v>
+                  <c:v>1915.2725829999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2213.6997070000002</c:v>
+                  <c:v>1620.556763</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1986.431763</c:v>
+                  <c:v>1342.1754149999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1938.3717039999999</c:v>
+                  <c:v>1313.4708250000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2673.5659179999998</c:v>
+                  <c:v>1346.130615</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3102.6916500000002</c:v>
+                  <c:v>1561.884155</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3851.9145509999998</c:v>
+                  <c:v>2759.8352049999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6790.9130859999996</c:v>
+                  <c:v>4923.9624020000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_flow_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> USGS_14211010_flow_CLACKAMAS RIVER NEAR OREGON CITY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,328 +1149,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>7731.4653319999998</c:v>
+                  <c:v>5399.5385740000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3764.2907709999999</c:v>
+                  <c:v>2557.1364749999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4031.554443</c:v>
+                  <c:v>3609.0329590000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5563.5078130000002</c:v>
+                  <c:v>4425.7163090000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4884.7182620000003</c:v>
+                  <c:v>4135.8066410000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7665.8681640000004</c:v>
+                  <c:v>5269.4780270000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2627.0671390000002</c:v>
+                  <c:v>1318.385376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1990.168091</c:v>
+                  <c:v>852.58404499999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2384.7985840000001</c:v>
+                  <c:v>1027.0595699999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3398.7834469999998</c:v>
+                  <c:v>1332.5375979999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5645.6079099999997</c:v>
+                  <c:v>3762.499268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11827.931640999999</c:v>
+                  <c:v>8331.2041019999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10789.300781</c:v>
+                  <c:v>7705.9340819999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3880.3869629999999</c:v>
+                  <c:v>3375.5844729999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6301.9423829999996</c:v>
+                  <c:v>6058.5874020000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8257.7431639999995</c:v>
+                  <c:v>6897.8198240000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6898.2861329999996</c:v>
+                  <c:v>4895.2548829999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6224.9716799999997</c:v>
+                  <c:v>3720.7946780000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3586.1628420000002</c:v>
+                  <c:v>1560.0913089999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2766.5927729999999</c:v>
+                  <c:v>990.32238800000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2568.4582519999999</c:v>
+                  <c:v>923.34802200000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2841.3374020000001</c:v>
+                  <c:v>1088.239014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3978.67749</c:v>
+                  <c:v>2619.619385</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4171.935547</c:v>
+                  <c:v>3366.3354490000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12011.785156</c:v>
+                  <c:v>9389.6923829999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6274.9853519999997</c:v>
+                  <c:v>5435.0576170000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8751.96875</c:v>
+                  <c:v>8258.1972659999992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9398.6601559999999</c:v>
+                  <c:v>7869.8881840000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6719.7983400000003</c:v>
+                  <c:v>5224.986328</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5210.1948240000002</c:v>
+                  <c:v>3125.0832519999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3293.6625979999999</c:v>
+                  <c:v>1523.9852289999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2860.4638669999999</c:v>
+                  <c:v>1043.670654</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2684.0275879999999</c:v>
+                  <c:v>986.52319299999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3626.814453</c:v>
+                  <c:v>1900.41272</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5968.6997069999998</c:v>
+                  <c:v>5867.9716799999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9865.5234380000002</c:v>
+                  <c:v>6748.8647460000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5165.4565430000002</c:v>
+                  <c:v>3750.6103520000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4384.8510740000002</c:v>
+                  <c:v>3649.5820309999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4295.7241210000002</c:v>
+                  <c:v>4037.7963869999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5470.6733400000003</c:v>
+                  <c:v>5159.7993159999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4222.9233400000003</c:v>
+                  <c:v>3153.5205080000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3116.2150879999999</c:v>
+                  <c:v>1940.8514399999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2251.0541990000002</c:v>
+                  <c:v>851.96954300000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2185.2485350000002</c:v>
+                  <c:v>839.533997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2879.4721679999998</c:v>
+                  <c:v>1363.24585</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3710.0266109999998</c:v>
+                  <c:v>2212.533203</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4405.0717770000001</c:v>
+                  <c:v>2851.2302249999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2784.196289</c:v>
+                  <c:v>3388.9973140000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3600.7658689999998</c:v>
+                  <c:v>3179.4458009999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11908.654296999999</c:v>
+                  <c:v>8046.5668949999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9075.5693360000005</c:v>
+                  <c:v>9133.8789059999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6030.7529299999997</c:v>
+                  <c:v>5181.7783200000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5272.5742190000001</c:v>
+                  <c:v>3962.1196289999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3332.3615719999998</c:v>
+                  <c:v>1698.2863769999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2467.9572750000002</c:v>
+                  <c:v>1174.9930420000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2476.669922</c:v>
+                  <c:v>914.91967799999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2288.59375</c:v>
+                  <c:v>914.67059300000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2809.5463869999999</c:v>
+                  <c:v>1403.618774</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6130.9331050000001</c:v>
+                  <c:v>2680.92749</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10606.087890999999</c:v>
+                  <c:v>6423.814453</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5744.9121089999999</c:v>
+                  <c:v>4617.1342770000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5008.0356449999999</c:v>
+                  <c:v>3534.5661620000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3114.3237300000001</c:v>
+                  <c:v>2683.1577149999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3157.3017580000001</c:v>
+                  <c:v>2612.1357419999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2357.8728030000002</c:v>
+                  <c:v>1480.411499</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1993.559082</c:v>
+                  <c:v>1038.0704350000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1708.6188959999999</c:v>
+                  <c:v>795.31207300000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1607.1839600000001</c:v>
+                  <c:v>661.03247099999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1578.5704350000001</c:v>
+                  <c:v>755.29766800000004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1602.200928</c:v>
+                  <c:v>797.44860800000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3245.6198730000001</c:v>
+                  <c:v>3412.2314449999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10816.071289</c:v>
+                  <c:v>9362.1074219999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7089.7407229999999</c:v>
+                  <c:v>5691.6948240000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7053.9790039999998</c:v>
+                  <c:v>6065.4331050000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8079.7070309999999</c:v>
+                  <c:v>6181.7080079999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4306.8090819999998</c:v>
+                  <c:v>3725.9291990000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3055.006836</c:v>
+                  <c:v>2126.8010250000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2420.9304200000001</c:v>
+                  <c:v>1367.9316409999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1992.960327</c:v>
+                  <c:v>1013.233643</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1834.895874</c:v>
+                  <c:v>779.36895800000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1755.045288</c:v>
+                  <c:v>992.86773700000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4155.1914059999999</c:v>
+                  <c:v>4313.2329099999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4667.6010740000002</c:v>
+                  <c:v>4075.1665039999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7449.6606449999999</c:v>
+                  <c:v>4732.3608400000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5269.7221680000002</c:v>
+                  <c:v>3466.342529</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7626.1015630000002</c:v>
+                  <c:v>8464.3496090000008</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10718.837890999999</c:v>
+                  <c:v>9775.4814449999994</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7868.5170900000003</c:v>
+                  <c:v>6237.3349609999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7053.4711909999996</c:v>
+                  <c:v>5795.6904299999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3840.7082519999999</c:v>
+                  <c:v>2533.3679200000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2523.6594239999999</c:v>
+                  <c:v>1328.5045170000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3196.7001949999999</c:v>
+                  <c:v>971.37426800000003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2396.444336</c:v>
+                  <c:v>1315.7611079999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4457.8056640000004</c:v>
+                  <c:v>3084.7854000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8033.3442379999997</c:v>
+                  <c:v>5686.8833009999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4622.6630859999996</c:v>
+                  <c:v>3719.0822750000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6787.6606449999999</c:v>
+                  <c:v>5698.1748049999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4740.3745120000003</c:v>
+                  <c:v>4079.2634280000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4707.0249020000001</c:v>
+                  <c:v>3626.1606449999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6125.1625979999999</c:v>
+                  <c:v>5775.3422849999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4413.2910160000001</c:v>
+                  <c:v>2454.9575199999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3377.5207519999999</c:v>
+                  <c:v>1209.290283</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2121.132568</c:v>
+                  <c:v>857.60443099999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1941.7574460000001</c:v>
+                  <c:v>796.806152</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1797.482544</c:v>
+                  <c:v>809.69787599999995</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1652.9334719999999</c:v>
+                  <c:v>918.75836200000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2287.5051269999999</c:v>
+                  <c:v>1768.679443</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4750.248047</c:v>
+                  <c:v>4188.5458980000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,6 +1501,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>month index in 2010-18</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1531,6 +1620,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>cfs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2211,14 +2355,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2471737</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2546,7 +2690,7 @@
   <dimension ref="A1:Q3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I112"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,11 +2721,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>4896.6372895740733</v>
+        <v>3599.5099713148138</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>4809.4943316574072</v>
+        <v>3498.970426212964</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2592,13 +2736,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>-1.7796490277564768E-2</v>
+        <v>-2.7931453420901399E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2613,10 +2757,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2650,7 +2794,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.77506496843922812</v>
+        <v>0.84808282225156217</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2666,42 +2810,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>7111.201172</v>
+        <v>5497.205078</v>
       </c>
       <c r="I4">
-        <v>7731.4653319999998</v>
+        <v>5399.5385740000002</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>620.26415999999972</v>
+        <v>-97.666503999999804</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2921.9710003425926</v>
+        <v>1900.5681477870362</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>2214.5638824259267</v>
+        <v>1897.6951066851861</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>8537914.5268430915</v>
+        <v>3612159.2843826455</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>4904293.1893453943</v>
+        <v>3601246.7179369</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>6470891.4428546606</v>
+        <v>3606698.8739771862</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>384727.62818050524</v>
+        <v>9538.7460035819786</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>8036250.0301244101</v>
+        <v>3240102.9704847843</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2854,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.47401317478340216</v>
+        <v>0.38942488603773784</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2726,42 +2870,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>3667.6291500000002</v>
+        <v>3375.1770019999999</v>
       </c>
       <c r="I5">
-        <v>3764.2907709999999</v>
+        <v>2557.1364749999998</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>96.661620999999741</v>
+        <v>-818.04052700000011</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-1045.2035606574073</v>
+        <v>-941.83395121296417</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1229.0081395740731</v>
+        <v>-224.33296931481391</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1092450.4832109225</v>
+        <v>887051.19165742421</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1510461.0071393242</v>
+        <v>50325.281121601241</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1284563.683559757</v>
+        <v>211284.40687710783</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>9343.4689743475901</v>
+        <v>669190.30381443794</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1282208.6381268243</v>
+        <v>1086542.5058195696</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2914,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.79472443584883856</v>
+        <v>0.85018204353063409</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2786,42 +2930,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3724.2719729999999</v>
+        <v>3496.9733890000002</v>
       </c>
       <c r="I6">
-        <v>4031.554443</v>
+        <v>3609.0329590000001</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>307.2824700000001</v>
+        <v>112.05956999999989</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-777.93988865740721</v>
+        <v>110.06253278703616</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1172.3653165740734</v>
+        <v>-102.53658231481359</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>605190.47036429914</v>
+        <v>12113.76112349741</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1374440.4355058274</v>
+        <v>10513.750712802543</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>912029.74384144065</v>
+        <v>-11285.435952894803</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>94422.516369300967</v>
+        <v>12557.347228584877</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>748368.3314367017</v>
+        <v>90.687294452210082</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2974,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>4896.6372895740733</v>
+        <v>3599.5099713148138</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2846,42 +2990,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5032.7763670000004</v>
+        <v>4158.4990230000003</v>
       </c>
       <c r="I7">
-        <v>5563.5078130000002</v>
+        <v>4425.7163090000004</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>530.73144599999978</v>
+        <v>267.21728600000006</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>754.01348134259297</v>
+        <v>926.74588278703641</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>136.1390774259271</v>
+        <v>558.9890516851865</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>568536.3300463768</v>
+        <v>858857.9312627234</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>18533.848402382573</v>
+        <v>312468.75990390411</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>102650.69971669211</v>
+        <v>518040.80217227648</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>281675.86777325068</v>
+        <v>71405.077937205831</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>444716.29501436971</v>
+        <v>682616.91243116849</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,7 +3034,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2703.6520559443484</v>
+        <v>2170.9421258447892</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -2906,42 +3050,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>4270.2626950000003</v>
+        <v>3527.1999510000001</v>
       </c>
       <c r="I8">
-        <v>4884.7182620000003</v>
+        <v>4135.8066410000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>614.45556699999997</v>
+        <v>608.60669000000007</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>75.223930342593121</v>
+        <v>636.83621478703617</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-626.37459457407294</v>
+        <v>-72.310020314813755</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>5658.6396961873024</v>
+        <v>405560.36446428008</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>392345.13272783428</v>
+        <v>5228.7390379287781</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-47118.358870610071</v>
+        <v>-46049.639628459685</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>377555.64381729148</v>
+        <v>370402.10311275616</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>142.0632183115118</v>
+        <v>287614.11791542184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +3094,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>4809.4943316574072</v>
+        <v>3498.970426212964</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -2966,42 +3110,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>5865.7426759999998</v>
+        <v>4039.014893</v>
       </c>
       <c r="I9">
-        <v>7665.8681640000004</v>
+        <v>5269.4780270000001</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1800.1254880000006</v>
+        <v>1230.4631340000001</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2856.3738323425932</v>
+        <v>1770.5076007870362</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>969.10538642592655</v>
+        <v>439.50492168518622</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8158871.4700915134</v>
+        <v>3134697.1644446668</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>939165.24999974447</v>
+        <v>193164.57618550168</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>2768127.2665692735</v>
+        <v>778146.80442693329</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>3240451.7725472404</v>
+        <v>1514039.5241331023</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>7668639.6358737852</v>
+        <v>2788793.3070089617</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3154,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2630.7375473779985</v>
+        <v>2403.1495663002706</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3025,42 +3169,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>2054.6665039999998</v>
+        <v>1430.650269</v>
       </c>
       <c r="I10">
-        <v>2627.0671390000002</v>
+        <v>1318.385376</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>572.40063500000042</v>
+        <v>-112.26489300000003</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2182.427192657407</v>
+        <v>-2180.5850502129642</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2841.9707855740735</v>
+        <v>-2168.8597023148141</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>4762988.4512504907</v>
+        <v>4754951.1612122757</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>8076797.9460565168</v>
+        <v>4703952.408325104</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>6202394.3231747905</v>
+        <v>4729383.0428770231</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>327642.4869484037</v>
+        <v>12603.406200301455</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>5150948.6683768211</v>
+        <v>5203529.4193501724</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,42 +3221,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1906.699341</v>
+        <v>1288.085327</v>
       </c>
       <c r="I11">
-        <v>1990.168091</v>
+        <v>852.58404499999995</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>83.46875</v>
+        <v>-435.50128200000006</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2819.3262406574072</v>
+        <v>-2646.3863812129639</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2989.9379485740733</v>
+        <v>-2311.424644314814</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>7948600.4512594286</v>
+        <v>7003360.8786694463</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>8939728.9363233373</v>
+        <v>5342683.8863458643</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>8429610.5163522623</v>
+        <v>6116922.6999147432</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>6967.0322265625</v>
+        <v>189661.36662364358</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>8447563.2022598162</v>
+        <v>7545602.0446604975</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3265,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.89147318291064626</v>
+        <v>0.92205316740990273</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3137,42 +3281,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>3006.6757809999999</v>
+        <v>1602.123413</v>
       </c>
       <c r="I12">
-        <v>2384.7985840000001</v>
+        <v>1027.0595699999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-621.8771969999998</v>
+        <v>-575.06384300000013</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2424.6957476574071</v>
+        <v>-2471.9108562129641</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1889.9615085740734</v>
+        <v>-1997.3865583148138</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>5879149.4687079126</v>
+        <v>6110343.2810635092</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>3571954.5038915873</v>
+        <v>3989553.0633366969</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>4582581.6330757337</v>
+        <v>4937361.517552237</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>386731.24814857653</v>
+        <v>330698.42352592881</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>6309333.6828200351</v>
+        <v>6617501.0672247475</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,42 +3333,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>3606.1042480000001</v>
+        <v>1952.9389650000001</v>
       </c>
       <c r="I13">
-        <v>3398.7834469999998</v>
+        <v>1332.5375979999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-207.3208010000003</v>
+        <v>-620.40136700000016</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-1410.7108846574074</v>
+        <v>-2166.4328282129641</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1290.5330415740732</v>
+        <v>-1646.5710063148138</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>1990105.2000908849</v>
+        <v>4693431.1991588222</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>1665475.5313944286</v>
+        <v>2711196.0788365784</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>1820569.0087585754</v>
+        <v>3567185.4820640683</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>42981.914527281726</v>
+        <v>384897.85617546889</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>2243566.1337139173</v>
+        <v>5139163.7413726002</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,42 +3385,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>6240.0634769999997</v>
+        <v>3832.4221189999998</v>
       </c>
       <c r="I14">
-        <v>5645.6079099999997</v>
+        <v>3762.499268</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-594.45556699999997</v>
+        <v>-69.92285099999981</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>836.11357834259252</v>
+        <v>263.52884178703607</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>1343.4261874259264</v>
+        <v>232.91214768518603</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>699085.91588885465</v>
+        <v>69447.450453616693</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1804793.9210617603</v>
+        <v>54248.068539325905</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1123256.8768078377</v>
+        <v>61379.068517608168</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>353377.42113729147</v>
+        <v>4889.2050919681742</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>560956.99026119721</v>
+        <v>26565.510833931654</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,42 +3437,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>9308.9296880000002</v>
+        <v>7348.5322269999997</v>
       </c>
       <c r="I15">
-        <v>11827.931640999999</v>
+        <v>8331.2041019999997</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>2519.001952999999</v>
+        <v>982.671875</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>7018.437309342592</v>
+        <v>4832.2336757870362</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>4412.2923984259269</v>
+        <v>3749.0222556851859</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>49258462.265172079</v>
+        <v>23350482.297410291</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>19468324.209207218</v>
+        <v>14055167.873622838</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>30967397.588841233</v>
+        <v>18116151.595197033</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>6345370.839217809</v>
+        <v>965644.01391601563</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>48042841.38610895</v>
+        <v>22388929.346360639</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,42 +3489,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>8819.5214840000008</v>
+        <v>7215.3969729999999</v>
       </c>
       <c r="I16">
-        <v>10789.300781</v>
+        <v>7705.9340819999998</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1969.7792969999991</v>
+        <v>490.53710899999987</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>5979.8064493425927</v>
+        <v>4206.9636557870363</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3922.8841944259275</v>
+        <v>3615.8870016851861</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>35758085.171599269</v>
+        <v>17698543.201113027</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>15389020.402876759</v>
+        <v>13074638.808955885</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>23458088.205852281</v>
+        <v>15211905.199522335</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>3880030.4788898109</v>
+        <v>240626.65530607777</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>34723483.023183994</v>
+        <v>16862718.976816621</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3397,42 +3541,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3703.1691890000002</v>
+        <v>3396.6352539999998</v>
       </c>
       <c r="I17">
-        <v>3880.3869629999999</v>
+        <v>3375.5844729999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>177.21777399999974</v>
+        <v>-21.050780999999915</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-929.10736865740728</v>
+        <v>-123.38595321296407</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1193.4681005740731</v>
+        <v>-202.87471731481401</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>863240.50249349128</v>
+        <v>15224.093450271757</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>1424366.107087886</v>
+        <v>41158.150925565693</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>1108860.006500931</v>
+        <v>25031.890378698954</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>31406.139421514981</v>
+        <v>443.13538070995742</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>1032764.7262619107</v>
+        <v>50142.628795537734</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3449,42 +3593,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6786.3930659999996</v>
+        <v>6862.1464839999999</v>
       </c>
       <c r="I18">
-        <v>6301.9423829999996</v>
+        <v>6058.5874020000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-484.45068300000003</v>
+        <v>-803.55908199999976</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>1492.4480513425924</v>
+        <v>2559.6169757870362</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>1889.7557764259263</v>
+        <v>3262.6365126851861</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>2227401.1859563012</v>
+        <v>6551639.0627371725</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>3571176.8945351555</v>
+        <v>10644797.013906552</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>2820362.3260402814</v>
+        <v>8351099.8036916181</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>234692.4642591665</v>
+        <v>645707.19826468232</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1974882.4056088515</v>
+        <v>6047061.8101052577</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3501,42 +3645,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>7433.7104490000002</v>
+        <v>6542.6201170000004</v>
       </c>
       <c r="I19">
-        <v>8257.7431639999995</v>
+        <v>6897.8198240000002</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>824.03271499999937</v>
+        <v>355.19970699999976</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>3448.2488323425923</v>
+        <v>3398.8493977870362</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2537.0731594259269</v>
+        <v>2943.1101456851866</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>11890420.009752052</v>
+        <v>11552177.228837298</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>6436740.2162794545</v>
+        <v>8661897.32963508</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>8748459.559558183</v>
+        <v>10003188.146283012</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>679029.91539027018</v>
+        <v>126166.83185288568</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>11297032.69910047</v>
+        <v>10878847.884320175</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3553,42 +3697,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6511.7651370000003</v>
+        <v>4236.3427730000003</v>
       </c>
       <c r="I20">
-        <v>6898.2861329999996</v>
+        <v>4895.2548829999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>386.52099599999929</v>
+        <v>658.9121099999993</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>2088.7918013425924</v>
+        <v>1396.2844567870357</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>1615.127847425927</v>
+        <v>636.8328016851865</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>4363051.1893560318</v>
+        <v>1949610.2842650672</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2608637.9635307086</v>
+        <v>405556.0173022041</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>3373665.8058233857</v>
+        <v>889199.74256516667</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>149398.48034883145</v>
+        <v>434165.16870465118</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>4006598.0923883487</v>
+        <v>1678954.87615805</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3605,42 +3749,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>5914.8100590000004</v>
+        <v>2521.5395509999998</v>
       </c>
       <c r="I21">
-        <v>6224.9716799999997</v>
+        <v>3720.7946780000002</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>310.16162099999929</v>
+        <v>1199.2551270000004</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>1415.4773483425924</v>
+        <v>221.82425178703625</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>1018.1727694259271</v>
+        <v>-1077.970420314814</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>2003576.1236709768</v>
+        <v>49205.998680878452</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>1036675.788400462</v>
+        <v>1162020.2270736967</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>1441200.4918216451</v>
+        <v>-239119.98193489059</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>96200.231141347205</v>
+        <v>1438212.8596357871</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1764472.2527882173</v>
+        <v>14709.980075711697</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3657,42 +3801,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>2684.1071780000002</v>
+        <v>1616.7705080000001</v>
       </c>
       <c r="I22">
-        <v>3586.1628420000002</v>
+        <v>1560.0913089999999</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>902.05566399999998</v>
+        <v>-56.679199000000153</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-1223.331489657407</v>
+        <v>-1938.879117212964</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-2212.5301115740731</v>
+        <v>-1982.7394633148137</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>1496539.9335874105</v>
+        <v>3759252.2311645229</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>4895289.49462198</v>
+        <v>3931255.7793859155</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>2706657.7573037799</v>
+        <v>3844292.1402951321</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>813704.42095448088</v>
+        <v>3212.5315992816186</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>1717343.2777445721</v>
+        <v>4159228.4801979451</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3709,42 +3853,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1981.3063959999999</v>
+        <v>1385.954956</v>
       </c>
       <c r="I23">
-        <v>2766.5927729999999</v>
+        <v>990.32238800000005</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>785.2863769999999</v>
+        <v>-395.63256799999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2042.9015586574073</v>
+        <v>-2508.6480382129639</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2915.3308935740733</v>
+        <v>-2213.5550153148138</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>4173446.7783648642</v>
+        <v>6293314.9796297522</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>8499154.2190274056</v>
+        <v>4899825.8058253657</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5955734.0264845667</v>
+        <v>5553030.4466459751</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>616674.693901786</v>
+        <v>156525.12886227461</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>4537089.642587278</v>
+        <v>6807859.8449241985</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3761,42 +3905,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>2898.5991210000002</v>
+        <v>1382.7739260000001</v>
       </c>
       <c r="I24">
-        <v>2568.4582519999999</v>
+        <v>923.34802200000001</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-330.14086900000029</v>
+        <v>-459.42590400000006</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-2241.0360796574073</v>
+        <v>-2575.6224042129638</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1998.0381685740731</v>
+        <v>-2216.736045314814</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>5022242.7103262413</v>
+        <v>6633830.7690837681</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>3992156.523078836</v>
+        <v>4913918.6945979614</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>4477675.6243071062</v>
+        <v>5709475.0225392785</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>108992.99338407535</v>
+        <v>211072.16126621727</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>5420417.6309993388</v>
+        <v>7161842.7789604636</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3813,42 +3957,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>3279.6906739999999</v>
+        <v>1823.5395510000001</v>
       </c>
       <c r="I25">
-        <v>2841.3374020000001</v>
+        <v>1088.239014</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-438.35327199999983</v>
+        <v>-735.30053700000008</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-1968.1569296574071</v>
+        <v>-2410.7314122129637</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-1616.9466155740733</v>
+        <v>-1775.9704203148137</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>3873641.6997584715</v>
+        <v>5811625.94183031</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>2614516.3576164502</v>
+        <v>3154070.9338331763</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>3182404.6863282039</v>
+        <v>4281387.6794139817</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>192153.59107310584</v>
+        <v>540666.8797124885</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>4224257.627861998</v>
+        <v>6306481.8210528623</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -3865,42 +4009,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>4177.9633789999998</v>
+        <v>3160.7309570000002</v>
       </c>
       <c r="I26">
-        <v>3978.67749</v>
+        <v>2619.619385</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-199.28588899999977</v>
+        <v>-541.11157200000025</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-830.81684165740717</v>
+        <v>-879.35104121296399</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-718.67391057407349</v>
+        <v>-438.77901431481359</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>690256.62438158912</v>
+        <v>773258.25368232385</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>516492.18973983137</v>
+        <v>192527.02340307939</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>597086.3885647296</v>
+        <v>385840.78310012934</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>39714.865554520227</v>
+        <v>292801.73335231148</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>842650.19363407278</v>
+        <v>960185.56114838959</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -3917,42 +4061,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3512.5729980000001</v>
+        <v>3115.163818</v>
       </c>
       <c r="I27">
-        <v>4171.935547</v>
+        <v>3366.3354490000002</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>659.36254899999994</v>
+        <v>251.17163100000016</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-637.55878465740716</v>
+        <v>-132.6349772129638</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1384.0642915740732</v>
+        <v>-484.34615331481382</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>406481.20389383007</v>
+        <v>17592.037180283427</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1915633.9632104412</v>
+        <v>234591.19623085714</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>882422.3476236813</v>
+        <v>64241.241008097</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>434758.97102377733</v>
+        <v>63087.188219200245</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>525192.61568989838</v>
+        <v>54370.357856741532</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -3969,42 +4113,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>9342.6738280000009</v>
+        <v>4953.3159180000002</v>
       </c>
       <c r="I28">
-        <v>12011.785156</v>
+        <v>9389.6923829999996</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2669.111327999999</v>
+        <v>4436.3764649999994</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>7202.2908243425927</v>
+        <v>5890.7219567870361</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>4446.0365384259276</v>
+        <v>1353.8059466851864</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>51872993.118409507</v>
+        <v>34700605.172172889</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>19767240.901018403</v>
+        <v>1832790.5412801739</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>32021648.165396962</v>
+        <v>7974894.4153672876</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>7124155.2812579181</v>
+        <v>19681436.139205892</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>50625329.161105417</v>
+        <v>33526212.360588476</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4021,42 +4165,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5434.9077150000003</v>
+        <v>5752.984375</v>
       </c>
       <c r="I29">
-        <v>6274.9853519999997</v>
+        <v>5435.0576170000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>840.07763699999941</v>
+        <v>-317.92675799999961</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>1465.4910203425925</v>
+        <v>1936.0871907870364</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>538.27042542592699</v>
+        <v>2153.4744036851862</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>2147663.9307047729</v>
+        <v>3748433.6103296382</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>289735.05088820844</v>
+        <v>4637452.0073272679</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>788830.47497768304</v>
+        <v>4169314.2086626408</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>705730.43618750281</v>
+        <v>101077.42345239031</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>1899843.3811933056</v>
+        <v>3369235.1595804314</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4073,42 +4217,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>7711.9755859999996</v>
+        <v>5977.6870120000003</v>
       </c>
       <c r="I30">
-        <v>8751.96875</v>
+        <v>8258.1972659999992</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1039.9931640000004</v>
+        <v>2280.5102539999989</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>3942.4744183425928</v>
+        <v>4759.2268397870357</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>2815.3382964259263</v>
+        <v>2378.1770406851865</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>15543104.539285766</v>
+        <v>22650240.112549294</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>7926129.7233224371</v>
+        <v>5655726.0368421515</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>11099399.212639431</v>
+        <v>11318284.001794245</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1081585.7811667318</v>
+        <v>5200727.0185991395</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>14863580.669749908</v>
+        <v>21703367.309661172</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4125,42 +4269,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>9701.2285159999992</v>
+        <v>9871.0595699999994</v>
       </c>
       <c r="I31">
-        <v>9398.6601559999999</v>
+        <v>7869.8881840000004</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-302.5683599999993</v>
+        <v>-2001.1713859999991</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>4589.1658243425927</v>
+        <v>4370.917757787036</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>4804.5912264259259</v>
+        <v>6271.5495986851856</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>21060442.96331403</v>
+        <v>19104922.04533805</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>23084096.853048984</v>
+        <v>39332334.368768312</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>22049065.856250122</v>
+        <v>27412427.509735238</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>91547.612473089175</v>
+        <v>4004686.9161451571</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>20268209.889821917</v>
+        <v>18236130.079376329</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4177,42 +4321,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>6177.5473629999997</v>
+        <v>3945.1547850000002</v>
       </c>
       <c r="I32">
-        <v>6719.7983400000003</v>
+        <v>5224.986328</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>542.2509770000006</v>
+        <v>1279.8315429999998</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1910.3040083425931</v>
+        <v>1726.015901787036</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1280.9100734259264</v>
+        <v>345.64481368518636</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>3649261.4042897779</v>
+        <v>2979130.893221715</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>1640730.6162040122</v>
+        <v>119470.3372274672</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>2446927.6475919522</v>
+        <v>596588.444790849</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>294036.12205745518</v>
+        <v>1637968.7784577603</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>3323916.2157901693</v>
+        <v>2642173.3861425463</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4229,42 +4373,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>4656.3022460000002</v>
+        <v>3017.5473630000001</v>
       </c>
       <c r="I33">
-        <v>5210.1948240000002</v>
+        <v>3125.0832519999999</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>553.89257799999996</v>
+        <v>107.53588899999977</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>400.70049234259295</v>
+        <v>-373.88717421296406</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-240.3350435740731</v>
+        <v>-581.96260831481368</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>160560.8845635964</v>
+        <v>139791.61904095532</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>57760.933169751617</v>
+        <v>338680.47747658123</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-96302.370287309619</v>
+        <v>217588.35512043172</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>306796.98796348606</v>
+        <v>11563.967423020271</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>98318.327395266315</v>
+        <v>225080.71199981723</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4281,42 +4425,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>2312.6696780000002</v>
+        <v>1668.654663</v>
       </c>
       <c r="I34">
-        <v>3293.6625979999999</v>
+        <v>1523.9852289999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>980.99291999999969</v>
+        <v>-144.66943400000014</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-1515.8317336574073</v>
+        <v>-1974.9851972129641</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-2583.9676115740731</v>
+        <v>-1930.8553083148138</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>2297745.8447628212</v>
+        <v>3900566.5292103305</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>6676888.6176638203</v>
+        <v>3728202.2216474945</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>3916860.1043669172</v>
+        <v>3813410.6518818312</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>962347.10909012577</v>
+        <v>20929.245133880395</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>2569527.8618269959</v>
+        <v>4307802.955960975</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4333,42 +4477,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1992.829346</v>
+        <v>1396.5029300000001</v>
       </c>
       <c r="I35">
-        <v>2860.4638669999999</v>
+        <v>1043.670654</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>867.63452099999995</v>
+        <v>-352.83227600000009</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-1949.0304646574073</v>
+        <v>-2455.2997722129639</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2903.8079435740733</v>
+        <v>-2203.0070413148137</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>3798719.7521626689</v>
+        <v>6028496.9714290323</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>8432100.5731638893</v>
+        <v>4853240.0240826495</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>5659610.1455400465</v>
+        <v>5409042.6867238181</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>752789.66203089932</v>
+        <v>124490.61498734025</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>4146002.2067970159</v>
+        <v>6532314.6159322532</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4385,42 +4529,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>2926.8774410000001</v>
+        <v>1381.071655</v>
       </c>
       <c r="I36">
-        <v>2684.0275879999999</v>
+        <v>986.52319299999999</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-242.84985300000017</v>
+        <v>-394.54846199999997</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-2125.4667436574073</v>
+        <v>-2512.447233212964</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1969.7598485740732</v>
+        <v>-2218.4383163148141</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>4517608.878393623</v>
+        <v>6312391.0996794775</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>3879953.861054556</v>
+        <v>4921468.5632937066</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>4186659.0511358432</v>
+        <v>5573709.2098787809</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>58976.051102121688</v>
+        <v>155668.48886656543</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>4895641.6914997101</v>
+        <v>6827699.90364803</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4437,42 +4581,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4267.826172</v>
+        <v>2896.2958979999999</v>
       </c>
       <c r="I37">
-        <v>3626.814453</v>
+        <v>1900.41272</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-641.01171900000008</v>
+        <v>-995.88317799999982</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-1182.6798786574072</v>
+        <v>-1598.5577062129639</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-628.81111757407325</v>
+        <v>-703.21407331481396</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>1398731.6953810996</v>
+        <v>2555386.7400928526</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>395403.42158475495</v>
+        <v>494510.03290801257</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>743682.25623093359</v>
+        <v>1124128.2760148041</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>410896.02389533509</v>
+        <v>991783.30422337935</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>1612450.0362850258</v>
+        <v>2886931.4694255553</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4489,42 +4633,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>8797.7978519999997</v>
+        <v>6287.6240230000003</v>
       </c>
       <c r="I38">
-        <v>5968.6997069999998</v>
+        <v>5867.9716799999997</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-2829.0981449999999</v>
+        <v>-419.65234300000066</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>1159.2053753425926</v>
+        <v>2369.0012537870357</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3901.1605624259264</v>
+        <v>2688.1140516851865</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>1343757.1022231609</v>
+        <v>5612166.9404445468</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>15219053.733827371</v>
+        <v>7225957.1548673492</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>4522246.2940386655</v>
+        <v>6368145.5587647557</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>8003796.3140424406</v>
+        <v>176108.0889853902</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>1149317.8268571214</v>
+        <v>5145918.5237709126</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4541,42 +4685,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>9638.2666019999997</v>
+        <v>5596.2822269999997</v>
       </c>
       <c r="I39">
-        <v>9865.5234380000002</v>
+        <v>6748.8647460000002</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>227.25683600000048</v>
+        <v>1152.5825190000005</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>5056.029106342593</v>
+        <v>3249.8943197870362</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>4741.6293124259264</v>
+        <v>1996.7722556851859</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>25563430.324183479</v>
+        <v>10561813.089784043</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>22483048.536456764</v>
+        <v>3987099.4410741054</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>23973815.815112699</v>
+        <v>6489298.8116596332</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>51645.669508731109</v>
+        <v>1328446.4631043866</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>24689829.556019042</v>
+        <v>9918435.4968323819</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4593,42 +4737,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>5345.5776370000003</v>
+        <v>4098.1967770000001</v>
       </c>
       <c r="I40">
-        <v>5165.4565430000002</v>
+        <v>3750.6103520000001</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-180.12109400000008</v>
+        <v>-347.58642499999996</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>355.96221134259304</v>
+        <v>251.63992578703619</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>448.94034742592703</v>
+        <v>498.6868056851863</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>126709.09590390888</v>
+        <v>63322.652250105079</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>201547.43554691208</v>
+        <v>248688.53016449476</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>159805.79883064498</v>
+        <v>125489.51077359442</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>32443.608503756866</v>
+        <v>120816.3228442806</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>72263.791012472735</v>
+        <v>22831.325043208231</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4645,42 +4789,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3937.619385</v>
+        <v>4344.4868159999996</v>
       </c>
       <c r="I41">
-        <v>4384.8510740000002</v>
+        <v>3649.5820309999999</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>447.23168900000019</v>
+        <v>-694.90478499999972</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-424.64325765740705</v>
+        <v>150.61160478703596</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-959.01790457407333</v>
+        <v>744.97684468518582</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>180321.89627389499</v>
+        <v>22683.855496526314</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>919715.34129364637</v>
+        <v>554990.49911709549</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>407240.48715011484</v>
+        <v>112202.15810721827</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>200016.18364579289</v>
+        <v>482892.66021589586</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>261925.13045163167</v>
+        <v>2507.2111611168398</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4697,42 +4841,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>4005.2077640000002</v>
+        <v>5144.3833009999998</v>
       </c>
       <c r="I42">
-        <v>4295.7241210000002</v>
+        <v>4037.7963869999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>290.51635699999997</v>
+        <v>-1106.586914</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-513.77021065740701</v>
+        <v>538.82596078703591</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-891.42952557407307</v>
+        <v>1544.873329685186</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>263959.82935895637</v>
+        <v>290333.41601807234</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>794646.59906521696</v>
+        <v>2386633.6047725934</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>457989.93514042388</v>
+        <v>832417.85616188764</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>84399.753684551426</v>
+        <v>1224534.5982360432</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>361096.6361657324</v>
+        <v>192094.9821741677</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4749,42 +4893,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>5503.7890630000002</v>
+        <v>4538.8168949999999</v>
       </c>
       <c r="I43">
-        <v>5470.6733400000003</v>
+        <v>5159.7993159999996</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-33.115722999999889</v>
+        <v>620.9824209999997</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>661.17900834259308</v>
+        <v>1660.8288897870357</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>607.15177342592688</v>
+        <v>939.30692368518612</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>437157.68107289477</v>
+        <v>2758352.6011512377</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>368633.27597424807</v>
+        <v>882297.49688292807</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>401436.0074672011</v>
+        <v>1560028.0752333435</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>1096.6511098127216</v>
+        <v>385619.16719102085</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>329517.38718859741</v>
+        <v>2434502.8391381265</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4801,42 +4945,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>4152.0869140000004</v>
+        <v>2561.619385</v>
       </c>
       <c r="I44">
-        <v>4222.9233400000003</v>
+        <v>3153.5205080000001</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>70.836425999999847</v>
+        <v>591.9011230000001</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-586.57099165740692</v>
+        <v>-345.44991821296389</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-744.55037557407286</v>
+        <v>-1037.8905863148138</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>344065.52825395373</v>
+        <v>119335.64599334344</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>554355.26176749298</v>
+        <v>1077216.869160908</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>436731.65213937865</v>
+        <v>358539.21815645759</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>5017.7992484534543</v>
+        <v>350346.93940866127</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>453890.48585069657</v>
+        <v>198906.6013878356</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4853,42 +4997,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2985.3583979999999</v>
+        <v>2177.7033689999998</v>
       </c>
       <c r="I45">
-        <v>3116.2150879999999</v>
+        <v>1940.8514399999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>130.85669000000007</v>
+        <v>-236.85192899999993</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1693.2792436574073</v>
+        <v>-1558.118986212964</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1911.2788915740734</v>
+        <v>-1421.806602314814</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2867194.5970010012</v>
+        <v>2427734.775197315</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>3652987.0013766186</v>
+        <v>2021534.0143859957</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>3236328.8759429147</v>
+        <v>2215343.8617896568</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>17123.473317756117</v>
+        <v>56098.836271021006</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>3169903.2158578704</v>
+        <v>2751148.1235034154</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -4905,42 +5049,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>2122.342529</v>
+        <v>1472.8623050000001</v>
       </c>
       <c r="I46">
-        <v>2251.0541990000002</v>
+        <v>851.96954300000004</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>128.71167000000014</v>
+        <v>-620.89276200000006</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2558.440132657407</v>
+        <v>-2647.0008832129638</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2774.2947605740733</v>
+        <v>-2126.6476663148137</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>6545615.912392051</v>
+        <v>7006613.6757302107</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>7696711.4185487544</v>
+        <v>4522630.2966422429</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>7097867.0552738812</v>
+        <v>5629238.2510181004</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>16566.693994188936</v>
+        <v>385507.82190398872</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>6999109.8891314641</v>
+        <v>7548978.4052243493</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -4957,42 +5101,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1956.7921140000001</v>
+        <v>1370.4888920000001</v>
       </c>
       <c r="I47">
-        <v>2185.2485350000002</v>
+        <v>839.533997</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>228.45642100000009</v>
+        <v>-530.95489500000008</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2624.245796657407</v>
+        <v>-2659.436429212964</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2939.8451755740734</v>
+        <v>-2229.0210793148135</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>6886666.0012740688</v>
+        <v>7072602.1210250007</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>8642689.6563461553</v>
+        <v>4968534.9720297763</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>7714876.3448238187</v>
+        <v>5927939.8598134145</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>52192.336296129281</v>
+        <v>281913.10052446113</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>7351628.9784307433</v>
+        <v>7617467.3787950054</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5009,42 +5153,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>3080.296143</v>
+        <v>1975.344482</v>
       </c>
       <c r="I48">
-        <v>2879.4721679999998</v>
+        <v>1363.24585</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-200.82397500000025</v>
+        <v>-612.09863199999995</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1930.0221636574074</v>
+        <v>-2135.7245762129642</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1816.3411465740733</v>
+        <v>-1624.1654893148138</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>3724985.5522088204</v>
+        <v>4561319.4654400451</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>3299095.1607380193</v>
+        <v>2637913.5366812288</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>3505578.669650869</v>
+        <v>3468770.1513666022</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>40330.268934800726</v>
+        <v>374664.73529627139</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>4068955.1276949467</v>
+        <v>5000877.2202799153</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5061,42 +5205,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>4902.7509769999997</v>
+        <v>3294.086914</v>
       </c>
       <c r="I49">
-        <v>3710.0266109999998</v>
+        <v>2212.533203</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-1192.7243659999999</v>
+        <v>-1081.553711</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1099.4677206574074</v>
+        <v>-1286.437223212964</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>6.1136874259264005</v>
+        <v>-305.42305731481383</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1208829.2687675948</v>
+        <v>1654920.7292678813</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>37.377173941930579</v>
+        <v>93283.243939528053</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-6721.8019789951522</v>
+        <v>392907.58975728304</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>1422591.4132501017</v>
+        <v>1169758.4297778716</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1408044.9025060232</v>
+        <v>1923704.5558450047</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5113,42 +5257,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>5351.7001950000003</v>
+        <v>3137.66626</v>
       </c>
       <c r="I50">
-        <v>4405.0717770000001</v>
+        <v>2851.2302249999998</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-946.62841800000024</v>
+        <v>-286.43603500000017</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-404.42255465740709</v>
+        <v>-647.74020121296417</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>455.06290542592706</v>
+        <v>-461.84371131481385</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>163557.60271562342</v>
+        <v>419567.36826741131</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>207082.24789468624</v>
+        <v>213299.61368104111</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>-184037.70274217546</v>
+        <v>299154.73849599966</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>896105.36176518316</v>
+        <v>82045.602146521327</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>241636.65315221131</v>
+        <v>559922.57874496246</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5165,42 +5309,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3675.8620609999998</v>
+        <v>3178.1987300000001</v>
       </c>
       <c r="I51">
-        <v>2784.196289</v>
+        <v>3388.9973140000002</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-891.66577199999983</v>
+        <v>210.79858400000012</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-2025.2980426574072</v>
+        <v>-109.97311221296377</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1220.7752285740735</v>
+        <v>-421.31124131481374</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>4101832.1615919247</v>
+        <v>12094.08540980512</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1490292.1587000813</v>
+        <v>177503.16205822921</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>2472433.6809557201</v>
+        <v>46332.908417697072</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>795067.84895635571</v>
+        <v>44436.043016405107</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>4462406.9809063924</v>
+        <v>44315.578889744153</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5217,42 +5361,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>4597.7158200000003</v>
+        <v>3386.0927729999999</v>
       </c>
       <c r="I52">
-        <v>3600.7658689999998</v>
+        <v>3179.4458009999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-996.94995100000051</v>
+        <v>-206.64697200000001</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-1208.7284626574074</v>
+        <v>-319.52462521296411</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-298.92146957407294</v>
+        <v>-213.41719831481396</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>1461024.4964381394</v>
+        <v>102095.98611748518</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>89354.04497232342</v>
+        <v>45546.900536544628</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>361314.88837356213</v>
+        <v>68192.050305541765</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>993909.20479890343</v>
+        <v>42702.971036768788</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>1679282.7386606671</v>
+        <v>176453.90718227305</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5269,42 +5413,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>9728.1103519999997</v>
+        <v>6650.8862300000001</v>
       </c>
       <c r="I53">
-        <v>11908.654296999999</v>
+        <v>8046.5668949999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>2180.5439449999994</v>
+        <v>1395.6806649999999</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>7099.1599653425919</v>
+        <v>4547.5964687870364</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>4831.4730624259264</v>
+        <v>3051.3762586851863</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>50398072.21352303</v>
+        <v>20680633.642924324</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>23343131.95294736</v>
+        <v>9310897.0720676053</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>34299400.138405308</v>
+        <v>13876427.898937352</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>4754771.8960761605</v>
+        <v>1947924.5186548419</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>49168382.512430437</v>
+        <v>19776315.282496352</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5321,42 +5465,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>10753.436523</v>
+        <v>8674.3496090000008</v>
       </c>
       <c r="I54">
-        <v>9075.5693360000005</v>
+        <v>9133.8789059999999</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-1677.8671869999998</v>
+        <v>459.52929699999913</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>4266.0750043425933</v>
+        <v>5634.9084797870364</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>5856.799233425927</v>
+        <v>5074.839637685187</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>18199395.942676656</v>
+        <v>31752193.575575851</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>34302097.260658525</v>
+        <v>25753997.348220721</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>24985544.815171208</v>
+        <v>28596256.907951631</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2815238.2972112922</v>
+        <v>211167.17480131341</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>17463473.048645586</v>
+        <v>30629239.50520844</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5373,42 +5517,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>6420.2231449999999</v>
+        <v>4538.8974609999996</v>
       </c>
       <c r="I55">
-        <v>6030.7529299999997</v>
+        <v>5181.7783200000003</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-389.47021500000028</v>
+        <v>642.88085900000078</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>1221.2585983425924</v>
+        <v>1682.8078937870364</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>1523.5858554259266</v>
+        <v>939.38748968518576</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>1491472.5640257136</v>
+        <v>2831842.4073919617</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>2321313.8588539525</v>
+        <v>882448.855777035</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1860692.3262520668</v>
+        <v>1580808.6829670188</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>151687.04837214644</v>
+        <v>413295.79886857886</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1286218.2858587091</v>
+        <v>2503573.1272509471</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5425,42 +5569,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>5377.4853519999997</v>
+        <v>3557.773682</v>
       </c>
       <c r="I56">
-        <v>5272.5742190000001</v>
+        <v>3962.1196289999998</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-104.91113299999961</v>
+        <v>404.3459469999998</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>463.07988734259288</v>
+        <v>463.14920278703585</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>480.8480624259264</v>
+        <v>-41.736289314813803</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>214442.98206122851</v>
+        <v>214507.18404226686</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>231214.85913876761</v>
+        <v>1741.9178457698408</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>222671.06657710206</v>
+        <v>-19330.129123445095</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>11006.345827343606</v>
+        <v>163495.64485532665</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>141328.57490619426</v>
+        <v>131485.76384656777</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5477,42 +5621,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2612.29126</v>
+        <v>2022.331909</v>
       </c>
       <c r="I57">
-        <v>3332.3615719999998</v>
+        <v>1698.2863769999999</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>720.07031199999983</v>
+        <v>-324.04553200000009</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-1477.1327596574074</v>
+        <v>-1800.6840492129641</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-2284.3460295740733</v>
+        <v>-1577.1780623148138</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>2181921.1896531079</v>
+        <v>3242463.0450899964</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>5218236.7828308335</v>
+        <v>2487490.6402471107</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>3374282.3546771924</v>
+        <v>2839999.3795788954</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>518501.2542237771</v>
+        <v>105005.50680916308</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>2446958.5205918825</v>
+        <v>3614651.1555793402</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5529,42 +5673,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>2179.2348630000001</v>
+        <v>1580.033936</v>
       </c>
       <c r="I58">
-        <v>2467.9572750000002</v>
+        <v>1174.9930420000001</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>288.72241200000008</v>
+        <v>-405.04089399999998</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2341.537056657407</v>
+        <v>-2323.9773842129639</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2717.4024265740732</v>
+        <v>-2019.4760353148138</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>5482795.7876998326</v>
+        <v>5400870.8823333299</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>7384275.9479506612</v>
+        <v>4078283.4572108388</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>6362898.4796739509</v>
+        <v>4693216.6340316879</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>83360.631191097782</v>
+        <v>164058.12581231922</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>5898486.6131915199</v>
+        <v>5878282.3405341338</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5581,42 +5725,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1977.307251</v>
+        <v>1373.219482</v>
       </c>
       <c r="I59">
-        <v>2476.669922</v>
+        <v>914.91967799999998</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>499.36267100000009</v>
+        <v>-458.29980399999999</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2332.8244096574072</v>
+        <v>-2584.0507482129642</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2919.3300385740731</v>
+        <v>-2226.2904893148138</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>5442069.7262934307</v>
+        <v>6677318.2693399806</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>8522487.8741208985</v>
+        <v>4956369.3428135933</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>6810284.3738316977</v>
+        <v>5752847.604653351</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>249363.07718825433</v>
+        <v>210038.7103464384</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>5856242.0601233896</v>
+        <v>7207025.0429601166</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5633,42 +5777,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>2874.430664</v>
+        <v>1383.0970460000001</v>
       </c>
       <c r="I60">
-        <v>2288.59375</v>
+        <v>914.67059300000005</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-585.83691399999998</v>
+        <v>-468.42645300000004</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2520.9005816574072</v>
+        <v>-2584.2998332129637</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-2022.2066255740733</v>
+        <v>-2216.4129253148139</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>6354939.7426006543</v>
+        <v>6678605.6279445523</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>4089319.6365156802</v>
+        <v>4912486.2555025714</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>5097781.8586411439</v>
+        <v>5727875.553222131</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>343204.88980504335</v>
+        <v>219423.34187016124</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>6801891.1043140609</v>
+        <v>7208362.4873498771</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5685,42 +5829,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3969.1657709999999</v>
+        <v>2632.9094239999999</v>
       </c>
       <c r="I61">
-        <v>2809.5463869999999</v>
+        <v>1403.618774</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-1159.6193840000001</v>
+        <v>-1229.2906499999999</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-1999.9479446574073</v>
+        <v>-2095.3516522129639</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-927.47151857407334</v>
+        <v>-966.60054731481387</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3999791.7813393879</v>
+        <v>4390498.5464315973</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>860203.4177660977</v>
+        <v>934316.61806929775</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1854894.7573005024</v>
+        <v>2025368.0538460505</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>1344717.1157485396</v>
+        <v>1511155.5021774224</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>4355948.4356074603</v>
+        <v>4821938.1504446864</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5737,42 +5881,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>9081.4443360000005</v>
+        <v>5211.3408200000003</v>
       </c>
       <c r="I62">
-        <v>6130.9331050000001</v>
+        <v>2680.92749</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-2950.5112310000004</v>
+        <v>-2530.4133300000003</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>1321.4387733425929</v>
+        <v>-818.04293621296392</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>4184.8070464259272</v>
+        <v>1611.8308486851865</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>1746200.4316931765</v>
+        <v>669194.24548792734</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>17512610.015816092</v>
+        <v>2597998.6847732086</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>5529966.2901045159</v>
+        <v>-1318546.8401370635</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>8705516.5242571384</v>
+        <v>6402991.6206416907</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1523486.1599779534</v>
+        <v>843793.77497848019</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5789,42 +5933,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>11023.336914</v>
+        <v>6918.091797</v>
       </c>
       <c r="I63">
-        <v>10606.087890999999</v>
+        <v>6423.814453</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-417.24902300000031</v>
+        <v>-494.27734400000008</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>5796.593559342592</v>
+        <v>2924.844026787036</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>6126.6996244259262</v>
+        <v>3318.5818256851862</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>33600496.892212018</v>
+        <v>8554712.581031803</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>37536448.287940785</v>
+        <v>11012985.333768023</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>35513987.582974002</v>
+        <v>9706334.2302593328</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>174096.74719445477</v>
+        <v>244310.09279169442</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>32597826.170122866</v>
+        <v>7976695.8052670276</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5841,42 +5985,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6276.7563479999999</v>
+        <v>4828.9853519999997</v>
       </c>
       <c r="I64">
-        <v>5744.9121089999999</v>
+        <v>4617.1342770000001</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-531.84423900000002</v>
+        <v>-211.85107499999958</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>935.41777734259267</v>
+        <v>1118.1638507870362</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1380.1190584259266</v>
+        <v>1229.4753806851859</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>875006.41816855629</v>
+        <v>1250290.3972068932</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1904728.6154304661</v>
+        <v>1511609.7117109827</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1290987.9021009321</v>
+        <v>1374754.9261148046</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>282858.29455748916</v>
+        <v>44880.877978655451</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>719570.16927208833</v>
+        <v>1035559.2275212575</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -5893,42 +6037,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>4579.0200199999999</v>
+        <v>3748.3359380000002</v>
       </c>
       <c r="I65">
-        <v>5008.0356449999999</v>
+        <v>3534.5661620000001</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>429.015625</v>
+        <v>-213.76977600000009</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>198.54131334259273</v>
+        <v>35.595735787036119</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-317.61726957407336</v>
+        <v>148.82596668518636</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>39418.653103801589</v>
+        <v>1267.056406220484</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>100880.7299316896</v>
+        <v>22149.1683597802</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>-63060.149841524842</v>
+        <v>5297.5697883761331</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>184054.40649414063</v>
+        <v>45697.517131090215</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>12409.593591601079</v>
+        <v>4217.6983683188873</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -5945,42 +6089,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2942.1972660000001</v>
+        <v>3187.9873050000001</v>
       </c>
       <c r="I66">
-        <v>3114.3237300000001</v>
+        <v>2683.1577149999998</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>172.12646399999994</v>
+        <v>-504.82959000000028</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1695.1706016574071</v>
+        <v>-815.81271121296413</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1954.4400235740732</v>
+        <v>-411.5226663148137</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2873603.3687235359</v>
+        <v>665550.3797766472</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>3819835.8057482238</v>
+        <v>169350.9048908535</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>3313109.2706653788</v>
+        <v>335725.42213187611</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>29627.519609143277</v>
+        <v>254852.91493956838</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>3176641.6246416033</v>
+        <v>839701.45765325055</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -5997,42 +6141,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>3181.891357</v>
+        <v>2908.7160640000002</v>
       </c>
       <c r="I67">
-        <v>3157.3017580000001</v>
+        <v>2612.1357419999999</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-24.589598999999907</v>
+        <v>-296.58032200000025</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1652.1925736574071</v>
+        <v>-886.83468421296402</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1714.7459325740733</v>
+        <v>-690.79390731481362</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>2729740.3004486868</v>
+        <v>786475.75712310767</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>2940353.6132793282</v>
+        <v>477196.2223832673</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>2833090.4955081288</v>
+        <v>612619.99664977228</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>604.64837898079645</v>
+        <v>87959.887397623839</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3025288.091396064</v>
+        <v>974907.86871502269</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6049,42 +6193,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>2298.4904790000001</v>
+        <v>1909.8842770000001</v>
       </c>
       <c r="I68">
-        <v>2357.8728030000002</v>
+        <v>1480.411499</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>59.382324000000153</v>
+        <v>-429.47277800000006</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-2451.621528657407</v>
+        <v>-2018.5589272129639</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-2598.1468105740732</v>
+        <v>-1689.6256943148137</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>6010448.1197764808</v>
+        <v>4074580.1426311517</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>6750366.849296229</v>
+        <v>2854834.9868888161</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>6369672.6554159755</v>
+        <v>3410609.0289075696</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>3526.2604036409944</v>
+        <v>184446.86704303735</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>6445325.1182897165</v>
+        <v>4490578.3353669783</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6101,42 +6245,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>2035.682129</v>
+        <v>1446.455322</v>
       </c>
       <c r="I69">
-        <v>1993.559082</v>
+        <v>1038.0704350000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>-42.123047000000042</v>
+        <v>-408.38488699999994</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-2815.9352496574074</v>
+        <v>-2460.8999912129639</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-2860.9551605740735</v>
+        <v>-2153.054649314814</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>7929491.3302631257</v>
+        <v>6056028.7667519655</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>8185064.4308154229</v>
+        <v>4635644.3229361372</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>8056264.4843498021</v>
+        <v>5298452.1675798567</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>1774.3510885642127</v>
+        <v>166778.21593000271</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>8427863.0792914964</v>
+        <v>6560972.4981966475</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6153,42 +6297,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>1902.7143550000001</v>
+        <v>1281.341187</v>
       </c>
       <c r="I70">
-        <v>1708.6188959999999</v>
+        <v>795.31207300000005</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>-194.09545900000012</v>
+        <v>-486.02911399999994</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-3100.8754356574073</v>
+        <v>-2703.6583532129639</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-2993.9229345740732</v>
+        <v>-2318.1687843148138</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>9615428.4674635157</v>
+        <v>7309768.4908982357</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>8963574.5381686296</v>
+        <v>5373906.5125716217</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>9283782.0840720832</v>
+        <v>6267536.3978702882</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>37673.047204420727</v>
+        <v>236224.29965562493</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>10163461.277766615</v>
+        <v>7863525.8529132186</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6205,42 +6349,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>1871.8629149999999</v>
+        <v>1258.7966309999999</v>
       </c>
       <c r="I71">
-        <v>1607.1839600000001</v>
+        <v>661.03247099999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>-264.67895499999986</v>
+        <v>-597.76415999999995</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-3202.3103716574069</v>
+        <v>-2837.937955212964</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-3024.7743745740736</v>
+        <v>-2340.7133403148136</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>10254791.716424599</v>
+        <v>8053891.837638339</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>9149260.0170799773</v>
+        <v>5478938.9415277326</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>9686266.3516221028</v>
+        <v>6642799.2307527289</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>70054.949219891947</v>
+        <v>357321.99098050554</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>10820503.207445955</v>
+        <v>8634650.0198563971</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6257,42 +6401,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>2298.9545899999998</v>
+        <v>1392.7360839999999</v>
       </c>
       <c r="I72">
-        <v>1578.5704350000001</v>
+        <v>755.29766800000004</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-720.38415499999974</v>
+        <v>-637.43841599999985</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-3230.9238966574071</v>
+        <v>-2743.6727582129638</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-2597.6826995740735</v>
+        <v>-2206.7738873148137</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>10438869.225991884</v>
+        <v>7527740.2041599322</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>6747955.4076664457</v>
+        <v>4869850.9897345342</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>8392915.1099873986</v>
+        <v>6054665.3981613787</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>518953.33077506366</v>
+        <v>406327.73419258889</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>11009567.651423084</v>
+        <v>8089543.6263273573</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6309,42 +6453,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>2605.5385740000002</v>
+        <v>1393.935303</v>
       </c>
       <c r="I73">
-        <v>1602.200928</v>
+        <v>797.44860800000004</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-1003.3376460000002</v>
+        <v>-596.48669499999994</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-3207.293403657407</v>
+        <v>-2701.5218182129638</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-2291.0987155740731</v>
+        <v>-2205.5746683148136</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>10286730.977144314</v>
+        <v>7298220.1342806779</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>5249133.324505168</v>
+        <v>4864559.6175119998</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>7348225.7975886827</v>
+        <v>5958408.0881502898</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>1006686.4318808217</v>
+        <v>355796.37731202296</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>10853310.940461418</v>
+        <v>7851547.8837816725</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6361,42 +6505,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>6155.123047</v>
+        <v>5046.9750979999999</v>
       </c>
       <c r="I74">
-        <v>3245.6198730000001</v>
+        <v>3412.2314449999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-2909.5031739999999</v>
+        <v>-1634.743653</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-1563.8744586574071</v>
+        <v>-86.738981212964063</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>1258.4857574259267</v>
+        <v>1447.4651266851861</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>2445703.3224409982</v>
+        <v>7523.6508618629323</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>1583786.4016439086</v>
+        <v>2095155.2929697619</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>-1968113.7326225282</v>
+        <v>-125551.65042996701</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>8465208.7195160743</v>
+        <v>2672386.8110237843</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>2725858.5098309265</v>
+        <v>35073.24641864845</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6413,42 +6557,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>11333.908203000001</v>
+        <v>9266.15625</v>
       </c>
       <c r="I75">
-        <v>10816.071289</v>
+        <v>9362.1074219999991</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>-517.83691400000134</v>
+        <v>95.951171999999133</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>6006.5769573425923</v>
+        <v>5863.1369957870356</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>6437.2709134259276</v>
+        <v>5666.6462786851862</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>36078966.744478993</v>
+        <v>34376375.431366622</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>41438456.812839478</v>
+        <v>32110880.047736667</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>38665963.136755876</v>
+        <v>33224323.438598048</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>268155.06950104481</v>
+        <v>9206.6274081734173</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>35039698.873559617</v>
+        <v>33207529.378643397</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6465,42 +6609,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>8122.5058589999999</v>
+        <v>6409.1166990000002</v>
       </c>
       <c r="I76">
-        <v>7089.7407229999999</v>
+        <v>5691.6948240000002</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-1032.765136</v>
+        <v>-717.421875</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>2280.2463913425927</v>
+        <v>2192.7243977870362</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>3225.8685694259266</v>
+        <v>2809.6067276851863</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>5199523.6052309163</v>
+        <v>4808040.2846505204</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>10406228.027210074</v>
+        <v>7893889.9642538605</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>7355775.1643789606</v>
+        <v>6160693.219981906</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>1066603.8261370985</v>
+        <v>514694.14672851563</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>4809702.6697045872</v>
+        <v>4377237.4578053346</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6517,42 +6661,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>7092.0200199999999</v>
+        <v>6725.6997069999998</v>
       </c>
       <c r="I77">
-        <v>7053.9790039999998</v>
+        <v>6065.4331050000001</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>-38.041016000000127</v>
+        <v>-660.26660199999969</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>2244.4846723425926</v>
+        <v>2566.4626787870361</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>2195.3827304259266</v>
+        <v>3126.189735685186</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>5037711.4443808356</v>
+        <v>6586730.6816067295</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>4819705.3330523968</v>
+        <v>9773062.2635034136</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>4927502.8883666219</v>
+        <v>8023249.2834431389</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>1447.1188983122656</v>
+        <v>435951.98571662599</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>4654123.2728021955</v>
+        <v>6080776.9012437686</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6569,42 +6713,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>7717.7236329999996</v>
+        <v>5940.0141599999997</v>
       </c>
       <c r="I78">
-        <v>8079.7070309999999</v>
+        <v>6181.7080079999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>361.98339800000031</v>
+        <v>241.69384799999989</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>3270.2126993425927</v>
+        <v>2682.7375817870357</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>2821.0863434259263</v>
+        <v>2340.5041886851859</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>10694291.098941566</v>
+        <v>7197080.9327325514</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>7958528.1570642637</v>
+        <v>5477959.8572529005</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>9225552.3862134237</v>
+        <v>6278958.5473157233</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>131031.98042762662</v>
+        <v>58415.916161047047</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>10131932.978781315</v>
+        <v>6667746.7006608285</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6621,42 +6765,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>4824.3227539999998</v>
+        <v>2875.6176759999998</v>
       </c>
       <c r="I79">
-        <v>4306.8090819999998</v>
+        <v>3725.9291990000002</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>-517.51367200000004</v>
+        <v>850.31152300000031</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-502.68524965740744</v>
+        <v>226.9587727870362</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-72.314535574073489</v>
+        <v>-723.89229531481396</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>252692.46022313004</v>
+        <v>51510.284544997521</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>5229.3920552939398</v>
+        <v>524020.05521614983</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>36351.450368912607</v>
+        <v>-164293.70697464098</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>267820.40070692362</v>
+        <v>723029.68614658003</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>347897.31445004436</v>
+        <v>15981.821128518985</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6673,42 +6817,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2805.422607</v>
+        <v>2072.4179690000001</v>
       </c>
       <c r="I80">
-        <v>3055.006836</v>
+        <v>2126.8010250000002</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>249.58422900000005</v>
+        <v>54.383056000000124</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-1754.4874956574072</v>
+        <v>-1372.1694012129637</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-2091.2146825740733</v>
+        <v>-1527.0920023148137</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>3078226.3724182006</v>
+        <v>1882848.8656251435</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>4373178.8486133823</v>
+        <v>2332009.9835338672</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>3669010.0113113858</v>
+        <v>2095428.9184134237</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>62292.287365524469</v>
+        <v>2957.5167798991497</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>3391602.7275314471</v>
+        <v>2168871.6405556886</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6725,42 +6869,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>2348.8791500000002</v>
+        <v>1865.9614260000001</v>
       </c>
       <c r="I81">
-        <v>2420.9304200000001</v>
+        <v>1367.9316409999999</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>72.051269999999931</v>
+        <v>-498.02978500000017</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-2388.5639116574071</v>
+        <v>-2131.0387852129643</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-2547.7581395740731</v>
+        <v>-1733.5485453148137</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>5705237.5600721333</v>
+        <v>4541326.3040819466</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>6491071.5377659425</v>
+        <v>3005190.5589631069</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>6085483.1478180457</v>
+        <v>3694259.1861153822</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>5191.3855086128897</v>
+        <v>248033.6667471464</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>6129124.5040562572</v>
+        <v>4979941.8443306517</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6777,42 +6921,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>2106.248047</v>
+        <v>1492.4938959999999</v>
       </c>
       <c r="I82">
-        <v>1992.960327</v>
+        <v>1013.233643</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>-113.28772000000004</v>
+        <v>-479.26025299999992</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-2816.5340046574074</v>
+        <v>-2485.7367832129639</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-2790.3892425740733</v>
+        <v>-2107.0160753148139</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>7932863.7993914923</v>
+        <v>6178887.3554179333</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>7786272.1250731098</v>
+        <v>4439516.7416350413</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>7859226.1879401039</v>
+        <v>5237487.3612310495</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>12834.107502798408</v>
+        <v>229690.39010562393</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>8431339.9029833972</v>
+        <v>6688825.2464015549</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6829,42 +6973,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1931.257568</v>
+        <v>1327.869385</v>
       </c>
       <c r="I83">
-        <v>1834.895874</v>
+        <v>779.36895800000002</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>-96.361693999999943</v>
+        <v>-548.50042699999995</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-2974.5984576574074</v>
+        <v>-2719.6014682129639</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-2965.3797215740733</v>
+        <v>-2271.6405863148138</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>8848235.9842978269</v>
+        <v>7396232.1459061094</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>8793476.8931227289</v>
+        <v>5160350.9533927115</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>8820813.9461627901</v>
+        <v>6177957.0737939263</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>9285.576070549625</v>
+        <v>300852.71841918229</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>9374260.4958415311</v>
+        <v>7953195.3349803044</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -6881,42 +7025,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>2865.7460940000001</v>
+        <v>1497.9609379999999</v>
       </c>
       <c r="I84">
-        <v>1755.045288</v>
+        <v>992.86773700000003</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-1110.7008060000001</v>
+        <v>-505.09320099999991</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-3054.4490436574069</v>
+        <v>-2506.1026892129639</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-2030.8911955740732</v>
+        <v>-2101.5490333148136</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>9329658.9602996483</v>
+        <v>6280550.6888804501</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>4124519.0482602883</v>
+        <v>4416508.3394264281</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>6203253.6700934758</v>
+        <v>5266697.6839031596</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>1233656.2804490498</v>
+        <v>255119.14169642632</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>9869600.3043541908</v>
+        <v>6794583.7377137244</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -6933,42 +7077,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>8619.4023440000001</v>
+        <v>5582.1308589999999</v>
       </c>
       <c r="I85">
-        <v>4155.1914059999999</v>
+        <v>4313.2329099999997</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-4464.2109380000002</v>
+        <v>-1268.8979490000002</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>-654.30292565740729</v>
+        <v>814.26248378703576</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>3722.7650544259268</v>
+        <v>1982.6208876851861</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>428112.31852384267</v>
+        <v>663023.39250303269</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>13858979.650454873</v>
+        <v>3930785.584285595</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-2435816.0666460409</v>
+        <v>1614373.8084145973</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>19929179.298958842</v>
+        <v>1610102.0049764069</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>549741.99826893839</v>
+        <v>509400.43320541765</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -6985,42 +7129,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>7136.2739259999998</v>
+        <v>4613.9912109999996</v>
       </c>
       <c r="I86">
-        <v>4667.6010740000002</v>
+        <v>4075.1665039999998</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-2468.6728519999997</v>
+        <v>-538.82470699999976</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-141.89325765740705</v>
+        <v>576.19607778703585</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>2239.6366364259266</v>
+        <v>1014.4812396851858</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>20133.696568631305</v>
+        <v>332001.92005716386</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>5015972.2632212378</v>
+        <v>1029172.1856731913</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>-317789.33831135248</v>
+        <v>584540.11129513383</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>6094345.6502018124</v>
+        <v>290332.06487363559</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>52457.588044493306</v>
+        <v>226249.13708609343</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7037,42 +7181,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>5778.0986329999996</v>
+        <v>3877.6770019999999</v>
       </c>
       <c r="I87">
-        <v>7449.6606449999999</v>
+        <v>4732.3608400000003</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>1671.5620120000003</v>
+        <v>854.68383800000038</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>2640.1663133425927</v>
+        <v>1233.3904137870363</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>881.46134342592632</v>
+        <v>278.16703068518609</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>6970478.1621090174</v>
+        <v>1521251.9128217567</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>776974.09995423886</v>
+        <v>77376.896960213257</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>2327204.5454268367</v>
+        <v>343088.54907871288</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>2794119.5599614894</v>
+        <v>730484.46293841093</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>6517928.2533502569</v>
+        <v>1283351.0906807815</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7089,42 +7233,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>2518.5190429999998</v>
+        <v>1668.634033</v>
       </c>
       <c r="I88">
-        <v>5269.7221680000002</v>
+        <v>3466.342529</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>2751.2031250000005</v>
+        <v>1797.708496</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>460.22783634259304</v>
+        <v>-32.627897212963944</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-2378.1182465740735</v>
+        <v>-1930.8759383148138</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>211809.6613445846</v>
+        <v>1064.5796765397404</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>5655446.3946885457</v>
+        <v>3728281.8891631123</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>-1094476.2151876271</v>
+        <v>63000.421646321054</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>7569118.6350097684</v>
+        <v>3231755.836590582</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>139192.32651008869</v>
+        <v>17733.567692669261</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7141,42 +7285,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7058.2358400000003</v>
+        <v>7381.3012699999999</v>
       </c>
       <c r="I89">
-        <v>7626.1015630000002</v>
+        <v>8464.3496090000008</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>567.86572299999989</v>
+        <v>1083.0483390000009</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>2816.607231342593</v>
+        <v>4965.3791827870373</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>2161.598550425927</v>
+        <v>3781.7912986851861</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>7933276.2956513874</v>
+        <v>24654990.428854868</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>4672508.2932034684</v>
+        <v>14301945.426810987</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>6088374.1083893329</v>
+        <v>18778027.788136579</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>322471.47935831262</v>
+        <v>1172993.7046106607</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>7449975.2199085234</v>
+        <v>23666664.700392943</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7193,42 +7337,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>14235.340819999999</v>
+        <v>11356.832031</v>
       </c>
       <c r="I90">
-        <v>10718.837890999999</v>
+        <v>9775.4814449999994</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>-3516.5029290000002</v>
+        <v>-1581.3505860000005</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>5909.343559342592</v>
+        <v>6276.5110187870359</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>9338.7035304259261</v>
+        <v>7757.3220596851861</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>34920341.302343771</v>
+        <v>39394590.568955079</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>87211383.629189655</v>
+        <v>60176045.537678421</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>55185607.560132369</v>
+        <v>48688917.383893818</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>12365792.84966558</v>
+        <v>2500669.675842545</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>33898019.843244411</v>
+        <v>38142623.643773161</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7245,42 +7389,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>11117.672852</v>
+        <v>5819.4760740000002</v>
       </c>
       <c r="I91">
-        <v>7868.5170900000003</v>
+        <v>6237.3349609999996</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>-3249.1557619999994</v>
+        <v>417.85888699999941</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>3059.0227583425931</v>
+        <v>2738.3645347870356</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>6221.0355624259264</v>
+        <v>2219.9661026851863</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>9357620.236057926</v>
+        <v>7498640.3253794182</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>38701283.468968064</v>
+        <v>4928249.497071255</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>19030289.365919523</v>
+        <v>6079076.4440225093</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>10557013.165737797</v>
+        <v>174606.04944487827</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>8832069.548179647</v>
+        <v>6958120.6762076505</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7297,42 +7441,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>4351.6860349999997</v>
+        <v>3168.7993160000001</v>
       </c>
       <c r="I92">
-        <v>7053.4711909999996</v>
+        <v>5795.6904299999997</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>2701.7851559999999</v>
+        <v>2626.8911139999996</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>2243.9768593425924</v>
+        <v>2296.7200037870357</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-544.95125457407357</v>
+        <v>-430.71065531481372</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>5035432.1452650446</v>
+        <v>5274922.7757955212</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>296971.86986185674</v>
+        <v>185511.66860171629</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-1222858.0047339352</v>
+        <v>-989221.77790575556</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>7299643.0291819442</v>
+        <v>6900556.9248121586</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>4651932.4783401825</v>
+        <v>4823208.6071106736</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7349,42 +7493,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2701.5139159999999</v>
+        <v>1876.889038</v>
       </c>
       <c r="I93">
-        <v>3840.7082519999999</v>
+        <v>2533.3679200000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>1139.194336</v>
+        <v>656.47888200000011</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>-968.7860796574073</v>
+        <v>-965.60250621296382</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-2195.1233735740734</v>
+        <v>-1722.6209333148138</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>938546.46813796833</v>
+        <v>932388.2000047568</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>4818566.6252112212</v>
+        <v>2967422.8798944</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>2126604.9674491691</v>
+        <v>1663367.0904636991</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>1297763.7351744811</v>
+        <v>430964.52251197008</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>1114986.1323921089</v>
+        <v>1136658.8735817587</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7401,42 +7545,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>2058.804443</v>
+        <v>1428.689331</v>
       </c>
       <c r="I94">
-        <v>2523.6594239999999</v>
+        <v>1328.5045170000001</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>464.85498099999995</v>
+        <v>-100.18481399999996</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-2285.8349076574073</v>
+        <v>-2170.4659092129641</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-2837.8328465740733</v>
+        <v>-2170.8206403148138</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>5225041.2250651475</v>
+        <v>4710922.2630556589</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>8053295.2650947077</v>
+        <v>4712462.2524168184</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>6486817.3827958042</v>
+        <v>4711692.1948191607</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>216090.1533605103</v>
+        <v>10036.996956214589</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>5631023.9505044846</v>
+        <v>5157465.7735276325</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7453,42 +7597,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1992.714966</v>
+        <v>1392.4183350000001</v>
       </c>
       <c r="I95">
-        <v>3196.7001949999999</v>
+        <v>971.37426800000003</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>1203.9852289999999</v>
+        <v>-421.04406700000004</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-1612.7941366574073</v>
+        <v>-2527.5961582129639</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-2903.9223235740733</v>
+        <v>-2207.0916363148135</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>2601104.9272365118</v>
+        <v>6388742.3390129348</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>8432764.8613518439</v>
+        <v>4871253.4910908006</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>4683428.8967688195</v>
+        <v>5578636.3407732872</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>1449580.4316501822</v>
+        <v>177278.10635590053</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>2889786.1255089422</v>
+        <v>6907097.2750380505</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7505,42 +7649,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>3109.4345699999999</v>
+        <v>1886.575439</v>
       </c>
       <c r="I96">
-        <v>2396.444336</v>
+        <v>1315.7611079999999</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-712.99023399999987</v>
+        <v>-570.81433100000004</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-2413.0499956574072</v>
+        <v>-2183.2093182129638</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-1787.2027195740734</v>
+        <v>-1712.9345323148139</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>5822810.2815422127</v>
+        <v>4766402.9271319145</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>3194093.5608529639</v>
+        <v>2934144.7119965702</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>4312609.5147071239</v>
+        <v>3739694.6324384669</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>508355.07377937459</v>
+        <v>325829.0004749776</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>6250964.8051014477</v>
+        <v>5215508.8706917055</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7557,42 +7701,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>6127.0126950000003</v>
+        <v>3514.8640140000002</v>
       </c>
       <c r="I97">
-        <v>4457.8056640000004</v>
+        <v>3084.7854000000002</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-1669.2070309999999</v>
+        <v>-430.07861400000002</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-351.68866765740677</v>
+        <v>-414.18502621296375</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>1230.3754054259271</v>
+        <v>-84.645957314813586</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>123684.91895864191</v>
+        <v>171549.23593903348</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>1513823.6382770145</v>
+        <v>7164.9380897412439</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>-432709.08705268597</v>
+        <v>35059.088049257472</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>2786252.1123398347</v>
+        <v>184967.61422016102</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>192573.19560398327</v>
+        <v>264941.38431521866</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7609,42 +7753,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>8497.1630860000005</v>
+        <v>5294.2954099999997</v>
       </c>
       <c r="I98">
-        <v>8033.3442379999997</v>
+        <v>5686.8833009999998</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>-463.8188480000008</v>
+        <v>392.58789100000013</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>3223.8499063425925</v>
+        <v>2187.9128747870359</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>3600.5257964259272</v>
+        <v>1694.7854386851859</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>10393208.218625143</v>
+        <v>4786962.747658872</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>12963786.010728557</v>
+        <v>2872297.683179338</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>11607554.751591813</v>
+        <v>3708042.8813009127</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>215127.92376004785</v>
+        <v>154125.25215982797</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>9838930.4803034868</v>
+        <v>4357127.4174810201</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7661,42 +7805,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>3933.9594729999999</v>
+        <v>2211.9626459999999</v>
       </c>
       <c r="I99">
-        <v>4622.6630859999996</v>
+        <v>3719.0822750000002</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>688.70361299999968</v>
+        <v>1507.1196290000003</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>-186.83124565740764</v>
+        <v>220.11184878703625</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-962.6778165740734</v>
+        <v>-1387.5473253148139</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>34905.914353898603</v>
+        <v>48449.225976447109</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>926748.57852382527</v>
+        <v>1925287.5799882938</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>179858.29563728752</v>
+        <v>-305415.6070545509</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>474312.66655925335</v>
+        <v>2271409.5761170983</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>75061.864224047997</v>
+        <v>14297.535808582441</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7713,42 +7857,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>8213.8994139999995</v>
+        <v>6584.2724609999996</v>
       </c>
       <c r="I100">
-        <v>6787.6606449999999</v>
+        <v>5698.1748049999997</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-1426.2387689999996</v>
+        <v>-886.09765599999992</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>1978.1663133425927</v>
+        <v>2199.2043787870357</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>3317.2621244259262</v>
+        <v>2984.7624896851858</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>3913141.9632434249</v>
+        <v>4836499.8996760715</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>11004228.002150809</v>
+        <v>8908807.1198317092</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>6562096.1870666519</v>
+        <v>6564102.7369549554</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>2034157.0261986342</v>
+        <v>785169.05596869416</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>3575969.3307663305</v>
+        <v>4404394.0841468684</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7765,42 +7909,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>3880.7773440000001</v>
+        <v>3353.6511230000001</v>
       </c>
       <c r="I101">
-        <v>4740.3745120000003</v>
+        <v>4079.2634280000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>859.59716800000024</v>
+        <v>725.61230500000011</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>-69.119819657406879</v>
+        <v>580.29300178703625</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-1015.8599455740732</v>
+        <v>-245.85884831481371</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>4777.5494694724503</v>
+        <v>336739.96792300924</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>1031971.429021759</v>
+        <v>60446.573294686576</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>70216.05623526311</v>
+        <v>-142670.16910450687</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>738907.29123362061</v>
+        <v>526513.21716741321</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>24418.055655164204</v>
+        <v>230163.37920138502</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7817,42 +7961,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5097.1000979999999</v>
+        <v>5374.2470700000003</v>
       </c>
       <c r="I102">
-        <v>4707.0249020000001</v>
+        <v>3626.1606449999999</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-390.07519599999978</v>
+        <v>-1748.0864250000004</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-102.46942965740709</v>
+        <v>127.19021878703597</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>200.4628084259266</v>
+        <v>1774.7370986851865</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>10499.984014314299</v>
+        <v>16177.35175509408</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>40185.33756200975</v>
+        <v>3149691.7694495134</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>-20541.309646926758</v>
+        <v>225729.19987123832</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>152158.65853443823</v>
+        <v>3055806.1492692819</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>35952.857521540544</v>
+        <v>710.25840787427194</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -7869,42 +8013,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>6100.6689450000003</v>
+        <v>4924.1303710000002</v>
       </c>
       <c r="I103">
-        <v>6125.1625979999999</v>
+        <v>5775.3422849999997</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>24.49365299999954</v>
+        <v>851.21191399999952</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>1315.6682663425927</v>
+        <v>2276.3718587870358</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>1204.0316554259271</v>
+        <v>1324.6203996851864</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>1730982.9870609234</v>
+        <v>5181868.8394775447</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>1449692.2272676984</v>
+        <v>1754619.2032621428</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>1584106.2407158313</v>
+        <v>3015328.6014185939</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>599.93903728438647</v>
+        <v>724561.72253554256</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>1509274.433443018</v>
+        <v>4734246.2572766291</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -7921,42 +8065,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2381.5954590000001</v>
+        <v>1915.2725829999999</v>
       </c>
       <c r="I104">
-        <v>4413.2910160000001</v>
+        <v>2454.9575199999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>2031.695557</v>
+        <v>539.68493699999999</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>-396.20331565740707</v>
+        <v>-1044.012906212964</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-2515.0418305740732</v>
+        <v>-1684.2373883148139</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>156977.06733792296</v>
+        <v>1089962.9483392392</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>6325435.4095373852</v>
+        <v>2836655.5801975052</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>996467.91229052248</v>
+        <v>1758365.5705270811</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>4127786.8363335403</v>
+        <v>291259.83122469397</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>233623.62017794279</v>
+        <v>1310000.3138107494</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -7973,42 +8117,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>2213.6997070000002</v>
+        <v>1620.556763</v>
       </c>
       <c r="I105">
-        <v>3377.5207519999999</v>
+        <v>1209.290283</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>1163.8210449999997</v>
+        <v>-411.26648</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-1431.9735796574073</v>
+        <v>-2289.6801432129641</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-2682.9375825740731</v>
+        <v>-1978.9532083148138</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>2050548.3328368489</v>
+        <v>5242635.1582237398</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>7198154.0719884112</v>
+        <v>3916255.8006994948</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>3841895.7341159862</v>
+        <v>4531169.8654260179</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>1354479.4247848913</v>
+        <v>169140.11757159041</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>2307715.0547310412</v>
+        <v>5713150.1584077645</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8025,42 +8169,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1986.431763</v>
+        <v>1342.1754149999999</v>
       </c>
       <c r="I106">
-        <v>2121.132568</v>
+        <v>857.60443099999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>134.70080499999995</v>
+        <v>-484.57098399999995</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-2688.3617636574072</v>
+        <v>-2641.3659952129638</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-2910.2055265740732</v>
+        <v>-2257.3345563148141</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>7227288.9722951651</v>
+        <v>6976814.3206673702</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>8469296.2069022786</v>
+        <v>5095559.299132999</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>7823685.2620262094</v>
+        <v>5962446.736869093</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>18144.306867648011</v>
+        <v>234809.0385347282</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>7703426.4594799746</v>
+        <v>7518045.9920090726</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8077,42 +8221,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1938.3717039999999</v>
+        <v>1313.4708250000001</v>
       </c>
       <c r="I107">
-        <v>1941.7574460000001</v>
+        <v>796.806152</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>3.3857420000001639</v>
+        <v>-516.66467300000011</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-2867.7368856574071</v>
+        <v>-2702.1642742129638</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-2958.2655855740732</v>
+        <v>-2286.0391463148135</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>8223914.8453600444</v>
+        <v>7301691.7648328738</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>8751335.2747919131</v>
+        <v>5225974.9784837607</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>8483527.3373216782</v>
+        <v>6177253.3106241915</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>11.46324889056511</v>
+        <v>266942.38432619703</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>8731314.8899603393</v>
+        <v>7855148.6988018434</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8129,42 +8273,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>2673.5659179999998</v>
+        <v>1346.130615</v>
       </c>
       <c r="I108">
-        <v>1797.482544</v>
+        <v>809.69787599999995</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-876.08337399999982</v>
+        <v>-536.43273900000008</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-3012.0117876574072</v>
+        <v>-2689.2725502129642</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-2223.0713715740735</v>
+        <v>-2253.3793563148138</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>9072215.0089871697</v>
+        <v>7232186.8493289398</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>4942046.3231122326</v>
+        <v>5077718.5234657647</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>6695917.1759848297</v>
+        <v>6059951.2481539873</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>767522.07819922362</v>
+        <v>287760.08347104222</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>9604760.1370142996</v>
+        <v>7783051.5271648308</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8181,42 +8325,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>3102.6916500000002</v>
+        <v>1561.884155</v>
       </c>
       <c r="I109">
-        <v>1652.9334719999999</v>
+        <v>918.75836200000003</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-1449.7581780000003</v>
+        <v>-643.12579299999993</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-3156.5608596574075</v>
+        <v>-2580.2120642129639</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-1793.9456395740731</v>
+        <v>-2037.6258163148138</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>9963876.4607211109</v>
+        <v>6657494.296310124</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>3218240.9577468303</v>
+        <v>4151918.9673126116</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>5662698.5902325939</v>
+        <v>5257506.7136072712</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>2101798.7746778806</v>
+        <v>413610.78562187875</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>10521614.45614462</v>
+        <v>7186429.190843964</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8233,42 +8377,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>3851.9145509999998</v>
+        <v>2759.8352049999999</v>
       </c>
       <c r="I110">
-        <v>2287.5051269999999</v>
+        <v>1768.679443</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-1564.4094239999999</v>
+        <v>-991.15576199999987</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-2521.9892046574073</v>
+        <v>-1730.290983212964</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-1044.7227385740734</v>
+        <v>-839.67476631481395</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>6360429.5484085018</v>
+        <v>2993906.8865880854</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>1091445.6004937119</v>
+        <v>705053.71318583738</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>2634779.468543936</v>
+        <v>1452881.6769859751</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>2447376.8459000117</v>
+        <v>982389.74454580038</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>6807570.6417784607</v>
+        <v>3351940.4234095002</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8285,42 +8429,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>6790.9130859999996</v>
+        <v>4923.9624020000001</v>
       </c>
       <c r="I111">
-        <v>4750.248047</v>
+        <v>4188.5458980000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-2040.6650389999995</v>
+        <v>-735.4165039999998</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-59.246284657407159</v>
+        <v>689.57547178703635</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>1894.2757964259263</v>
+        <v>1324.4524306851863</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>3510.1222457065192</v>
+        <v>475514.33129031374</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>3588280.7929250775</v>
+        <v>1754174.2411478981</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>-112228.80305468709</v>
+        <v>913309.90974922443</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>4164313.8013968696</v>
+        <v>540837.43435558176</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>21429.810341410859</v>
+        <v>346963.32292587642</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C85098-7B8D-4C9D-BF54-797C92E591B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD987A4-9A1F-4C90-A660-19BE554F458D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t>simulated flow on reach 23809000</t>
+    <t xml:space="preserve"> USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14211010_flow_CLACKAMAS RIVER NEAR OREGON CITY</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405.csv</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simulated flow on reach 23809000</c:v>
+                  <c:v> USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,328 +783,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5497.205078</c:v>
+                  <c:v>672.69683799999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3375.1770019999999</c:v>
+                  <c:v>62.902287000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3496.9733890000002</c:v>
+                  <c:v>51.989361000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4158.4990230000003</c:v>
+                  <c:v>206.593887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3527.1999510000001</c:v>
+                  <c:v>425.89465300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4039.014893</c:v>
+                  <c:v>554.97332800000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1430.650269</c:v>
+                  <c:v>120.019577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1288.085327</c:v>
+                  <c:v>90.807083000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1602.123413</c:v>
+                  <c:v>636.50213599999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1952.9389650000001</c:v>
+                  <c:v>777.538635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3832.4221189999998</c:v>
+                  <c:v>822.73553500000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7348.5322269999997</c:v>
+                  <c:v>1092.5115969999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7215.3969729999999</c:v>
+                  <c:v>1051.3312989999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3396.6352539999998</c:v>
+                  <c:v>62.984954999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6862.1464839999999</c:v>
+                  <c:v>542.09606900000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6542.6201170000004</c:v>
+                  <c:v>602.94689900000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4236.3427730000003</c:v>
+                  <c:v>425.18933099999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2521.5395509999998</c:v>
+                  <c:v>277.94775399999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1616.7705080000001</c:v>
+                  <c:v>155.618866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1385.954956</c:v>
+                  <c:v>88.759681999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1382.7739260000001</c:v>
+                  <c:v>562.24444600000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1823.5395510000001</c:v>
+                  <c:v>666.39605700000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3160.7309570000002</c:v>
+                  <c:v>712.56671100000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3115.163818</c:v>
+                  <c:v>266.26989700000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4953.3159180000002</c:v>
+                  <c:v>1080.2242429999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5752.984375</c:v>
+                  <c:v>429.00564600000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5977.6870120000003</c:v>
+                  <c:v>632.01043700000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9871.0595699999994</c:v>
+                  <c:v>766.22485400000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3945.1547850000002</c:v>
+                  <c:v>357.93069500000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3017.5473630000001</c:v>
+                  <c:v>374.211456</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1668.654663</c:v>
+                  <c:v>129.27256800000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1396.5029300000001</c:v>
+                  <c:v>90.719657999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1381.071655</c:v>
+                  <c:v>583.58599900000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2896.2958979999999</c:v>
+                  <c:v>843.05602999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6287.6240230000003</c:v>
+                  <c:v>1198.409668</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5596.2822269999997</c:v>
+                  <c:v>1028.1721190000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4098.1967770000001</c:v>
+                  <c:v>670.32995600000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4344.4868159999996</c:v>
+                  <c:v>195.35524000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5144.3833009999998</c:v>
+                  <c:v>52.071781000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4538.8168949999999</c:v>
+                  <c:v>274.662781</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2561.619385</c:v>
+                  <c:v>135.985794</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2177.7033689999998</c:v>
+                  <c:v>235.55921900000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1472.8623050000001</c:v>
+                  <c:v>104.71517900000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1370.4888920000001</c:v>
+                  <c:v>90.064644000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1975.344482</c:v>
+                  <c:v>621.07501200000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3294.086914</c:v>
+                  <c:v>896.02185099999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3137.66626</c:v>
+                  <c:v>732.78344700000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3178.1987300000001</c:v>
+                  <c:v>356.48150600000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3386.0927729999999</c:v>
+                  <c:v>382.777557</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6650.8862300000001</c:v>
+                  <c:v>864.332581</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8674.3496090000008</c:v>
+                  <c:v>861.92437700000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4538.8974609999996</c:v>
+                  <c:v>442.88937399999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3557.773682</c:v>
+                  <c:v>389.959991</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2022.331909</c:v>
+                  <c:v>211.100998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1580.033936</c:v>
+                  <c:v>126.90033</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1373.219482</c:v>
+                  <c:v>91.296165000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1383.0970460000001</c:v>
+                  <c:v>569.27130099999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2632.9094239999999</c:v>
+                  <c:v>831.05474900000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5211.3408200000003</c:v>
+                  <c:v>1106.9021</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6918.091797</c:v>
+                  <c:v>1259.006226</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4828.9853519999997</c:v>
+                  <c:v>657.78259300000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3748.3359380000002</c:v>
+                  <c:v>255.48928799999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3187.9873050000001</c:v>
+                  <c:v>51.712265000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2908.7160640000002</c:v>
+                  <c:v>51.772095</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1909.8842770000001</c:v>
+                  <c:v>50.992438999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1446.455322</c:v>
+                  <c:v>50.738976000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1281.341187</c:v>
+                  <c:v>50.608086</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1258.7966309999999</c:v>
+                  <c:v>50.579738999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1392.7360839999999</c:v>
+                  <c:v>516.89672900000005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1393.935303</c:v>
+                  <c:v>610.36938499999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5046.9750979999999</c:v>
+                  <c:v>961.260132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9266.15625</c:v>
+                  <c:v>1332.8908690000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6409.1166990000002</c:v>
+                  <c:v>981.71356200000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6725.6997069999998</c:v>
+                  <c:v>321.31237800000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5940.0141599999997</c:v>
+                  <c:v>547.89776600000005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2875.6176759999998</c:v>
+                  <c:v>103.224152</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2072.4179690000001</c:v>
+                  <c:v>126.963402</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1865.9614260000001</c:v>
+                  <c:v>155.58279400000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1492.4938959999999</c:v>
+                  <c:v>116.71013600000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1327.869385</c:v>
+                  <c:v>85.080924999999993</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1497.9609379999999</c:v>
+                  <c:v>597.29858400000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5582.1308589999999</c:v>
+                  <c:v>1410.622192</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4613.9912109999996</c:v>
+                  <c:v>948.71099900000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3877.6770019999999</c:v>
+                  <c:v>686.60589600000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1668.634033</c:v>
+                  <c:v>198.416336</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7381.3012699999999</c:v>
+                  <c:v>312.41384900000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11356.832031</c:v>
+                  <c:v>550.87188700000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5819.4760740000002</c:v>
+                  <c:v>1655.071655</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3168.7993160000001</c:v>
+                  <c:v>401.59884599999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1876.889038</c:v>
+                  <c:v>219.350967</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1428.689331</c:v>
+                  <c:v>103.567871</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1392.4183350000001</c:v>
+                  <c:v>89.205841000000007</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1886.575439</c:v>
+                  <c:v>637.11938499999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3514.8640140000002</c:v>
+                  <c:v>1052.013672</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5294.2954099999997</c:v>
+                  <c:v>848.50903300000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2211.9626459999999</c:v>
+                  <c:v>536.61834699999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6584.2724609999996</c:v>
+                  <c:v>910.72766100000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3353.6511230000001</c:v>
+                  <c:v>155.407578</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5374.2470700000003</c:v>
+                  <c:v>169.98820499999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4924.1303710000002</c:v>
+                  <c:v>365.843842</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1915.2725829999999</c:v>
+                  <c:v>50.775405999999997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1620.556763</c:v>
+                  <c:v>143.263992</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1342.1754149999999</c:v>
+                  <c:v>88.639365999999995</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1313.4708250000001</c:v>
+                  <c:v>83.112862000000007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1346.130615</c:v>
+                  <c:v>562.01641800000004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1561.884155</c:v>
+                  <c:v>628.04901099999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2759.8352049999999</c:v>
+                  <c:v>638.23699999999997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4923.9624020000001</c:v>
+                  <c:v>840.36370799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14211010_flow_CLACKAMAS RIVER NEAR OREGON CITY</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1149,328 +1149,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5399.5385740000002</c:v>
+                  <c:v>911.99804700000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2557.1364749999998</c:v>
+                  <c:v>94.569336000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3609.0329590000001</c:v>
+                  <c:v>59.196156000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4425.7163090000004</c:v>
+                  <c:v>330.83142099999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4135.8066410000001</c:v>
+                  <c:v>499.08932499999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5269.4780270000001</c:v>
+                  <c:v>671.80566399999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1318.385376</c:v>
+                  <c:v>76.482703999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>852.58404499999995</c:v>
+                  <c:v>233.82968099999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1027.0595699999999</c:v>
+                  <c:v>387.44863900000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1332.5375979999999</c:v>
+                  <c:v>666.55627400000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3762.499268</c:v>
+                  <c:v>665.03790300000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8331.2041019999997</c:v>
+                  <c:v>1336.5020750000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7705.9340819999998</c:v>
+                  <c:v>1142.398193</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3375.5844729999999</c:v>
+                  <c:v>88.221267999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6058.5874020000001</c:v>
+                  <c:v>300.726471</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6897.8198240000002</c:v>
+                  <c:v>806.799622</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4895.2548829999996</c:v>
+                  <c:v>558.28167699999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3720.7946780000002</c:v>
+                  <c:v>402.09588600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1560.0913089999999</c:v>
+                  <c:v>97.242569000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>990.32238800000005</c:v>
+                  <c:v>54.697963999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>923.34802200000001</c:v>
+                  <c:v>556.62347399999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1088.239014</c:v>
+                  <c:v>565.35455300000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2619.619385</c:v>
+                  <c:v>539.47283900000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3366.3354490000002</c:v>
+                  <c:v>180.76503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9389.6923829999996</c:v>
+                  <c:v>1630.0595699999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5435.0576170000004</c:v>
+                  <c:v>433.71618699999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8258.1972659999992</c:v>
+                  <c:v>677.88324</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7869.8881840000004</c:v>
+                  <c:v>1005.369385</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5224.986328</c:v>
+                  <c:v>455.49276700000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3125.0832519999999</c:v>
+                  <c:v>349.70208700000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1523.9852289999999</c:v>
+                  <c:v>97.715118000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1043.670654</c:v>
+                  <c:v>53.514549000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>986.52319299999999</c:v>
+                  <c:v>493.04354899999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1900.41272</c:v>
+                  <c:v>709.62872300000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5867.9716799999997</c:v>
+                  <c:v>1065.376953</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6748.8647460000002</c:v>
+                  <c:v>1135.5593260000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3750.6103520000001</c:v>
+                  <c:v>587.48681599999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3649.5820309999999</c:v>
+                  <c:v>128.28054800000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4037.7963869999999</c:v>
+                  <c:v>62.904750999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5159.7993159999996</c:v>
+                  <c:v>503.75711100000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3153.5205080000001</c:v>
+                  <c:v>301.04025300000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1940.8514399999999</c:v>
+                  <c:v>124.108856</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>851.96954300000004</c:v>
+                  <c:v>60.713673</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>839.533997</c:v>
+                  <c:v>54.716163999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1363.24585</c:v>
+                  <c:v>508.97579999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2212.533203</c:v>
+                  <c:v>877.34027100000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2851.2302249999998</c:v>
+                  <c:v>617.34991500000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3388.9973140000002</c:v>
+                  <c:v>348.57122800000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3179.4458009999998</c:v>
+                  <c:v>295.81228599999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8046.5668949999999</c:v>
+                  <c:v>1234.2166749999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9133.8789059999999</c:v>
+                  <c:v>976.752747</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5181.7783200000003</c:v>
+                  <c:v>402.13876299999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3962.1196289999998</c:v>
+                  <c:v>423.144318</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1698.2863769999999</c:v>
+                  <c:v>172.68275499999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1174.9930420000001</c:v>
+                  <c:v>101.040154</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>914.91967799999998</c:v>
+                  <c:v>378.20376599999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>914.67059300000005</c:v>
+                  <c:v>367.408051</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1403.618774</c:v>
+                  <c:v>463.043701</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2680.92749</c:v>
+                  <c:v>711.81402600000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6423.814453</c:v>
+                  <c:v>1255.927612</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4617.1342770000001</c:v>
+                  <c:v>515.91326900000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3534.5661620000001</c:v>
+                  <c:v>225.021942</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2683.1577149999998</c:v>
+                  <c:v>54.170158000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2612.1357419999999</c:v>
+                  <c:v>51.032882999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1480.411499</c:v>
+                  <c:v>104.167923</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1038.0704350000001</c:v>
+                  <c:v>169.52015700000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>795.31207300000005</c:v>
+                  <c:v>192.53428600000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>661.03247099999999</c:v>
+                  <c:v>176.005402</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>755.29766800000004</c:v>
+                  <c:v>115.291313</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>797.44860800000004</c:v>
+                  <c:v>107.864929</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3412.2314449999999</c:v>
+                  <c:v>480.82003800000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9362.1074219999991</c:v>
+                  <c:v>1419.6671140000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5691.6948240000002</c:v>
+                  <c:v>849.51654099999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6065.4331050000001</c:v>
+                  <c:v>335.613831</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6181.7080079999996</c:v>
+                  <c:v>618.51684599999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3725.9291990000002</c:v>
+                  <c:v>112.05089599999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2126.8010250000002</c:v>
+                  <c:v>251.23820499999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1367.9316409999999</c:v>
+                  <c:v>286.293182</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1013.233643</c:v>
+                  <c:v>186.068344</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>779.36895800000002</c:v>
+                  <c:v>272.00170900000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>992.86773700000003</c:v>
+                  <c:v>233.83090200000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4313.2329099999997</c:v>
+                  <c:v>612.301514</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4075.1665039999998</c:v>
+                  <c:v>663.27020300000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4732.3608400000003</c:v>
+                  <c:v>796.08160399999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3466.342529</c:v>
+                  <c:v>483.61068699999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8464.3496090000008</c:v>
+                  <c:v>734.07312000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9775.4814449999994</c:v>
+                  <c:v>1171.6539310000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6237.3349609999996</c:v>
+                  <c:v>599.60089100000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5795.6904299999997</c:v>
+                  <c:v>509.12970000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2533.3679200000001</c:v>
+                  <c:v>158.55336</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1328.5045170000001</c:v>
+                  <c:v>59.615597000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>971.37426800000003</c:v>
+                  <c:v>469.47460899999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1315.7611079999999</c:v>
+                  <c:v>254.38052400000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3084.7854000000002</c:v>
+                  <c:v>790.043091</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5686.8833009999998</c:v>
+                  <c:v>1123.0432129999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3719.0822750000002</c:v>
+                  <c:v>312.73303199999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5698.1748049999997</c:v>
+                  <c:v>772.975281</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4079.2634280000002</c:v>
+                  <c:v>226.01942399999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3626.1606449999999</c:v>
+                  <c:v>76.502037000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5775.3422849999997</c:v>
+                  <c:v>550.21252400000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2454.9575199999999</c:v>
+                  <c:v>291.23001099999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1209.290283</c:v>
+                  <c:v>374.26599099999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>857.60443099999998</c:v>
+                  <c:v>313.138733</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>796.806152</c:v>
+                  <c:v>273.38980099999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>809.69787599999995</c:v>
+                  <c:v>144.117752</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>918.75836200000003</c:v>
+                  <c:v>63.232754</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1768.679443</c:v>
+                  <c:v>107.564667</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4188.5458980000003</c:v>
+                  <c:v>718.05456500000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:Q3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="H3" sqref="H3:I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,11 +2721,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>3599.5099713148138</v>
+        <v>480.6375975462966</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>3498.970426212964</v>
+        <v>460.14747176851819</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2736,13 +2736,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>-2.7931453420901399E-2</v>
+        <v>-4.2631133898768166E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2757,10 +2757,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.84808282225156217</v>
+        <v>0.50817935430156891</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2810,42 +2810,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5497.205078</v>
+        <v>672.69683799999996</v>
       </c>
       <c r="I4">
-        <v>5399.5385740000002</v>
+        <v>911.99804700000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-97.666503999999804</v>
+        <v>239.30120900000009</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>1900.5681477870362</v>
+        <v>451.85057523148186</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1897.6951066851861</v>
+        <v>192.05924045370335</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>3612159.2843826455</v>
+        <v>204168.94233702106</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3601246.7179369</v>
+        <v>36886.751843653445</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3606698.8739771862</v>
+        <v>86782.078277527355</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>9538.7460035819786</v>
+        <v>57265.068628861722</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>3240102.9704847843</v>
+        <v>186071.83735290103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.38942488603773784</v>
+        <v>0.70011867514354287</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2870,42 +2870,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>3375.1770019999999</v>
+        <v>62.902287000000001</v>
       </c>
       <c r="I5">
-        <v>2557.1364749999998</v>
+        <v>94.569336000000007</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-818.04052700000011</v>
+        <v>31.667049000000006</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-941.83395121296417</v>
+        <v>-365.57813576851817</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-224.33296931481391</v>
+        <v>-417.7353105462966</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>887051.19165742421</v>
+        <v>133647.37335198509</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>50325.281121601241</v>
+        <v>174502.78967721085</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>211284.40687710783</v>
+        <v>152714.89607419813</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>669190.30381443794</v>
+        <v>1002.8019923684013</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1086542.5058195696</v>
+        <v>149048.70257337968</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.85018204353063409</v>
+        <v>0.58946841022066121</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2930,42 +2930,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3496.9733890000002</v>
+        <v>51.989361000000002</v>
       </c>
       <c r="I6">
-        <v>3609.0329590000001</v>
+        <v>59.196156000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>112.05956999999989</v>
+        <v>7.2067949999999996</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>110.06253278703616</v>
+        <v>-400.95131576851816</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-102.53658231481359</v>
+        <v>-428.64823654629663</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12113.76112349741</v>
+        <v>160761.95761650597</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>10513.750712802543</v>
+        <v>183739.31069424987</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>-11285.435952894803</v>
+        <v>171867.07444509264</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>12557.347228584877</v>
+        <v>51.937894172024997</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>90.687294452210082</v>
+        <v>177612.88865262052</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>3599.5099713148138</v>
+        <v>480.6375975462966</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2990,42 +2990,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>4158.4990230000003</v>
+        <v>206.593887</v>
       </c>
       <c r="I7">
-        <v>4425.7163090000004</v>
+        <v>330.83142099999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>267.21728600000006</v>
+        <v>124.23753399999998</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>926.74588278703641</v>
+        <v>-129.31605076851821</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>558.9890516851865</v>
+        <v>-274.04371054629661</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>858857.9312627234</v>
+        <v>16722.640986365979</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>312468.75990390411</v>
+        <v>75099.955289982405</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>518040.80217227648</v>
+        <v>35438.250385798005</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>71405.077937205831</v>
+        <v>15434.964854401152</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>682616.91243116849</v>
+        <v>22441.890531420195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2170.9421258447892</v>
+        <v>369.22351298518544</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3050,42 +3050,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>3527.1999510000001</v>
+        <v>425.89465300000001</v>
       </c>
       <c r="I8">
-        <v>4135.8066410000001</v>
+        <v>499.08932499999997</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>608.60669000000007</v>
+        <v>73.194671999999969</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>636.83621478703617</v>
+        <v>38.941853231481787</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-72.310020314813755</v>
+        <v>-54.742944546296599</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>405560.36446428008</v>
+        <v>1516.4679331022685</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>5228.7390379287781</v>
+        <v>2996.7899775989044</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-46049.639628459685</v>
+        <v>-2131.7917119810286</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>370402.10311275616</v>
+        <v>5357.4600091875791</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>287614.11791542184</v>
+        <v>340.46624602575065</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>3498.970426212964</v>
+        <v>460.14747176851819</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3110,42 +3110,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>4039.014893</v>
+        <v>554.97332800000004</v>
       </c>
       <c r="I9">
-        <v>5269.4780270000001</v>
+        <v>671.80566399999998</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1230.4631340000001</v>
+        <v>116.83233599999994</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1770.5076007870362</v>
+        <v>211.65819223148179</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>439.50492168518622</v>
+        <v>74.335730453703434</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>3134697.1644446668</v>
+        <v>44799.1903386989</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>193164.57618550168</v>
+        <v>5525.8008220856518</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>778146.80442693329</v>
+        <v>15733.766326037576</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1514039.5241331023</v>
+        <v>13649.794735216883</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>2788793.3070089617</v>
+        <v>36545.229631647548</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>2403.1495663002706</v>
+        <v>352.68312804085627</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3169,42 +3169,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1430.650269</v>
+        <v>120.019577</v>
       </c>
       <c r="I10">
-        <v>1318.385376</v>
+        <v>76.482703999999998</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-112.26489300000003</v>
+        <v>-43.536873</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-2180.5850502129642</v>
+        <v>-383.66476776851817</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2168.8597023148141</v>
+        <v>-360.61802054629663</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>4754951.1612122757</v>
+        <v>147198.65402687099</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>4703952.408325104</v>
+        <v>130045.35674272921</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>4729383.0428770231</v>
+        <v>138356.42910603763</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>12603.406200301455</v>
+        <v>1895.4593106181289</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>5203529.4193501724</v>
+        <v>163341.17797741832</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,42 +3221,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1288.085327</v>
+        <v>90.807083000000006</v>
       </c>
       <c r="I11">
-        <v>852.58404499999995</v>
+        <v>233.82968099999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-435.50128200000006</v>
+        <v>143.02259799999999</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-2646.3863812129639</v>
+        <v>-226.31779076851819</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2311.424644314814</v>
+        <v>-389.83051454629663</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>7003360.8786694463</v>
+        <v>51219.742418342779</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>5342683.8863458643</v>
+        <v>151967.83007143039</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>6116922.6999147432</v>
+        <v>88225.580826272548</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>189661.36662364358</v>
+        <v>20455.463538669599</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>7545602.0446604975</v>
+        <v>60914.14766992371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.92205316740990273</v>
+        <v>0.76776846133496601</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3281,42 +3281,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>1602.123413</v>
+        <v>636.50213599999995</v>
       </c>
       <c r="I12">
-        <v>1027.0595699999999</v>
+        <v>387.44863900000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-575.06384300000013</v>
+        <v>-249.05349699999994</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2471.9108562129641</v>
+        <v>-72.698832768518173</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1997.3865583148138</v>
+        <v>155.86453845370335</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>6110343.2810635092</v>
+        <v>5285.1202859049718</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>3989553.0633366969</v>
+        <v>24293.75434738597</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>4937361.517552237</v>
+        <v>-11331.17001558805</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>330698.42352592881</v>
+        <v>62027.644367928981</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>6617501.0672247475</v>
+        <v>8684.1819949433848</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,42 +3333,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>1952.9389650000001</v>
+        <v>777.538635</v>
       </c>
       <c r="I13">
-        <v>1332.5375979999999</v>
+        <v>666.55627400000003</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-620.40136700000016</v>
+        <v>-110.98236099999997</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-2166.4328282129641</v>
+        <v>206.40880223148184</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-1646.5710063148138</v>
+        <v>296.9010374537034</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>4693431.1991588222</v>
+        <v>42604.593638634986</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>2711196.0788365784</v>
+        <v>88150.226041085392</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>3567185.4820640683</v>
+        <v>61282.987522103249</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>384897.85617546889</v>
+        <v>12317.084453134314</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>5139163.7413726002</v>
+        <v>34565.754254296859</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,42 +3385,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>3832.4221189999998</v>
+        <v>822.73553500000003</v>
       </c>
       <c r="I14">
-        <v>3762.499268</v>
+        <v>665.03790300000003</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-69.92285099999981</v>
+        <v>-157.697632</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>263.52884178703607</v>
+        <v>204.89043123148184</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>232.91214768518603</v>
+        <v>342.09793745370342</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>69447.450453616693</v>
+        <v>41980.088810222587</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>54248.068539325905</v>
+        <v>117030.99881007797</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>61379.068517608168</v>
+        <v>70092.593928289803</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>4889.2050919681742</v>
+        <v>24868.543138407422</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>26565.510833931654</v>
+        <v>34003.472651419128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,42 +3437,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7348.5322269999997</v>
+        <v>1092.5115969999999</v>
       </c>
       <c r="I15">
-        <v>8331.2041019999997</v>
+        <v>1336.5020750000001</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>982.671875</v>
+        <v>243.99047800000017</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>4832.2336757870362</v>
+        <v>876.35460323148186</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3749.0222556851859</v>
+        <v>611.87399945370339</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>23350482.297410291</v>
+        <v>767997.390605008</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>14055167.873622838</v>
+        <v>374389.79120747064</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>18116151.595197033</v>
+        <v>536218.59601891018</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>965644.01391601563</v>
+        <v>59531.353354668565</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>22388929.346360639</v>
+        <v>732504.00376710109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,42 +3489,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>7215.3969729999999</v>
+        <v>1051.3312989999999</v>
       </c>
       <c r="I16">
-        <v>7705.9340819999998</v>
+        <v>1142.398193</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>490.53710899999987</v>
+        <v>91.066894000000048</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>4206.9636557870363</v>
+        <v>682.25072123148175</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3615.8870016851861</v>
+        <v>570.6937014537034</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>17698543.201113027</v>
+        <v>465466.04662087699</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>13074638.808955885</v>
+        <v>325691.30087892874</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>15211905.199522335</v>
+        <v>389356.18941905309</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>240626.65530607777</v>
+        <v>8293.1791828072455</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>16862718.976816621</v>
+        <v>437927.08569524012</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3541,42 +3541,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3396.6352539999998</v>
+        <v>62.984954999999999</v>
       </c>
       <c r="I17">
-        <v>3375.5844729999999</v>
+        <v>88.221267999999995</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-21.050780999999915</v>
+        <v>25.236312999999996</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-123.38595321296407</v>
+        <v>-371.92620376851818</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-202.87471731481401</v>
+        <v>-417.65264254629659</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>15224.093450271757</v>
+        <v>138329.10104966132</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>41158.150925565693</v>
+        <v>174433.72982590459</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>25031.890378698954</v>
+        <v>155335.961836134</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>443.13538070995742</v>
+        <v>636.87149383396877</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>50142.628795537734</v>
+        <v>153990.57569458766</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3593,42 +3593,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6862.1464839999999</v>
+        <v>542.09606900000006</v>
       </c>
       <c r="I18">
-        <v>6058.5874020000001</v>
+        <v>300.726471</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-803.55908199999976</v>
+        <v>-241.36959800000005</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>2559.6169757870362</v>
+        <v>-159.42100076851818</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>3262.6365126851861</v>
+        <v>61.458471453703453</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>6551639.0627371725</v>
+        <v>25415.055486035875</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>10644797.013906552</v>
+        <v>3777.1437134256821</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>8351099.8036916181</v>
+        <v>-9797.771024852811</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>645707.19826468232</v>
+        <v>58259.282838681633</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>6047061.8101052577</v>
+        <v>32368.01345515755</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3645,42 +3645,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6542.6201170000004</v>
+        <v>602.94689900000003</v>
       </c>
       <c r="I19">
-        <v>6897.8198240000002</v>
+        <v>806.799622</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>355.19970699999976</v>
+        <v>203.85272299999997</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>3398.8493977870362</v>
+        <v>346.65215023148181</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2943.1101456851866</v>
+        <v>122.30930145370343</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>11552177.228837298</v>
+        <v>120167.71326010984</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>8661897.32963508</v>
+        <v>14959.565222092899</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>10003188.146283012</v>
+        <v>42398.782342236795</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>126166.83185288568</v>
+        <v>41555.932674514719</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>10878847.884320175</v>
+        <v>106381.66619573822</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3697,42 +3697,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>4236.3427730000003</v>
+        <v>425.18933099999998</v>
       </c>
       <c r="I20">
-        <v>4895.2548829999996</v>
+        <v>558.28167699999995</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>658.9121099999993</v>
+        <v>133.09234599999996</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1396.2844567870357</v>
+        <v>98.134205231481758</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>636.8328016851865</v>
+        <v>-55.448266546296622</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1949610.2842650672</v>
+        <v>9630.3222364145822</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>405556.0173022041</v>
+        <v>3074.5102629891571</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>889199.74256516667</v>
+        <v>-5441.3715689841765</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>434165.16870465118</v>
+        <v>17713.572563783706</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>1678954.87615805</v>
+        <v>6028.6030742129969</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3749,42 +3749,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>2521.5395509999998</v>
+        <v>277.94775399999997</v>
       </c>
       <c r="I21">
-        <v>3720.7946780000002</v>
+        <v>402.09588600000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1199.2551270000004</v>
+        <v>124.14813200000003</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>221.82425178703625</v>
+        <v>-58.05158576851818</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-1077.970420314814</v>
+        <v>-202.68984354629663</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>49205.998680878452</v>
+        <v>3369.9866102396227</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>1162020.2270736967</v>
+        <v>41083.172676822207</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-239119.98193489059</v>
+        <v>11766.46683703537</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>1438212.8596357871</v>
+        <v>15412.758679089433</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>14709.980075711697</v>
+        <v>6168.80045262166</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3801,42 +3801,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>1616.7705080000001</v>
+        <v>155.618866</v>
       </c>
       <c r="I22">
-        <v>1560.0913089999999</v>
+        <v>97.242569000000003</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-56.679199000000153</v>
+        <v>-58.376296999999994</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-1938.879117212964</v>
+        <v>-362.90490276851818</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1982.7394633148137</v>
+        <v>-325.01873154629664</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>3759252.2311645229</v>
+        <v>131699.96845342763</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3931255.7793859155</v>
+        <v>105637.17585596364</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>3844292.1402951321</v>
+        <v>117950.89116975589</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>3212.5315992816186</v>
+        <v>3407.7920514322082</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>4159228.4801979451</v>
+        <v>146991.74791401558</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3853,42 +3853,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1385.954956</v>
+        <v>88.759681999999998</v>
       </c>
       <c r="I23">
-        <v>990.32238800000005</v>
+        <v>54.697963999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-395.63256799999999</v>
+        <v>-34.061717999999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-2508.6480382129639</v>
+        <v>-405.44950776851817</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2213.5550153148138</v>
+        <v>-391.87791554629661</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>6293314.9796297522</v>
+        <v>164389.30334973367</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>4899825.8058253657</v>
+        <v>153568.30069291039</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>5553030.4466459751</v>
+        <v>158886.70796359889</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>156525.12886227461</v>
+        <v>1160.200633111524</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>6807859.8449241985</v>
+        <v>181424.57142555344</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3905,42 +3905,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>1382.7739260000001</v>
+        <v>562.24444600000004</v>
       </c>
       <c r="I24">
-        <v>923.34802200000001</v>
+        <v>556.62347399999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-459.42590400000006</v>
+        <v>-5.6209720000000516</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-2575.6224042129638</v>
+        <v>96.4760022314818</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-2216.736045314814</v>
+        <v>81.606848453703435</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>6633830.7690837681</v>
+        <v>9307.6190065688806</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>4913918.6945979614</v>
+        <v>6659.677714545719</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>5709475.0225392785</v>
+        <v>7873.1024935236901</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>211072.16126621727</v>
+        <v>31.595326224784579</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>7161842.7789604636</v>
+        <v>5773.8534204374746</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3957,42 +3957,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>1823.5395510000001</v>
+        <v>666.39605700000004</v>
       </c>
       <c r="I25">
-        <v>1088.239014</v>
+        <v>565.35455300000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-735.30053700000008</v>
+        <v>-101.04150400000003</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-2410.7314122129637</v>
+        <v>105.20708123148182</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-1775.9704203148137</v>
+        <v>185.75845945370344</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>5811625.94183031</v>
+        <v>11068.529941247614</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>3154070.9338331763</v>
+        <v>34506.205258613183</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>4281387.6794139817</v>
+        <v>19543.105333180702</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>540666.8797124885</v>
+        <v>10209.385530582022</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>6306481.8210528623</v>
+        <v>7176.9625413447675</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4009,42 +4009,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>3160.7309570000002</v>
+        <v>712.56671100000005</v>
       </c>
       <c r="I26">
-        <v>2619.619385</v>
+        <v>539.47283900000002</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-541.11157200000025</v>
+        <v>-173.09387200000003</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-879.35104121296399</v>
+        <v>79.325367231481835</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-438.77901431481359</v>
+        <v>231.92911345370345</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>773258.25368232385</v>
+        <v>6292.5138864094524</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>192527.02340307939</v>
+        <v>53791.113667420846</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>385840.78310012934</v>
+        <v>18397.862096387042</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>292801.73335231148</v>
+        <v>29961.488523952394</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>960185.56114838959</v>
+        <v>3461.5856369155813</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4061,42 +4061,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>3115.163818</v>
+        <v>266.26989700000001</v>
       </c>
       <c r="I27">
-        <v>3366.3354490000002</v>
+        <v>180.76503</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>251.17163100000016</v>
+        <v>-85.504867000000019</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-132.6349772129638</v>
+        <v>-279.38244176851822</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-484.34615331481382</v>
+        <v>-214.36770054629659</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>17592.037180283427</v>
+        <v>78054.548768539476</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>234591.19623085714</v>
+        <v>45953.511037506687</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>64241.241008097</v>
+        <v>59890.571614926856</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>63087.188219200245</v>
+        <v>7311.0822806876922</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>54370.357856741532</v>
+        <v>89923.556766808237</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4113,42 +4113,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>4953.3159180000002</v>
+        <v>1080.2242429999999</v>
       </c>
       <c r="I28">
-        <v>9389.6923829999996</v>
+        <v>1630.0595699999999</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>4436.3764649999994</v>
+        <v>549.83532700000001</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>5890.7219567870361</v>
+        <v>1169.9120982314817</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>1353.8059466851864</v>
+        <v>599.58664545370334</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>34700605.172172889</v>
+        <v>1368694.317588388</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>1832790.5412801739</v>
+        <v>359504.14540642494</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>7974894.4153672876</v>
+        <v>701463.67045431759</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>19681436.139205892</v>
+        <v>302318.88681719691</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>33526212.360588476</v>
+        <v>1321170.8707593619</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4165,42 +4165,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5752.984375</v>
+        <v>429.00564600000001</v>
       </c>
       <c r="I29">
-        <v>5435.0576170000004</v>
+        <v>433.71618699999999</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-317.92675799999961</v>
+        <v>4.7105409999999779</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>1936.0871907870364</v>
+        <v>-26.431284768518196</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>2153.4744036851862</v>
+        <v>-51.631951546296591</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>3748433.6103296382</v>
+        <v>698.61281451450202</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>4637452.0073272679</v>
+        <v>2665.8584204791191</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>4169314.2086626408</v>
+        <v>1364.6988144744987</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>101077.42345239031</v>
+        <v>22.189196512680791</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>3369235.1595804314</v>
+        <v>2201.6187676541149</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4217,42 +4217,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5977.6870120000003</v>
+        <v>632.01043700000002</v>
       </c>
       <c r="I30">
-        <v>8258.1972659999992</v>
+        <v>677.88324</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>2280.5102539999989</v>
+        <v>45.872802999999976</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>4759.2268397870357</v>
+        <v>217.73576823148181</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>2378.1770406851865</v>
+        <v>151.37283945370342</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>22650240.112549294</v>
+        <v>47408.864767353567</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>5655726.0368421515</v>
+        <v>22913.736524276672</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>11318284.001794245</v>
+        <v>32959.281487832872</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>5200727.0185991395</v>
+        <v>2104.3140550768067</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>21703367.309661172</v>
+        <v>38905.843466974198</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4269,42 +4269,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>9871.0595699999994</v>
+        <v>766.22485400000005</v>
       </c>
       <c r="I31">
-        <v>7869.8881840000004</v>
+        <v>1005.369385</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-2001.1713859999991</v>
+        <v>239.14453099999992</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>4370.917757787036</v>
+        <v>545.22191323148172</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>6271.5495986851856</v>
+        <v>285.58725645370345</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>19104922.04533805</v>
+        <v>297266.93466779741</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>39332334.368768312</v>
+        <v>81560.081048753374</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>27412427.509735238</v>
+        <v>155708.43035821803</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>4004686.9161451571</v>
+        <v>57190.106707209918</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>18236130.079376329</v>
+        <v>275343.44876435859</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4321,42 +4321,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>3945.1547850000002</v>
+        <v>357.93069500000001</v>
       </c>
       <c r="I32">
-        <v>5224.986328</v>
+        <v>455.49276700000001</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1279.8315429999998</v>
+        <v>97.562072000000001</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>1726.015901787036</v>
+        <v>-4.6547047685181724</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>345.64481368518636</v>
+        <v>-122.70690254629659</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>2979130.893221715</v>
+        <v>21.666276482065811</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>119470.3372274672</v>
+        <v>15056.983932506328</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>596588.444790849</v>
+        <v>571.16440441234136</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1637968.7784577603</v>
+        <v>9518.3578929331834</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2642173.3861425463</v>
+        <v>632.26250320197005</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4373,42 +4373,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3017.5473630000001</v>
+        <v>374.211456</v>
       </c>
       <c r="I33">
-        <v>3125.0832519999999</v>
+        <v>349.70208700000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>107.53588899999977</v>
+        <v>-24.509368999999992</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-373.88717421296406</v>
+        <v>-110.44538476851818</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-581.96260831481368</v>
+        <v>-106.42614154629661</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>139791.61904095532</v>
+        <v>12198.183016666027</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>338680.47747658123</v>
+        <v>11326.523604432361</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>217588.35512043172</v>
+        <v>11754.276152509507</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>11563.967423020271</v>
+        <v>600.70916877816057</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>225080.71199981723</v>
+        <v>17144.107922019346</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4425,42 +4425,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>1668.654663</v>
+        <v>129.27256800000001</v>
       </c>
       <c r="I34">
-        <v>1523.9852289999999</v>
+        <v>97.715118000000004</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-144.66943400000014</v>
+        <v>-31.557450000000003</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-1974.9851972129641</v>
+        <v>-362.43235376851817</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-1930.8553083148138</v>
+        <v>-351.36502954629657</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>3900566.5292103305</v>
+        <v>131357.21105818832</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3728202.2216474945</v>
+        <v>123457.38398806987</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>3813410.6518818312</v>
+        <v>127346.05469040919</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>20929.245133880395</v>
+        <v>995.87265050250016</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>4307802.955960975</v>
+        <v>146629.62534188392</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4477,42 +4477,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1396.5029300000001</v>
+        <v>90.719657999999995</v>
       </c>
       <c r="I35">
-        <v>1043.670654</v>
+        <v>53.514549000000002</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-352.83227600000009</v>
+        <v>-37.205108999999993</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-2455.2997722129639</v>
+        <v>-406.6329227685182</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2203.0070413148137</v>
+        <v>-389.91793954629662</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>6028496.9714290323</v>
+        <v>165350.33387926768</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>4853240.0240826495</v>
+        <v>152035.99958002943</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>5409042.6867238181</v>
+        <v>158553.47139758899</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>124490.61498734025</v>
+        <v>1384.2201357018805</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>6532314.6159322532</v>
+        <v>182434.09859948207</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4529,42 +4529,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>1381.071655</v>
+        <v>583.58599900000002</v>
       </c>
       <c r="I36">
-        <v>986.52319299999999</v>
+        <v>493.04354899999998</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-394.54846199999997</v>
+        <v>-90.542450000000031</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-2512.447233212964</v>
+        <v>32.896077231481797</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-2218.4383163148141</v>
+        <v>102.94840145370341</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>6312391.0996794775</v>
+        <v>1082.1518972196152</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>4921468.5632937066</v>
+        <v>10598.373361872882</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>5573709.2098787809</v>
+        <v>3386.5985650786201</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>155668.48886656543</v>
+        <v>8197.9352520025059</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>6827699.90364803</v>
+        <v>153.90763147164503</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4581,42 +4581,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>2896.2958979999999</v>
+        <v>843.05602999999996</v>
       </c>
       <c r="I37">
-        <v>1900.41272</v>
+        <v>709.62872300000004</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-995.88317799999982</v>
+        <v>-133.42730699999993</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-1598.5577062129639</v>
+        <v>249.48125123148185</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-703.21407331481396</v>
+        <v>362.41843245370336</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>2555386.7400928526</v>
+        <v>62240.894716025767</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>494510.03290801257</v>
+        <v>131347.12018219955</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>1124128.2760148041</v>
+        <v>90416.603997902203</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>991783.30422337935</v>
+        <v>17802.84625327223</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>2886931.4694255553</v>
+        <v>52436.935536553741</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4633,42 +4633,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>6287.6240230000003</v>
+        <v>1198.409668</v>
       </c>
       <c r="I38">
-        <v>5867.9716799999997</v>
+        <v>1065.376953</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-419.65234300000066</v>
+        <v>-133.03271500000005</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>2369.0012537870357</v>
+        <v>605.22948123148171</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>2688.1140516851865</v>
+        <v>717.77207045370346</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>5612166.9404445468</v>
+        <v>366302.72495172848</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>7225957.1548673492</v>
+        <v>515196.74512339622</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>6368145.5587647557</v>
+        <v>434416.8178431415</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>176108.0889853902</v>
+        <v>17697.703260271239</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>5145918.5237709126</v>
+        <v>341920.11381641252</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4685,42 +4685,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>5596.2822269999997</v>
+        <v>1028.1721190000001</v>
       </c>
       <c r="I39">
-        <v>6748.8647460000002</v>
+        <v>1135.5593260000001</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1152.5825190000005</v>
+        <v>107.38720699999999</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>3249.8943197870362</v>
+        <v>675.41185423148181</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>1996.7722556851859</v>
+        <v>547.53452145370352</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>10561813.089784043</v>
+        <v>456181.17283640843</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>3987099.4410741054</v>
+        <v>299794.05218353611</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>6489298.8116596332</v>
+        <v>369811.30639079295</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>1328446.4631043866</v>
+        <v>11532.012227260846</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>9918435.4968323819</v>
+        <v>428922.47040078655</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4737,42 +4737,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4098.1967770000001</v>
+        <v>670.32995600000004</v>
       </c>
       <c r="I40">
-        <v>3750.6103520000001</v>
+        <v>587.48681599999998</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-347.58642499999996</v>
+        <v>-82.843140000000062</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>251.63992578703619</v>
+        <v>127.33934423148179</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>498.6868056851863</v>
+        <v>189.69235845370343</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>63322.652250105079</v>
+        <v>16215.308589303815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>248688.53016449476</v>
+        <v>35983.19085572831</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>125489.51077359442</v>
+        <v>24155.300531217777</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>120816.3228442806</v>
+        <v>6862.9858450596103</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>22831.325043208231</v>
+        <v>11416.755484167224</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4789,42 +4789,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>4344.4868159999996</v>
+        <v>195.35524000000001</v>
       </c>
       <c r="I41">
-        <v>3649.5820309999999</v>
+        <v>128.28054800000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-694.90478499999972</v>
+        <v>-67.074691999999999</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>150.61160478703596</v>
+        <v>-331.86692376851818</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>744.97684468518582</v>
+        <v>-285.28235754629657</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>22683.855496526314</v>
+        <v>110135.65509157945</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>554990.49911709549</v>
+        <v>81386.023527172991</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>112202.15810721827</v>
+        <v>94675.77840431995</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>482892.66021589586</v>
+        <v>4499.0143068948637</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>2507.2111611168398</v>
+        <v>124155.49036497131</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4841,42 +4841,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5144.3833009999998</v>
+        <v>52.071781000000001</v>
       </c>
       <c r="I42">
-        <v>4037.7963869999999</v>
+        <v>62.904750999999997</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-1106.586914</v>
+        <v>10.832969999999996</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>538.82596078703591</v>
+        <v>-397.24272076851821</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>1544.873329685186</v>
+        <v>-428.56581654629662</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>290333.41601807234</v>
+        <v>157801.77920357493</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>2386633.6047725934</v>
+        <v>183668.65911199397</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>832417.85616188764</v>
+        <v>170244.6509932325</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1224534.5982360432</v>
+        <v>117.35323902089991</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>192094.9821741677</v>
+        <v>174500.7310836718</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4893,42 +4893,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>4538.8168949999999</v>
+        <v>274.662781</v>
       </c>
       <c r="I43">
-        <v>5159.7993159999996</v>
+        <v>503.75711100000001</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>620.9824209999997</v>
+        <v>229.09433000000001</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>1660.8288897870357</v>
+        <v>43.609639231481822</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>939.30692368518612</v>
+        <v>-205.97481654629661</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>2758352.6011512377</v>
+        <v>1901.8006338999985</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>882297.49688292807</v>
+        <v>42425.625051280542</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>1560028.0752333435</v>
+        <v>-8982.4874403546473</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>385619.16719102085</v>
+        <v>52484.212038148908</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>2434502.8391381265</v>
+        <v>534.51190233597276</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4945,42 +4945,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>2561.619385</v>
+        <v>135.985794</v>
       </c>
       <c r="I44">
-        <v>3153.5205080000001</v>
+        <v>301.04025300000001</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>591.9011230000001</v>
+        <v>165.05445900000001</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-345.44991821296389</v>
+        <v>-159.10721876851818</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-1037.8905863148138</v>
+        <v>-344.65180354629661</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>119335.64599334344</v>
+        <v>25315.107064253105</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>1077216.869160908</v>
+        <v>118784.86568771504</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>358539.21815645759</v>
+        <v>54836.589905804962</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>350346.93940866127</v>
+        <v>27242.974435782682</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>198906.6013878356</v>
+        <v>32255.206168081171</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4997,42 +4997,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2177.7033689999998</v>
+        <v>235.55921900000001</v>
       </c>
       <c r="I45">
-        <v>1940.8514399999999</v>
+        <v>124.108856</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-236.85192899999993</v>
+        <v>-111.45036300000001</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1558.118986212964</v>
+        <v>-336.03861576851818</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1421.806602314814</v>
+        <v>-245.07837854629659</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>2427734.775197315</v>
+        <v>112921.95128762179</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2021534.0143859957</v>
+        <v>60063.411630881848</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2215343.8617896568</v>
+        <v>82355.799081490404</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>56098.836271021006</v>
+        <v>12421.183412831771</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>2751148.1235034154</v>
+        <v>127112.74354858596</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5049,42 +5049,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1472.8623050000001</v>
+        <v>104.71517900000001</v>
       </c>
       <c r="I46">
-        <v>851.96954300000004</v>
+        <v>60.713673</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-620.89276200000006</v>
+        <v>-44.001506000000006</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-2647.0008832129638</v>
+        <v>-399.43379876851816</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2126.6476663148137</v>
+        <v>-375.92241854629663</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>7006613.6757302107</v>
+        <v>159547.35959864905</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4522630.2966422429</v>
+        <v>141317.66476569703</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>5629238.2510181004</v>
+        <v>150156.11968219609</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>385507.82190398872</v>
+        <v>1936.1325302680366</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>7548978.4052243493</v>
+        <v>176336.10240636379</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5101,42 +5101,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1370.4888920000001</v>
+        <v>90.064644000000001</v>
       </c>
       <c r="I47">
-        <v>839.533997</v>
+        <v>54.716163999999999</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-530.95489500000008</v>
+        <v>-35.348480000000002</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-2659.436429212964</v>
+        <v>-405.4313077685182</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2229.0210793148135</v>
+        <v>-390.57295354629662</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>7072602.1210250007</v>
+        <v>164374.54531889092</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>4968534.9720297763</v>
+        <v>152547.23204187758</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>5927939.8598134145</v>
+        <v>158350.50333528774</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>281913.10052446113</v>
+        <v>1249.5150383104001</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>7617467.3787950054</v>
+        <v>181409.06755413237</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5153,42 +5153,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>1975.344482</v>
+        <v>621.07501200000002</v>
       </c>
       <c r="I48">
-        <v>1363.24585</v>
+        <v>508.97579999999999</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-612.09863199999995</v>
+        <v>-112.09921200000002</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-2135.7245762129642</v>
+        <v>48.828328231481805</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1624.1654893148138</v>
+        <v>140.43741445370341</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>4561319.4654400451</v>
+        <v>2384.2056378813231</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>2637913.5366812288</v>
+        <v>19722.667378441263</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>3468770.1513666022</v>
+        <v>6857.3241689260776</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>374664.73529627139</v>
+        <v>12566.233331020949</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>5000877.2202799153</v>
+        <v>803.05371830708077</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5205,42 +5205,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>3294.086914</v>
+        <v>896.02185099999997</v>
       </c>
       <c r="I49">
-        <v>2212.533203</v>
+        <v>877.34027100000003</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-1081.553711</v>
+        <v>-18.68157999999994</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1286.437223212964</v>
+        <v>417.19279923148184</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-305.42305731481383</v>
+        <v>415.38425345370337</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1654920.7292678813</v>
+        <v>174049.83173059952</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>93283.243939528053</v>
+        <v>172544.07801729048</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>392907.58975728304</v>
+        <v>173295.31945502985</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>1169758.4297778716</v>
+        <v>349.00143129639775</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1923704.5558450047</v>
+        <v>157373.01112531565</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5257,42 +5257,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>3137.66626</v>
+        <v>732.78344700000002</v>
       </c>
       <c r="I50">
-        <v>2851.2302249999998</v>
+        <v>617.34991500000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-286.43603500000017</v>
+        <v>-115.43353200000001</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-647.74020121296417</v>
+        <v>157.20244323148182</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-461.84371131481385</v>
+        <v>252.14584945370342</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>419567.36826741131</v>
+        <v>24712.608157947267</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>213299.61368104111</v>
+        <v>63577.529396729667</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>299154.73849599966</v>
+        <v>39637.943584799577</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>82045.602146521327</v>
+        <v>13324.900309995028</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>559922.57874496246</v>
+        <v>18690.257743562175</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5309,42 +5309,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3178.1987300000001</v>
+        <v>356.48150600000002</v>
       </c>
       <c r="I51">
-        <v>3388.9973140000002</v>
+        <v>348.57122800000002</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>210.79858400000012</v>
+        <v>-7.9102780000000052</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-109.97311221296377</v>
+        <v>-111.57624376851817</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-421.31124131481374</v>
+        <v>-124.15609154629658</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>12094.08540980512</v>
+        <v>12449.258173491789</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>177503.16205822921</v>
+        <v>15414.735068052378</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>46332.908417697072</v>
+        <v>13852.870335716045</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>44436.043016405107</v>
+        <v>62.572498037284085</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>44315.578889744153</v>
+        <v>17441.525965138975</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5361,42 +5361,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>3386.0927729999999</v>
+        <v>382.777557</v>
       </c>
       <c r="I52">
-        <v>3179.4458009999998</v>
+        <v>295.81228599999997</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-206.64697200000001</v>
+        <v>-86.96527100000003</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-319.52462521296411</v>
+        <v>-164.33518576851822</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-213.41719831481396</v>
+        <v>-97.860040546296602</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>102095.98611748518</v>
+        <v>27006.053281573393</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>45546.900536544628</v>
+        <v>9576.5875357228142</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>68192.050305541765</v>
+        <v>16081.847942490376</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>42702.971036768788</v>
+        <v>7562.9583601034465</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>176453.90718227305</v>
+        <v>34160.395788185611</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5413,42 +5413,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>6650.8862300000001</v>
+        <v>864.332581</v>
       </c>
       <c r="I53">
-        <v>8046.5668949999999</v>
+        <v>1234.2166749999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>1395.6806649999999</v>
+        <v>369.88409399999989</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>4547.5964687870364</v>
+        <v>774.06920323148165</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>3051.3762586851863</v>
+        <v>383.6949834537034</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>20680633.642924324</v>
+        <v>599183.13139142084</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>9310897.0720676053</v>
+        <v>147221.84032753773</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>13876427.898937352</v>
+        <v>297006.47012592474</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>1947924.5186548419</v>
+        <v>136814.24299420076</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>19776315.282496352</v>
+        <v>567881.42597597465</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5465,42 +5465,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>8674.3496090000008</v>
+        <v>861.92437700000005</v>
       </c>
       <c r="I54">
-        <v>9133.8789059999999</v>
+        <v>976.752747</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>459.52929699999913</v>
+        <v>114.82836999999995</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>5634.9084797870364</v>
+        <v>516.60527523148176</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>5074.839637685187</v>
+        <v>381.28677945370345</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>31752193.575575851</v>
+        <v>266881.010396995</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>25753997.348220721</v>
+        <v>145379.60818617709</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>28596256.907951631</v>
+        <v>196974.76164180576</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>211167.17480131341</v>
+        <v>13185.554556856889</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>30629239.50520844</v>
+        <v>246130.24151747045</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5517,42 +5517,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>4538.8974609999996</v>
+        <v>442.88937399999998</v>
       </c>
       <c r="I55">
-        <v>5181.7783200000003</v>
+        <v>402.13876299999998</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>642.88085900000078</v>
+        <v>-40.750610999999992</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>1682.8078937870364</v>
+        <v>-58.008708768518204</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>939.38748968518576</v>
+        <v>-37.748223546296629</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>2831842.4073919617</v>
+        <v>3365.0102929907607</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>882448.855777035</v>
+        <v>1424.9283809011831</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1580808.6829670188</v>
+        <v>2189.7257062260428</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>413295.79886857886</v>
+        <v>1660.6122968733202</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>2503573.1272509471</v>
+        <v>6162.0670251268521</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5569,42 +5569,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>3557.773682</v>
+        <v>389.959991</v>
       </c>
       <c r="I56">
-        <v>3962.1196289999998</v>
+        <v>423.144318</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>404.3459469999998</v>
+        <v>33.184326999999996</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>463.14920278703585</v>
+        <v>-37.003153768518189</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-41.736289314813803</v>
+        <v>-90.677606546296602</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>214507.18404226686</v>
+        <v>1369.2333888166017</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>1741.9178457698408</v>
+        <v>8222.428328964972</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>-19330.129123445095</v>
+        <v>3355.3574183938049</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>163495.64485532665</v>
+        <v>1101.1995584429287</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>131485.76384656777</v>
+        <v>3305.4771929886078</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5621,42 +5621,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2022.331909</v>
+        <v>211.100998</v>
       </c>
       <c r="I57">
-        <v>1698.2863769999999</v>
+        <v>172.68275499999999</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-324.04553200000009</v>
+        <v>-38.418243000000018</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-1800.6840492129641</v>
+        <v>-287.4647167685182</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1577.1780623148138</v>
+        <v>-269.5365995462966</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>3242463.0450899964</v>
+        <v>82635.963386804389</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>2487490.6402471107</v>
+        <v>72649.978494980664</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>2839999.3795788954</v>
+        <v>77482.262247325663</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>105005.50680916308</v>
+        <v>1475.9613952070504</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>3614651.1555793402</v>
+        <v>94836.185047714345</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5673,42 +5673,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1580.033936</v>
+        <v>126.90033</v>
       </c>
       <c r="I58">
-        <v>1174.9930420000001</v>
+        <v>101.040154</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-405.04089399999998</v>
+        <v>-25.860175999999996</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-2323.9773842129639</v>
+        <v>-359.10731776851821</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2019.4760353148138</v>
+        <v>-353.73726754629661</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>5400870.8823333299</v>
+        <v>128958.06567489952</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>4078283.4572108388</v>
+        <v>125130.05445112023</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>4693216.6340316879</v>
+        <v>127029.64134331528</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>164058.12581231922</v>
+        <v>668.74870275097578</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>5878282.3405341338</v>
+        <v>144094.21914688387</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5725,42 +5725,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1373.219482</v>
+        <v>91.296165000000002</v>
       </c>
       <c r="I59">
-        <v>914.91967799999998</v>
+        <v>378.20376599999997</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-458.29980399999999</v>
+        <v>286.907601</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-2584.0507482129642</v>
+        <v>-81.943705768518214</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2226.2904893148138</v>
+        <v>-389.34143254629657</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>6677318.2693399806</v>
+        <v>6714.7709150774854</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>4956369.3428135933</v>
+        <v>151586.75109720242</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>5752847.604653351</v>
+        <v>31904.079792067107</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>210038.7103464384</v>
+        <v>82315.971511575204</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>7207025.0429601166</v>
+        <v>10492.689845255074</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5777,42 +5777,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>1383.0970460000001</v>
+        <v>569.27130099999999</v>
       </c>
       <c r="I60">
-        <v>914.67059300000005</v>
+        <v>367.408051</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-468.42645300000004</v>
+        <v>-201.86324999999999</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-2584.2998332129637</v>
+        <v>-92.739420768518187</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-2216.4129253148139</v>
+        <v>88.63370345370339</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>6678605.6279445523</v>
+        <v>8600.6001644802618</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>4912486.2555025714</v>
+        <v>7855.9333879190326</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>5727875.553222131</v>
+        <v>-8219.8383188650623</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>219423.34187016124</v>
+        <v>40748.771700562495</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>7208362.4873498771</v>
+        <v>12820.930211079949</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5829,42 +5829,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>2632.9094239999999</v>
+        <v>831.05474900000002</v>
       </c>
       <c r="I61">
-        <v>1403.618774</v>
+        <v>463.043701</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-1229.2906499999999</v>
+        <v>-368.01104800000002</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-2095.3516522129639</v>
+        <v>2.8962292314818114</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-966.60054731481387</v>
+        <v>350.41715145370341</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>4390498.5464315973</v>
+        <v>8.3881437612897241</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>934316.61806929775</v>
+        <v>122792.18003292772</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>2025368.0538460505</v>
+        <v>1014.8883972528049</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>1511155.5021774224</v>
+        <v>135432.13145005831</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>4821938.1504446864</v>
+        <v>309.54519568178762</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5881,42 +5881,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>5211.3408200000003</v>
+        <v>1106.9021</v>
       </c>
       <c r="I62">
-        <v>2680.92749</v>
+        <v>711.81402600000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-2530.4133300000003</v>
+        <v>-395.08807400000001</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-818.04293621296392</v>
+        <v>251.66655423148183</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>1611.8308486851865</v>
+        <v>626.26450245370347</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>669194.24548792734</v>
+        <v>63336.054518747384</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>2597998.6847732086</v>
+        <v>392207.22703358479</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-1318546.8401370635</v>
+        <v>157609.82937001696</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>6402991.6206416907</v>
+        <v>156094.58621702949</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>843793.77497848019</v>
+        <v>53442.541072610249</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5933,42 +5933,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>6918.091797</v>
+        <v>1259.006226</v>
       </c>
       <c r="I63">
-        <v>6423.814453</v>
+        <v>1255.927612</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-494.27734400000008</v>
+        <v>-3.0786140000000159</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>2924.844026787036</v>
+        <v>795.78014023148171</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>3318.5818256851862</v>
+        <v>778.36862845370342</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>8554712.581031803</v>
+        <v>633266.03158683667</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>11012985.333768023</v>
+        <v>605857.72176089941</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>9706334.2302593328</v>
+        <v>619410.29630267422</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>244310.09279169442</v>
+        <v>9.4778641609960985</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>7976695.8052670276</v>
+        <v>601074.6065116236</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5985,42 +5985,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>4828.9853519999997</v>
+        <v>657.78259300000002</v>
       </c>
       <c r="I64">
-        <v>4617.1342770000001</v>
+        <v>515.91326900000001</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-211.85107499999958</v>
+        <v>-141.86932400000001</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>1118.1638507870362</v>
+        <v>55.765797231481827</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1229.4753806851859</v>
+        <v>177.14499545370342</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>1250290.3972068932</v>
+        <v>3109.8241408627464</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1511609.7117109827</v>
+        <v>31380.349414292603</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1374754.9261148046</v>
+        <v>9878.6318970429948</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>44880.877978655451</v>
+        <v>20126.905092216977</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1035559.2275212575</v>
+        <v>1244.3729965096256</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6037,42 +6037,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>3748.3359380000002</v>
+        <v>255.48928799999999</v>
       </c>
       <c r="I65">
-        <v>3534.5661620000001</v>
+        <v>225.021942</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-213.76977600000009</v>
+        <v>-30.467345999999992</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>35.595735787036119</v>
+        <v>-235.12552976851819</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>148.82596668518636</v>
+        <v>-225.14830954629662</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>1267.056406220484</v>
+        <v>55284.014748926333</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>22149.1683597802</v>
+        <v>50691.761291554998</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>5297.5697883761331</v>
+        <v>52938.115558559315</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>45697.517131090215</v>
+        <v>928.25917228371554</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>4217.6983683188873</v>
+        <v>65339.363360362957</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6089,42 +6089,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>3187.9873050000001</v>
+        <v>51.712265000000002</v>
       </c>
       <c r="I66">
-        <v>2683.1577149999998</v>
+        <v>54.170158000000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-504.82959000000028</v>
+        <v>2.4578929999999986</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-815.81271121296413</v>
+        <v>-405.97731376851817</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-411.5226663148137</v>
+        <v>-428.9253325462966</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>665550.3797766472</v>
+        <v>164817.57929470186</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>169350.9048908535</v>
+        <v>183976.94089995112</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>335725.42213187611</v>
+        <v>174133.95431441386</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>254852.91493956838</v>
+        <v>6.0412379994489926</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>839701.45765325055</v>
+        <v>181874.47699317415</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6141,42 +6141,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2908.7160640000002</v>
+        <v>51.772095</v>
       </c>
       <c r="I67">
-        <v>2612.1357419999999</v>
+        <v>51.032882999999998</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-296.58032200000025</v>
+        <v>-0.73921200000000198</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-886.83468421296402</v>
+        <v>-409.11458876851816</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-690.79390731481362</v>
+        <v>-428.86550254629663</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>786475.75712310767</v>
+        <v>167374.74674323373</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>477196.2223832673</v>
+        <v>183925.61927428754</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>612619.99664977228</v>
+        <v>175455.13371123202</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>87959.887397623839</v>
+        <v>0.54643438094400287</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>974907.86871502269</v>
+        <v>184560.21076040497</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6193,42 +6193,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>1909.8842770000001</v>
+        <v>50.992438999999997</v>
       </c>
       <c r="I68">
-        <v>1480.411499</v>
+        <v>104.167923</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-429.47277800000006</v>
+        <v>53.175484000000004</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-2018.5589272129639</v>
+        <v>-355.97954876851816</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-1689.6256943148137</v>
+        <v>-429.64515854629661</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>4074580.1426311517</v>
+        <v>126721.43914143779</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>2854834.9868888161</v>
+        <v>184594.96226227234</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>3410609.0289075696</v>
+        <v>152944.88966988912</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>184446.86704303735</v>
+        <v>2827.6320986342566</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>4490578.3353669783</v>
+        <v>141729.41585299445</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6245,42 +6245,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1446.455322</v>
+        <v>50.738976000000001</v>
       </c>
       <c r="I69">
-        <v>1038.0704350000001</v>
+        <v>169.52015700000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>-408.38488699999994</v>
+        <v>118.781181</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-2460.8999912129639</v>
+        <v>-290.6273147685182</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-2153.054649314814</v>
+        <v>-429.89862154629662</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>6056028.7667519655</v>
+        <v>84464.236089559359</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>4635644.3229361372</v>
+        <v>184812.82480740597</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>5298452.1675798567</v>
+        <v>124940.28200268763</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>166778.21593000271</v>
+        <v>14108.968959754762</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>6560972.4981966475</v>
+        <v>96794.061812078406</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6297,42 +6297,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>1281.341187</v>
+        <v>50.608086</v>
       </c>
       <c r="I70">
-        <v>795.31207300000005</v>
+        <v>192.53428600000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>-486.02911399999994</v>
+        <v>141.92619999999999</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-2703.6583532129639</v>
+        <v>-267.61318576851818</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-2318.1687843148138</v>
+        <v>-430.02951154629659</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>7309768.4908982357</v>
+        <v>71616.81719717542</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>5373906.5125716217</v>
+        <v>184925.38080074644</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>6267536.3978702882</v>
+        <v>115081.5675593842</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>236224.29965562493</v>
+        <v>20143.046246439997</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>7863525.8529132186</v>
+        <v>83003.518123942442</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6349,42 +6349,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>1258.7966309999999</v>
+        <v>50.579738999999996</v>
       </c>
       <c r="I71">
-        <v>661.03247099999999</v>
+        <v>176.005402</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>-597.76415999999995</v>
+        <v>125.42566300000001</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-2837.937955212964</v>
+        <v>-284.14206976851818</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-2340.7133403148136</v>
+        <v>-430.05785854629659</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>8053891.837638339</v>
+        <v>80736.715812337454</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>5478938.9415277326</v>
+        <v>184949.76169742644</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>6642799.2307527289</v>
+        <v>122197.53004756133</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>357321.99098050554</v>
+        <v>15731.596938989573</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>8634650.0198563971</v>
+        <v>92800.774563357088</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6401,42 +6401,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>1392.7360839999999</v>
+        <v>516.89672900000005</v>
       </c>
       <c r="I72">
-        <v>755.29766800000004</v>
+        <v>115.291313</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-637.43841599999985</v>
+        <v>-401.60541600000005</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-2743.6727582129638</v>
+        <v>-344.85615876851818</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-2206.7738873148137</v>
+        <v>36.259131453703446</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>7527740.2041599322</v>
+        <v>118925.77024057742</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>4869850.9897345342</v>
+        <v>1314.7246137769466</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>6054665.3981613787</v>
+        <v>-12504.184793406926</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>406327.73419258889</v>
+        <v>161286.91016053309</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>8089543.6263273573</v>
+        <v>133477.90763178351</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6453,42 +6453,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>1393.935303</v>
+        <v>610.36938499999997</v>
       </c>
       <c r="I73">
-        <v>797.44860800000004</v>
+        <v>107.864929</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-596.48669499999994</v>
+        <v>-502.50445599999995</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-2701.5218182129638</v>
+        <v>-352.28254276851817</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-2205.5746683148136</v>
+        <v>129.73178745370336</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>7298220.1342806779</v>
+        <v>124102.98993945283</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>4864559.6175119998</v>
+        <v>16830.336675932864</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>5958408.0881502898</v>
+        <v>-45702.243962095563</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>355796.37731202296</v>
+        <v>252510.72829985589</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>7851547.8837816725</v>
+        <v>138959.46241512708</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6505,42 +6505,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>5046.9750979999999</v>
+        <v>961.260132</v>
       </c>
       <c r="I74">
-        <v>3412.2314449999999</v>
+        <v>480.82003800000001</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-1634.743653</v>
+        <v>-480.44009399999999</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-86.738981212964063</v>
+        <v>20.672566231481824</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>1447.4651266851861</v>
+        <v>480.62253445370339</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>7523.6508618629323</v>
+        <v>427.35499459500261</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>2095155.2929697619</v>
+        <v>230998.02062470131</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>-125551.65042996701</v>
+        <v>9935.701175836839</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>2672386.8110237843</v>
+        <v>230822.68392272881</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>35073.24641864845</v>
+        <v>3.3284519147504993E-2</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6557,42 +6557,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>9266.15625</v>
+        <v>1332.8908690000001</v>
       </c>
       <c r="I75">
-        <v>9362.1074219999991</v>
+        <v>1419.6671140000001</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>95.951171999999133</v>
+        <v>86.776245000000017</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>5863.1369957870356</v>
+        <v>959.51964223148184</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>5666.6462786851862</v>
+        <v>852.25327145370352</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>34376375.431366622</v>
+        <v>920677.94382803096</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>32110880.047736667</v>
+        <v>726335.63870354008</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>33224323.438598048</v>
+        <v>817753.75411586754</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>9206.6274081734173</v>
+        <v>7530.1166963000278</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>33207529.378643397</v>
+        <v>881776.43277127633</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6609,42 +6609,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>6409.1166990000002</v>
+        <v>981.71356200000002</v>
       </c>
       <c r="I76">
-        <v>5691.6948240000002</v>
+        <v>849.51654099999996</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-717.421875</v>
+        <v>-132.19702100000006</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>2192.7243977870362</v>
+        <v>389.36906923148177</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>2809.6067276851863</v>
+        <v>501.07596445370342</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>4808040.2846505204</v>
+        <v>151608.27207419043</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>7893889.9642538605</v>
+        <v>251077.12215320906</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>6160693.219981906</v>
+        <v>195103.48189360555</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>514694.14672851563</v>
+        <v>17476.052361274458</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>4377237.4578053346</v>
+        <v>136071.67492352048</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6661,42 +6661,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6725.6997069999998</v>
+        <v>321.31237800000002</v>
       </c>
       <c r="I77">
-        <v>6065.4331050000001</v>
+        <v>335.613831</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>-660.26660199999969</v>
+        <v>14.301452999999981</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>2566.4626787870361</v>
+        <v>-124.53364076851818</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>3126.189735685186</v>
+        <v>-159.32521954629658</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>6586730.6816067295</v>
+        <v>15508.627683062334</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>9773062.2635034136</v>
+        <v>25384.525583475606</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>8023249.2834431389</v>
+        <v>19841.349656343791</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>435951.98571662599</v>
+        <v>204.53155791120847</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>6080776.9012437686</v>
+        <v>21031.892863274737</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6713,42 +6713,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5940.0141599999997</v>
+        <v>547.89776600000005</v>
       </c>
       <c r="I78">
-        <v>6181.7080079999996</v>
+        <v>618.51684599999999</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>241.69384799999989</v>
+        <v>70.61907999999994</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>2682.7375817870357</v>
+        <v>158.3693742314818</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>2340.5041886851859</v>
+        <v>67.260168453703443</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>7197080.9327325514</v>
+        <v>25080.858694471131</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>5477959.8572529005</v>
+        <v>4523.9302604205641</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>6278958.5473157233</v>
+        <v>10651.950788717068</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>58415.916161047047</v>
+        <v>4987.0544600463918</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>6667746.7006608285</v>
+        <v>19010.687154158066</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6765,42 +6765,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>2875.6176759999998</v>
+        <v>103.224152</v>
       </c>
       <c r="I79">
-        <v>3725.9291990000002</v>
+        <v>112.05089599999999</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>850.31152300000031</v>
+        <v>8.8267439999999908</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>226.9587727870362</v>
+        <v>-348.09657576851816</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-723.89229531481396</v>
+        <v>-377.4134455462966</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>51510.284544997521</v>
+        <v>121171.22606176771</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>524020.05521614983</v>
+        <v>142440.90887912738</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-164293.70697464098</v>
+        <v>131376.32804366393</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>723029.68614658003</v>
+        <v>77.91140964153584</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>15981.821128518985</v>
+        <v>135856.1565567787</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6817,42 +6817,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2072.4179690000001</v>
+        <v>126.963402</v>
       </c>
       <c r="I80">
-        <v>2126.8010250000002</v>
+        <v>251.23820499999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>54.383056000000124</v>
+        <v>124.27480299999999</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-1372.1694012129637</v>
+        <v>-208.90926676851819</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-1527.0920023148137</v>
+        <v>-353.67419554629657</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>1882848.8656251435</v>
+        <v>43643.081741759903</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>2332009.9835338672</v>
+        <v>125085.43659532003</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>2095428.9184134237</v>
+        <v>73885.816866522335</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>2957.5167798991497</v>
+        <v>15444.226660688806</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>2168871.6405556886</v>
+        <v>52624.081300609883</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6869,42 +6869,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>1865.9614260000001</v>
+        <v>155.58279400000001</v>
       </c>
       <c r="I81">
-        <v>1367.9316409999999</v>
+        <v>286.293182</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>-498.02978500000017</v>
+        <v>130.71038799999999</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-2131.0387852129643</v>
+        <v>-173.85428976851819</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-1733.5485453148137</v>
+        <v>-325.05480354629663</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>4541326.3040819466</v>
+        <v>30225.314070915887</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>3005190.5589631069</v>
+        <v>105660.6253085215</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>3694259.1861153822</v>
+        <v>56512.172006386609</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>248033.6667471464</v>
+        <v>17085.205531110543</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>4979941.8443306517</v>
+        <v>37769.751854031616</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6921,42 +6921,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1492.4938959999999</v>
+        <v>116.71013600000001</v>
       </c>
       <c r="I82">
-        <v>1013.233643</v>
+        <v>186.068344</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>-479.26025299999992</v>
+        <v>69.358207999999991</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-2485.7367832129639</v>
+        <v>-274.07912776851822</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-2107.0160753148139</v>
+        <v>-363.92746154629663</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>6178887.3554179333</v>
+        <v>75119.368278351729</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>4439516.7416350413</v>
+        <v>132443.19726753121</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>5237487.3612310495</v>
+        <v>99744.921231619941</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>229690.39010562393</v>
+        <v>4810.5610169712627</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>6688825.2464015549</v>
+        <v>86771.045134822387</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6973,42 +6973,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1327.869385</v>
+        <v>85.080924999999993</v>
       </c>
       <c r="I83">
-        <v>779.36895800000002</v>
+        <v>272.00170900000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>-548.50042699999995</v>
+        <v>186.92078400000003</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-2719.6014682129639</v>
+        <v>-188.14576276851818</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-2271.6405863148138</v>
+        <v>-395.55667254629662</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>7396232.1459061094</v>
+        <v>35398.82804774752</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>5160350.9533927115</v>
+        <v>156465.08119589812</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>6177957.0737939263</v>
+        <v>74422.311874399951</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>300852.71841918229</v>
+        <v>34939.379491174666</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>7953195.3349803044</v>
+        <v>43528.933989502693</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7025,42 +7025,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>1497.9609379999999</v>
+        <v>597.29858400000001</v>
       </c>
       <c r="I84">
-        <v>992.86773700000003</v>
+        <v>233.83090200000001</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-505.09320099999991</v>
+        <v>-363.46768199999997</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-2506.1026892129639</v>
+        <v>-226.31656976851818</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-2101.5490333148136</v>
+        <v>116.6609864537034</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>6280550.6888804501</v>
+        <v>51219.189751788559</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>4416508.3394264281</v>
+        <v>13609.785760351169</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>5266697.6839031596</v>
+        <v>-26402.314280013721</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>255119.14169642632</v>
+        <v>132108.75585845311</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>6794583.7377137244</v>
+        <v>60913.544966482339</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7077,42 +7077,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>5582.1308589999999</v>
+        <v>1410.622192</v>
       </c>
       <c r="I85">
-        <v>4313.2329099999997</v>
+        <v>612.301514</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-1268.8979490000002</v>
+        <v>-798.32067800000004</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>814.26248378703576</v>
+        <v>152.15404223148181</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>1982.6208876851861</v>
+        <v>929.98459445370349</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>663023.39250303269</v>
+        <v>23150.852567379548</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>3930785.584285595</v>
+        <v>864871.34592121933</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>1614373.8084145973</v>
+        <v>141500.91525913629</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>1610102.0049764069</v>
+        <v>637315.90492237976</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>509400.43320541765</v>
+        <v>17335.386895927786</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7129,42 +7129,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>4613.9912109999996</v>
+        <v>948.71099900000002</v>
       </c>
       <c r="I86">
-        <v>4075.1665039999998</v>
+        <v>663.27020300000004</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-538.82470699999976</v>
+        <v>-285.44079599999998</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>576.19607778703585</v>
+        <v>203.12273123148185</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>1014.4812396851858</v>
+        <v>468.07340145370341</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>332001.92005716386</v>
+        <v>41258.843942936815</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>1029172.1856731913</v>
+        <v>219092.70914843981</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>584540.11129513383</v>
+        <v>95076.347720086109</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>290332.06487363559</v>
+        <v>81476.448021113596</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>226249.13708609343</v>
+        <v>33354.668574808107</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7181,42 +7181,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>3877.6770019999999</v>
+        <v>686.60589600000003</v>
       </c>
       <c r="I87">
-        <v>4732.3608400000003</v>
+        <v>796.08160399999997</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>854.68383800000038</v>
+        <v>109.47570799999994</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>1233.3904137870363</v>
+        <v>335.93413223148178</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>278.16703068518609</v>
+        <v>205.96829845370343</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>1521251.9128217567</v>
+        <v>112851.74119811869</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>77376.896960213257</v>
+        <v>42422.939967913851</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>343088.54907871288</v>
+        <v>69191.781608239718</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>730484.46293841093</v>
+        <v>11984.930642101252</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>1283351.0906807815</v>
+        <v>99504.921207564053</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7233,42 +7233,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>1668.634033</v>
+        <v>198.416336</v>
       </c>
       <c r="I88">
-        <v>3466.342529</v>
+        <v>483.61068699999998</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>1797.708496</v>
+        <v>285.19435099999998</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-32.627897212963944</v>
+        <v>23.463215231481797</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-1930.8759383148138</v>
+        <v>-282.2212615462966</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>1064.5796765397404</v>
+        <v>550.52246899883937</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>3728281.8891631123</v>
+        <v>79648.84046878315</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>63000.421646321054</v>
+        <v>-6621.818202561074</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>3231755.836590582</v>
+        <v>81335.817842311197</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>17733.567692669261</v>
+        <v>8.8392608997222659</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7285,42 +7285,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>7381.3012699999999</v>
+        <v>312.41384900000003</v>
       </c>
       <c r="I89">
-        <v>8464.3496090000008</v>
+        <v>734.07312000000002</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>1083.0483390000009</v>
+        <v>421.65927099999999</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>4965.3791827870373</v>
+        <v>273.92564823148183</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>3781.7912986851861</v>
+        <v>-168.22374854629658</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>24654990.428854868</v>
+        <v>75035.260759037526</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>14301945.426810987</v>
+        <v>28299.22957496762</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>18778027.788136579</v>
+        <v>-46080.799368474087</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>1172993.7046106607</v>
+        <v>177796.54082025142</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>23666664.700392943</v>
+        <v>64229.564041381607</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7337,42 +7337,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>11356.832031</v>
+        <v>550.87188700000002</v>
       </c>
       <c r="I90">
-        <v>9775.4814449999994</v>
+        <v>1171.6539310000001</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>-1581.3505860000005</v>
+        <v>620.78204400000004</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>6276.5110187870359</v>
+        <v>711.50645923148181</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>7757.3220596851861</v>
+        <v>70.234289453703411</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>39394590.568955079</v>
+        <v>506241.44152812031</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>60176045.537678421</v>
+        <v>4932.8554150665941</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>48688917.383893818</v>
+        <v>49972.150605843519</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>2500669.675842545</v>
+        <v>385370.34615281801</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>38142623.643773161</v>
+        <v>477503.57309979998</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7389,42 +7389,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>5819.4760740000002</v>
+        <v>1655.071655</v>
       </c>
       <c r="I91">
-        <v>6237.3349609999996</v>
+        <v>599.60089100000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>417.85888699999941</v>
+        <v>-1055.4707639999999</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>2738.3645347870356</v>
+        <v>139.45341923148186</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>2219.9661026851863</v>
+        <v>1174.4340574537034</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>7498640.3253794182</v>
+        <v>19447.256135351436</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>4928249.497071255</v>
+        <v>1379295.3553071688</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>6079076.4440225093</v>
+        <v>163778.84497382154</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>174606.04944487827</v>
+        <v>1114018.5336587436</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>6958120.6762076505</v>
+        <v>14152.26518935196</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7441,42 +7441,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>3168.7993160000001</v>
+        <v>401.59884599999998</v>
       </c>
       <c r="I92">
-        <v>5795.6904299999997</v>
+        <v>509.12970000000001</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>2626.8911139999996</v>
+        <v>107.53085400000003</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>2296.7200037870357</v>
+        <v>48.982228231481827</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-430.71065531481372</v>
+        <v>-79.038751546296623</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>5274922.7757955212</v>
+        <v>2399.2586825209751</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>185511.66860171629</v>
+        <v>6247.1242459972073</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-989221.77790575556</v>
+        <v>-3871.4941673720882</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>6900556.9248121586</v>
+        <v>11562.884561969324</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>4823208.6071106736</v>
+        <v>811.79990223233187</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7493,42 +7493,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>1876.889038</v>
+        <v>219.350967</v>
       </c>
       <c r="I93">
-        <v>2533.3679200000001</v>
+        <v>158.55336</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>656.47888200000011</v>
+        <v>-60.797606999999999</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>-965.60250621296382</v>
+        <v>-301.59411176851819</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-1722.6209333148138</v>
+        <v>-261.28663054629658</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>932388.2000047568</v>
+        <v>90959.00825344144</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>2967422.8798944</v>
+        <v>68270.703302236885</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>1663367.0904636991</v>
+        <v>78802.509256599296</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>430964.52251197008</v>
+        <v>3696.3490169264487</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>1136658.8735817587</v>
+        <v>103738.25607577922</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7545,42 +7545,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1428.689331</v>
+        <v>103.567871</v>
       </c>
       <c r="I94">
-        <v>1328.5045170000001</v>
+        <v>59.615597000000001</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>-100.18481399999996</v>
+        <v>-43.952273999999996</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-2170.4659092129641</v>
+        <v>-400.53187476851821</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-2170.8206403148138</v>
+        <v>-377.06972654629658</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>4710922.2630556589</v>
+        <v>160425.78270558396</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>4712462.2524168184</v>
+        <v>142181.57867769888</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>4711692.1948191607</v>
+        <v>151028.44449204067</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>10036.996956214589</v>
+        <v>1931.8023897710757</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>5157465.7735276325</v>
+        <v>177259.5249440058</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7597,42 +7597,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1392.4183350000001</v>
+        <v>89.205841000000007</v>
       </c>
       <c r="I95">
-        <v>971.37426800000003</v>
+        <v>469.47460899999999</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>-421.04406700000004</v>
+        <v>380.26876799999997</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-2527.5961582129639</v>
+        <v>9.3271372314817995</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-2207.0916363148135</v>
+        <v>-391.43175654629658</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>6388742.3390129348</v>
+        <v>86.99548893489397</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>4871253.4910908006</v>
+        <v>153218.8200329192</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>5578636.3407732872</v>
+        <v>-3650.9377100672823</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>177278.10635590053</v>
+        <v>144604.33591623779</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>6907097.2750380505</v>
+        <v>124.61231328474946</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7649,42 +7649,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>1886.575439</v>
+        <v>637.11938499999997</v>
       </c>
       <c r="I96">
-        <v>1315.7611079999999</v>
+        <v>254.38052400000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-570.81433100000004</v>
+        <v>-382.73886099999993</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-2183.2093182129638</v>
+        <v>-205.76694776851818</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-1712.9345323148139</v>
+        <v>156.48178745370336</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>4766402.9271319145</v>
+        <v>42340.036793972089</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>2934144.7119965702</v>
+        <v>24486.549804705995</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>3739694.6324384669</v>
+        <v>-32198.779785710543</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>325829.0004749776</v>
+        <v>146489.03571957725</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>5215508.8706917055</v>
+        <v>51192.263329734269</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7701,42 +7701,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>3514.8640140000002</v>
+        <v>1052.013672</v>
       </c>
       <c r="I97">
-        <v>3084.7854000000002</v>
+        <v>790.043091</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-430.07861400000002</v>
+        <v>-261.97058100000004</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-414.18502621296375</v>
+        <v>329.89561923148182</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>-84.645957314813586</v>
+        <v>571.3760744537035</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>171549.23593903348</v>
+        <v>108831.11958812283</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>7164.9380897412439</v>
+        <v>326470.61845812411</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>35059.088049257472</v>
+        <v>188494.46389595777</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>184967.61422016102</v>
+        <v>68628.585309477581</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>264941.38431521866</v>
+        <v>95731.759379329698</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7753,42 +7753,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>5294.2954099999997</v>
+        <v>848.50903300000004</v>
       </c>
       <c r="I98">
-        <v>5686.8833009999998</v>
+        <v>1123.0432129999999</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>392.58789100000013</v>
+        <v>274.53417999999988</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>2187.9128747870359</v>
+        <v>662.89574123148168</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>1694.7854386851859</v>
+        <v>367.87143545370344</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>4786962.747658872</v>
+        <v>439430.76374283549</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>2872297.683179338</v>
+        <v>135329.39302276829</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>3708042.8813009127</v>
+        <v>243860.40788297192</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>154125.25215982797</v>
+        <v>75369.015988272338</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>4357127.4174810201</v>
+        <v>412684.9747664514</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7805,42 +7805,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>2211.9626459999999</v>
+        <v>536.61834699999997</v>
       </c>
       <c r="I99">
-        <v>3719.0822750000002</v>
+        <v>312.73303199999998</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>1507.1196290000003</v>
+        <v>-223.88531499999999</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>220.11184878703625</v>
+        <v>-147.41443976851821</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-1387.5473253148139</v>
+        <v>55.980749453703368</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>48449.225976447109</v>
+        <v>21731.017052266081</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>1925287.5799882938</v>
+        <v>3133.8443093983101</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>-305415.6070545509</v>
+        <v>-8252.3708185394644</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>2271409.5761170983</v>
+        <v>50124.634272649222</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>14297.535808582441</v>
+        <v>28191.94313129062</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7857,42 +7857,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6584.2724609999996</v>
+        <v>910.72766100000001</v>
       </c>
       <c r="I100">
-        <v>5698.1748049999997</v>
+        <v>772.975281</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-886.09765599999992</v>
+        <v>-137.75238000000002</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>2199.2043787870357</v>
+        <v>312.82780923148181</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>2984.7624896851858</v>
+        <v>430.09006345370341</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>4836499.8996760715</v>
+        <v>97861.238228568371</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>8908807.1198317092</v>
+        <v>184977.46268161063</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>6564102.7369549554</v>
+        <v>134544.13232245104</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>785169.05596869416</v>
+        <v>18975.718195664405</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>4404394.0841468684</v>
+        <v>85461.32116707768</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7909,42 +7909,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>3353.6511230000001</v>
+        <v>155.407578</v>
       </c>
       <c r="I101">
-        <v>4079.2634280000002</v>
+        <v>226.01942399999999</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>725.61230500000011</v>
+        <v>70.611845999999986</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>580.29300178703625</v>
+        <v>-234.1280477685182</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-245.85884831481371</v>
+        <v>-325.2300195462966</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>336739.96792300924</v>
+        <v>54815.942751897543</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>60446.573294686576</v>
+        <v>105774.56561408447</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>-142670.16910450687</v>
+        <v>76145.469552091439</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>526513.21716741321</v>
+        <v>4986.0327955277144</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>230163.37920138502</v>
+        <v>64830.41430005202</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7961,42 +7961,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>5374.2470700000003</v>
+        <v>169.98820499999999</v>
       </c>
       <c r="I102">
-        <v>3626.1606449999999</v>
+        <v>76.502037000000001</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-1748.0864250000004</v>
+        <v>-93.486167999999992</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>127.19021878703597</v>
+        <v>-383.64543476851816</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>1774.7370986851865</v>
+        <v>-310.64939254629661</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>16177.35175509408</v>
+        <v>147183.81961872533</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>3149691.7694495134</v>
+        <v>96503.045089383086</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>225729.19987123832</v>
+        <v>119179.22126400002</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>3055806.1492692819</v>
+        <v>8739.6636073242225</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>710.25840787427194</v>
+        <v>163325.55129806933</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8013,42 +8013,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>4924.1303710000002</v>
+        <v>365.843842</v>
       </c>
       <c r="I103">
-        <v>5775.3422849999997</v>
+        <v>550.21252400000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>851.21191399999952</v>
+        <v>184.36868200000004</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>2276.3718587870358</v>
+        <v>90.065052231481843</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>1324.6203996851864</v>
+        <v>-114.79375554629661</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>5181868.8394775447</v>
+        <v>8111.7136334595525</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>1754619.2032621428</v>
+        <v>13177.606312422904</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>3015328.6014185939</v>
+        <v>-10338.905589125163</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>724561.72253554256</v>
+        <v>33991.810902417135</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>4734246.2572766291</v>
+        <v>4840.6703910382412</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8065,42 +8065,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>1915.2725829999999</v>
+        <v>50.775405999999997</v>
       </c>
       <c r="I104">
-        <v>2454.9575199999999</v>
+        <v>291.23001099999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>539.68493699999999</v>
+        <v>240.45460499999999</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>-1044.012906212964</v>
+        <v>-168.9174607685182</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-1684.2373883148139</v>
+        <v>-429.86219154629663</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>1089962.9483392392</v>
+        <v>28533.108552483885</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>2836655.5801975052</v>
+        <v>184781.50372098503</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>1758365.5705270811</v>
+        <v>72611.229876390818</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>291259.83122469397</v>
+        <v>57818.417065706017</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>1310000.3138107494</v>
+        <v>35875.233841292844</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8117,42 +8117,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1620.556763</v>
+        <v>143.263992</v>
       </c>
       <c r="I105">
-        <v>1209.290283</v>
+        <v>374.26599099999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>-411.26648</v>
+        <v>231.00199899999998</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-2289.6801432129641</v>
+        <v>-85.881480768518202</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-1978.9532083148138</v>
+        <v>-337.37360554629663</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>5242635.1582237398</v>
+        <v>7375.6287389933614</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>3916255.8006994948</v>
+        <v>113820.94971930815</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>4531169.8654260179</v>
+        <v>28974.144816529919</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>169140.11757159041</v>
+        <v>53361.923541995995</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>5713150.1584077645</v>
+        <v>11314.918679240134</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8169,42 +8169,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1342.1754149999999</v>
+        <v>88.639365999999995</v>
       </c>
       <c r="I106">
-        <v>857.60443099999998</v>
+        <v>313.138733</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>-484.57098399999995</v>
+        <v>224.49936700000001</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-2641.3659952129638</v>
+        <v>-147.00873876851819</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-2257.3345563148141</v>
+        <v>-391.99823154629661</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>6976814.3206673702</v>
+        <v>21611.569274310423</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>5095559.299132999</v>
+        <v>153662.61353542397</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>5962446.736869093</v>
+        <v>57627.165619110623</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>234809.0385347282</v>
+        <v>50399.965783400694</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>7518045.9920090726</v>
+        <v>28055.869624298615</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8221,42 +8221,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1313.4708250000001</v>
+        <v>83.112862000000007</v>
       </c>
       <c r="I107">
-        <v>796.806152</v>
+        <v>273.38980099999998</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>-516.66467300000011</v>
+        <v>190.27693899999997</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-2702.1642742129638</v>
+        <v>-186.75767076851821</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-2286.0391463148135</v>
+        <v>-397.5247355462966</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>7301691.7648328738</v>
+        <v>34878.427590882238</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>5225974.9784837607</v>
+        <v>158025.91537115304</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>6177253.3106241915</v>
+        <v>74240.793683497526</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>266942.38432619703</v>
+        <v>36205.313515209709</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>7855148.6988018434</v>
+        <v>42951.649173295162</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8273,42 +8273,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>1346.130615</v>
+        <v>562.01641800000004</v>
       </c>
       <c r="I108">
-        <v>809.69787599999995</v>
+        <v>144.117752</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-536.43273900000008</v>
+        <v>-417.89866600000005</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-2689.2725502129642</v>
+        <v>-316.02971976851819</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-2253.3793563148138</v>
+        <v>81.37882045370344</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>7232186.8493289398</v>
+        <v>99874.783776968135</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>5077718.5234657647</v>
+        <v>6622.5124184361011</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>6059951.2481539873</v>
+        <v>-25718.125823076454</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>287760.08347104222</v>
+        <v>174639.2950445796</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>7783051.5271648308</v>
+        <v>113245.60644650333</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8325,42 +8325,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1561.884155</v>
+        <v>628.04901099999995</v>
       </c>
       <c r="I109">
-        <v>918.75836200000003</v>
+        <v>63.232754</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-643.12579299999993</v>
+        <v>-564.81625699999995</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-2580.2120642129639</v>
+        <v>-396.91471776851819</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-2037.6258163148138</v>
+        <v>147.41141345370335</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>6657494.296310124</v>
+        <v>157541.29318126244</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>4151918.9673126116</v>
+        <v>21730.124816418673</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>5257506.7136072712</v>
+        <v>-58509.759566835011</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>413610.78562187875</v>
+        <v>319017.40417148999</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>7186429.190843964</v>
+        <v>174226.80341590833</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8377,42 +8377,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>2759.8352049999999</v>
+        <v>638.23699999999997</v>
       </c>
       <c r="I110">
-        <v>1768.679443</v>
+        <v>107.564667</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-991.15576199999987</v>
+        <v>-530.67233299999998</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-1730.290983212964</v>
+        <v>-352.5828047685182</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-839.67476631481395</v>
+        <v>157.59940245370336</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>2993906.8865880854</v>
+        <v>124314.63421843502</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>705053.71318583738</v>
+        <v>24837.57165376436</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>1452881.6769859751</v>
+        <v>-55566.839346969224</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>982389.74454580038</v>
+        <v>281613.12501166289</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>3351940.4234095002</v>
+        <v>139183.41150640187</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8429,42 +8429,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>4923.9624020000001</v>
+        <v>840.36370799999997</v>
       </c>
       <c r="I111">
-        <v>4188.5458980000003</v>
+        <v>718.05456500000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-735.4165039999998</v>
+        <v>-122.30914299999995</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>689.57547178703635</v>
+        <v>257.90709323148184</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>1324.4524306851863</v>
+        <v>359.72611045370337</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>475514.33129031374</v>
+        <v>66516.068739112263</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>1754174.2411478981</v>
+        <v>129402.87454214999</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>913309.90974922443</v>
+        <v>92775.915506581601</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>540837.43435558176</v>
+        <v>14959.526461394436</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>346963.32292587642</v>
+        <v>56366.816434912871</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD987A4-9A1F-4C90-A660-19BE554F458D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68121223-95C0-4D2A-9D52-E83478B1EFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="33720" yWindow="-5310" windowWidth="19635" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405</t>
+    <t xml:space="preserve"> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405</c:v>
+                  <c:v> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,328 +783,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>672.69683799999996</c:v>
+                  <c:v>5960.4003910000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.902287000000001</c:v>
+                  <c:v>2950.9797359999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.989361000000002</c:v>
+                  <c:v>2912.8481449999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206.593887</c:v>
+                  <c:v>3974.0209960000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>425.89465300000001</c:v>
+                  <c:v>3571.3859859999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>554.97332800000004</c:v>
+                  <c:v>4968.9931640000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.019577</c:v>
+                  <c:v>1818.7303469999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.807083000000006</c:v>
+                  <c:v>1700.3396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>636.50213599999995</c:v>
+                  <c:v>2801.9565429999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>777.538635</c:v>
+                  <c:v>3321.8996579999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>822.73553500000003</c:v>
+                  <c:v>5166.482422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1092.5115969999999</c:v>
+                  <c:v>7502.8222660000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1051.3312989999999</c:v>
+                  <c:v>7507.6538090000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.984954999999999</c:v>
+                  <c:v>3060.244385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>542.09606900000006</c:v>
+                  <c:v>5352.3530270000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>602.94689900000003</c:v>
+                  <c:v>6110.1235349999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>425.18933099999998</c:v>
+                  <c:v>5833.8642579999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>277.94775399999997</c:v>
+                  <c:v>5390.5234380000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155.618866</c:v>
+                  <c:v>2389.780518</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.759681999999998</c:v>
+                  <c:v>1755.999268</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>562.24444600000004</c:v>
+                  <c:v>2695.3029790000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>666.39605700000004</c:v>
+                  <c:v>3040.6467290000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>712.56671100000005</c:v>
+                  <c:v>3690.8110350000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>266.26989700000001</c:v>
+                  <c:v>2987.686768</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1080.2242429999999</c:v>
+                  <c:v>7371.248047</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>429.00564600000001</c:v>
+                  <c:v>4390.1005859999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>632.01043700000002</c:v>
+                  <c:v>6222.4101559999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>766.22485400000005</c:v>
+                  <c:v>8236.3691409999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>357.93069500000001</c:v>
+                  <c:v>5493.9223629999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>374.211456</c:v>
+                  <c:v>3921.9711910000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>129.27256800000001</c:v>
+                  <c:v>2007.25415</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>90.719657999999995</c:v>
+                  <c:v>1760.7448730000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>583.58599900000002</c:v>
+                  <c:v>2707.818115</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>843.05602999999996</c:v>
+                  <c:v>3906.2761230000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1198.409668</c:v>
+                  <c:v>7315.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1028.1721190000001</c:v>
+                  <c:v>7715.9614259999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>670.32995600000004</c:v>
+                  <c:v>4524.669922</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.35524000000001</c:v>
+                  <c:v>3103.8632809999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.071781000000001</c:v>
+                  <c:v>3364.139404</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>274.662781</c:v>
+                  <c:v>4717.8833009999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>135.985794</c:v>
+                  <c:v>3659.5583499999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>235.55921900000001</c:v>
+                  <c:v>2512.1809079999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>104.71517900000001</c:v>
+                  <c:v>1843.2338870000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>90.064644000000001</c:v>
+                  <c:v>1738.14563</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>621.07501200000002</c:v>
+                  <c:v>2821.2172850000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>896.02185099999997</c:v>
+                  <c:v>4320.4731449999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>732.78344700000002</c:v>
+                  <c:v>4578.9379879999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>356.48150600000002</c:v>
+                  <c:v>3081.631836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>382.777557</c:v>
+                  <c:v>3887.8046880000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>864.332581</c:v>
+                  <c:v>7767.5151370000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>861.92437700000005</c:v>
+                  <c:v>9247.5214840000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>442.88937399999998</c:v>
+                  <c:v>5424.5576170000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>389.959991</c:v>
+                  <c:v>4615.4169920000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>211.100998</c:v>
+                  <c:v>2289.0847170000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>126.90033</c:v>
+                  <c:v>1897.825317</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91.296165000000002</c:v>
+                  <c:v>1751.573975</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>569.27130099999999</c:v>
+                  <c:v>2665.5375979999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>831.05474900000002</c:v>
+                  <c:v>3610.1889649999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1106.9021</c:v>
+                  <c:v>8017.0810549999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1259.006226</c:v>
+                  <c:v>9213.9423829999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>657.78259300000002</c:v>
+                  <c:v>5602.4350590000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>255.48928799999999</c:v>
+                  <c:v>3777.8066410000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51.712265000000002</c:v>
+                  <c:v>2382.4440920000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.772095</c:v>
+                  <c:v>2523.5852049999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.992438999999997</c:v>
+                  <c:v>1922.8122559999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>50.738976000000001</c:v>
+                  <c:v>1753.095581</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>50.608086</c:v>
+                  <c:v>1682.553467</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.579738999999996</c:v>
+                  <c:v>1663.021851</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>516.89672900000005</c:v>
+                  <c:v>2118.2080080000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>610.36938499999997</c:v>
+                  <c:v>2337.5649410000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>961.260132</c:v>
+                  <c:v>5508.9208980000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1332.8908690000001</c:v>
+                  <c:v>9190.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>981.71356200000002</c:v>
+                  <c:v>7169.1220700000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>321.31237800000002</c:v>
+                  <c:v>5924.7509769999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>547.89776600000005</c:v>
+                  <c:v>6373.4882809999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>103.224152</c:v>
+                  <c:v>4194.9267579999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>126.963402</c:v>
+                  <c:v>2442.351807</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>155.58279400000001</c:v>
+                  <c:v>2037.419922</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>116.71013600000001</c:v>
+                  <c:v>1835.5972899999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>85.080924999999993</c:v>
+                  <c:v>1722.003418</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>597.29858400000001</c:v>
+                  <c:v>2674.9448240000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1410.622192</c:v>
+                  <c:v>7716.7431640000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>948.71099900000002</c:v>
+                  <c:v>6201.298828</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>686.60589600000003</c:v>
+                  <c:v>4407.6435549999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>198.416336</c:v>
+                  <c:v>2092.0158689999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>312.41384900000003</c:v>
+                  <c:v>5709.1704099999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>550.87188700000002</c:v>
+                  <c:v>12252.301758</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1655.071655</c:v>
+                  <c:v>9780.0673829999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>401.59884599999998</c:v>
+                  <c:v>3554.7565920000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>219.350967</c:v>
+                  <c:v>2334.2707519999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>103.567871</c:v>
+                  <c:v>1821.548462</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.205841000000007</c:v>
+                  <c:v>1773.1451420000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>637.11938499999997</c:v>
+                  <c:v>2885.1335450000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1052.013672</c:v>
+                  <c:v>5472.9624020000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>848.50903300000004</c:v>
+                  <c:v>7368.7504879999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>536.61834699999997</c:v>
+                  <c:v>3392.8095699999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>910.72766100000001</c:v>
+                  <c:v>6940.3686520000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>155.407578</c:v>
+                  <c:v>3036.05249</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>169.98820499999999</c:v>
+                  <c:v>4194.0561520000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>365.843842</c:v>
+                  <c:v>5031.2373049999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>50.775405999999997</c:v>
+                  <c:v>2068.7717290000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>143.263992</c:v>
+                  <c:v>1906.7017820000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>88.639365999999995</c:v>
+                  <c:v>1760.9794919999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>83.112862000000007</c:v>
+                  <c:v>1729.8131100000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>562.01641800000004</c:v>
+                  <c:v>2446.6760250000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>628.04901099999995</c:v>
+                  <c:v>2899.2768550000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>638.23699999999997</c:v>
+                  <c:v>3496.6928710000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>840.36370799999997</c:v>
+                  <c:v>5647.0869140000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14162200_flow_BLUE RIVER AT BLUE RIVER_23773405.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1149,328 +1149,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>911.99804700000004</c:v>
+                  <c:v>6244.5864259999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.569336000000007</c:v>
+                  <c:v>3257.5834960000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.196156000000002</c:v>
+                  <c:v>3293.4914549999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330.83142099999998</c:v>
+                  <c:v>4366.53125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>499.08932499999997</c:v>
+                  <c:v>4256.8549800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>671.80566399999998</c:v>
+                  <c:v>6079.5747069999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.482703999999998</c:v>
+                  <c:v>2735.7294919999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.82968099999999</c:v>
+                  <c:v>2623.7639159999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>387.44863900000001</c:v>
+                  <c:v>1942.190918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>666.55627400000003</c:v>
+                  <c:v>3342.4379880000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>665.03790300000003</c:v>
+                  <c:v>4682.6630859999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1336.5020750000001</c:v>
+                  <c:v>8336.8554690000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1142.398193</c:v>
+                  <c:v>8025.0898440000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.221267999999995</c:v>
+                  <c:v>3515.8793949999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300.726471</c:v>
+                  <c:v>4831.7036129999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>806.799622</c:v>
+                  <c:v>6298.3862300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>558.28167699999995</c:v>
+                  <c:v>5863.7412109999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>402.09588600000001</c:v>
+                  <c:v>5519.5639650000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.242569000000003</c:v>
+                  <c:v>3505.0139159999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.697963999999999</c:v>
+                  <c:v>2787.0905760000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>556.62347399999999</c:v>
+                  <c:v>2632.1047359999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>565.35455300000001</c:v>
+                  <c:v>3061.5668949999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>539.47283900000002</c:v>
+                  <c:v>3975.163086</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>180.76503</c:v>
+                  <c:v>3496.0119629999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1630.0595699999999</c:v>
+                  <c:v>9323.0996090000008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>433.71618699999999</c:v>
+                  <c:v>4295.6992190000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>677.88324</c:v>
+                  <c:v>6261.9121089999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1005.369385</c:v>
+                  <c:v>7925.6293949999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>455.49276700000001</c:v>
+                  <c:v>6222.0864259999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>349.70208700000001</c:v>
+                  <c:v>4844.2036129999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>97.715118000000004</c:v>
+                  <c:v>3261.306885</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53.514549000000002</c:v>
+                  <c:v>2980.991211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>493.04354899999998</c:v>
+                  <c:v>2823.5454100000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>709.62872300000004</c:v>
+                  <c:v>3689.7209469999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1065.376953</c:v>
+                  <c:v>6776.8481449999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1135.5593260000001</c:v>
+                  <c:v>8247.5019530000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>587.48681599999998</c:v>
+                  <c:v>4287.7246089999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>128.28054800000001</c:v>
+                  <c:v>3565.3015140000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.904750999999997</c:v>
+                  <c:v>3775.4267580000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>503.75711100000001</c:v>
+                  <c:v>5110.0322269999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>301.04025300000001</c:v>
+                  <c:v>4004.1154790000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>124.108856</c:v>
+                  <c:v>3128.1423340000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>60.713673</c:v>
+                  <c:v>2305.2048340000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>54.716163999999999</c:v>
+                  <c:v>2220.9914549999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>508.97579999999999</c:v>
+                  <c:v>2836.9643550000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>877.34027100000003</c:v>
+                  <c:v>3382.7624510000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>617.34991500000001</c:v>
+                  <c:v>4123.8271480000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>348.57122800000002</c:v>
+                  <c:v>3238.2590329999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>295.81228599999997</c:v>
+                  <c:v>3759.3483890000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1234.2166749999999</c:v>
+                  <c:v>7535.3227539999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>976.752747</c:v>
+                  <c:v>7875.0161129999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>402.13876299999998</c:v>
+                  <c:v>5321.919922</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>423.144318</c:v>
+                  <c:v>4853.1923829999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>172.68275499999999</c:v>
+                  <c:v>3208.139404</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>101.040154</c:v>
+                  <c:v>2391.750732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>378.20376599999997</c:v>
+                  <c:v>2629.6972660000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>367.408051</c:v>
+                  <c:v>2412.9174800000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>463.043701</c:v>
+                  <c:v>2910.2585450000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>711.81402600000001</c:v>
+                  <c:v>5873.5415039999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1255.927612</c:v>
+                  <c:v>8805.2763670000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>515.91326900000001</c:v>
+                  <c:v>5431.6606449999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>225.021942</c:v>
+                  <c:v>4394.2041019999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>54.170158000000001</c:v>
+                  <c:v>2779.251953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.032882999999998</c:v>
+                  <c:v>2909.0417480000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>104.167923</c:v>
+                  <c:v>2317.9670409999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>169.52015700000001</c:v>
+                  <c:v>2099.8784179999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>192.53428600000001</c:v>
+                  <c:v>1917.755371</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>176.005402</c:v>
+                  <c:v>1826.5020750000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>115.291313</c:v>
+                  <c:v>1752.3474120000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>107.864929</c:v>
+                  <c:v>1729.244263</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>480.82003800000001</c:v>
+                  <c:v>3132.5451659999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1419.6671140000001</c:v>
+                  <c:v>8454.3652340000008</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>849.51654099999996</c:v>
+                  <c:v>5990.5893550000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>335.613831</c:v>
+                  <c:v>5863.1181640000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>618.51684599999999</c:v>
+                  <c:v>6886.216797</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>112.05089599999999</c:v>
+                  <c:v>3833.6987300000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>251.23820499999999</c:v>
+                  <c:v>2902.6779790000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>286.293182</c:v>
+                  <c:v>2419.0139159999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>186.068344</c:v>
+                  <c:v>2062.8562010000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>272.00170900000001</c:v>
+                  <c:v>1955.5241699999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>233.83090200000001</c:v>
+                  <c:v>1880.517578</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>612.301514</c:v>
+                  <c:v>3738.2863769999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>663.27020300000004</c:v>
+                  <c:v>4100.7963870000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>796.08160399999997</c:v>
+                  <c:v>5770.8666990000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>483.61068699999998</c:v>
+                  <c:v>4150.578125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>734.07312000000002</c:v>
+                  <c:v>5957.5327150000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1171.6539310000001</c:v>
+                  <c:v>8375.7197269999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>599.60089100000005</c:v>
+                  <c:v>6519.3857420000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>509.12970000000001</c:v>
+                  <c:v>6199.123047</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>158.55336</c:v>
+                  <c:v>3566.188232</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>59.615597000000001</c:v>
+                  <c:v>2445.352539</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>469.47460899999999</c:v>
+                  <c:v>3261.0795899999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>254.38052400000001</c:v>
+                  <c:v>2321.0834960000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>790.043091</c:v>
+                  <c:v>4142.7758789999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1123.0432129999999</c:v>
+                  <c:v>7005.9467770000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>312.73303199999998</c:v>
+                  <c:v>3725.195068</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>772.975281</c:v>
+                  <c:v>5450.3286129999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>226.01942399999999</c:v>
+                  <c:v>3702.6525879999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.502037000000001</c:v>
+                  <c:v>3429.6477049999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>550.21252400000003</c:v>
+                  <c:v>4782.6220700000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>291.23001099999999</c:v>
+                  <c:v>4169.2280270000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>374.26599099999999</c:v>
+                  <c:v>3305.9650879999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>313.138733</c:v>
+                  <c:v>2162.830078</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>273.38980099999998</c:v>
+                  <c:v>2034.4354249999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>144.117752</c:v>
+                  <c:v>1857.3195800000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>63.232754</c:v>
+                  <c:v>1627.963745</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>107.564667</c:v>
+                  <c:v>2217.858643</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>718.05456500000003</c:v>
+                  <c:v>4338.9814450000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,11 +2721,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>480.6375975462966</v>
+        <v>4175.2542295462954</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>460.14747176851819</v>
+        <v>4201.6664473703677</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>-4.2631133898768166E-2</v>
+        <v>6.3258945137197962E-3</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.50817935430156891</v>
+        <v>0.68604750293554284</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2810,42 +2810,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>672.69683799999996</v>
+        <v>5960.4003910000001</v>
       </c>
       <c r="I4">
-        <v>911.99804700000004</v>
+        <v>6244.5864259999998</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>239.30120900000009</v>
+        <v>284.18603499999972</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>451.85057523148186</v>
+        <v>2042.9199786296322</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>192.05924045370335</v>
+        <v>1785.1461614537047</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>204168.94233702106</v>
+        <v>4173522.0390840969</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>36886.751843653445</v>
+        <v>3186746.8177528963</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>86782.078277527355</v>
+        <v>3646910.7580077723</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>57265.068628861722</v>
+        <v>80761.70248902106</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>186071.83735290103</v>
+        <v>4282135.7392799128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.70011867514354287</v>
+        <v>0.560259982059507</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2870,42 +2870,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>62.902287000000001</v>
+        <v>2950.9797359999998</v>
       </c>
       <c r="I5">
-        <v>94.569336000000007</v>
+        <v>3257.5834960000002</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>31.667049000000006</v>
+        <v>306.60376000000042</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-365.57813576851817</v>
+        <v>-944.08295137036748</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-417.7353105462966</v>
+        <v>-1224.2744935462956</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>133647.37335198509</v>
+        <v>891292.6190681837</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>174502.78967721085</v>
+        <v>1498848.0355480385</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>152714.89607419813</v>
+        <v>1155816.6771546486</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>1002.8019923684013</v>
+        <v>94005.865646137856</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>149048.70257337968</v>
+        <v>842119.57520739548</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.58946841022066121</v>
+        <v>0.78041347443809628</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2930,42 +2930,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>51.989361000000002</v>
+        <v>2912.8481449999999</v>
       </c>
       <c r="I6">
-        <v>59.196156000000002</v>
+        <v>3293.4914549999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>7.2067949999999996</v>
+        <v>380.64330999999993</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-400.95131576851816</v>
+        <v>-908.17499237036782</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-428.64823654629663</v>
+        <v>-1262.4060845462955</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>160761.95761650597</v>
+        <v>824781.81676691759</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>183739.31069424987</v>
+        <v>1593669.1222995084</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>171867.07444509264</v>
+        <v>1146485.6362011377</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>51.937894172024997</v>
+        <v>144889.32944775606</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>177612.88865262052</v>
+        <v>777505.59057558118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>480.6375975462966</v>
+        <v>4175.2542295462954</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2990,42 +2990,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>206.593887</v>
+        <v>3974.0209960000002</v>
       </c>
       <c r="I7">
-        <v>330.83142099999998</v>
+        <v>4366.53125</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>124.23753399999998</v>
+        <v>392.5102539999998</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-129.31605076851821</v>
+        <v>164.86480262963232</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-274.04371054629661</v>
+        <v>-201.2332335462952</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>16722.640986365979</v>
+        <v>27180.403146107619</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>75099.955289982405</v>
+        <v>40494.814283497784</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>35438.250385798005</v>
+        <v>-33176.27733113266</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>15434.964854401152</v>
+        <v>154064.29949514437</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>22441.890531420195</v>
+        <v>36586.898553646934</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>369.22351298518544</v>
+        <v>2250.5731140017551</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3050,42 +3050,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>425.89465300000001</v>
+        <v>3571.3859859999998</v>
       </c>
       <c r="I8">
-        <v>499.08932499999997</v>
+        <v>4256.8549800000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>73.194671999999969</v>
+        <v>685.46899400000029</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>38.941853231481787</v>
+        <v>55.188532629632391</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-54.742944546296599</v>
+        <v>-603.86824354629562</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>1516.4679331022685</v>
+        <v>3045.774133811999</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>2996.7899775989044</v>
+        <v>364656.85556368821</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-2131.7917119810286</v>
+        <v>-33326.602262953536</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>5357.4600091875791</v>
+        <v>469867.74173537246</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>340.46624602575065</v>
+        <v>6658.6824746077837</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>460.14747176851819</v>
+        <v>4201.6664473703677</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3110,42 +3110,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>554.97332800000004</v>
+        <v>4968.9931640000004</v>
       </c>
       <c r="I9">
-        <v>671.80566399999998</v>
+        <v>6079.5747069999998</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>116.83233599999994</v>
+        <v>1110.5815429999993</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>211.65819223148179</v>
+        <v>1877.9082596296321</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>74.335730453703434</v>
+        <v>793.73893445370504</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>44799.1903386989</v>
+        <v>3526539.4315851936</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>5525.8008220856518</v>
+        <v>630021.49606770312</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>15733.766326037576</v>
+        <v>1490568.9010002359</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>13649.794735216883</v>
+        <v>1233391.3636522593</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>36545.229631647548</v>
+        <v>3626436.4808495045</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>352.68312804085627</v>
+        <v>1890.788540052831</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3169,42 +3169,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>120.019577</v>
+        <v>1818.7303469999999</v>
       </c>
       <c r="I10">
-        <v>76.482703999999998</v>
+        <v>2735.7294919999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>-43.536873</v>
+        <v>916.999145</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-383.66476776851817</v>
+        <v>-1465.9369553703677</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-360.61802054629663</v>
+        <v>-2356.5238825462957</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>147198.65402687099</v>
+        <v>2148971.1571205435</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>130045.35674272921</v>
+        <v>5553204.8090110673</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>138356.42910603763</v>
+        <v>3454515.4456374748</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>1895.4593106181289</v>
+        <v>840887.43193073105</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>163341.17797741832</v>
+        <v>2072231.4700077309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,42 +3221,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>90.807083000000006</v>
+        <v>1700.3396</v>
       </c>
       <c r="I11">
-        <v>233.82968099999999</v>
+        <v>2623.7639159999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>143.02259799999999</v>
+        <v>923.42431599999986</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-226.31779076851819</v>
+        <v>-1577.9025313703678</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-389.83051454629663</v>
+        <v>-2474.9146295462951</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>51219.742418342779</v>
+        <v>2489776.3985050144</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>151967.83007143039</v>
+        <v>6125202.4235422751</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>88225.580826272548</v>
+        <v>3905174.0588866551</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>20455.463538669599</v>
+        <v>852712.46738006757</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>60914.14766992371</v>
+        <v>2407122.1930279825</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.76776846133496601</v>
+        <v>0.88341013942454627</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3281,42 +3281,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>636.50213599999995</v>
+        <v>2801.9565429999998</v>
       </c>
       <c r="I12">
-        <v>387.44863900000001</v>
+        <v>1942.190918</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-249.05349699999994</v>
+        <v>-859.76562499999977</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-72.698832768518173</v>
+        <v>-2259.4755293703674</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>155.86453845370335</v>
+        <v>-1373.2976865462956</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>5285.1202859049718</v>
+        <v>5105229.6678235019</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>24293.75434738597</v>
+        <v>1885946.5358734075</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>-11331.17001558805</v>
+        <v>3102932.5172922923</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>62027.644367928981</v>
+        <v>739196.92993164028</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>8684.1819949433848</v>
+        <v>4986571.7533741063</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,42 +3333,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>777.538635</v>
+        <v>3321.8996579999998</v>
       </c>
       <c r="I13">
-        <v>666.55627400000003</v>
+        <v>3342.4379880000001</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-110.98236099999997</v>
+        <v>20.538330000000315</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>206.40880223148184</v>
+        <v>-859.22845937036755</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>296.9010374537034</v>
+        <v>-853.35457154629557</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>42604.593638634986</v>
+        <v>738273.54539197532</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>88150.226041085392</v>
+        <v>728214.02477896167</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>61282.987522103249</v>
+        <v>733226.53380638361</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>12317.084453134314</v>
+        <v>421.82299918891295</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>34565.754254296859</v>
+        <v>693582.8921832972</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,42 +3385,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>822.73553500000003</v>
+        <v>5166.482422</v>
       </c>
       <c r="I14">
-        <v>665.03790300000003</v>
+        <v>4682.6630859999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-157.697632</v>
+        <v>-483.81933600000048</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>204.89043123148184</v>
+        <v>480.99663862963189</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>342.09793745370342</v>
+        <v>991.22819245370465</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>41980.088810222587</v>
+        <v>231357.76637300468</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>117030.99881007797</v>
+        <v>982533.32951503852</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>70092.593928289803</v>
+        <v>476777.42868515779</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>24868.543138407422</v>
+        <v>234081.14988748136</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>34003.472651419128</v>
+        <v>257463.74760765577</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,42 +3437,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1092.5115969999999</v>
+        <v>7502.8222660000001</v>
       </c>
       <c r="I15">
-        <v>1336.5020750000001</v>
+        <v>8336.8554690000001</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>243.99047800000017</v>
+        <v>834.03320299999996</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>876.35460323148186</v>
+        <v>4135.1890216296324</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>611.87399945370339</v>
+        <v>3327.5680364537047</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>767997.390605008</v>
+        <v>17099788.244606238</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>374389.79120747064</v>
+        <v>11072709.037228364</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>536218.59601891018</v>
+        <v>13760122.813069033</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>59531.353354668565</v>
+        <v>695611.38370643917</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>732504.00376710109</v>
+        <v>17318924.87622261</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,42 +3489,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>1051.3312989999999</v>
+        <v>7507.6538090000004</v>
       </c>
       <c r="I16">
-        <v>1142.398193</v>
+        <v>8025.0898440000001</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>91.066894000000048</v>
+        <v>517.43603499999972</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>682.25072123148175</v>
+        <v>3823.4233966296324</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>570.6937014537034</v>
+        <v>3332.399579453705</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>465466.04662087699</v>
+        <v>14618566.469894875</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>325691.30087892874</v>
+        <v>11104886.95714323</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>389356.18941905309</v>
+        <v>12741174.519002043</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>8293.1791828072455</v>
+        <v>267740.05031652091</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>437927.08569524012</v>
+        <v>14821234.258316133</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3541,42 +3541,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>62.984954999999999</v>
+        <v>3060.244385</v>
       </c>
       <c r="I17">
-        <v>88.221267999999995</v>
+        <v>3515.8793949999999</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>25.236312999999996</v>
+        <v>455.63500999999997</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-371.92620376851818</v>
+        <v>-685.78705237036775</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-417.65264254629659</v>
+        <v>-1115.0098445462954</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>138329.10104966132</v>
+        <v>470303.88119883754</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>174433.72982590459</v>
+        <v>1243246.9534351539</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>155335.961836134</v>
+        <v>764659.31465534586</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>636.87149383396877</v>
+        <v>207603.26233770006</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>153990.57569458766</v>
+        <v>434775.17243295454</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3593,42 +3593,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>542.09606900000006</v>
+        <v>5352.3530270000001</v>
       </c>
       <c r="I18">
-        <v>300.726471</v>
+        <v>4831.7036129999997</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-241.36959800000005</v>
+        <v>-520.64941400000043</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-159.42100076851818</v>
+        <v>630.037165629632</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>61.458471453703453</v>
+        <v>1177.0987974537047</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>25415.055486035875</v>
+        <v>396946.83007462032</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>3777.1437134256821</v>
+        <v>1385561.5789669577</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>-9797.771024852811</v>
+        <v>741615.99001378042</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>58259.282838681633</v>
+        <v>271075.81229854387</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>32368.01345515755</v>
+        <v>430925.79303674848</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3645,42 +3645,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>602.94689900000003</v>
+        <v>6110.1235349999997</v>
       </c>
       <c r="I19">
-        <v>806.799622</v>
+        <v>6298.3862300000001</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>203.85272299999997</v>
+        <v>188.26269500000035</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>346.65215023148181</v>
+        <v>2096.7197826296324</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>122.30930145370343</v>
+        <v>1934.8693054537043</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>120167.71326010984</v>
+        <v>4396233.8468704531</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>14959.565222092899</v>
+        <v>3743719.2291869</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>42398.782342236795</v>
+        <v>4056878.7495476389</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>41555.932674514719</v>
+        <v>35442.842328663159</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>106381.66619573822</v>
+        <v>4507689.4913505502</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3697,42 +3697,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>425.18933099999998</v>
+        <v>5833.8642579999996</v>
       </c>
       <c r="I20">
-        <v>558.28167699999995</v>
+        <v>5863.7412109999996</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>133.09234599999996</v>
+        <v>29.876952999999958</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>98.134205231481758</v>
+        <v>1662.0747636296319</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-55.448266546296622</v>
+        <v>1658.6100284537042</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>9630.3222364145822</v>
+        <v>2762492.5198944965</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>3074.5102629891571</v>
+        <v>2750987.2264871974</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>-5441.3715689841765</v>
+        <v>2756733.8709959276</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>17713.572563783706</v>
+        <v>892.63232056420645</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>6028.6030742129969</v>
+        <v>2850988.2865386414</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3749,42 +3749,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>277.94775399999997</v>
+        <v>5390.5234380000002</v>
       </c>
       <c r="I21">
-        <v>402.09588600000001</v>
+        <v>5519.5639650000003</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>124.14813200000003</v>
+        <v>129.04052700000011</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-58.05158576851818</v>
+        <v>1317.8975176296326</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-202.68984354629663</v>
+        <v>1215.2692084537048</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>3369.9866102396227</v>
+        <v>1736853.8669743477</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>41083.172676822207</v>
+        <v>1476879.2490156943</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>11766.46683703537</v>
+        <v>1601600.273072866</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>15412.758679089433</v>
+        <v>16651.457608437759</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>6168.80045262166</v>
+        <v>1807168.66483561</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3801,42 +3801,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>155.618866</v>
+        <v>2389.780518</v>
       </c>
       <c r="I22">
-        <v>97.242569000000003</v>
+        <v>3505.0139159999999</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>-58.376296999999994</v>
+        <v>1115.2333979999999</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-362.90490276851818</v>
+        <v>-696.6525313703678</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-325.01873154629664</v>
+        <v>-1785.4737115462954</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>131699.96845342763</v>
+        <v>485324.74946474127</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>105637.17585596364</v>
+        <v>3187916.3746229038</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>117950.89116975589</v>
+        <v>1243854.7808439725</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>3407.7920514322082</v>
+        <v>1243745.5320146261</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>146991.74791401558</v>
+        <v>449222.07790263649</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3853,42 +3853,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>88.759681999999998</v>
+        <v>1755.999268</v>
       </c>
       <c r="I23">
-        <v>54.697963999999999</v>
+        <v>2787.0905760000001</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-34.061717999999999</v>
+        <v>1031.091308</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-405.44950776851817</v>
+        <v>-1414.5758713703676</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-391.87791554629661</v>
+        <v>-2419.2549615462954</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>164389.30334973367</v>
+        <v>2001024.8958632348</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>153568.30069291039</v>
+        <v>5852794.5689663673</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>158886.70796359889</v>
+        <v>3422219.6952964361</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>1160.200633111524</v>
+        <v>1063149.2854331508</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>181424.57142555344</v>
+        <v>1926998.329026999</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3905,42 +3905,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>562.24444600000004</v>
+        <v>2695.3029790000001</v>
       </c>
       <c r="I24">
-        <v>556.62347399999999</v>
+        <v>2632.1047359999998</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-5.6209720000000516</v>
+        <v>-63.198243000000275</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>96.4760022314818</v>
+        <v>-1569.5617113703679</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>81.606848453703435</v>
+        <v>-1479.9512505462953</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>9307.6190065688806</v>
+        <v>2463523.9657998779</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>6659.677714545719</v>
+        <v>2190255.7039935435</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>7873.1024935236901</v>
+        <v>2322874.8175521595</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>31.595326224784579</v>
+        <v>3994.0179182870838</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>5773.8534204374746</v>
+        <v>2381310.3594321888</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3957,42 +3957,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>666.39605700000004</v>
+        <v>3040.6467290000001</v>
       </c>
       <c r="I25">
-        <v>565.35455300000001</v>
+        <v>3061.5668949999999</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-101.04150400000003</v>
+        <v>20.920165999999881</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>105.20708123148182</v>
+        <v>-1140.0995523703677</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>185.75845945370344</v>
+        <v>-1134.6075005462953</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>11068.529941247614</v>
+        <v>1299826.9893151128</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>34506.205258613183</v>
+        <v>1287334.1802959116</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>19543.105333180702</v>
+        <v>1293565.5034888932</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>10209.385530582022</v>
+        <v>437.65334546755105</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>7176.9625413447675</v>
+        <v>1240299.4791288322</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4009,42 +4009,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>712.56671100000005</v>
+        <v>3690.8110350000002</v>
       </c>
       <c r="I26">
-        <v>539.47283900000002</v>
+        <v>3975.163086</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-173.09387200000003</v>
+        <v>284.35205099999985</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>79.325367231481835</v>
+        <v>-226.50336137036766</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>231.92911345370345</v>
+        <v>-484.44319454629522</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>6292.5138864094524</v>
+        <v>51303.772712075363</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>53791.113667420846</v>
+        <v>234685.20874221963</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>18397.862096387042</v>
+        <v>109728.01195773482</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>29961.488523952394</v>
+        <v>80856.088907906509</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>3461.5856369155813</v>
+        <v>40036.46572566418</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4061,42 +4061,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>266.26989700000001</v>
+        <v>2987.686768</v>
       </c>
       <c r="I27">
-        <v>180.76503</v>
+        <v>3496.0119629999999</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-85.504867000000019</v>
+        <v>508.32519499999989</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-279.38244176851822</v>
+        <v>-705.65448437036775</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-214.36770054629659</v>
+        <v>-1187.5674615462954</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>78054.548768539476</v>
+        <v>497948.25131200958</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>45953.511037506687</v>
+        <v>1410316.4757235118</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>59890.571614926856</v>
+        <v>838012.30473247764</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>7311.0822806876922</v>
+        <v>258394.50387178792</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>89923.556766808237</v>
+        <v>461370.05666294869</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4113,42 +4113,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>1080.2242429999999</v>
+        <v>7371.248047</v>
       </c>
       <c r="I28">
-        <v>1630.0595699999999</v>
+        <v>9323.0996090000008</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>549.83532700000001</v>
+        <v>1951.8515620000007</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>1169.9120982314817</v>
+        <v>5121.4331616296331</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>599.58664545370334</v>
+        <v>3195.9938174537047</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>1368694.317588388</v>
+        <v>26229077.629039701</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>359504.14540642494</v>
+        <v>10214376.481202304</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>701463.67045431759</v>
+        <v>16368068.721070686</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>302318.88681719691</v>
+        <v>3809724.5200818428</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>1321170.8707593619</v>
+        <v>26500312.050762866</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4165,42 +4165,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>429.00564600000001</v>
+        <v>4390.1005859999996</v>
       </c>
       <c r="I29">
-        <v>433.71618699999999</v>
+        <v>4295.6992190000001</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>4.7105409999999779</v>
+        <v>-94.401366999999482</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-26.431284768518196</v>
+        <v>94.032771629632407</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-51.631951546296591</v>
+        <v>214.84635645370417</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>698.61281451450202</v>
+        <v>8842.1621403506015</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>2665.8584204791191</v>
+        <v>46158.95688143211</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>1364.6988144744987</v>
+        <v>20202.598371869764</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>22.189196512680791</v>
+        <v>8911.618091468592</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>2201.6187676541149</v>
+        <v>14506.995484503035</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4217,42 +4217,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>632.01043700000002</v>
+        <v>6222.4101559999999</v>
       </c>
       <c r="I30">
-        <v>677.88324</v>
+        <v>6261.9121089999999</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>45.872802999999976</v>
+        <v>39.501952999999958</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>217.73576823148181</v>
+        <v>2060.2456616296322</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>151.37283945370342</v>
+        <v>2047.1559264537045</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>47408.864767353567</v>
+        <v>4244612.1862637205</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>22913.736524276672</v>
+        <v>4190847.3872145251</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>32959.281487832872</v>
+        <v>4217644.1161556356</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>2104.3140550768067</v>
+        <v>1560.4042908142058</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>38905.843466974198</v>
+        <v>4354141.1058862302</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4269,42 +4269,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>766.22485400000005</v>
+        <v>8236.3691409999992</v>
       </c>
       <c r="I31">
-        <v>1005.369385</v>
+        <v>7925.6293949999999</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>239.14453099999992</v>
+        <v>-310.73974599999929</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>545.22191323148172</v>
+        <v>3723.9629476296323</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>285.58725645370345</v>
+        <v>4061.1149114537038</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>297266.93466779741</v>
+        <v>13867900.035318378</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>81560.081048753374</v>
+        <v>16492654.324031625</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>155708.43035821803</v>
+        <v>15123441.456319788</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>57190.106707209918</v>
+        <v>96559.189744144067</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>275343.44876435859</v>
+        <v>14065313.881651903</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4321,42 +4321,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>357.93069500000001</v>
+        <v>5493.9223629999997</v>
       </c>
       <c r="I32">
-        <v>455.49276700000001</v>
+        <v>6222.0864259999998</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>97.562072000000001</v>
+        <v>728.16406300000017</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-4.6547047685181724</v>
+        <v>2020.4199786296322</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-122.70690254629659</v>
+        <v>1318.6681334537043</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>21.666276482065811</v>
+        <v>4082096.8900457635</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>15056.983932506328</v>
+        <v>1738885.6461862766</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>571.16440441234136</v>
+        <v>2664263.4420121103</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>9518.3578929331834</v>
+        <v>530222.90264466824</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>632.26250320197005</v>
+        <v>4189522.0404394963</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4373,42 +4373,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>374.211456</v>
+        <v>3921.9711910000001</v>
       </c>
       <c r="I33">
-        <v>349.70208700000001</v>
+        <v>4844.2036129999997</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>-24.509368999999992</v>
+        <v>922.23242199999959</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>-110.44538476851818</v>
+        <v>642.537165629632</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-106.42614154629661</v>
+        <v>-253.2830385462953</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>12198.183016666027</v>
+        <v>412854.00921536115</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>11326.523604432361</v>
+        <v>64152.297615244112</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>11754.276152509507</v>
+        <v>-162743.76568959741</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>600.70916877816057</v>
+        <v>850512.64018798538</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>17144.107922019346</v>
+        <v>447493.27762309107</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4425,42 +4425,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>129.27256800000001</v>
+        <v>2007.25415</v>
       </c>
       <c r="I34">
-        <v>97.715118000000004</v>
+        <v>3261.306885</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>-31.557450000000003</v>
+        <v>1254.052735</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-362.43235376851817</v>
+        <v>-940.35956237036771</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-351.36502954629657</v>
+        <v>-2168.0000795462956</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>131357.21105818832</v>
+        <v>884276.10654138948</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>123457.38398806987</v>
+        <v>4700224.3449127441</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>127346.05469040919</v>
+        <v>2038699.6060210769</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>995.87265050250016</v>
+        <v>1572648.2621609801</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>146629.62534188392</v>
+        <v>835299.74860322487</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4477,42 +4477,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>90.719657999999995</v>
+        <v>1760.7448730000001</v>
       </c>
       <c r="I35">
-        <v>53.514549000000002</v>
+        <v>2980.991211</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-37.205108999999993</v>
+        <v>1220.2463379999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-406.6329227685182</v>
+        <v>-1220.6752363703677</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-389.91793954629662</v>
+        <v>-2414.5093565462953</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>165350.33387926768</v>
+        <v>1490048.0326878529</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>152035.99958002943</v>
+        <v>5829855.4328496046</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>158553.47139758899</v>
+        <v>2947331.7795206131</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>1384.2201357018805</v>
+        <v>1489001.12540241</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>182434.09859948207</v>
+        <v>1426264.1574673092</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4529,42 +4529,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>583.58599900000002</v>
+        <v>2707.818115</v>
       </c>
       <c r="I36">
-        <v>493.04354899999998</v>
+        <v>2823.5454100000002</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-90.542450000000031</v>
+        <v>115.72729500000014</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>32.896077231481797</v>
+        <v>-1378.1210373703675</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>102.94840145370341</v>
+        <v>-1467.4361145462954</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>1082.1518972196152</v>
+        <v>1899217.5936427778</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>10598.373361872882</v>
+        <v>2153368.7502747281</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>3386.5985650786201</v>
+        <v>2022304.580453282</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>8197.9352520025059</v>
+        <v>13392.806808017058</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>153.90763147164503</v>
+        <v>1827116.7328392388</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4581,42 +4581,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>843.05602999999996</v>
+        <v>3906.2761230000001</v>
       </c>
       <c r="I37">
-        <v>709.62872300000004</v>
+        <v>3689.7209469999998</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-133.42730699999993</v>
+        <v>-216.5551760000003</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>249.48125123148185</v>
+        <v>-511.94550037036788</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>362.41843245370336</v>
+        <v>-268.97810654629529</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>62240.894716025767</v>
+        <v>262088.19534946635</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>131347.12018219955</v>
+        <v>72349.221801230189</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>90416.603997902203</v>
+        <v>137702.13134451726</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>17802.84625327223</v>
+        <v>46896.14425239111</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>52436.935536553741</v>
+        <v>235742.56846018092</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4633,42 +4633,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>1198.409668</v>
+        <v>7315.9121089999999</v>
       </c>
       <c r="I38">
-        <v>1065.376953</v>
+        <v>6776.8481449999999</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-133.03271500000005</v>
+        <v>-539.06396399999994</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>605.22948123148171</v>
+        <v>2575.1816976296323</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>717.77207045370346</v>
+        <v>3140.6578794537045</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>366302.72495172848</v>
+        <v>6631560.7758066347</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>515196.74512339622</v>
+        <v>9863731.9157746397</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>434416.8178431415</v>
+        <v>8087764.6896854714</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>17697.703260271239</v>
+        <v>290589.95728339325</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>341920.11381641252</v>
+        <v>6768290.9009257369</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4685,42 +4685,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>1028.1721190000001</v>
+        <v>7715.9614259999998</v>
       </c>
       <c r="I39">
-        <v>1135.5593260000001</v>
+        <v>8247.5019530000009</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>107.38720699999999</v>
+        <v>531.54052700000102</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>675.41185423148181</v>
+        <v>4045.8355056296332</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>547.53452145370352</v>
+        <v>3540.7071964537045</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>456181.17283640843</v>
+        <v>16368784.938613391</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>299794.05218353611</v>
+        <v>12536607.451019052</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>369811.30639079295</v>
+        <v>14325118.890450755</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>11532.012227260846</v>
+        <v>282535.33184343879</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>428922.47040078655</v>
+        <v>16583201.521173887</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4737,42 +4737,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>670.32995600000004</v>
+        <v>4524.669922</v>
       </c>
       <c r="I40">
-        <v>587.48681599999998</v>
+        <v>4287.7246089999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-82.843140000000062</v>
+        <v>-236.94531300000017</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>127.33934423148179</v>
+        <v>86.058161629632195</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>189.69235845370343</v>
+        <v>349.41569245370465</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>16215.308589303815</v>
+        <v>7406.0071830718989</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>35983.19085572831</v>
+        <v>122091.32613290192</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>24155.300531217777</v>
+        <v>30070.072137110768</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>6862.9858450596103</v>
+        <v>56143.08135266805</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>11416.755484167224</v>
+        <v>12649.586254460271</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4789,42 +4789,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>195.35524000000001</v>
+        <v>3103.8632809999999</v>
       </c>
       <c r="I41">
-        <v>128.28054800000001</v>
+        <v>3565.3015140000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-67.074691999999999</v>
+        <v>461.43823300000031</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-331.86692376851818</v>
+        <v>-636.36493337036745</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-285.28235754629657</v>
+        <v>-1071.3909485462955</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>110135.65509157945</v>
+        <v>404960.32842347218</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>81386.023527172991</v>
+        <v>1147878.5646269307</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>94675.77840431995</v>
+        <v>681795.6295852781</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>4499.0143068948637</v>
+        <v>212925.24287416256</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>124155.49036497131</v>
+        <v>372042.31520229968</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4841,42 +4841,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>52.071781000000001</v>
+        <v>3364.139404</v>
       </c>
       <c r="I42">
-        <v>62.904750999999997</v>
+        <v>3775.4267580000001</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>10.832969999999996</v>
+        <v>411.28735400000005</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-397.24272076851821</v>
+        <v>-426.23968937036761</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-428.56581654629662</v>
+        <v>-811.11482554629538</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>157801.77920357493</v>
+        <v>181680.27279454746</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>183668.65911199397</v>
+        <v>657907.26022099715</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>170244.6509932325</v>
+        <v>345729.33128455287</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>117.35323902089991</v>
+        <v>169157.28756032136</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>174500.7310836718</v>
+        <v>159862.00700310359</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4893,42 +4893,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>274.662781</v>
+        <v>4717.8833009999998</v>
       </c>
       <c r="I43">
-        <v>503.75711100000001</v>
+        <v>5110.0322269999997</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>229.09433000000001</v>
+        <v>392.14892599999985</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>43.609639231481822</v>
+        <v>908.36577962963202</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-205.97481654629661</v>
+        <v>542.62907145370446</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>1901.8006338999985</v>
+        <v>825128.38960214914</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>42425.625051280542</v>
+        <v>294446.30918670952</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>-8982.4874403546473</v>
+        <v>492905.67954074754</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>52484.212038148908</v>
+        <v>153780.78016295336</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>534.51190233597276</v>
+        <v>873809.90452355763</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4945,42 +4945,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>135.985794</v>
+        <v>3659.5583499999998</v>
       </c>
       <c r="I44">
-        <v>301.04025300000001</v>
+        <v>4004.1154790000001</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>165.05445900000001</v>
+        <v>344.55712900000026</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-159.10721876851818</v>
+        <v>-197.55096837036763</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-344.65180354629661</v>
+        <v>-515.6958795462956</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>25315.107064253105</v>
+        <v>39026.385104069988</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>118784.86568771504</v>
+        <v>265942.24018102745</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>54836.589905804962</v>
+        <v>101876.22038897916</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>27242.974435782682</v>
+        <v>118719.61514472282</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>32255.206168081171</v>
+        <v>29288.471938547103</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4997,42 +4997,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>235.55921900000001</v>
+        <v>2512.1809079999998</v>
       </c>
       <c r="I45">
-        <v>124.108856</v>
+        <v>3128.1423340000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-111.45036300000001</v>
+        <v>615.9614260000003</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-336.03861576851818</v>
+        <v>-1073.5241133703676</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-245.07837854629659</v>
+        <v>-1663.0733215462956</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>112921.95128762179</v>
+        <v>1152454.0219876338</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>60063.411630881848</v>
+        <v>2765812.872839028</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>82355.799081490404</v>
+        <v>1785349.3129828991</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>12421.183412831771</v>
+        <v>379408.47831995384</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>127112.74354858596</v>
+        <v>1096443.3217945555</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5049,42 +5049,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>104.71517900000001</v>
+        <v>1843.2338870000001</v>
       </c>
       <c r="I46">
-        <v>60.713673</v>
+        <v>2305.2048340000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>-44.001506000000006</v>
+        <v>461.97094700000002</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-399.43379876851816</v>
+        <v>-1896.4616133703676</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-375.92241854629663</v>
+        <v>-2332.0203425462951</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>159547.35959864905</v>
+        <v>3596566.6509873373</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>141317.66476569703</v>
+        <v>5438318.8780497396</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>150156.11968219609</v>
+        <v>4422587.0612378642</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>1936.1325302680366</v>
+        <v>213417.15587207684</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>176336.10240636379</v>
+        <v>3497084.7417830643</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5101,42 +5101,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>90.064644000000001</v>
+        <v>1738.14563</v>
       </c>
       <c r="I47">
-        <v>54.716163999999999</v>
+        <v>2220.9914549999999</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-35.348480000000002</v>
+        <v>482.84582499999988</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-405.4313077685182</v>
+        <v>-1980.6749923703678</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-390.57295354629662</v>
+        <v>-2437.1085995462954</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>164374.54531889092</v>
+        <v>3923073.4254013565</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>152547.23204187758</v>
+        <v>5939498.3259825055</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>158350.50333528774</v>
+        <v>4827120.0568121169</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>1249.5150383104001</v>
+        <v>233140.09071993051</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>181409.06755413237</v>
+        <v>3819142.9919773852</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5153,42 +5153,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>621.07501200000002</v>
+        <v>2821.2172850000002</v>
       </c>
       <c r="I48">
-        <v>508.97579999999999</v>
+        <v>2836.9643550000001</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-112.09921200000002</v>
+        <v>15.747069999999894</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>48.828328231481805</v>
+        <v>-1364.7020923703676</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>140.43741445370341</v>
+        <v>-1354.0369445462952</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>2384.2056378813231</v>
+        <v>1862411.8009200594</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>19722.667378441263</v>
+        <v>1833416.0471962669</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>6857.3241689260776</v>
+        <v>1847857.0513691085</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>12566.233331020949</v>
+        <v>247.97021358489667</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>803.05371830708077</v>
+        <v>1791019.7883131388</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5205,42 +5205,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>896.02185099999997</v>
+        <v>4320.4731449999999</v>
       </c>
       <c r="I49">
-        <v>877.34027100000003</v>
+        <v>3382.7624510000001</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-18.68157999999994</v>
+        <v>-937.71069399999988</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>417.19279923148184</v>
+        <v>-818.90399637036762</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>415.38425345370337</v>
+        <v>145.21891545370454</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>174049.83173059952</v>
+        <v>670603.75527135911</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>172544.07801729048</v>
+        <v>21088.533405550188</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>173295.31945502985</v>
+        <v>-118920.35021360918</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>349.00143129639775</v>
+        <v>879301.34564196144</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>157373.01112531565</v>
+        <v>628043.21906347037</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5257,42 +5257,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>732.78344700000002</v>
+        <v>4578.9379879999997</v>
       </c>
       <c r="I50">
-        <v>617.34991500000001</v>
+        <v>4123.8271480000003</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-115.43353200000001</v>
+        <v>-455.11083999999937</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>157.20244323148182</v>
+        <v>-77.839299370367371</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>252.14584945370342</v>
+        <v>403.68375845370429</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>24712.608157947267</v>
+        <v>6058.9565264696739</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>63577.529396729667</v>
+        <v>162960.57683930866</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>39637.943584799577</v>
+        <v>-31422.460925232957</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>13324.900309995028</v>
+        <v>207125.87668550503</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>18690.257743562175</v>
+        <v>2644.7447163692846</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5309,42 +5309,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>356.48150600000002</v>
+        <v>3081.631836</v>
       </c>
       <c r="I51">
-        <v>348.57122800000002</v>
+        <v>3238.2590329999998</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-7.9102780000000052</v>
+        <v>156.6271969999998</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-111.57624376851817</v>
+        <v>-963.40741437036786</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-124.15609154629658</v>
+        <v>-1093.6223935462954</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>12449.258173491789</v>
+        <v>928153.84606379771</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>15414.735068052378</v>
+        <v>1196009.9396659283</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>13852.870335716045</v>
+        <v>1053603.9224639693</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>62.572498037284085</v>
+        <v>24532.078840076745</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>17441.525965138975</v>
+        <v>877959.9983508311</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5361,42 +5361,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>382.777557</v>
+        <v>3887.8046880000002</v>
       </c>
       <c r="I52">
-        <v>295.81228599999997</v>
+        <v>3759.3483890000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-86.96527100000003</v>
+        <v>-128.45629899999994</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-164.33518576851822</v>
+        <v>-442.31805837036745</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-97.860040546296602</v>
+        <v>-287.44954154629522</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>27006.053281573393</v>
+        <v>195645.26476053178</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>9576.5875357228142</v>
+        <v>82627.238935175308</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>16081.847942490376</v>
+        <v>127144.12309620957</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>7562.9583601034465</v>
+        <v>16501.020752777385</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>34160.395788185611</v>
+        <v>172977.6682005203</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5413,42 +5413,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>864.332581</v>
+        <v>7767.5151370000003</v>
       </c>
       <c r="I53">
-        <v>1234.2166749999999</v>
+        <v>7535.3227539999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>369.88409399999989</v>
+        <v>-232.19238300000052</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>774.06920323148165</v>
+        <v>3333.6563066296321</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>383.6949834537034</v>
+        <v>3592.2609074537049</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>599183.13139142084</v>
+        <v>11113264.37073152</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>147221.84032753773</v>
+        <v>12904338.427220115</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>297006.47012592474</v>
+        <v>11975363.229192128</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>136814.24299420076</v>
+        <v>53913.302723218927</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>567881.42597597465</v>
+        <v>11290060.489024494</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5465,42 +5465,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>861.92437700000005</v>
+        <v>9247.5214840000008</v>
       </c>
       <c r="I54">
-        <v>976.752747</v>
+        <v>7875.0161129999997</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>114.82836999999995</v>
+        <v>-1372.5053710000011</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>516.60527523148176</v>
+        <v>3673.349665629632</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>381.28677945370345</v>
+        <v>5072.2672544537054</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>266881.010396995</v>
+        <v>13493497.76598133</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>145379.60818617709</v>
+        <v>25727895.100603331</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>196974.76164180576</v>
+        <v>18632211.223131649</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>13185.554556856889</v>
+        <v>1883770.9934238507</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>246130.24151747045</v>
+        <v>13688237.994256901</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5517,42 +5517,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>442.88937399999998</v>
+        <v>5424.5576170000004</v>
       </c>
       <c r="I55">
-        <v>402.13876299999998</v>
+        <v>5321.919922</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-40.750610999999992</v>
+        <v>-102.63769500000035</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-58.008708768518204</v>
+        <v>1120.2534746296324</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-37.748223546296629</v>
+        <v>1249.303387453705</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>3365.0102929907607</v>
+        <v>1254967.8474197644</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1424.9283809011831</v>
+        <v>1560758.9539033021</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>2189.7257062260428</v>
+        <v>1399536.4606615829</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1660.6122968733202</v>
+        <v>10534.496434913097</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>6162.0670251268521</v>
+        <v>1314842.2102503339</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5569,42 +5569,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>389.959991</v>
+        <v>4615.4169920000004</v>
       </c>
       <c r="I56">
-        <v>423.144318</v>
+        <v>4853.1923829999996</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>33.184326999999996</v>
+        <v>237.77539099999922</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>-37.003153768518189</v>
+        <v>651.52593562963193</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>-90.677606546296602</v>
+        <v>440.162762453705</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>1369.2333888166017</v>
+        <v>424486.04479806731</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>8222.428328964972</v>
+        <v>193743.25745087673</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>3355.3574183938049</v>
+        <v>286777.45563697355</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>1101.1995584429287</v>
+        <v>56537.136565202512</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>3305.4771929886078</v>
+        <v>459600.13990821823</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5621,42 +5621,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>211.100998</v>
+        <v>2289.0847170000002</v>
       </c>
       <c r="I57">
-        <v>172.68275499999999</v>
+        <v>3208.139404</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-38.418243000000018</v>
+        <v>919.05468699999983</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-287.4647167685182</v>
+        <v>-993.52704337036766</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-269.5365995462966</v>
+        <v>-1886.1695125462952</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>82635.963386804389</v>
+        <v>987095.98590826441</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>72649.978494980664</v>
+        <v>3557635.4300591289</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>77482.262247325663</v>
+        <v>1873960.4190954482</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>1475.9613952070504</v>
+        <v>844661.5176966677</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>94836.185047714345</v>
+        <v>935311.08579144138</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5673,42 +5673,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>126.90033</v>
+        <v>1897.825317</v>
       </c>
       <c r="I58">
-        <v>101.040154</v>
+        <v>2391.750732</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>-25.860175999999996</v>
+        <v>493.92541499999993</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-359.10731776851821</v>
+        <v>-1809.9157153703677</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-353.73726754629661</v>
+        <v>-2277.4289125462956</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>128958.06567489952</v>
+        <v>3275794.8967446298</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>125130.05445112023</v>
+        <v>5186682.4517018022</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>127029.64134331528</v>
+        <v>4121954.3794563874</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>668.74870275097578</v>
+        <v>243962.31558292217</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>144094.21914688387</v>
+        <v>3180884.7257598685</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5725,42 +5725,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>91.296165000000002</v>
+        <v>1751.573975</v>
       </c>
       <c r="I59">
-        <v>378.20376599999997</v>
+        <v>2629.6972660000001</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>286.907601</v>
+        <v>878.12329100000011</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-81.943705768518214</v>
+        <v>-1571.9691813703676</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-389.34143254629657</v>
+        <v>-2423.6802545462951</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>6714.7709150774854</v>
+        <v>2471087.1071782233</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>151586.75109720242</v>
+        <v>5874225.9762775945</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>31904.079792067107</v>
+        <v>3809950.6656426638</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>82315.971511575204</v>
+        <v>771100.51419667085</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>10492.689845255074</v>
+        <v>2388746.3275664444</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5777,42 +5777,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>569.27130099999999</v>
+        <v>2665.5375979999999</v>
       </c>
       <c r="I60">
-        <v>367.408051</v>
+        <v>2412.9174800000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-201.86324999999999</v>
+        <v>-252.62011799999982</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-92.739420768518187</v>
+        <v>-1788.7489673703676</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>88.63370345370339</v>
+        <v>-1509.7166315462955</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>8600.6001644802618</v>
+        <v>3199622.8682685564</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>7855.9333879190326</v>
+        <v>2279244.3075674931</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>-8219.8383188650623</v>
+        <v>2700504.0657003056</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>40748.771700562495</v>
+        <v>63816.924018333833</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>12820.930211079949</v>
+        <v>3105830.8188014016</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5829,42 +5829,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>831.05474900000002</v>
+        <v>3610.1889649999998</v>
       </c>
       <c r="I61">
-        <v>463.043701</v>
+        <v>2910.2585450000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-368.01104800000002</v>
+        <v>-699.93041999999969</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>2.8962292314818114</v>
+        <v>-1291.4079023703675</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>350.41715145370341</v>
+        <v>-565.06526454629557</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>8.3881437612897241</v>
+        <v>1667734.3703046327</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>122792.18003292772</v>
+        <v>319298.75319677498</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>1014.8883972528049</v>
+        <v>729729.74799008842</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>135432.13145005831</v>
+        <v>489902.59284137597</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>309.54519568178762</v>
+        <v>1600214.0819207502</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5881,42 +5881,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>1106.9021</v>
+        <v>8017.0810549999997</v>
       </c>
       <c r="I62">
-        <v>711.81402600000001</v>
+        <v>5873.5415039999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-395.08807400000001</v>
+        <v>-2143.5395509999998</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>251.66655423148183</v>
+        <v>1671.8750566296321</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>626.26450245370347</v>
+        <v>3841.8268254537043</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>63336.054518747384</v>
+        <v>2795166.2049803357</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>392207.22703358479</v>
+        <v>14759633.356775686</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>157609.82937001696</v>
+        <v>6423054.441366652</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>156094.58621702949</v>
+        <v>4594761.8067012811</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>53442.541072610249</v>
+        <v>2884179.6665713917</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5933,42 +5933,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>1259.006226</v>
+        <v>9213.9423829999996</v>
       </c>
       <c r="I63">
-        <v>1255.927612</v>
+        <v>8805.2763670000004</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0786140000000159</v>
+        <v>-408.66601599999922</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>795.78014023148171</v>
+        <v>4603.6099196296327</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>778.36862845370342</v>
+        <v>5038.6881534537042</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>633266.03158683667</v>
+        <v>21193224.292112354</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>605857.72176089941</v>
+        <v>25388378.307754699</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>619410.29630267422</v>
+        <v>23196154.765159789</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>9.4778641609960985</v>
+        <v>167007.91263331161</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>601074.6065116236</v>
+        <v>21437104.993311375</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5985,42 +5985,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>657.78259300000002</v>
+        <v>5602.4350590000004</v>
       </c>
       <c r="I64">
-        <v>515.91326900000001</v>
+        <v>5431.6606449999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-141.86932400000001</v>
+        <v>-170.77441400000043</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>55.765797231481827</v>
+        <v>1229.9941976296323</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>177.14499545370342</v>
+        <v>1427.180829453705</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>3109.8241408627464</v>
+        <v>1512885.7262025629</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>31380.349414292603</v>
+        <v>2036845.1199601653</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>9878.6318970429948</v>
+        <v>1755424.139196303</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>20126.905092216977</v>
+        <v>29163.900477043546</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1244.3729965096256</v>
+        <v>1578557.0807932268</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6037,42 +6037,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>255.48928799999999</v>
+        <v>3777.8066410000001</v>
       </c>
       <c r="I65">
-        <v>225.021942</v>
+        <v>4394.2041019999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>-30.467345999999992</v>
+        <v>616.39746099999957</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-235.12552976851819</v>
+        <v>192.53765462963202</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-225.14830954629662</v>
+        <v>-397.44758854629526</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>55284.014748926333</v>
+        <v>37070.748450279461</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>50691.761291554998</v>
+        <v>157964.58564126521</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>52938.115558559315</v>
+        <v>-76523.626536906682</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>928.25917228371554</v>
+        <v>379945.82992724597</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>65339.363360362957</v>
+        <v>47939.046647493378</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6089,42 +6089,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>51.712265000000002</v>
+        <v>2382.4440920000002</v>
       </c>
       <c r="I66">
-        <v>54.170158000000001</v>
+        <v>2779.251953</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>2.4578929999999986</v>
+        <v>396.80786099999978</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-405.97731376851817</v>
+        <v>-1422.4144943703677</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-428.9253325462966</v>
+        <v>-1792.8101375462952</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>164817.57929470186</v>
+        <v>2023262.9937949087</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>183976.94089995112</v>
+        <v>3214168.1892887661</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>174133.95431441386</v>
+        <v>2550119.1252999827</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>6.0412379994489926</v>
+        <v>157456.47855139515</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>181874.47699317415</v>
+        <v>1948822.3561224395</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6141,42 +6141,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>51.772095</v>
+        <v>2523.5852049999999</v>
       </c>
       <c r="I67">
-        <v>51.032882999999998</v>
+        <v>2909.0417480000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-0.73921200000000198</v>
+        <v>385.45654300000024</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-409.11458876851816</v>
+        <v>-1292.6246993703676</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-428.86550254629663</v>
+        <v>-1651.6690245462955</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>167374.74674323373</v>
+        <v>1670878.6134223333</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>183925.61927428754</v>
+        <v>2728010.5666457112</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>175455.13371123202</v>
+        <v>2134988.1763135036</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>0.54643438094400287</v>
+        <v>148576.74654151103</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>184560.21076040497</v>
+        <v>1603294.0484236272</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6193,42 +6193,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>50.992438999999997</v>
+        <v>1922.8122559999999</v>
       </c>
       <c r="I68">
-        <v>104.167923</v>
+        <v>2317.9670409999999</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>53.175484000000004</v>
+        <v>395.15478499999995</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-355.97954876851816</v>
+        <v>-1883.6994063703678</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-429.64515854629661</v>
+        <v>-2252.4419735462952</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>126721.43914143779</v>
+        <v>3548323.4535600762</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>184594.96226227234</v>
+        <v>5073494.8441931298</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>152944.88966988912</v>
+        <v>4242923.6084528556</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>2827.6320986342566</v>
+        <v>156147.30410839617</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>141729.41585299445</v>
+        <v>3449515.7007382028</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6245,42 +6245,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>50.738976000000001</v>
+        <v>1753.095581</v>
       </c>
       <c r="I69">
-        <v>169.52015700000001</v>
+        <v>2099.8784179999998</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>118.781181</v>
+        <v>346.78283699999974</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-290.6273147685182</v>
+        <v>-2101.7880293703679</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-429.89862154629662</v>
+        <v>-2422.1586485462954</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>84464.236089559359</v>
+        <v>4417512.9204045748</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>184812.82480740597</v>
+        <v>5866852.5187276155</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>124940.28200268763</v>
+        <v>5090864.052750512</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>14108.968959754762</v>
+        <v>120258.33603776839</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>96794.061812078406</v>
+        <v>4307184.7591514448</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6297,42 +6297,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>50.608086</v>
+        <v>1682.553467</v>
       </c>
       <c r="I70">
-        <v>192.53428600000001</v>
+        <v>1917.755371</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>141.92619999999999</v>
+        <v>235.20190400000001</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-267.61318576851818</v>
+        <v>-2283.9110763703675</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-430.02951154629659</v>
+        <v>-2492.7007625462957</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>71616.81719717542</v>
+        <v>5216249.804767251</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>184925.38080074644</v>
+        <v>6213557.0915988842</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>115081.5675593842</v>
+        <v>5693106.8816563459</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>20143.046246439997</v>
+        <v>55319.935645225225</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>83003.518123942442</v>
+        <v>5096301.096337826</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6349,42 +6349,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>50.579738999999996</v>
+        <v>1663.021851</v>
       </c>
       <c r="I71">
-        <v>176.005402</v>
+        <v>1826.5020750000001</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>125.42566300000001</v>
+        <v>163.48022400000013</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-284.14206976851818</v>
+        <v>-2375.1643723703673</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-430.05785854629659</v>
+        <v>-2512.2323785462954</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>80736.715812337454</v>
+        <v>5641405.7957775211</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>184949.76169742644</v>
+        <v>6311311.5238163769</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>122197.53004756133</v>
+        <v>5966964.8406384271</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>15731.596938989573</v>
+        <v>26725.783639090219</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>92800.774563357088</v>
+        <v>5516636.6834858628</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6401,42 +6401,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>516.89672900000005</v>
+        <v>2118.2080080000001</v>
       </c>
       <c r="I72">
-        <v>115.291313</v>
+        <v>1752.3474120000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-401.60541600000005</v>
+        <v>-365.86059599999999</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-344.85615876851818</v>
+        <v>-2449.3190353703676</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>36.259131453703446</v>
+        <v>-2057.0462215462953</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>118925.77024057742</v>
+        <v>5999163.7370276283</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>1314.7246137769466</v>
+        <v>4231439.15757789</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>-12504.184793406926</v>
+        <v>5038362.4670700319</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>161286.91016053309</v>
+        <v>133853.9757054752</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>133477.90763178351</v>
+        <v>5870477.4465123164</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6453,42 +6453,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>610.36938499999997</v>
+        <v>2337.5649410000001</v>
       </c>
       <c r="I73">
-        <v>107.864929</v>
+        <v>1729.244263</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-502.50445599999995</v>
+        <v>-608.32067800000004</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-352.28254276851817</v>
+        <v>-2472.4221843703676</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>129.73178745370336</v>
+        <v>-1837.6892885462953</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>124102.98993945283</v>
+        <v>6112871.4577667406</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>16830.336675932864</v>
+        <v>3377101.9212377891</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>-45702.243962095563</v>
+        <v>4543543.7649816582</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>252510.72829985589</v>
+        <v>370054.04728237976</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>138959.46241512708</v>
+        <v>5982964.7564438088</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6505,42 +6505,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>961.260132</v>
+        <v>5508.9208980000003</v>
       </c>
       <c r="I74">
-        <v>480.82003800000001</v>
+        <v>3132.5451659999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-480.44009399999999</v>
+        <v>-2376.3757320000004</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>20.672566231481824</v>
+        <v>-1069.1212813703678</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>480.62253445370339</v>
+        <v>1333.6666684537049</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>427.35499459500261</v>
+        <v>1143020.314279017</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>230998.02062470131</v>
+        <v>1778666.7825444045</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>9935.701175836839</v>
+        <v>-1425851.4174981746</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>230822.68392272881</v>
+        <v>5647161.619638538</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>3.3284519147504993E-2</v>
+        <v>1087242.1912015926</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6557,42 +6557,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>1332.8908690000001</v>
+        <v>9190.25</v>
       </c>
       <c r="I75">
-        <v>1419.6671140000001</v>
+        <v>8454.3652340000008</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>86.776245000000017</v>
+        <v>-735.88476599999922</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>959.51964223148184</v>
+        <v>4252.6987866296331</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>852.25327145370352</v>
+        <v>5014.9957704537046</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>920677.94382803096</v>
+        <v>18085446.969801154</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>726335.63870354008</v>
+        <v>25150182.577668548</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>817753.75411586754</v>
+        <v>21327266.427961212</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>7530.1166963000278</v>
+        <v>541526.38883087365</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>881776.43277127633</v>
+        <v>18310790.988436799</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6609,42 +6609,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>981.71356200000002</v>
+        <v>7169.1220700000003</v>
       </c>
       <c r="I76">
-        <v>849.51654099999996</v>
+        <v>5990.5893550000001</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-132.19702100000006</v>
+        <v>-1178.5327150000003</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>389.36906923148177</v>
+        <v>1788.9229076296324</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>501.07596445370342</v>
+        <v>2993.867840453705</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>151608.27207419043</v>
+        <v>3200245.1694420581</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>251077.12215320906</v>
+        <v>8963244.6461029314</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>195103.48189360555</v>
+        <v>5355798.7622032901</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>17476.052361274458</v>
+        <v>1388939.360325272</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>136071.67492352048</v>
+        <v>3295441.6177060176</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6661,42 +6661,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>321.31237800000002</v>
+        <v>5924.7509769999997</v>
       </c>
       <c r="I77">
-        <v>335.613831</v>
+        <v>5863.1181640000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>14.301452999999981</v>
+        <v>-61.63281299999926</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>-124.53364076851818</v>
+        <v>1661.4517166296328</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>-159.32521954629658</v>
+        <v>1749.4967474537043</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>15508.627683062334</v>
+        <v>2760421.8066915534</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>25384.525583475606</v>
+        <v>3060738.8693510904</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>19841.349656343791</v>
+        <v>2906704.3742949162</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>204.53155791120847</v>
+        <v>3798.6036382928778</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>21031.892863274737</v>
+        <v>2848884.6612295411</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6713,42 +6713,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>547.89776600000005</v>
+        <v>6373.4882809999999</v>
       </c>
       <c r="I78">
-        <v>618.51684599999999</v>
+        <v>6886.216797</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>70.61907999999994</v>
+        <v>512.72851600000013</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>158.3693742314818</v>
+        <v>2684.5503496296324</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>67.260168453703443</v>
+        <v>2198.2340514537045</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>25080.858694471131</v>
+        <v>7206810.5796965817</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>4523.9302604205641</v>
+        <v>4832232.9449705677</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>10651.950788717068</v>
+        <v>5901269.9913978055</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>4987.0544600463918</v>
+        <v>262890.53111956239</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>19010.687154158066</v>
+        <v>7349318.0421351818</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6765,42 +6765,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>103.224152</v>
+        <v>4194.9267579999996</v>
       </c>
       <c r="I79">
-        <v>112.05089599999999</v>
+        <v>3833.6987300000001</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>8.8267439999999908</v>
+        <v>-361.22802799999954</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-348.09657576851816</v>
+        <v>-367.96771737036761</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-377.4134455462966</v>
+        <v>19.672528453704217</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>121171.22606176771</v>
+        <v>135400.24102675874</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>142440.90887912738</v>
+        <v>387.00837576180203</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>131376.32804366393</v>
+        <v>-7238.8553900131483</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>77.91140964153584</v>
+        <v>130485.68821276845</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>135856.1565567787</v>
+        <v>116660.15927031935</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6817,42 +6817,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>126.963402</v>
+        <v>2442.351807</v>
       </c>
       <c r="I80">
-        <v>251.23820499999999</v>
+        <v>2902.6779790000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>124.27480299999999</v>
+        <v>460.32617200000004</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-208.90926676851819</v>
+        <v>-1298.9884683703676</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-353.67419554629657</v>
+        <v>-1732.9024225462954</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>43643.081741759903</v>
+        <v>1687371.0409591936</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>125085.43659532003</v>
+        <v>3002950.8060668195</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>73885.816866522335</v>
+        <v>2251020.263698712</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>15444.226660688806</v>
+        <v>211900.18462817362</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>52624.081300609883</v>
+        <v>1619450.3134544673</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6869,42 +6869,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>155.58279400000001</v>
+        <v>2037.419922</v>
       </c>
       <c r="I81">
-        <v>286.293182</v>
+        <v>2419.0139159999999</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>130.71038799999999</v>
+        <v>381.59399399999984</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-173.85428976851819</v>
+        <v>-1782.6525313703678</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-325.05480354629663</v>
+        <v>-2137.8343075462953</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>30225.314070915887</v>
+        <v>3177850.0476011802</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>105660.6253085215</v>
+        <v>4570335.5265219482</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>56512.172006386609</v>
+        <v>3811015.7399978209</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>17085.205531110543</v>
+        <v>145613.97625687192</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>37769.751854031616</v>
+        <v>3084380.0389251905</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6921,42 +6921,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>116.71013600000001</v>
+        <v>1835.5972899999999</v>
       </c>
       <c r="I82">
-        <v>186.068344</v>
+        <v>2062.8562010000001</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>69.358207999999991</v>
+        <v>227.25891100000013</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-274.07912776851822</v>
+        <v>-2138.8102463703676</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-363.92746154629663</v>
+        <v>-2339.6569395462957</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>75119.368278351729</v>
+        <v>4574509.2699788725</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>132443.19726753121</v>
+        <v>5473994.5947671384</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>99744.921231619941</v>
+        <v>5004082.2352931527</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>4810.5610169712627</v>
+        <v>51646.612628905976</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>86771.045134822387</v>
+        <v>4462225.4310062751</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6973,42 +6973,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>85.080924999999993</v>
+        <v>1722.003418</v>
       </c>
       <c r="I83">
-        <v>272.00170900000001</v>
+        <v>1955.5241699999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>186.92078400000003</v>
+        <v>233.5207519999999</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-188.14576276851818</v>
+        <v>-2246.142277370368</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-395.55667254629662</v>
+        <v>-2453.2508115462952</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>35398.82804774752</v>
+        <v>5045155.1301905429</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>156465.08119589812</v>
+        <v>6018439.5443525556</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>74422.311874399951</v>
+        <v>5510350.3648072984</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>34939.379491174666</v>
+        <v>54531.941614645461</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>43528.933989502693</v>
+        <v>4927201.5372534012</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7025,42 +7025,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>597.29858400000001</v>
+        <v>2674.9448240000002</v>
       </c>
       <c r="I84">
-        <v>233.83090200000001</v>
+        <v>1880.517578</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-363.46768199999997</v>
+        <v>-794.4272460000002</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-226.31656976851818</v>
+        <v>-2321.1488693703677</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>116.6609864537034</v>
+        <v>-1500.3094055462952</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>51219.189751788559</v>
+        <v>5387732.0737793362</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>13609.785760351169</v>
+        <v>2250928.3123706779</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>-26402.314280013721</v>
+        <v>3482441.4803895117</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>132108.75585845311</v>
+        <v>631114.64918714482</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>60913.544966482339</v>
+        <v>5265816.299949904</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7077,42 +7077,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>1410.622192</v>
+        <v>7716.7431640000004</v>
       </c>
       <c r="I85">
-        <v>612.301514</v>
+        <v>3738.2863769999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-798.32067800000004</v>
+        <v>-3978.4567870000005</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>152.15404223148181</v>
+        <v>-463.38007037036778</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>929.98459445370349</v>
+        <v>3541.488934453705</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>23150.852567379548</v>
+        <v>214721.08961644699</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>864871.34592121933</v>
+        <v>12542143.87285804</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>141500.91525913629</v>
+        <v>-1641055.3916630365</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>637315.90492237976</v>
+        <v>15828118.406026367</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>17335.386895927786</v>
+        <v>190940.90415892104</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7129,42 +7129,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>948.71099900000002</v>
+        <v>6201.298828</v>
       </c>
       <c r="I86">
-        <v>663.27020300000004</v>
+        <v>4100.7963870000003</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-285.44079599999998</v>
+        <v>-2100.5024409999996</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>203.12273123148185</v>
+        <v>-100.87006037036736</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>468.07340145370341</v>
+        <v>2026.0445984537046</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>41258.843942936815</v>
+        <v>10174.769079121555</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>219092.70914843981</v>
+        <v>4104856.714923433</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>95076.347720086109</v>
+        <v>-204367.24095908186</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>81476.448021113596</v>
+        <v>4412110.5046469569</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>33354.668574808107</v>
+        <v>5543.970316648868</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7181,42 +7181,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>686.60589600000003</v>
+        <v>4407.6435549999997</v>
       </c>
       <c r="I87">
-        <v>796.08160399999997</v>
+        <v>5770.8666990000002</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>109.47570799999994</v>
+        <v>1363.2231440000005</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>335.93413223148178</v>
+        <v>1569.2002516296325</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>205.96829845370343</v>
+        <v>232.38932545370426</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>112851.74119811869</v>
+        <v>2462389.4297145018</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>42422.939967913851</v>
+        <v>54004.79858482768</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>69191.781608239718</v>
+        <v>364665.38797799329</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>11984.930642101252</v>
+        <v>1858377.3403372462</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>99504.921207564053</v>
+        <v>2545979.1526761497</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7233,42 +7233,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>198.416336</v>
+        <v>2092.0158689999998</v>
       </c>
       <c r="I88">
-        <v>483.61068699999998</v>
+        <v>4150.578125</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>285.19435099999998</v>
+        <v>2058.5622560000002</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>23.463215231481797</v>
+        <v>-51.088322370367678</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-282.2212615462966</v>
+        <v>-2083.2383605462956</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>550.52246899883937</v>
+        <v>2610.0166826186105</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>79648.84046878315</v>
+        <v>4339882.0668516178</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>-6621.818202561074</v>
+        <v>106429.1529379054</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>81335.817842311197</v>
+        <v>4237678.5618278105</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>8.8392608997222659</v>
+        <v>608.91013557970007</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7285,42 +7285,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>312.41384900000003</v>
+        <v>5709.1704099999997</v>
       </c>
       <c r="I89">
-        <v>734.07312000000002</v>
+        <v>5957.5327150000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>421.65927099999999</v>
+        <v>248.36230500000056</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>273.92564823148183</v>
+        <v>1755.8662676296326</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>-168.22374854629658</v>
+        <v>1533.9161804537043</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>75035.260759037526</v>
+        <v>3083066.3497996167</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>28299.22957496762</v>
+        <v>2352898.8486576811</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>-46080.799368474087</v>
+        <v>2693351.6786299478</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>177796.54082025142</v>
+        <v>61683.834544913305</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>64229.564041381607</v>
+        <v>3176516.5997111523</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7337,42 +7337,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>550.87188700000002</v>
+        <v>12252.301758</v>
       </c>
       <c r="I90">
-        <v>1171.6539310000001</v>
+        <v>8375.7197269999997</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>620.78204400000004</v>
+        <v>-3876.5820309999999</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>711.50645923148181</v>
+        <v>4174.053279629632</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>70.234289453703411</v>
+        <v>8077.0475284537042</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>506241.44152812031</v>
+        <v>17422720.781186886</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>4932.8554150665941</v>
+        <v>65238696.77690009</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>49972.150605843519</v>
+        <v>33714026.725866601</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>385370.34615281801</v>
+        <v>15027888.243072085</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>477503.57309979998</v>
+        <v>17643910.395298995</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7389,42 +7389,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>1655.071655</v>
+        <v>9780.0673829999996</v>
       </c>
       <c r="I91">
-        <v>599.60089100000005</v>
+        <v>6519.3857420000004</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>-1055.4707639999999</v>
+        <v>-3260.6816409999992</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>139.45341923148186</v>
+        <v>2317.7192946296327</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>1174.4340574537034</v>
+        <v>5604.8131534537042</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>19447.256135351436</v>
+        <v>5371822.7286984818</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>1379295.3553071688</v>
+        <v>31413930.485127658</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>163778.84497382154</v>
+        <v>12990383.588553607</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>1114018.5336587436</v>
+        <v>10632044.763954448</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>14152.26518935196</v>
+        <v>5494952.5476784948</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7441,42 +7441,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>401.59884599999998</v>
+        <v>3554.7565920000002</v>
       </c>
       <c r="I92">
-        <v>509.12970000000001</v>
+        <v>6199.123047</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>107.53085400000003</v>
+        <v>2644.3664549999999</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>48.982228231481827</v>
+        <v>1997.4565996296324</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-79.038751546296623</v>
+        <v>-620.49763754629521</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>2399.2586825209751</v>
+        <v>3989832.8674039734</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>6247.1242459972073</v>
+        <v>385017.31820053357</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-3871.4941673720882</v>
+        <v>-1239417.101171443</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>11562.884561969324</v>
+        <v>6992673.9483292662</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>811.79990223233187</v>
+        <v>4096044.9902614569</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7493,42 +7493,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>219.350967</v>
+        <v>2334.2707519999999</v>
       </c>
       <c r="I93">
-        <v>158.55336</v>
+        <v>3566.188232</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>-60.797606999999999</v>
+        <v>1231.9174800000001</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>-301.59411176851819</v>
+        <v>-635.47821537036771</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-261.28663054629658</v>
+        <v>-1840.9834775462955</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>90959.00825344144</v>
+        <v>403832.56221030746</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>68270.703302236885</v>
+        <v>3389220.1645984515</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>78802.509256599296</v>
+        <v>1169904.8948374533</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>3696.3490169264487</v>
+        <v>1517620.6775295506</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>103738.25607577922</v>
+        <v>370961.38936706394</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7545,42 +7545,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>103.567871</v>
+        <v>1821.548462</v>
       </c>
       <c r="I94">
-        <v>59.615597000000001</v>
+        <v>2445.352539</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>-43.952273999999996</v>
+        <v>623.80407700000001</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-400.53187476851821</v>
+        <v>-1756.3139083703677</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-377.06972654629658</v>
+        <v>-2353.7057675462956</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>160425.78270558396</v>
+        <v>3084638.5447351965</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>142181.57867769888</v>
+        <v>5539930.8401806969</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>151028.44449204067</v>
+        <v>4133846.1757531106</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>1931.8023897710757</v>
+        <v>389131.52648182196</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>177259.5249440058</v>
+        <v>2992559.8589549307</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7597,42 +7597,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>89.205841000000007</v>
+        <v>1773.1451420000001</v>
       </c>
       <c r="I95">
-        <v>469.47460899999999</v>
+        <v>3261.0795899999998</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>380.26876799999997</v>
+        <v>1487.9344479999997</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>9.3271372314817995</v>
+        <v>-940.58685737036785</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-391.43175654629658</v>
+        <v>-2402.1090875462951</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>86.99548893489397</v>
+        <v>884703.63625786477</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>153218.8200329192</v>
+        <v>5770128.0684724944</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>-3650.9377100672823</v>
+        <v>2259392.2377159717</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>144604.33591623779</v>
+        <v>2213948.9215450641</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>124.61231328474946</v>
+        <v>835715.27158959943</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7649,42 +7649,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>637.11938499999997</v>
+        <v>2885.1335450000001</v>
       </c>
       <c r="I96">
-        <v>254.38052400000001</v>
+        <v>2321.0834960000002</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-382.73886099999993</v>
+        <v>-564.05004899999994</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-205.76694776851818</v>
+        <v>-1880.5829513703675</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>156.48178745370336</v>
+        <v>-1290.1206845462953</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>42340.036793972089</v>
+        <v>3536592.236984882</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>24486.549804705995</v>
+        <v>1664411.3806942014</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>-32198.779785710543</v>
+        <v>2426178.9645680306</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>146489.03571957725</v>
+        <v>318152.45777690236</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>51192.263329734269</v>
+        <v>3437949.1091396064</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7701,42 +7701,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>1052.013672</v>
+        <v>5472.9624020000001</v>
       </c>
       <c r="I97">
-        <v>790.043091</v>
+        <v>4142.7758789999998</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-261.97058100000004</v>
+        <v>-1330.1865230000003</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>329.89561923148182</v>
+        <v>-58.890568370367873</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>571.3760744537035</v>
+        <v>1297.7081724537047</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>108831.11958812283</v>
+        <v>3468.099042984973</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>326470.61845812411</v>
+        <v>1684046.5008531343</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>188494.46389595777</v>
+        <v>-76422.771854670034</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>68628.585309477581</v>
+        <v>1769396.1859708303</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>95731.759379329698</v>
+        <v>1054.8432542080589</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7753,42 +7753,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>848.50903300000004</v>
+        <v>7368.7504879999997</v>
       </c>
       <c r="I98">
-        <v>1123.0432129999999</v>
+        <v>7005.9467770000001</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>274.53417999999988</v>
+        <v>-362.80371099999957</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>662.89574123148168</v>
+        <v>2804.2803296296324</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>367.87143545370344</v>
+        <v>3193.4962584537043</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>439430.76374283549</v>
+        <v>7863988.1671476802</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>135329.39302276829</v>
+        <v>10198418.352757808</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>243860.40788297192</v>
+        <v>8955458.740327552</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>75369.015988272338</v>
+        <v>131626.5327153712</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>412684.9747664514</v>
+        <v>8012820.2982099447</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7805,42 +7805,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>536.61834699999997</v>
+        <v>3392.8095699999999</v>
       </c>
       <c r="I99">
-        <v>312.73303199999998</v>
+        <v>3725.195068</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>-223.88531499999999</v>
+        <v>332.3854980000001</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>-147.41443976851821</v>
+        <v>-476.47137937036769</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>55.980749453703368</v>
+        <v>-782.4446595462955</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>21731.017052266081</v>
+        <v>227024.97535910085</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>3133.8443093983101</v>
+        <v>612219.64525251824</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>-8252.3708185394644</v>
+        <v>372812.48621500115</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>50124.634272649222</v>
+        <v>110480.11928070807</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>28191.94313129062</v>
+        <v>202553.24889175443</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7857,42 +7857,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>910.72766100000001</v>
+        <v>6940.3686520000001</v>
       </c>
       <c r="I100">
-        <v>772.975281</v>
+        <v>5450.3286129999997</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-137.75238000000002</v>
+        <v>-1490.0400390000004</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>312.82780923148181</v>
+        <v>1248.662165629632</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>430.09006345370341</v>
+        <v>2765.1144224537047</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>97861.238228568371</v>
+        <v>1559157.2038748825</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>184977.46268161063</v>
+        <v>7645857.769261485</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>134544.13232245104</v>
+        <v>3452693.762954772</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>18975.718195664405</v>
+        <v>2220219.3178231227</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>85461.32116707768</v>
+        <v>1625814.6833398442</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7909,42 +7909,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>155.407578</v>
+        <v>3036.05249</v>
       </c>
       <c r="I101">
-        <v>226.01942399999999</v>
+        <v>3702.6525879999999</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>70.611845999999986</v>
+        <v>666.60009799999989</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>-234.1280477685182</v>
+        <v>-499.01385937036775</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-325.2300195462966</v>
+        <v>-1139.2017395462954</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>54815.942751897543</v>
+        <v>249014.83184370917</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>105774.56561408447</v>
+        <v>1297780.6033853053</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>76145.469552091439</v>
+        <v>568477.45665243338</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>4986.0327955277144</v>
+        <v>444355.69065360946</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>64830.41430005202</v>
+        <v>223352.31159225316</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7961,42 +7961,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>169.98820499999999</v>
+        <v>4194.0561520000001</v>
       </c>
       <c r="I102">
-        <v>76.502037000000001</v>
+        <v>3429.6477049999999</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-93.486167999999992</v>
+        <v>-764.40844700000025</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-383.64543476851816</v>
+        <v>-772.01874237036782</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>-310.64939254629661</v>
+        <v>18.801922453704719</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>147183.81961872533</v>
+        <v>596012.93857112434</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>96503.045089383086</v>
+        <v>353.51228795512571</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>119179.22126400002</v>
+        <v>-14515.436526854297</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>8739.6636073242225</v>
+        <v>584320.27384495223</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>163325.55129806933</v>
+        <v>555929.08944600564</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8013,42 +8013,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>365.843842</v>
+        <v>5031.2373049999997</v>
       </c>
       <c r="I103">
-        <v>550.21252400000003</v>
+        <v>4782.6220700000003</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>184.36868200000004</v>
+        <v>-248.6152349999993</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>90.065052231481843</v>
+        <v>580.95562262963267</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>-114.79375554629661</v>
+        <v>855.98307545370426</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>8111.7136334595525</v>
+        <v>337509.43546498416</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>13177.606312422904</v>
+        <v>732707.02546318201</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>-10338.905589125163</v>
+        <v>497288.18056063459</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>33991.810902417135</v>
+        <v>61809.535074104875</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>4840.6703910382412</v>
+        <v>368895.69361739722</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8065,42 +8065,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>50.775405999999997</v>
+        <v>2068.7717290000001</v>
       </c>
       <c r="I104">
-        <v>291.23001099999999</v>
+        <v>4169.2280270000001</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>240.45460499999999</v>
+        <v>2100.4562980000001</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>-168.9174607685182</v>
+        <v>-32.438420370367567</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-429.86219154629663</v>
+        <v>-2106.4825005462953</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>28533.108552483885</v>
+        <v>1052.2511161246775</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>184781.50372098503</v>
+        <v>4437268.525107773</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>72611.229876390818</v>
+        <v>68330.96485554376</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>57818.417065706017</v>
+        <v>4411916.6598078655</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>35875.233841292844</v>
+        <v>36.315117128975722</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8117,42 +8117,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>143.263992</v>
+        <v>1906.7017820000001</v>
       </c>
       <c r="I105">
-        <v>374.26599099999999</v>
+        <v>3305.9650879999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>231.00199899999998</v>
+        <v>1399.2633059999998</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-85.881480768518202</v>
+        <v>-895.70135937036775</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-337.37360554629663</v>
+        <v>-2268.5524475462953</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>7375.6287389933614</v>
+        <v>802280.92517792468</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>113820.94971930815</v>
+        <v>5146330.2072682865</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>28974.144816529919</v>
+        <v>2031945.5110701916</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>53361.923541995995</v>
+        <v>1957937.7995180492</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>11314.918679240134</v>
+        <v>755663.61161029537</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8169,42 +8169,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>88.639365999999995</v>
+        <v>1760.9794919999999</v>
       </c>
       <c r="I106">
-        <v>313.138733</v>
+        <v>2162.830078</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>224.49936700000001</v>
+        <v>401.85058600000002</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-147.00873876851819</v>
+        <v>-2038.8363693703677</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-391.99823154629661</v>
+        <v>-2414.2747375462955</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>21611.569274310423</v>
+        <v>4156853.7410673425</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>153662.61353542397</v>
+        <v>5828722.5083542336</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>57627.165619110623</v>
+        <v>4922311.1405614866</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>50399.965783400694</v>
+        <v>161483.89346854342</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>28055.869624298615</v>
+        <v>4049850.9657268273</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8221,42 +8221,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>83.112862000000007</v>
+        <v>1729.8131100000001</v>
       </c>
       <c r="I107">
-        <v>273.38980099999998</v>
+        <v>2034.4354249999999</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>190.27693899999997</v>
+        <v>304.62231499999984</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-186.75767076851821</v>
+        <v>-2167.231022370368</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-397.5247355462966</v>
+        <v>-2445.4411195462953</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>34878.427590882238</v>
+        <v>4696890.3043245105</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>158025.91537115304</v>
+        <v>5980182.2691678386</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>74240.793683497526</v>
+        <v>5299835.8576608552</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>36205.313515209709</v>
+        <v>92794.754795959132</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>42951.649173295162</v>
+        <v>4583105.1538990308</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8273,42 +8273,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>562.01641800000004</v>
+        <v>2446.6760250000002</v>
       </c>
       <c r="I108">
-        <v>144.117752</v>
+        <v>1857.3195800000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-417.89866600000005</v>
+        <v>-589.35644500000012</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-316.02971976851819</v>
+        <v>-2344.3468673703674</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>81.37882045370344</v>
+        <v>-1728.5782045462952</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>99874.783776968135</v>
+        <v>5495962.2345492551</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>6622.5124184361011</v>
+        <v>2987982.6092324937</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>-25718.125823076454</v>
+        <v>4052386.8988328013</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>174639.2950445796</v>
+        <v>347341.01926303818</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>113245.60644650333</v>
+        <v>5372821.0395673057</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8325,42 +8325,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>628.04901099999995</v>
+        <v>2899.2768550000001</v>
       </c>
       <c r="I109">
-        <v>63.232754</v>
+        <v>1627.963745</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-564.81625699999995</v>
+        <v>-1271.3131100000001</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-396.91471776851819</v>
+        <v>-2573.7027023703677</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>147.41141345370335</v>
+        <v>-1275.9773745462953</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>157541.29318126244</v>
+        <v>6623945.6001885328</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>21730.124816418673</v>
+        <v>1628118.2603540567</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>-58509.759566835011</v>
+        <v>3283986.4170332472</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>319017.40417148999</v>
+        <v>1616237.0236578723</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>174226.80341590833</v>
+        <v>6488688.8126600999</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8377,42 +8377,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>638.23699999999997</v>
+        <v>3496.6928710000002</v>
       </c>
       <c r="I110">
-        <v>107.564667</v>
+        <v>2217.858643</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-530.67233299999998</v>
+        <v>-1278.8342280000002</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-352.5828047685182</v>
+        <v>-1983.8078043703676</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>157.59940245370336</v>
+        <v>-678.5613585462952</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>124314.63421843502</v>
+        <v>3935493.4046807787</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>24837.57165376436</v>
+        <v>460445.51731219381</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>-55566.839346969224</v>
+        <v>1346135.3188282996</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>281613.12501166289</v>
+        <v>1635416.9827043563</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>139183.41150640187</v>
+        <v>3831397.4822309157</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8429,42 +8429,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>840.36370799999997</v>
+        <v>5647.0869140000004</v>
       </c>
       <c r="I111">
-        <v>718.05456500000003</v>
+        <v>4338.9814450000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-122.30914299999995</v>
+        <v>-1308.1054690000001</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>257.90709323148184</v>
+        <v>137.31499762963267</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>359.72611045370337</v>
+        <v>1471.832684453705</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>66516.068739112263</v>
+        <v>18855.408574026027</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>129402.87454214999</v>
+        <v>2166291.4510261999</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>92775.915506581601</v>
+        <v>202104.7015769764</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>14959.526461394436</v>
+        <v>1711139.9180277102</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>56366.816434912871</v>
+        <v>26806.601080223922</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68121223-95C0-4D2A-9D52-E83478B1EFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073E88C-4C33-4079-BB64-AC324A2B0C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33720" yWindow="-5310" windowWidth="19635" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-5865" windowWidth="28200" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</t>
+    <t xml:space="preserve"> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
   </si>
 </sst>
 </file>
@@ -701,16 +701,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulated v. observed monthly flows for 2010-18 for</a:t>
+              <a:t>Hayden</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Clackamas River near Oregon City (CW3M ver. 112)</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Br stream temp C126+</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -759,7 +754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909</c:v>
+                  <c:v> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,328 +778,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5960.4003910000001</c:v>
+                  <c:v>6.0904499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2950.9797359999998</c:v>
+                  <c:v>6.2590240000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2912.8481449999999</c:v>
+                  <c:v>7.6208429999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3974.0209960000002</c:v>
+                  <c:v>8.6489619999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3571.3859859999998</c:v>
+                  <c:v>10.696885999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4968.9931640000004</c:v>
+                  <c:v>11.717793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1818.7303469999999</c:v>
+                  <c:v>15.768941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1700.3396</c:v>
+                  <c:v>15.644231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2801.9565429999998</c:v>
+                  <c:v>16.883776000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3321.8996579999998</c:v>
+                  <c:v>14.679109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5166.482422</c:v>
+                  <c:v>9.4966369999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7502.8222660000001</c:v>
+                  <c:v>7.1689930000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7507.6538090000004</c:v>
+                  <c:v>6.9544560000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3060.244385</c:v>
+                  <c:v>5.5810089999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5352.3530270000001</c:v>
+                  <c:v>6.6961190000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6110.1235349999997</c:v>
+                  <c:v>8.0410819999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5833.8642579999996</c:v>
+                  <c:v>9.6525809999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5390.5234380000002</c:v>
+                  <c:v>11.176743999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2389.780518</c:v>
+                  <c:v>13.506534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1755.999268</c:v>
+                  <c:v>15.374900999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2695.3029790000001</c:v>
+                  <c:v>17.352678000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3040.6467290000001</c:v>
+                  <c:v>14.265934</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3690.8110350000002</c:v>
+                  <c:v>10.696535000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2987.686768</c:v>
+                  <c:v>6.6122670000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7371.248047</c:v>
+                  <c:v>6.4330860000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4390.1005859999996</c:v>
+                  <c:v>6.1842379999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6222.4101559999999</c:v>
+                  <c:v>6.6825609999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8236.3691409999992</c:v>
+                  <c:v>8.7176960000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5493.9223629999997</c:v>
+                  <c:v>10.669750000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3921.9711910000001</c:v>
+                  <c:v>10.914413</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2007.25415</c:v>
+                  <c:v>14.662554999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1760.7448730000001</c:v>
+                  <c:v>15.539147</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2707.818115</c:v>
+                  <c:v>17.543989</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3906.2761230000001</c:v>
+                  <c:v>14.280296999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7315.9121089999999</c:v>
+                  <c:v>10.230907</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7715.9614259999998</c:v>
+                  <c:v>7.1330799999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4524.669922</c:v>
+                  <c:v>6.4847799999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3103.8632809999999</c:v>
+                  <c:v>6.225994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3364.139404</c:v>
+                  <c:v>7.3793049999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4717.8833009999998</c:v>
+                  <c:v>9.0679949999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3659.5583499999998</c:v>
+                  <c:v>11.090636</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2512.1809079999998</c:v>
+                  <c:v>13.733128000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1843.2338870000001</c:v>
+                  <c:v>15.970813</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1738.14563</c:v>
+                  <c:v>15.091783</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2821.2172850000002</c:v>
+                  <c:v>16.564731999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4320.4731449999999</c:v>
+                  <c:v>13.51708</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4578.9379879999997</c:v>
+                  <c:v>9.5411929999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3081.631836</c:v>
+                  <c:v>6.266642</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3887.8046880000002</c:v>
+                  <c:v>6.2126669999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7767.5151370000003</c:v>
+                  <c:v>5.7544779999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9247.5214840000008</c:v>
+                  <c:v>7.3748680000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5424.5576170000004</c:v>
+                  <c:v>9.3415049999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4615.4169920000004</c:v>
+                  <c:v>11.304626000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2289.0847170000002</c:v>
+                  <c:v>13.751113999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1897.825317</c:v>
+                  <c:v>15.858978</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1751.573975</c:v>
+                  <c:v>15.562533999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2665.5375979999999</c:v>
+                  <c:v>17.309576</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3610.1889649999998</c:v>
+                  <c:v>14.739573999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8017.0810549999997</c:v>
+                  <c:v>9.8582649999999994</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9213.9423829999996</c:v>
+                  <c:v>7.8168530000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5602.4350590000004</c:v>
+                  <c:v>6.9616559999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3777.8066410000001</c:v>
+                  <c:v>6.916982</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2382.4440920000002</c:v>
+                  <c:v>8.7862369999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2523.5852049999999</c:v>
+                  <c:v>9.6646739999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1922.8122559999999</c:v>
+                  <c:v>12.621722999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1753.095581</c:v>
+                  <c:v>15.265497</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1682.553467</c:v>
+                  <c:v>15.771437000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1663.021851</c:v>
+                  <c:v>15.234439</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2118.2080080000001</c:v>
+                  <c:v>17.590731000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2337.5649410000001</c:v>
+                  <c:v>16.491432</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5508.9208980000003</c:v>
+                  <c:v>10.814403</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9190.25</c:v>
+                  <c:v>7.4575279999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7169.1220700000003</c:v>
+                  <c:v>7.1531960000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5924.7509769999997</c:v>
+                  <c:v>6.5485870000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6373.4882809999999</c:v>
+                  <c:v>7.5068450000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4194.9267579999996</c:v>
+                  <c:v>9.8931830000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2442.351807</c:v>
+                  <c:v>12.289350000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2037.419922</c:v>
+                  <c:v>14.915990000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1835.5972899999999</c:v>
+                  <c:v>15.57264</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1722.003418</c:v>
+                  <c:v>15.840978</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2674.9448240000002</c:v>
+                  <c:v>17.550526000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7716.7431640000004</c:v>
+                  <c:v>13.137869999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6201.298828</c:v>
+                  <c:v>10.271328</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4407.6435549999997</c:v>
+                  <c:v>7.2091130000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2092.0158689999998</c:v>
+                  <c:v>4.2981109999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5709.1704099999997</c:v>
+                  <c:v>4.6612730000000004</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12252.301758</c:v>
+                  <c:v>6.0570240000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9780.0673829999996</c:v>
+                  <c:v>8.1462880000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3554.7565920000002</c:v>
+                  <c:v>11.070387999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2334.2707519999999</c:v>
+                  <c:v>13.511892</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1821.548462</c:v>
+                  <c:v>15.970141999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1773.1451420000001</c:v>
+                  <c:v>14.042047</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2885.1335450000001</c:v>
+                  <c:v>15.172940000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5472.9624020000001</c:v>
+                  <c:v>11.8093</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7368.7504879999997</c:v>
+                  <c:v>7.9063020000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3392.8095699999999</c:v>
+                  <c:v>5.3714690000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6940.3686520000001</c:v>
+                  <c:v>5.9902819999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3036.05249</c:v>
+                  <c:v>5.8397410000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4194.0561520000001</c:v>
+                  <c:v>7.6749799999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5031.2373049999997</c:v>
+                  <c:v>8.8553180000000005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2068.7717290000001</c:v>
+                  <c:v>13.112306</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1906.7017820000001</c:v>
+                  <c:v>15.239114000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1760.9794919999999</c:v>
+                  <c:v>16.630796</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1729.8131100000001</c:v>
+                  <c:v>15.781086999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2446.6760250000002</c:v>
+                  <c:v>17.80415</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2899.2768550000001</c:v>
+                  <c:v>14.8276</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3496.6928710000002</c:v>
+                  <c:v>11.12496</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5647.0869140000004</c:v>
+                  <c:v>7.8121910000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1120,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_flow_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1149,328 +1144,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6244.5864259999998</c:v>
+                  <c:v>6.7575260000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3257.5834960000002</c:v>
+                  <c:v>7.0468979999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3293.4914549999999</c:v>
+                  <c:v>7.5625140000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4366.53125</c:v>
+                  <c:v>8.5006950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4256.8549800000001</c:v>
+                  <c:v>10.083938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6079.5747069999998</c:v>
+                  <c:v>11.837152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2735.7294919999999</c:v>
+                  <c:v>16.065334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2623.7639159999999</c:v>
+                  <c:v>15.599329000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1942.190918</c:v>
+                  <c:v>13.234444999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3342.4379880000001</c:v>
+                  <c:v>11.104032999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4682.6630859999996</c:v>
+                  <c:v>7.7684309999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8336.8554690000001</c:v>
+                  <c:v>6.5254580000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8025.0898440000001</c:v>
+                  <c:v>5.8123259999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3515.8793949999999</c:v>
+                  <c:v>5.5251479999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4831.7036129999997</c:v>
+                  <c:v>6.5961270000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6298.3862300000001</c:v>
+                  <c:v>7.4708329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5863.7412109999996</c:v>
+                  <c:v>8.912903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5519.5639650000003</c:v>
+                  <c:v>10.841665000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3505.0139159999999</c:v>
+                  <c:v>13.848522000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2787.0905760000001</c:v>
+                  <c:v>15.150067999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2632.1047359999998</c:v>
+                  <c:v>12.886526999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3061.5668949999999</c:v>
+                  <c:v>10.686559000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3975.163086</c:v>
+                  <c:v>7.3908750000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3496.0119629999999</c:v>
+                  <c:v>4.6762090000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9323.0996090000008</c:v>
+                  <c:v>5.7243950000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4295.6992190000001</c:v>
+                  <c:v>6.0212640000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6261.9121089999999</c:v>
+                  <c:v>6.2946020000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7925.6293949999999</c:v>
+                  <c:v>8.0125010000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6222.0864259999998</c:v>
+                  <c:v>9.9014100000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4844.2036129999997</c:v>
+                  <c:v>11.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3261.306885</c:v>
+                  <c:v>14.857324999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2980.991211</c:v>
+                  <c:v>15.432864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2823.5454100000002</c:v>
+                  <c:v>12.870347000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3689.7209469999998</c:v>
+                  <c:v>10.587904999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6776.8481449999999</c:v>
+                  <c:v>8.4551409999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8247.5019530000009</c:v>
+                  <c:v>6.7407919999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4287.7246089999999</c:v>
+                  <c:v>4.9180770000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3565.3015140000002</c:v>
+                  <c:v>6.1956850000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3775.4267580000001</c:v>
+                  <c:v>7.492057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5110.0322269999997</c:v>
+                  <c:v>8.5971530000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4004.1154790000001</c:v>
+                  <c:v>11.077218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3128.1423340000001</c:v>
+                  <c:v>13.704166000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2305.2048340000001</c:v>
+                  <c:v>16.750347000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2220.9914549999999</c:v>
+                  <c:v>15.772145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2836.9643550000001</c:v>
+                  <c:v>13.215868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3382.7624510000001</c:v>
+                  <c:v>9.9914310000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4123.8271480000003</c:v>
+                  <c:v>7.4102540000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3238.2590329999998</c:v>
+                  <c:v>4.2807459999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3759.3483890000002</c:v>
+                  <c:v>5.2900869999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7535.3227539999998</c:v>
+                  <c:v>5.9716139999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7875.0161129999997</c:v>
+                  <c:v>7.3243400000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5321.919922</c:v>
+                  <c:v>8.8320469999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4853.1923829999996</c:v>
+                  <c:v>11.221339</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3208.139404</c:v>
+                  <c:v>13.324306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2391.750732</c:v>
+                  <c:v>16.180609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2629.6972660000001</c:v>
+                  <c:v>15.435485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2412.9174800000001</c:v>
+                  <c:v>13.738193000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2910.2585450000001</c:v>
+                  <c:v>11.838914000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5873.5415039999998</c:v>
+                  <c:v>8.3758119999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8805.2763670000004</c:v>
+                  <c:v>7.792554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5431.6606449999999</c:v>
+                  <c:v>6.7203629999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4394.2041019999997</c:v>
+                  <c:v>7.6048359999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2779.251953</c:v>
+                  <c:v>8.8436210000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2909.0417480000001</c:v>
+                  <c:v>10.058611000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2317.9670409999999</c:v>
+                  <c:v>13.074730000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2099.8784179999998</c:v>
+                  <c:v>16.857534000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1917.755371</c:v>
+                  <c:v>18.027048000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1826.5020750000001</c:v>
+                  <c:v>17.185048999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1752.3474120000001</c:v>
+                  <c:v>14.390521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1729.244263</c:v>
+                  <c:v>11.777958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3132.5451659999999</c:v>
+                  <c:v>8.0507980000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8454.3652340000008</c:v>
+                  <c:v>7.1561149999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5990.5893550000001</c:v>
+                  <c:v>6.2070230000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5863.1181640000004</c:v>
+                  <c:v>7.2024429999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6886.216797</c:v>
+                  <c:v>7.5207629999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3833.6987300000001</c:v>
+                  <c:v>10.099689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2902.6779790000001</c:v>
+                  <c:v>12.167942999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2419.0139159999999</c:v>
+                  <c:v>14.868748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2062.8562010000001</c:v>
+                  <c:v>16.696805999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1955.5241699999999</c:v>
+                  <c:v>16.748556000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1880.517578</c:v>
+                  <c:v>14.161457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3738.2863769999999</c:v>
+                  <c:v>11.1876</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4100.7963870000003</c:v>
+                  <c:v>9.3414070000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5770.8666990000002</c:v>
+                  <c:v>6.1767459999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4150.578125</c:v>
+                  <c:v>4.7506050000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5957.5327150000003</c:v>
+                  <c:v>6.3771940000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8375.7197269999997</c:v>
+                  <c:v>7.0906229999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6519.3857420000004</c:v>
+                  <c:v>8.3418410000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6199.123047</c:v>
+                  <c:v>10.444659</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3566.188232</c:v>
+                  <c:v>13.197846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2445.352539</c:v>
+                  <c:v>16.418118</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3261.0795899999998</c:v>
+                  <c:v>14.948691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2321.0834960000002</c:v>
+                  <c:v>12.859022</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4142.7758789999998</c:v>
+                  <c:v>10.140311000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7005.9467770000001</c:v>
+                  <c:v>7.9655129999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3725.195068</c:v>
+                  <c:v>5.5748559999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5450.3286129999997</c:v>
+                  <c:v>6.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3702.6525879999999</c:v>
+                  <c:v>6.0133390000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3429.6477049999999</c:v>
+                  <c:v>7.0182650000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4782.6220700000003</c:v>
+                  <c:v>8.6028570000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4169.2280270000001</c:v>
+                  <c:v>11.752383999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3305.9650879999999</c:v>
+                  <c:v>13.440951999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2162.830078</c:v>
+                  <c:v>16.549931999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2034.4354249999999</c:v>
+                  <c:v>16.771944000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1857.3195800000001</c:v>
+                  <c:v>13.094060000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1627.963745</c:v>
+                  <c:v>10.210146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2217.858643</c:v>
+                  <c:v>7.540826</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4338.9814450000003</c:v>
+                  <c:v>6.1656829999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,6 +1598,7 @@
         <c:axId val="156437344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2690,7 +2686,7 @@
   <dimension ref="A1:Q3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I112"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,11 +2717,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>4175.2542295462954</v>
+        <v>11.033086749999997</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>4201.6664473703677</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2736,13 +2732,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>6.3258945137197962E-3</v>
+        <v>-7.074539696262698E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2757,10 +2753,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2794,7 +2790,7 @@
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.68604750293554284</v>
+        <v>0.77191968357225682</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2810,42 +2806,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5960.4003910000001</v>
+        <v>6.0904499999999997</v>
       </c>
       <c r="I4">
-        <v>6244.5864259999998</v>
+        <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>284.18603499999972</v>
+        <v>0.66707600000000067</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>2042.9199786296322</v>
+        <v>-3.4950206481481469</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>1785.1461614537047</v>
+        <v>-4.9426367499999975</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>4173522.0390840969</v>
+        <v>12.215169330981894</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>3186746.8177528963</v>
+        <v>24.429658042450537</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3646910.7580077723</v>
+        <v>17.27461749754584</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>80761.70248902106</v>
+        <v>0.44499038977600092</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>4282135.7392799128</v>
+        <v>18.280419726940536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2850,7 @@
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.560259982059507</v>
+        <v>0.467262019644548</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2870,42 +2866,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>2950.9797359999998</v>
+        <v>6.2590240000000001</v>
       </c>
       <c r="I5">
-        <v>3257.5834960000002</v>
+        <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>306.60376000000042</v>
+        <v>0.78787399999999952</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-944.08295137036748</v>
+        <v>-3.2056486481481477</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-1224.2744935462956</v>
+        <v>-4.774062749999997</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>891292.6190681837</v>
+        <v>10.276183255374047</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>1498848.0355480385</v>
+        <v>22.791675140937535</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>1155816.6771546486</v>
+        <v>15.303967800711918</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>94005.865646137856</v>
+        <v>0.62074543987599928</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>842119.57520739548</v>
+        <v>15.889700750626542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2910,7 @@
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.78041347443809628</v>
+        <v>0.83797005925140111</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2930,42 +2926,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>2912.8481449999999</v>
+        <v>7.6208429999999998</v>
       </c>
       <c r="I6">
-        <v>3293.4914549999999</v>
+        <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>380.64330999999993</v>
+        <v>-5.8328999999999631E-2</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-908.17499237036782</v>
+        <v>-2.6900326481481471</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-1262.4060845462955</v>
+        <v>-3.4122437499999974</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>824781.81676691759</v>
+        <v>7.2362756481029331</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>1593669.1222995084</v>
+        <v>11.643407409414044</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>1146485.6362011377</v>
+        <v>9.1790470909394575</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>144889.32944775606</v>
+        <v>3.402272240999957E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>777505.59057558118</v>
+        <v>12.044875213042541</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2970,7 @@
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>4175.2542295462954</v>
+        <v>11.033086749999997</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2990,42 +2986,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>3974.0209960000002</v>
+        <v>8.6489619999999992</v>
       </c>
       <c r="I7">
-        <v>4366.53125</v>
+        <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>392.5102539999998</v>
+        <v>-0.14826699999999882</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>164.86480262963232</v>
+        <v>-1.751851648148147</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-201.2332335462952</v>
+        <v>-2.384124749999998</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>27180.403146107619</v>
+        <v>3.068984197119379</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>40494.814283497784</v>
+        <v>5.6840508235625533</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>-33176.27733113266</v>
+        <v>4.1766328726782858</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>154064.29949514437</v>
+        <v>2.1983103288999647E-2</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>36586.898553646934</v>
+        <v>6.4130079754680462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3030,7 @@
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>2250.5731140017551</v>
+        <v>3.9223313698973086</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3050,42 +3046,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>3571.3859859999998</v>
+        <v>10.696885999999999</v>
       </c>
       <c r="I8">
-        <v>4256.8549800000001</v>
+        <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>685.46899400000029</v>
+        <v>-0.61294799999999938</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>55.188532629632391</v>
+        <v>-0.16860864814814747</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-603.86824354629562</v>
+        <v>-0.33620074999999794</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>3045.774133811999</v>
+        <v>2.8428876230345793E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>364656.85556368821</v>
+        <v>0.11303094430056111</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>-33326.602262953536</v>
+        <v>5.668635396389294E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>469867.74173537246</v>
+        <v>0.37570525070399924</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>6658.6824746077837</v>
+        <v>0.90088334962655736</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3090,7 @@
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>4201.6664473703677</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3110,42 +3106,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>4968.9931640000004</v>
+        <v>11.717793</v>
       </c>
       <c r="I9">
-        <v>6079.5747069999998</v>
+        <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1110.5815429999993</v>
+        <v>0.11935899999999933</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1877.9082596296321</v>
+        <v>1.5846053518518524</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>793.73893445370504</v>
+        <v>0.68470625000000318</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>3526539.4315851936</v>
+        <v>2.5109741211175329</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>630021.49606770312</v>
+        <v>0.46882264878906688</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1490568.9010002359</v>
+        <v>1.0849891881964173</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1233391.3636522593</v>
+        <v>1.4246570880999839E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>3626436.4808495045</v>
+        <v>0.64652092625756652</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3150,7 @@
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>1890.788540052831</v>
+        <v>3.6942891261951312</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3169,42 +3165,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1818.7303469999999</v>
+        <v>15.768941</v>
       </c>
       <c r="I10">
-        <v>2735.7294919999999</v>
+        <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>916.999145</v>
+        <v>0.29639300000000013</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-1465.9369553703677</v>
+        <v>5.8127873518518527</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2356.5238825462957</v>
+        <v>4.7358542500000027</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>2148971.1571205435</v>
+        <v>33.788496797848872</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>5553204.8090110673</v>
+        <v>22.428315477243089</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>3454515.4456374748</v>
+        <v>27.528513684613859</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>840887.43193073105</v>
+        <v>8.7848810449000073E-2</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>2072231.4700077309</v>
+        <v>25.323512385132592</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,42 +3217,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>1700.3396</v>
+        <v>15.644231</v>
       </c>
       <c r="I11">
-        <v>2623.7639159999999</v>
+        <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>923.42431599999986</v>
+        <v>-4.4901999999998665E-2</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-1577.9025313703678</v>
+        <v>5.3467823518518536</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-2474.9146295462951</v>
+        <v>4.6111442500000024</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>2489776.3985050144</v>
+        <v>28.588081518074439</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>6125202.4235422751</v>
+        <v>21.262651294308085</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>3905174.0588866551</v>
+        <v>24.654784697743164</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>852712.46738006757</v>
+        <v>2.0161896039998803E-3</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>2407122.1930279825</v>
+        <v>20.850568285685096</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3261,7 @@
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.88341013942454627</v>
+        <v>0.91540704566405928</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3281,42 +3277,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2801.9565429999998</v>
+        <v>16.883776000000001</v>
       </c>
       <c r="I12">
-        <v>1942.190918</v>
+        <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-859.76562499999977</v>
+        <v>-3.6493310000000019</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-2259.4755293703674</v>
+        <v>2.9818983518518518</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-1373.2976865462956</v>
+        <v>5.8506892500000038</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>5105229.6678235019</v>
+        <v>8.8917177807767906</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>1885946.5358734075</v>
+        <v>34.230564700065607</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>3102932.5172922923</v>
+        <v>17.446160631772358</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>739196.92993164028</v>
+        <v>13.317616747561013</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>4986571.7533741063</v>
+        <v>4.8459781448430714</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,42 +3329,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>3321.8996579999998</v>
+        <v>14.679109</v>
       </c>
       <c r="I13">
-        <v>3342.4379880000001</v>
+        <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>20.538330000000315</v>
+        <v>-3.575076000000001</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-859.22845937036755</v>
+        <v>0.85148635185185206</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-853.35457154629557</v>
+        <v>3.6460222500000032</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>738273.54539197532</v>
+        <v>0.725029007389976</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>728214.02477896167</v>
+        <v>13.293478247495086</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>733226.53380638361</v>
+        <v>3.1045381844231841</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>421.82299918891295</v>
+        <v>12.781168405776008</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>693582.8921832972</v>
+        <v>5.0333703890628138E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,42 +3381,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>5166.482422</v>
+        <v>9.4966369999999998</v>
       </c>
       <c r="I14">
-        <v>4682.6630859999996</v>
+        <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-483.81933600000048</v>
+        <v>-1.7282060000000001</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>480.99663862963189</v>
+        <v>-2.4841156481481477</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>991.22819245370465</v>
+        <v>-1.5364497499999974</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>231357.76637300468</v>
+        <v>6.1708305533744916</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>982533.32951503852</v>
+        <v>2.3606778342750543</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>476777.42868515779</v>
+        <v>3.8167188665683032</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>234081.14988748136</v>
+        <v>2.9866959784360003</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>257463.74760765577</v>
+        <v>10.657977166008047</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,42 +3433,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7502.8222660000001</v>
+        <v>7.1689930000000004</v>
       </c>
       <c r="I15">
-        <v>8336.8554690000001</v>
+        <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>834.03320299999996</v>
+        <v>-0.64353499999999997</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>4135.1890216296324</v>
+        <v>-3.7270886481481469</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>3327.5680364537047</v>
+        <v>-3.8640937499999968</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>17099788.244606238</v>
+        <v>13.891189791154781</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>11072709.037228364</v>
+        <v>14.931220508789037</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>13760122.813069033</v>
+        <v>14.401819951005191</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>695611.38370643917</v>
+        <v>0.41413729622499995</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>17318924.87622261</v>
+        <v>20.318716947826534</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,42 +3485,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>7507.6538090000004</v>
+        <v>6.9544560000000004</v>
       </c>
       <c r="I16">
-        <v>8025.0898440000001</v>
+        <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>517.43603499999972</v>
+        <v>-1.1421300000000008</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>3823.4233966296324</v>
+        <v>-4.4402206481481477</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3332.399579453705</v>
+        <v>-4.0786307499999968</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>14618566.469894875</v>
+        <v>19.715559404241155</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>11104886.95714323</v>
+        <v>16.635228794845535</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>12741174.519002043</v>
+        <v>18.110020472321953</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>267740.05031652091</v>
+        <v>1.3044609369000018</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>14821234.258316133</v>
+        <v>27.256342808740538</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3541,42 +3537,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>3060.244385</v>
+        <v>5.5810089999999999</v>
       </c>
       <c r="I17">
-        <v>3515.8793949999999</v>
+        <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>455.63500999999997</v>
+        <v>-5.5861000000000161E-2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-685.78705237036775</v>
+        <v>-4.7273986481481476</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1115.0098445462954</v>
+        <v>-5.4520777499999973</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>470303.88119883754</v>
+        <v>22.348297978512932</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>1243246.9534351539</v>
+        <v>29.725151792045033</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>764659.31465534586</v>
+        <v>25.774144984948581</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>207603.26233770006</v>
+        <v>3.120451321000018E-3</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>434775.17243295454</v>
+        <v>30.337389273751533</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3593,42 +3589,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5352.3530270000001</v>
+        <v>6.6961190000000004</v>
       </c>
       <c r="I18">
-        <v>4831.7036129999997</v>
+        <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-520.64941400000043</v>
+        <v>-9.9992000000000303E-2</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>630.037165629632</v>
+        <v>-3.6564196481481472</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>1177.0987974537047</v>
+        <v>-4.3369677499999968</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>396946.83007462032</v>
+        <v>13.36940464336382</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>1385561.5789669577</v>
+        <v>18.809289264540034</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>741615.99001378042</v>
+        <v>15.857774094484849</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>271075.81229854387</v>
+        <v>9.9984000640000598E-3</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>430925.79303674848</v>
+        <v>19.686611823120035</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3645,42 +3641,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>6110.1235349999997</v>
+        <v>8.0410819999999994</v>
       </c>
       <c r="I19">
-        <v>6298.3862300000001</v>
+        <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>188.26269500000035</v>
+        <v>-0.57024899999999956</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>2096.7197826296324</v>
+        <v>-2.7817136481481475</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>1934.8693054537043</v>
+        <v>-2.9920047499999978</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>4396233.8468704531</v>
+        <v>7.7379308202936752</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>3743719.2291869</v>
+        <v>8.952092424022549</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>4056878.7495476389</v>
+        <v>8.3229004483990803</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>35442.842328663159</v>
+        <v>0.32518392200099949</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>4507689.4913505502</v>
+        <v>12.689651779389044</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3697,42 +3693,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>5833.8642579999996</v>
+        <v>9.6525809999999996</v>
       </c>
       <c r="I20">
-        <v>5863.7412109999996</v>
+        <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>29.876952999999958</v>
+        <v>-0.73967799999999961</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>1662.0747636296319</v>
+        <v>-1.3396436481481473</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>1658.6100284537042</v>
+        <v>-1.3805057499999975</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>2762492.5198944965</v>
+        <v>1.7946451040236771</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2750987.2264871974</v>
+        <v>1.9057961257830558</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>2756733.8709959276</v>
+        <v>1.8493857592194909</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>892.63232056420645</v>
+        <v>0.5471235436839994</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>2850988.2865386414</v>
+        <v>4.4951791337640508</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3749,42 +3745,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>5390.5234380000002</v>
+        <v>11.176743999999999</v>
       </c>
       <c r="I21">
-        <v>5519.5639650000003</v>
+        <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>129.04052700000011</v>
+        <v>-0.33507899999999857</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>1317.8975176296326</v>
+        <v>0.58911835185185346</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>1215.2692084537048</v>
+        <v>0.14365725000000218</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>1736853.8669743477</v>
+        <v>0.34706043248864421</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>1476879.2490156943</v>
+        <v>2.0637405477563125E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>1601600.273072866</v>
+        <v>8.4631122351570956E-2</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>16651.457608437759</v>
+        <v>0.11227793624099905</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>1807168.66483561</v>
+        <v>3.664228637306112E-2</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3801,42 +3797,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>2389.780518</v>
+        <v>13.506534</v>
       </c>
       <c r="I22">
-        <v>3505.0139159999999</v>
+        <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1115.2333979999999</v>
+        <v>0.34198800000000062</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-696.6525313703678</v>
+        <v>3.5959753518518536</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-1785.4737115462954</v>
+        <v>2.4734472500000031</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>485324.74946474127</v>
+        <v>12.931038731126062</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>3187916.3746229038</v>
+        <v>6.1179412985325774</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>1243854.7808439725</v>
+        <v>8.8944553451057615</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>1243745.5320146261</v>
+        <v>0.11695579214400043</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>449222.07790263649</v>
+        <v>7.9266756469425834</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3853,42 +3849,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>1755.999268</v>
+        <v>15.374900999999999</v>
       </c>
       <c r="I23">
-        <v>2787.0905760000001</v>
+        <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>1031.091308</v>
+        <v>-0.22483300000000028</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-1414.5758713703676</v>
+        <v>4.8975213518518519</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-2419.2549615462954</v>
+        <v>4.3418142500000023</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>2001024.8958632348</v>
+        <v>23.985715391844792</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>5852794.5689663673</v>
+        <v>18.851350981503082</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>3422219.6952964361</v>
+        <v>21.264127995149646</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>1063149.2854331508</v>
+        <v>5.054987788900013E-2</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>1926998.329026999</v>
+        <v>16.949534612851579</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3905,42 +3901,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>2695.3029790000001</v>
+        <v>17.352678000000001</v>
       </c>
       <c r="I24">
-        <v>2632.1047359999998</v>
+        <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-63.198243000000275</v>
+        <v>-4.4661510000000018</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-1569.5617113703679</v>
+        <v>2.6339803518518519</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-1479.9512505462953</v>
+        <v>6.3195912500000038</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>2463523.9657998779</v>
+        <v>6.9378524939416053</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>2190255.7039935435</v>
+        <v>39.937233567076611</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>2322874.8175521595</v>
+        <v>16.645679184234893</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>3994.0179182870838</v>
+        <v>19.946504754801015</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>2381310.3594321888</v>
+        <v>3.4352407603200699</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3957,42 +3953,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>3040.6467290000001</v>
+        <v>14.265934</v>
       </c>
       <c r="I25">
-        <v>3061.5668949999999</v>
+        <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>20.920165999999881</v>
+        <v>-3.5793749999999989</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-1140.0995523703677</v>
+        <v>0.4340123518518535</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-1134.6075005462953</v>
+        <v>3.2328472500000025</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1299826.9893151128</v>
+        <v>0.18836672155997708</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>1287334.1802959116</v>
+        <v>10.451301341832579</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>1293565.5034888932</v>
+        <v>1.4030956381502981</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>437.65334546755105</v>
+        <v>12.811925390624992</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>1240299.4791288322</v>
+        <v>0.12008148152005997</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4009,42 +4005,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>3690.8110350000002</v>
+        <v>10.696535000000001</v>
       </c>
       <c r="I26">
-        <v>3975.163086</v>
+        <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>284.35205099999985</v>
+        <v>-3.3056600000000005</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-226.50336137036766</v>
+        <v>-2.861671648148147</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-484.44319454629522</v>
+        <v>-0.33655174999999637</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>51303.772712075363</v>
+        <v>8.1891646218149319</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>234685.20874221963</v>
+        <v>0.11326708042806007</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>109728.01195773482</v>
+        <v>0.9631006011096328</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>80856.088907906509</v>
+        <v>10.927388035600003</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>40036.46572566418</v>
+        <v>13.265706431838039</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4061,42 +4057,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>2987.686768</v>
+        <v>6.6122670000000001</v>
       </c>
       <c r="I27">
-        <v>3496.0119629999999</v>
+        <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>508.32519499999989</v>
+        <v>-1.9360580000000001</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-705.65448437036775</v>
+        <v>-5.5763376481481473</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1187.5674615462954</v>
+        <v>-4.4208197499999971</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>497948.25131200958</v>
+        <v>31.095541566154409</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1410316.4757235118</v>
+        <v>19.543647261990035</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>838012.30473247764</v>
+        <v>24.651983607601863</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>258394.50387178792</v>
+        <v>3.7483205793640004</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>461370.05666294869</v>
+        <v>40.409894728445025</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4113,42 +4109,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>7371.248047</v>
+        <v>6.4330860000000003</v>
       </c>
       <c r="I28">
-        <v>9323.0996090000008</v>
+        <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>1951.8515620000007</v>
+        <v>-0.70869099999999996</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>5121.4331616296331</v>
+        <v>-4.528151648148147</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>3195.9938174537047</v>
+        <v>-4.6000007499999969</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>26229077.629039701</v>
+        <v>20.50415734862678</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>10214376.481202304</v>
+        <v>21.160006900000532</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>16368068.721070686</v>
+        <v>20.829500977595199</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>3809724.5200818428</v>
+        <v>0.50224293348099991</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>26500312.050762866</v>
+        <v>28.182208096518028</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4165,42 +4161,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>4390.1005859999996</v>
+        <v>6.1842379999999997</v>
       </c>
       <c r="I29">
-        <v>4295.6992190000001</v>
+        <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-94.401366999999482</v>
+        <v>-0.16297399999999929</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>94.032771629632407</v>
+        <v>-4.2312826481481469</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>214.84635645370417</v>
+        <v>-4.8488487499999975</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>8842.1621403506015</v>
+        <v>17.903752848519595</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>46158.95688143211</v>
+        <v>23.511334200376538</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>20202.598371869764</v>
+        <v>20.516849579369822</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>8911.618091468592</v>
+        <v>2.6560524675999769E-2</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>14506.995484503035</v>
+        <v>25.11836727741753</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4217,42 +4213,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>6222.4101559999999</v>
+        <v>6.6825609999999998</v>
       </c>
       <c r="I30">
-        <v>6261.9121089999999</v>
+        <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>39.501952999999958</v>
+        <v>-0.3879589999999995</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>2060.2456616296322</v>
+        <v>-3.9579446481481471</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>2047.1559264537045</v>
+        <v>-4.3505257499999974</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>4244612.1862637205</v>
+        <v>15.665325837804559</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>4190847.3872145251</v>
+        <v>18.92707430141304</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4217644.1161556356</v>
+        <v>17.219140108843192</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1560.4042908142058</v>
+        <v>0.15051218568099961</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>4354141.1058862302</v>
+        <v>22.453237725982532</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4269,42 +4265,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>8236.3691409999992</v>
+        <v>8.7176960000000001</v>
       </c>
       <c r="I31">
-        <v>7925.6293949999999</v>
+        <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-310.73974599999929</v>
+        <v>-0.70519499999999979</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>3723.9629476296323</v>
+        <v>-2.240045648148147</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>4061.1149114537038</v>
+        <v>-2.3153907499999971</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>13867900.035318378</v>
+        <v>5.0178045057874519</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>16492654.324031625</v>
+        <v>5.3610343251855488</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>15123441.456319788</v>
+        <v>5.1865809732999679</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>96559.189744144067</v>
+        <v>0.4972999880249997</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>14065313.881651903</v>
+        <v>9.1239382731030432</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4321,42 +4317,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>5493.9223629999997</v>
+        <v>10.669750000000001</v>
       </c>
       <c r="I32">
-        <v>6222.0864259999998</v>
+        <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>728.16406300000017</v>
+        <v>-0.76834000000000024</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>2020.4199786296322</v>
+        <v>-0.35113664814814705</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>1318.6681334537043</v>
+        <v>-0.36333674999999666</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>4082096.8900457635</v>
+        <v>0.12329694567271562</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>1738885.6461862766</v>
+        <v>0.13201359390056008</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>2664263.4420121103</v>
+        <v>0.12758084854404009</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>530222.90264466824</v>
+        <v>0.59034635560000037</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>4189522.0404394963</v>
+        <v>1.2806922664905556</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4373,42 +4369,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>3921.9711910000001</v>
+        <v>10.914413</v>
       </c>
       <c r="I33">
-        <v>4844.2036129999997</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>922.23242199999959</v>
+        <v>0.72933700000000101</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>642.537165629632</v>
+        <v>1.3912033518518534</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-253.2830385462953</v>
+        <v>-0.11867374999999747</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>412854.00921536115</v>
+        <v>1.9354467662038317</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>64152.297615244112</v>
+        <v>1.40834589390619E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-162743.76568959741</v>
+        <v>-0.16509931877682538</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>850512.64018798538</v>
+        <v>0.53193245956900148</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>447493.27762309107</v>
+        <v>0.37290960490056685</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4425,42 +4421,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>2007.25415</v>
+        <v>14.662554999999999</v>
       </c>
       <c r="I34">
-        <v>3261.306885</v>
+        <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1254.052735</v>
+        <v>0.19477000000000011</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>-940.35956237036771</v>
+        <v>4.6047783518518521</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-2168.0000795462956</v>
+        <v>3.6294682500000022</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>884276.10654138948</v>
+        <v>21.20398366968346</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>4700224.3449127441</v>
+        <v>13.173039777758078</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>2038699.6060210769</v>
+        <v>16.712896826333637</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>1572648.2621609801</v>
+        <v>3.7935352900000045E-2</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>835299.74860322487</v>
+        <v>14.62479819276308</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4477,42 +4473,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1760.7448730000001</v>
+        <v>15.539147</v>
       </c>
       <c r="I35">
-        <v>2980.991211</v>
+        <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>1220.2463379999999</v>
+        <v>-0.10628299999999946</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-1220.6752363703677</v>
+        <v>5.180317351851853</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-2414.5093565462953</v>
+        <v>4.5060602500000027</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>1490048.0326878529</v>
+        <v>26.835687865897395</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>5829855.4328496046</v>
+        <v>20.304578976630086</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>2947331.7795206131</v>
+        <v>23.342822101564913</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>1489001.12540241</v>
+        <v>1.1296076088999886E-2</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>1426264.1574673092</v>
+        <v>19.35803984961759</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4529,42 +4525,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>2707.818115</v>
+        <v>17.543989</v>
       </c>
       <c r="I36">
-        <v>2823.5454100000002</v>
+        <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>115.72729500000014</v>
+        <v>-4.6736419999999992</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-1378.1210373703675</v>
+        <v>2.6178003518518533</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-1467.4361145462954</v>
+        <v>6.5109022500000027</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>1899217.5936427778</v>
+        <v>6.8528786821556871</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>2153368.7502747281</v>
+        <v>42.391848109055097</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>2022304.580453282</v>
+        <v>17.04424220092303</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>13392.806808017058</v>
+        <v>21.842929544163994</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>1827116.7328392388</v>
+        <v>3.3755252262300752</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4581,42 +4577,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>3906.2761230000001</v>
+        <v>14.280296999999999</v>
       </c>
       <c r="I37">
-        <v>3689.7209469999998</v>
+        <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-216.5551760000003</v>
+        <v>-3.6923919999999999</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-511.94550037036788</v>
+        <v>0.33535835185185192</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-268.97810654629529</v>
+        <v>3.247210250000002</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>262088.19534946635</v>
+        <v>0.11246522415679051</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>72349.221801230189</v>
+        <v>10.544374407705075</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>137702.13134451726</v>
+        <v>1.0889790775564407</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>46896.14425239111</v>
+        <v>13.633758681663998</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>235742.56846018092</v>
+        <v>0.19818679053306065</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4633,42 +4629,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>7315.9121089999999</v>
+        <v>10.230907</v>
       </c>
       <c r="I38">
-        <v>6776.8481449999999</v>
+        <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-539.06396399999994</v>
+        <v>-1.7757660000000008</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>2575.1816976296323</v>
+        <v>-1.797405648148148</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>3140.6578794537045</v>
+        <v>-0.80217974999999697</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>6631560.7758066347</v>
+        <v>3.230667063994864</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>9863731.9157746397</v>
+        <v>0.64349235131005766</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>8087764.6896854714</v>
+        <v>1.4418424134800638</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>290589.95728339325</v>
+        <v>3.153344886756003</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>6768290.9009257369</v>
+        <v>6.6458042899430509</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4685,42 +4681,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>7715.9614259999998</v>
+        <v>7.1330799999999996</v>
       </c>
       <c r="I39">
-        <v>8247.5019530000009</v>
+        <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>531.54052700000102</v>
+        <v>-0.39228799999999975</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>4045.8355056296332</v>
+        <v>-3.5117546481481474</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>3540.7071964537045</v>
+        <v>-3.9000067499999975</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>16368784.938613391</v>
+        <v>12.332420708790119</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>12536607.451019052</v>
+        <v>15.210052650045544</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>14325118.890450755</v>
+        <v>13.695866832121641</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>282535.33184343879</v>
+        <v>0.1538898749439998</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>16583201.521173887</v>
+        <v>18.423794220877539</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4737,42 +4733,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4524.669922</v>
+        <v>6.4847799999999998</v>
       </c>
       <c r="I40">
-        <v>4287.7246089999999</v>
+        <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-236.94531300000017</v>
+        <v>-1.5667029999999995</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>86.058161629632195</v>
+        <v>-5.3344696481481471</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>349.41569245370465</v>
+        <v>-4.5483067499999974</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>7406.0071830718989</v>
+        <v>28.456566427013815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>122091.32613290192</v>
+        <v>20.687094292095537</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>30070.072137110768</v>
+        <v>24.262804308342329</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>56143.08135266805</v>
+        <v>2.4545582902089986</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>12649.586254460271</v>
+        <v>37.393344242595028</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4789,42 +4785,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>3103.8632809999999</v>
+        <v>6.225994</v>
       </c>
       <c r="I41">
-        <v>3565.3015140000002</v>
+        <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>461.43823300000031</v>
+        <v>-3.0308999999999919E-2</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-636.36493337036745</v>
+        <v>-4.0568616481481472</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1071.3909485462955</v>
+        <v>-4.8070927499999971</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>404960.32842347218</v>
+        <v>16.458126432215302</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1147878.5646269307</v>
+        <v>23.108140707102535</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>681795.6295852781</v>
+        <v>19.501710216565996</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>212925.24287416256</v>
+        <v>9.1863548099999515E-4</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>372042.31520229968</v>
+        <v>23.400455690903033</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4841,42 +4837,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>3364.139404</v>
+        <v>7.3793049999999996</v>
       </c>
       <c r="I42">
-        <v>3775.4267580000001</v>
+        <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>411.28735400000005</v>
+        <v>0.11275200000000041</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-426.23968937036761</v>
+        <v>-2.7604896481481473</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-811.11482554629538</v>
+        <v>-3.6537817499999976</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>181680.27279454746</v>
+        <v>7.6203030975330828</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>657907.26022099715</v>
+        <v>13.350121076633044</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>345729.33128455287</v>
+        <v>10.086226697467616</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>169157.28756032136</v>
+        <v>1.2713013504000092E-2</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>159862.00700310359</v>
+        <v>12.538891690385043</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4893,42 +4889,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>4717.8833009999998</v>
+        <v>9.0679949999999998</v>
       </c>
       <c r="I43">
-        <v>5110.0322269999997</v>
+        <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>392.14892599999985</v>
+        <v>-0.47084199999999932</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>908.36577962963202</v>
+        <v>-1.6553936481481468</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>542.62907145370446</v>
+        <v>-1.9650917499999974</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>825128.38960214914</v>
+        <v>2.7403281303292304</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>294446.30918670952</v>
+        <v>3.8615855859180521</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>492905.67954074754</v>
+        <v>3.2530004009783218</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>153780.78016295336</v>
+        <v>0.22169218896399936</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>873809.90452355763</v>
+        <v>5.9337732343890464</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4945,42 +4941,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>3659.5583499999998</v>
+        <v>11.090636</v>
       </c>
       <c r="I44">
-        <v>4004.1154790000001</v>
+        <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>344.55712900000026</v>
+        <v>-1.3417999999999708E-2</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-197.55096837036763</v>
+        <v>0.82467135185185292</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-515.6958795462956</v>
+        <v>5.7549250000002772E-2</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>39026.385104069988</v>
+        <v>0.68008283856516261</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>265942.24018102745</v>
+        <v>3.3119161755628189E-3</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>101876.22038897916</v>
+        <v>4.7459217795562531E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>118719.61514472282</v>
+        <v>1.8004272399999217E-4</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>29288.471938547103</v>
+        <v>1.9475672265627704E-3</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4997,42 +4993,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>2512.1809079999998</v>
+        <v>13.733128000000001</v>
       </c>
       <c r="I45">
-        <v>3128.1423340000001</v>
+        <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>615.9614260000003</v>
+        <v>-2.8961999999999932E-2</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-1073.5241133703676</v>
+        <v>3.4516193518518534</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-1663.0733215462956</v>
+        <v>2.7000412500000035</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>1152454.0219876338</v>
+        <v>11.913676150078208</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>2765812.872839028</v>
+        <v>7.2902227517015818</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>1785349.3129828991</v>
+        <v>9.3195146292982809</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>379408.47831995384</v>
+        <v>8.3879744399999612E-4</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>1096443.3217945555</v>
+        <v>7.1346643597805812</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5049,42 +5045,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>1843.2338870000001</v>
+        <v>15.970813</v>
       </c>
       <c r="I46">
-        <v>2305.2048340000001</v>
+        <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>461.97094700000002</v>
+        <v>0.77953400000000173</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-1896.4616133703676</v>
+        <v>6.4978003518518541</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-2332.0203425462951</v>
+        <v>4.9377262500000025</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>3596566.6509873373</v>
+        <v>42.221409412526079</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>5438318.8780497396</v>
+        <v>24.381140519939088</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>4422587.0612378642</v>
+        <v>32.08435936459815</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>213417.15587207684</v>
+        <v>0.60767325715600273</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>3497084.7417830643</v>
+        <v>32.687064766230108</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5101,42 +5097,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1738.14563</v>
+        <v>15.091783</v>
       </c>
       <c r="I47">
-        <v>2220.9914549999999</v>
+        <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>482.84582499999988</v>
+        <v>0.68036200000000058</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-1980.6749923703678</v>
+        <v>5.5195983518518528</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-2437.1085995462954</v>
+        <v>4.0586962500000023</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>3923073.4254013565</v>
+        <v>30.46596596576569</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>5939498.3259825055</v>
+        <v>16.473015249764082</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>4827120.0568121169</v>
+        <v>22.402373132167309</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>233140.09071993051</v>
+        <v>0.46289245104400079</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>3819142.9919773852</v>
+        <v>22.45867309689309</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5153,42 +5149,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>2821.2172850000002</v>
+        <v>16.564731999999999</v>
       </c>
       <c r="I48">
-        <v>2836.9643550000001</v>
+        <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>15.747069999999894</v>
+        <v>-3.348863999999999</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-1364.7020923703676</v>
+        <v>2.9633213518518531</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-1354.0369445462952</v>
+        <v>5.5316452500000022</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>1862411.8009200594</v>
+        <v>8.7812734343410934</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>1833416.0471962669</v>
+        <v>30.599099171847588</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>1847857.0513691085</v>
+        <v>16.392042480194888</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>247.97021358489667</v>
+        <v>11.214890090495993</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>1791019.7883131388</v>
+        <v>4.7645339853515765</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5205,42 +5201,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>4320.4731449999999</v>
+        <v>13.51708</v>
       </c>
       <c r="I49">
-        <v>3382.7624510000001</v>
+        <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-937.71069399999988</v>
+        <v>-3.5256489999999996</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-818.90399637036762</v>
+        <v>-0.26111564814814692</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>145.21891545370454</v>
+        <v>2.4839932500000028</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>670603.75527135911</v>
+        <v>6.8181381707826866E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>21088.533405550188</v>
+        <v>6.1702224660455762</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-118920.35021360918</v>
+        <v>-0.64860950746937263</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>879301.34564196144</v>
+        <v>12.430200871200997</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>628043.21906347037</v>
+        <v>1.0850467015080558</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5257,42 +5253,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>4578.9379879999997</v>
+        <v>9.5411929999999998</v>
       </c>
       <c r="I50">
-        <v>4123.8271480000003</v>
+        <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-455.11083999999937</v>
+        <v>-2.1309389999999997</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-77.839299370367371</v>
+        <v>-2.8422926481481472</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>403.68375845370429</v>
+        <v>-1.4918937499999974</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>6058.9565264696739</v>
+        <v>8.0786274977170081</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>162960.57683930866</v>
+        <v>2.2257469612890546</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>-31422.460925232957</v>
+        <v>4.2403986374431621</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>207125.87668550503</v>
+        <v>4.5409010217209991</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>2644.7447163692846</v>
+        <v>13.124917134472541</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5309,42 +5305,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>3081.631836</v>
+        <v>6.266642</v>
       </c>
       <c r="I51">
-        <v>3238.2590329999998</v>
+        <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>156.6271969999998</v>
+        <v>-1.9858960000000003</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-963.40741437036786</v>
+        <v>-5.9718006481481476</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1093.6223935462954</v>
+        <v>-4.7664447499999971</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>928153.84606379771</v>
+        <v>35.662402981222634</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1196009.9396659283</v>
+        <v>22.718995554802536</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>1053603.9224639693</v>
+        <v>28.46425784741232</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>24532.078840076745</v>
+        <v>3.9437829228160015</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>877959.9983508311</v>
+        <v>45.594105604110531</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5361,42 +5357,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>3887.8046880000002</v>
+        <v>6.2126669999999997</v>
       </c>
       <c r="I52">
-        <v>3759.3483890000002</v>
+        <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-128.45629899999994</v>
+        <v>-0.92257999999999996</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-442.31805837036745</v>
+        <v>-4.9624596481481476</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-287.44954154629522</v>
+        <v>-4.8204197499999974</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>195645.26476053178</v>
+        <v>24.626005759498636</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>82627.238935175308</v>
+        <v>23.23644656619004</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>127144.12309620957</v>
+        <v>23.921138496511368</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>16501.020752777385</v>
+        <v>0.85115385639999996</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>172977.6682005203</v>
+        <v>32.982046128500031</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5413,42 +5409,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>7767.5151370000003</v>
+        <v>5.7544779999999998</v>
       </c>
       <c r="I53">
-        <v>7535.3227539999998</v>
+        <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-232.19238300000052</v>
+        <v>0.217136</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>3333.6563066296321</v>
+        <v>-4.2809326481481476</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>3592.2609074537049</v>
+        <v>-5.2786087499999974</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>11113264.37073152</v>
+        <v>18.326384337980713</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>12904338.427220115</v>
+        <v>27.863710335576535</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>11975363.229192128</v>
+        <v>22.597368534675471</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>53913.302723218927</v>
+        <v>4.7148042495999999E-2</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>11290060.489024494</v>
+        <v>25.618506398992537</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5465,42 +5461,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>9247.5214840000008</v>
+        <v>7.3748680000000002</v>
       </c>
       <c r="I54">
-        <v>7875.0161129999997</v>
+        <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-1372.5053710000011</v>
+        <v>-5.0527999999999906E-2</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>3673.349665629632</v>
+        <v>-2.928206648148147</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>5072.2672544537054</v>
+        <v>-3.658218749999997</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>13493497.76598133</v>
+        <v>8.5743941742590053</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>25727895.100603331</v>
+        <v>13.382564422851541</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>18632211.223131649</v>
+        <v>10.712020464130195</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>1883770.9934238507</v>
+        <v>2.5530787839999907E-3</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>13688237.994256901</v>
+        <v>13.75480245563554</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5517,42 +5513,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>5424.5576170000004</v>
+        <v>9.3415049999999997</v>
       </c>
       <c r="I55">
-        <v>5321.919922</v>
+        <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-102.63769500000035</v>
+        <v>-0.50945800000000041</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>1120.2534746296324</v>
+        <v>-1.420499648148148</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>1249.303387453705</v>
+        <v>-1.6915817499999974</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>1254967.8474197644</v>
+        <v>2.0178192503890124</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>1560758.9539033021</v>
+        <v>2.8614488169330539</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>1399536.4606615829</v>
+        <v>2.402891280688825</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>10534.496434913097</v>
+        <v>0.2595474537640004</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>1314842.2102503339</v>
+        <v>4.8445759810800526</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5569,42 +5565,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>4615.4169920000004</v>
+        <v>11.304626000000001</v>
       </c>
       <c r="I56">
-        <v>4853.1923829999996</v>
+        <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>237.77539099999922</v>
+        <v>-8.3287000000000333E-2</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>651.52593562963193</v>
+        <v>0.96879235185185308</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>440.162762453705</v>
+        <v>0.27153925000000356</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>424486.04479806731</v>
+        <v>0.93855862100664467</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>193743.25745087673</v>
+        <v>7.3733564290564435E-2</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>286777.45563697355</v>
+        <v>0.26306514862759173</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>56537.136565202512</v>
+        <v>6.9367243690000554E-3</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>459600.13990821823</v>
+        <v>3.5438909630063714E-2</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5621,42 +5617,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>2289.0847170000002</v>
+        <v>13.751113999999999</v>
       </c>
       <c r="I57">
-        <v>3208.139404</v>
+        <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>919.05468699999983</v>
+        <v>-0.42680799999999941</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-993.52704337036766</v>
+        <v>3.0717593518518527</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-1886.1695125462952</v>
+        <v>2.7180272500000022</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>987095.98590826441</v>
+        <v>9.4357055156893139</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>3557635.4300591289</v>
+        <v>7.3876721317425744</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>1873960.4190954482</v>
+        <v>8.3491256237756808</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>844661.5176966677</v>
+        <v>0.1821650688639995</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>935311.08579144138</v>
+        <v>5.2496856515705757</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5673,42 +5669,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>1897.825317</v>
+        <v>15.858978</v>
       </c>
       <c r="I58">
-        <v>2391.750732</v>
+        <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>493.92541499999993</v>
+        <v>0.321631</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-1809.9157153703677</v>
+        <v>5.9280623518518532</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-2277.4289125462956</v>
+        <v>4.8258912500000033</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>3275794.8967446298</v>
+        <v>35.141923247443323</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>5186682.4517018022</v>
+        <v>23.289226356826596</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>4121954.3794563874</v>
+        <v>28.608184233256299</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>243962.31558292217</v>
+        <v>0.103446500161</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>3180884.7257598685</v>
+        <v>26.496985314245098</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5725,42 +5721,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1751.573975</v>
+        <v>15.562533999999999</v>
       </c>
       <c r="I59">
-        <v>2629.6972660000001</v>
+        <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>878.12329100000011</v>
+        <v>-0.12704899999999952</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-1571.9691813703676</v>
+        <v>5.1829383518518526</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-2423.6802545462951</v>
+        <v>4.5294472500000023</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>2471087.1071782233</v>
+        <v>26.862849959096799</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>5874225.9762775945</v>
+        <v>20.515892390532581</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>3809950.6656426638</v>
+        <v>23.475845864714916</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>771100.51419667085</v>
+        <v>1.6141448400999878E-2</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>2388746.3275664444</v>
+        <v>19.381110351603088</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5777,42 +5773,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>2665.5375979999999</v>
+        <v>17.309576</v>
       </c>
       <c r="I60">
-        <v>2412.9174800000001</v>
+        <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-252.62011799999982</v>
+        <v>-3.5713829999999991</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-1788.7489673703676</v>
+        <v>3.4856463518518535</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-1509.7166315462955</v>
+        <v>6.2764892500000027</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>3199622.8682685564</v>
+        <v>12.149730490178134</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>2279244.3075674931</v>
+        <v>39.394317305365597</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>2700504.0657003056</v>
+        <v>21.877621856699886</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>63816.924018333833</v>
+        <v>12.754776532688993</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>3105830.8188014016</v>
+        <v>7.3175998237890818</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5829,42 +5825,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>3610.1889649999998</v>
+        <v>14.739573999999999</v>
       </c>
       <c r="I61">
-        <v>2910.2585450000001</v>
+        <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-699.93041999999969</v>
+        <v>-2.9006599999999985</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-1291.4079023703675</v>
+        <v>1.5863673518518535</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-565.06526454629557</v>
+        <v>3.7064872500000021</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>1667734.3703046327</v>
+        <v>2.5165613750214626</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>319298.75319677498</v>
+        <v>13.738047734412579</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>729729.74799008842</v>
+        <v>5.8798503634551622</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>489902.59284137597</v>
+        <v>8.4138284355999904</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>1600214.0819207502</v>
+        <v>0.64935755684256835</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5881,42 +5877,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>8017.0810549999997</v>
+        <v>9.8582649999999994</v>
       </c>
       <c r="I62">
-        <v>5873.5415039999998</v>
+        <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-2143.5395509999998</v>
+        <v>-1.4824529999999996</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>1671.8750566296321</v>
+        <v>-1.8767346481481475</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>3841.8268254537043</v>
+        <v>-1.1748217499999978</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2795166.2049803357</v>
+        <v>3.5221329395597509</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>14759633.356775686</v>
+        <v>1.3802061442730573</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>6423054.441366652</v>
+        <v>2.2048286836230369</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>4594761.8067012811</v>
+        <v>2.1976668972089985</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2884179.6665713917</v>
+        <v>7.0611090969875487</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5933,42 +5929,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>9213.9423829999996</v>
+        <v>7.8168530000000001</v>
       </c>
       <c r="I63">
-        <v>8805.2763670000004</v>
+        <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-408.66601599999922</v>
+        <v>-2.4299000000000071E-2</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>4603.6099196296327</v>
+        <v>-2.4599926481481473</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>5038.6881534537042</v>
+        <v>-3.2162337499999971</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>21193224.292112354</v>
+        <v>6.0515638289429345</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>25388378.307754699</v>
+        <v>10.344159534639044</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>23196154.765159789</v>
+        <v>7.9119113797259395</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>167007.91263331161</v>
+        <v>5.9044140100000342E-4</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>21437104.993311375</v>
+        <v>10.501052503822544</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5985,42 +5981,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>5602.4350590000004</v>
+        <v>6.9616559999999996</v>
       </c>
       <c r="I64">
-        <v>5431.6606449999999</v>
+        <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-170.77441400000043</v>
+        <v>-0.24129299999999976</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>1229.9941976296323</v>
+        <v>-3.5321836481481474</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>1427.180829453705</v>
+        <v>-4.0714307499999975</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>1512885.7262025629</v>
+        <v>12.476321324245156</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>2036845.1199601653</v>
+        <v>16.576548352045542</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>1755424.139196303</v>
+        <v>14.381041119717539</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>29163.900477043546</v>
+        <v>5.8222311848999883E-2</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>1578557.0807932268</v>
+        <v>18.59958614381404</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6037,42 +6033,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>3777.8066410000001</v>
+        <v>6.916982</v>
       </c>
       <c r="I65">
-        <v>4394.2041019999997</v>
+        <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>616.39746099999957</v>
+        <v>0.68785399999999974</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>192.53765462963202</v>
+        <v>-2.6477106481481476</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-397.44758854629526</v>
+        <v>-4.1161047499999972</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>37070.748450279461</v>
+        <v>7.0103716763170842</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>157964.58564126521</v>
+        <v>16.942318312972539</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>-76523.626536906682</v>
+        <v>10.898254375468161</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>379945.82992724597</v>
+        <v>0.47314312531599967</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>47939.046647493378</v>
+        <v>11.752903204875546</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6089,42 +6085,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>2382.4440920000002</v>
+        <v>8.7862369999999999</v>
       </c>
       <c r="I66">
-        <v>2779.251953</v>
+        <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>396.80786099999978</v>
+        <v>5.7384000000000768E-2</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1422.4144943703677</v>
+        <v>-1.4089256481481467</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-1792.8101375462952</v>
+        <v>-2.2468497499999973</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>2023262.9937949087</v>
+        <v>1.9850714820096753</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>3214168.1892887661</v>
+        <v>5.0483337990750501</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>2550119.1252999827</v>
+        <v>3.1656442403102476</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>157456.47855139515</v>
+        <v>3.2929234560000881E-3</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>1948822.3561224395</v>
+        <v>4.7937602704230473</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6141,42 +6137,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>2523.5852049999999</v>
+        <v>9.6646739999999998</v>
       </c>
       <c r="I67">
-        <v>2909.0417480000001</v>
+        <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>385.45654300000024</v>
+        <v>0.39393700000000109</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1292.6246993703676</v>
+        <v>-0.19393564814814646</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1651.6690245462955</v>
+        <v>-1.3684127499999974</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>1670878.6134223333</v>
+        <v>3.7611035622641661E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>2728010.5666457112</v>
+        <v>1.8725534543625555</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>2134988.1763135036</v>
+        <v>0.26538401360543701</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>148576.74654151103</v>
+        <v>0.15518635996900085</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1603294.0484236272</v>
+        <v>0.94960298733805526</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6193,42 +6189,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>1922.8122559999999</v>
+        <v>12.621722999999999</v>
       </c>
       <c r="I68">
-        <v>2317.9670409999999</v>
+        <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>395.15478499999995</v>
+        <v>0.45300700000000127</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-1883.6994063703678</v>
+        <v>2.8221833518518533</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-2252.4419735462952</v>
+        <v>1.5886362500000022</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>3548323.4535600762</v>
+        <v>7.9647188714697617</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>5073494.8441931298</v>
+        <v>2.5237651348140693</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>4242923.6084528556</v>
+        <v>4.4834227768983652</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>156147.30410839617</v>
+        <v>0.20521534204900116</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>3449515.7007382028</v>
+        <v>4.1683071602705768</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6245,42 +6241,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>1753.095581</v>
+        <v>15.265497</v>
       </c>
       <c r="I69">
-        <v>2099.8784179999998</v>
+        <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>346.78283699999974</v>
+        <v>1.5920370000000013</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-2101.7880293703679</v>
+        <v>6.6049873518518538</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-2422.1586485462954</v>
+        <v>4.2324102500000027</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>4417512.9204045748</v>
+        <v>43.625857918122968</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>5866852.5187276155</v>
+        <v>17.913296524305085</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>5090864.052750512</v>
+        <v>27.955016169098162</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>120258.33603776839</v>
+        <v>2.534581809369004</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>4307184.7591514448</v>
+        <v>33.924185768032608</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6297,42 +6293,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>1682.553467</v>
+        <v>15.771437000000001</v>
       </c>
       <c r="I70">
-        <v>1917.755371</v>
+        <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>235.20190400000001</v>
+        <v>2.255611</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-2283.9110763703675</v>
+        <v>7.7745013518518533</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-2492.7007625462957</v>
+        <v>4.7383502500000034</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>5216249.804767251</v>
+        <v>60.442871269946295</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>6213557.0915988842</v>
+        <v>22.451963091675093</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>5693106.8816563459</v>
+        <v>36.83831042417259</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>55319.935645225225</v>
+        <v>5.0877809833210001</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>5096301.096337826</v>
+        <v>48.915493966501614</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6349,42 +6345,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>1663.021851</v>
+        <v>15.234439</v>
       </c>
       <c r="I71">
-        <v>1826.5020750000001</v>
+        <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>163.48022400000013</v>
+        <v>1.9506099999999993</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-2375.1643723703673</v>
+        <v>6.932502351851852</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-2512.2323785462954</v>
+        <v>4.2013522500000029</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>5641405.7957775211</v>
+        <v>48.059588858431461</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>6311311.5238163769</v>
+        <v>17.651360728580087</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>5966964.8406384271</v>
+        <v>29.125884354083091</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>26725.783639090219</v>
+        <v>3.8048793720999972</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>5516636.6834858628</v>
+        <v>37.84663952542509</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6401,42 +6397,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>2118.2080080000001</v>
+        <v>17.590731000000002</v>
       </c>
       <c r="I72">
-        <v>1752.3474120000001</v>
+        <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-365.86059599999999</v>
+        <v>-3.200210000000002</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-2449.3190353703676</v>
+        <v>4.1379743518518524</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-2057.0462215462953</v>
+        <v>6.5576442500000045</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>5999163.7370276283</v>
+        <v>17.122831736583759</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>4231439.15757789</v>
+        <v>43.002698109558125</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>5038362.4670700319</v>
+        <v>27.135363715068795</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>133853.9757054752</v>
+        <v>10.241344044100012</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>5870477.4465123164</v>
+        <v>11.27236474307308</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6453,42 +6449,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>2337.5649410000001</v>
+        <v>16.491432</v>
       </c>
       <c r="I73">
-        <v>1729.244263</v>
+        <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-608.32067800000004</v>
+        <v>-4.7134739999999997</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-2472.4221843703676</v>
+        <v>1.5254113518518526</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-1837.6892885462953</v>
+        <v>5.4583452500000025</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>6112871.4577667406</v>
+        <v>2.3268797923584965</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>3377101.9212377891</v>
+        <v>29.793532868197591</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>4543543.7649816582</v>
+        <v>8.3262218066766422</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>370054.04728237976</v>
+        <v>22.216837148675996</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>5982964.7564438088</v>
+        <v>0.5548331790765666</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6505,42 +6501,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>5508.9208980000003</v>
+        <v>10.814403</v>
       </c>
       <c r="I74">
-        <v>3132.5451659999999</v>
+        <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-2376.3757320000004</v>
+        <v>-2.7636050000000001</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-1069.1212813703678</v>
+        <v>-2.201748648148147</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>1333.6666684537049</v>
+        <v>-0.21868374999999673</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>1143020.314279017</v>
+        <v>4.8476971096221924</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>1778666.7825444045</v>
+        <v>4.7822582514061074E-2</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>-1425851.4174981746</v>
+        <v>0.48148665093446014</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>5647161.619638538</v>
+        <v>7.6375125960250001</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>1087242.1912015926</v>
+        <v>8.894046188376544</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6557,42 +6553,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>9190.25</v>
+        <v>7.4575279999999999</v>
       </c>
       <c r="I75">
-        <v>8454.3652340000008</v>
+        <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>-735.88476599999922</v>
+        <v>-0.30141300000000015</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>4252.6987866296331</v>
+        <v>-3.0964316481481475</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>5014.9957704537046</v>
+        <v>-3.5755587499999972</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>18085446.969801154</v>
+        <v>9.5878889516534525</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>25150182.577668548</v>
+        <v>12.784620374701543</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>21327266.427961212</v>
+        <v>11.071473273313021</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>541526.38883087365</v>
+        <v>9.0849796569000094E-2</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>18310790.988436799</v>
+        <v>15.030909950298042</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6609,42 +6605,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>7169.1220700000003</v>
+        <v>7.1531960000000003</v>
       </c>
       <c r="I76">
-        <v>5990.5893550000001</v>
+        <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-1178.5327150000003</v>
+        <v>-0.94617299999999993</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>1788.9229076296324</v>
+        <v>-4.0455236481481469</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>2993.867840453705</v>
+        <v>-3.8798907499999968</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>3200245.1694420581</v>
+        <v>16.366261587725891</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>8963244.6461029314</v>
+        <v>15.053552231935537</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>5355798.7622032901</v>
+        <v>15.696189781356237</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>1388939.360325272</v>
+        <v>0.8952433459289999</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>3295441.6177060176</v>
+        <v>23.290891319064031</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6661,42 +6657,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>5924.7509769999997</v>
+        <v>6.5485870000000004</v>
       </c>
       <c r="I77">
-        <v>5863.1181640000004</v>
+        <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>-61.63281299999926</v>
+        <v>0.65385599999999933</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>1661.4517166296328</v>
+        <v>-3.0501036481481476</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>1749.4967474537043</v>
+        <v>-4.4844997499999968</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>2760421.8066915534</v>
+        <v>9.3031322644466385</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>3060738.8693510904</v>
+        <v>20.110738007750033</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>2906704.3742949162</v>
+        <v>13.678189047594445</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>3798.6036382928778</v>
+        <v>0.42752766873599912</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>2848884.6612295411</v>
+        <v>14.673831539414042</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6713,42 +6709,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>6373.4882809999999</v>
+        <v>7.5068450000000002</v>
       </c>
       <c r="I78">
-        <v>6886.216797</v>
+        <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>512.72851600000013</v>
+        <v>1.3917999999999431E-2</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>2684.5503496296324</v>
+        <v>-2.7317836481481477</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>2198.2340514537045</v>
+        <v>-3.526241749999997</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>7206810.5796965817</v>
+        <v>7.4626419002896025</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>4832232.9449705677</v>
+        <v>12.43438087944304</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>5901269.9913978055</v>
+        <v>9.6329295520673011</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>262890.53111956239</v>
+        <v>1.9371072399998416E-4</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>7349318.0421351818</v>
+        <v>12.336418124814045</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6765,42 +6761,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>4194.9267579999996</v>
+        <v>9.8931830000000005</v>
       </c>
       <c r="I79">
-        <v>3833.6987300000001</v>
+        <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>-361.22802799999954</v>
+        <v>0.20650599999999919</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-367.96771737036761</v>
+        <v>-0.15285764814814762</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>19.672528453704217</v>
+        <v>-1.1399037499999967</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>135400.24102675874</v>
+        <v>2.3365460597382898E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>387.00837576180203</v>
+        <v>1.2993805592640548</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-7238.8553900131483</v>
+        <v>0.17424300634025353</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>130485.68821276845</v>
+        <v>4.2644728035999668E-2</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>116660.15927031935</v>
+        <v>0.87123135970505783</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6817,42 +6813,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>2442.351807</v>
+        <v>12.289350000000001</v>
       </c>
       <c r="I80">
-        <v>2902.6779790000001</v>
+        <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>460.32617200000004</v>
+        <v>-0.12140700000000137</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-1298.9884683703676</v>
+        <v>1.915396351851852</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-1732.9024225462954</v>
+        <v>1.2562632500000035</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>1687371.0409591936</v>
+        <v>3.6687431846873837</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>3002950.8060668195</v>
+        <v>1.5781973533005713</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>2251020.263698712</v>
+        <v>2.4062420460155578</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>211900.18462817362</v>
+        <v>1.4739659649000333E-2</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>1619450.3134544673</v>
+        <v>1.2878987081640674</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6869,42 +6865,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>2037.419922</v>
+        <v>14.915990000000001</v>
       </c>
       <c r="I81">
-        <v>2419.0139159999999</v>
+        <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>381.59399399999984</v>
+        <v>-4.7242000000000672E-2</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-1782.6525313703678</v>
+        <v>4.6162013518518528</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-2137.8343075462953</v>
+        <v>3.8829032500000036</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>3177850.0476011802</v>
+        <v>21.309314920838872</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>4570335.5265219482</v>
+        <v>15.076937648860591</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>3811015.7399978209</v>
+        <v>17.924263231759969</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>145613.97625687192</v>
+        <v>2.2318065640000635E-3</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>3084380.0389251905</v>
+        <v>14.712297224751584</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6921,42 +6917,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>1835.5972899999999</v>
+        <v>15.57264</v>
       </c>
       <c r="I82">
-        <v>2062.8562010000001</v>
+        <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>227.25891100000013</v>
+        <v>1.1241659999999989</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-2138.8102463703676</v>
+        <v>6.4442593518518514</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-2339.6569395462957</v>
+        <v>4.5395532500000026</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>4574509.2699788725</v>
+        <v>41.528478593930046</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>5473994.5947671384</v>
+        <v>20.607543709585588</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>5004082.2352931527</v>
+        <v>29.254058484541982</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>51646.612628905976</v>
+        <v>1.2637491955559974</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>4462225.4310062751</v>
+        <v>32.07771574282058</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6973,42 +6969,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>1722.003418</v>
+        <v>15.840978</v>
       </c>
       <c r="I83">
-        <v>1955.5241699999999</v>
+        <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>233.5207519999999</v>
+        <v>0.90757800000000088</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-2246.142277370368</v>
+        <v>6.4960093518518534</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-2453.2508115462952</v>
+        <v>4.8078912500000026</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>5045155.1301905429</v>
+        <v>42.198137499346736</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>6018439.5443525556</v>
+        <v>23.115818271826587</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>5510350.3648072984</v>
+        <v>31.232106522686713</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>54531.941614645461</v>
+        <v>0.82369782608400155</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>4927201.5372534012</v>
+        <v>32.666588747695606</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7025,42 +7021,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>2674.9448240000002</v>
+        <v>17.550526000000001</v>
       </c>
       <c r="I84">
-        <v>1880.517578</v>
+        <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-794.4272460000002</v>
+        <v>-3.389069000000001</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-2321.1488693703677</v>
+        <v>3.9089103518518531</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-1500.3094055462952</v>
+        <v>6.5174392500000042</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>5387732.0737793362</v>
+        <v>15.279580138814579</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>2250928.3123706779</v>
+        <v>42.477014377440618</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>3482441.4803895117</v>
+        <v>25.476085751890594</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>631114.64918714482</v>
+        <v>11.485788686761007</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>5265816.299949904</v>
+        <v>9.786700421085083</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7077,42 +7073,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>7716.7431640000004</v>
+        <v>13.137869999999999</v>
       </c>
       <c r="I85">
-        <v>3738.2863769999999</v>
+        <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-3978.4567870000005</v>
+        <v>-1.9502699999999997</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>-463.38007037036778</v>
+        <v>0.93505335185185245</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>3541.488934453705</v>
+        <v>2.1047832500000023</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>214721.08961644699</v>
+        <v>0.8743247708093842</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>12542143.87285804</v>
+        <v>4.4301125294805725</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-1641055.3916630365</v>
+        <v>1.9680846328341377</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>15828118.406026367</v>
+        <v>3.8035530728999989</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>190940.90415892104</v>
+        <v>2.3874344425563302E-2</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7129,42 +7125,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6201.298828</v>
+        <v>10.271328</v>
       </c>
       <c r="I86">
-        <v>4100.7963870000003</v>
+        <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-2100.5024409999996</v>
+        <v>-0.92992100000000022</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-100.87006037036736</v>
+        <v>-0.91113964814814707</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>2026.0445984537046</v>
+        <v>-0.76175874999999671</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>10174.769079121555</v>
+        <v>0.83017545842752927</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>4104856.714923433</v>
+        <v>0.58027639320155744</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>-204367.24095908186</v>
+        <v>0.69406859944876931</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>4412110.5046469569</v>
+        <v>0.86475306624100046</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>5543.970316648868</v>
+        <v>2.861780376560052</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7181,42 +7177,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4407.6435549999997</v>
+        <v>7.2091130000000003</v>
       </c>
       <c r="I87">
-        <v>5770.8666990000002</v>
+        <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>1363.2231440000005</v>
+        <v>-1.0323670000000007</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>1569.2002516296325</v>
+        <v>-4.0758006481481477</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>232.38932545370426</v>
+        <v>-3.8239737499999968</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>2462389.4297145018</v>
+        <v>16.612150923444862</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>54004.79858482768</v>
+        <v>14.622775240689039</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>364665.38797799329</v>
+        <v>15.585754688751489</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>1858377.3403372462</v>
+        <v>1.0657816226890013</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>2545979.1526761497</v>
+        <v>23.584045480110539</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7233,42 +7229,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>2092.0158689999998</v>
+        <v>4.2981109999999996</v>
       </c>
       <c r="I88">
-        <v>4150.578125</v>
+        <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>2058.5622560000002</v>
+        <v>0.45249400000000062</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-51.088322370367678</v>
+        <v>-5.5019416481481471</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-2083.2383605462956</v>
+        <v>-6.7349757499999976</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>2610.0166826186105</v>
+        <v>30.271361899627149</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>4339882.0668516178</v>
+        <v>45.359898353088028</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>106429.1529379054</v>
+        <v>37.055443578192794</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>4237678.5618278105</v>
+        <v>0.20475082003600056</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>608.91013557970007</v>
+        <v>39.469576939083026</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7285,42 +7281,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>5709.1704099999997</v>
+        <v>4.6612730000000004</v>
       </c>
       <c r="I89">
-        <v>5957.5327150000003</v>
+        <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>248.36230500000056</v>
+        <v>1.7159209999999998</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>1755.8662676296326</v>
+        <v>-3.8753526481481471</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>1533.9161804537043</v>
+        <v>-6.3718137499999967</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>3083066.3497996167</v>
+        <v>15.018358147508856</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>2352898.8486576811</v>
+        <v>40.600010464689021</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>2693351.6786299478</v>
+        <v>24.693025289569263</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>61683.834544913305</v>
+        <v>2.9443848782409994</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>3176516.5997111523</v>
+        <v>21.677337299502533</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7337,42 +7333,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>12252.301758</v>
+        <v>6.0570240000000002</v>
       </c>
       <c r="I90">
-        <v>8375.7197269999997</v>
+        <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>-3876.5820309999999</v>
+        <v>1.0335989999999997</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>4174.053279629632</v>
+        <v>-3.1619236481481474</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>8077.0475284537042</v>
+        <v>-4.976062749999997</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>17422720.781186886</v>
+        <v>9.9977611567184894</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>65238696.77690009</v>
+        <v>24.761200491937533</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>33714026.725866601</v>
+        <v>15.733930483894094</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>15027888.243072085</v>
+        <v>1.0683268928009995</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>17643910.395298995</v>
+        <v>15.543020420064041</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7389,42 +7385,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>9780.0673829999996</v>
+        <v>8.1462880000000002</v>
       </c>
       <c r="I91">
-        <v>6519.3857420000004</v>
+        <v>8.3418410000000005</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>-3260.6816409999992</v>
+        <v>0.19555300000000031</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>2317.7192946296327</v>
+        <v>-1.9107056481481468</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>5604.8131534537042</v>
+        <v>-2.886798749999997</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>5371822.7286984818</v>
+        <v>3.6507960738652296</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>31413930.485127658</v>
+        <v>8.3336070230015444</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>12990383.588553607</v>
+        <v>5.5158226766920047</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>10632044.763954448</v>
+        <v>3.824097580900012E-2</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>5494952.5476784948</v>
+        <v>7.2428036868930441</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7441,42 +7437,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>3554.7565920000002</v>
+        <v>11.070387999999999</v>
       </c>
       <c r="I92">
-        <v>6199.123047</v>
+        <v>10.444659</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>2644.3664549999999</v>
+        <v>-0.62572899999999976</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>1997.4565996296324</v>
+        <v>0.19211235185185238</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-620.49763754629521</v>
+        <v>3.7301250000002284E-2</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>3989832.8674039734</v>
+        <v>3.6907155734049929E-2</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>385017.31820053357</v>
+        <v>1.3913832515626704E-3</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-1239417.101171443</v>
+        <v>7.1660308645143476E-3</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>6992673.9483292662</v>
+        <v>0.39153678144099968</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>4096044.9902614569</v>
+        <v>0.3462472169700595</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7493,42 +7489,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>2334.2707519999999</v>
+        <v>13.511892</v>
       </c>
       <c r="I93">
-        <v>3566.188232</v>
+        <v>13.197846</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>1231.9174800000001</v>
+        <v>-0.31404599999999938</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>-635.47821537036771</v>
+        <v>2.9452993518518529</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-1840.9834775462955</v>
+        <v>2.4788052500000024</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>403832.56221030746</v>
+        <v>8.6747882720189455</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>3389220.1645984515</v>
+        <v>6.1444754674275748</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>1169904.8948374533</v>
+        <v>7.3008234961919776</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>1517620.6775295506</v>
+        <v>9.8624890115999606E-2</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>370961.38936706394</v>
+        <v>4.6861826104605759</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7545,42 +7541,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>1821.548462</v>
+        <v>15.970141999999999</v>
       </c>
       <c r="I94">
-        <v>2445.352539</v>
+        <v>16.418118</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>623.80407700000001</v>
+        <v>0.4479760000000006</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-1756.3139083703677</v>
+        <v>6.1655713518518525</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-2353.7057675462956</v>
+        <v>4.937055250000002</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>3084638.5447351965</v>
+        <v>38.014270094776279</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>5539930.8401806969</v>
+        <v>24.374514541552582</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>4133846.1757531106</v>
+        <v>30.439766411909797</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>389131.52648182196</v>
+        <v>0.20068249657600054</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>2992559.8589549307</v>
+        <v>28.998561563476592</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7597,42 +7593,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>1773.1451420000001</v>
+        <v>14.042047</v>
       </c>
       <c r="I95">
-        <v>3261.0795899999998</v>
+        <v>14.948691</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>1487.9344479999997</v>
+        <v>0.90664400000000001</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-940.58685737036785</v>
+        <v>4.6961443518518529</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-2402.1090875462951</v>
+        <v>3.008960250000003</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>884703.63625786477</v>
+        <v>22.053771773430061</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>5770128.0684724944</v>
+        <v>9.0538417860800813</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>2259392.2377159717</v>
+        <v>14.130511682984253</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>2213948.9215450641</v>
+        <v>0.82200334273600006</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>835715.27158959943</v>
+        <v>15.331956642618087</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7649,42 +7645,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>2885.1335450000001</v>
+        <v>15.172940000000001</v>
       </c>
       <c r="I96">
-        <v>2321.0834960000002</v>
+        <v>12.859022</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-564.05004899999994</v>
+        <v>-2.313918000000001</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-1880.5829513703675</v>
+        <v>2.6064753518518522</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-1290.1206845462953</v>
+        <v>4.1398532500000034</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>3536592.236984882</v>
+        <v>6.7937137598112365</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>1664411.3806942014</v>
+        <v>17.13838493153559</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>2426178.9645680306</v>
+        <v>10.790425456408792</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>318152.45777690236</v>
+        <v>5.3542165107240045</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>3437949.1091396064</v>
+        <v>3.3340395371925711</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7701,42 +7697,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>5472.9624020000001</v>
+        <v>11.8093</v>
       </c>
       <c r="I97">
-        <v>4142.7758789999998</v>
+        <v>10.140311000000001</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-1330.1865230000003</v>
+        <v>-1.6689889999999998</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-58.890568370367873</v>
+        <v>-0.11223564814814679</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>1297.7081724537047</v>
+        <v>0.77621325000000319</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>3468.099042984973</v>
+        <v>1.2596840715234607E-2</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>1684046.5008531343</v>
+        <v>0.60250700947556746</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>-76422.771854670034</v>
+        <v>-8.7118797214929863E-2</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>1769396.1859708303</v>
+        <v>2.7855242821209996</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>1054.8432542080589</v>
+        <v>0.79704853978805656</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7753,42 +7749,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7368.7504879999997</v>
+        <v>7.9063020000000002</v>
       </c>
       <c r="I98">
-        <v>7005.9467770000001</v>
+        <v>7.9655129999999996</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>-362.80371099999957</v>
+        <v>5.9210999999999459E-2</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>2804.2803296296324</v>
+        <v>-2.2870336481481477</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>3193.4962584537043</v>
+        <v>-3.126784749999997</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>7863988.1671476802</v>
+        <v>5.2305229077618254</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>10198418.352757808</v>
+        <v>9.776782872832543</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>8955458.740327552</v>
+        <v>7.1510619337664867</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>131626.5327153712</v>
+        <v>3.5059425209999361E-3</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>8012820.2982099447</v>
+        <v>9.4100087116890467</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7805,42 +7801,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>3392.8095699999999</v>
+        <v>5.3714690000000003</v>
       </c>
       <c r="I99">
-        <v>3725.195068</v>
+        <v>5.5748559999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>332.3854980000001</v>
+        <v>0.20338699999999932</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>-476.47137937036769</v>
+        <v>-4.6776906481481477</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-782.4446595462955</v>
+        <v>-5.6616177499999969</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>227024.97535910085</v>
+        <v>21.880789799772639</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>612219.64525251824</v>
+        <v>32.053915547115025</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>372812.48621500115</v>
+        <v>26.483296402564545</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>110480.11928070807</v>
+        <v>4.1366271768999721E-2</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>202553.24889175443</v>
+        <v>29.792282920245537</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7857,42 +7853,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>6940.3686520000001</v>
+        <v>5.9902819999999997</v>
       </c>
       <c r="I100">
-        <v>5450.3286129999997</v>
+        <v>6.7227480000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-1490.0400390000004</v>
+        <v>0.73246600000000051</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>1248.662165629632</v>
+        <v>-3.5297986481481471</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>2765.1144224537047</v>
+        <v>-5.0428047499999975</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>1559157.2038748825</v>
+        <v>12.459478496468487</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>7645857.769261485</v>
+        <v>25.429879746622536</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>3452693.762954772</v>
+        <v>17.800085389425046</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>2220219.3178231227</v>
+        <v>0.53650644115600077</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>1625814.6833398442</v>
+        <v>18.579020139751538</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7909,42 +7905,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>3036.05249</v>
+        <v>5.8397410000000001</v>
       </c>
       <c r="I101">
-        <v>3702.6525879999999</v>
+        <v>6.0133390000000002</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>666.60009799999989</v>
+        <v>0.17359800000000014</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>-499.01385937036775</v>
+        <v>-4.2392076481481471</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-1139.2017395462954</v>
+        <v>-5.1933457499999971</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>249014.83184370917</v>
+        <v>17.970881484117744</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>1297780.6033853053</v>
+        <v>26.970840079043032</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>568477.45665243338</v>
+        <v>22.015671022877662</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>444355.69065360946</v>
+        <v>3.013626560400005E-2</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>223352.31159225316</v>
+        <v>25.197867473630033</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7961,42 +7957,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>4194.0561520000001</v>
+        <v>7.6749799999999997</v>
       </c>
       <c r="I102">
-        <v>3429.6477049999999</v>
+        <v>7.0182650000000004</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-764.40844700000025</v>
+        <v>-0.65671499999999927</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-772.01874237036782</v>
+        <v>-3.2342816481481469</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>18.801922453704719</v>
+        <v>-3.3581067499999975</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>596012.93857112434</v>
+        <v>10.460577779547894</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>353.51228795512571</v>
+        <v>11.276880944395545</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>-14515.436526854297</v>
+        <v>10.861063034047408</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>584320.27384495223</v>
+        <v>0.43127459122499906</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>555929.08944600564</v>
+        <v>16.118793684273037</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8013,42 +8009,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>5031.2373049999997</v>
+        <v>8.8553180000000005</v>
       </c>
       <c r="I103">
-        <v>4782.6220700000003</v>
+        <v>8.6028570000000002</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>-248.6152349999993</v>
+        <v>-0.25246100000000027</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>580.95562262963267</v>
+        <v>-1.6496896481481471</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>855.98307545370426</v>
+        <v>-2.1777687499999967</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>337509.43546498416</v>
+        <v>2.7214759352071574</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>732707.02546318201</v>
+        <v>4.7426767284765479</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>497288.18056063459</v>
+        <v>3.5926425629355245</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>61809.535074104875</v>
+        <v>6.3736556521000132E-2</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>368895.69361739722</v>
+        <v>5.906016637785048</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8065,42 +8061,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>2068.7717290000001</v>
+        <v>13.112306</v>
       </c>
       <c r="I104">
-        <v>4169.2280270000001</v>
+        <v>11.752383999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>2100.4562980000001</v>
+        <v>-1.359922000000001</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>-32.438420370367567</v>
+        <v>1.499837351851852</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-2106.4825005462953</v>
+        <v>2.0792192500000031</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>1052.2511161246775</v>
+        <v>2.2495120820099759</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>4437268.525107773</v>
+        <v>4.3231526895705752</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>68330.96485554376</v>
+        <v>3.1184906938393984</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>4411916.6598078655</v>
+        <v>1.8493878460840025</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>36.315117128975722</v>
+        <v>0.51738853385756556</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8117,42 +8113,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>1906.7017820000001</v>
+        <v>15.239114000000001</v>
       </c>
       <c r="I105">
-        <v>3305.9650879999999</v>
+        <v>13.440951999999999</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>1399.2633059999998</v>
+        <v>-1.7981620000000014</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-895.70135937036775</v>
+        <v>3.188405351851852</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-2268.5524475462953</v>
+        <v>4.2060272500000035</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>802280.92517792468</v>
+        <v>10.165928687717532</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>5146330.2072682865</v>
+        <v>17.690665227742592</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>2031945.5110701916</v>
+        <v>13.410519793934739</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>1957937.7995180492</v>
+        <v>3.233386578244005</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>755663.61161029537</v>
+        <v>5.7978150621575733</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8169,42 +8165,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>1760.9794919999999</v>
+        <v>16.630796</v>
       </c>
       <c r="I106">
-        <v>2162.830078</v>
+        <v>16.549931999999998</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>401.85058600000002</v>
+        <v>-8.0864000000001823E-2</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-2038.8363693703677</v>
+        <v>6.297385351851851</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-2414.2747375462955</v>
+        <v>5.597709250000003</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>4156853.7410673425</v>
+        <v>39.65706226971826</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>5828722.5083542336</v>
+        <v>31.334348847535594</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>4922311.1405614866</v>
+        <v>35.250932234875627</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>161483.89346854342</v>
+        <v>6.5389864960002948E-3</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>4049850.9657268273</v>
+        <v>30.435581512447577</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8221,42 +8217,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>1729.8131100000001</v>
+        <v>15.781086999999999</v>
       </c>
       <c r="I107">
-        <v>2034.4354249999999</v>
+        <v>16.771944000000001</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>304.62231499999984</v>
+        <v>0.99085700000000188</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-2167.231022370368</v>
+        <v>6.519397351851854</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-2445.4411195462953</v>
+        <v>4.7480002500000023</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>4696890.3043245105</v>
+        <v>42.502541831332969</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>5980182.2691678386</v>
+        <v>22.543506374000085</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>5299835.8576608552</v>
+        <v>30.954100256441954</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>92794.754795959132</v>
+        <v>0.98179759444900372</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>4583105.1538990308</v>
+        <v>32.934482535877613</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8273,42 +8269,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>2446.6760250000002</v>
+        <v>17.80415</v>
       </c>
       <c r="I108">
-        <v>1857.3195800000001</v>
+        <v>13.094060000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-589.35644500000012</v>
+        <v>-4.7100899999999992</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-2344.3468673703674</v>
+        <v>2.8415133518518534</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-1728.5782045462952</v>
+        <v>6.7710632500000028</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>5495962.2345492551</v>
+        <v>8.0741981287523554</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>2987982.6092324937</v>
+        <v>45.847297535500601</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>4052386.8988328013</v>
+        <v>19.240066631108412</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>347341.01926303818</v>
+        <v>22.184947808099992</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>5372821.0395673057</v>
+        <v>4.2476107372155774</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8325,42 +8321,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>2899.2768550000001</v>
+        <v>14.8276</v>
       </c>
       <c r="I109">
-        <v>1627.963745</v>
+        <v>10.210146</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-1271.3131100000001</v>
+        <v>-4.6174540000000004</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-2573.7027023703677</v>
+        <v>-4.2400648148147368E-2</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-1275.9773745462953</v>
+        <v>3.7945132500000032</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>6623945.6001885328</v>
+        <v>1.797814963382993E-3</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>1628118.2603540567</v>
+        <v>14.398330804425587</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>3283986.4170332472</v>
+        <v>-0.16088982120673329</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>1616237.0236578723</v>
+        <v>21.320881442116004</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>6488688.8126600999</v>
+        <v>0.67723147801055794</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8377,42 +8373,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>3496.6928710000002</v>
+        <v>11.12496</v>
       </c>
       <c r="I110">
-        <v>2217.858643</v>
+        <v>7.540826</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-1278.8342280000002</v>
+        <v>-3.5841339999999997</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-1983.8078043703676</v>
+        <v>-2.7117206481481473</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-678.5613585462952</v>
+        <v>9.1873250000002571E-2</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>3935493.4046807787</v>
+        <v>7.3534288735930078</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>460445.51731219381</v>
+        <v>8.440694065562972E-3</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>1346135.3188282996</v>
+        <v>-0.24913458903748376</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>1635416.9827043563</v>
+        <v>12.846016529955998</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>3831397.4822309157</v>
+        <v>12.195885145990543</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8429,42 +8425,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>5647.0869140000004</v>
+        <v>7.8121910000000003</v>
       </c>
       <c r="I111">
-        <v>4338.9814450000003</v>
+        <v>6.1656829999999996</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-1308.1054690000001</v>
+        <v>-1.6465080000000007</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>137.31499762963267</v>
+        <v>-4.0868636481481477</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>1471.832684453705</v>
+        <v>-3.2208957499999968</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>18855.408574026027</v>
+        <v>16.702454478554788</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>2166291.4510261999</v>
+        <v>10.374169432368042</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>202104.7015769764</v>
+        <v>13.163361755149852</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>1711139.9180277102</v>
+        <v>2.7109885940640024</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>26806.601080223922</v>
+        <v>23.691619265514039</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073E88C-4C33-4079-BB64-AC324A2B0C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7669491-8668-4456-89D8-E355D74E06F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-5865" windowWidth="28200" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
+    <t xml:space="preserve"> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</t>
   </si>
 </sst>
 </file>
@@ -701,11 +701,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hayden</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Br stream temp C126+</a:t>
+              <a:t>Blue River at Blue River flow C128</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -754,7 +750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
+                  <c:v> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -778,328 +774,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.0904499999999997</c:v>
+                  <c:v>1096.5040280000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2590240000000001</c:v>
+                  <c:v>661.09948699999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6208429999999998</c:v>
+                  <c:v>524.34857199999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6489619999999992</c:v>
+                  <c:v>531.37255900000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.696885999999999</c:v>
+                  <c:v>472.84558099999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.717793</c:v>
+                  <c:v>485.62496900000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.768941</c:v>
+                  <c:v>320.599762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.644231</c:v>
+                  <c:v>309.27450599999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.883776000000001</c:v>
+                  <c:v>332.72421300000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.679109</c:v>
+                  <c:v>386.131439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4966369999999998</c:v>
+                  <c:v>442.28152499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1689930000000004</c:v>
+                  <c:v>582.46612500000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9544560000000004</c:v>
+                  <c:v>634.505493</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5810089999999999</c:v>
+                  <c:v>446.066193</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6961190000000004</c:v>
+                  <c:v>579.556152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0410819999999994</c:v>
+                  <c:v>614.13549799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.6525809999999996</c:v>
+                  <c:v>584.61309800000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.176743999999999</c:v>
+                  <c:v>400.25183099999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.506534</c:v>
+                  <c:v>334.855774</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.374900999999999</c:v>
+                  <c:v>308.827789</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.352678000000001</c:v>
+                  <c:v>306.63552900000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.265934</c:v>
+                  <c:v>332.00207499999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.696535000000001</c:v>
+                  <c:v>396.13388099999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.6122670000000001</c:v>
+                  <c:v>460.63711499999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4330860000000003</c:v>
+                  <c:v>521.53424099999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1842379999999997</c:v>
+                  <c:v>559.169983</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6825609999999998</c:v>
+                  <c:v>613.78802499999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.7176960000000001</c:v>
+                  <c:v>775.22540300000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.669750000000001</c:v>
+                  <c:v>478.91519199999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.914413</c:v>
+                  <c:v>441.94363399999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.662554999999999</c:v>
+                  <c:v>326.80264299999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.539147</c:v>
+                  <c:v>309.38211100000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.543989</c:v>
+                  <c:v>306.09149200000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.280296999999999</c:v>
+                  <c:v>417.00112899999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.230907</c:v>
+                  <c:v>590.675476</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.1330799999999996</c:v>
+                  <c:v>546.326233</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.4847799999999998</c:v>
+                  <c:v>396.43881199999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.225994</c:v>
+                  <c:v>428.19784499999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.3793049999999996</c:v>
+                  <c:v>607.63445999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0679949999999998</c:v>
+                  <c:v>555.67120399999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.090636</c:v>
+                  <c:v>420.54302999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.733128000000001</c:v>
+                  <c:v>359.82342499999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.970813</c:v>
+                  <c:v>312.74288899999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.091783</c:v>
+                  <c:v>310.54745500000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.564731999999999</c:v>
+                  <c:v>361.43319700000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.51708</c:v>
+                  <c:v>373.10821499999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.5411929999999998</c:v>
+                  <c:v>437.055206</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.266642</c:v>
+                  <c:v>397.06753500000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2126669999999997</c:v>
+                  <c:v>434.03185999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.7544779999999998</c:v>
+                  <c:v>631.33941700000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.3748680000000002</c:v>
+                  <c:v>835.55426</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.3415049999999997</c:v>
+                  <c:v>535.69341999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.304626000000001</c:v>
+                  <c:v>474.80044600000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.751113999999999</c:v>
+                  <c:v>365.25045799999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.858978</c:v>
+                  <c:v>318.39080799999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.562533999999999</c:v>
+                  <c:v>308.89999399999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.309576</c:v>
+                  <c:v>308.72842400000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.739573999999999</c:v>
+                  <c:v>398.45404100000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8582649999999994</c:v>
+                  <c:v>595.29003899999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.8168530000000001</c:v>
+                  <c:v>652.56793200000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.9616559999999996</c:v>
+                  <c:v>495.836029</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.916982</c:v>
+                  <c:v>488.14721700000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.7862369999999999</c:v>
+                  <c:v>416.46539300000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.6646739999999998</c:v>
+                  <c:v>406.82961999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.621722999999999</c:v>
+                  <c:v>346.60943600000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.265497</c:v>
+                  <c:v>314.59197999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.771437000000001</c:v>
+                  <c:v>306.609711</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.234439</c:v>
+                  <c:v>305.545074</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>17.590731000000002</c:v>
+                  <c:v>314.35513300000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.491432</c:v>
+                  <c:v>318.71112099999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.814403</c:v>
+                  <c:v>499.521637</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.4575279999999999</c:v>
+                  <c:v>667.88079800000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1531960000000003</c:v>
+                  <c:v>651.95007299999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.5485870000000004</c:v>
+                  <c:v>624.15045199999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5068450000000002</c:v>
+                  <c:v>621.98821999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.8931830000000005</c:v>
+                  <c:v>423.30352800000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.289350000000001</c:v>
+                  <c:v>365.26574699999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.915990000000001</c:v>
+                  <c:v>340.24139400000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.57264</c:v>
+                  <c:v>319.79556300000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.840978</c:v>
+                  <c:v>306.16104100000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>17.550526000000001</c:v>
+                  <c:v>313.04083300000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.137869999999999</c:v>
+                  <c:v>615.71966599999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.271328</c:v>
+                  <c:v>526.20257600000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.2091130000000003</c:v>
+                  <c:v>384.30676299999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.2981109999999996</c:v>
+                  <c:v>316.60571299999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.6612730000000004</c:v>
+                  <c:v>577.45989999999995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.0570240000000002</c:v>
+                  <c:v>965.16339100000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.1462880000000002</c:v>
+                  <c:v>806.76019299999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.070387999999999</c:v>
+                  <c:v>456.58734099999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.511892</c:v>
+                  <c:v>365.266998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.970141999999999</c:v>
+                  <c:v>314.43472300000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.042047</c:v>
+                  <c:v>308.12020899999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.172940000000001</c:v>
+                  <c:v>336.041473</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>11.8093</c:v>
+                  <c:v>469.77722199999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.9063020000000002</c:v>
+                  <c:v>594.06372099999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.3714690000000003</c:v>
+                  <c:v>374.77539100000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.9902819999999997</c:v>
+                  <c:v>598.81048599999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.8397410000000001</c:v>
+                  <c:v>405.13906900000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.6749799999999997</c:v>
+                  <c:v>570.93872099999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.8553180000000005</c:v>
+                  <c:v>531.574341</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.112306</c:v>
+                  <c:v>346.17675800000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.239114000000001</c:v>
+                  <c:v>339.007294</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.630796</c:v>
+                  <c:v>307.621216</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.781086999999999</c:v>
+                  <c:v>305.64492799999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>17.80415</c:v>
+                  <c:v>305.62677000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>14.8276</c:v>
+                  <c:v>324.78241000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11.12496</c:v>
+                  <c:v>400.33316000000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.8121910000000003</c:v>
+                  <c:v>529.74597200000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1116,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,328 +1140,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.7575260000000004</c:v>
+                  <c:v>633.59283400000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0468979999999997</c:v>
+                  <c:v>425.65698200000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5625140000000002</c:v>
+                  <c:v>373.90524299999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5006950000000003</c:v>
+                  <c:v>516.30627400000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.083938</c:v>
+                  <c:v>510.29437300000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.837152</c:v>
+                  <c:v>628.17913799999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.065334</c:v>
+                  <c:v>374.57525600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.599329000000001</c:v>
+                  <c:v>275.82794200000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.234444999999999</c:v>
+                  <c:v>241.34721400000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.104032999999999</c:v>
+                  <c:v>229.03131099999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7684309999999996</c:v>
+                  <c:v>366.80126999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5254580000000004</c:v>
+                  <c:v>656.46301300000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8123259999999997</c:v>
+                  <c:v>758.90728799999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5251479999999997</c:v>
+                  <c:v>523.816101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5961270000000001</c:v>
+                  <c:v>472.20327800000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4708329999999998</c:v>
+                  <c:v>686.89923099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.912903</c:v>
+                  <c:v>778.66332999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.841665000000001</c:v>
+                  <c:v>826.61328100000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.848522000000001</c:v>
+                  <c:v>513.37567100000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.150067999999999</c:v>
+                  <c:v>398.268799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.886526999999999</c:v>
+                  <c:v>310.50412</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.686559000000001</c:v>
+                  <c:v>267.33938599999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3908750000000003</c:v>
+                  <c:v>271.36877399999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6762090000000001</c:v>
+                  <c:v>332.02279700000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7243950000000003</c:v>
+                  <c:v>747.57867399999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0212640000000004</c:v>
+                  <c:v>626.625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2946020000000003</c:v>
+                  <c:v>563.50689699999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0125010000000003</c:v>
+                  <c:v>898.37103300000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9014100000000003</c:v>
+                  <c:v>996.23992899999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.643750000000001</c:v>
+                  <c:v>681.18328899999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.857324999999999</c:v>
+                  <c:v>481.72918700000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.432864</c:v>
+                  <c:v>366.778595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.870347000000001</c:v>
+                  <c:v>294.694458</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.587904999999999</c:v>
+                  <c:v>274.35879499999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.4551409999999994</c:v>
+                  <c:v>514.78887899999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7407919999999999</c:v>
+                  <c:v>824.81103499999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9180770000000003</c:v>
+                  <c:v>412.20935100000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1956850000000001</c:v>
+                  <c:v>382.81478900000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.492057</c:v>
+                  <c:v>437.68179300000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5971530000000005</c:v>
+                  <c:v>782.16125499999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.077218</c:v>
+                  <c:v>584.118652</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.704166000000001</c:v>
+                  <c:v>451.94134500000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.750347000000001</c:v>
+                  <c:v>334.18719499999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.772145</c:v>
+                  <c:v>244.20327800000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.215868</c:v>
+                  <c:v>220.821213</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9914310000000004</c:v>
+                  <c:v>315.99529999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.4102540000000001</c:v>
+                  <c:v>307.77313199999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.2807459999999997</c:v>
+                  <c:v>356.69754</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.2900869999999998</c:v>
+                  <c:v>335.19628899999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9716139999999998</c:v>
+                  <c:v>805.42468299999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.3243400000000003</c:v>
+                  <c:v>1049.1136469999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.8320469999999993</c:v>
+                  <c:v>720.01660200000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.221339</c:v>
+                  <c:v>658.71105999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.324306</c:v>
+                  <c:v>441.70452899999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.180609</c:v>
+                  <c:v>362.28997800000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.435485</c:v>
+                  <c:v>278.85382099999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.738193000000001</c:v>
+                  <c:v>235.81594799999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.838914000000001</c:v>
+                  <c:v>223.83869899999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.3758119999999998</c:v>
+                  <c:v>411.79901100000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.792554</c:v>
+                  <c:v>656.54193099999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7203629999999999</c:v>
+                  <c:v>514.29370100000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.6048359999999997</c:v>
+                  <c:v>565.96466099999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8436210000000006</c:v>
+                  <c:v>385.28106700000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.058611000000001</c:v>
+                  <c:v>396.03781099999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.074730000000001</c:v>
+                  <c:v>293.912689</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.857534000000001</c:v>
+                  <c:v>220.25415000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.027048000000001</c:v>
+                  <c:v>173.981537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.185048999999999</c:v>
+                  <c:v>152.941193</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.390521</c:v>
+                  <c:v>139.972916</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.777958</c:v>
+                  <c:v>126.537308</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0507980000000003</c:v>
+                  <c:v>221.43119799999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1561149999999998</c:v>
+                  <c:v>607.42169200000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.2070230000000004</c:v>
+                  <c:v>434.39514200000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2024429999999997</c:v>
+                  <c:v>641.31897000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5207629999999996</c:v>
+                  <c:v>707.70825200000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.099689</c:v>
+                  <c:v>676.07458499999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.167942999999999</c:v>
+                  <c:v>452.76947000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.868748</c:v>
+                  <c:v>336.61318999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.696805999999999</c:v>
+                  <c:v>252.70665</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.748556000000001</c:v>
+                  <c:v>204.46639999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.161457</c:v>
+                  <c:v>178.68644699999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>11.1876</c:v>
+                  <c:v>331.07891799999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.3414070000000002</c:v>
+                  <c:v>404.97912600000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.1767459999999996</c:v>
+                  <c:v>411.908569</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.7506050000000002</c:v>
+                  <c:v>335.74652099999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.3771940000000003</c:v>
+                  <c:v>599.73553500000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.0906229999999999</c:v>
+                  <c:v>821.78002900000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3418410000000005</c:v>
+                  <c:v>915.23547399999995</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.444659</c:v>
+                  <c:v>970.514771</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.197846</c:v>
+                  <c:v>608.74694799999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16.418118</c:v>
+                  <c:v>433.807343</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.948691</c:v>
+                  <c:v>333.24765000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.859022</c:v>
+                  <c:v>279.36144999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.140311000000001</c:v>
+                  <c:v>325.57327299999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.9655129999999996</c:v>
+                  <c:v>611.67675799999995</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5748559999999996</c:v>
+                  <c:v>490.97482300000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.7227480000000002</c:v>
+                  <c:v>515.40911900000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.0133390000000002</c:v>
+                  <c:v>531.03466800000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.0182650000000004</c:v>
+                  <c:v>404.23397799999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.6028570000000002</c:v>
+                  <c:v>656.39202899999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.752383999999999</c:v>
+                  <c:v>521.24169900000004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.440951999999999</c:v>
+                  <c:v>358.698395</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.549931999999998</c:v>
+                  <c:v>279.09741200000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.771944000000001</c:v>
+                  <c:v>232.69052099999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.094060000000001</c:v>
+                  <c:v>199.79652400000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.210146</c:v>
+                  <c:v>175.65425099999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.540826</c:v>
+                  <c:v>177.17825300000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.1656829999999996</c:v>
+                  <c:v>328.79098499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +1594,6 @@
         <c:axId val="156437344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2683,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3290"/>
+  <dimension ref="A1:S3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="H3" sqref="H3:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,11 +2696,11 @@
     <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -2717,11 +2712,11 @@
       </c>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>11.033086749999997</v>
+        <v>458.08610678703695</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>10.252546648148147</v>
+        <v>459.16568304629612</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2732,13 +2727,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>-7.074539696262698E-2</v>
+        <v>2.3567103286130926E-3</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2753,10 +2748,10 @@
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2783,14 +2778,18 @@
       <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" s="3" t="str">
+        <f>H3</f>
+        <v xml:space="preserve"> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.77191968357225682</v>
+        <v>0.43101790009736496</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2806,51 +2805,51 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>6.0904499999999997</v>
+        <v>1096.5040280000001</v>
       </c>
       <c r="I4">
-        <v>6.7575260000000004</v>
+        <v>633.59283400000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.66707600000000067</v>
+        <v>-462.91119400000002</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.4950206481481469</v>
+        <v>174.42715095370392</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-4.9426367499999975</v>
+        <v>638.41792121296317</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>12.215169330981894</v>
+        <v>30424.830989826212</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>24.429658042450537</v>
+        <v>407577.44212588127</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>17.27461749754584</v>
+        <v>111357.41911496338</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.44499038977600092</v>
+        <v>214286.77353050566</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>18.280419726940536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>30802.611297005438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.467262019644548</v>
+        <v>0.75429909804860995</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2866,51 +2865,51 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>6.2590240000000001</v>
+        <v>661.09948699999995</v>
       </c>
       <c r="I5">
-        <v>7.0468979999999997</v>
+        <v>425.65698200000003</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.78787399999999952</v>
+        <v>-235.44250499999993</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.2056486481481477</v>
+        <v>-33.508701046296096</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-4.774062749999997</v>
+        <v>203.013380212963</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>10.276183255374047</v>
+        <v>1122.8330458100452</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>22.791675140937535</v>
+        <v>41214.43254549308</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>15.303967800711918</v>
+        <v>-6802.7146659542204</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.62074543987599928</v>
+        <v>55433.173160674989</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>15.889700750626542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1051.6481344532128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.83797005925140111</v>
+        <v>0.43371863149412104</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2926,51 +2925,51 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>7.6208429999999998</v>
+        <v>524.34857199999999</v>
       </c>
       <c r="I6">
-        <v>7.5625140000000002</v>
+        <v>373.90524299999998</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-5.8328999999999631E-2</v>
+        <v>-150.44332900000001</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6900326481481471</v>
+        <v>-85.260440046296139</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4122437499999974</v>
+        <v>66.262465212963036</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7.2362756481029331</v>
+        <v>7269.3426368880582</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>11.643407409414044</v>
+        <v>4390.7142960991368</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>9.1790470909394575</v>
+        <v>-5649.5669426096183</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>3.402272240999957E-3</v>
+        <v>22633.195240602243</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>12.044875213042541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7086.417827931672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>11.033086749999997</v>
+        <v>458.08610678703695</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2986,51 +2985,51 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>8.6489619999999992</v>
+        <v>531.37255900000002</v>
       </c>
       <c r="I7">
-        <v>8.5006950000000003</v>
+        <v>516.30627400000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14826699999999882</v>
+        <v>-15.066284999999993</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-1.751851648148147</v>
+        <v>57.140590953703907</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.384124749999998</v>
+        <v>73.28645221296307</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3.068984197119379</v>
+        <v>3265.0471345385085</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>5.6840508235625533</v>
+        <v>5370.9040779629195</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>4.1766328726782858</v>
+        <v>4187.6311883490916</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>2.1983103288999647E-2</v>
+        <v>226.99294370122482</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>6.4130079754680462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3389.5878703053809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>3.9223313698973086</v>
+        <v>149.4899431277266</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3046,51 +3045,51 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>10.696885999999999</v>
+        <v>472.84558099999998</v>
       </c>
       <c r="I8">
-        <v>10.083938</v>
+        <v>510.29437300000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.61294799999999938</v>
+        <v>37.448792000000026</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.16860864814814747</v>
+        <v>51.128689953703883</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.33620074999999794</v>
+        <v>14.759474212963028</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8428876230345793E-2</v>
+        <v>2614.1429363819802</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>0.11303094430056111</v>
+        <v>217.84207904312058</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>5.668635396389294E-2</v>
+        <v>754.63258091427429</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>0.37570525070399924</v>
+        <v>1402.412022259266</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0.90088334962655736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2725.7030609636195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>10.252546648148147</v>
+        <v>459.16568304629612</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3106,51 +3105,51 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>11.717793</v>
+        <v>485.62496900000002</v>
       </c>
       <c r="I9">
-        <v>11.837152</v>
+        <v>628.17913799999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0.11935899999999933</v>
+        <v>142.55416899999994</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.5846053518518524</v>
+        <v>169.01345495370384</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.68470625000000318</v>
+        <v>27.538862212963068</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>2.5109741211175329</v>
+        <v>28565.547955387679</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.46882264878906688</v>
+        <v>758.38893198456515</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>1.0849891881964173</v>
+        <v>4654.4382481068906</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>1.4246570880999839E-2</v>
+        <v>20321.691099280546</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>0.64652092625756652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>28931.63926721401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>3.6942891261951312</v>
+        <v>210.46385366426577</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3165,45 +3164,45 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>15.768941</v>
+        <v>320.599762</v>
       </c>
       <c r="I10">
-        <v>16.065334</v>
+        <v>374.57525600000002</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0.29639300000000013</v>
+        <v>53.975494000000026</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.8127873518518527</v>
+        <v>-84.590427046296099</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>4.7358542500000027</v>
+        <v>-137.48634478703696</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>33.788496797848872</v>
+        <v>7155.540347874743</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>22.428315477243089</v>
+        <v>18902.495002900003</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>27.528513684613859</v>
+        <v>11630.028618569762</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>8.7848810449000073E-2</v>
+        <v>2913.3539525440387</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>25.323512385132592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6974.0621991747466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>7</v>
       </c>
@@ -3217,51 +3216,51 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>15.644231</v>
+        <v>309.27450599999997</v>
       </c>
       <c r="I11">
-        <v>15.599329000000001</v>
+        <v>275.82794200000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4901999999998665E-2</v>
+        <v>-33.446563999999967</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>5.3467823518518536</v>
+        <v>-183.33774104629612</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>4.6111442500000024</v>
+        <v>-148.81160078703698</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>28.588081518074439</v>
+        <v>33612.727291958734</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>21.262651294308085</v>
+        <v>22144.892528800465</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>24.654784697743164</v>
+        <v>27282.782729778581</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>2.0161896039998803E-3</v>
+        <v>1118.6726434060938</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>20.850568285685096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>33218.038631538715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.91540704566405928</v>
+        <v>0.65857317854139874</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3277,45 +3276,45 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>16.883776000000001</v>
+        <v>332.72421300000002</v>
       </c>
       <c r="I12">
-        <v>13.234444999999999</v>
+        <v>241.34721400000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-3.6493310000000019</v>
+        <v>-91.376999000000012</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>2.9818983518518518</v>
+        <v>-217.81846904629612</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>5.8506892500000038</v>
+        <v>-125.36189378703693</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>8.8917177807767906</v>
+        <v>47444.885457672259</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>34.230564700065607</v>
+        <v>15715.60441387233</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>17.446160631772358</v>
+        <v>27306.135781436766</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>13.317616747561013</v>
+        <v>8349.7559462460031</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>4.8459781448430714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>46975.747646550699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>9</v>
       </c>
@@ -3329,45 +3328,45 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>14.679109</v>
+        <v>386.131439</v>
       </c>
       <c r="I13">
-        <v>11.104032999999999</v>
+        <v>229.03131099999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-3.575076000000001</v>
+        <v>-157.10012800000001</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.85148635185185206</v>
+        <v>-230.13437204629614</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>3.6460222500000032</v>
+        <v>-71.954667787036954</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.725029007389976</v>
+        <v>52961.829197143052</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>13.293478247495086</v>
+        <v>5177.4742163428537</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>3.1045381844231841</v>
+        <v>16559.242286969602</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>12.781168405776008</v>
+        <v>24680.450217616388</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>5.0333703890628138E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>52466.099473041206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>10</v>
       </c>
@@ -3381,45 +3380,45 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>9.4966369999999998</v>
+        <v>442.28152499999999</v>
       </c>
       <c r="I14">
-        <v>7.7684309999999996</v>
+        <v>366.80126999999999</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7282060000000001</v>
+        <v>-75.480255</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4841156481481477</v>
+        <v>-92.364413046296136</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5364497499999974</v>
+        <v>-15.804581787036966</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>6.1708305533744916</v>
+        <v>8531.1847973867989</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>2.3606778342750543</v>
+        <v>249.78480546314057</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>3.8167188665683032</v>
+        <v>1459.7809202018514</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>2.9866959784360003</v>
+        <v>5697.2688948650248</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>10.657977166008047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8332.9214272359768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>11</v>
       </c>
@@ -3433,45 +3432,45 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>7.1689930000000004</v>
+        <v>582.46612500000003</v>
       </c>
       <c r="I15">
-        <v>6.5254580000000004</v>
+        <v>656.46301300000005</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.64353499999999997</v>
+        <v>73.996888000000013</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7270886481481469</v>
+        <v>197.29732995370392</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8640937499999968</v>
+        <v>124.38001821296308</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>13.891189791154781</v>
+        <v>38926.236406860713</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>14.931220508789037</v>
+        <v>15470.388930657027</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>14.401819951005191</v>
+        <v>24539.845493010682</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.41413729622499995</v>
+        <v>5475.5394336845457</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>20.318716947826534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>39353.396918626757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>12</v>
       </c>
@@ -3485,42 +3484,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>6.9544560000000004</v>
+        <v>634.505493</v>
       </c>
       <c r="I16">
-        <v>5.8123259999999997</v>
+        <v>758.90728799999999</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1421300000000008</v>
+        <v>124.40179499999999</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4402206481481477</v>
+        <v>299.74160495370387</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0786307499999968</v>
+        <v>176.41938621296305</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.715559404241155</v>
+        <v>89845.029740222279</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>16.635228794845535</v>
+        <v>31123.799831758617</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>18.110020472321953</v>
+        <v>52880.229968420877</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>1.3044609369000018</v>
+        <v>15475.806599222024</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>27.256342808740538</v>
+        <v>90493.383066362352</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3537,42 +3536,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.5810089999999999</v>
+        <v>446.066193</v>
       </c>
       <c r="I17">
-        <v>5.5251479999999997</v>
+        <v>523.816101</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-5.5861000000000161E-2</v>
+        <v>77.749908000000005</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7273986481481476</v>
+        <v>64.650417953703879</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-5.4520777499999973</v>
+        <v>-12.019913787036955</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>22.348297978512932</v>
+        <v>4179.6765415885966</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>29.725151792045033</v>
+        <v>144.47832744780109</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>25.774144984948581</v>
+        <v>-777.09245009942674</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>3.120451321000018E-3</v>
+        <v>6045.0481940084646</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>30.337389273751533</v>
+        <v>4320.4321392361562</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3589,42 +3588,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>6.6961190000000004</v>
+        <v>579.556152</v>
       </c>
       <c r="I18">
-        <v>6.5961270000000001</v>
+        <v>472.20327800000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-9.9992000000000303E-2</v>
+        <v>-107.35287399999999</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6564196481481472</v>
+        <v>13.037594953703888</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3369677499999968</v>
+        <v>121.47004521296304</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>13.36940464336382</v>
+        <v>169.97888217684508</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>18.809289264540034</v>
+        <v>14754.971884039285</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>15.857774094484849</v>
+        <v>1583.6772484947101</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>9.9984000640000598E-3</v>
+        <v>11524.639556059872</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>19.686611823120035</v>
+        <v>199.29452305611287</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3641,42 +3640,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>8.0410819999999994</v>
+        <v>614.13549799999998</v>
       </c>
       <c r="I19">
-        <v>7.4708329999999998</v>
+        <v>686.89923099999999</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.57024899999999956</v>
+        <v>72.763733000000002</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7817136481481475</v>
+        <v>227.73354795370386</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9920047499999978</v>
+        <v>156.04939121296303</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>7.7379308202936752</v>
+        <v>51862.568863581939</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>8.952092424022549</v>
+        <v>24351.412497936384</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>8.3229004483990803</v>
+        <v>35537.681516943609</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>0.32518392200099949</v>
+        <v>5294.5608400952897</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>12.689651779389044</v>
+        <v>52355.445812096848</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3693,42 +3692,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>9.6525809999999996</v>
+        <v>584.61309800000004</v>
       </c>
       <c r="I20">
-        <v>8.912903</v>
+        <v>778.66332999999997</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.73967799999999961</v>
+        <v>194.05023199999994</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3396436481481473</v>
+        <v>319.49764695370385</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3805057499999975</v>
+        <v>126.52699121296308</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>1.7946451040236771</v>
+        <v>102078.74640895359</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>1.9057961257830558</v>
+        <v>16009.079505405238</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>1.8493857592194909</v>
+        <v>40425.075968673671</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.5471235436839994</v>
+        <v>37655.492539253799</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>4.4951791337640508</v>
+        <v>102769.75604293392</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3745,42 +3744,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>11.176743999999999</v>
+        <v>400.25183099999998</v>
       </c>
       <c r="I21">
-        <v>10.841665000000001</v>
+        <v>826.61328100000003</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-0.33507899999999857</v>
+        <v>426.36145000000005</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.58911835185185346</v>
+        <v>367.44759795370391</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.14365725000000218</v>
+        <v>-57.834275787036972</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.34706043248864421</v>
+        <v>135017.73724194683</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>2.0637405477563125E-2</v>
+        <v>3344.8034558110512</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>8.4631122351570956E-2</v>
+        <v>-21251.065717338795</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>0.11227793624099905</v>
+        <v>181784.08604610254</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>3.664228637306112E-2</v>
+        <v>135812.27813339164</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3797,42 +3796,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>13.506534</v>
+        <v>334.855774</v>
       </c>
       <c r="I22">
-        <v>13.848522000000001</v>
+        <v>513.37567100000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>0.34198800000000062</v>
+        <v>178.51989700000001</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>3.5959753518518536</v>
+        <v>54.209987953703887</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>2.4734472500000031</v>
+        <v>-123.23033278703696</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>12.931038731126062</v>
+        <v>2938.7227939407207</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>6.1179412985325774</v>
+        <v>15185.714918803877</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>8.8944553451057615</v>
+        <v>-6680.3148559161946</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>0.11695579214400043</v>
+        <v>31869.353624890613</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>7.9266756469425834</v>
+        <v>3056.9359108593653</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3849,42 +3848,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>15.374900999999999</v>
+        <v>308.827789</v>
       </c>
       <c r="I23">
-        <v>15.150067999999999</v>
+        <v>398.268799</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-0.22483300000000028</v>
+        <v>89.441010000000006</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>4.8975213518518519</v>
+        <v>-60.896884046296123</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>4.3418142500000023</v>
+        <v>-149.25831778703696</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>23.985715391844792</v>
+        <v>3708.4304865480353</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>18.851350981503082</v>
+        <v>22278.045428616115</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>21.264127995149646</v>
+        <v>9089.3664712224072</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>5.054987788900013E-2</v>
+        <v>7999.694269820101</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>16.949534612851579</v>
+        <v>3578.1103108891116</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3901,42 +3900,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>17.352678000000001</v>
+        <v>306.63552900000002</v>
       </c>
       <c r="I24">
-        <v>12.886526999999999</v>
+        <v>310.50412</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4661510000000018</v>
+        <v>3.8685909999999808</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>2.6339803518518519</v>
+        <v>-148.66156304629612</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>6.3195912500000038</v>
+        <v>-151.45057778703693</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>6.9378524939416053</v>
+        <v>22100.260327367876</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>39.937233567076611</v>
+        <v>22937.277512027325</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>16.645679184234893</v>
+        <v>22514.879618085568</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>19.946504754801015</v>
+        <v>14.965996325280852</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>3.4352407603200699</v>
+        <v>21780.442824009151</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3953,42 +3952,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>14.265934</v>
+        <v>332.00207499999999</v>
       </c>
       <c r="I25">
-        <v>10.686559000000001</v>
+        <v>267.33938599999999</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5793749999999989</v>
+        <v>-64.662689</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.4340123518518535</v>
+        <v>-191.82629704629613</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>3.2328472500000025</v>
+        <v>-126.08403178703696</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.18836672155997708</v>
+        <v>36797.328238493843</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>10.451301341832579</v>
+        <v>15897.183071674548</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>1.4030956381502981</v>
+        <v>24186.232934374795</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>12.811925390624992</v>
+        <v>4181.2633487107214</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>0.12008148152005997</v>
+        <v>36384.311491007837</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4005,42 +4004,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>10.696535000000001</v>
+        <v>396.13388099999997</v>
       </c>
       <c r="I26">
-        <v>7.3908750000000003</v>
+        <v>271.36877399999997</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3056600000000005</v>
+        <v>-124.765107</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-2.861671648148147</v>
+        <v>-187.79690904629615</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-0.33655174999999637</v>
+        <v>-61.95222578703698</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>8.1891646218149319</v>
+        <v>35267.679047342826</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>0.11326708042806007</v>
+        <v>3838.0782799680096</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>0.9631006011096328</v>
+        <v>11634.436511343787</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>10.927388035600003</v>
+        <v>15566.331924721449</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>13.265706431838039</v>
+        <v>34863.362363105116</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4057,42 +4056,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>6.6122670000000001</v>
+        <v>460.63711499999999</v>
       </c>
       <c r="I27">
-        <v>4.6762090000000001</v>
+        <v>332.02279700000003</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9360580000000001</v>
+        <v>-128.61431799999997</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5763376481481473</v>
+        <v>-127.1428860462961</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4208197499999971</v>
+        <v>2.5510082129630405</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>31.095541566154409</v>
+        <v>16165.313472181435</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>19.543647261990035</v>
+        <v>6.5076429026048856</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>24.651983607601863</v>
+        <v>-324.34254652392531</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>3.7483205793640004</v>
+        <v>16541.642794605115</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>40.409894728445025</v>
+        <v>15891.95807446244</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4109,42 +4108,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>6.4330860000000003</v>
+        <v>521.53424099999995</v>
       </c>
       <c r="I28">
-        <v>5.7243950000000003</v>
+        <v>747.57867399999998</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.70869099999999996</v>
+        <v>226.04443300000003</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.528151648148147</v>
+        <v>288.41299095370385</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-4.6000007499999969</v>
+        <v>63.448134212962998</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>20.50415734862678</v>
+        <v>83182.053350861257</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>21.160006900000532</v>
+        <v>4025.6657351061658</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>20.829500977595199</v>
+        <v>18299.266158792685</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.50224293348099991</v>
+        <v>51096.085690291504</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>28.182208096518028</v>
+        <v>83805.946471551913</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4161,42 +4160,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>6.1842379999999997</v>
+        <v>559.169983</v>
       </c>
       <c r="I29">
-        <v>6.0212640000000004</v>
+        <v>626.625</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.16297399999999929</v>
+        <v>67.455016999999998</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2312826481481469</v>
+        <v>167.45931695370388</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8488487499999975</v>
+        <v>101.08387621296305</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>17.903752848519595</v>
+        <v>28042.622834601054</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>23.511334200376538</v>
+        <v>10217.950030237636</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>20.516849579369822</v>
+        <v>16927.436865655545</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>2.6560524675999769E-2</v>
+        <v>4550.1793184702883</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>25.11836727741753</v>
+        <v>28405.35852545056</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4213,42 +4212,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>6.6825609999999998</v>
+        <v>613.78802499999995</v>
       </c>
       <c r="I30">
-        <v>6.2946020000000003</v>
+        <v>563.50689699999998</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-0.3879589999999995</v>
+        <v>-50.281127999999967</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-3.9579446481481471</v>
+        <v>104.34121395370386</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3505257499999974</v>
+        <v>155.70191821296299</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>15.665325837804559</v>
+        <v>10887.088929332604</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>18.92707430141304</v>
+        <v>24243.087335196218</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>17.219140108843192</v>
+        <v>16246.127161260871</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>0.15051218568099961</v>
+        <v>2528.1918329523805</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>22.453237725982532</v>
+        <v>11113.54300912556</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4265,42 +4264,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>8.7176960000000001</v>
+        <v>775.22540300000003</v>
       </c>
       <c r="I31">
-        <v>8.0125010000000003</v>
+        <v>898.37103300000001</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-0.70519499999999979</v>
+        <v>123.14562999999998</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-2.240045648148147</v>
+        <v>439.20534995370389</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3153907499999971</v>
+        <v>317.13929621296307</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>5.0178045057874519</v>
+        <v>192901.33942795551</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>5.3610343251855488</v>
+        <v>100577.33320245353</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>5.1865809732999679</v>
+        <v>139289.27557728579</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>0.4972999880249997</v>
+        <v>15164.846188096895</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>9.1239382731030432</v>
+        <v>193850.81625035431</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4317,42 +4316,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>10.669750000000001</v>
+        <v>478.91519199999999</v>
       </c>
       <c r="I32">
-        <v>9.9014100000000003</v>
+        <v>996.23992899999996</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>-0.76834000000000024</v>
+        <v>517.32473699999991</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35113664814814705</v>
+        <v>537.07424595370389</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>-0.36333674999999666</v>
+        <v>20.829085212963037</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.12329694567271562</v>
+        <v>288448.74566673965</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.13201359390056008</v>
+        <v>433.85079080887544</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>0.12758084854404009</v>
+        <v>11186.765234657567</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>0.59034635560000037</v>
+        <v>267624.88351211906</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>1.2806922664905556</v>
+        <v>289609.53636242135</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4369,42 +4368,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>10.914413</v>
+        <v>441.94363399999997</v>
       </c>
       <c r="I33">
-        <v>11.643750000000001</v>
+        <v>681.18328899999995</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>0.72933700000000101</v>
+        <v>239.23965499999997</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>1.3912033518518534</v>
+        <v>222.01760595370382</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-0.11867374999999747</v>
+        <v>-16.142472787036979</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>1.9354467662038317</v>
+        <v>49291.817353414102</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>1.40834589390619E-2</v>
+        <v>260.5794276802294</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-0.16509931877682538</v>
+        <v>-3583.9131623507633</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>0.53193245956900148</v>
+        <v>57235.612524519012</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>0.37290960490056685</v>
+        <v>49772.352711364008</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4421,42 +4420,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>14.662554999999999</v>
+        <v>326.80264299999999</v>
       </c>
       <c r="I34">
-        <v>14.857324999999999</v>
+        <v>481.72918700000002</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>0.19477000000000011</v>
+        <v>154.92654400000004</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>4.6047783518518521</v>
+        <v>22.563503953703901</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>3.6294682500000022</v>
+        <v>-131.28346378703696</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>21.20398366968346</v>
+        <v>509.11171066881155</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>13.173039777758078</v>
+        <v>17235.347863922245</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>16.712896826333637</v>
+        <v>-2962.2149542147513</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>3.7935352900000045E-2</v>
+        <v>24002.234035783946</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>14.62479819276308</v>
+        <v>558.99524195660592</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4473,42 +4472,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>15.539147</v>
+        <v>309.38211100000001</v>
       </c>
       <c r="I35">
-        <v>15.432864</v>
+        <v>366.778595</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>-0.10628299999999946</v>
+        <v>57.396483999999987</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>5.180317351851853</v>
+        <v>-92.387088046296128</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>4.5060602500000027</v>
+        <v>-148.70399578703694</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>26.835687865897395</v>
+        <v>8535.3740376740734</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>20.304578976630086</v>
+        <v>22112.878363031101</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>23.342822101564913</v>
+        <v>13738.32915161303</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>1.1296076088999886E-2</v>
+        <v>3294.3563755622545</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>19.35803984961759</v>
+        <v>8337.0617087398932</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4525,42 +4524,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>17.543989</v>
+        <v>306.09149200000002</v>
       </c>
       <c r="I36">
-        <v>12.870347000000001</v>
+        <v>294.694458</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6736419999999992</v>
+        <v>-11.397034000000019</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>2.6178003518518533</v>
+        <v>-164.47122504629613</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>6.5109022500000027</v>
+        <v>-151.99461478703694</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>6.8528786821556871</v>
+        <v>27050.783868229388</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>42.391848109055097</v>
+        <v>23102.362924259749</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>17.04424220092303</v>
+        <v>24998.74049446384</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>21.842929544163994</v>
+        <v>129.89238399715643</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>3.3755252262300752</v>
+        <v>26696.830893346436</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4577,42 +4576,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>14.280296999999999</v>
+        <v>417.00112899999999</v>
       </c>
       <c r="I37">
-        <v>10.587904999999999</v>
+        <v>274.35879499999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-3.6923919999999999</v>
+        <v>-142.64233400000001</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0.33535835185185192</v>
+        <v>-184.80688804629614</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>3.247210250000002</v>
+        <v>-41.084977787036962</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.11246522415679051</v>
+        <v>34153.585869356233</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>10.544374407705075</v>
+        <v>1687.9753997613207</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>1.0889790775564407</v>
+        <v>7592.7868902735036</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>13.633758681663998</v>
+        <v>20346.835448967558</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>0.19818679053306065</v>
+        <v>33755.725096491093</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4629,42 +4628,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>10.230907</v>
+        <v>590.675476</v>
       </c>
       <c r="I38">
-        <v>8.4551409999999994</v>
+        <v>514.78887899999995</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7757660000000008</v>
+        <v>-75.886597000000052</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.797405648148148</v>
+        <v>55.623195953703828</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.80217974999999697</v>
+        <v>132.58936921296305</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.230667063994864</v>
+        <v>3093.9399281041337</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>0.64349235131005766</v>
+        <v>17579.940828291434</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>1.4418424134800638</v>
+        <v>7375.0444651106291</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>3.153344886756003</v>
+        <v>5758.7756042404171</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>6.6458042899430509</v>
+        <v>3215.2043766351685</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4681,42 +4680,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>7.1330799999999996</v>
+        <v>546.326233</v>
       </c>
       <c r="I39">
-        <v>6.7407919999999999</v>
+        <v>824.81103499999995</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>-0.39228799999999975</v>
+        <v>278.48480199999995</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5117546481481474</v>
+        <v>365.64535195370382</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.9000067499999975</v>
+        <v>88.240126212963048</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>12.332420708790119</v>
+        <v>133696.52340534795</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>15.210052650045544</v>
+        <v>7786.3198740796488</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>13.695866832121641</v>
+        <v>32264.592005578121</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>0.1538898749439998</v>
+        <v>77553.784944979168</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>18.423794220877539</v>
+        <v>134487.17297280286</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4733,42 +4732,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>6.4847799999999998</v>
+        <v>396.43881199999998</v>
       </c>
       <c r="I40">
-        <v>4.9180770000000003</v>
+        <v>412.20935100000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5667029999999995</v>
+        <v>15.770539000000042</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3344696481481471</v>
+        <v>-46.956332046296097</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-4.5483067499999974</v>
+        <v>-61.647294787036969</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>28.456566427013815</v>
+        <v>2204.897119242014</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>20.687094292095537</v>
+        <v>3800.3889545598354</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>24.262804308342329</v>
+        <v>2894.7308437760062</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>2.4545582902089986</v>
+        <v>248.70990035052233</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>37.393344242595028</v>
+        <v>2104.6767215434261</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4785,42 +4784,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>6.225994</v>
+        <v>428.19784499999997</v>
       </c>
       <c r="I41">
-        <v>6.1956850000000001</v>
+        <v>382.81478900000002</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0308999999999919E-2</v>
+        <v>-45.383055999999954</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.0568616481481472</v>
+        <v>-76.350894046296105</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8070927499999971</v>
+        <v>-29.888261787036981</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>16.458126432215302</v>
+        <v>5829.4590216687338</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>23.108140707102535</v>
+        <v>893.308192650455</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>19.501710216565996</v>
+        <v>2281.9955089300211</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>9.1863548099999515E-4</v>
+        <v>2059.621771899132</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>23.400455690903033</v>
+        <v>5665.7712813971029</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4837,42 +4836,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>7.3793049999999996</v>
+        <v>607.63445999999999</v>
       </c>
       <c r="I42">
-        <v>7.492057</v>
+        <v>437.68179300000003</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>0.11275200000000041</v>
+        <v>-169.95266699999996</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7604896481481473</v>
+        <v>-21.483890046296096</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6537817499999976</v>
+        <v>149.54835321296304</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>7.6203030975330828</v>
+        <v>461.55753152134048</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>13.350121076633044</v>
+        <v>22364.709948709151</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>10.086226697467616</v>
+        <v>-3212.8803770319496</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>1.2713013504000092E-2</v>
+        <v>28883.909020412877</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>12.538891690385043</v>
+        <v>416.33602111986522</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4889,42 +4888,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>9.0679949999999998</v>
+        <v>555.67120399999999</v>
       </c>
       <c r="I43">
-        <v>8.5971530000000005</v>
+        <v>782.16125499999998</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>-0.47084199999999932</v>
+        <v>226.49005099999999</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6553936481481468</v>
+        <v>322.99557195370386</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9650917499999974</v>
+        <v>97.585097212963035</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>2.7403281303292304</v>
+        <v>104326.13950170028</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>3.8615855859180521</v>
+        <v>9522.8511980634466</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>3.2530004009783218</v>
+        <v>31519.554288458789</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.22169218896399936</v>
+        <v>51297.743201982601</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>5.9337732343890464</v>
+        <v>105024.70168925395</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4941,42 +4940,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>11.090636</v>
+        <v>420.54302999999999</v>
       </c>
       <c r="I44">
-        <v>11.077218</v>
+        <v>584.118652</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3417999999999708E-2</v>
+        <v>163.57562200000001</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>0.82467135185185292</v>
+        <v>124.95296895370387</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>5.7549250000002772E-2</v>
+        <v>-37.543076787036966</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.68008283856516261</v>
+        <v>15613.244450345284</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>3.3119161755628189E-3</v>
+        <v>1409.4826146373539</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>4.7459217795562531E-2</v>
+        <v>-4691.1189081971506</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>1.8004272399999217E-4</v>
+        <v>26756.984112686889</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>1.9475672265627704E-3</v>
+        <v>15884.202452857573</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4993,42 +4992,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>13.733128000000001</v>
+        <v>359.82342499999999</v>
       </c>
       <c r="I45">
-        <v>13.704166000000001</v>
+        <v>451.94134500000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>-2.8961999999999932E-2</v>
+        <v>92.117920000000026</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>3.4516193518518534</v>
+        <v>-7.2243380462961113</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>2.7000412500000035</v>
+        <v>-98.262681787036968</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>11.913676150078208</v>
+        <v>52.191060207161513</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>7.2902227517015818</v>
+        <v>9655.5546319804871</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>9.3195146292982809</v>
+        <v>709.88283056517912</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>8.3879744399999612E-4</v>
+        <v>8485.7111851264053</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>7.1346643597805812</v>
+        <v>37.758097419429426</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5045,42 +5044,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>15.970813</v>
+        <v>312.74288899999999</v>
       </c>
       <c r="I46">
-        <v>16.750347000000001</v>
+        <v>334.18719499999997</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>0.77953400000000173</v>
+        <v>21.444305999999983</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>6.4978003518518541</v>
+        <v>-124.97848804629615</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>4.9377262500000025</v>
+        <v>-145.34321778703696</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>42.221409412526079</v>
+        <v>15619.62247433819</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>24.381140519939088</v>
+        <v>21124.650956690057</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>32.08435936459815</v>
+        <v>18164.775606807416</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>0.60767325715600273</v>
+        <v>459.85825982163527</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>32.687064766230108</v>
+        <v>15350.940342011971</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5097,42 +5096,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>15.091783</v>
+        <v>310.54745500000001</v>
       </c>
       <c r="I47">
-        <v>15.772145</v>
+        <v>244.20327800000001</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>0.68036200000000058</v>
+        <v>-66.344177000000002</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>5.5195983518518528</v>
+        <v>-214.96240504629611</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>4.0586962500000023</v>
+        <v>-147.53865178703694</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>30.46596596576569</v>
+        <v>46208.835583287873</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>16.473015249764082</v>
+        <v>21767.653771136538</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>22.402373132167309</v>
+        <v>31715.263425429475</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>0.46289245104400079</v>
+        <v>4401.549821807329</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>22.45867309689309</v>
+        <v>45745.864449944958</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5149,42 +5148,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>16.564731999999999</v>
+        <v>361.43319700000001</v>
       </c>
       <c r="I48">
-        <v>13.215868</v>
+        <v>220.821213</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-3.348863999999999</v>
+        <v>-140.61198400000001</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>2.9633213518518531</v>
+        <v>-238.34447004629612</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>5.5316452500000022</v>
+        <v>-96.652909787036947</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>8.7812734343410934</v>
+        <v>56808.086401649751</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>30.599099171847588</v>
+        <v>9341.7849703011016</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>16.392042480194888</v>
+        <v>23036.686561623788</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>11.214890090495993</v>
+        <v>19771.730044416257</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>4.7645339853515765</v>
+        <v>56294.629823773925</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5201,42 +5200,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>13.51708</v>
+        <v>373.10821499999997</v>
       </c>
       <c r="I49">
-        <v>9.9914310000000004</v>
+        <v>315.99529999999999</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5256489999999996</v>
+        <v>-57.112914999999987</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26111564814814692</v>
+        <v>-143.17038304629614</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>2.4839932500000028</v>
+        <v>-84.977891787036981</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>6.8181381707826866E-2</v>
+        <v>20497.758581623162</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>6.1702224660455762</v>
+        <v>7221.2420925693668</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>-0.64860950746937263</v>
+        <v>12166.317317616787</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>12.430200871200997</v>
+        <v>3261.8850597972237</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>1.0850467015080558</v>
+        <v>20189.797373391069</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5253,42 +5252,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>9.5411929999999998</v>
+        <v>437.055206</v>
       </c>
       <c r="I50">
-        <v>7.4102540000000001</v>
+        <v>307.77313199999998</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1309389999999997</v>
+        <v>-129.28207400000002</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.8422926481481472</v>
+        <v>-151.39255104629615</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4918937499999974</v>
+        <v>-21.030900787036956</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>8.0786274977170081</v>
+        <v>22919.704512305387</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>2.2257469612890546</v>
+        <v>442.29878791419162</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>4.2403986374431621</v>
+        <v>3183.9217209510821</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>4.5409010217209991</v>
+        <v>16713.854657741482</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>13.124917134472541</v>
+        <v>22593.990389328414</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5305,42 +5304,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>6.266642</v>
+        <v>397.06753500000002</v>
       </c>
       <c r="I51">
-        <v>4.2807459999999997</v>
+        <v>356.69754</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9858960000000003</v>
+        <v>-40.369995000000017</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.9718006481481476</v>
+        <v>-102.46814304629612</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-4.7664447499999971</v>
+        <v>-61.018571787036933</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>35.662402981222634</v>
+        <v>10499.720339356203</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>22.718995554802536</v>
+        <v>3723.2661029297797</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>28.46425784741232</v>
+        <v>6252.4597423547893</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>3.9437829228160015</v>
+        <v>1629.7364963000264</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>45.594105604110531</v>
+        <v>10279.641475129452</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5357,42 +5356,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>6.2126669999999997</v>
+        <v>434.03185999999999</v>
       </c>
       <c r="I52">
-        <v>5.2900869999999998</v>
+        <v>335.19628899999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.92257999999999996</v>
+        <v>-98.835571000000016</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9624596481481476</v>
+        <v>-123.96939404629615</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8204197499999974</v>
+        <v>-24.054246787036959</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>24.626005759498636</v>
+        <v>15368.410660205845</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>23.23644656619004</v>
+        <v>578.60678849167789</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>23.921138496511368</v>
+        <v>2981.9903984290377</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>0.85115385639999996</v>
+        <v>9768.4700948960435</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>32.982046128500031</v>
+        <v>15101.907315731149</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5409,42 +5408,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.7544779999999998</v>
+        <v>631.33941700000003</v>
       </c>
       <c r="I53">
-        <v>5.9716139999999998</v>
+        <v>805.42468299999996</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>0.217136</v>
+        <v>174.08526599999993</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2809326481481476</v>
+        <v>346.25899995370384</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-5.2786087499999974</v>
+        <v>173.25331021296307</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>18.326384337980713</v>
+        <v>119895.29504893908</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>27.863710335576535</v>
+        <v>30016.709499749213</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>22.597368534675471</v>
+        <v>59990.517933009418</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>4.7148042495999999E-2</v>
+        <v>30305.679838290733</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>25.618506398992537</v>
+        <v>120644.08652564831</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5461,42 +5460,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>7.3748680000000002</v>
+        <v>835.55426</v>
       </c>
       <c r="I54">
-        <v>7.3243400000000003</v>
+        <v>1049.1136469999999</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>-5.0527999999999906E-2</v>
+        <v>213.5593869999999</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-2.928206648148147</v>
+        <v>589.94796395370372</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-3.658218749999997</v>
+        <v>377.46815321296305</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>8.5743941742590053</v>
+        <v>348038.6001731205</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>13.382564422851541</v>
+        <v>142482.20669000494</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>10.712020464130195</v>
+        <v>222686.56844535223</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>2.5530787839999907E-3</v>
+        <v>45607.611775815727</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>13.75480245563554</v>
+        <v>349313.55329018558</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5513,42 +5512,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>9.3415049999999997</v>
+        <v>535.69341999999995</v>
       </c>
       <c r="I55">
-        <v>8.8320469999999993</v>
+        <v>720.01660200000003</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>-0.50945800000000041</v>
+        <v>184.32318200000009</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-1.420499648148148</v>
+        <v>260.85091895370391</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6915817499999974</v>
+        <v>77.607313212962993</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>2.0178192503890124</v>
+        <v>68043.201918991806</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>2.8614488169330539</v>
+        <v>6022.8950641349402</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>2.402891280688825</v>
+        <v>20243.938969129325</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>0.2595474537640004</v>
+        <v>33975.035422605157</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>4.8445759810800526</v>
+        <v>68607.584322508075</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5565,42 +5564,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>11.304626000000001</v>
+        <v>474.80044600000002</v>
       </c>
       <c r="I56">
-        <v>11.221339</v>
+        <v>658.71105999999997</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>-8.3287000000000333E-2</v>
+        <v>183.91061399999995</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.96879235185185308</v>
+        <v>199.54537695370385</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.27153925000000356</v>
+        <v>16.714339212963068</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>0.93855862100664467</v>
+        <v>39818.357463595763</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>7.3733564290564435E-2</v>
+        <v>279.36913532599488</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.26306514862759173</v>
+        <v>3335.2691187827891</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>6.9367243690000554E-3</v>
+        <v>33823.11394185698</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>3.5438909630063714E-2</v>
+        <v>40250.371851703603</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5617,42 +5616,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>13.751113999999999</v>
+        <v>365.25045799999998</v>
       </c>
       <c r="I57">
-        <v>13.324306</v>
+        <v>441.70452899999998</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>-0.42680799999999941</v>
+        <v>76.454070999999999</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>3.0717593518518527</v>
+        <v>-17.461154046296144</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>2.7180272500000022</v>
+        <v>-92.835648787036973</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>9.4357055156893139</v>
+        <v>304.89190062848422</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>7.3876721317425744</v>
+        <v>8618.4576857100801</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>8.3491256237756808</v>
+        <v>1621.0175644582985</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>0.1821650688639995</v>
+        <v>5845.2249724730409</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>5.2496856515705757</v>
+        <v>268.3560907927432</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5669,42 +5668,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>15.858978</v>
+        <v>318.39080799999999</v>
       </c>
       <c r="I58">
-        <v>16.180609</v>
+        <v>362.28997800000002</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>0.321631</v>
+        <v>43.899170000000026</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>5.9280623518518532</v>
+        <v>-96.875705046296105</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>4.8258912500000033</v>
+        <v>-139.69529878703696</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>35.141923247443323</v>
+        <v>9384.9022282169608</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>23.289226356826596</v>
+        <v>19514.77650319953</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>28.608184233256299</v>
+        <v>13533.080561647199</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>0.103446500161</v>
+        <v>1927.1371266889023</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>26.496985314245098</v>
+        <v>9176.8982905825669</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5721,42 +5720,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>15.562533999999999</v>
+        <v>308.89999399999999</v>
       </c>
       <c r="I59">
-        <v>15.435485</v>
+        <v>278.85382099999998</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12704899999999952</v>
+        <v>-30.04617300000001</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>5.1829383518518526</v>
+        <v>-180.31186204629614</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>4.5294472500000023</v>
+        <v>-149.18611278703696</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>26.862849959096799</v>
+        <v>32512.367594602532</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>20.515892390532581</v>
+        <v>22256.496248506512</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>23.475845864714916</v>
+        <v>26900.025788079387</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>1.6141448400999878E-2</v>
+        <v>902.77251194592964</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>19.381110351603088</v>
+        <v>32124.212268446096</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5773,42 +5772,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>17.309576</v>
+        <v>308.72842400000002</v>
       </c>
       <c r="I60">
-        <v>13.738193000000001</v>
+        <v>235.81594799999999</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5713829999999991</v>
+        <v>-72.912476000000026</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>3.4856463518518535</v>
+        <v>-223.34973504629613</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>6.2764892500000027</v>
+        <v>-149.35768278703694</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>12.149730490178134</v>
+        <v>49885.104145250683</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>39.394317305365597</v>
+        <v>22307.717407513148</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>21.877621856699886</v>
+        <v>33358.998877613441</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>12.754776532688993</v>
+        <v>5316.2291564505795</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>7.3175998237890818</v>
+        <v>49404.023487214625</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5825,42 +5824,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>14.739573999999999</v>
+        <v>398.45404100000002</v>
       </c>
       <c r="I61">
-        <v>11.838914000000001</v>
+        <v>223.83869899999999</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-2.9006599999999985</v>
+        <v>-174.61534200000003</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.5863673518518535</v>
+        <v>-235.32698404629613</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>3.7064872500000021</v>
+        <v>-59.632065787036936</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>2.5165613750214626</v>
+        <v>55378.789420325716</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>13.738047734412579</v>
+        <v>3555.983270029501</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>5.8798503634551622</v>
+        <v>14033.034194113723</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>8.4138284355999904</v>
+        <v>30490.517661776972</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>0.64935755684256835</v>
+        <v>54871.848054946386</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5877,42 +5876,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>9.8582649999999994</v>
+        <v>595.29003899999998</v>
       </c>
       <c r="I62">
-        <v>8.3758119999999998</v>
+        <v>411.79901100000001</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4824529999999996</v>
+        <v>-183.49102799999997</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8767346481481475</v>
+        <v>-47.366672046296117</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1748217499999978</v>
+        <v>137.20393221296302</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>3.5221329395597509</v>
+        <v>2243.60162074137</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>1.3802061442730573</v>
+        <v>18824.919014699353</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>2.2048286836230369</v>
+        <v>-6498.8936605936633</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>2.1976668972089985</v>
+        <v>33668.957356496772</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>7.0611090969875487</v>
+        <v>2142.4952363983334</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5929,42 +5928,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>7.8168530000000001</v>
+        <v>652.56793200000004</v>
       </c>
       <c r="I63">
-        <v>7.792554</v>
+        <v>656.54193099999998</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>-2.4299000000000071E-2</v>
+        <v>3.9739989999999352</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4599926481481473</v>
+        <v>197.37624795370385</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-3.2162337499999971</v>
+        <v>194.48182521296309</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>6.0515638289429345</v>
+        <v>38957.383256281988</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>10.344159534639044</v>
+        <v>37823.180338165526</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>7.9119113797259395</v>
+        <v>38386.092955722699</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>5.9044140100000342E-4</v>
+        <v>15.792668052000485</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>10.501052503822544</v>
+        <v>39384.714164046483</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5981,42 +5980,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.9616559999999996</v>
+        <v>495.836029</v>
       </c>
       <c r="I64">
-        <v>6.7203629999999999</v>
+        <v>514.29370100000006</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>-0.24129299999999976</v>
+        <v>18.457672000000059</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5321836481481474</v>
+        <v>55.128017953703932</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0714307499999975</v>
+        <v>37.749922212963043</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>12.476321324245156</v>
+        <v>3039.0983635039029</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>16.576548352045542</v>
+        <v>1425.0566270847605</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>14.381041119717539</v>
+        <v>2081.0783895071536</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>5.8222311848999883E-2</v>
+        <v>340.68565565958619</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>18.59958614381404</v>
+        <v>3159.2936472091233</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6033,42 +6032,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>6.916982</v>
+        <v>488.14721700000001</v>
       </c>
       <c r="I65">
-        <v>7.6048359999999997</v>
+        <v>565.96466099999998</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>0.68785399999999974</v>
+        <v>77.817443999999966</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6477106481481476</v>
+        <v>106.79897795370385</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1161047499999972</v>
+        <v>30.061110212963058</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>7.0103716763170842</v>
+        <v>11406.021691955722</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>16.942318312972539</v>
+        <v>903.67034723591189</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>10.898254375468161</v>
+        <v>3210.4958468981035</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>0.47314312531599967</v>
+        <v>6055.5545906931311</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>11.752903204875546</v>
+        <v>11637.782459079202</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6085,42 +6084,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>8.7862369999999999</v>
+        <v>416.46539300000001</v>
       </c>
       <c r="I66">
-        <v>8.8436210000000006</v>
+        <v>385.28106700000001</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>5.7384000000000768E-2</v>
+        <v>-31.184325999999999</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4089256481481467</v>
+        <v>-73.884616046296117</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2468497499999973</v>
+        <v>-41.620713787036948</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>1.9850714820096753</v>
+        <v>5458.9364883085973</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>5.0483337990750501</v>
+        <v>1732.2838161424474</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>3.1656442403102476</v>
+        <v>3075.130457728008</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>3.2929234560000881E-3</v>
+        <v>972.4621880742759</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>4.7937602704230473</v>
+        <v>5300.573818392033</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6137,42 +6136,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>9.6646739999999998</v>
+        <v>406.82961999999998</v>
       </c>
       <c r="I67">
-        <v>10.058611000000001</v>
+        <v>396.03781099999998</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>0.39393700000000109</v>
+        <v>-10.791809000000001</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19393564814814646</v>
+        <v>-63.127872046296147</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3684127499999974</v>
+        <v>-51.256486787036977</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.7611035622641661E-2</v>
+        <v>3985.1282290935387</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>1.8725534543625555</v>
+        <v>2627.227437749696</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.26538401360543701</v>
+        <v>3235.7129394347394</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>0.15518635996900085</v>
+        <v>116.46314149248101</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>0.94960298733805526</v>
+        <v>3849.9910100756306</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6189,42 +6188,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>12.621722999999999</v>
+        <v>346.60943600000002</v>
       </c>
       <c r="I68">
-        <v>13.074730000000001</v>
+        <v>293.912689</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>0.45300700000000127</v>
+        <v>-52.696747000000016</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>2.8221833518518533</v>
+        <v>-165.25299404629612</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>1.5886362500000022</v>
+        <v>-111.47667078703694</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>7.9647188714697617</v>
+        <v>27308.552041265182</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>2.5237651348140693</v>
+        <v>12427.048129761415</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>4.4834227768983652</v>
+        <v>18421.853613871128</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>0.20521534204900116</v>
+        <v>2776.9471443820107</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>4.1683071602705768</v>
+        <v>26952.911107876982</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6241,42 +6240,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>15.265497</v>
+        <v>314.59197999999998</v>
       </c>
       <c r="I69">
-        <v>16.857534000000001</v>
+        <v>220.25415000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>1.5920370000000013</v>
+        <v>-94.337829999999968</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>6.6049873518518538</v>
+        <v>-238.91153304629611</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>4.2324102500000027</v>
+        <v>-143.49412678703698</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>43.625857918122968</v>
+        <v>57078.720622531437</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>17.913296524305085</v>
+        <v>20590.564422374242</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>27.955016169098162</v>
+        <v>34282.401813830591</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>2.534581809369004</v>
+        <v>8899.6261691088948</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>33.924185768032608</v>
+        <v>56564.03966915101</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6293,42 +6292,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>15.771437000000001</v>
+        <v>306.609711</v>
       </c>
       <c r="I70">
-        <v>18.027048000000001</v>
+        <v>173.981537</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>2.255611</v>
+        <v>-132.628174</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>7.7745013518518533</v>
+        <v>-285.18414604629612</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>4.7383502500000034</v>
+        <v>-151.47639578703695</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>60.442871269946295</v>
+        <v>81329.99715615515</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>22.451963091675093</v>
+        <v>22945.098480631066</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>36.83831042417259</v>
+        <v>43198.666578696902</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>5.0877809833210001</v>
+        <v>17590.232538574277</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>48.915493966501614</v>
+        <v>80715.40657387735</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6345,42 +6344,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>15.234439</v>
+        <v>305.545074</v>
       </c>
       <c r="I71">
-        <v>17.185048999999999</v>
+        <v>152.941193</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>1.9506099999999993</v>
+        <v>-152.603881</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>6.932502351851852</v>
+        <v>-306.22449004629613</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>4.2013522500000029</v>
+        <v>-152.54103278703695</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>48.059588858431461</v>
+        <v>93773.438304114112</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>17.651360728580087</v>
+        <v>23268.766683735885</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>29.125884354083091</v>
+        <v>46711.799976345726</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>3.8048793720999972</v>
+        <v>23287.94449626216</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>37.84663952542509</v>
+        <v>93113.418410098209</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6397,42 +6396,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>17.590731000000002</v>
+        <v>314.35513300000002</v>
       </c>
       <c r="I72">
-        <v>14.390521</v>
+        <v>139.972916</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-3.200210000000002</v>
+        <v>-174.38221700000003</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>4.1379743518518524</v>
+        <v>-319.19276704629613</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>6.5576442500000045</v>
+        <v>-143.73097378703693</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>17.122831736583759</v>
+        <v>101884.02253467106</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>43.002698109558125</v>
+        <v>20658.592825769898</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>27.135363715068795</v>
+        <v>45877.887233342975</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>10.241344044100012</v>
+        <v>30409.157605835098</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>11.27236474307308</v>
+        <v>101196.00215270977</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6449,42 +6448,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>16.491432</v>
+        <v>318.71112099999999</v>
       </c>
       <c r="I73">
-        <v>11.777958</v>
+        <v>126.537308</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-4.7134739999999997</v>
+        <v>-192.173813</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>1.5254113518518526</v>
+        <v>-332.62837504629613</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>5.4583452500000025</v>
+        <v>-139.37498578703696</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>2.3268797923584965</v>
+        <v>110641.63588593944</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>29.793532868197591</v>
+        <v>19425.386663136756</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>8.3262218066766422</v>
+        <v>46360.075044442725</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>22.216837148675996</v>
+        <v>36930.774402958967</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>0.5548331790765666</v>
+        <v>109924.60597712712</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6501,42 +6500,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>10.814403</v>
+        <v>499.521637</v>
       </c>
       <c r="I74">
-        <v>8.0507980000000003</v>
+        <v>221.43119799999999</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-2.7636050000000001</v>
+        <v>-278.090439</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-2.201748648148147</v>
+        <v>-237.73448504629613</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>-0.21868374999999673</v>
+        <v>41.435530212963045</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>4.8476971096221924</v>
+        <v>56517.685380227595</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>4.7822582514061074E-2</v>
+        <v>1716.9031640293733</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>0.48148665093446014</v>
+        <v>-9850.654437799014</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>7.6375125960250001</v>
+        <v>77334.29226321273</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>8.894046188376544</v>
+        <v>56005.545853000782</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6553,42 +6552,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>7.4575279999999999</v>
+        <v>667.88079800000003</v>
       </c>
       <c r="I75">
-        <v>7.1561149999999998</v>
+        <v>607.42169200000001</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>-0.30141300000000015</v>
+        <v>-60.45910600000002</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>-3.0964316481481475</v>
+        <v>148.25600895370388</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>-3.5755587499999972</v>
+        <v>209.79469121296307</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>9.5878889516534525</v>
+        <v>21979.844190880725</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>12.784620374701543</v>
+        <v>44013.812461142523</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>11.071473273313021</v>
+        <v>31103.323618908595</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>9.0849796569000094E-2</v>
+        <v>3655.3034983192383</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>15.030909950298042</v>
+        <v>22301.11701089815</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6605,42 +6604,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>7.1531960000000003</v>
+        <v>651.95007299999997</v>
       </c>
       <c r="I76">
-        <v>6.2070230000000004</v>
+        <v>434.39514200000002</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-0.94617299999999993</v>
+        <v>-217.55493099999995</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>-4.0455236481481469</v>
+        <v>-24.770541046296103</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>-3.8798907499999968</v>
+        <v>193.86396621296302</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>16.366261587725891</v>
+        <v>613.57970372624004</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>15.053552231935537</v>
+        <v>37583.23739582087</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>15.696189781356237</v>
+        <v>-4802.1153324759616</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>0.8952433459289999</v>
+        <v>47330.148002414739</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>23.290891319064031</v>
+        <v>561.26181254062385</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6657,42 +6656,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>6.5485870000000004</v>
+        <v>624.15045199999997</v>
       </c>
       <c r="I77">
-        <v>7.2024429999999997</v>
+        <v>641.31897000000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>0.65385599999999933</v>
+        <v>17.168518000000063</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>-3.0501036481481476</v>
+        <v>182.15328695370391</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>-4.4844997499999968</v>
+        <v>166.06434521296302</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>9.3031322644466385</v>
+        <v>33179.819948038399</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>20.110738007750033</v>
+        <v>27577.366751010155</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>13.678189047594445</v>
+        <v>30249.1663263558</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>0.42752766873599912</v>
+        <v>294.75801031632614</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>14.673831539414042</v>
+        <v>33574.282161220443</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6709,42 +6708,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>7.5068450000000002</v>
+        <v>621.98821999999996</v>
       </c>
       <c r="I78">
-        <v>7.5207629999999996</v>
+        <v>707.70825200000002</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>1.3917999999999431E-2</v>
+        <v>85.72003200000006</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>-2.7317836481481477</v>
+        <v>248.54256895370389</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>-3.526241749999997</v>
+        <v>163.902113212963</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>7.4626419002896025</v>
+        <v>61773.408582106655</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>12.43438087944304</v>
+        <v>26863.90271567494</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>9.6329295520673011</v>
+        <v>40736.652274890635</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>1.9371072399998416E-4</v>
+        <v>7347.9238860810347</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>12.336418124814045</v>
+        <v>62311.215380721616</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6761,42 +6760,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>9.8931830000000005</v>
+        <v>423.30352800000003</v>
       </c>
       <c r="I79">
-        <v>10.099689</v>
+        <v>676.07458499999996</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>0.20650599999999919</v>
+        <v>252.77105699999993</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-0.15285764814814762</v>
+        <v>216.90890195370383</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1399037499999967</v>
+        <v>-34.782578787036925</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>2.3365460597382898E-2</v>
+        <v>47049.471746761505</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>1.2993805592640548</v>
+        <v>1209.8277870764312</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>0.17424300634025353</v>
+        <v>-7544.6509718143716</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>4.2644728035999668E-2</v>
+        <v>63893.207256897214</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>0.87123135970505783</v>
+        <v>47518.976633603444</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6813,42 +6812,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>12.289350000000001</v>
+        <v>365.26574699999998</v>
       </c>
       <c r="I80">
-        <v>12.167942999999999</v>
+        <v>452.76947000000001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>-0.12140700000000137</v>
+        <v>87.503723000000036</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>1.915396351851852</v>
+        <v>-6.3962130462961113</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>1.2562632500000035</v>
+        <v>-92.820359787036978</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>3.6687431846873837</v>
+        <v>40.911541333608582</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>1.5781973533005713</v>
+        <v>8615.6191909949921</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>2.4062420460155578</v>
+        <v>593.69879623174484</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>1.4739659649000333E-2</v>
+        <v>7656.9015388607349</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>1.2878987081640674</v>
+        <v>28.266626725274492</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6865,42 +6864,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>14.915990000000001</v>
+        <v>340.24139400000001</v>
       </c>
       <c r="I81">
-        <v>14.868748</v>
+        <v>336.61318999999997</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>-4.7242000000000672E-2</v>
+        <v>-3.6282040000000393</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>4.6162013518518528</v>
+        <v>-122.55249304629615</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>3.8829032500000036</v>
+        <v>-117.84471278703694</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>21.309314920838872</v>
+        <v>15019.113551862467</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>15.076937648860591</v>
+        <v>13887.376331859228</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>17.924263231759969</v>
+        <v>14442.163344376111</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>2.2318065640000635E-3</v>
+        <v>13.163864265616285</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>14.712297224751584</v>
+        <v>14755.66951275041</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6917,42 +6916,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>15.57264</v>
+        <v>319.79556300000002</v>
       </c>
       <c r="I82">
-        <v>16.696805999999999</v>
+        <v>252.70665</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>1.1241659999999989</v>
+        <v>-67.088913000000019</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>6.4442593518518514</v>
+        <v>-206.45903304629613</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>4.5395532500000026</v>
+        <v>-138.29054378703694</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>41.528478593930046</v>
+        <v>42625.332326411597</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>20.607543709585588</v>
+        <v>19124.27450091438</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>29.254058484541982</v>
+        <v>28551.331949718122</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>1.2637491955559974</v>
+        <v>4500.922247521572</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>32.07771574282058</v>
+        <v>42180.721270138383</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6969,42 +6968,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>15.840978</v>
+        <v>306.16104100000001</v>
       </c>
       <c r="I83">
-        <v>16.748556000000001</v>
+        <v>204.46639999999999</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>0.90757800000000088</v>
+        <v>-101.69464100000002</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>6.4960093518518534</v>
+        <v>-254.69928304629613</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>4.8078912500000026</v>
+        <v>-151.92506578703694</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>42.198137499346736</v>
+        <v>64871.724784297272</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>23.115818271826587</v>
+        <v>23081.225614395502</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>31.232106522686713</v>
+        <v>38695.205332719685</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>0.82369782608400155</v>
+        <v>10341.800008118884</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>32.666588747695606</v>
+        <v>64322.955670742602</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7021,42 +7020,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>17.550526000000001</v>
+        <v>313.04083300000002</v>
       </c>
       <c r="I84">
-        <v>14.161457</v>
+        <v>178.68644699999999</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-3.389069000000001</v>
+        <v>-134.35438600000003</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>3.9089103518518531</v>
+        <v>-280.47923604629614</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>6.5174392500000042</v>
+        <v>-145.04527378703693</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>15.279580138814579</v>
+        <v>78668.601853113913</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>42.477014377440618</v>
+        <v>21038.131447956504</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>25.476085751890594</v>
+        <v>40682.187583913983</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>11.485788686761007</v>
+        <v>18051.101037437005</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>9.786700421085083</v>
+        <v>78064.169889112003</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7073,42 +7072,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>13.137869999999999</v>
+        <v>615.71966599999996</v>
       </c>
       <c r="I85">
-        <v>11.1876</v>
+        <v>331.07891799999999</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-1.9502699999999997</v>
+        <v>-284.64074799999997</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>0.93505335185185245</v>
+        <v>-128.08676504629614</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>2.1047832500000023</v>
+        <v>157.63355921296301</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>0.8743247708093842</v>
+        <v>16406.219380025068</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>4.4301125294805725</v>
+        <v>24848.338990146716</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>1.9680846328341377</v>
+        <v>-20190.772662322201</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>3.8035530728999989</v>
+        <v>81020.355421999484</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>2.3874344425563302E-2</v>
+        <v>16130.826003586049</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7125,42 +7124,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>10.271328</v>
+        <v>526.20257600000002</v>
       </c>
       <c r="I86">
-        <v>9.3414070000000002</v>
+        <v>404.97912600000001</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-0.92992100000000022</v>
+        <v>-121.22345000000001</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-0.91113964814814707</v>
+        <v>-54.186557046296116</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>-0.76175874999999671</v>
+        <v>68.116469212963068</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>0.83017545842752927</v>
+        <v>2936.1829645315033</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>0.58027639320155744</v>
+        <v>4639.8533780405451</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>0.69406859944876931</v>
+        <v>-3690.9969448004963</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>0.86475306624100046</v>
+        <v>14695.124829902503</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>2.861780376560052</v>
+        <v>2820.3514083147115</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7177,42 +7176,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>7.2091130000000003</v>
+        <v>384.30676299999999</v>
       </c>
       <c r="I87">
-        <v>6.1767459999999996</v>
+        <v>411.908569</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>-1.0323670000000007</v>
+        <v>27.60180600000001</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>-4.0758006481481477</v>
+        <v>-47.257114046296124</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>-3.8239737499999968</v>
+        <v>-73.779343787036964</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>16.612150923444862</v>
+        <v>2233.2348279846383</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>14.622775240689039</v>
+        <v>5443.3915696457898</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>15.585754688751489</v>
+        <v>3486.5988636048951</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>1.0657816226890013</v>
+        <v>761.85969446163654</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>23.584045480110539</v>
+        <v>2132.3649960732259</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7229,42 +7228,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.2981109999999996</v>
+        <v>316.60571299999998</v>
       </c>
       <c r="I88">
-        <v>4.7506050000000002</v>
+        <v>335.74652099999997</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>0.45249400000000062</v>
+        <v>19.140807999999993</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-5.5019416481481471</v>
+        <v>-123.41916204629615</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-6.7349757499999976</v>
+        <v>-141.48039378703697</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>30.271361899627149</v>
+        <v>15232.289560209909</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>45.359898353088028</v>
+        <v>20016.701826135049</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>37.055443578192794</v>
+        <v>17461.391647176108</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>0.20475082003600056</v>
+        <v>366.37053089286371</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>39.469576939083026</v>
+        <v>14966.974250543781</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7281,42 +7280,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>4.6612730000000004</v>
+        <v>577.45989999999995</v>
       </c>
       <c r="I89">
-        <v>6.3771940000000003</v>
+        <v>599.73553500000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>1.7159209999999998</v>
+        <v>22.275635000000079</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>-3.8753526481481471</v>
+        <v>140.5698519537039</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>-6.3718137499999967</v>
+        <v>119.37379321296299</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>15.018358147508856</v>
+        <v>19759.883278286234</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>40.600010464689021</v>
+        <v>14250.102506051249</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>24.693025289569263</v>
+        <v>16780.356439098272</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>2.9443848782409994</v>
+        <v>496.20391465322854</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>21.677337299502533</v>
+        <v>20064.560513059379</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7333,42 +7332,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>6.0570240000000002</v>
+        <v>965.16339100000005</v>
       </c>
       <c r="I90">
-        <v>7.0906229999999999</v>
+        <v>821.78002900000001</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>1.0335989999999997</v>
+        <v>-143.38336200000003</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>-3.1619236481481474</v>
+        <v>362.61434595370389</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>-4.976062749999997</v>
+        <v>507.07728421296309</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>9.9977611567184894</v>
+        <v>131489.16389143246</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>24.761200491937533</v>
+        <v>257127.37216479416</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>15.733930483894094</v>
+        <v>183873.49776286402</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>1.0683268928009995</v>
+        <v>20558.788498423055</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>15.543020420064041</v>
+        <v>132273.26905464882</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7385,42 +7384,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>8.1462880000000002</v>
+        <v>806.76019299999996</v>
       </c>
       <c r="I91">
-        <v>8.3418410000000005</v>
+        <v>915.23547399999995</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>0.19555300000000031</v>
+        <v>108.475281</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>-1.9107056481481468</v>
+        <v>456.06979095370383</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>-2.886798749999997</v>
+        <v>348.674086212963</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>3.6507960738652296</v>
+        <v>207999.65422055512</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>8.3336070230015444</v>
+        <v>121573.61839644476</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>5.5158226766920047</v>
+        <v>159019.71761011975</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>3.824097580900012E-2</v>
+        <v>11766.88658802896</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>7.2428036868930441</v>
+        <v>208985.54394321248</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7437,42 +7436,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>11.070387999999999</v>
+        <v>456.58734099999998</v>
       </c>
       <c r="I92">
-        <v>10.444659</v>
+        <v>970.514771</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>-0.62572899999999976</v>
+        <v>513.92742999999996</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>0.19211235185185238</v>
+        <v>511.34908795370387</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>3.7301250000002284E-2</v>
+        <v>-1.4987657870369731</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>3.6907155734049929E-2</v>
+        <v>261477.88975108479</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>1.3913832515626704E-3</v>
+        <v>2.2462988843925573</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>7.1660308645143476E-3</v>
+        <v>-766.3925182575714</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>0.39153678144099968</v>
+        <v>264121.40330640489</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>0.3462472169700595</v>
+        <v>262583.1359070816</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7489,42 +7488,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>13.511892</v>
+        <v>365.266998</v>
       </c>
       <c r="I93">
-        <v>13.197846</v>
+        <v>608.74694799999997</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>-0.31404599999999938</v>
+        <v>243.47994999999997</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>2.9452993518518529</v>
+        <v>149.58126495370385</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>2.4788052500000024</v>
+        <v>-92.819108787036953</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>8.6747882720189455</v>
+        <v>22374.554825150153</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>6.1444754674275748</v>
+        <v>8615.3869560198</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>7.3008234961919776</v>
+        <v>-13883.999704240436</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>9.8624890115999606E-2</v>
+        <v>59282.486052002489</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>4.6861826104605759</v>
+        <v>22698.689074997656</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7541,42 +7540,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>15.970141999999999</v>
+        <v>314.43472300000002</v>
       </c>
       <c r="I94">
-        <v>16.418118</v>
+        <v>433.807343</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>0.4479760000000006</v>
+        <v>119.37261999999998</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>6.1655713518518525</v>
+        <v>-25.358340046296121</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>4.937055250000002</v>
+        <v>-143.65138378703693</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>38.014270094776279</v>
+        <v>643.04540990358555</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>24.374514541552582</v>
+        <v>20635.720063930577</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>30.439766411909797</v>
+        <v>3642.7606381926721</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>0.20068249657600054</v>
+        <v>14249.822405664396</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>28.998561563476592</v>
+        <v>589.45837102673681</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7593,42 +7592,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>14.042047</v>
+        <v>308.12020899999999</v>
       </c>
       <c r="I95">
-        <v>14.948691</v>
+        <v>333.24765000000002</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>0.90664400000000001</v>
+        <v>25.127441000000033</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>4.6961443518518529</v>
+        <v>-125.9180330462961</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>3.008960250000003</v>
+        <v>-149.96589778703697</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>22.053771773430061</v>
+        <v>15855.351046248117</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>9.0538417860800813</v>
+        <v>22489.770499072019</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>14.130511682984253</v>
+        <v>18883.410873365585</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>0.82200334273600006</v>
+        <v>631.38829120848266</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>15.331956642618087</v>
+        <v>15584.640292968888</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7645,42 +7644,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>15.172940000000001</v>
+        <v>336.041473</v>
       </c>
       <c r="I96">
-        <v>12.859022</v>
+        <v>279.36144999999999</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-2.313918000000001</v>
+        <v>-56.680023000000006</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>2.6064753518518522</v>
+        <v>-179.80423304629613</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>4.1398532500000034</v>
+        <v>-122.04463378703696</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>6.7937137598112365</v>
+        <v>32329.56222136677</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>17.13838493153559</v>
+        <v>14894.892636211964</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>10.790425456408792</v>
+        <v>21944.141775494259</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>5.3542165107240045</v>
+        <v>3212.6250072805296</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>3.3340395371925711</v>
+        <v>31942.502943644158</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7697,42 +7696,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>11.8093</v>
+        <v>469.77722199999999</v>
       </c>
       <c r="I97">
-        <v>10.140311000000001</v>
+        <v>325.57327299999997</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-1.6689889999999998</v>
+        <v>-144.20394900000002</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-0.11223564814814679</v>
+        <v>-133.59241004629615</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>0.77621325000000319</v>
+        <v>11.691115212963041</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>1.2596840715234607E-2</v>
+        <v>17846.932021977729</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>0.60250700947556746</v>
+        <v>136.68217492277586</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>-8.7118797214929863E-2</v>
+        <v>-1561.8442574286496</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>2.7855242821209996</v>
+        <v>20794.778907194606</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>0.79704853978805656</v>
+        <v>17559.651118270889</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7749,42 +7748,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>7.9063020000000002</v>
+        <v>594.06372099999999</v>
       </c>
       <c r="I98">
-        <v>7.9655129999999996</v>
+        <v>611.67675799999995</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>5.9210999999999459E-2</v>
+        <v>17.613036999999963</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>-2.2870336481481477</v>
+        <v>152.51107495370383</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>-3.126784749999997</v>
+        <v>135.97761421296303</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>5.2305229077618254</v>
+        <v>23259.627983534265</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>9.776782872832543</v>
+        <v>18489.911567049407</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>7.1510619337664867</v>
+        <v>20738.092113259027</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>3.5059425209999361E-3</v>
+        <v>310.21907236336767</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>9.4100087116890467</v>
+        <v>23590.08814002205</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7801,42 +7800,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>5.3714690000000003</v>
+        <v>374.77539100000001</v>
       </c>
       <c r="I99">
-        <v>5.5748559999999996</v>
+        <v>490.97482300000001</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>0.20338699999999932</v>
+        <v>116.199432</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>-4.6776906481481477</v>
+        <v>31.809139953703891</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-5.6616177499999969</v>
+        <v>-83.310715787036941</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>21.880789799772639</v>
+        <v>1011.8213845943212</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>32.053915547115025</v>
+        <v>6940.6753649484463</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>26.483296402564545</v>
+        <v>-2650.0422181131062</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>4.1366271768999721E-2</v>
+        <v>13502.307997122625</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>29.792282920245537</v>
+        <v>1081.6676541368192</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7853,42 +7852,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>5.9902819999999997</v>
+        <v>598.81048599999997</v>
       </c>
       <c r="I100">
-        <v>6.7227480000000002</v>
+        <v>515.40911900000003</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>0.73246600000000051</v>
+        <v>-83.401366999999937</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>-3.5297986481481471</v>
+        <v>56.243435953703909</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>-5.0428047499999975</v>
+        <v>140.72437921296302</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>12.459478496468487</v>
+        <v>3163.3240878783936</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>25.429879746622536</v>
+        <v>19803.350904873816</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>17.800085389425046</v>
+        <v>7914.8226093890271</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>0.53650644115600077</v>
+        <v>6955.7880174686788</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>18.579020139751538</v>
+        <v>3285.9277291675144</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7905,42 +7904,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>5.8397410000000001</v>
+        <v>405.13906900000001</v>
       </c>
       <c r="I101">
-        <v>6.0133390000000002</v>
+        <v>531.03466800000001</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>0.17359800000000014</v>
+        <v>125.895599</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>-4.2392076481481471</v>
+        <v>71.868984953703887</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-5.1933457499999971</v>
+        <v>-52.947037787036948</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>17.970881484117744</v>
+        <v>5165.1509982757152</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>26.970840079043032</v>
+        <v>2803.3888104219186</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>22.015671022877662</v>
+        <v>-3805.2498620597494</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>3.013626560400005E-2</v>
+        <v>15849.701847568802</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>25.197867473630033</v>
+        <v>5321.4925830414177</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7957,42 +7956,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>7.6749799999999997</v>
+        <v>570.93872099999999</v>
       </c>
       <c r="I102">
-        <v>7.0182650000000004</v>
+        <v>404.23397799999998</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-0.65671499999999927</v>
+        <v>-166.70474300000001</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-3.2342816481481469</v>
+        <v>-54.931705046296145</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>-3.3581067499999975</v>
+        <v>112.85261421296303</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>10.460577779547894</v>
+        <v>3017.4922192932772</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>11.276880944395545</v>
+        <v>12735.712534699866</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>10.861063034047408</v>
+        <v>-6199.1865176499332</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>0.43127459122499906</v>
+        <v>27790.47133869605</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>16.118793684273037</v>
+        <v>2900.0517748956163</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8009,42 +8008,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>8.8553180000000005</v>
+        <v>531.574341</v>
       </c>
       <c r="I103">
-        <v>8.6028570000000002</v>
+        <v>656.39202899999998</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>-0.25246100000000027</v>
+        <v>124.81768799999998</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>-1.6496896481481471</v>
+        <v>197.22634595370386</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>-2.1777687499999967</v>
+        <v>73.48823421296305</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>2.7214759352071574</v>
+        <v>38898.231538250075</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>4.7426767284765479</v>
+        <v>5400.5205677393133</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>3.5926425629355245</v>
+        <v>14493.815904412666</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>6.3736556521000132E-2</v>
+        <v>15579.455237665337</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>5.906016637785048</v>
+        <v>39325.238784733745</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8061,42 +8060,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>13.112306</v>
+        <v>346.17675800000001</v>
       </c>
       <c r="I104">
-        <v>11.752383999999999</v>
+        <v>521.24169900000004</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>-1.359922000000001</v>
+        <v>175.06494100000003</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>1.499837351851852</v>
+        <v>62.076015953703916</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>2.0792192500000031</v>
+        <v>-111.90934878703695</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>2.2495120820099759</v>
+        <v>3853.4317566845029</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>4.3231526895705752</v>
+        <v>12523.702345938687</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>3.1184906938393984</v>
+        <v>-6946.8865206727214</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>1.8493878460840025</v>
+        <v>30647.733567333493</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>0.51738853385756556</v>
+        <v>3988.6288277700837</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8113,42 +8112,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>15.239114000000001</v>
+        <v>339.007294</v>
       </c>
       <c r="I105">
-        <v>13.440951999999999</v>
+        <v>358.698395</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>-1.7981620000000014</v>
+        <v>19.691101000000003</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>3.188405351851852</v>
+        <v>-100.46728804629612</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>4.2060272500000035</v>
+        <v>-119.07881278703695</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>10.165928687717532</v>
+        <v>10093.675967377436</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>17.690665227742592</v>
+        <v>14179.763654770195</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>13.410519793934739</v>
+        <v>11963.525384486211</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>3.233386578244005</v>
+        <v>387.73945859220112</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>5.7978150621575733</v>
+        <v>9877.9172542631241</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8165,42 +8164,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>16.630796</v>
+        <v>307.621216</v>
       </c>
       <c r="I106">
-        <v>16.549931999999998</v>
+        <v>279.09741200000002</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>-8.0864000000001823E-2</v>
+        <v>-28.523803999999984</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>6.297385351851851</v>
+        <v>-180.0682710462961</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>5.597709250000003</v>
+        <v>-150.46489078703695</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>39.65706226971826</v>
+        <v>32424.582237602361</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>31.334348847535594</v>
+        <v>22639.683359554958</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>35.250932234875627</v>
+        <v>27093.95273719151</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>6.5389864960002948E-3</v>
+        <v>813.60739463041511</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>30.435581512447577</v>
+        <v>32036.952861567064</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8217,42 +8216,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>15.781086999999999</v>
+        <v>305.64492799999999</v>
       </c>
       <c r="I107">
-        <v>16.771944000000001</v>
+        <v>232.69052099999999</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>0.99085700000000188</v>
+        <v>-72.954407000000003</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>6.519397351851854</v>
+        <v>-226.47516204629613</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>4.7480002500000023</v>
+        <v>-152.44117878703696</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>42.502541831332969</v>
+        <v>51290.999023896096</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>22.543506374000085</v>
+        <v>23238.312989981368</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>30.954100256441954</v>
+        <v>34524.140668322594</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>0.98179759444900372</v>
+        <v>5322.3455007216498</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>32.934482535877613</v>
+        <v>50803.170092281536</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8269,42 +8268,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>17.80415</v>
+        <v>305.62677000000002</v>
       </c>
       <c r="I108">
-        <v>13.094060000000001</v>
+        <v>199.79652400000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-4.7100899999999992</v>
+        <v>-105.83024600000002</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>2.8415133518518534</v>
+        <v>-259.36915904629609</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>6.7710632500000028</v>
+        <v>-152.45933678703693</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>8.0741981287523554</v>
+        <v>67272.360664382839</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>45.847297535500601</v>
+        <v>23243.849373543151</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>19.240066631108412</v>
+        <v>39543.2499712098</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>22.184947808099992</v>
+        <v>11200.040968420519</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>4.2476107372155774</v>
+        <v>66713.508576301596</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8321,42 +8320,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>14.8276</v>
+        <v>324.78241000000003</v>
       </c>
       <c r="I109">
-        <v>10.210146</v>
+        <v>175.65425099999999</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-4.6174540000000004</v>
+        <v>-149.12815900000004</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-4.2400648148147368E-2</v>
+        <v>-283.51143204629614</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>3.7945132500000032</v>
+        <v>-133.30369678703693</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>1.797814963382993E-3</v>
+        <v>80378.73210094159</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>14.398330804425587</v>
+        <v>17769.875577090279</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>-0.16088982120673329</v>
+        <v>37793.121973158086</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>21.320881442116004</v>
+        <v>22239.207806729293</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>0.67723147801055794</v>
+        <v>79767.753163309651</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8373,42 +8372,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>11.12496</v>
+        <v>400.33316000000002</v>
       </c>
       <c r="I110">
-        <v>7.540826</v>
+        <v>177.17825300000001</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-3.5841339999999997</v>
+        <v>-223.15490700000001</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-2.7117206481481473</v>
+        <v>-281.98743004629614</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>9.1873250000002571E-2</v>
+        <v>-57.752946787036933</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>7.3534288735930078</v>
+        <v>79516.910704114765</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>8.440694065562972E-3</v>
+        <v>3335.4028625863198</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>-0.24913458903748376</v>
+        <v>16285.605042077041</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>12.846016529955998</v>
+        <v>49798.112518178656</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>12.195885145990543</v>
+        <v>78909.222319239343</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8425,42 +8424,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>7.8121910000000003</v>
+        <v>529.74597200000005</v>
       </c>
       <c r="I111">
-        <v>6.1656829999999996</v>
+        <v>328.79098499999998</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-1.6465080000000007</v>
+        <v>-200.95498700000007</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-4.0868636481481477</v>
+        <v>-130.37469804629615</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>-3.2208957499999968</v>
+        <v>71.659865212963098</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>16.702454478554788</v>
+        <v>16997.561890662895</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>10.374169432368042</v>
+        <v>5135.1362823400386</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>13.163361755149852</v>
+        <v>-9342.6332891783459</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>2.7109885940640024</v>
+        <v>40382.906800170196</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>23.691619265514039</v>
+        <v>16717.228517924723</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7669491-8668-4456-89D8-E355D74E06F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752B90C-1756-47F0-B1F9-B761EEF1B1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics calculator" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Month index</t>
   </si>
@@ -98,10 +99,52 @@
     <t>average for 2010-18</t>
   </si>
   <si>
-    <t xml:space="preserve"> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</t>
+    <t xml:space="preserve"> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14162200_temp_BLUE RIVER AT BLUE RIVER_23773405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162200_temp_BLUE RIVER AT BLUE RIVER_23773405.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USGS_14159500_temp_SOUTH FORK MCKENZIE RIVER NEAR RAINBOW_23773009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159500_temp_SOUTH FORK MCKENZIE RIVER NEAR RAINBOW_23773009.csv</t>
+  </si>
+  <si>
+    <t>C136+</t>
+  </si>
+  <si>
+    <t>C136</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>sim minus obs</t>
   </si>
 </sst>
 </file>
@@ -591,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -607,6 +650,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -701,7 +747,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Blue River at Blue River flow C128</a:t>
+              <a:t>Simulated v. gaged temperature near</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hayden Bridge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>, CW3M ver. 138</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -750,7 +804,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</c:v>
+                  <c:v> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -774,328 +828,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>1096.5040280000001</c:v>
+                  <c:v>5.0337579999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>661.09948699999995</c:v>
+                  <c:v>5.2502069999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>524.34857199999999</c:v>
+                  <c:v>5.5751559999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>531.37255900000002</c:v>
+                  <c:v>5.6404370000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.84558099999998</c:v>
+                  <c:v>6.0187249999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>485.62496900000002</c:v>
+                  <c:v>6.6253310000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320.599762</c:v>
+                  <c:v>8.0312180000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>309.27450599999997</c:v>
+                  <c:v>7.9637000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>332.72421300000002</c:v>
+                  <c:v>6.6844609999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>386.131439</c:v>
+                  <c:v>5.9015829999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>442.28152499999999</c:v>
+                  <c:v>5.0198689999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>582.46612500000003</c:v>
+                  <c:v>4.9052369999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>634.505493</c:v>
+                  <c:v>4.9701269999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>446.066193</c:v>
+                  <c:v>5.0592030000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>579.556152</c:v>
+                  <c:v>5.1796259999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>614.13549799999998</c:v>
+                  <c:v>5.4630099999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>584.61309800000004</c:v>
+                  <c:v>6.0111540000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.25183099999998</c:v>
+                  <c:v>6.9946029999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>334.855774</c:v>
+                  <c:v>7.5187549999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>308.827789</c:v>
+                  <c:v>8.0709379999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>306.63552900000002</c:v>
+                  <c:v>7.4533339999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>332.00207499999999</c:v>
+                  <c:v>5.8336880000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>396.13388099999997</c:v>
+                  <c:v>5.0490170000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460.63711499999999</c:v>
+                  <c:v>4.914485</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>521.53424099999995</c:v>
+                  <c:v>4.9582459999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>559.169983</c:v>
+                  <c:v>5.0792630000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>613.78802499999995</c:v>
+                  <c:v>5.2452860000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>775.22540300000003</c:v>
+                  <c:v>5.6333859999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>478.91519199999999</c:v>
+                  <c:v>6.5814649999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>441.94363399999997</c:v>
+                  <c:v>6.4729409999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>326.80264299999999</c:v>
+                  <c:v>7.9430899999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>309.38211100000001</c:v>
+                  <c:v>8.1058649999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>306.09149200000002</c:v>
+                  <c:v>7.3547640000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>417.00112899999999</c:v>
+                  <c:v>5.9804820000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>590.675476</c:v>
+                  <c:v>5.1121920000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>546.326233</c:v>
+                  <c:v>4.8845169999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>396.43881199999998</c:v>
+                  <c:v>4.9369139999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>428.19784499999997</c:v>
+                  <c:v>5.117667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>607.63445999999999</c:v>
+                  <c:v>5.4710190000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>555.67120399999999</c:v>
+                  <c:v>5.9717310000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>420.54302999999999</c:v>
+                  <c:v>6.8351329999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>359.82342499999999</c:v>
+                  <c:v>7.1701709999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>312.74288899999999</c:v>
+                  <c:v>8.2082940000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>310.54745500000001</c:v>
+                  <c:v>7.9506629999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>361.43319700000001</c:v>
+                  <c:v>6.6867380000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>373.10821499999997</c:v>
+                  <c:v>5.7875199999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>437.055206</c:v>
+                  <c:v>5.0707500000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>397.06753500000002</c:v>
+                  <c:v>4.8515670000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>434.03185999999999</c:v>
+                  <c:v>5.1661419999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>631.33941700000003</c:v>
+                  <c:v>5.0043139999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>835.55426</c:v>
+                  <c:v>5.4101059999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>535.69341999999995</c:v>
+                  <c:v>5.8482719999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>474.80044600000002</c:v>
+                  <c:v>6.6093440000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>365.25045799999998</c:v>
+                  <c:v>7.1869519999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>318.39080799999999</c:v>
+                  <c:v>8.0584059999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>308.89999399999999</c:v>
+                  <c:v>8.0348419999999994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>308.72842400000002</c:v>
+                  <c:v>7.2648429999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>398.45404100000002</c:v>
+                  <c:v>5.9231980000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>595.29003899999998</c:v>
+                  <c:v>5.084778</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>652.56793200000004</c:v>
+                  <c:v>4.949192</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>495.836029</c:v>
+                  <c:v>5.1539919999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>488.14721700000001</c:v>
+                  <c:v>5.406536</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>416.46539300000001</c:v>
+                  <c:v>5.8562700000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>406.82961999999998</c:v>
+                  <c:v>6.1007069999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>346.60943600000002</c:v>
+                  <c:v>7.0389400000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>314.59197999999998</c:v>
+                  <c:v>7.9949960000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>306.609711</c:v>
+                  <c:v>8.3325549999999993</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>305.545074</c:v>
+                  <c:v>8.4381970000000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>314.35513300000002</c:v>
+                  <c:v>6.9259729999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>318.71112099999999</c:v>
+                  <c:v>6.3101979999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>499.521637</c:v>
+                  <c:v>5.0429940000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>667.88079800000003</c:v>
+                  <c:v>4.9246639999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>651.95007299999997</c:v>
+                  <c:v>4.9727360000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>624.15045199999997</c:v>
+                  <c:v>5.1658390000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>621.98821999999996</c:v>
+                  <c:v>5.29237</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>423.30352800000003</c:v>
+                  <c:v>6.2370150000000004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>365.26574699999998</c:v>
+                  <c:v>6.9809720000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>340.24139400000001</c:v>
+                  <c:v>7.4267440000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>319.79556300000002</c:v>
+                  <c:v>7.846743</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>306.16104100000001</c:v>
+                  <c:v>8.1649879999999992</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>313.04083300000002</c:v>
+                  <c:v>7.0741360000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>615.71966599999996</c:v>
+                  <c:v>5.3955099999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>526.20257600000002</c:v>
+                  <c:v>5.1544169999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>384.30676299999999</c:v>
+                  <c:v>4.8187790000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>316.60571299999998</c:v>
+                  <c:v>4.3940149999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>577.45989999999995</c:v>
+                  <c:v>4.8048799999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>965.16339100000005</c:v>
+                  <c:v>5.1158020000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>806.76019299999996</c:v>
+                  <c:v>5.4144880000000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>456.58734099999998</c:v>
+                  <c:v>6.2581600000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>365.266998</c:v>
+                  <c:v>7.1466219999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>314.43472300000002</c:v>
+                  <c:v>8.2498620000000003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>308.12020899999999</c:v>
+                  <c:v>7.6225909999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>336.041473</c:v>
+                  <c:v>6.5297140000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>469.77722199999999</c:v>
+                  <c:v>5.3447750000000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>594.06372099999999</c:v>
+                  <c:v>4.818009</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>374.77539100000001</c:v>
+                  <c:v>4.5630990000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>598.81048599999997</c:v>
+                  <c:v>5.0076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>405.13906900000001</c:v>
+                  <c:v>5.1185080000000003</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>570.93872099999999</c:v>
+                  <c:v>5.3581110000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>531.574341</c:v>
+                  <c:v>5.8127190000000004</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>346.17675800000001</c:v>
+                  <c:v>7.3695170000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>339.007294</c:v>
+                  <c:v>7.3800800000000004</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>307.621216</c:v>
+                  <c:v>8.407959</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>305.64492799999999</c:v>
+                  <c:v>8.2837960000000006</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>305.62677000000002</c:v>
+                  <c:v>7.0831480000000004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>324.78241000000003</c:v>
+                  <c:v>5.938123</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>400.33316000000002</c:v>
+                  <c:v>5.1767469999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>529.74597200000005</c:v>
+                  <c:v>4.937602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1140,328 +1194,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>633.59283400000004</c:v>
+                  <c:v>5.995069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425.65698200000003</c:v>
+                  <c:v>5.7064260000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.90524299999998</c:v>
+                  <c:v>5.4635199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516.30627400000003</c:v>
+                  <c:v>5.8469829999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.29437300000001</c:v>
+                  <c:v>7.3546389999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.17913799999997</c:v>
+                  <c:v>9.6800379999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.57525600000002</c:v>
+                  <c:v>14.584220999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.82794200000001</c:v>
+                  <c:v>15.261647999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.34721400000001</c:v>
+                  <c:v>12.806131000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.03131099999999</c:v>
+                  <c:v>9.8069469999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>366.80126999999999</c:v>
+                  <c:v>6.3599959999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656.46301300000005</c:v>
+                  <c:v>5.272043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758.90728799999999</c:v>
+                  <c:v>4.6519149999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>523.816101</c:v>
+                  <c:v>3.530357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>472.20327800000001</c:v>
+                  <c:v>4.778022</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>686.89923099999999</c:v>
+                  <c:v>5.180104</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>778.66332999999997</c:v>
+                  <c:v>6.3966960000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>826.61328100000003</c:v>
+                  <c:v>8.9151740000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>513.37567100000001</c:v>
+                  <c:v>13.210819000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>398.268799</c:v>
+                  <c:v>15.696068</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310.50412</c:v>
+                  <c:v>14.140558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>267.33938599999999</c:v>
+                  <c:v>10.113104</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>271.36877399999997</c:v>
+                  <c:v>5.8270860000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>332.02279700000003</c:v>
+                  <c:v>3.21502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>747.57867399999998</c:v>
+                  <c:v>4.3466950000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>626.625</c:v>
+                  <c:v>4.3152239999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>563.50689699999998</c:v>
+                  <c:v>4.1118129999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>898.37103300000001</c:v>
+                  <c:v>5.5996569999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>996.23992899999996</c:v>
+                  <c:v>7.8391130000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>681.18328899999995</c:v>
+                  <c:v>9.6897059999999993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>481.72918700000002</c:v>
+                  <c:v>14.292591</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>366.778595</c:v>
+                  <c:v>15.783275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>294.694458</c:v>
+                  <c:v>13.040979999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>274.35879499999999</c:v>
+                  <c:v>8.8601080000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>514.78887899999995</c:v>
+                  <c:v>7.1383010000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>824.81103499999995</c:v>
+                  <c:v>4.9432869999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>412.20935100000003</c:v>
+                  <c:v>3.7774809999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>382.81478900000002</c:v>
+                  <c:v>4.4470419999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>437.68179300000003</c:v>
+                  <c:v>5.2057549999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>782.16125499999998</c:v>
+                  <c:v>6.2931949999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>584.118652</c:v>
+                  <c:v>9.0125589999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>451.94134500000001</c:v>
+                  <c:v>11.620977999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>334.18719499999997</c:v>
+                  <c:v>16.109044999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>244.20327800000001</c:v>
+                  <c:v>16.403063</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>220.821213</c:v>
+                  <c:v>13.773477</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>315.99529999999999</c:v>
+                  <c:v>7.6693629999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>307.77313199999998</c:v>
+                  <c:v>6.3303070000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>356.69754</c:v>
+                  <c:v>3.3336269999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>335.19628899999998</c:v>
+                  <c:v>4.5585680000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>805.42468299999996</c:v>
+                  <c:v>4.6808779999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1049.1136469999999</c:v>
+                  <c:v>5.966812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>720.01660200000003</c:v>
+                  <c:v>6.9964919999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>658.71105999999997</c:v>
+                  <c:v>9.3046369999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>441.70452899999998</c:v>
+                  <c:v>11.878055</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>362.28997800000002</c:v>
+                  <c:v>16.008330999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>278.85382099999998</c:v>
+                  <c:v>16.785382999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>235.81594799999999</c:v>
+                  <c:v>13.869374000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>223.83869899999999</c:v>
+                  <c:v>10.811021</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>411.79901100000001</c:v>
+                  <c:v>7.4374570000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>656.54193099999998</c:v>
+                  <c:v>6.9163920000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>514.29370100000006</c:v>
+                  <c:v>5.9007389999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>565.96466099999998</c:v>
+                  <c:v>6.5825889999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>385.28106700000001</c:v>
+                  <c:v>6.894501</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>396.03781099999998</c:v>
+                  <c:v>7.3208640000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>293.912689</c:v>
+                  <c:v>10.762707000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>220.25415000000001</c:v>
+                  <c:v>15.518577000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>173.981537</c:v>
+                  <c:v>17.680610999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>152.941193</c:v>
+                  <c:v>17.090021</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>139.972916</c:v>
+                  <c:v>13.509548000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>126.537308</c:v>
+                  <c:v>11.196471000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.43119799999999</c:v>
+                  <c:v>6.740685</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>607.42169200000001</c:v>
+                  <c:v>5.9052759999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>434.39514200000002</c:v>
+                  <c:v>4.9835349999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>641.31897000000004</c:v>
+                  <c:v>5.8835810000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>707.70825200000002</c:v>
+                  <c:v>5.9938599999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>676.07458499999996</c:v>
+                  <c:v>7.9413900000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>452.76947000000001</c:v>
+                  <c:v>10.368010999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>336.61318999999997</c:v>
+                  <c:v>13.459146</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>252.70665</c:v>
+                  <c:v>15.561928</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>204.46639999999999</c:v>
+                  <c:v>16.301983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>178.68644699999999</c:v>
+                  <c:v>12.822082999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>331.07891799999999</c:v>
+                  <c:v>9.9084380000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>404.97912600000001</c:v>
+                  <c:v>8.2723960000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>411.908569</c:v>
+                  <c:v>5.093515</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>335.74652099999997</c:v>
+                  <c:v>3.808535</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>599.73553500000003</c:v>
+                  <c:v>5.1422619999999997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>821.78002900000001</c:v>
+                  <c:v>5.3439209999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>915.23547399999995</c:v>
+                  <c:v>6.1178819999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>970.514771</c:v>
+                  <c:v>8.1831309999999995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>608.74694799999997</c:v>
+                  <c:v>11.747901000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>433.807343</c:v>
+                  <c:v>15.931585</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>333.24765000000002</c:v>
+                  <c:v>16.562736999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>279.36144999999999</c:v>
+                  <c:v>13.422396000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>325.57327299999997</c:v>
+                  <c:v>8.4957209999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>611.67675799999995</c:v>
+                  <c:v>6.7252989999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>490.97482300000001</c:v>
+                  <c:v>4.4009349999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>515.40911900000003</c:v>
+                  <c:v>6.1181070000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>531.03466800000001</c:v>
+                  <c:v>4.2502230000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>404.23397799999998</c:v>
+                  <c:v>4.8250279999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>656.39202899999998</c:v>
+                  <c:v>6.2287509999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>521.24169900000004</c:v>
+                  <c:v>10.341208999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>358.698395</c:v>
+                  <c:v>12.749307</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>279.09741200000002</c:v>
+                  <c:v>16.671403999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>232.69052099999999</c:v>
+                  <c:v>16.85783</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>199.79652400000001</c:v>
+                  <c:v>12.116732000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>175.65425099999999</c:v>
+                  <c:v>9.4111759999999993</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>177.17825300000001</c:v>
+                  <c:v>6.3036919999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>328.79098499999998</c:v>
+                  <c:v>5.5905180000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1686,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>cfs</a:t>
+                  <a:t>deg C</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1784,7 +1838,432 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.3670289999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5843309999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3913570000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5803399999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7138150000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1028349999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1995249999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7618810000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1442739999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9939299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7775530000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7847039999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E52-47B4-98C6-BE39D55D0D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.242737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0254859999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.870177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3362550000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.764894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3578449999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3243179999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5130529999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.323399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.638032000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9627169999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E52-47B4-98C6-BE39D55D0D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1114194639"/>
+        <c:axId val="1039030879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1114194639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039030879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039030879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114194639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2340,20 +2819,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2856</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>113346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2361,6 +3356,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADB82B3-D7B3-46DD-99C5-60BF663677C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2833687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C132DA-F803-441E-9CF4-81797755C275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3290"/>
+  <dimension ref="A1:W3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I111"/>
@@ -2696,27 +3732,31 @@
     <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9">
+        <f>H2-I2</f>
+        <v>-2.8951063888888875</v>
+      </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2">
-        <f>AVERAGE(G4:G111)</f>
-        <v>30.435185185185187</v>
-      </c>
+      <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>458.08610678703695</v>
+        <v>6.1602766018518533</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>459.16568304629612</v>
+        <v>9.0553829907407408</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2727,13 +3767,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>2.3567103286130926E-3</v>
+        <v>0.46996370065892557</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -2749,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
@@ -2778,18 +3818,29 @@
       <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="str">
-        <f>H3</f>
-        <v xml:space="preserve"> USGS_14158500_flow_MCKENZIE RIVER AT OUTLET OF CLEAR LAKE  OR_23773373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>0.43101790009736496</v>
+        <v>-2.8839084518476499E-2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -2805,51 +3856,66 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>1096.5040280000001</v>
+        <v>5.0337579999999997</v>
       </c>
       <c r="I4">
-        <v>633.59283400000004</v>
+        <v>5.995069</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>-462.91119400000002</v>
+        <v>0.96131100000000025</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>174.42715095370392</v>
+        <v>-3.0603139907407408</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>638.41792121296317</v>
+        <v>-1.1265186018518536</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>30424.830989826212</v>
+        <v>9.3655217219235194</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>407577.44212588127</v>
+        <v>1.269044160318255</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>111357.41911496338</v>
+        <v>3.4475006380769257</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>214286.77353050566</v>
+        <v>0.92411883872100042</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>30802.611297005438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.7293551709640498E-2</v>
+      </c>
+      <c r="S4">
+        <v>5.224564</v>
+      </c>
+      <c r="T4">
+        <v>6.5884280000000004</v>
+      </c>
+      <c r="U4">
+        <v>6.5884280000000004</v>
+      </c>
+      <c r="V4">
+        <v>6.5872460000000004</v>
+      </c>
+      <c r="W4">
+        <v>5.224564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.75429909804860995</v>
+        <v>0.8342267072919467</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -2865,51 +3931,66 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>661.09948699999995</v>
+        <v>5.2502069999999996</v>
       </c>
       <c r="I5">
-        <v>425.65698200000003</v>
+        <v>5.7064260000000004</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>-235.44250499999993</v>
+        <v>0.45621900000000082</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-33.508701046296096</v>
+        <v>-3.3489569907407404</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>203.013380212963</v>
+        <v>-0.9100696018518537</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>1122.8330458100452</v>
+        <v>11.215512925831275</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>41214.43254549308</v>
+        <v>0.82822668021479151</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>-6802.7146659542204</v>
+        <v>3.0477839551824077</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>55433.173160674989</v>
+        <v>0.20813577596100075</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>1051.6481344532128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.20598036880128909</v>
+      </c>
+      <c r="S5">
+        <v>5.8026419999999996</v>
+      </c>
+      <c r="T5">
+        <v>5.7353670000000001</v>
+      </c>
+      <c r="U5">
+        <v>5.7353670000000001</v>
+      </c>
+      <c r="V5">
+        <v>6.1014759999999999</v>
+      </c>
+      <c r="W5">
+        <v>5.8026419999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.43371863149412104</v>
+        <v>0.89276094347282531</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -2925,51 +4006,66 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>524.34857199999999</v>
+        <v>5.5751559999999998</v>
       </c>
       <c r="I6">
-        <v>373.90524299999998</v>
+        <v>5.4635199999999999</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-150.44332900000001</v>
+        <v>-0.11163599999999985</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-85.260440046296139</v>
+        <v>-3.5918629907407409</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>66.262465212963036</v>
+        <v>-0.58512060185185355</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>7269.3426368880582</v>
+        <v>12.90147974425302</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>4390.7142960991368</v>
+        <v>0.34236611871147532</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>-5649.5669426096183</v>
+        <v>2.1016730349116211</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>22633.195240602243</v>
+        <v>1.2462596495999966E-2</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>7086.417827931672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.48546976222414218</v>
+      </c>
+      <c r="S6">
+        <v>5.923997</v>
+      </c>
+      <c r="T6">
+        <v>5.882441</v>
+      </c>
+      <c r="U6">
+        <v>5.882441</v>
+      </c>
+      <c r="V6">
+        <v>7.3270049999999998</v>
+      </c>
+      <c r="W6">
+        <v>5.923997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>458.08610678703695</v>
+        <v>6.1602766018518533</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -2985,51 +4081,66 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>531.37255900000002</v>
+        <v>5.6404370000000004</v>
       </c>
       <c r="I7">
-        <v>516.30627400000003</v>
+        <v>5.8469829999999998</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>-15.066284999999993</v>
+        <v>0.20654599999999945</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>57.140590953703907</v>
+        <v>-3.208399990740741</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>73.28645221296307</v>
+        <v>-0.51983960185185296</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>3265.0471345385085</v>
+        <v>10.293830500585187</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>5370.9040779629195</v>
+        <v>0.27023321165349301</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>4187.6311883490916</v>
+        <v>1.6678533737681556</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>226.99294370122482</v>
+        <v>4.2661250115999777E-2</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>3389.5878703053809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>9.8152880961307712E-2</v>
+      </c>
+      <c r="S7">
+        <v>7.5821870000000002</v>
+      </c>
+      <c r="T7">
+        <v>6.2105370000000004</v>
+      </c>
+      <c r="U7">
+        <v>6.2105370000000004</v>
+      </c>
+      <c r="V7">
+        <v>8.4893850000000004</v>
+      </c>
+      <c r="W7">
+        <v>7.5821870000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>149.4899431277266</v>
+        <v>1.1682635951135514</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -3045,51 +4156,66 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>472.84558099999998</v>
+        <v>6.0187249999999999</v>
       </c>
       <c r="I8">
-        <v>510.29437300000001</v>
+        <v>7.3546389999999997</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>37.448792000000026</v>
+        <v>1.3359139999999998</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>51.128689953703883</v>
+        <v>-1.7007439907407411</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>14.759474212963028</v>
+        <v>-0.14155160185185345</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2614.1429363819802</v>
+        <v>2.8925301220407422</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>217.84207904312058</v>
+        <v>2.0036855986825641E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>754.63258091427429</v>
+        <v>0.24074303622926571</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1402.412022259266</v>
+        <v>1.7846662153959996</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>2725.7030609636195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.4265015381101913</v>
+      </c>
+      <c r="S8">
+        <v>9.4392139999999998</v>
+      </c>
+      <c r="T8">
+        <v>6.5755290000000004</v>
+      </c>
+      <c r="U8">
+        <v>6.5755290000000004</v>
+      </c>
+      <c r="V8">
+        <v>9.9157399999999996</v>
+      </c>
+      <c r="W8">
+        <v>9.4392139999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>459.16568304629612</v>
+        <v>9.0553829907407408</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -3105,51 +4231,66 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>485.62496900000002</v>
+        <v>6.6253310000000001</v>
       </c>
       <c r="I9">
-        <v>628.17913799999997</v>
+        <v>9.6800379999999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>142.55416899999994</v>
+        <v>3.0547069999999996</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>169.01345495370384</v>
+        <v>0.62465500925925888</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>27.538862212963068</v>
+        <v>0.46505439814814675</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>28565.547955387679</v>
+        <v>0.39019388059268478</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>758.38893198456515</v>
+        <v>0.21627559323693502</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>4654.4382481068906</v>
+        <v>0.29049855938128966</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>20321.691099280546</v>
+        <v>9.3312348558489973</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>28931.63926721401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12.388720299893794</v>
+      </c>
+      <c r="S9">
+        <v>9.8762489999999996</v>
+      </c>
+      <c r="T9">
+        <v>6.801971</v>
+      </c>
+      <c r="U9">
+        <v>6.801971</v>
+      </c>
+      <c r="V9">
+        <v>11.143119</v>
+      </c>
+      <c r="W9">
+        <v>9.8762489999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>210.46385366426577</v>
+        <v>4.1858969541271742</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3164,45 +4305,60 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>320.599762</v>
+        <v>8.0312180000000009</v>
       </c>
       <c r="I10">
-        <v>374.57525600000002</v>
+        <v>14.584220999999999</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>53.975494000000026</v>
+        <v>6.5530029999999986</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-84.590427046296099</v>
+        <v>5.5288380092592586</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-137.48634478703696</v>
+        <v>1.8709413981481475</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>7155.540347874743</v>
+        <v>30.568049732629881</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>18902.495002900003</v>
+        <v>3.5004217153045452</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>11630.028618569762</v>
+        <v>10.344131915178139</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>2913.3539525440387</v>
+        <v>42.941848318008979</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>6974.0621991747466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>70.962839223091535</v>
+      </c>
+      <c r="S10">
+        <v>13.152755000000001</v>
+      </c>
+      <c r="T10">
+        <v>7.1369730000000002</v>
+      </c>
+      <c r="U10">
+        <v>7.1369730000000002</v>
+      </c>
+      <c r="V10">
+        <v>13.856355000000001</v>
+      </c>
+      <c r="W10">
+        <v>13.152755000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>7</v>
       </c>
@@ -3216,51 +4372,66 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>309.27450599999997</v>
+        <v>7.9637000000000002</v>
       </c>
       <c r="I11">
-        <v>275.82794200000001</v>
+        <v>15.261647999999999</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>-33.446563999999967</v>
+        <v>7.297947999999999</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-183.33774104629612</v>
+        <v>6.2062650092592584</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-148.81160078703698</v>
+        <v>1.8034233981481469</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>33612.727291958734</v>
+        <v>38.517725365155826</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>22144.892528800465</v>
+        <v>3.2523359529882097</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>27282.782729778581</v>
+        <v>11.192523532806272</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>1118.6726434060938</v>
+        <v>53.260045010703983</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>33218.038631538715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>82.834961327029134</v>
+      </c>
+      <c r="S11">
+        <v>13.913205</v>
+      </c>
+      <c r="T11">
+        <v>7.4031919999999998</v>
+      </c>
+      <c r="U11">
+        <v>7.4031919999999998</v>
+      </c>
+      <c r="V11">
+        <v>16.792356000000002</v>
+      </c>
+      <c r="W11">
+        <v>13.913205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.65857317854139874</v>
+        <v>0.94486027722241839</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -3276,45 +4447,60 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>332.72421300000002</v>
+        <v>6.6844609999999998</v>
       </c>
       <c r="I12">
-        <v>241.34721400000001</v>
+        <v>12.806131000000001</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-91.376999000000012</v>
+        <v>6.1216700000000008</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-217.81846904629612</v>
+        <v>3.7507480092592598</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-125.36189378703693</v>
+        <v>0.52418439814814644</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>47444.885457672259</v>
+        <v>14.0681106289623</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>15715.60441387233</v>
+        <v>0.2747692832619345</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>27306.135781436766</v>
+        <v>1.9660835878389236</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>8349.7559462460031</v>
+        <v>37.474843588900008</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>46975.747646550699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>44.167380681385076</v>
+      </c>
+      <c r="S12">
+        <v>12.812222</v>
+      </c>
+      <c r="T12">
+        <v>7.5716789999999996</v>
+      </c>
+      <c r="U12">
+        <v>7.5716789999999996</v>
+      </c>
+      <c r="V12">
+        <v>18.412051999999999</v>
+      </c>
+      <c r="W12">
+        <v>12.812222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>9</v>
       </c>
@@ -3328,45 +4514,60 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>386.131439</v>
+        <v>5.9015829999999996</v>
       </c>
       <c r="I13">
-        <v>229.03131099999999</v>
+        <v>9.8069469999999992</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>-157.10012800000001</v>
+        <v>3.9053639999999996</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-230.13437204629614</v>
+        <v>0.75156400925925837</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-71.954667787036954</v>
+        <v>-0.25869360185185375</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>52961.829197143052</v>
+        <v>0.56484846001385058</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>5177.4742163428537</v>
+        <v>6.6922379639085428E-2</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>16559.242286969602</v>
+        <v>-0.1944248005774975</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>24680.450217616388</v>
+        <v>15.251867972495997</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>52466.099473041206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.298204992729957</v>
+      </c>
+      <c r="S13">
+        <v>9.4167349999999992</v>
+      </c>
+      <c r="T13">
+        <v>7.5526289999999996</v>
+      </c>
+      <c r="U13">
+        <v>7.5526289999999996</v>
+      </c>
+      <c r="V13">
+        <v>18.058346</v>
+      </c>
+      <c r="W13">
+        <v>9.4167349999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>10</v>
       </c>
@@ -3380,45 +4581,60 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>442.28152499999999</v>
+        <v>5.0198689999999999</v>
       </c>
       <c r="I14">
-        <v>366.80126999999999</v>
+        <v>6.3599959999999998</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-75.480255</v>
+        <v>1.3401269999999998</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-92.364413046296136</v>
+        <v>-2.6953869907407411</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-15.804581787036966</v>
+        <v>-1.1404076018518534</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>8531.1847973867989</v>
+        <v>7.2651110298544275</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>249.78480546314057</v>
+        <v>1.3005294983614955</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>1459.7809202018514</v>
+        <v>3.0738398141733323</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>5697.2688948650248</v>
+        <v>1.7959403761289996</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>8332.9214272359768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.9887837996657835E-2</v>
+      </c>
+      <c r="S14">
+        <v>7.0914609999999998</v>
+      </c>
+      <c r="T14">
+        <v>6.8328519999999999</v>
+      </c>
+      <c r="U14">
+        <v>6.8328519999999999</v>
+      </c>
+      <c r="V14">
+        <v>13.442185</v>
+      </c>
+      <c r="W14">
+        <v>7.0914609999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>11</v>
       </c>
@@ -3432,45 +4648,60 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>582.46612500000003</v>
+        <v>4.9052369999999996</v>
       </c>
       <c r="I15">
-        <v>656.46301300000005</v>
+        <v>5.272043</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>73.996888000000013</v>
+        <v>0.36680600000000041</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>197.29732995370392</v>
+        <v>-3.7833399907407408</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>124.38001821296308</v>
+        <v>-1.2550396018518537</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>38926.236406860713</v>
+        <v>14.313661485538148</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>15470.388930657027</v>
+        <v>1.5751244022164594</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>24539.845493010682</v>
+        <v>4.7482415156494548</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>5475.5394336845457</v>
+        <v>0.1345466416360003</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>39353.396918626757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.78895893145871665</v>
+      </c>
+      <c r="S15">
+        <v>5.3976810000000004</v>
+      </c>
+      <c r="T15">
+        <v>5.5303319999999996</v>
+      </c>
+      <c r="U15">
+        <v>5.5303319999999996</v>
+      </c>
+      <c r="V15">
+        <v>7.4527349999999997</v>
+      </c>
+      <c r="W15">
+        <v>5.3976810000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>12</v>
       </c>
@@ -3484,42 +4715,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>634.505493</v>
+        <v>4.9701269999999997</v>
       </c>
       <c r="I16">
-        <v>758.90728799999999</v>
+        <v>4.6519149999999998</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>124.40179499999999</v>
+        <v>-0.31821199999999994</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>299.74160495370387</v>
+        <v>-4.403467990740741</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>176.41938621296305</v>
+        <v>-1.1901496018518536</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>89845.029740222279</v>
+        <v>19.3905303454783</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>31123.799831758617</v>
+        <v>1.4164560747881256</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>52880.229968420877</v>
+        <v>5.2407856759474747</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>15475.806599222024</v>
+        <v>0.10125887694399996</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>90493.383066362352</v>
+        <v>2.2751547219410897</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -3536,42 +4767,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>446.066193</v>
+        <v>5.0592030000000001</v>
       </c>
       <c r="I17">
-        <v>523.816101</v>
+        <v>3.530357</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>77.749908000000005</v>
+        <v>-1.5288460000000001</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>64.650417953703879</v>
+        <v>-5.5250259907407404</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-12.019913787036955</v>
+        <v>-1.1010736018518532</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>4179.6765415885966</v>
+        <v>30.5259121983607</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>144.47832744780109</v>
+        <v>1.2123630766950133</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>-777.09245009942674</v>
+        <v>6.0834602679500112</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>6045.0481940084646</v>
+        <v>2.3373700917160005</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>4320.4321392361562</v>
+        <v>6.9164771122046105</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -3588,42 +4819,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>579.556152</v>
+        <v>5.1796259999999998</v>
       </c>
       <c r="I18">
-        <v>472.20327800000001</v>
+        <v>4.778022</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-107.35287399999999</v>
+        <v>-0.40160399999999985</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>13.037594953703888</v>
+        <v>-4.2773609907407408</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>121.47004521296304</v>
+        <v>-0.98065060185185349</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>169.97888217684508</v>
+        <v>18.295817045110613</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>14754.971884039285</v>
+        <v>0.96167560291240251</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>1583.6772484947101</v>
+        <v>4.1945966299075481</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>11524.639556059872</v>
+        <v>0.16128577281599987</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>199.29452305611287</v>
+        <v>1.9106277843406256</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -3640,42 +4871,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>614.13549799999998</v>
+        <v>5.4630099999999997</v>
       </c>
       <c r="I19">
-        <v>686.89923099999999</v>
+        <v>5.180104</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>72.763733000000002</v>
+        <v>-0.28290599999999966</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>227.73354795370386</v>
+        <v>-3.8752789907407408</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>156.04939121296303</v>
+        <v>-0.69726660185185363</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>51862.568863581939</v>
+        <v>15.017787256076575</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>24351.412497936384</v>
+        <v>0.48618071405803137</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>35537.681516943609</v>
+        <v>2.7021026131016774</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>5294.5608400952897</v>
+        <v>8.0035804835999813E-2</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>52355.445812096848</v>
+        <v>0.96073832942103166</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -3692,42 +4923,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>584.61309800000004</v>
+        <v>6.0111540000000003</v>
       </c>
       <c r="I20">
-        <v>778.66332999999997</v>
+        <v>6.3966960000000004</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>194.05023199999994</v>
+        <v>0.38554200000000005</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>319.49764695370385</v>
+        <v>-2.6586869907407404</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>126.52699121296308</v>
+        <v>-0.149122601851853</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>102078.74640895359</v>
+        <v>7.0686165147340541</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>16009.079505405238</v>
+        <v>2.2237550383066271E-2</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>40425.075968673671</v>
+        <v>0.39647032156893264</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>37655.492539253799</v>
+        <v>0.14864263376400003</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>102769.75604293392</v>
+        <v>5.5894131820732079E-2</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -3744,42 +4975,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>400.25183099999998</v>
+        <v>6.9946029999999997</v>
       </c>
       <c r="I21">
-        <v>826.61328100000003</v>
+        <v>8.9151740000000004</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>426.36145000000005</v>
+        <v>1.9205710000000007</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>367.44759795370391</v>
+        <v>-0.14020899074074045</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>-57.834275787036972</v>
+        <v>0.83432639814814635</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>135017.73724194683</v>
+        <v>1.9658561084537042E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>3344.8034558110512</v>
+        <v>0.69610053864685928</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-21251.065717338795</v>
+        <v>-0.11698006223270878</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>181784.08604610254</v>
+        <v>3.6885929660410026</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>135812.27813339164</v>
+        <v>7.5894596743234306</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -3796,42 +5027,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>334.855774</v>
+        <v>7.5187549999999996</v>
       </c>
       <c r="I22">
-        <v>513.37567100000001</v>
+        <v>13.210819000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>178.51989700000001</v>
+        <v>5.6920640000000011</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>54.209987953703887</v>
+        <v>4.1554360092592599</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>-123.23033278703696</v>
+        <v>1.3584783981481463</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2938.7227939407207</v>
+        <v>17.267648427048524</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>15185.714918803877</v>
+        <v>1.8454635582351535</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>-6680.3148559161946</v>
+        <v>5.6450700534656448</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>31869.353624890613</v>
+        <v>32.399592580096012</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>3056.9359108593653</v>
+        <v>49.710148108084631</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -3848,42 +5079,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>308.827789</v>
+        <v>8.0709379999999999</v>
       </c>
       <c r="I23">
-        <v>398.268799</v>
+        <v>15.696068</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>89.441010000000006</v>
+        <v>7.6251300000000004</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>-60.896884046296123</v>
+        <v>6.6406850092592595</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>-149.25831778703696</v>
+        <v>1.9106613981481466</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>3708.4304865480353</v>
+        <v>44.098697392200648</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>22278.045428616115</v>
+        <v>3.6506269783734306</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>9089.3664712224072</v>
+        <v>12.688100504452734</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>7999.694269820101</v>
+        <v>58.142607516900007</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>3578.1103108891116</v>
+        <v>90.931317588996194</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -3900,42 +5131,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>306.63552900000002</v>
+        <v>7.4533339999999999</v>
       </c>
       <c r="I24">
-        <v>310.50412</v>
+        <v>14.140558</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.8685909999999808</v>
+        <v>6.6872240000000005</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>-148.66156304629612</v>
+        <v>5.0851750092592596</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>-151.45057778703693</v>
+        <v>1.2930573981481466</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>22100.260327367876</v>
+        <v>25.859004874794909</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>22937.277512027325</v>
+        <v>1.6719974349056546</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>22514.879618085568</v>
+        <v>6.5754231666007552</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>14.965996325280852</v>
+        <v>44.718964826176006</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>21780.442824009151</v>
+        <v>63.684891193629348</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -3952,42 +5183,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>332.00207499999999</v>
+        <v>5.8336880000000004</v>
       </c>
       <c r="I25">
-        <v>267.33938599999999</v>
+        <v>10.113104</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>-64.662689</v>
+        <v>4.2794159999999994</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>-191.82629704629613</v>
+        <v>1.057721009259259</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-126.08403178703696</v>
+        <v>-0.3265886018518529</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>36797.328238493843</v>
+        <v>1.1187737334284256</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>15897.183071674548</v>
+        <v>0.1066601148595481</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>24186.232934374795</v>
+        <v>-0.34543962556331215</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>4181.2633487107214</v>
+        <v>18.313401301055997</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>36384.311491007837</v>
+        <v>15.624844439550646</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -4004,42 +5235,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>396.13388099999997</v>
+        <v>5.0490170000000001</v>
       </c>
       <c r="I26">
-        <v>271.36877399999997</v>
+        <v>5.8270860000000004</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>-124.765107</v>
+        <v>0.77806900000000034</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-187.79690904629615</v>
+        <v>-3.2282969907407404</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-61.95222578703698</v>
+        <v>-1.1112596018518532</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>35267.679047342826</v>
+        <v>10.421901460425721</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>3838.0782799680096</v>
+        <v>1.2348979027079394</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>11634.436511343787</v>
+        <v>3.5874760285900913</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>15566.331924721449</v>
+        <v>0.60539136876100053</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>34863.362363105116</v>
+        <v>0.11101597716239996</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -4056,42 +5287,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>460.63711499999999</v>
+        <v>4.914485</v>
       </c>
       <c r="I27">
-        <v>332.02279700000003</v>
+        <v>3.21502</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-128.61431799999997</v>
+        <v>-1.699465</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-127.1428860462961</v>
+        <v>-5.8403629907407408</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>2.5510082129630405</v>
+        <v>-1.2457916018518533</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>16165.313472181435</v>
+        <v>34.109839863614134</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>6.5076429026048856</v>
+        <v>1.5519967152446066</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>-324.34254652392531</v>
+        <v>7.275875165631188</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>16541.642794605115</v>
+        <v>2.888181286225</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>15891.95807446244</v>
+        <v>8.6745364507519263</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -4108,42 +5339,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>521.53424099999995</v>
+        <v>4.9582459999999999</v>
       </c>
       <c r="I28">
-        <v>747.57867399999998</v>
+        <v>4.3466950000000004</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>226.04443300000003</v>
+        <v>-0.61155099999999951</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>288.41299095370385</v>
+        <v>-4.7086879907407404</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>63.448134212962998</v>
+        <v>-1.2020306018518534</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>83182.053350861257</v>
+        <v>22.171742594146071</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>4025.6657351061658</v>
+        <v>1.444877567788329</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>18299.266158792685</v>
+        <v>5.6599870594426864</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>51096.085690291504</v>
+        <v>0.37399462560099939</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>83805.946471551913</v>
+        <v>3.2890782265755329</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -4160,42 +5391,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>559.169983</v>
+        <v>5.0792630000000001</v>
       </c>
       <c r="I29">
-        <v>626.625</v>
+        <v>4.3152239999999997</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>67.455016999999998</v>
+        <v>-0.76403900000000036</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>167.45931695370388</v>
+        <v>-4.7401589907407411</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>101.08387621296305</v>
+        <v>-1.0810136018518532</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>28042.622834601054</v>
+        <v>22.46910725750028</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>10217.950030237636</v>
+        <v>1.168590407388717</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>16927.436865655545</v>
+        <v>5.1241763439310937</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>4550.1793184702883</v>
+        <v>0.58375559352100059</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>28405.35852545056</v>
+        <v>3.4042191036002944</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -4212,42 +5443,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>613.78802499999995</v>
+        <v>5.2452860000000001</v>
       </c>
       <c r="I30">
-        <v>563.50689699999998</v>
+        <v>4.1118129999999997</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-50.281127999999967</v>
+        <v>-1.1334730000000004</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>104.34121395370386</v>
+        <v>-4.9435699907407411</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>155.70191821296299</v>
+        <v>-0.91499060185185321</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>10887.088929332604</v>
+        <v>24.438884253352413</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>24243.087335196218</v>
+        <v>0.83720780147721652</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>16246.127161260871</v>
+        <v>4.5233200811246315</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>2528.1918329523805</v>
+        <v>1.284761041729001</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>11113.54300912556</v>
+        <v>4.1962031281118692</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -4264,42 +5495,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>775.22540300000003</v>
+        <v>5.6333859999999998</v>
       </c>
       <c r="I31">
-        <v>898.37103300000001</v>
+        <v>5.5996569999999997</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>123.14562999999998</v>
+        <v>-3.372900000000012E-2</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>439.20534995370389</v>
+        <v>-3.4557259907407412</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>317.13929621296307</v>
+        <v>-0.52689060185185355</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>192901.33942795551</v>
+        <v>11.942042123081077</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>100577.33320245353</v>
+        <v>0.27761370631980847</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>139289.27557728579</v>
+        <v>1.8207895470964819</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>15164.846188096895</v>
+        <v>1.1376454410000081E-3</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>193850.81625035431</v>
+        <v>0.31429433798053091</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -4316,42 +5547,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>478.91519199999999</v>
+        <v>6.5814649999999997</v>
       </c>
       <c r="I32">
-        <v>996.23992899999996</v>
+        <v>7.8391130000000002</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>517.32473699999991</v>
+        <v>1.2576480000000005</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>537.07424595370389</v>
+        <v>-1.2162699907407406</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>20.829085212963037</v>
+        <v>0.42118839814814635</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>288448.74566673965</v>
+        <v>1.4793126903764813</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>433.85079080887544</v>
+        <v>0.17739966673460145</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>11186.765234657567</v>
+        <v>-0.5122788091157533</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>267624.88351211906</v>
+        <v>1.5816784919040014</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>289609.53636242135</v>
+        <v>2.8184916517470433</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -4368,42 +5599,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>441.94363399999997</v>
+        <v>6.4729409999999996</v>
       </c>
       <c r="I33">
-        <v>681.18328899999995</v>
+        <v>9.6897059999999993</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>239.23965499999997</v>
+        <v>3.2167649999999997</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>222.01760595370382</v>
+        <v>0.63432300925925844</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>-16.142472787036979</v>
+        <v>0.31266439814814628</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>49291.817353414102</v>
+        <v>0.40236568007572127</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>260.5794276802294</v>
+        <v>9.7759025869342542E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>-3583.9131623507633</v>
+        <v>0.19833022192156707</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>57235.612524519012</v>
+        <v>10.347577065224998</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>49772.352711364008</v>
+        <v>12.456871876512384</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -4420,42 +5651,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>326.80264299999999</v>
+        <v>7.9430899999999998</v>
       </c>
       <c r="I34">
-        <v>481.72918700000002</v>
+        <v>14.292591</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>154.92654400000004</v>
+        <v>6.3495010000000001</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>22.563503953703901</v>
+        <v>5.237208009259259</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>-131.28346378703696</v>
+        <v>1.7828133981481464</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>509.11171066881155</v>
+        <v>27.428347732249332</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>17235.347863922245</v>
+        <v>3.1784236126165415</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>-2962.2149542147513</v>
+        <v>9.3369646077961885</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>24002.234035783946</v>
+        <v>40.316162949001004</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>558.99524195660592</v>
+        <v>66.134537470327643</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -4472,42 +5703,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>309.38211100000001</v>
+        <v>8.1058649999999997</v>
       </c>
       <c r="I35">
-        <v>366.778595</v>
+        <v>15.783275</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>57.396483999999987</v>
+        <v>7.6774100000000001</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>-92.387088046296128</v>
+        <v>6.7278920092592589</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>-148.70399578703694</v>
+        <v>1.9455883981481463</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>8535.3740376740734</v>
+        <v>45.26453088825459</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>22112.878363031101</v>
+        <v>3.78531421500867</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>13738.32915161303</v>
+        <v>13.089708637208435</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>3294.3563755622545</v>
+        <v>58.942624308100001</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>8337.0617087398932</v>
+        <v>92.602098170761792</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -4524,42 +5755,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>306.09149200000002</v>
+        <v>7.3547640000000003</v>
       </c>
       <c r="I36">
-        <v>294.694458</v>
+        <v>13.040979999999999</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>-11.397034000000019</v>
+        <v>5.686215999999999</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>-164.47122504629613</v>
+        <v>3.9855970092592585</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>-151.99461478703694</v>
+        <v>1.194487398148147</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>27050.783868229388</v>
+        <v>15.884983520216347</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>23102.362924259749</v>
+        <v>1.4268001443347298</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>24998.74049446384</v>
+        <v>4.760745401657128</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>129.89238399715643</v>
+        <v>32.333052398655987</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>26696.830893346436</v>
+        <v>47.344079253287447</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -4576,42 +5807,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>417.00112899999999</v>
+        <v>5.9804820000000003</v>
       </c>
       <c r="I37">
-        <v>274.35879499999999</v>
+        <v>8.8601080000000003</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>-142.64233400000001</v>
+        <v>2.879626</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-184.80688804629614</v>
+        <v>-0.19527499074074051</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-41.084977787036962</v>
+        <v>-0.17979460185185303</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>34153.585869356233</v>
+        <v>3.8132322008796293E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>1687.9753997613207</v>
+        <v>3.2326098855066356E-2</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>7592.7868902735036</v>
+        <v>3.5109389211855725E-2</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>20346.835448967558</v>
+        <v>8.2922458998760007</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>33755.725096491093</v>
+        <v>7.2890895784265783</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -4628,42 +5859,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>590.675476</v>
+        <v>5.1121920000000003</v>
       </c>
       <c r="I38">
-        <v>514.78887899999995</v>
+        <v>7.1383010000000002</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>-75.886597000000052</v>
+        <v>2.0261089999999999</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>55.623195953703828</v>
+        <v>-1.9170819907407406</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>132.58936921296305</v>
+        <v>-1.048084601851853</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3093.9399281041337</v>
+        <v>3.6752033592224809</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>17579.940828291434</v>
+        <v>1.0984813326389573</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>7375.0444651106291</v>
+        <v>2.0092641149828667</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>5758.7756042404171</v>
+        <v>4.1051176798809994</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>3215.2043766351685</v>
+        <v>0.95653172337304493</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -4680,42 +5911,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>546.326233</v>
+        <v>4.8845169999999998</v>
       </c>
       <c r="I39">
-        <v>824.81103499999995</v>
+        <v>4.9432869999999998</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>278.48480199999995</v>
+        <v>5.8769999999999989E-2</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>365.64535195370382</v>
+        <v>-4.1120959907407411</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>88.240126212963048</v>
+        <v>-1.2757596018518536</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>133696.52340534795</v>
+        <v>16.909333437066078</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>7786.3198740796488</v>
+        <v>1.6275625617171998</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>32264.592005578121</v>
+        <v>5.2460459439240115</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>77553.784944979168</v>
+        <v>3.4539128999999985E-3</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>134487.17297280286</v>
+        <v>1.481063691015533</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -4732,42 +5963,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>396.43881199999998</v>
+        <v>4.9369139999999998</v>
       </c>
       <c r="I40">
-        <v>412.20935100000003</v>
+        <v>3.7774809999999999</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>15.770539000000042</v>
+        <v>-1.1594329999999999</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-46.956332046296097</v>
+        <v>-5.277901990740741</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-61.647294787036969</v>
+        <v>-1.2233626018518535</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>2204.897119242014</v>
+        <v>27.856249423865076</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>3800.3889545598354</v>
+        <v>1.4966160556097368</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>2894.7308437760062</v>
+        <v>6.45678791171167</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>248.70990035052233</v>
+        <v>1.3442848814889998</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>2104.6767215434261</v>
+        <v>5.6777148802045367</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -4784,42 +6015,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>428.19784499999997</v>
+        <v>5.117667</v>
       </c>
       <c r="I41">
-        <v>382.81478900000002</v>
+        <v>4.4470419999999997</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-45.383055999999954</v>
+        <v>-0.67062500000000025</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-76.350894046296105</v>
+        <v>-4.6083409907407411</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-29.888261787036981</v>
+        <v>-1.0426096018518534</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>5829.4590216687338</v>
+        <v>21.236806686941357</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>893.308192650455</v>
+        <v>1.0870347818736803</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>2281.9955089300211</v>
+        <v>4.8047005655537793</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>2059.621771899132</v>
+        <v>0.44973789062500036</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>5665.7712813971029</v>
+        <v>2.9351728009824796</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -4836,42 +6067,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>607.63445999999999</v>
+        <v>5.4710190000000001</v>
       </c>
       <c r="I42">
-        <v>437.68179300000003</v>
+        <v>5.2057549999999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-169.95266699999996</v>
+        <v>-0.26526400000000017</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-21.483890046296096</v>
+        <v>-3.8496279907407409</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>149.54835321296304</v>
+        <v>-0.68925760185185325</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>461.55753152134048</v>
+        <v>14.819635667094595</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>22364.709948709151</v>
+        <v>0.47507604171056789</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>-3212.8803770319496</v>
+        <v>2.6533853569197312</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>28883.909020412877</v>
+        <v>7.0364989696000094E-2</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>416.33602111986522</v>
+        <v>0.91111148840182821</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -4888,42 +6119,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>555.67120399999999</v>
+        <v>5.9717310000000001</v>
       </c>
       <c r="I43">
-        <v>782.16125499999998</v>
+        <v>6.2931949999999999</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>226.49005099999999</v>
+        <v>0.32146399999999975</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>322.99557195370386</v>
+        <v>-2.762187990740741</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>97.585097212963035</v>
+        <v>-0.18854560185185321</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>104326.13950170028</v>
+        <v>7.6296824961923715</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>9522.8511980634466</v>
+        <v>3.554944397767755E-2</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>31519.554288458789</v>
+        <v>0.52079839714217413</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>51297.743201982601</v>
+        <v>0.10333910329599984</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>105024.70168925395</v>
+        <v>1.7667300566269206E-2</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -4940,42 +6171,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>420.54302999999999</v>
+        <v>6.8351329999999999</v>
       </c>
       <c r="I44">
-        <v>584.118652</v>
+        <v>9.0125589999999995</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>163.57562200000001</v>
+        <v>2.1774259999999996</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>124.95296895370387</v>
+        <v>-4.282399074074128E-2</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>-37.543076787036966</v>
+        <v>0.67485639814814657</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>15613.244450345284</v>
+        <v>1.833894182963095E-3</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>1409.4826146373539</v>
+        <v>0.45543115812148971</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-4691.1189081971506</v>
+        <v>-2.890004414562624E-2</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>26756.984112686889</v>
+        <v>4.7411839854759981</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>15884.202452857573</v>
+        <v>8.1355148787857399</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -4992,42 +6223,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>359.82342499999999</v>
+        <v>7.1701709999999999</v>
       </c>
       <c r="I45">
-        <v>451.94134500000001</v>
+        <v>11.620977999999999</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>92.117920000000026</v>
+        <v>4.4508069999999993</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>-7.2243380462961113</v>
+        <v>2.5655950092592583</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>-98.262681787036968</v>
+        <v>1.0098943981481465</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>52.191060207161513</v>
+        <v>6.5822777515360134</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>9655.5546319804871</v>
+        <v>1.0198866954110071</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>709.88283056517912</v>
+        <v>2.5909800277677673</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>8485.7111851264053</v>
+        <v>19.809682951248995</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>37.758097419429426</v>
+        <v>29.819259759737115</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -5044,42 +6275,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>312.74288899999999</v>
+        <v>8.2082940000000004</v>
       </c>
       <c r="I46">
-        <v>334.18719499999997</v>
+        <v>16.109044999999998</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>21.444305999999983</v>
+        <v>7.9007509999999979</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>-124.97848804629615</v>
+        <v>7.0536620092592575</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>-145.34321778703696</v>
+        <v>2.0480173981481471</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>15619.62247433819</v>
+        <v>49.754147740867346</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>21124.650956690057</v>
+        <v>4.1943752631175064</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>18164.775606807416</v>
+        <v>14.446022515619577</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>459.85825982163527</v>
+        <v>62.421866364000969</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>15350.940342011971</v>
+        <v>98.9779926399912</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -5096,42 +6327,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>310.54745500000001</v>
+        <v>7.9506629999999996</v>
       </c>
       <c r="I47">
-        <v>244.20327800000001</v>
+        <v>16.403063</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>-66.344177000000002</v>
+        <v>8.4524000000000008</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>-214.96240504629611</v>
+        <v>7.3476800092592587</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>-147.53865178703694</v>
+        <v>1.7903863981481463</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>46208.835583287873</v>
+        <v>53.988401518468137</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>21767.653771136538</v>
+        <v>3.2054834546738924</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>31715.263425429475</v>
+        <v>13.155186346522822</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>4401.549821807329</v>
+        <v>71.44306576000001</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>45745.864449944958</v>
+        <v>104.91467319808868</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -5148,42 +6379,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>361.43319700000001</v>
+        <v>6.6867380000000001</v>
       </c>
       <c r="I48">
-        <v>220.821213</v>
+        <v>13.773477</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>-140.61198400000001</v>
+        <v>7.0867389999999997</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>-238.34447004629612</v>
+        <v>4.7180940092592589</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>-96.652909787036947</v>
+        <v>0.52646139814814674</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>56808.086401649751</v>
+        <v>22.260411080208108</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>9341.7849703011016</v>
+        <v>0.27716160374010146</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>23036.686561623788</v>
+        <v>2.4838943687090245</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>19771.730044416257</v>
+        <v>50.221869654120994</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>56294.629823773925</v>
+        <v>57.960820302363096</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -5200,42 +6431,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>373.10821499999997</v>
+        <v>5.7875199999999998</v>
       </c>
       <c r="I49">
-        <v>315.99529999999999</v>
+        <v>7.6693629999999997</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>-57.112914999999987</v>
+        <v>1.8818429999999999</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-143.17038304629614</v>
+        <v>-1.3860199907407411</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-84.977891787036981</v>
+        <v>-0.37275660185185355</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>20497.758581623162</v>
+        <v>1.921051414732964</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>7221.2420925693668</v>
+        <v>0.13894748422414127</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>12166.317317616787</v>
+        <v>0.51664810184725618</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>3261.8850597972237</v>
+        <v>3.5413330766489999</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>20189.797373391069</v>
+        <v>2.2773417570757459</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -5252,42 +6483,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>437.055206</v>
+        <v>5.0707500000000003</v>
       </c>
       <c r="I50">
-        <v>307.77313199999998</v>
+        <v>6.3303070000000004</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>-129.28207400000002</v>
+        <v>1.259557</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-151.39255104629615</v>
+        <v>-2.7250759907407405</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-21.030900787036956</v>
+        <v>-1.089526601851853</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>22919.704512305387</v>
+        <v>7.4260391553116278</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>442.29878791419162</v>
+        <v>1.1870682161428463</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>3183.9217209510821</v>
+        <v>2.9690427839798308</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>16713.854657741482</v>
+        <v>1.5864838362490001</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>22593.990389328414</v>
+        <v>2.8910336294417398E-2</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -5304,42 +6535,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>397.06753500000002</v>
+        <v>4.8515670000000002</v>
       </c>
       <c r="I51">
-        <v>356.69754</v>
+        <v>3.3336269999999999</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-40.369995000000017</v>
+        <v>-1.5179400000000003</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-102.46814304629612</v>
+        <v>-5.7217559907407409</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-61.018571787036933</v>
+        <v>-1.3087096018518531</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>10499.720339356203</v>
+        <v>32.738491617577559</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>3723.2661029297797</v>
+        <v>1.712720821979236</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>6252.4597423547893</v>
+        <v>7.4881170045357708</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>1629.7364963000264</v>
+        <v>2.304141843600001</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>10279.641475129452</v>
+        <v>7.9899479716492419</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -5356,42 +6587,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>434.03185999999999</v>
+        <v>5.1661419999999998</v>
       </c>
       <c r="I52">
-        <v>335.19628899999998</v>
+        <v>4.5585680000000002</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-98.835571000000016</v>
+        <v>-0.60757399999999961</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-123.96939404629615</v>
+        <v>-4.4968149907407406</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-24.054246787036959</v>
+        <v>-0.99413460185185354</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>15368.410660205845</v>
+        <v>20.221345060950647</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>578.60678849167789</v>
+        <v>0.9883036065991434</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>2981.9903984290377</v>
+        <v>4.4704393804214924</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>9768.4700948960435</v>
+        <v>0.36914616547599954</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>15101.907315731149</v>
+        <v>2.565470445246218</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -5408,42 +6639,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>631.33941700000003</v>
+        <v>5.0043139999999999</v>
       </c>
       <c r="I53">
-        <v>805.42468299999996</v>
+        <v>4.6808779999999999</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>174.08526599999993</v>
+        <v>-0.32343600000000006</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>346.25899995370384</v>
+        <v>-4.374504990740741</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>173.25331021296307</v>
+        <v>-1.1559626018518534</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>119895.29504893908</v>
+        <v>19.136293914015649</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>30016.709499749213</v>
+        <v>1.3362495368801066</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>59990.517933009418</v>
+        <v>5.0567641709105846</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>30305.679838290733</v>
+        <v>0.10461084609600003</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>120644.08652564831</v>
+        <v>2.1886202231612186</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -5460,42 +6691,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>835.55426</v>
+        <v>5.4101059999999999</v>
       </c>
       <c r="I54">
-        <v>1049.1136469999999</v>
+        <v>5.966812</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>213.5593869999999</v>
+        <v>0.55670600000000015</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>589.94796395370372</v>
+        <v>-3.0885709907407408</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>377.46815321296305</v>
+        <v>-0.75017060185185347</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>348038.6001731205</v>
+        <v>9.5392707648452415</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>142482.20669000494</v>
+        <v>0.56275593188277206</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>222686.56844535223</v>
+        <v>2.3169551589861568</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>45607.611775815727</v>
+        <v>0.30992157043600016</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>349313.55329018558</v>
+        <v>3.7428552169696129E-2</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -5512,42 +6743,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>535.69341999999995</v>
+        <v>5.8482719999999997</v>
       </c>
       <c r="I55">
-        <v>720.01660200000003</v>
+        <v>6.9964919999999999</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>184.32318200000009</v>
+        <v>1.1482200000000002</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>260.85091895370391</v>
+        <v>-2.0588909907407409</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>77.607313212962993</v>
+        <v>-0.31200460185185364</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>68043.201918991806</v>
+        <v>4.2390321117533896</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>6022.8950641349402</v>
+        <v>9.7346871576733704E-2</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>20243.938969129325</v>
+        <v>0.64238346382243339</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>33975.035422605157</v>
+        <v>1.3184091684000006</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>68607.584322508075</v>
+        <v>0.6992561921000634</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -5564,42 +6795,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>474.80044600000002</v>
+        <v>6.6093440000000001</v>
       </c>
       <c r="I56">
-        <v>658.71105999999997</v>
+        <v>9.3046369999999996</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>183.91061399999995</v>
+        <v>2.6952929999999995</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>199.54537695370385</v>
+        <v>0.24925400925925878</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>16.714339212963068</v>
+        <v>0.44906739814814678</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>39818.357463595763</v>
+        <v>6.2127561131814661E-2</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>279.36913532599488</v>
+        <v>0.20166152807954618</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>3335.2691187827891</v>
+        <v>0.11193184941604943</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>33823.11394185698</v>
+        <v>7.2646043558489977</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>40250.371851703603</v>
+        <v>9.8870023134423697</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -5616,42 +6847,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>365.25045799999998</v>
+        <v>7.1869519999999998</v>
       </c>
       <c r="I57">
-        <v>441.70452899999998</v>
+        <v>11.878055</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>76.454070999999999</v>
+        <v>4.691103</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>-17.461154046296144</v>
+        <v>2.822672009259259</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>-92.835648787036973</v>
+        <v>1.0266753981481465</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>304.89190062848422</v>
+        <v>7.9674772718557021</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>8618.4576857100801</v>
+        <v>1.0540623731626551</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>1621.0175644582985</v>
+        <v>2.8979679089478783</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>5845.2249724730409</v>
+        <v>22.006447356609002</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>268.3560907927432</v>
+        <v>32.692989810329586</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -5668,42 +6899,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>318.39080799999999</v>
+        <v>8.0584059999999997</v>
       </c>
       <c r="I58">
-        <v>362.28997800000002</v>
+        <v>16.008330999999998</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>43.899170000000026</v>
+        <v>7.9499249999999986</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>-96.875705046296105</v>
+        <v>6.9529480092592575</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>-139.69529878703696</v>
+        <v>1.8981293981481464</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>9384.9022282169608</v>
+        <v>48.343486019462269</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>19514.77650319953</v>
+        <v>3.6028952121142446</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>13533.080561647199</v>
+        <v>13.197595020170628</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>1927.1371266889023</v>
+        <v>63.201307505624975</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>9176.8982905825669</v>
+        <v>96.984175428885024</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -5720,42 +6951,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>308.89999399999999</v>
+        <v>8.0348419999999994</v>
       </c>
       <c r="I59">
-        <v>278.85382099999998</v>
+        <v>16.785382999999999</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>-30.04617300000001</v>
+        <v>8.7505410000000001</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>-180.31186204629614</v>
+        <v>7.7300000092592587</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>-149.18611278703696</v>
+        <v>1.874565398148146</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>32512.367594602532</v>
+        <v>59.752900143148139</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>22256.496248506512</v>
+        <v>3.5139954319343172</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>26900.025788079387</v>
+        <v>14.490390545042255</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>902.77251194592964</v>
+        <v>76.571967792681008</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>32124.212268446096</v>
+        <v>112.89288597196867</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -5772,42 +7003,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>308.72842400000002</v>
+        <v>7.2648429999999999</v>
       </c>
       <c r="I60">
-        <v>235.81594799999999</v>
+        <v>13.869374000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>-72.912476000000026</v>
+        <v>6.6045310000000006</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>-223.34973504629613</v>
+        <v>4.8139910092592597</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>-149.35768278703694</v>
+        <v>1.1045663981481466</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>49885.104145250683</v>
+        <v>23.174509437228984</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>22307.717407513148</v>
+        <v>1.2200669279179699</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>33358.998877613441</v>
+        <v>5.3173727098150616</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>5316.2291564505795</v>
+        <v>43.619829729961005</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>49404.023487214625</v>
+        <v>59.43018269413453</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -5824,42 +7055,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>398.45404100000002</v>
+        <v>5.9231980000000002</v>
       </c>
       <c r="I61">
-        <v>223.83869899999999</v>
+        <v>10.811021</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>-174.61534200000003</v>
+        <v>4.887823</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>-235.32698404629613</v>
+        <v>1.7556380092592594</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-59.632065787036936</v>
+        <v>-0.23707860185185314</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>55378.789420325716</v>
+        <v>3.0822648195558155</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>3555.983270029501</v>
+        <v>5.6206263456029505E-2</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>14033.034194113723</v>
+        <v>-0.41622420459315601</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>30490.517661776972</v>
+        <v>23.890813679329</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>54871.848054946386</v>
+        <v>21.62942345690637</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -5876,42 +7107,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>595.29003899999998</v>
+        <v>5.084778</v>
       </c>
       <c r="I62">
-        <v>411.79901100000001</v>
+        <v>7.4374570000000002</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>-183.49102799999997</v>
+        <v>2.3526790000000002</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-47.366672046296117</v>
+        <v>-1.6179259907407406</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>137.20393221296302</v>
+        <v>-1.0754986018518533</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2243.60162074137</v>
+        <v>2.617684511514407</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>18824.919014699353</v>
+        <v>1.1566972425852913</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>-6498.8936605936633</v>
+        <v>1.7400771409414411</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>33668.957356496772</v>
+        <v>5.535098477041001</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>2142.4952363983334</v>
+        <v>1.6311897694138591</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -5928,42 +7159,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>652.56793200000004</v>
+        <v>4.949192</v>
       </c>
       <c r="I63">
-        <v>656.54193099999998</v>
+        <v>6.9163920000000001</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>3.9739989999999352</v>
+        <v>1.9672000000000001</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>197.37624795370385</v>
+        <v>-2.1389909907407407</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>194.48182521296309</v>
+        <v>-1.2110846018518533</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>38957.383256281988</v>
+        <v>4.5752824584700553</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>37823.180338165526</v>
+        <v>1.466725912842662</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>38386.092955722699</v>
+        <v>2.590499052385951</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>15.792668052000485</v>
+        <v>3.8698758400000002</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>39384.714164046483</v>
+        <v>0.57171049531673046</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -5980,42 +7211,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>495.836029</v>
+        <v>5.1539919999999997</v>
       </c>
       <c r="I64">
-        <v>514.29370100000006</v>
+        <v>5.9007389999999997</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>18.457672000000059</v>
+        <v>0.74674700000000005</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>55.128017953703932</v>
+        <v>-3.1546439907407411</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>37.749922212963043</v>
+        <v>-1.0062846018518536</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>3039.0983635039029</v>
+        <v>9.9517787083166684</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1425.0566270847605</v>
+        <v>1.0126086999241437</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>2081.0783895071536</v>
+        <v>3.1744696722068895</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>340.68565565958619</v>
+        <v>0.55763108200900002</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>3159.2936472091233</v>
+        <v>6.7359766775011279E-2</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -6032,42 +7263,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>488.14721700000001</v>
+        <v>5.406536</v>
       </c>
       <c r="I65">
-        <v>565.96466099999998</v>
+        <v>6.5825889999999996</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>77.817443999999966</v>
+        <v>1.1760529999999996</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>106.79897795370385</v>
+        <v>-2.4727939907407412</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>30.061110212963058</v>
+        <v>-0.75374060185185332</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>11406.021691955722</v>
+        <v>6.1147101206435215</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>903.67034723591189</v>
+        <v>0.56812489487999407</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>3210.4958468981035</v>
+        <v>1.8638452308365725</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>6055.5545906931311</v>
+        <v>1.3831006588089989</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>11637.782459079202</v>
+        <v>0.17834776162963839</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -6084,42 +7315,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>416.46539300000001</v>
+        <v>5.8562700000000003</v>
       </c>
       <c r="I66">
-        <v>385.28106700000001</v>
+        <v>6.894501</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>-31.184325999999999</v>
+        <v>1.0382309999999997</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-73.884616046296117</v>
+        <v>-2.1608819907407408</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-41.620713787036948</v>
+        <v>-0.30400660185185302</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>5458.9364883085973</v>
+        <v>4.6694109779076669</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>1732.2838161424474</v>
+        <v>9.2420013969511078E-2</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>3075.130457728008</v>
+        <v>0.6569223910079599</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>972.4621880742759</v>
+        <v>1.0779236093609994</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>5300.573818392033</v>
+        <v>0.53908546683600822</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -6136,42 +7367,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>406.82961999999998</v>
+        <v>6.1007069999999999</v>
       </c>
       <c r="I67">
-        <v>396.03781099999998</v>
+        <v>7.3208640000000003</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>-10.791809000000001</v>
+        <v>1.2201570000000004</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-63.127872046296147</v>
+        <v>-1.7345189907407406</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-51.256486787036977</v>
+        <v>-5.9569601851853449E-2</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3985.1282290935387</v>
+        <v>3.0085561292402772</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>2627.227437749696</v>
+        <v>3.548537464788342E-3</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>3235.7129394347394</v>
+        <v>0.10332460568290459</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>116.46314149248101</v>
+        <v>1.488783104649001</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>3849.9910100756306</v>
+        <v>1.3469631087402854</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -6188,42 +7419,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>346.60943600000002</v>
+        <v>7.0389400000000002</v>
       </c>
       <c r="I68">
-        <v>293.912689</v>
+        <v>10.762707000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>-52.696747000000016</v>
+        <v>3.7237670000000005</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>-165.25299404629612</v>
+        <v>1.7073240092592599</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>-111.47667078703694</v>
+        <v>0.87866339814814687</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>27308.552041265182</v>
+        <v>2.9149552725931134</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>12427.048129761415</v>
+        <v>0.77204936724524886</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>18421.853613871128</v>
+        <v>1.5001631157156594</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>2776.9471443820107</v>
+        <v>13.866440670289004</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>26952.911107876982</v>
+        <v>21.182365569798115</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -6240,42 +7471,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>314.59197999999998</v>
+        <v>7.9949960000000004</v>
       </c>
       <c r="I69">
-        <v>220.25415000000001</v>
+        <v>15.518577000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>-94.337829999999968</v>
+        <v>7.5235810000000001</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>-238.91153304629611</v>
+        <v>6.4631940092592597</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>-143.49412678703698</v>
+        <v>1.8347193981481471</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>57078.720622531437</v>
+        <v>41.772876801324784</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>20590.564422374242</v>
+        <v>3.3661952699410991</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>34282.401813830591</v>
+        <v>11.858147422782858</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>8899.6261691088948</v>
+        <v>56.604271063561001</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>56564.03966915101</v>
+        <v>87.577786341979774</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -6292,42 +7523,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>306.609711</v>
+        <v>8.3325549999999993</v>
       </c>
       <c r="I70">
-        <v>173.981537</v>
+        <v>17.680610999999999</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>-132.628174</v>
+        <v>9.3480559999999997</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>-285.18414604629612</v>
+        <v>8.6252280092592581</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>-151.47639578703695</v>
+        <v>2.1722783981481459</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>81329.99715615515</v>
+        <v>74.394558211710432</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>22945.098480631066</v>
+        <v>4.7187934390610753</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>43198.666578696902</v>
+        <v>18.736396483616222</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>17590.232538574277</v>
+        <v>87.386150979135991</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>80715.40657387735</v>
+        <v>132.71810464515539</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -6344,42 +7575,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>305.545074</v>
+        <v>8.4381970000000006</v>
       </c>
       <c r="I71">
-        <v>152.941193</v>
+        <v>17.090021</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>-152.603881</v>
+        <v>8.6518239999999995</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>-306.22449004629613</v>
+        <v>8.0346380092592593</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>-152.54103278703695</v>
+        <v>2.2779203981481473</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>93773.438304114112</v>
+        <v>64.5554079398336</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>23268.766683735885</v>
+        <v>5.1889213402994141</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>46711.799976345726</v>
+        <v>18.30226581302809</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>23287.94449626216</v>
+        <v>74.85405852697599</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>93113.418410098209</v>
+        <v>119.45931260885079</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -6396,42 +7627,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>314.35513300000002</v>
+        <v>6.9259729999999999</v>
       </c>
       <c r="I72">
-        <v>139.972916</v>
+        <v>13.509548000000001</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>-174.38221700000003</v>
+        <v>6.5835750000000006</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>-319.19276704629613</v>
+        <v>4.4541650092592597</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>-143.73097378703693</v>
+        <v>0.76569639814814661</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>101884.02253467106</v>
+        <v>19.839585929709543</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>20658.592825769898</v>
+        <v>0.58629097413704501</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>45877.887233342975</v>
+        <v>3.4105381043473213</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>30409.157605835098</v>
+        <v>43.343459780625011</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>101196.00215270977</v>
+        <v>54.011790083638424</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -6448,42 +7679,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>318.71112099999999</v>
+        <v>6.3101979999999998</v>
       </c>
       <c r="I73">
-        <v>126.537308</v>
+        <v>11.196471000000001</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>-192.173813</v>
+        <v>4.886273000000001</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>-332.62837504629613</v>
+        <v>2.1410880092592599</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>-139.37498578703696</v>
+        <v>0.14992139814814642</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>110641.63588593944</v>
+        <v>4.5842578633937805</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>19425.386663136756</v>
+        <v>2.2476425622695043E-2</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>46360.075044442725</v>
+        <v>0.32099490790637975</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>36930.774402958967</v>
+        <v>23.87566383052901</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>109924.60597712712</v>
+        <v>25.363254015938782</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -6500,42 +7731,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>499.521637</v>
+        <v>5.0429940000000002</v>
       </c>
       <c r="I74">
-        <v>221.43119799999999</v>
+        <v>6.740685</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>-278.090439</v>
+        <v>1.6976909999999998</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-237.73448504629613</v>
+        <v>-2.3146979907407408</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>41.435530212963045</v>
+        <v>-1.1172826018518531</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>56517.685380227595</v>
+        <v>5.3578267883392225</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>1716.9031640293733</v>
+        <v>1.2483204124008465</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>-9850.654437799014</v>
+        <v>2.5861717935960713</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>77334.29226321273</v>
+        <v>2.8821547314809997</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>56005.545853000782</v>
+        <v>0.33687390864089761</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -6552,42 +7783,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>667.88079800000003</v>
+        <v>4.9246639999999999</v>
       </c>
       <c r="I75">
-        <v>607.42169200000001</v>
+        <v>5.9052759999999997</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>-60.45910600000002</v>
+        <v>0.98061199999999982</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>148.25600895370388</v>
+        <v>-3.1501069907407411</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>209.79469121296307</v>
+        <v>-1.2356126018518534</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>21979.844190880725</v>
+        <v>9.9231740531136872</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>44013.812461142523</v>
+        <v>1.5267385018551067</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>31103.323618908595</v>
+        <v>3.8923118949408795</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>3655.3034983192383</v>
+        <v>0.96159989454399963</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>22301.11701089815</v>
+        <v>6.5025306944807557E-2</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -6604,42 +7835,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>651.95007299999997</v>
+        <v>4.9727360000000003</v>
       </c>
       <c r="I76">
-        <v>434.39514200000002</v>
+        <v>4.9835349999999998</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>-217.55493099999995</v>
+        <v>1.0798999999999559E-2</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>-24.770541046296103</v>
+        <v>-4.071847990740741</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>193.86396621296302</v>
+        <v>-1.1875406018518531</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>613.57970372624004</v>
+        <v>16.579946059699409</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>37583.23739582087</v>
+        <v>1.4102526810466613</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>-4802.1153324759616</v>
+        <v>4.835484813573518</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>47330.148002414739</v>
+        <v>1.1661840099999047E-4</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>561.26181254062385</v>
+        <v>1.384720797528866</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -6656,42 +7887,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>624.15045199999997</v>
+        <v>5.1658390000000001</v>
       </c>
       <c r="I77">
-        <v>641.31897000000004</v>
+        <v>5.8835810000000004</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>17.168518000000063</v>
+        <v>0.71774200000000032</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>182.15328695370391</v>
+        <v>-3.1718019907407404</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>166.06434521296302</v>
+        <v>-0.99443760185185326</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>33179.819948038399</v>
+        <v>10.060327868466924</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>27577.366751010155</v>
+        <v>0.98890614397686505</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>30249.1663263558</v>
+        <v>3.1541591652211558</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>294.75801031632614</v>
+        <v>0.51515357856400046</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>33574.282161220443</v>
+        <v>7.6560456084159123E-2</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -6708,42 +7939,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>621.98821999999996</v>
+        <v>5.29237</v>
       </c>
       <c r="I78">
-        <v>707.70825200000002</v>
+        <v>5.9938599999999997</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>85.72003200000006</v>
+        <v>0.70148999999999972</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>248.54256895370389</v>
+        <v>-3.0615229907407411</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>163.902113212963</v>
+        <v>-0.86790660185185331</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>61773.408582106655</v>
+        <v>9.3729230228341311</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>26863.90271567494</v>
+        <v>0.75326186953803143</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>40736.652274890635</v>
+        <v>2.6571160153851197</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>7347.9238860810347</v>
+        <v>0.49208822009999964</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>62311.215380721616</v>
+        <v>2.7694485371918359E-2</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -6760,42 +7991,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>423.30352800000003</v>
+        <v>6.2370150000000004</v>
       </c>
       <c r="I79">
-        <v>676.07458499999996</v>
+        <v>7.9413900000000002</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>252.77105699999993</v>
+        <v>1.7043749999999998</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>216.90890195370383</v>
+        <v>-1.1139929907407407</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>-34.782578787036925</v>
+        <v>7.6738398148147091E-2</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>47049.471746761505</v>
+        <v>1.2409803834194999</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>1209.8277870764312</v>
+        <v>5.8887817503435452E-3</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-7544.6509718143716</v>
+        <v>-8.5486037657708097E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>63893.207256897214</v>
+        <v>2.9048941406249993</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>47518.976633603444</v>
+        <v>3.1723649370628388</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -6812,42 +8043,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>365.26574699999998</v>
+        <v>6.9809720000000004</v>
       </c>
       <c r="I80">
-        <v>452.76947000000001</v>
+        <v>10.368010999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>87.503723000000036</v>
+        <v>3.3870389999999988</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>-6.3962130462961113</v>
+        <v>1.3126280092592584</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>-92.820359787036978</v>
+        <v>0.82069539814814707</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>40.911541333608582</v>
+        <v>1.7229922906919237</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>8615.6191909949921</v>
+        <v>0.67354093654154568</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>593.69879623174484</v>
+        <v>1.0772677666794368</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>7656.9015388607349</v>
+        <v>11.472033187520992</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>28.266626725274492</v>
+        <v>17.705028765359138</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -6864,42 +8095,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>340.24139400000001</v>
+        <v>7.4267440000000002</v>
       </c>
       <c r="I81">
-        <v>336.61318999999997</v>
+        <v>13.459146</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>-3.6282040000000393</v>
+        <v>6.0324020000000003</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>-122.55249304629615</v>
+        <v>4.4037630092592597</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>-117.84471278703694</v>
+        <v>1.2664673981481469</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>15019.113551862467</v>
+        <v>19.393128641720171</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>13887.376331859228</v>
+        <v>1.6039396705721369</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>14442.163344376111</v>
+        <v>5.5772222803976286</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>13.163864265616285</v>
+        <v>36.389873889604004</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>14755.66951275041</v>
+        <v>53.273494491223495</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -6916,42 +8147,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>319.79556300000002</v>
+        <v>7.846743</v>
       </c>
       <c r="I82">
-        <v>252.70665</v>
+        <v>15.561928</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>-67.088913000000019</v>
+        <v>7.715185</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>-206.45903304629613</v>
+        <v>6.5065450092592592</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>-138.29054378703694</v>
+        <v>1.6864663981481467</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>42625.332326411597</v>
+        <v>42.335127957516576</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>19124.27450091438</v>
+        <v>2.8441689120827833</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>28551.331949718122</v>
+        <v>10.973069526154262</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>4500.922247521572</v>
+        <v>59.524079584224999</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>42180.721270138383</v>
+        <v>88.391049012300996</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -6968,42 +8199,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>306.16104100000001</v>
+        <v>8.1649879999999992</v>
       </c>
       <c r="I83">
-        <v>204.46639999999999</v>
+        <v>16.301983</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>-101.69464100000002</v>
+        <v>8.1369950000000006</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>-254.69928304629613</v>
+        <v>7.2466000092592591</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>-151.92506578703694</v>
+        <v>2.0047113981481459</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>64871.724784297272</v>
+        <v>52.513211694196293</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>23081.225614395502</v>
+        <v>4.0188677898650944</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>38695.205332719685</v>
+        <v>14.527341636382497</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>10341.800008118884</v>
+        <v>66.210687630025006</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>64322.955670742602</v>
+        <v>102.85420866623905</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -7020,42 +8251,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>313.04083300000002</v>
+        <v>7.0741360000000002</v>
       </c>
       <c r="I84">
-        <v>178.68644699999999</v>
+        <v>12.822082999999999</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>-134.35438600000003</v>
+        <v>5.747946999999999</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>-280.47923604629614</v>
+        <v>3.7667000092592584</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>-145.04527378703693</v>
+        <v>0.91385939814814687</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>78668.601853113913</v>
+        <v>14.188028959753698</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>21038.131447956504</v>
+        <v>0.8351389995836932</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>40682.187583913983</v>
+        <v>3.4422342034662852</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>18051.101037437005</v>
+        <v>33.03889471480899</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>78064.169889112003</v>
+        <v>44.37966448640757</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -7072,42 +8303,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>615.71966599999996</v>
+        <v>5.3955099999999998</v>
       </c>
       <c r="I85">
-        <v>331.07891799999999</v>
+        <v>9.9084380000000003</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>-284.64074799999997</v>
+        <v>4.5129280000000005</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>-128.08676504629614</v>
+        <v>0.85305500925925948</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>157.63355921296301</v>
+        <v>-0.76476660185185352</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>16406.219380025068</v>
+        <v>0.72770284882231528</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>24848.338990146716</v>
+        <v>0.58486795530803148</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-20190.772662322201</v>
+        <v>-0.65238798062390535</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>81020.355421999484</v>
+        <v>20.366519133184003</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>16130.826003586049</v>
+        <v>14.048713866567873</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -7124,42 +8355,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>526.20257600000002</v>
+        <v>5.1544169999999996</v>
       </c>
       <c r="I86">
-        <v>404.97912600000001</v>
+        <v>8.2723960000000005</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>-121.22345000000001</v>
+        <v>3.1179790000000009</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-54.186557046296116</v>
+        <v>-0.7829869907407403</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>68.116469212963068</v>
+        <v>-1.0058596018518537</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>2936.1829645315033</v>
+        <v>0.61306862766924008</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>4639.8533780405451</v>
+        <v>1.0117535386375698</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>-3690.9969448004963</v>
+        <v>0.78757498276166216</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>14695.124829902503</v>
+        <v>9.7217930444410054</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>2820.3514083147115</v>
+        <v>4.4610483520336919</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -7176,42 +8407,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>384.30676299999999</v>
+        <v>4.8187790000000001</v>
       </c>
       <c r="I87">
-        <v>411.908569</v>
+        <v>5.093515</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>27.60180600000001</v>
+        <v>0.27473599999999987</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>-47.257114046296124</v>
+        <v>-3.9618679907407408</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>-73.779343787036964</v>
+        <v>-1.3414976018518532</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>2233.2348279846383</v>
+        <v>15.696397976056074</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>5443.3915696457898</v>
+        <v>1.7996158157742732</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>3486.5988636048951</v>
+        <v>5.3148364084323241</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>761.85969446163654</v>
+        <v>7.5479869695999929E-2</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>2132.3649960732259</v>
+        <v>1.1379803151855321</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -7228,42 +8459,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>316.60571299999998</v>
+        <v>4.3940149999999996</v>
       </c>
       <c r="I88">
-        <v>335.74652099999997</v>
+        <v>3.808535</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>19.140807999999993</v>
+        <v>-0.58547999999999956</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-123.41916204629615</v>
+        <v>-5.2468479907407408</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-141.48039378703697</v>
+        <v>-1.7662616018518538</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>15232.289560209909</v>
+        <v>27.529413837940147</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>20016.701826135049</v>
+        <v>3.1196800461762764</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>17461.391647176108</v>
+        <v>9.267306136798922</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>366.37053089286371</v>
+        <v>0.34278683039999946</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>14966.974250543781</v>
+        <v>5.5306885618807211</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -7280,42 +8511,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>577.45989999999995</v>
+        <v>4.8048799999999998</v>
       </c>
       <c r="I89">
-        <v>599.73553500000003</v>
+        <v>5.1422619999999997</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>22.275635000000079</v>
+        <v>0.33738199999999985</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>140.5698519537039</v>
+        <v>-3.9131209907407412</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>119.37379321296299</v>
+        <v>-1.3553966018518535</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>19759.883278286234</v>
+        <v>15.312515888175799</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>14250.102506051249</v>
+        <v>1.837099948311552</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>16780.356439098272</v>
+        <v>5.3038308934851592</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>496.20391465322854</v>
+        <v>0.1138266139239999</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>20064.560513059379</v>
+        <v>1.0363537295835881</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -7332,42 +8563,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>965.16339100000005</v>
+        <v>5.1158020000000004</v>
       </c>
       <c r="I90">
-        <v>821.78002900000001</v>
+        <v>5.3439209999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>-143.38336200000003</v>
+        <v>0.22811899999999952</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>362.61434595370389</v>
+        <v>-3.7114619907407409</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>507.07728421296309</v>
+        <v>-1.0444746018518529</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>131489.16389143246</v>
+        <v>13.774950108713224</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>257127.37216479416</v>
+        <v>1.0909271939135867</v>
       </c>
       <c r="O90" s="2">
         <f t="shared" si="13"/>
-        <v>183873.49776286402</v>
+        <v>3.8765277850672208</v>
       </c>
       <c r="P90" s="2">
         <f t="shared" si="14"/>
-        <v>20558.788498423055</v>
+        <v>5.2038278160999776E-2</v>
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="15"/>
-        <v>132273.26905464882</v>
+        <v>0.66643646867490181</v>
       </c>
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
@@ -7384,42 +8615,42 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>806.76019299999996</v>
+        <v>5.4144880000000004</v>
       </c>
       <c r="I91">
-        <v>915.23547399999995</v>
+        <v>6.1178819999999998</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" si="8"/>
-        <v>108.475281</v>
+        <v>0.70339399999999941</v>
       </c>
       <c r="K91" s="2">
         <f t="shared" si="9"/>
-        <v>456.06979095370383</v>
+        <v>-2.937500990740741</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="10"/>
-        <v>348.674086212963</v>
+        <v>-0.74578860185185292</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="11"/>
-        <v>207999.65422055512</v>
+        <v>8.6289120706028353</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="12"/>
-        <v>121573.61839644476</v>
+        <v>0.55620063865214164</v>
       </c>
       <c r="O91" s="2">
         <f t="shared" si="13"/>
-        <v>159019.71761011975</v>
+        <v>2.1907547568229702</v>
       </c>
       <c r="P91" s="2">
         <f t="shared" si="14"/>
-        <v>11766.88658802896</v>
+        <v>0.49476311923599919</v>
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="15"/>
-        <v>208985.54394321248</v>
+        <v>1.797302266177181E-3</v>
       </c>
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
@@ -7436,42 +8667,42 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>456.58734099999998</v>
+        <v>6.2581600000000002</v>
       </c>
       <c r="I92">
-        <v>970.514771</v>
+        <v>8.1831309999999995</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" si="8"/>
-        <v>513.92742999999996</v>
+        <v>1.9249709999999993</v>
       </c>
       <c r="K92" s="2">
         <f t="shared" si="9"/>
-        <v>511.34908795370387</v>
+        <v>-0.87225199074074133</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="10"/>
-        <v>-1.4987657870369731</v>
+        <v>9.7883398148146838E-2</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="11"/>
-        <v>261477.88975108479</v>
+        <v>0.7608235353511863</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="12"/>
-        <v>2.2462988843925573</v>
+        <v>9.5811596330286353E-3</v>
       </c>
       <c r="O92" s="2">
         <f t="shared" si="13"/>
-        <v>-766.3925182575714</v>
+        <v>-8.5378988895189675E-2</v>
       </c>
       <c r="P92" s="2">
         <f t="shared" si="14"/>
-        <v>264121.40330640489</v>
+        <v>3.7055133508409974</v>
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="15"/>
-        <v>262583.1359070816</v>
+        <v>4.0919399161072985</v>
       </c>
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
@@ -7488,42 +8719,42 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>365.266998</v>
+        <v>7.1466219999999998</v>
       </c>
       <c r="I93">
-        <v>608.74694799999997</v>
+        <v>11.747901000000001</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" si="8"/>
-        <v>243.47994999999997</v>
+        <v>4.6012790000000008</v>
       </c>
       <c r="K93" s="2">
         <f t="shared" si="9"/>
-        <v>149.58126495370385</v>
+        <v>2.6925180092592598</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="10"/>
-        <v>-92.819108787036953</v>
+        <v>0.98634539814814648</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="11"/>
-        <v>22374.554825150153</v>
+        <v>7.2496532301854471</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="12"/>
-        <v>8615.3869560198</v>
+        <v>0.97287724444802559</v>
       </c>
       <c r="O93" s="2">
         <f t="shared" si="13"/>
-        <v>-13883.999704240436</v>
+        <v>2.6557527478638794</v>
       </c>
       <c r="P93" s="2">
         <f t="shared" si="14"/>
-        <v>59282.486052002489</v>
+        <v>21.171768435841006</v>
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="15"/>
-        <v>22698.689074997656</v>
+        <v>31.221546414780445</v>
       </c>
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
@@ -7540,42 +8771,42 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>314.43472300000002</v>
+        <v>8.2498620000000003</v>
       </c>
       <c r="I94">
-        <v>433.807343</v>
+        <v>15.931585</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" si="8"/>
-        <v>119.37261999999998</v>
+        <v>7.6817229999999999</v>
       </c>
       <c r="K94" s="2">
         <f t="shared" si="9"/>
-        <v>-25.358340046296121</v>
+        <v>6.8762020092592593</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="10"/>
-        <v>-143.65138378703693</v>
+        <v>2.0895853981481469</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="11"/>
-        <v>643.04540990358555</v>
+        <v>47.282154072141076</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="12"/>
-        <v>20635.720063930577</v>
+        <v>4.3663671361539498</v>
       </c>
       <c r="O94" s="2">
         <f t="shared" si="13"/>
-        <v>3642.7606381926721</v>
+        <v>14.368411313265097</v>
       </c>
       <c r="P94" s="2">
         <f t="shared" si="14"/>
-        <v>14249.822405664396</v>
+        <v>59.008868248728994</v>
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="15"/>
-        <v>589.45837102673681</v>
+        <v>95.478467811720506</v>
       </c>
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
@@ -7592,42 +8823,42 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>308.12020899999999</v>
+        <v>7.6225909999999999</v>
       </c>
       <c r="I95">
-        <v>333.24765000000002</v>
+        <v>16.562736999999998</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" si="8"/>
-        <v>25.127441000000033</v>
+        <v>8.9401459999999986</v>
       </c>
       <c r="K95" s="2">
         <f t="shared" si="9"/>
-        <v>-125.9180330462961</v>
+        <v>7.5073540092592577</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="10"/>
-        <v>-149.96589778703697</v>
+        <v>1.4623143981481466</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="11"/>
-        <v>15855.351046248117</v>
+        <v>56.360364220341047</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="12"/>
-        <v>22489.770499072019</v>
+        <v>2.138363399031376</v>
       </c>
       <c r="O95" s="2">
         <f t="shared" si="13"/>
-        <v>18883.410873365585</v>
+        <v>10.978111859735026</v>
       </c>
       <c r="P95" s="2">
         <f t="shared" si="14"/>
-        <v>631.38829120848266</v>
+        <v>79.926210501315978</v>
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="15"/>
-        <v>15584.640292968888</v>
+        <v>108.21118233504046</v>
       </c>
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
@@ -7644,42 +8875,42 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>336.041473</v>
+        <v>6.5297140000000002</v>
       </c>
       <c r="I96">
-        <v>279.36144999999999</v>
+        <v>13.422396000000001</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" si="8"/>
-        <v>-56.680023000000006</v>
+        <v>6.8926820000000006</v>
       </c>
       <c r="K96" s="2">
         <f t="shared" si="9"/>
-        <v>-179.80423304629613</v>
+        <v>4.3670130092592601</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="10"/>
-        <v>-122.04463378703696</v>
+        <v>0.36943739814814691</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="11"/>
-        <v>32329.56222136677</v>
+        <v>19.070802623039619</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="12"/>
-        <v>14894.892636211964</v>
+        <v>0.13648399115047241</v>
       </c>
       <c r="O96" s="2">
         <f t="shared" si="13"/>
-        <v>21944.141775494259</v>
+        <v>1.6133379238198504</v>
       </c>
       <c r="P96" s="2">
         <f t="shared" si="14"/>
-        <v>3212.6250072805296</v>
+        <v>47.509065153124006</v>
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="15"/>
-        <v>31942.502943644158</v>
+        <v>52.738378152959612</v>
       </c>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
@@ -7696,42 +8927,42 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>469.77722199999999</v>
+        <v>5.3447750000000003</v>
       </c>
       <c r="I97">
-        <v>325.57327299999997</v>
+        <v>8.4957209999999996</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" si="8"/>
-        <v>-144.20394900000002</v>
+        <v>3.1509459999999994</v>
       </c>
       <c r="K97" s="2">
         <f t="shared" si="9"/>
-        <v>-133.59241004629615</v>
+        <v>-0.55966199074074119</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="10"/>
-        <v>11.691115212963041</v>
+        <v>-0.81550160185185305</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="11"/>
-        <v>17846.932021977729</v>
+        <v>0.31322154387988949</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="12"/>
-        <v>136.68217492277586</v>
+        <v>0.66504286262293821</v>
       </c>
       <c r="O97" s="2">
         <f t="shared" si="13"/>
-        <v>-1561.8442574286496</v>
+        <v>0.45640524994467141</v>
       </c>
       <c r="P97" s="2">
         <f t="shared" si="14"/>
-        <v>20794.778907194606</v>
+        <v>9.9284606949159961</v>
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="15"/>
-        <v>17559.651118270889</v>
+        <v>5.4543005368415569</v>
       </c>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
@@ -7748,42 +8979,42 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>594.06372099999999</v>
+        <v>4.818009</v>
       </c>
       <c r="I98">
-        <v>611.67675799999995</v>
+        <v>6.7252989999999997</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="8"/>
-        <v>17.613036999999963</v>
+        <v>1.9072899999999997</v>
       </c>
       <c r="K98" s="2">
         <f t="shared" si="9"/>
-        <v>152.51107495370383</v>
+        <v>-2.3300839907407411</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="10"/>
-        <v>135.97761421296303</v>
+        <v>-1.3422676018518533</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="11"/>
-        <v>23259.627983534265</v>
+        <v>5.4292914039062978</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="12"/>
-        <v>18489.911567049407</v>
+        <v>1.8016823149811254</v>
       </c>
       <c r="O98" s="2">
         <f t="shared" si="13"/>
-        <v>20738.092113259027</v>
+        <v>3.1275962503649706</v>
       </c>
       <c r="P98" s="2">
         <f t="shared" si="14"/>
-        <v>310.21907236336767</v>
+        <v>3.6377551440999989</v>
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="15"/>
-        <v>23590.08814002205</v>
+        <v>0.31925031040908242</v>
       </c>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
@@ -7800,42 +9031,42 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>374.77539100000001</v>
+        <v>4.5630990000000002</v>
       </c>
       <c r="I99">
-        <v>490.97482300000001</v>
+        <v>4.4009349999999996</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" si="8"/>
-        <v>116.199432</v>
+        <v>-0.16216400000000064</v>
       </c>
       <c r="K99" s="2">
         <f t="shared" si="9"/>
-        <v>31.809139953703891</v>
+        <v>-4.6544479907407412</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="10"/>
-        <v>-83.310715787036941</v>
+        <v>-1.5971776018518531</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="11"/>
-        <v>1011.8213845943212</v>
+        <v>21.663886098510524</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="12"/>
-        <v>6940.6753649484463</v>
+        <v>2.5509762918572365</v>
       </c>
       <c r="O99" s="2">
         <f t="shared" si="13"/>
-        <v>-2650.0422181131062</v>
+        <v>7.4339800797954734</v>
       </c>
       <c r="P99" s="2">
         <f t="shared" si="14"/>
-        <v>13502.307997122625</v>
+        <v>2.6297162896000207E-2</v>
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="15"/>
-        <v>1081.6676541368192</v>
+        <v>3.0952828720066465</v>
       </c>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
@@ -7852,42 +9083,42 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>598.81048599999997</v>
+        <v>5.0076000000000001</v>
       </c>
       <c r="I100">
-        <v>515.40911900000003</v>
+        <v>6.1181070000000002</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" si="8"/>
-        <v>-83.401366999999937</v>
+        <v>1.1105070000000001</v>
       </c>
       <c r="K100" s="2">
         <f t="shared" si="9"/>
-        <v>56.243435953703909</v>
+        <v>-2.9372759907407406</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="10"/>
-        <v>140.72437921296302</v>
+        <v>-1.1526766018518533</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="11"/>
-        <v>3163.3240878783936</v>
+        <v>8.6275902457819988</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="12"/>
-        <v>19803.350904873816</v>
+        <v>1.3286633484567358</v>
       </c>
       <c r="O100" s="2">
         <f t="shared" si="13"/>
-        <v>7914.8226093890271</v>
+        <v>3.3857293077080728</v>
       </c>
       <c r="P100" s="2">
         <f t="shared" si="14"/>
-        <v>6955.7880174686788</v>
+        <v>1.2332257970490004</v>
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="15"/>
-        <v>3285.9277291675144</v>
+        <v>1.7782753203438161E-3</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
@@ -7904,42 +9135,42 @@
         <v>28</v>
       </c>
       <c r="H101">
-        <v>405.13906900000001</v>
+        <v>5.1185080000000003</v>
       </c>
       <c r="I101">
-        <v>531.03466800000001</v>
+        <v>4.2502230000000001</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" si="8"/>
-        <v>125.895599</v>
+        <v>-0.8682850000000002</v>
       </c>
       <c r="K101" s="2">
         <f t="shared" si="9"/>
-        <v>71.868984953703887</v>
+        <v>-4.8051599907407407</v>
       </c>
       <c r="L101" s="2">
         <f t="shared" si="10"/>
-        <v>-52.947037787036948</v>
+        <v>-1.041768601851853</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" si="11"/>
-        <v>5165.1509982757152</v>
+        <v>23.089562536615556</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="12"/>
-        <v>2803.3888104219186</v>
+        <v>1.0852818198043648</v>
       </c>
       <c r="O101" s="2">
         <f t="shared" si="13"/>
-        <v>-3805.2498620597494</v>
+        <v>5.0058648052284447</v>
       </c>
       <c r="P101" s="2">
         <f t="shared" si="14"/>
-        <v>15849.701847568802</v>
+        <v>0.7539188412250003</v>
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="15"/>
-        <v>5321.4925830414177</v>
+        <v>3.6483047619472377</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
@@ -7956,42 +9187,42 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>570.93872099999999</v>
+        <v>5.3581110000000001</v>
       </c>
       <c r="I102">
-        <v>404.23397799999998</v>
+        <v>4.8250279999999997</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" si="8"/>
-        <v>-166.70474300000001</v>
+        <v>-0.53308300000000042</v>
       </c>
       <c r="K102" s="2">
         <f t="shared" si="9"/>
-        <v>-54.931705046296145</v>
+        <v>-4.2303549907407412</v>
       </c>
       <c r="L102" s="2">
         <f t="shared" si="10"/>
-        <v>112.85261421296303</v>
+        <v>-0.80216560185185326</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" si="11"/>
-        <v>3017.4922192932772</v>
+        <v>17.895903347685095</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="12"/>
-        <v>12735.712534699866</v>
+        <v>0.64346965279434598</v>
       </c>
       <c r="O102" s="2">
         <f t="shared" si="13"/>
-        <v>-6199.1865176499332</v>
+        <v>3.3934452571945379</v>
       </c>
       <c r="P102" s="2">
         <f t="shared" si="14"/>
-        <v>27790.47133869605</v>
+        <v>0.28417748488900046</v>
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="15"/>
-        <v>2900.0517748956163</v>
+        <v>1.7828888287473301</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
@@ -8008,42 +9239,42 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>531.574341</v>
+        <v>5.8127190000000004</v>
       </c>
       <c r="I103">
-        <v>656.39202899999998</v>
+        <v>6.2287509999999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="8"/>
-        <v>124.81768799999998</v>
+        <v>0.41603199999999951</v>
       </c>
       <c r="K103" s="2">
         <f t="shared" si="9"/>
-        <v>197.22634595370386</v>
+        <v>-2.8266319907407409</v>
       </c>
       <c r="L103" s="2">
         <f t="shared" si="10"/>
-        <v>73.48823421296305</v>
+        <v>-0.34755760185185292</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>38898.231538250075</v>
+        <v>7.989848411078964</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="12"/>
-        <v>5400.5205677393133</v>
+        <v>0.12079628660501111</v>
       </c>
       <c r="O103" s="2">
         <f t="shared" si="13"/>
-        <v>14493.815904412666</v>
+        <v>0.98241743601958087</v>
       </c>
       <c r="P103" s="2">
         <f t="shared" si="14"/>
-        <v>15579.455237665337</v>
+        <v>0.1730826250239996</v>
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="15"/>
-        <v>39325.238784733745</v>
+        <v>4.688743201750902E-3</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
@@ -8060,42 +9291,42 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>346.17675800000001</v>
+        <v>7.3695170000000001</v>
       </c>
       <c r="I104">
-        <v>521.24169900000004</v>
+        <v>10.341208999999999</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" si="8"/>
-        <v>175.06494100000003</v>
+        <v>2.9716919999999991</v>
       </c>
       <c r="K104" s="2">
         <f t="shared" si="9"/>
-        <v>62.076015953703916</v>
+        <v>1.2858260092592584</v>
       </c>
       <c r="L104" s="2">
         <f t="shared" si="10"/>
-        <v>-111.90934878703695</v>
+        <v>1.2092403981481468</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="11"/>
-        <v>3853.4317566845029</v>
+        <v>1.6533485260875904</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="12"/>
-        <v>12523.702345938687</v>
+        <v>1.4622623405134885</v>
       </c>
       <c r="O104" s="2">
         <f t="shared" si="13"/>
-        <v>-6946.8865206727214</v>
+        <v>1.5548727553859083</v>
       </c>
       <c r="P104" s="2">
         <f t="shared" si="14"/>
-        <v>30647.733567333493</v>
+        <v>8.8309533428639941</v>
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="15"/>
-        <v>3988.6288277700837</v>
+        <v>17.480195717884808</v>
       </c>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
@@ -8112,42 +9343,42 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>339.007294</v>
+        <v>7.3800800000000004</v>
       </c>
       <c r="I105">
-        <v>358.698395</v>
+        <v>12.749307</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" si="8"/>
-        <v>19.691101000000003</v>
+        <v>5.3692269999999995</v>
       </c>
       <c r="K105" s="2">
         <f t="shared" si="9"/>
-        <v>-100.46728804629612</v>
+        <v>3.6939240092592591</v>
       </c>
       <c r="L105" s="2">
         <f t="shared" si="10"/>
-        <v>-119.07881278703695</v>
+        <v>1.2198033981481471</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="11"/>
-        <v>10093.675967377436</v>
+        <v>13.645074586181998</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="12"/>
-        <v>14179.763654770195</v>
+        <v>1.4879203301337671</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" si="13"/>
-        <v>11963.525384486211</v>
+        <v>4.505861058995472</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="14"/>
-        <v>387.73945859220112</v>
+        <v>28.828598577528997</v>
       </c>
       <c r="Q105" s="2">
         <f t="shared" si="15"/>
-        <v>9877.9172542631241</v>
+        <v>43.415321587720321</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
@@ -8164,42 +9395,42 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>307.621216</v>
+        <v>8.407959</v>
       </c>
       <c r="I106">
-        <v>279.09741200000002</v>
+        <v>16.671403999999999</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" si="8"/>
-        <v>-28.523803999999984</v>
+        <v>8.263444999999999</v>
       </c>
       <c r="K106" s="2">
         <f t="shared" si="9"/>
-        <v>-180.0682710462961</v>
+        <v>7.6160210092592582</v>
       </c>
       <c r="L106" s="2">
         <f t="shared" si="10"/>
-        <v>-150.46489078703695</v>
+        <v>2.2476823981481466</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="11"/>
-        <v>32424.582237602361</v>
+        <v>58.003776013478408</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="12"/>
-        <v>22639.683359554958</v>
+        <v>5.0520761629450037</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="13"/>
-        <v>27093.95273719151</v>
+        <v>17.118396366438517</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="14"/>
-        <v>813.60739463041511</v>
+        <v>68.284523268024984</v>
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="15"/>
-        <v>32036.952861567064</v>
+        <v>110.4837991801006</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
@@ -8216,42 +9447,42 @@
         <v>31</v>
       </c>
       <c r="H107">
-        <v>305.64492799999999</v>
+        <v>8.2837960000000006</v>
       </c>
       <c r="I107">
-        <v>232.69052099999999</v>
+        <v>16.85783</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" si="8"/>
-        <v>-72.954407000000003</v>
+        <v>8.5740339999999993</v>
       </c>
       <c r="K107" s="2">
         <f t="shared" si="9"/>
-        <v>-226.47516204629613</v>
+        <v>7.802447009259259</v>
       </c>
       <c r="L107" s="2">
         <f t="shared" si="10"/>
-        <v>-152.44117878703696</v>
+        <v>2.1235193981481473</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="11"/>
-        <v>51290.999023896096</v>
+        <v>60.878179332298757</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="12"/>
-        <v>23238.312989981368</v>
+        <v>4.50933463431147</v>
       </c>
       <c r="O107" s="2">
         <f t="shared" si="13"/>
-        <v>34524.140668322594</v>
+        <v>16.568647577185033</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="14"/>
-        <v>5322.3455007216498</v>
+        <v>73.514059033155988</v>
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="15"/>
-        <v>50803.170092281536</v>
+        <v>114.43764870623096</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
@@ -8268,42 +9499,42 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>305.62677000000002</v>
+        <v>7.0831480000000004</v>
       </c>
       <c r="I108">
-        <v>199.79652400000001</v>
+        <v>12.116732000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="8"/>
-        <v>-105.83024600000002</v>
+        <v>5.0335840000000003</v>
       </c>
       <c r="K108" s="2">
         <f t="shared" si="9"/>
-        <v>-259.36915904629609</v>
+        <v>3.0613490092592599</v>
       </c>
       <c r="L108" s="2">
         <f t="shared" si="10"/>
-        <v>-152.45933678703693</v>
+        <v>0.92287139814814712</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" si="11"/>
-        <v>67272.360664382839</v>
+        <v>9.371857756492652</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="12"/>
-        <v>23243.849373543151</v>
+        <v>0.85169161751991584</v>
       </c>
       <c r="O108" s="2">
         <f t="shared" si="13"/>
-        <v>39543.2499712098</v>
+        <v>2.8252314403945382</v>
       </c>
       <c r="P108" s="2">
         <f t="shared" si="14"/>
-        <v>11200.040968420519</v>
+        <v>25.336967885056001</v>
       </c>
       <c r="Q108" s="2">
         <f t="shared" si="15"/>
-        <v>66713.508576301596</v>
+        <v>35.479360910128207</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
@@ -8320,42 +9551,42 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>324.78241000000003</v>
+        <v>5.938123</v>
       </c>
       <c r="I109">
-        <v>175.65425099999999</v>
+        <v>9.4111759999999993</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" si="8"/>
-        <v>-149.12815900000004</v>
+        <v>3.4730529999999993</v>
       </c>
       <c r="K109" s="2">
         <f t="shared" si="9"/>
-        <v>-283.51143204629614</v>
+        <v>0.3557930092592585</v>
       </c>
       <c r="L109" s="2">
         <f t="shared" si="10"/>
-        <v>-133.30369678703693</v>
+        <v>-0.22215360185185329</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" si="11"/>
-        <v>80378.73210094159</v>
+        <v>0.12658866543775879</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="12"/>
-        <v>17769.875577090279</v>
+        <v>4.9352222815751752E-2</v>
       </c>
       <c r="O109" s="2">
         <f t="shared" si="13"/>
-        <v>37793.121973158086</v>
+        <v>-7.9040698520654068E-2</v>
       </c>
       <c r="P109" s="2">
         <f t="shared" si="14"/>
-        <v>22239.207806729293</v>
+        <v>12.062097140808994</v>
       </c>
       <c r="Q109" s="2">
         <f t="shared" si="15"/>
-        <v>79767.753163309651</v>
+        <v>10.568346896879978</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
@@ -8372,42 +9603,42 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>400.33316000000002</v>
+        <v>5.1767469999999998</v>
       </c>
       <c r="I110">
-        <v>177.17825300000001</v>
+        <v>6.3036919999999999</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" si="8"/>
-        <v>-223.15490700000001</v>
+        <v>1.1269450000000001</v>
       </c>
       <c r="K110" s="2">
         <f t="shared" si="9"/>
-        <v>-281.98743004629614</v>
+        <v>-2.751690990740741</v>
       </c>
       <c r="L110" s="2">
         <f t="shared" si="10"/>
-        <v>-57.752946787036933</v>
+        <v>-0.98352960185185356</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" si="11"/>
-        <v>79516.910704114765</v>
+        <v>7.5718033085237604</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="12"/>
-        <v>3335.4028625863198</v>
+        <v>0.9673304777188656</v>
       </c>
       <c r="O110" s="2">
         <f t="shared" si="13"/>
-        <v>16285.605042077041</v>
+        <v>2.7063695445425733</v>
       </c>
       <c r="P110" s="2">
         <f t="shared" si="14"/>
-        <v>49798.112518178656</v>
+        <v>1.2700050330250001</v>
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="15"/>
-        <v>78909.222319239343</v>
+        <v>2.056797642599139E-2</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
@@ -8424,42 +9655,42 @@
         <v>31</v>
       </c>
       <c r="H111">
-        <v>529.74597200000005</v>
+        <v>4.937602</v>
       </c>
       <c r="I111">
-        <v>328.79098499999998</v>
+        <v>5.5905180000000003</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" si="8"/>
-        <v>-200.95498700000007</v>
+        <v>0.65291600000000027</v>
       </c>
       <c r="K111" s="2">
         <f t="shared" si="9"/>
-        <v>-130.37469804629615</v>
+        <v>-3.4648649907407405</v>
       </c>
       <c r="L111" s="2">
         <f t="shared" si="10"/>
-        <v>71.659865212963098</v>
+        <v>-1.2226746018518533</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" si="11"/>
-        <v>16997.561890662895</v>
+        <v>12.005289404060832</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="12"/>
-        <v>5135.1362823400386</v>
+        <v>1.494933182013588</v>
       </c>
       <c r="O111" s="2">
         <f t="shared" si="13"/>
-        <v>-9342.6332891783459</v>
+        <v>4.2364024230243604</v>
       </c>
       <c r="P111" s="2">
         <f t="shared" si="14"/>
-        <v>40382.906800170196</v>
+        <v>0.42629930305600033</v>
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="15"/>
-        <v>16717.228517924723</v>
+        <v>0.32462486438417837</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
@@ -21177,6 +22408,780 @@
     <row r="3290" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H3290"/>
       <c r="I3290"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC9964-7CA9-4D34-9FA6-B14B6293EC78}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>4.9833369999999997</v>
+      </c>
+      <c r="F2">
+        <v>5.5611240000000004</v>
+      </c>
+      <c r="G2">
+        <v>6.5884280000000004</v>
+      </c>
+      <c r="H2">
+        <v>5.224564</v>
+      </c>
+      <c r="I2">
+        <v>5.0337880000000004</v>
+      </c>
+      <c r="J2">
+        <v>5.995069</v>
+      </c>
+      <c r="K2">
+        <v>5.3670289999999996</v>
+      </c>
+      <c r="L2">
+        <v>6.242737</v>
+      </c>
+      <c r="M2">
+        <v>5.4306089999999996</v>
+      </c>
+      <c r="N2">
+        <v>6.0277560000000001</v>
+      </c>
+      <c r="O2">
+        <v>5.5951409999999999</v>
+      </c>
+      <c r="P2">
+        <v>6.7575260000000004</v>
+      </c>
+      <c r="R2">
+        <v>13.310560000000001</v>
+      </c>
+      <c r="S2">
+        <v>5.3670289999999996</v>
+      </c>
+      <c r="T2">
+        <v>6.242737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>5.246747</v>
+      </c>
+      <c r="F3">
+        <v>5.204129</v>
+      </c>
+      <c r="G3">
+        <v>5.7355029999999996</v>
+      </c>
+      <c r="H3">
+        <v>5.8026419999999996</v>
+      </c>
+      <c r="I3">
+        <v>5.2520449999999999</v>
+      </c>
+      <c r="J3">
+        <v>5.7064260000000004</v>
+      </c>
+      <c r="K3">
+        <v>5.5843309999999997</v>
+      </c>
+      <c r="L3">
+        <v>6.0254859999999999</v>
+      </c>
+      <c r="M3">
+        <v>5.7969780000000002</v>
+      </c>
+      <c r="N3">
+        <v>6.2143959999999998</v>
+      </c>
+      <c r="O3">
+        <v>6.2170230000000002</v>
+      </c>
+      <c r="P3">
+        <v>7.0468979999999997</v>
+      </c>
+      <c r="R3">
+        <v>11.033269000000001</v>
+      </c>
+      <c r="S3">
+        <v>5.5843309999999997</v>
+      </c>
+      <c r="T3">
+        <v>6.0254859999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>5.7406829999999998</v>
+      </c>
+      <c r="F4">
+        <v>5.0899530000000004</v>
+      </c>
+      <c r="G4">
+        <v>5.8833339999999996</v>
+      </c>
+      <c r="H4">
+        <v>5.923997</v>
+      </c>
+      <c r="I4">
+        <v>5.5768599999999999</v>
+      </c>
+      <c r="J4">
+        <v>5.4635199999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.3913570000000002</v>
+      </c>
+      <c r="L4">
+        <v>5.870177</v>
+      </c>
+      <c r="M4">
+        <v>6.6859520000000003</v>
+      </c>
+      <c r="N4">
+        <v>6.5663590000000003</v>
+      </c>
+      <c r="O4">
+        <v>7.5620370000000001</v>
+      </c>
+      <c r="P4">
+        <v>7.5625140000000002</v>
+      </c>
+      <c r="R4">
+        <v>13.52351</v>
+      </c>
+      <c r="S4">
+        <v>6.3913570000000002</v>
+      </c>
+      <c r="T4">
+        <v>5.870177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>5.9589460000000001</v>
+      </c>
+      <c r="F5">
+        <v>5.3831249999999997</v>
+      </c>
+      <c r="G5">
+        <v>6.2115710000000002</v>
+      </c>
+      <c r="H5">
+        <v>7.5821870000000002</v>
+      </c>
+      <c r="I5">
+        <v>5.6405070000000004</v>
+      </c>
+      <c r="J5">
+        <v>5.8469829999999998</v>
+      </c>
+      <c r="K5">
+        <v>6.5803399999999996</v>
+      </c>
+      <c r="L5">
+        <v>6.3362550000000004</v>
+      </c>
+      <c r="M5">
+        <v>7.1928390000000002</v>
+      </c>
+      <c r="N5">
+        <v>7.2644799999999998</v>
+      </c>
+      <c r="O5">
+        <v>8.4170669999999994</v>
+      </c>
+      <c r="P5">
+        <v>8.5006950000000003</v>
+      </c>
+      <c r="R5">
+        <v>13.557836999999999</v>
+      </c>
+      <c r="S5">
+        <v>6.5803399999999996</v>
+      </c>
+      <c r="T5">
+        <v>6.3362550000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>6.2442310000000001</v>
+      </c>
+      <c r="F6">
+        <v>6.4534450000000003</v>
+      </c>
+      <c r="G6">
+        <v>6.5763299999999996</v>
+      </c>
+      <c r="H6">
+        <v>9.4392139999999998</v>
+      </c>
+      <c r="I6">
+        <v>6.0188750000000004</v>
+      </c>
+      <c r="J6">
+        <v>7.3546389999999997</v>
+      </c>
+      <c r="K6">
+        <v>6.7138150000000003</v>
+      </c>
+      <c r="L6">
+        <v>6.764894</v>
+      </c>
+      <c r="M6">
+        <v>8.0378790000000002</v>
+      </c>
+      <c r="N6">
+        <v>8.4262440000000005</v>
+      </c>
+      <c r="O6">
+        <v>9.7384570000000004</v>
+      </c>
+      <c r="P6">
+        <v>10.083938</v>
+      </c>
+      <c r="R6">
+        <v>17.262962000000002</v>
+      </c>
+      <c r="S6">
+        <v>6.7138150000000003</v>
+      </c>
+      <c r="T6">
+        <v>6.764894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>6.7417850000000001</v>
+      </c>
+      <c r="F7">
+        <v>8.8064929999999997</v>
+      </c>
+      <c r="G7">
+        <v>6.8025380000000002</v>
+      </c>
+      <c r="H7">
+        <v>9.8762489999999996</v>
+      </c>
+      <c r="I7">
+        <v>6.6253310000000001</v>
+      </c>
+      <c r="J7">
+        <v>9.6800379999999997</v>
+      </c>
+      <c r="K7">
+        <v>7.1028349999999998</v>
+      </c>
+      <c r="L7">
+        <v>8.3578449999999993</v>
+      </c>
+      <c r="M7">
+        <v>8.7379689999999997</v>
+      </c>
+      <c r="N7">
+        <v>9.8885059999999996</v>
+      </c>
+      <c r="O7">
+        <v>10.780167</v>
+      </c>
+      <c r="P7">
+        <v>11.837152</v>
+      </c>
+      <c r="R7">
+        <v>19.582636000000001</v>
+      </c>
+      <c r="S7">
+        <v>7.1028349999999998</v>
+      </c>
+      <c r="T7">
+        <v>8.3578449999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>8.0498429999999992</v>
+      </c>
+      <c r="F8">
+        <v>11.253795</v>
+      </c>
+      <c r="G8">
+        <v>7.1374250000000004</v>
+      </c>
+      <c r="H8">
+        <v>13.152755000000001</v>
+      </c>
+      <c r="I8">
+        <v>8.0312180000000009</v>
+      </c>
+      <c r="J8">
+        <v>14.584220999999999</v>
+      </c>
+      <c r="K8">
+        <v>8.1995249999999995</v>
+      </c>
+      <c r="L8">
+        <v>9.3243179999999999</v>
+      </c>
+      <c r="M8">
+        <v>11.16212</v>
+      </c>
+      <c r="N8">
+        <v>12.718325</v>
+      </c>
+      <c r="O8">
+        <v>14.668426999999999</v>
+      </c>
+      <c r="P8">
+        <v>16.065334</v>
+      </c>
+      <c r="R8">
+        <v>29.994395999999998</v>
+      </c>
+      <c r="S8">
+        <v>8.1995249999999995</v>
+      </c>
+      <c r="T8">
+        <v>9.3243179999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>7.878736</v>
+      </c>
+      <c r="F9">
+        <v>10.724527999999999</v>
+      </c>
+      <c r="G9">
+        <v>7.4036049999999998</v>
+      </c>
+      <c r="H9">
+        <v>13.913205</v>
+      </c>
+      <c r="I9">
+        <v>7.9637469999999997</v>
+      </c>
+      <c r="J9">
+        <v>15.261647999999999</v>
+      </c>
+      <c r="K9">
+        <v>8.7618810000000007</v>
+      </c>
+      <c r="L9">
+        <v>9.5130529999999993</v>
+      </c>
+      <c r="M9">
+        <v>10.942272000000001</v>
+      </c>
+      <c r="N9">
+        <v>12.646362999999999</v>
+      </c>
+      <c r="O9">
+        <v>14.345183</v>
+      </c>
+      <c r="P9">
+        <v>15.599329000000001</v>
+      </c>
+      <c r="R9">
+        <v>40.549007000000003</v>
+      </c>
+      <c r="S9">
+        <v>8.7618810000000007</v>
+      </c>
+      <c r="T9">
+        <v>9.5130529999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>6.8961639999999997</v>
+      </c>
+      <c r="F10">
+        <v>9.3905910000000006</v>
+      </c>
+      <c r="G10">
+        <v>7.5720780000000003</v>
+      </c>
+      <c r="H10">
+        <v>12.812222</v>
+      </c>
+      <c r="I10">
+        <v>6.6844650000000003</v>
+      </c>
+      <c r="J10">
+        <v>12.806131000000001</v>
+      </c>
+      <c r="K10">
+        <v>8.1442739999999993</v>
+      </c>
+      <c r="L10">
+        <v>10.323399</v>
+      </c>
+      <c r="M10">
+        <v>9.1308179999999997</v>
+      </c>
+      <c r="N10">
+        <v>8.4777419999999992</v>
+      </c>
+      <c r="O10">
+        <v>11.349421</v>
+      </c>
+      <c r="P10">
+        <v>13.234444999999999</v>
+      </c>
+      <c r="R10">
+        <v>40.264831999999998</v>
+      </c>
+      <c r="S10">
+        <v>8.1442739999999993</v>
+      </c>
+      <c r="T10">
+        <v>10.323399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>5.9568719999999997</v>
+      </c>
+      <c r="F11">
+        <v>7.7608730000000001</v>
+      </c>
+      <c r="G11">
+        <v>7.5531139999999999</v>
+      </c>
+      <c r="H11">
+        <v>9.4167349999999992</v>
+      </c>
+      <c r="I11">
+        <v>5.9018769999999998</v>
+      </c>
+      <c r="J11">
+        <v>9.8069469999999992</v>
+      </c>
+      <c r="K11">
+        <v>7.9939299999999998</v>
+      </c>
+      <c r="L11">
+        <v>14.638032000000001</v>
+      </c>
+      <c r="M11">
+        <v>7.9130900000000004</v>
+      </c>
+      <c r="N11">
+        <v>10.216244</v>
+      </c>
+      <c r="O11">
+        <v>9.1954370000000001</v>
+      </c>
+      <c r="P11">
+        <v>11.104032999999999</v>
+      </c>
+      <c r="R11">
+        <v>38.819958</v>
+      </c>
+      <c r="S11">
+        <v>7.9939299999999998</v>
+      </c>
+      <c r="T11">
+        <v>14.638032000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>5.039828</v>
+      </c>
+      <c r="F12">
+        <v>5.7657990000000003</v>
+      </c>
+      <c r="G12">
+        <v>6.8332689999999996</v>
+      </c>
+      <c r="H12">
+        <v>7.0914609999999998</v>
+      </c>
+      <c r="I12">
+        <v>5.019889</v>
+      </c>
+      <c r="J12">
+        <v>6.3599959999999998</v>
+      </c>
+      <c r="K12">
+        <v>5.7775530000000002</v>
+      </c>
+      <c r="L12">
+        <v>8.1989000000000001</v>
+      </c>
+      <c r="M12">
+        <v>5.9280540000000004</v>
+      </c>
+      <c r="N12">
+        <v>7.1973070000000003</v>
+      </c>
+      <c r="O12">
+        <v>6.1308720000000001</v>
+      </c>
+      <c r="P12">
+        <v>7.7684309999999996</v>
+      </c>
+      <c r="R12">
+        <v>35.013817000000003</v>
+      </c>
+      <c r="S12">
+        <v>5.7775530000000002</v>
+      </c>
+      <c r="T12">
+        <v>8.1989000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>4.8165750000000003</v>
+      </c>
+      <c r="F13">
+        <v>4.8019150000000002</v>
+      </c>
+      <c r="G13">
+        <v>5.5305419999999996</v>
+      </c>
+      <c r="H13">
+        <v>5.3976810000000004</v>
+      </c>
+      <c r="I13">
+        <v>4.9053069999999996</v>
+      </c>
+      <c r="J13">
+        <v>5.272043</v>
+      </c>
+      <c r="K13">
+        <v>4.7847039999999996</v>
+      </c>
+      <c r="L13">
+        <v>5.9627169999999996</v>
+      </c>
+      <c r="M13">
+        <v>4.8769739999999997</v>
+      </c>
+      <c r="N13">
+        <v>5.9561909999999996</v>
+      </c>
+      <c r="O13">
+        <v>4.8920789999999998</v>
+      </c>
+      <c r="P13">
+        <v>6.5254580000000004</v>
+      </c>
+      <c r="R13">
+        <v>25.381826</v>
+      </c>
+      <c r="S13">
+        <v>4.7847039999999996</v>
+      </c>
+      <c r="T13">
+        <v>5.9627169999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
+++ b/DataCW3M/SkillAssessment/StatisticsCalculator108months.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752B90C-1756-47F0-B1F9-B761EEF1B1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628B8E6-6C45-4A22-9456-1BE804C41322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Month index</t>
   </si>
@@ -804,7 +804,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429</c:v>
+                  <c:v> USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -828,328 +828,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.0337579999999997</c:v>
+                  <c:v>5.6408699999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2502069999999996</c:v>
+                  <c:v>6.2118820000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5751559999999998</c:v>
+                  <c:v>7.6190759999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6404370000000004</c:v>
+                  <c:v>8.4978529999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0187249999999999</c:v>
+                  <c:v>10.052485000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6253310000000001</c:v>
+                  <c:v>11.528485999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0312180000000009</c:v>
+                  <c:v>15.874349</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9637000000000002</c:v>
+                  <c:v>16.06204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6844609999999998</c:v>
+                  <c:v>14.933883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9015829999999996</c:v>
+                  <c:v>12.818709</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0198689999999999</c:v>
+                  <c:v>7.5511429999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9052369999999996</c:v>
+                  <c:v>4.948124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9701269999999997</c:v>
+                  <c:v>4.8738060000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0592030000000001</c:v>
+                  <c:v>5.4618359999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1796259999999998</c:v>
+                  <c:v>6.4310700000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4630099999999997</c:v>
+                  <c:v>7.8601400000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0111540000000003</c:v>
+                  <c:v>9.6265579999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9946029999999997</c:v>
+                  <c:v>11.359493000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5187549999999996</c:v>
+                  <c:v>13.666841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0709379999999999</c:v>
+                  <c:v>15.760770000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.4533339999999999</c:v>
+                  <c:v>15.665265</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8336880000000004</c:v>
+                  <c:v>12.653942000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0490170000000001</c:v>
+                  <c:v>8.5705810000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.914485</c:v>
+                  <c:v>5.4709139999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9582459999999999</c:v>
+                  <c:v>4.992197</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0792630000000001</c:v>
+                  <c:v>5.5697510000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2452860000000001</c:v>
+                  <c:v>6.27597</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6333859999999998</c:v>
+                  <c:v>8.5433990000000009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.5814649999999997</c:v>
+                  <c:v>10.724126</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.4729409999999996</c:v>
+                  <c:v>10.968446999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9430899999999998</c:v>
+                  <c:v>14.935286</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1058649999999997</c:v>
+                  <c:v>16.070640999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.3547640000000003</c:v>
+                  <c:v>15.937308</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.9804820000000003</c:v>
+                  <c:v>12.708824999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.1121920000000003</c:v>
+                  <c:v>7.7949000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8845169999999998</c:v>
+                  <c:v>4.90055</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9369139999999998</c:v>
+                  <c:v>4.61843</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.117667</c:v>
+                  <c:v>5.7472180000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4710190000000001</c:v>
+                  <c:v>7.2944839999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.9717310000000001</c:v>
+                  <c:v>8.8281209999999994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8351329999999999</c:v>
+                  <c:v>11.087895</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.1701709999999999</c:v>
+                  <c:v>13.505334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.2082940000000004</c:v>
+                  <c:v>16.214399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.9506629999999996</c:v>
+                  <c:v>15.713748000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.6867380000000001</c:v>
+                  <c:v>14.993501999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.7875199999999998</c:v>
+                  <c:v>11.893057000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0707500000000003</c:v>
+                  <c:v>7.967943</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.8515670000000002</c:v>
+                  <c:v>4.9708870000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.1661419999999998</c:v>
+                  <c:v>5.6611089999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.0043139999999999</c:v>
+                  <c:v>5.484623</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4101059999999999</c:v>
+                  <c:v>7.4775520000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8482719999999997</c:v>
+                  <c:v>9.3489959999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.6093440000000001</c:v>
+                  <c:v>11.266698999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.1869519999999998</c:v>
+                  <c:v>13.757198000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.0584059999999997</c:v>
+                  <c:v>16.126942</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.0348419999999994</c:v>
+                  <c:v>16.257487999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.2648429999999999</c:v>
+                  <c:v>16.072773000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.9231980000000002</c:v>
+                  <c:v>13.462987</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.084778</c:v>
+                  <c:v>7.8246010000000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.949192</c:v>
+                  <c:v>5.6044770000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1539919999999997</c:v>
+                  <c:v>5.7451800000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.406536</c:v>
+                  <c:v>6.8297699999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.8562700000000003</c:v>
+                  <c:v>8.8826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.1007069999999999</c:v>
+                  <c:v>9.8488950000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0389400000000002</c:v>
+                  <c:v>12.945648</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.9949960000000004</c:v>
+                  <c:v>15.87955</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.3325549999999993</c:v>
+                  <c:v>16.865604000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.4381970000000006</c:v>
+                  <c:v>16.829004000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.9259729999999999</c:v>
+                  <c:v>15.146062000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.3101979999999998</c:v>
+                  <c:v>13.570384000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.0429940000000002</c:v>
+                  <c:v>8.9422979999999992</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.9246639999999999</c:v>
+                  <c:v>5.2128269999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9727360000000003</c:v>
+                  <c:v>4.9130700000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1658390000000001</c:v>
+                  <c:v>6.0250130000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.29237</c:v>
+                  <c:v>7.2481359999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.2370150000000004</c:v>
+                  <c:v>9.8911479999999994</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.9809720000000004</c:v>
+                  <c:v>12.054392</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.4267440000000002</c:v>
+                  <c:v>14.588003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.846743</c:v>
+                  <c:v>15.652453</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.1649879999999992</c:v>
+                  <c:v>16.499231000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.0741360000000002</c:v>
+                  <c:v>15.567494</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.3955099999999998</c:v>
+                  <c:v>10.939890999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.1544169999999996</c:v>
+                  <c:v>7.691643</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.8187790000000001</c:v>
+                  <c:v>4.4755289999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.3940149999999996</c:v>
+                  <c:v>2.5244849999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.8048799999999998</c:v>
+                  <c:v>4.1498359999999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.1158020000000004</c:v>
+                  <c:v>5.8737279999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.4144880000000004</c:v>
+                  <c:v>8.5448909999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.2581600000000002</c:v>
+                  <c:v>11.347408</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.1466219999999998</c:v>
+                  <c:v>13.817653</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.2498620000000003</c:v>
+                  <c:v>16.408850000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.6225909999999999</c:v>
+                  <c:v>14.862885</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.5297140000000002</c:v>
+                  <c:v>13.903612000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.3447750000000003</c:v>
+                  <c:v>10.420681999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.818009</c:v>
+                  <c:v>5.9164130000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5630990000000002</c:v>
+                  <c:v>3.6593179999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.0076000000000001</c:v>
+                  <c:v>5.140574</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.1185080000000003</c:v>
+                  <c:v>5.6557779999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.3581110000000001</c:v>
+                  <c:v>7.5378340000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8127190000000004</c:v>
+                  <c:v>8.6778230000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.3695170000000001</c:v>
+                  <c:v>13.231346</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.3800800000000004</c:v>
+                  <c:v>14.66371</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.407959</c:v>
+                  <c:v>16.844687</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.2837960000000006</c:v>
+                  <c:v>16.499600999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0831480000000004</c:v>
+                  <c:v>15.148479999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.938123</c:v>
+                  <c:v>13.43371</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.1767469999999998</c:v>
+                  <c:v>9.7541349999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.937602</c:v>
+                  <c:v>5.5432129999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14164900_temp_MCKENZIE RIVER ABV HAYDEN BR  AT SPRINGFIELD  OR_23772751.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1194,328 +1194,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.995069</c:v>
+                  <c:v>6.7575260000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7064260000000004</c:v>
+                  <c:v>7.0468979999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4635199999999999</c:v>
+                  <c:v>7.5625140000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8469829999999998</c:v>
+                  <c:v>8.5006950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3546389999999997</c:v>
+                  <c:v>10.083938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6800379999999997</c:v>
+                  <c:v>11.837152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.584220999999999</c:v>
+                  <c:v>16.065334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.261647999999999</c:v>
+                  <c:v>15.599329000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.806131000000001</c:v>
+                  <c:v>13.234444999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8069469999999992</c:v>
+                  <c:v>11.104032999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3599959999999998</c:v>
+                  <c:v>7.7684309999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.272043</c:v>
+                  <c:v>6.5254580000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6519149999999998</c:v>
+                  <c:v>5.8123259999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.530357</c:v>
+                  <c:v>5.5251479999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.778022</c:v>
+                  <c:v>6.5961270000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.180104</c:v>
+                  <c:v>7.4708329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3966960000000004</c:v>
+                  <c:v>8.912903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9151740000000004</c:v>
+                  <c:v>10.841665000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.210819000000001</c:v>
+                  <c:v>13.848522000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.696068</c:v>
+                  <c:v>15.150067999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.140558</c:v>
+                  <c:v>12.886526999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.113104</c:v>
+                  <c:v>10.686559000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8270860000000004</c:v>
+                  <c:v>7.3908750000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.21502</c:v>
+                  <c:v>4.6762090000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3466950000000004</c:v>
+                  <c:v>5.7243950000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3152239999999997</c:v>
+                  <c:v>6.0212640000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1118129999999997</c:v>
+                  <c:v>6.2946020000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5996569999999997</c:v>
+                  <c:v>8.0125010000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8391130000000002</c:v>
+                  <c:v>9.9014100000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6897059999999993</c:v>
+                  <c:v>11.643750000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292591</c:v>
+                  <c:v>14.857324999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.783275</c:v>
+                  <c:v>15.432864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.040979999999999</c:v>
+                  <c:v>12.870347000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8601080000000003</c:v>
+                  <c:v>10.587904999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1383010000000002</c:v>
+                  <c:v>8.4551409999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9432869999999998</c:v>
+                  <c:v>6.7407919999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7774809999999999</c:v>
+                  <c:v>4.9180770000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4470419999999997</c:v>
+                  <c:v>6.1956850000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2057549999999999</c:v>
+                  <c:v>7.492057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2931949999999999</c:v>
+                  <c:v>8.5971530000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0125589999999995</c:v>
+                  <c:v>11.077218</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.620977999999999</c:v>
+                  <c:v>13.704166000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.109044999999998</c:v>
+                  <c:v>16.750347000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.403063</c:v>
+                  <c:v>15.772145</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.773477</c:v>
+                  <c:v>13.215868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6693629999999997</c:v>
+                  <c:v>9.9914310000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3303070000000004</c:v>
+                  <c:v>7.4102540000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3336269999999999</c:v>
+                  <c:v>4.2807459999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5585680000000002</c:v>
+                  <c:v>5.2900869999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6808779999999999</c:v>
+                  <c:v>5.9716139999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.966812</c:v>
+                  <c:v>7.3243400000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9964919999999999</c:v>
+                  <c:v>8.8320469999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3046369999999996</c:v>
+                  <c:v>11.221339</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.878055</c:v>
+                  <c:v>13.324306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.008330999999998</c:v>
+                  <c:v>16.180609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.785382999999999</c:v>
+                  <c:v>15.435485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.869374000000001</c:v>
+                  <c:v>13.738193000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.811021</c:v>
+                  <c:v>11.838914000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.4374570000000002</c:v>
+                  <c:v>8.3758119999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9163920000000001</c:v>
+                  <c:v>7.792554</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9007389999999997</c:v>
+                  <c:v>6.7203629999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5825889999999996</c:v>
+                  <c:v>7.6048359999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.894501</c:v>
+                  <c:v>8.8436210000000006</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3208640000000003</c:v>
+                  <c:v>10.058611000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.762707000000001</c:v>
+                  <c:v>13.074730000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.518577000000001</c:v>
+                  <c:v>16.857534000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.680610999999999</c:v>
+                  <c:v>18.027048000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.090021</c:v>
+                  <c:v>17.185048999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.509548000000001</c:v>
+                  <c:v>14.390521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.196471000000001</c:v>
+                  <c:v>11.777958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.740685</c:v>
+                  <c:v>8.0507980000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.9052759999999997</c:v>
+                  <c:v>7.1561149999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9835349999999998</c:v>
+                  <c:v>6.2070230000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8835810000000004</c:v>
+                  <c:v>7.2024429999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9938599999999997</c:v>
+                  <c:v>7.5207629999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9413900000000002</c:v>
+                  <c:v>10.099689</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.368010999999999</c:v>
+                  <c:v>12.167942999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.459146</c:v>
+                  <c:v>14.868748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.561928</c:v>
+                  <c:v>16.696805999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.301983</c:v>
+                  <c:v>16.748556000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.822082999999999</c:v>
+                  <c:v>14.161457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9084380000000003</c:v>
+                  <c:v>11.1876</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2723960000000005</c:v>
+                  <c:v>9.3414070000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.093515</c:v>
+                  <c:v>6.1767459999999996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.808535</c:v>
+                  <c:v>4.7506050000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.1422619999999997</c:v>
+                  <c:v>6.3771940000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3439209999999999</c:v>
+                  <c:v>7.0906229999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1178819999999998</c:v>
+                  <c:v>8.3418410000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1831309999999995</c:v>
+                  <c:v>10.444659</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.747901000000001</c:v>
+                  <c:v>13.197846</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.931585</c:v>
+                  <c:v>16.418118</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.562736999999998</c:v>
+                  <c:v>14.948691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.422396000000001</c:v>
+                  <c:v>12.859022</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.4957209999999996</c:v>
+                  <c:v>10.140311000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.7252989999999997</c:v>
+                  <c:v>7.9655129999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4009349999999996</c:v>
+                  <c:v>5.5748559999999996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1181070000000002</c:v>
+                  <c:v>6.7227480000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2502230000000001</c:v>
+                  <c:v>6.0133390000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8250279999999997</c:v>
+                  <c:v>7.0182650000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.2287509999999999</c:v>
+                  <c:v>8.6028570000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.341208999999999</c:v>
+                  <c:v>11.752383999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.749307</c:v>
+                  <c:v>13.440951999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.671403999999999</c:v>
+                  <c:v>16.549931999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.85783</c:v>
+                  <c:v>16.771944000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.116732000000001</c:v>
+                  <c:v>13.094060000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.4111759999999993</c:v>
+                  <c:v>10.210146</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3036919999999999</c:v>
+                  <c:v>7.540826</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5905180000000003</c:v>
+                  <c:v>6.1656829999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3290"/>
+  <dimension ref="A1:Z3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I111"/>
@@ -3732,17 +3732,17 @@
     <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="9">
         <f>H2-I2</f>
-        <v>-2.8951063888888875</v>
+        <v>7.6588129629630686E-2</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3752,11 +3752,11 @@
       <c r="G2"/>
       <c r="H2">
         <f>AVERAGE(H4:H111)</f>
-        <v>6.1602766018518533</v>
+        <v>10.329134777777778</v>
       </c>
       <c r="I2">
         <f>AVERAGE(I4:I111)</f>
-        <v>9.0553829907407408</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -3767,13 +3767,13 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
         <f>(I2-H2)/H2</f>
-        <v>0.46996370065892557</v>
+        <v>-7.4147671878968301E-3</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
@@ -3789,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
@@ -3833,14 +3833,20 @@
       <c r="W3" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7">
         <f>1-SUM(P4:P111)/SUM(M4:M111)</f>
-        <v>-2.8839084518476499E-2</v>
+        <v>0.90324397427963454</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -3856,42 +3862,42 @@
         <v>31</v>
       </c>
       <c r="H4">
-        <v>5.0337579999999997</v>
+        <v>5.6408699999999996</v>
       </c>
       <c r="I4">
-        <v>5.995069</v>
+        <v>6.7575260000000004</v>
       </c>
       <c r="J4" s="2">
         <f>I4-H4</f>
-        <v>0.96131100000000025</v>
+        <v>1.1166560000000008</v>
       </c>
       <c r="K4" s="2">
         <f>I4-I$2</f>
-        <v>-3.0603139907407408</v>
+        <v>-3.4950206481481469</v>
       </c>
       <c r="L4" s="2">
         <f>H4-H$2</f>
-        <v>-1.1265186018518536</v>
+        <v>-4.6882647777777784</v>
       </c>
       <c r="M4" s="2">
         <f>K4*K4</f>
-        <v>9.3655217219235194</v>
+        <v>12.215169330981894</v>
       </c>
       <c r="N4" s="2">
         <f>L4*L4</f>
-        <v>1.269044160318255</v>
+        <v>21.979826626551723</v>
       </c>
       <c r="O4" s="2">
         <f>K4*L4</f>
-        <v>3.4475006380769257</v>
+        <v>16.385582202319018</v>
       </c>
       <c r="P4" s="2">
         <f>J4*J4</f>
-        <v>0.92411883872100042</v>
+        <v>1.2469206223360016</v>
       </c>
       <c r="Q4" s="2">
         <f>(I4-H$2)*(I4-H$2)</f>
-        <v>2.7293551709640498E-2</v>
+        <v>12.756389261499271</v>
       </c>
       <c r="S4">
         <v>5.224564</v>
@@ -3908,14 +3914,20 @@
       <c r="W4">
         <v>5.224564</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>6.0271819999999998</v>
+      </c>
+      <c r="Z4">
+        <v>5.995069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
         <f>SQRT(SUM(P4:P111))/SQRT(SUM(Q4:Q111))</f>
-        <v>0.8342267072919467</v>
+        <v>0.31098948269737037</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -3931,42 +3943,42 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>5.2502069999999996</v>
+        <v>6.2118820000000001</v>
       </c>
       <c r="I5">
-        <v>5.7064260000000004</v>
+        <v>7.0468979999999997</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" si="0">I5-H5</f>
-        <v>0.45621900000000082</v>
+        <v>0.83501599999999954</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K68" si="1">I5-I$2</f>
-        <v>-3.3489569907407404</v>
+        <v>-3.2056486481481477</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ref="L5:L68" si="2">H5-H$2</f>
-        <v>-0.9100696018518537</v>
+        <v>-4.1172527777777779</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" si="3">K5*K5</f>
-        <v>11.215512925831275</v>
+        <v>10.276183255374047</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ref="N5:N68" si="4">L5*L5</f>
-        <v>0.82822668021479151</v>
+        <v>16.951770436118828</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ref="O5:O68" si="5">K5*L5</f>
-        <v>3.0477839551824077</v>
+        <v>13.19846580116754</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ref="P5:P68" si="6">J5*J5</f>
-        <v>0.20813577596100075</v>
+        <v>0.69725172025599924</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q68" si="7">(I5-H$2)*(I5-H$2)</f>
-        <v>0.20598036880128909</v>
+        <v>10.773078265397054</v>
       </c>
       <c r="S5">
         <v>5.8026419999999996</v>
@@ -3983,14 +3995,20 @@
       <c r="W5">
         <v>5.8026419999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>6.0917500000000002</v>
+      </c>
+      <c r="Z5">
+        <v>5.7064260000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7">
         <f>B12*B12</f>
-        <v>0.89276094347282531</v>
+        <v>0.93133568278620205</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -4006,42 +4024,42 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>5.5751559999999998</v>
+        <v>7.6190759999999997</v>
       </c>
       <c r="I6">
-        <v>5.4635199999999999</v>
+        <v>7.5625140000000002</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.11163599999999985</v>
+        <v>-5.6561999999999557E-2</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5918629907407409</v>
+        <v>-2.6900326481481471</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.58512060185185355</v>
+        <v>-2.7100587777777783</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>12.90147974425302</v>
+        <v>7.2362756481029331</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="4"/>
-        <v>0.34236611871147532</v>
+        <v>7.3444185790103855</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="5"/>
-        <v>2.1016730349116211</v>
+        <v>7.2901465906226877</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="6"/>
-        <v>1.2462596495999966E-2</v>
+        <v>3.1992598439999501E-3</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>0.48546976222414218</v>
+        <v>7.654190528031716</v>
       </c>
       <c r="S6">
         <v>5.923997</v>
@@ -4058,14 +4076,20 @@
       <c r="W6">
         <v>5.923997</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>6.2149340000000004</v>
+      </c>
+      <c r="Z6">
+        <v>5.4635199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8">
         <f>H2</f>
-        <v>6.1602766018518533</v>
+        <v>10.329134777777778</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7">
@@ -4081,42 +4105,42 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>5.6404370000000004</v>
+        <v>8.4978529999999992</v>
       </c>
       <c r="I7">
-        <v>5.8469829999999998</v>
+        <v>8.5006950000000003</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>0.20654599999999945</v>
+        <v>2.8420000000011214E-3</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-3.208399990740741</v>
+        <v>-1.751851648148147</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.51983960185185296</v>
+        <v>-1.8312817777777788</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>10.293830500585187</v>
+        <v>3.068984197119379</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="4"/>
-        <v>0.27023321165349301</v>
+        <v>3.3535929496209418</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="5"/>
-        <v>1.6678533737681556</v>
+        <v>3.2081340006236703</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="6"/>
-        <v>4.2661250115999777E-2</v>
+        <v>8.0769640000063737E-6</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
-        <v>9.8152880961307712E-2</v>
+        <v>3.343192020960049</v>
       </c>
       <c r="S7">
         <v>7.5821870000000002</v>
@@ -4133,14 +4157,20 @@
       <c r="W7">
         <v>7.5821870000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>6.6572610000000001</v>
+      </c>
+      <c r="Z7">
+        <v>5.8469829999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
         <f>_xlfn.STDEV.P(H4:H111)</f>
-        <v>1.1682635951135514</v>
+        <v>4.1796302690841127</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8">
@@ -4156,42 +4186,42 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>6.0187249999999999</v>
+        <v>10.052485000000001</v>
       </c>
       <c r="I8">
-        <v>7.3546389999999997</v>
+        <v>10.083938</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.3359139999999998</v>
+        <v>3.1452999999999065E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7007439907407411</v>
+        <v>-0.16860864814814747</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.14155160185185345</v>
+        <v>-0.27664977777777722</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>2.8925301220407422</v>
+        <v>2.8428876230345793E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>2.0036855986825641E-2</v>
+        <v>7.6535099544493515E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.24074303622926571</v>
+        <v>4.6645545041596424E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
-        <v>1.7846662153959996</v>
+        <v>9.8929120899994127E-4</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>1.4265015381101913</v>
+        <v>6.0121459832605119E-2</v>
       </c>
       <c r="S8">
         <v>9.4392139999999998</v>
@@ -4208,14 +4238,20 @@
       <c r="W8">
         <v>9.4392139999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>8.2361129999999996</v>
+      </c>
+      <c r="Z8">
+        <v>7.3546389999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8">
         <f>I2</f>
-        <v>9.0553829907407408</v>
+        <v>10.252546648148147</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
@@ -4231,42 +4267,42 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>6.6253310000000001</v>
+        <v>11.528485999999999</v>
       </c>
       <c r="I9">
-        <v>9.6800379999999997</v>
+        <v>11.837152</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>3.0547069999999996</v>
+        <v>0.30866600000000055</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.62465500925925888</v>
+        <v>1.5846053518518524</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0.46505439814814675</v>
+        <v>1.1993512222222211</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.39019388059268478</v>
+        <v>2.5109741211175329</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>0.21627559323693502</v>
+        <v>1.4384433542459356</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>0.29049855938128966</v>
+        <v>1.9004983654833918</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="6"/>
-        <v>9.3312348558489973</v>
+        <v>9.5274699556000333E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>12.388720299893794</v>
+        <v>2.2741159425188253</v>
       </c>
       <c r="S9">
         <v>9.8762489999999996</v>
@@ -4283,14 +4319,20 @@
       <c r="W9">
         <v>9.8762489999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>11.508697</v>
+      </c>
+      <c r="Z9">
+        <v>9.6800379999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <f>_xlfn.STDEV.P(I4:I111)</f>
-        <v>4.1858969541271742</v>
+        <v>3.6942891261951312</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4305,42 +4347,42 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>8.0312180000000009</v>
+        <v>15.874349</v>
       </c>
       <c r="I10">
-        <v>14.584220999999999</v>
+        <v>16.065334</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.5530029999999986</v>
+        <v>0.19098499999999952</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>5.5288380092592586</v>
+        <v>5.8127873518518527</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>1.8709413981481475</v>
+        <v>5.5452142222222225</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>30.568049732629881</v>
+        <v>33.788496797848872</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3.5004217153045452</v>
+        <v>30.749400770335608</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>10.344131915178139</v>
+        <v>32.233151094242345</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="6"/>
-        <v>42.941848318008979</v>
+        <v>3.6475270224999815E-2</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
-        <v>70.962839223091535</v>
+        <v>32.903981517022828</v>
       </c>
       <c r="S10">
         <v>13.152755000000001</v>
@@ -4357,8 +4399,14 @@
       <c r="W10">
         <v>13.152755000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>16.489000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>14.584220999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>7</v>
       </c>
@@ -4372,42 +4420,42 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>7.9637000000000002</v>
+        <v>16.06204</v>
       </c>
       <c r="I11">
-        <v>15.261647999999999</v>
+        <v>15.599329000000001</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>7.297947999999999</v>
+        <v>-0.46271099999999876</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>6.2062650092592584</v>
+        <v>5.3467823518518536</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>1.8034233981481469</v>
+        <v>5.7329052222222217</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>38.517725365155826</v>
+        <v>28.588081518074439</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="4"/>
-        <v>3.2523359529882097</v>
+        <v>32.866202286982819</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>11.192523532806272</v>
+        <v>30.652596467017105</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>53.260045010703983</v>
+        <v>0.21410146952099884</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="7"/>
-        <v>82.834961327029134</v>
+        <v>27.774947139944501</v>
       </c>
       <c r="S11">
         <v>13.913205</v>
@@ -4424,14 +4472,20 @@
       <c r="W11">
         <v>13.913205</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>16.392616</v>
+      </c>
+      <c r="Z11">
+        <v>15.261647999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7">
         <f>SUM(O4:O111)/SQRT(SUM(M4:M111)*SUM(N4:N111))</f>
-        <v>0.94486027722241839</v>
+        <v>0.96505734688991518</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12">
@@ -4447,42 +4501,42 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>6.6844609999999998</v>
+        <v>14.933883</v>
       </c>
       <c r="I12">
-        <v>12.806131000000001</v>
+        <v>13.234444999999999</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>6.1216700000000008</v>
+        <v>-1.6994380000000007</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>3.7507480092592598</v>
+        <v>2.9818983518518518</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>0.52418439814814644</v>
+        <v>4.6047482222222218</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>14.0681106289623</v>
+        <v>8.8917177807767906</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="4"/>
-        <v>0.2747692832619345</v>
+        <v>21.20370619005871</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>1.9660835878389236</v>
+        <v>13.730891134537188</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>37.474843588900008</v>
+        <v>2.8880895158440021</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="7"/>
-        <v>44.167380681385076</v>
+        <v>8.4408274873489315</v>
       </c>
       <c r="S12">
         <v>12.812222</v>
@@ -4499,8 +4553,14 @@
       <c r="W12">
         <v>12.812222</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>12.729642999999999</v>
+      </c>
+      <c r="Z12">
+        <v>12.806131000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>9</v>
       </c>
@@ -4514,42 +4574,42 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>5.9015829999999996</v>
+        <v>12.818709</v>
       </c>
       <c r="I13">
-        <v>9.8069469999999992</v>
+        <v>11.104032999999999</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.9053639999999996</v>
+        <v>-1.7146760000000008</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75156400925925837</v>
+        <v>0.85148635185185206</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-0.25869360185185375</v>
+        <v>2.4895742222222221</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.56484846001385058</v>
+        <v>0.725029007389976</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="4"/>
-        <v>6.6922379639085428E-2</v>
+        <v>6.1979798079533825</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>-0.1944248005774975</v>
+        <v>2.1198384721444121</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>15.251867972495997</v>
+        <v>2.9401137849760026</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="7"/>
-        <v>13.298204992729957</v>
+        <v>0.60046725480315921</v>
       </c>
       <c r="S13">
         <v>9.4167349999999992</v>
@@ -4566,8 +4626,14 @@
       <c r="W13">
         <v>9.4167349999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>9.5897050000000004</v>
+      </c>
+      <c r="Z13">
+        <v>9.8069469999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>10</v>
       </c>
@@ -4581,42 +4647,42 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>5.0198689999999999</v>
+        <v>7.5511429999999997</v>
       </c>
       <c r="I14">
-        <v>6.3599959999999998</v>
+        <v>7.7684309999999996</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.3401269999999998</v>
+        <v>0.21728799999999993</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6953869907407411</v>
+        <v>-2.4841156481481477</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1404076018518534</v>
+        <v>-2.7779917777777783</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>7.2651110298544275</v>
+        <v>6.1708305533744916</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="4"/>
-        <v>1.3005294983614955</v>
+        <v>7.7172383174009411</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>3.0738398141733323</v>
+        <v>6.9008528456046703</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>1.7959403761289996</v>
+        <v>4.721407494399997E-2</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>3.9887837996657835E-2</v>
+        <v>6.5572038375253854</v>
       </c>
       <c r="S14">
         <v>7.0914609999999998</v>
@@ -4633,8 +4699,14 @@
       <c r="W14">
         <v>7.0914609999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>5.0972689999999998</v>
+      </c>
+      <c r="Z14">
+        <v>6.3599959999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>11</v>
       </c>
@@ -4648,42 +4720,42 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>4.9052369999999996</v>
+        <v>4.948124</v>
       </c>
       <c r="I15">
-        <v>5.272043</v>
+        <v>6.5254580000000004</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>0.36680600000000041</v>
+        <v>1.5773340000000005</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-3.7833399907407408</v>
+        <v>-3.7270886481481469</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2550396018518537</v>
+        <v>-5.381010777777778</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>14.313661485538148</v>
+        <v>13.891189791154781</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="4"/>
-        <v>1.5751244022164594</v>
+        <v>28.955276990560609</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>4.7482415156494548</v>
+        <v>20.055504185418386</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="6"/>
-        <v>0.1345466416360003</v>
+        <v>2.4879825475560016</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>0.78895893145871665</v>
+        <v>14.467957029805937</v>
       </c>
       <c r="S15">
         <v>5.3976810000000004</v>
@@ -4700,8 +4772,14 @@
       <c r="W15">
         <v>5.3976810000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>4.1435750000000002</v>
+      </c>
+      <c r="Z15">
+        <v>5.272043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>12</v>
       </c>
@@ -4715,42 +4793,42 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>4.9701269999999997</v>
+        <v>4.8738060000000001</v>
       </c>
       <c r="I16">
-        <v>4.6519149999999998</v>
+        <v>5.8123259999999997</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-0.31821199999999994</v>
+        <v>0.93851999999999958</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.403467990740741</v>
+        <v>-4.4402206481481477</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1901496018518536</v>
+        <v>-5.4553287777777779</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>19.3905303454783</v>
+        <v>19.715559404241155</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>1.4164560747881256</v>
+        <v>29.760612073650385</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>5.2407856759474747</v>
+        <v>24.222863481525689</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>0.10125887694399996</v>
+        <v>0.88081979039999925</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>2.2751547219410897</v>
+        <v>20.401561535010387</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.3">
@@ -4767,42 +4845,42 @@
         <v>28</v>
       </c>
       <c r="H17">
-        <v>5.0592030000000001</v>
+        <v>5.4618359999999999</v>
       </c>
       <c r="I17">
-        <v>3.530357</v>
+        <v>5.5251479999999997</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5288460000000001</v>
+        <v>6.3311999999999813E-2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5250259907407404</v>
+        <v>-4.7273986481481476</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1010736018518532</v>
+        <v>-4.8672987777777781</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>30.5259121983607</v>
+        <v>22.348297978512932</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>1.2123630766950133</v>
+        <v>23.690597392157052</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>6.0834602679500112</v>
+        <v>23.0096616621998</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>2.3373700917160005</v>
+        <v>4.0084093439999762E-3</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="7"/>
-        <v>6.9164771122046105</v>
+        <v>23.07828896106372</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.3">
@@ -4819,42 +4897,42 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>5.1796259999999998</v>
+        <v>6.4310700000000001</v>
       </c>
       <c r="I18">
-        <v>4.778022</v>
+        <v>6.5961270000000001</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.40160399999999985</v>
+        <v>0.16505700000000001</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.2773609907407408</v>
+        <v>-3.6564196481481472</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>-0.98065060185185349</v>
+        <v>-3.8980647777777779</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>18.295817045110613</v>
+        <v>13.36940464336382</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>0.96167560291240251</v>
+        <v>15.194909011751717</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>4.1945966299075481</v>
+        <v>14.252960643220909</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>0.16128577281599987</v>
+        <v>2.7243813249000003E-2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="7"/>
-        <v>1.9106277843406256</v>
+        <v>13.935347068949383</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.3">
@@ -4871,42 +4949,42 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>5.4630099999999997</v>
+        <v>7.8601400000000003</v>
       </c>
       <c r="I19">
-        <v>5.180104</v>
+        <v>7.4708329999999998</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.28290599999999966</v>
+        <v>-0.38930700000000051</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8752789907407408</v>
+        <v>-2.7817136481481475</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>-0.69726660185185363</v>
+        <v>-2.4689947777777776</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>15.017787256076575</v>
+        <v>7.7379308202936752</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>0.48618071405803137</v>
+        <v>6.0959352126939379</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>2.7021026131016774</v>
+        <v>6.8680364705509467</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="6"/>
-        <v>8.0035804835999813E-2</v>
+        <v>0.15155994024900041</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="7"/>
-        <v>0.96073832942103166</v>
+        <v>8.1698890528476067</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.3">
@@ -4923,42 +5001,42 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>6.0111540000000003</v>
+        <v>9.6265579999999993</v>
       </c>
       <c r="I20">
-        <v>6.3966960000000004</v>
+        <v>8.912903</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>0.38554200000000005</v>
+        <v>-0.71365499999999926</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6586869907407404</v>
+        <v>-1.3396436481481473</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>-0.149122601851853</v>
+        <v>-0.70257677777777872</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>7.0686165147340541</v>
+        <v>1.7946451040236771</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>2.2237550383066271E-2</v>
+        <v>0.49361412867260623</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>0.39647032156893264</v>
+        <v>0.94120251768639362</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="6"/>
-        <v>0.14864263376400003</v>
+        <v>0.50930345902499896</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="7"/>
-        <v>5.5894131820732079E-2</v>
+        <v>2.0057124483876057</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.3">
@@ -4975,42 +5053,42 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>6.9946029999999997</v>
+        <v>11.359493000000001</v>
       </c>
       <c r="I21">
-        <v>8.9151740000000004</v>
+        <v>10.841665000000001</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.9205710000000007</v>
+        <v>-0.51782799999999973</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.14020899074074045</v>
+        <v>0.58911835185185346</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="2"/>
-        <v>0.83432639814814635</v>
+        <v>1.0303582222222225</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>1.9658561084537042E-2</v>
+        <v>0.34706043248864421</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>0.69610053864685928</v>
+        <v>1.0616380661009388</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>-0.11698006223270878</v>
+        <v>0.60700293769256153</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="6"/>
-        <v>3.6885929660410026</v>
+        <v>0.26814583758399974</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="7"/>
-        <v>7.5894596743234306</v>
+        <v>0.26268722869116107</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.3">
@@ -5027,42 +5105,42 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>7.5187549999999996</v>
+        <v>13.666841</v>
       </c>
       <c r="I22">
-        <v>13.210819000000001</v>
+        <v>13.848522000000001</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>5.6920640000000011</v>
+        <v>0.18168100000000109</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>4.1554360092592599</v>
+        <v>3.5959753518518536</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
-        <v>1.3584783981481463</v>
+        <v>3.3377062222222218</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>17.267648427048524</v>
+        <v>12.931038731126062</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>1.8454635582351535</v>
+        <v>11.140282825860936</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>5.6450700534656448</v>
+        <v>12.002309306833675</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="6"/>
-        <v>32.399592580096012</v>
+        <v>3.3007985761000398E-2</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="7"/>
-        <v>49.710148108084631</v>
+        <v>12.386086419941053</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.3">
@@ -5079,42 +5157,42 @@
         <v>31</v>
       </c>
       <c r="H23">
-        <v>8.0709379999999999</v>
+        <v>15.760770000000001</v>
       </c>
       <c r="I23">
-        <v>15.696068</v>
+        <v>15.150067999999999</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>7.6251300000000004</v>
+        <v>-0.61070200000000163</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>6.6406850092592595</v>
+        <v>4.8975213518518519</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>1.9106613981481466</v>
+        <v>5.4316352222222228</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>44.098697392200648</v>
+        <v>23.985715391844792</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>3.6506269783734306</v>
+        <v>29.502661187285057</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>12.688100504452734</v>
+        <v>26.601549476303916</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="6"/>
-        <v>58.142607516900007</v>
+        <v>0.37295693280400199</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="7"/>
-        <v>90.931317588996194</v>
+        <v>23.241397133125929</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.3">
@@ -5131,42 +5209,42 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>7.4533339999999999</v>
+        <v>15.665265</v>
       </c>
       <c r="I24">
-        <v>14.140558</v>
+        <v>12.886526999999999</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>6.6872240000000005</v>
+        <v>-2.7787380000000006</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>5.0851750092592596</v>
+        <v>2.6339803518518519</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>1.2930573981481466</v>
+        <v>5.3361302222222218</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>25.859004874794909</v>
+        <v>6.9378524939416053</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>1.6719974349056546</v>
+        <v>28.474285748513378</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>6.5754231666007552</v>
+        <v>14.055262160256188</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="6"/>
-        <v>44.718964826176006</v>
+        <v>7.7213848726440037</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="7"/>
-        <v>63.684891193629348</v>
+        <v>6.5402549782827109</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.3">
@@ -5183,42 +5261,42 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>5.8336880000000004</v>
+        <v>12.653942000000001</v>
       </c>
       <c r="I25">
-        <v>10.113104</v>
+        <v>10.686559000000001</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>4.2794159999999994</v>
+        <v>-1.9673829999999999</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>1.057721009259259</v>
+        <v>0.4340123518518535</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="2"/>
-        <v>-0.3265886018518529</v>
+        <v>2.3248072222222227</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>1.1187737334284256</v>
+        <v>0.18836672155997708</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>0.1066601148595481</v>
+        <v>5.4047286204966074</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>-0.34543962556331215</v>
+        <v>1.0089950501188414</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="6"/>
-        <v>18.313401301055997</v>
+        <v>3.8705958686889996</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="7"/>
-        <v>15.624844439550646</v>
+        <v>0.12775207463116092</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.3">
@@ -5235,42 +5313,42 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>5.0490170000000001</v>
+        <v>8.5705810000000007</v>
       </c>
       <c r="I26">
-        <v>5.8270860000000004</v>
+        <v>7.3908750000000003</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>0.77806900000000034</v>
+        <v>-1.1797060000000004</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>-3.2282969907407404</v>
+        <v>-2.861671648148147</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1112596018518532</v>
+        <v>-1.7585537777777773</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>10.421901460425721</v>
+        <v>8.1891646218149319</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1.2348979027079394</v>
+        <v>3.0925113893364924</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>3.5874760285900913</v>
+        <v>5.0324034876104822</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>0.60539136876100053</v>
+        <v>1.3917062464360008</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="7"/>
-        <v>0.11101597716239996</v>
+        <v>8.6333705217067163</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.3">
@@ -5287,42 +5365,42 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>4.914485</v>
+        <v>5.4709139999999996</v>
       </c>
       <c r="I27">
-        <v>3.21502</v>
+        <v>4.6762090000000001</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>-1.699465</v>
+        <v>-0.79470499999999955</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8403629907407408</v>
+        <v>-5.5763376481481473</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2457916018518533</v>
+        <v>-4.8582207777777784</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>34.109839863614134</v>
+        <v>31.095541566154409</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>1.5519967152446066</v>
+        <v>23.602309125631724</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>7.275875165631188</v>
+        <v>27.091079426137799</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="6"/>
-        <v>2.888181286225</v>
+        <v>0.63155603702499929</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="7"/>
-        <v>8.6745364507519263</v>
+        <v>31.955569849064496</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.3">
@@ -5339,42 +5417,42 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>4.9582459999999999</v>
+        <v>4.992197</v>
       </c>
       <c r="I28">
-        <v>4.3466950000000004</v>
+        <v>5.7243950000000003</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.61155099999999951</v>
+        <v>0.73219800000000035</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7086879907407404</v>
+        <v>-4.528151648148147</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2020306018518534</v>
+        <v>-5.336937777777778</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>22.171742594146071</v>
+        <v>20.50415734862678</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>1.444877567788329</v>
+        <v>28.482904843871609</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>5.6599870594426864</v>
+        <v>24.166463594508553</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="6"/>
-        <v>0.37399462560099939</v>
+        <v>0.53611391120400054</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="7"/>
-        <v>3.2890782265755329</v>
+        <v>21.203628421048936</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.3">
@@ -5391,42 +5469,42 @@
         <v>29</v>
       </c>
       <c r="H29">
-        <v>5.0792630000000001</v>
+        <v>5.5697510000000001</v>
       </c>
       <c r="I29">
-        <v>4.3152239999999997</v>
+        <v>6.0212640000000004</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>-0.76403900000000036</v>
+        <v>0.45151300000000028</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7401589907407411</v>
+        <v>-4.2312826481481469</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0810136018518532</v>
+        <v>-4.7593837777777779</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>22.46910725750028</v>
+        <v>17.903752848519595</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>1.168590407388717</v>
+        <v>22.651733944174271</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>5.1241763439310937</v>
+        <v>20.138297994788889</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="6"/>
-        <v>0.58375559352100059</v>
+        <v>0.20386398916900025</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="7"/>
-        <v>3.4042191036002944</v>
+        <v>18.557750638031713</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.3">
@@ -5443,42 +5521,42 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>5.2452860000000001</v>
+        <v>6.27597</v>
       </c>
       <c r="I30">
-        <v>4.1118129999999997</v>
+        <v>6.2946020000000003</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1334730000000004</v>
+        <v>1.8632000000000204E-2</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>-4.9435699907407411</v>
+        <v>-3.9579446481481471</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="2"/>
-        <v>-0.91499060185185321</v>
+        <v>-4.0531647777777779</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>24.438884253352413</v>
+        <v>15.665325837804559</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>0.83720780147721652</v>
+        <v>16.428144715818384</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>4.5233200811246315</v>
+        <v>16.042201840268131</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="6"/>
-        <v>1.284761041729001</v>
+        <v>3.471514240000076E-4</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="7"/>
-        <v>4.1962031281118692</v>
+        <v>16.277454734963271</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.3">
@@ -5495,42 +5573,42 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>5.6333859999999998</v>
+        <v>8.5433990000000009</v>
       </c>
       <c r="I31">
-        <v>5.5996569999999997</v>
+        <v>8.0125010000000003</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>-3.372900000000012E-2</v>
+        <v>-0.53089800000000054</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4557259907407412</v>
+        <v>-2.240045648148147</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>-0.52689060185185355</v>
+        <v>-1.7857357777777771</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>11.942042123081077</v>
+        <v>5.0178045057874519</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>0.27761370631980847</v>
+        <v>3.1888522680356028</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>1.8207895470964819</v>
+        <v>4.0001296577535559</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="6"/>
-        <v>1.1376454410000081E-3</v>
+        <v>0.28185268640400057</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="7"/>
-        <v>0.31429433798053091</v>
+        <v>5.3667920603409378</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.3">
@@ -5547,42 +5625,42 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>6.5814649999999997</v>
+        <v>10.724126</v>
       </c>
       <c r="I32">
-        <v>7.8391130000000002</v>
+        <v>9.9014100000000003</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.2576480000000005</v>
+        <v>-0.82271599999999978</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2162699907407406</v>
+        <v>-0.35113664814814705</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>0.42118839814814635</v>
+        <v>0.39499122222222205</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.4793126903764813</v>
+        <v>0.12329694567271562</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>0.17739966673460145</v>
+        <v>0.15601806563260481</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>-0.5122788091157533</v>
+        <v>-0.13869589381905095</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="6"/>
-        <v>1.5816784919040014</v>
+        <v>0.67686161665599964</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="7"/>
-        <v>2.8184916517470433</v>
+        <v>0.18294848552504933</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
@@ -5599,42 +5677,42 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>6.4729409999999996</v>
+        <v>10.968446999999999</v>
       </c>
       <c r="I33">
-        <v>9.6897059999999993</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>3.2167649999999997</v>
+        <v>0.67530300000000132</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0.63432300925925844</v>
+        <v>1.3912033518518534</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0.31266439814814628</v>
+        <v>0.63931222222222139</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.40236568007572127</v>
+        <v>1.9354467662038317</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>9.7759025869342542E-2</v>
+        <v>0.40872011748271497</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>0.19833022192156707</v>
+        <v>0.88941330643541139</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="6"/>
-        <v>10.347577065224998</v>
+        <v>0.45603414180900176</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="7"/>
-        <v>12.456871876512384</v>
+        <v>1.728213182498384</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
@@ -5651,42 +5729,42 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>7.9430899999999998</v>
+        <v>14.935286</v>
       </c>
       <c r="I34">
-        <v>14.292591</v>
+        <v>14.857324999999999</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>6.3495010000000001</v>
+        <v>-7.7961000000000169E-2</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>5.237208009259259</v>
+        <v>4.6047783518518521</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>1.7828133981481464</v>
+        <v>4.6061512222222216</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>27.428347732249332</v>
+        <v>21.20398366968346</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>3.1784236126165415</v>
+        <v>21.216629081979267</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>9.3369646077961885</v>
+        <v>21.210305433444837</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="6"/>
-        <v>40.316162949001004</v>
+        <v>6.0779175210000265E-3</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="7"/>
-        <v>66.134537470327643</v>
+        <v>20.504506688628933</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
@@ -5703,42 +5781,42 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>8.1058649999999997</v>
+        <v>16.070640999999998</v>
       </c>
       <c r="I35">
-        <v>15.783275</v>
+        <v>15.432864</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>7.6774100000000001</v>
+        <v>-0.63777699999999804</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>6.7278920092592589</v>
+        <v>5.180317351851853</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>1.9455883981481463</v>
+        <v>5.7415062222222204</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>45.26453088825459</v>
+        <v>26.835687865897395</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>3.78531421500867</v>
+        <v>32.964893699816471</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="5"/>
-        <v>13.089708637208435</v>
+        <v>29.742824308743149</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="6"/>
-        <v>58.942624308100001</v>
+        <v>0.4067595017289975</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="7"/>
-        <v>92.602098170761792</v>
+        <v>26.048051973765052</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
@@ -5755,42 +5833,42 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>7.3547640000000003</v>
+        <v>15.937308</v>
       </c>
       <c r="I36">
-        <v>13.040979999999999</v>
+        <v>12.870347000000001</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.686215999999999</v>
+        <v>-3.0669609999999992</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>3.9855970092592585</v>
+        <v>2.6178003518518533</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>1.194487398148147</v>
+        <v>5.6081732222222218</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>15.884983520216347</v>
+        <v>6.8528786821556871</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>1.4268001443347298</v>
+        <v>31.451606890450378</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="5"/>
-        <v>4.760745401657128</v>
+        <v>14.681077834379474</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="6"/>
-        <v>32.333052398655987</v>
+        <v>9.4062497755209957</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="7"/>
-        <v>47.344079253287447</v>
+        <v>6.457759558371607</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
@@ -5807,42 +5885,42 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>5.9804820000000003</v>
+        <v>12.708824999999999</v>
       </c>
       <c r="I37">
-        <v>8.8601080000000003</v>
+        <v>10.587904999999999</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>2.879626</v>
+        <v>-2.1209199999999999</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19527499074074051</v>
+        <v>0.33535835185185192</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="2"/>
-        <v>-0.17979460185185303</v>
+        <v>2.3796902222222212</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>3.8132322008796293E-2</v>
+        <v>0.11246522415679051</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>3.2326098855066356E-2</v>
+        <v>5.6629255537400445</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="5"/>
-        <v>3.5109389211855725E-2</v>
+        <v>0.79804899084241132</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="6"/>
-        <v>8.2922458998760007</v>
+        <v>4.4983016463999999</v>
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="7"/>
-        <v>7.2890895784265783</v>
+        <v>6.6962027908937766E-2</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
@@ -5859,42 +5937,42 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>5.1121920000000003</v>
+        <v>7.7949000000000002</v>
       </c>
       <c r="I38">
-        <v>7.1383010000000002</v>
+        <v>8.4551409999999994</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>2.0261089999999999</v>
+        <v>0.66024099999999919</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>-1.9170819907407406</v>
+        <v>-1.797405648148148</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.048084601851853</v>
+        <v>-2.5342347777777778</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>3.6752033592224809</v>
+        <v>3.230667063994864</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>1.0984813326389573</v>
+        <v>6.4223459088983832</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="5"/>
-        <v>2.0092641149828667</v>
+        <v>4.5550479033112445</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="6"/>
-        <v>4.1051176798809994</v>
+        <v>0.43591817808099892</v>
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="7"/>
-        <v>0.95653172337304493</v>
+        <v>3.5118526791498303</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.3">
@@ -5911,42 +5989,42 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>4.8845169999999998</v>
+        <v>4.90055</v>
       </c>
       <c r="I39">
-        <v>4.9432869999999998</v>
+        <v>6.7407919999999999</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.8769999999999989E-2</v>
+        <v>1.8402419999999999</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1120959907407411</v>
+        <v>-3.5117546481481474</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2757596018518536</v>
+        <v>-5.428584777777778</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>16.909333437066078</v>
+        <v>12.332420708790119</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>1.6275625617171998</v>
+        <v>29.469532689520609</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="5"/>
-        <v>5.2460459439240115</v>
+        <v>19.063857826227391</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="6"/>
-        <v>3.4539128999999985E-3</v>
+        <v>3.3864906185639998</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="7"/>
-        <v>1.481063691015533</v>
+        <v>12.87620389082994</v>
       </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.3">
@@ -5963,42 +6041,42 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>4.9369139999999998</v>
+        <v>4.61843</v>
       </c>
       <c r="I40">
-        <v>3.7774809999999999</v>
+        <v>4.9180770000000003</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1594329999999999</v>
+        <v>0.29964700000000022</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="1"/>
-        <v>-5.277901990740741</v>
+        <v>-5.3344696481481471</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2233626018518535</v>
+        <v>-5.710704777777778</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>27.856249423865076</v>
+        <v>28.456566427013815</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>1.4966160556097368</v>
+        <v>32.612149058933937</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="5"/>
-        <v>6.45678791171167</v>
+        <v>30.463581306590164</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="6"/>
-        <v>1.3442848814889998</v>
+        <v>8.9788324609000131E-2</v>
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="7"/>
-        <v>5.6777148802045367</v>
+        <v>29.279546274449384</v>
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.3">
@@ -6015,42 +6093,42 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <v>5.117667</v>
+        <v>5.7472180000000002</v>
       </c>
       <c r="I41">
-        <v>4.4470419999999997</v>
+        <v>6.1956850000000001</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>-0.67062500000000025</v>
+        <v>0.44846699999999995</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="1"/>
-        <v>-4.6083409907407411</v>
+        <v>-4.0568616481481472</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0426096018518534</v>
+        <v>-4.5819167777777778</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>21.236806686941357</v>
+        <v>16.458126432215302</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>1.0870347818736803</v>
+        <v>20.993961358481496</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="5"/>
-        <v>4.8047005655537793</v>
+        <v>18.588202450773203</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="6"/>
-        <v>0.44973789062500036</v>
+        <v>0.20112265008899996</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="7"/>
-        <v>2.9351728009824796</v>
+        <v>17.085407065411161</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
@@ -6067,42 +6145,42 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>5.4710190000000001</v>
+        <v>7.2944839999999997</v>
       </c>
       <c r="I42">
-        <v>5.2057549999999999</v>
+        <v>7.492057</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.26526400000000017</v>
+        <v>0.19757300000000022</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8496279907407409</v>
+        <v>-2.7604896481481473</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="2"/>
-        <v>-0.68925760185185325</v>
+        <v>-3.0346507777777783</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>14.819635667094595</v>
+        <v>7.6203030975330828</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>0.47507604171056789</v>
+        <v>9.2091053430672751</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="5"/>
-        <v>2.6533853569197312</v>
+        <v>8.3771220578002801</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>7.0364989696000094E-2</v>
+        <v>3.9035090329000086E-2</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>0.91111148840182821</v>
+        <v>8.0490103171604961</v>
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
@@ -6119,42 +6197,42 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>5.9717310000000001</v>
+        <v>8.8281209999999994</v>
       </c>
       <c r="I43">
-        <v>6.2931949999999999</v>
+        <v>8.5971530000000005</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>0.32146399999999975</v>
+        <v>-0.23096799999999895</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="1"/>
-        <v>-2.762187990740741</v>
+        <v>-1.6553936481481468</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="2"/>
-        <v>-0.18854560185185321</v>
+        <v>-1.5010137777777786</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>7.6296824961923715</v>
+        <v>2.7403281303292304</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>3.554944397767755E-2</v>
+        <v>2.2530423610787182</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="5"/>
-        <v>0.52079839714217413</v>
+        <v>2.4847686735161885</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>0.10333910329599984</v>
+        <v>5.3346217023999519E-2</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>1.7667300566269206E-2</v>
+        <v>2.9997608785542709</v>
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
@@ -6171,42 +6249,42 @@
         <v>31</v>
       </c>
       <c r="H44">
-        <v>6.8351329999999999</v>
+        <v>11.087895</v>
       </c>
       <c r="I44">
-        <v>9.0125589999999995</v>
+        <v>11.077218</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>2.1774259999999996</v>
+        <v>-1.0676999999999381E-2</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="1"/>
-        <v>-4.282399074074128E-2</v>
+        <v>0.82467135185185292</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="2"/>
-        <v>0.67485639814814657</v>
+        <v>0.75876022222222161</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>1.833894182963095E-3</v>
+        <v>0.68008283856516261</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>0.45543115812148971</v>
+        <v>0.57571707482671508</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="5"/>
-        <v>-2.890004414562624E-2</v>
+        <v>0.62572781819141188</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>4.7411839854759981</v>
+        <v>1.1399832899998679E-4</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>8.1355148787857399</v>
+        <v>0.55962850737038272</v>
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.3">
@@ -6223,42 +6301,42 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>7.1701709999999999</v>
+        <v>13.505334</v>
       </c>
       <c r="I45">
-        <v>11.620977999999999</v>
+        <v>13.704166000000001</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>4.4508069999999993</v>
+        <v>0.19883200000000123</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="1"/>
-        <v>2.5655950092592583</v>
+        <v>3.4516193518518534</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="2"/>
-        <v>1.0098943981481465</v>
+        <v>3.1761992222222215</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>6.5822777515360134</v>
+        <v>11.913676150078208</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>1.0198866954110071</v>
+        <v>10.088241499245045</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="5"/>
-        <v>2.5909800277677673</v>
+        <v>10.963030700759026</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>19.809682951248995</v>
+        <v>3.9534164224000488E-2</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>29.819259759737115</v>
+        <v>11.39083575097483</v>
       </c>
     </row>
     <row r="46" spans="4:17" x14ac:dyDescent="0.3">
@@ -6275,42 +6353,42 @@
         <v>31</v>
       </c>
       <c r="H46">
-        <v>8.2082940000000004</v>
+        <v>16.214399</v>
       </c>
       <c r="I46">
-        <v>16.109044999999998</v>
+        <v>16.750347000000001</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>7.9007509999999979</v>
+        <v>0.5359480000000012</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="1"/>
-        <v>7.0536620092592575</v>
+        <v>6.4978003518518541</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="2"/>
-        <v>2.0480173981481471</v>
+        <v>5.8852642222222222</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
-        <v>49.754147740867346</v>
+        <v>42.221409412526079</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>4.1943752631175064</v>
+        <v>34.636334965368938</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="5"/>
-        <v>14.446022515619577</v>
+        <v>38.241271933896684</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>62.421866364000969</v>
+        <v>0.28724025870400127</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>98.9779926399912</v>
+        <v>41.231966402816063</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.3">
@@ -6327,42 +6405,42 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>7.9506629999999996</v>
+        <v>15.713748000000001</v>
       </c>
       <c r="I47">
-        <v>16.403063</v>
+        <v>15.772145</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>8.4524000000000008</v>
+        <v>5.8396999999999366E-2</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>7.3476800092592587</v>
+        <v>5.5195983518518528</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="2"/>
-        <v>1.7903863981481463</v>
+        <v>5.3846132222222227</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
-        <v>53.988401518468137</v>
+        <v>30.46596596576569</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>3.2054834546738924</v>
+        <v>28.994059552930388</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="5"/>
-        <v>13.155186346522822</v>
+        <v>29.720902266737475</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>71.44306576000001</v>
+        <v>3.410209608999926E-3</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>104.91467319808868</v>
+        <v>29.626360279215604</v>
       </c>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.3">
@@ -6379,42 +6457,42 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>6.6867380000000001</v>
+        <v>14.993501999999999</v>
       </c>
       <c r="I48">
-        <v>13.773477</v>
+        <v>13.215868</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>7.0867389999999997</v>
+        <v>-1.777633999999999</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="1"/>
-        <v>4.7180940092592589</v>
+        <v>2.9633213518518531</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="2"/>
-        <v>0.52646139814814674</v>
+        <v>4.6643672222222214</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
-        <v>22.260411080208108</v>
+        <v>8.7812734343410934</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>0.27716160374010146</v>
+        <v>21.756321583741041</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="5"/>
-        <v>2.4838943687090245</v>
+        <v>13.822018982489027</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>50.221869654120994</v>
+        <v>3.1599826379559968</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>57.960820302363096</v>
+        <v>8.3332286962814948</v>
       </c>
     </row>
     <row r="49" spans="4:17" x14ac:dyDescent="0.3">
@@ -6431,42 +6509,42 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>5.7875199999999998</v>
+        <v>11.893057000000001</v>
       </c>
       <c r="I49">
-        <v>7.6693629999999997</v>
+        <v>9.9914310000000004</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>1.8818429999999999</v>
+        <v>-1.9016260000000003</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3860199907407411</v>
+        <v>-0.26111564814814692</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="2"/>
-        <v>-0.37275660185185355</v>
+        <v>1.5639222222222227</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>1.921051414732964</v>
+        <v>6.8181381707826866E-2</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>0.13894748422414127</v>
+        <v>2.4458527171604953</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="5"/>
-        <v>0.51664810184725618</v>
+        <v>-0.40836456470884591</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>3.5413330766489999</v>
+        <v>3.6161814438760009</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>2.2773417570757459</v>
+        <v>0.11404384152538259</v>
       </c>
     </row>
     <row r="50" spans="4:17" x14ac:dyDescent="0.3">
@@ -6483,42 +6561,42 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>5.0707500000000003</v>
+        <v>7.967943</v>
       </c>
       <c r="I50">
-        <v>6.3303070000000004</v>
+        <v>7.4102540000000001</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>1.259557</v>
+        <v>-0.55768899999999988</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7250759907407405</v>
+        <v>-2.8422926481481472</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="2"/>
-        <v>-1.089526601851853</v>
+        <v>-2.361191777777778</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>7.4260391553116278</v>
+        <v>8.0786274977170081</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>1.1870682161428463</v>
+        <v>5.5752266114453839</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="5"/>
-        <v>2.9690427839798308</v>
+        <v>6.7111980308456323</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>1.5864838362490001</v>
+        <v>0.31101702072099985</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>2.8910336294417398E-2</v>
+        <v>8.5198649948806047</v>
       </c>
     </row>
     <row r="51" spans="4:17" x14ac:dyDescent="0.3">
@@ -6535,42 +6613,42 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>4.8515670000000002</v>
+        <v>4.9708870000000003</v>
       </c>
       <c r="I51">
-        <v>3.3336269999999999</v>
+        <v>4.2807459999999997</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5179400000000003</v>
+        <v>-0.69014100000000056</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7217559907407409</v>
+        <v>-5.9718006481481476</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3087096018518531</v>
+        <v>-5.3582477777777777</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
-        <v>32.738491617577559</v>
+        <v>35.662402981222634</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>1.712720821979236</v>
+        <v>28.710819248060492</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="5"/>
-        <v>7.4881170045357708</v>
+        <v>31.998387552271705</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>2.304141843600001</v>
+        <v>0.47629459988100076</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>7.9899479716492419</v>
+        <v>36.583006807148166</v>
       </c>
     </row>
     <row r="52" spans="4:17" x14ac:dyDescent="0.3">
@@ -6587,42 +6665,42 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>5.1661419999999998</v>
+        <v>5.6611089999999997</v>
       </c>
       <c r="I52">
-        <v>4.5585680000000002</v>
+        <v>5.2900869999999998</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>-0.60757399999999961</v>
+        <v>-0.37102199999999996</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4968149907407406</v>
+        <v>-4.9624596481481476</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="2"/>
-        <v>-0.99413460185185354</v>
+        <v>-4.6680257777777783</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
-        <v>20.221345060950647</v>
+        <v>24.626005759498636</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>0.9883036065991434</v>
+        <v>21.790464661997831</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="5"/>
-        <v>4.4704393804214924</v>
+        <v>23.164889558737595</v>
       </c>
       <c r="P52" s="2">
         <f t="shared" si="6"/>
-        <v>0.36914616547599954</v>
+        <v>0.13765732448399998</v>
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="7"/>
-        <v>2.565470445246218</v>
+        <v>25.392002506727167</v>
       </c>
     </row>
     <row r="53" spans="4:17" x14ac:dyDescent="0.3">
@@ -6639,42 +6717,42 @@
         <v>28</v>
       </c>
       <c r="H53">
-        <v>5.0043139999999999</v>
+        <v>5.484623</v>
       </c>
       <c r="I53">
-        <v>4.6808779999999999</v>
+        <v>5.9716139999999998</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>-0.32343600000000006</v>
+        <v>0.48699099999999973</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="1"/>
-        <v>-4.374504990740741</v>
+        <v>-4.2809326481481476</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1559626018518534</v>
+        <v>-4.844511777777778</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
-        <v>19.136293914015649</v>
+        <v>18.326384337980713</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>1.3362495368801066</v>
+        <v>23.469294365027608</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="5"/>
-        <v>5.0567641709105846</v>
+        <v>20.739028633827115</v>
       </c>
       <c r="P53" s="2">
         <f t="shared" si="6"/>
-        <v>0.10461084609600003</v>
+        <v>0.23716023408099973</v>
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="7"/>
-        <v>2.1886202231612186</v>
+        <v>18.987987328765055</v>
       </c>
     </row>
     <row r="54" spans="4:17" x14ac:dyDescent="0.3">
@@ -6691,42 +6769,42 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>5.4101059999999999</v>
+        <v>7.4775520000000002</v>
       </c>
       <c r="I54">
-        <v>5.966812</v>
+        <v>7.3243400000000003</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>0.55670600000000015</v>
+        <v>-0.1532119999999999</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="1"/>
-        <v>-3.0885709907407408</v>
+        <v>-2.928206648148147</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="2"/>
-        <v>-0.75017060185185347</v>
+        <v>-2.8515827777777778</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
-        <v>9.5392707648452415</v>
+        <v>8.5743941742590053</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>0.56275593188277206</v>
+        <v>8.1315243385188278</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="5"/>
-        <v>2.3169551589861568</v>
+        <v>8.3500236476336482</v>
       </c>
       <c r="P54" s="2">
         <f t="shared" si="6"/>
-        <v>0.30992157043600016</v>
+        <v>2.3473916943999969E-2</v>
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="7"/>
-        <v>3.7428552169696129E-2</v>
+        <v>9.028791656560605</v>
       </c>
     </row>
     <row r="55" spans="4:17" x14ac:dyDescent="0.3">
@@ -6743,42 +6821,42 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>5.8482719999999997</v>
+        <v>9.3489959999999996</v>
       </c>
       <c r="I55">
-        <v>6.9964919999999999</v>
+        <v>8.8320469999999993</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>1.1482200000000002</v>
+        <v>-0.51694900000000032</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0588909907407409</v>
+        <v>-1.420499648148148</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="2"/>
-        <v>-0.31200460185185364</v>
+        <v>-0.98013877777777836</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
-        <v>4.2390321117533896</v>
+        <v>2.0178192503890124</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>9.7346871576733704E-2</v>
+        <v>0.96067202370371718</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="5"/>
-        <v>0.64238346382243339</v>
+        <v>1.3922867889696899</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>1.3184091684000006</v>
+        <v>0.26723626860100036</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="7"/>
-        <v>0.6992561921000634</v>
+        <v>2.2412718143716077</v>
       </c>
     </row>
     <row r="56" spans="4:17" x14ac:dyDescent="0.3">
@@ -6795,42 +6873,42 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>6.6093440000000001</v>
+        <v>11.266698999999999</v>
       </c>
       <c r="I56">
-        <v>9.3046369999999996</v>
+        <v>11.221339</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>2.6952929999999995</v>
+        <v>-4.5359999999998735E-2</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="1"/>
-        <v>0.24925400925925878</v>
+        <v>0.96879235185185308</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="2"/>
-        <v>0.44906739814814678</v>
+        <v>0.93756422222222113</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="3"/>
-        <v>6.2127561131814661E-2</v>
+        <v>0.93855862100664467</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>0.20166152807954618</v>
+        <v>0.87902667079115848</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="5"/>
-        <v>0.11193184941604943</v>
+        <v>0.90830504785881905</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="6"/>
-        <v>7.2646043558489977</v>
+        <v>2.0575295999998851E-3</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>9.8870023134423697</v>
+        <v>0.79602837415116079</v>
       </c>
     </row>
     <row r="57" spans="4:17" x14ac:dyDescent="0.3">
@@ -6847,42 +6925,42 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>7.1869519999999998</v>
+        <v>13.757198000000001</v>
       </c>
       <c r="I57">
-        <v>11.878055</v>
+        <v>13.324306</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>4.691103</v>
+        <v>-0.43289200000000072</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="1"/>
-        <v>2.822672009259259</v>
+        <v>3.0717593518518527</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="2"/>
-        <v>1.0266753981481465</v>
+        <v>3.4280632222222227</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
-        <v>7.9674772718557021</v>
+        <v>9.4357055156893139</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>1.0540623731626551</v>
+        <v>11.751617455552609</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="5"/>
-        <v>2.8979679089478783</v>
+        <v>10.530185261600508</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="6"/>
-        <v>22.006447356609002</v>
+        <v>0.18739548366400063</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="7"/>
-        <v>32.692989810329586</v>
+        <v>8.9710506504281593</v>
       </c>
     </row>
     <row r="58" spans="4:17" x14ac:dyDescent="0.3">
@@ -6899,42 +6977,42 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>8.0584059999999997</v>
+        <v>16.126942</v>
       </c>
       <c r="I58">
-        <v>16.008330999999998</v>
+        <v>16.180609</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>7.9499249999999986</v>
+        <v>5.3667000000000797E-2</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="1"/>
-        <v>6.9529480092592575</v>
+        <v>5.9280623518518532</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
-        <v>1.8981293981481464</v>
+        <v>5.7978072222222217</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
-        <v>48.343486019462269</v>
+        <v>35.141923247443323</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>3.6028952121142446</v>
+        <v>33.614568586052151</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="5"/>
-        <v>13.197595020170628</v>
+        <v>34.369762717350326</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="6"/>
-        <v>63.201307505624975</v>
+        <v>2.8801468890000854E-3</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="7"/>
-        <v>96.984175428885024</v>
+        <v>34.239750573331165</v>
       </c>
     </row>
     <row r="59" spans="4:17" x14ac:dyDescent="0.3">
@@ -6951,42 +7029,42 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>8.0348419999999994</v>
+        <v>16.257487999999999</v>
       </c>
       <c r="I59">
-        <v>16.785382999999999</v>
+        <v>15.435485</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>8.7505410000000001</v>
+        <v>-0.82200299999999871</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="1"/>
-        <v>7.7300000092592587</v>
+        <v>5.1829383518518526</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="2"/>
-        <v>1.874565398148146</v>
+        <v>5.9283532222222206</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="3"/>
-        <v>59.752900143148139</v>
+        <v>26.862849959096799</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>3.5139954319343172</v>
+        <v>35.145371927432585</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>14.490390545042255</v>
+        <v>30.726289278780055</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="6"/>
-        <v>76.571967792681008</v>
+        <v>0.67568893200899782</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="7"/>
-        <v>112.89288597196867</v>
+        <v>26.074812591988934</v>
       </c>
     </row>
     <row r="60" spans="4:17" x14ac:dyDescent="0.3">
@@ -7003,42 +7081,42 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>7.2648429999999999</v>
+        <v>16.072773000000002</v>
       </c>
       <c r="I60">
-        <v>13.869374000000001</v>
+        <v>13.738193000000001</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>6.6045310000000006</v>
+        <v>-2.3345800000000008</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="1"/>
-        <v>4.8139910092592597</v>
+        <v>3.4856463518518535</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="2"/>
-        <v>1.1045663981481466</v>
+        <v>5.7436382222222235</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="3"/>
-        <v>23.174509437228984</v>
+        <v>12.149730490178134</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>1.2200669279179699</v>
+        <v>32.989380027772064</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>5.3173727098150616</v>
+        <v>20.020291615645757</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="6"/>
-        <v>43.619829729961005</v>
+        <v>5.4502637764000035</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="7"/>
-        <v>59.43018269413453</v>
+        <v>11.621677962500941</v>
       </c>
     </row>
     <row r="61" spans="4:17" x14ac:dyDescent="0.3">
@@ -7055,42 +7133,42 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>5.9231980000000002</v>
+        <v>13.462987</v>
       </c>
       <c r="I61">
-        <v>10.811021</v>
+        <v>11.838914000000001</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>4.887823</v>
+        <v>-1.6240729999999992</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="1"/>
-        <v>1.7556380092592594</v>
+        <v>1.5863673518518535</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="2"/>
-        <v>-0.23707860185185314</v>
+        <v>3.133852222222222</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
-        <v>3.0822648195558155</v>
+        <v>2.5165613750214626</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>5.6206263456029505E-2</v>
+        <v>9.8210297507271598</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="5"/>
-        <v>-0.41622420459315601</v>
+        <v>4.9714408508617129</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="6"/>
-        <v>23.890813679329</v>
+        <v>2.6376131093289974</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="7"/>
-        <v>21.62942345690637</v>
+        <v>2.2794332998539399</v>
       </c>
     </row>
     <row r="62" spans="4:17" x14ac:dyDescent="0.3">
@@ -7107,42 +7185,42 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>5.084778</v>
+        <v>7.8246010000000004</v>
       </c>
       <c r="I62">
-        <v>7.4374570000000002</v>
+        <v>8.3758119999999998</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>2.3526790000000002</v>
+        <v>0.55121099999999945</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6179259907407406</v>
+        <v>-1.8767346481481475</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0754986018518533</v>
+        <v>-2.5045337777777776</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
-        <v>2.617684511514407</v>
+        <v>3.5221329395597509</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>1.1566972425852913</v>
+        <v>6.2726894440298269</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="5"/>
-        <v>1.7400771409414411</v>
+        <v>4.7003453182129284</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="6"/>
-        <v>5.535098477041001</v>
+        <v>0.30383356652099941</v>
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="7"/>
-        <v>1.6311897694138591</v>
+        <v>3.8154698741854953</v>
       </c>
     </row>
     <row r="63" spans="4:17" x14ac:dyDescent="0.3">
@@ -7159,42 +7237,42 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>4.949192</v>
+        <v>5.6044770000000002</v>
       </c>
       <c r="I63">
-        <v>6.9163920000000001</v>
+        <v>7.792554</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>1.9672000000000001</v>
+        <v>2.1880769999999998</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1389909907407407</v>
+        <v>-2.4599926481481473</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2110846018518533</v>
+        <v>-4.7246577777777778</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
-        <v>4.5752824584700553</v>
+        <v>6.0515638289429345</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>1.466725912842662</v>
+        <v>22.322391117116052</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="5"/>
-        <v>2.590499052385951</v>
+        <v>11.622623398349297</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="6"/>
-        <v>3.8698758400000002</v>
+        <v>4.7876809579289992</v>
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="7"/>
-        <v>0.57171049531673046</v>
+        <v>6.434242042191717</v>
       </c>
     </row>
     <row r="64" spans="4:17" x14ac:dyDescent="0.3">
@@ -7211,42 +7289,42 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>5.1539919999999997</v>
+        <v>5.7451800000000004</v>
       </c>
       <c r="I64">
-        <v>5.9007389999999997</v>
+        <v>6.7203629999999999</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>0.74674700000000005</v>
+        <v>0.97518299999999947</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="1"/>
-        <v>-3.1546439907407411</v>
+        <v>-3.5321836481481474</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0062846018518536</v>
+        <v>-4.5839547777777776</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="3"/>
-        <v>9.9517787083166684</v>
+        <v>12.476321324245156</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>1.0126086999241437</v>
+        <v>21.012641404711715</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="5"/>
-        <v>3.1744696722068895</v>
+        <v>16.191370109917241</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="6"/>
-        <v>0.55763108200900002</v>
+        <v>0.95098188348899892</v>
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="7"/>
-        <v>6.7359766775011279E-2</v>
+        <v>13.023233744085385</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.3">
@@ -7263,42 +7341,42 @@
         <v>28</v>
       </c>
       <c r="H65">
-        <v>5.406536</v>
+        <v>6.8297699999999999</v>
       </c>
       <c r="I65">
-        <v>6.5825889999999996</v>
+        <v>7.6048359999999997</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>1.1760529999999996</v>
+        <v>0.77506599999999981</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4727939907407412</v>
+        <v>-2.6477106481481476</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="2"/>
-        <v>-0.75374060185185332</v>
+        <v>-3.4993647777777781</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="3"/>
-        <v>6.1147101206435215</v>
+        <v>7.0103716763170842</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>0.56812489487999407</v>
+        <v>12.245553847951719</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="5"/>
-        <v>1.8638452308365725</v>
+        <v>9.2653053838768002</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="6"/>
-        <v>1.3831006588089989</v>
+        <v>0.60072730435599975</v>
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="7"/>
-        <v>0.17834776162963839</v>
+        <v>7.4218038306014966</v>
       </c>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.3">
@@ -7315,42 +7393,42 @@
         <v>31</v>
       </c>
       <c r="H66">
-        <v>5.8562700000000003</v>
+        <v>8.8826999999999998</v>
       </c>
       <c r="I66">
-        <v>6.894501</v>
+        <v>8.8436210000000006</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.0382309999999997</v>
+        <v>-3.9078999999999198E-2</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1608819907407408</v>
+        <v>-1.4089256481481467</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="2"/>
-        <v>-0.30400660185185302</v>
+        <v>-1.4464347777777782</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="3"/>
-        <v>4.6694109779076669</v>
+        <v>1.9850714820096753</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>9.2420013969511078E-2</v>
+        <v>2.0921735663650507</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="5"/>
-        <v>0.6569223910079599</v>
+        <v>2.0379190567845766</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="6"/>
-        <v>1.0779236093609994</v>
+        <v>1.5271682409999372E-3</v>
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="7"/>
-        <v>0.53908546683600822</v>
+        <v>2.2067511839676039</v>
       </c>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
@@ -7367,42 +7445,42 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>6.1007069999999999</v>
+        <v>9.8488950000000006</v>
       </c>
       <c r="I67">
-        <v>7.3208640000000003</v>
+        <v>10.058611000000001</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" si="0"/>
-        <v>1.2201570000000004</v>
+        <v>0.20971600000000024</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="1"/>
-        <v>-1.7345189907407406</v>
+        <v>-0.19393564814814646</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" si="2"/>
-        <v>-5.9569601851853449E-2</v>
+        <v>-0.48023977777777738</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
-        <v>3.0085561292402772</v>
+        <v>3.7611035622641661E-2</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>3.548537464788342E-3</v>
+        <v>0.23063024416004899</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="5"/>
-        <v>0.10332460568290459</v>
+        <v>9.3135612569855072E-2</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="6"/>
-        <v>1.488783104649001</v>
+        <v>4.3980800656000102E-2</v>
       </c>
       <c r="Q67" s="2">
         <f t="shared" si="7"/>
-        <v>1.3469631087402854</v>
+        <v>7.3183114343160147E-2</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
@@ -7419,42 +7497,42 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>7.0389400000000002</v>
+        <v>12.945648</v>
       </c>
       <c r="I68">
-        <v>10.762707000000001</v>
+        <v>13.074730000000001</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" si="0"/>
-        <v>3.7237670000000005</v>
+        <v>0.12908200000000036</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="1"/>
-        <v>1.7073240092592599</v>
+        <v>2.8221833518518533</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="2"/>
-        <v>0.87866339814814687</v>
+        <v>2.6165132222222223</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>2.9149552725931134</v>
+        <v>7.9647188714697617</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>0.77204936724524886</v>
+        <v>6.8461414420637166</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>1.5001631157156594</v>
+        <v>7.3842800556558048</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="6"/>
-        <v>13.866440670289004</v>
+        <v>1.6662162724000094E-2</v>
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="7"/>
-        <v>21.182365569798115</v>
+        <v>7.5382931242894964</v>
       </c>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.3">
@@ -7471,42 +7549,42 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>7.9949960000000004</v>
+        <v>15.87955</v>
       </c>
       <c r="I69">
-        <v>15.518577000000001</v>
+        <v>16.857534000000001</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J111" si="8">I69-H69</f>
-        <v>7.5235810000000001</v>
+        <v>0.97798400000000107</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ref="K69:K111" si="9">I69-I$2</f>
-        <v>6.4631940092592597</v>
+        <v>6.6049873518518538</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ref="L69:L111" si="10">H69-H$2</f>
-        <v>1.8347193981481471</v>
+        <v>5.5504152222222221</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M111" si="11">K69*K69</f>
-        <v>41.772876801324784</v>
+        <v>43.625857918122968</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" ref="N69:N111" si="12">L69*L69</f>
-        <v>3.3661952699410991</v>
+        <v>30.807109139076157</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:O111" si="13">K69*L69</f>
-        <v>11.858147422782858</v>
+        <v>36.660422340303775</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:P111" si="14">J69*J69</f>
-        <v>56.604271063561001</v>
+        <v>0.95645270425600215</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" ref="Q69:Q111" si="15">(I69-H$2)*(I69-H$2)</f>
-        <v>87.577786341979774</v>
+        <v>42.619996404711728</v>
       </c>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.3">
@@ -7523,42 +7601,42 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>8.3325549999999993</v>
+        <v>16.865604000000001</v>
       </c>
       <c r="I70">
-        <v>17.680610999999999</v>
+        <v>18.027048000000001</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" si="8"/>
-        <v>9.3480559999999997</v>
+        <v>1.1614439999999995</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="9"/>
-        <v>8.6252280092592581</v>
+        <v>7.7745013518518533</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="10"/>
-        <v>2.1722783981481459</v>
+        <v>6.5364692222222232</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="11"/>
-        <v>74.394558211710432</v>
+        <v>60.442871269946295</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="12"/>
-        <v>4.7187934390610753</v>
+        <v>42.725429893058397</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="13"/>
-        <v>18.736396483616222</v>
+        <v>50.817788804504708</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="14"/>
-        <v>87.386150979135991</v>
+        <v>1.3489521651359988</v>
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="15"/>
-        <v>132.71810464515539</v>
+        <v>59.257867976863722</v>
       </c>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.3">
@@ -7575,42 +7653,42 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>8.4381970000000006</v>
+        <v>16.829004000000001</v>
       </c>
       <c r="I71">
-        <v>17.090021</v>
+        <v>17.185048999999999</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" si="8"/>
-        <v>8.6518239999999995</v>
+        <v>0.35604499999999817</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="9"/>
-        <v>8.0346380092592593</v>
+        <v>6.932502351851852</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="10"/>
-        <v>2.2779203981481473</v>
+        <v>6.4998692222222232</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="11"/>
-        <v>64.5554079398336</v>
+        <v>48.059588858431461</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="12"/>
-        <v>5.1889213402994141</v>
+        <v>42.248299905991729</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="13"/>
-        <v>18.30226581302809</v>
+        <v>45.060358669785032</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="14"/>
-        <v>74.85405852697599</v>
+        <v>0.1267680420249987</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="15"/>
-        <v>119.45931260885079</v>
+        <v>47.003559822468929</v>
       </c>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.3">
@@ -7627,42 +7705,42 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>6.9259729999999999</v>
+        <v>15.146062000000001</v>
       </c>
       <c r="I72">
-        <v>13.509548000000001</v>
+        <v>14.390521</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" si="8"/>
-        <v>6.5835750000000006</v>
+        <v>-0.75554100000000091</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="9"/>
-        <v>4.4541650092592597</v>
+        <v>4.1379743518518524</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="10"/>
-        <v>0.76569639814814661</v>
+        <v>4.8169272222222226</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="11"/>
-        <v>19.839585929709543</v>
+        <v>17.122831736583759</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="12"/>
-        <v>0.58629097413704501</v>
+        <v>23.202787864185499</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="13"/>
-        <v>3.4105381043473213</v>
+        <v>19.932321300292546</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="14"/>
-        <v>43.343459780625011</v>
+        <v>0.57084220268100139</v>
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="15"/>
-        <v>54.011790083638424</v>
+        <v>16.494858046056489</v>
       </c>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.3">
@@ -7679,42 +7757,42 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>6.3101979999999998</v>
+        <v>13.570384000000001</v>
       </c>
       <c r="I73">
-        <v>11.196471000000001</v>
+        <v>11.777958</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" si="8"/>
-        <v>4.886273000000001</v>
+        <v>-1.7924260000000007</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="9"/>
-        <v>2.1410880092592599</v>
+        <v>1.5254113518518526</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="10"/>
-        <v>0.14992139814814642</v>
+        <v>3.2412492222222227</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="11"/>
-        <v>4.5842578633937805</v>
+        <v>2.3268797923584965</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="12"/>
-        <v>2.2476425622695043E-2</v>
+        <v>10.505696520556164</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="13"/>
-        <v>0.32099490790637975</v>
+        <v>4.944238357758767</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="14"/>
-        <v>23.87566383052901</v>
+        <v>3.2127909654760027</v>
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="15"/>
-        <v>25.363254015938782</v>
+        <v>2.0990887292503819</v>
       </c>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.3">
@@ -7731,42 +7809,42 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>5.0429940000000002</v>
+        <v>8.9422979999999992</v>
       </c>
       <c r="I74">
-        <v>6.740685</v>
+        <v>8.0507980000000003</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" si="8"/>
-        <v>1.6976909999999998</v>
+        <v>-0.89149999999999885</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="9"/>
-        <v>-2.3146979907407408</v>
+        <v>-2.201748648148147</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1172826018518531</v>
+        <v>-1.3868367777777788</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
-        <v>5.3578267883392225</v>
+        <v>4.8476971096221924</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="12"/>
-        <v>1.2483204124008465</v>
+        <v>1.9233162481970523</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="13"/>
-        <v>2.5861717935960713</v>
+        <v>3.0534660006743568</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="14"/>
-        <v>2.8821547314809997</v>
+        <v>0.79477224999999796</v>
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="15"/>
-        <v>0.33687390864089761</v>
+        <v>5.1908184729748266</v>
       </c>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
@@ -7783,42 +7861,42 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>4.9246639999999999</v>
+        <v>5.2128269999999999</v>
       </c>
       <c r="I75">
-        <v>5.9052759999999997</v>
+        <v>7.1561149999999998</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" si="8"/>
-        <v>0.98061199999999982</v>
+        <v>1.9432879999999999</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="9"/>
-        <v>-3.1501069907407411</v>
+        <v>-3.0964316481481475</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2356126018518534</v>
+        <v>-5.1163077777777781</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
-        <v>9.9231740531136872</v>
+        <v>9.5878889516534525</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="12"/>
-        <v>1.5267385018551067</v>
+        <v>26.176605276949385</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" si="13"/>
-        <v>3.8923118949408795</v>
+        <v>15.842297324777631</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" si="14"/>
-        <v>0.96159989454399963</v>
+        <v>3.7763682509439995</v>
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="15"/>
-        <v>6.5025306944807557E-2</v>
+        <v>10.068054510168942</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
@@ -7835,42 +7913,42 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>4.9727360000000003</v>
+        <v>4.9130700000000003</v>
       </c>
       <c r="I76">
-        <v>4.9835349999999998</v>
+        <v>6.2070230000000004</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" si="8"/>
-        <v>1.0798999999999559E-2</v>
+        <v>1.2939530000000001</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="9"/>
-        <v>-4.071847990740741</v>
+        <v>-4.0455236481481469</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1875406018518531</v>
+        <v>-5.4160647777777777</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
-        <v>16.579946059699409</v>
+        <v>16.366261587725891</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="12"/>
-        <v>1.4102526810466613</v>
+        <v>29.33375767708505</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="13"/>
-        <v>4.835484813573518</v>
+        <v>21.910818138402238</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="14"/>
-        <v>1.1661840099999047E-4</v>
+        <v>1.6743143662090003</v>
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="15"/>
-        <v>1.384720797528866</v>
+        <v>16.99180550849427</v>
       </c>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.3">
@@ -7887,42 +7965,42 @@
         <v>29</v>
       </c>
       <c r="H77">
-        <v>5.1658390000000001</v>
+        <v>6.0250130000000004</v>
       </c>
       <c r="I77">
-        <v>5.8835810000000004</v>
+        <v>7.2024429999999997</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" si="8"/>
-        <v>0.71774200000000032</v>
+        <v>1.1774299999999993</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="9"/>
-        <v>-3.1718019907407404</v>
+        <v>-3.0501036481481476</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="10"/>
-        <v>-0.99443760185185326</v>
+        <v>-4.3041217777777776</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="11"/>
-        <v>10.060327868466924</v>
+        <v>9.3031322644466385</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="12"/>
-        <v>0.98890614397686505</v>
+        <v>18.525464277940937</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="13"/>
-        <v>3.1541591652211558</v>
+        <v>13.128017536473891</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="14"/>
-        <v>0.51515357856400046</v>
+        <v>1.3863414048999985</v>
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="15"/>
-        <v>7.6560456084159123E-2</v>
+        <v>9.7762014732231641</v>
       </c>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.3">
@@ -7939,42 +8017,42 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>5.29237</v>
+        <v>7.2481359999999997</v>
       </c>
       <c r="I78">
-        <v>5.9938599999999997</v>
+        <v>7.5207629999999996</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" si="8"/>
-        <v>0.70148999999999972</v>
+        <v>0.27262699999999995</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="9"/>
-        <v>-3.0615229907407411</v>
+        <v>-2.7317836481481477</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="10"/>
-        <v>-0.86790660185185331</v>
+        <v>-3.0809987777777783</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
-        <v>9.3729230228341311</v>
+        <v>7.4626419002896025</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="12"/>
-        <v>0.75326186953803143</v>
+        <v>9.492553468668163</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="13"/>
-        <v>2.6571160153851197</v>
+        <v>8.4166220810977634</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="14"/>
-        <v>0.49208822009999964</v>
+        <v>7.4325481128999976E-2</v>
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="15"/>
-        <v>2.7694485371918359E-2</v>
+        <v>7.8869520422187191</v>
       </c>
     </row>
     <row r="79" spans="4:17" x14ac:dyDescent="0.3">
@@ -7991,42 +8069,42 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>6.2370150000000004</v>
+        <v>9.8911479999999994</v>
       </c>
       <c r="I79">
-        <v>7.9413900000000002</v>
+        <v>10.099689</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="8"/>
-        <v>1.7043749999999998</v>
+        <v>0.20854100000000031</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="9"/>
-        <v>-1.1139929907407407</v>
+        <v>-0.15285764814814762</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>7.6738398148147091E-2</v>
+        <v>-0.43798677777777861</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
-        <v>1.2409803834194999</v>
+        <v>2.3365460597382898E-2</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="12"/>
-        <v>5.8887817503435452E-3</v>
+        <v>0.19183241750816121</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="13"/>
-        <v>-8.5486037657708097E-2</v>
+        <v>6.69496287710966E-2</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="14"/>
-        <v>2.9048941406249993</v>
+        <v>4.3489348681000128E-2</v>
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="15"/>
-        <v>3.1723649370628388</v>
+        <v>5.2645364940049622E-2</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.3">
@@ -8043,42 +8121,42 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>6.9809720000000004</v>
+        <v>12.054392</v>
       </c>
       <c r="I80">
-        <v>10.368010999999999</v>
+        <v>12.167942999999999</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="8"/>
-        <v>3.3870389999999988</v>
+        <v>0.11355099999999929</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="9"/>
-        <v>1.3126280092592584</v>
+        <v>1.915396351851852</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="10"/>
-        <v>0.82069539814814707</v>
+        <v>1.725257222222222</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>1.7229922906919237</v>
+        <v>3.6687431846873837</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="12"/>
-        <v>0.67354093654154568</v>
+        <v>2.9765124828299374</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="13"/>
-        <v>1.0772677666794368</v>
+        <v>3.3045513894505039</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="14"/>
-        <v>11.472033187520992</v>
+        <v>1.2893829600999839E-2</v>
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="15"/>
-        <v>17.705028765359138</v>
+        <v>3.3812156781120462</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
@@ -8095,42 +8173,42 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>7.4267440000000002</v>
+        <v>14.588003</v>
       </c>
       <c r="I81">
-        <v>13.459146</v>
+        <v>14.868748</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="8"/>
-        <v>6.0324020000000003</v>
+        <v>0.28074499999999958</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="9"/>
-        <v>4.4037630092592597</v>
+        <v>4.6162013518518528</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="10"/>
-        <v>1.2664673981481469</v>
+        <v>4.2588682222222225</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
-        <v>19.393128641720171</v>
+        <v>21.309314920838872</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="12"/>
-        <v>1.6039396705721369</v>
+        <v>18.137958534254274</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="13"/>
-        <v>5.5772222803976286</v>
+        <v>19.65979324478112</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="14"/>
-        <v>36.389873889604004</v>
+        <v>7.8817755024999769E-2</v>
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="15"/>
-        <v>53.273494491223495</v>
+        <v>20.608088207374827</v>
       </c>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
@@ -8147,42 +8225,42 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>7.846743</v>
+        <v>15.652453</v>
       </c>
       <c r="I82">
-        <v>15.561928</v>
+        <v>16.696805999999999</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="8"/>
-        <v>7.715185</v>
+        <v>1.0443529999999992</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="9"/>
-        <v>6.5065450092592592</v>
+        <v>6.4442593518518514</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="10"/>
-        <v>1.6864663981481467</v>
+        <v>5.3233182222222215</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="11"/>
-        <v>42.335127957516576</v>
+        <v>41.528478593930046</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="12"/>
-        <v>2.8441689120827833</v>
+        <v>28.337716895043155</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="13"/>
-        <v>10.973069526154262</v>
+        <v>34.30484323643892</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="14"/>
-        <v>59.524079584224999</v>
+        <v>1.0906731886089984</v>
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="15"/>
-        <v>88.391049012300996</v>
+        <v>40.54723679431703</v>
       </c>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
@@ -8199,42 +8277,42 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>8.1649879999999992</v>
+        <v>16.499231000000002</v>
       </c>
       <c r="I83">
-        <v>16.301983</v>
+        <v>16.748556000000001</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="8"/>
-        <v>8.1369950000000006</v>
+        <v>0.24932499999999891</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="9"/>
-        <v>7.2466000092592591</v>
+        <v>6.4960093518518534</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="10"/>
-        <v>2.0047113981481459</v>
+        <v>6.1700962222222238</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="11"/>
-        <v>52.513211694196293</v>
+        <v>42.198137499346736</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="12"/>
-        <v>4.0188677898650944</v>
+        <v>38.070087391480961</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="13"/>
-        <v>14.527341636382497</v>
+        <v>40.081002761381356</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="14"/>
-        <v>66.210687630025006</v>
+        <v>6.2162955624999454E-2</v>
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="15"/>
-        <v>102.85420866623905</v>
+        <v>41.208968828317055</v>
       </c>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
@@ -8251,42 +8329,42 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>7.0741360000000002</v>
+        <v>15.567494</v>
       </c>
       <c r="I84">
-        <v>12.822082999999999</v>
+        <v>14.161457</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" si="8"/>
-        <v>5.747946999999999</v>
+        <v>-1.4060369999999995</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="9"/>
-        <v>3.7667000092592584</v>
+        <v>3.9089103518518531</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="10"/>
-        <v>0.91385939814814687</v>
+        <v>5.2383592222222219</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="11"/>
-        <v>14.188028959753698</v>
+        <v>15.279580138814579</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="12"/>
-        <v>0.8351389995836932</v>
+        <v>27.440407341040601</v>
       </c>
       <c r="O84" s="2">
         <f t="shared" si="13"/>
-        <v>3.4422342034662852</v>
+        <v>20.476276590463065</v>
       </c>
       <c r="P84" s="2">
         <f t="shared" si="14"/>
-        <v>33.03889471480899</v>
+        <v>1.9769400453689987</v>
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="15"/>
-        <v>44.37966448640757</v>
+        <v>14.686693614938273</v>
       </c>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
@@ -8303,42 +8381,42 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>5.3955099999999998</v>
+        <v>10.939890999999999</v>
       </c>
       <c r="I85">
-        <v>9.9084380000000003</v>
+        <v>11.1876</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="8"/>
-        <v>4.5129280000000005</v>
+        <v>0.2477090000000004</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="9"/>
-        <v>0.85305500925925948</v>
+        <v>0.93505335185185245</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="10"/>
-        <v>-0.76476660185185352</v>
+        <v>0.61075622222222137</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="11"/>
-        <v>0.72770284882231528</v>
+        <v>0.8743247708093842</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="12"/>
-        <v>0.58486795530803148</v>
+        <v>0.37302316298315946</v>
       </c>
       <c r="O85" s="2">
         <f t="shared" si="13"/>
-        <v>-0.65238798062390535</v>
+        <v>0.57108965275326296</v>
       </c>
       <c r="P85" s="2">
         <f t="shared" si="14"/>
-        <v>20.366519133184003</v>
+        <v>6.1359748681000199E-2</v>
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="15"/>
-        <v>14.048713866567873</v>
+        <v>0.73696253776504861</v>
       </c>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
@@ -8355,42 +8433,42 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>5.1544169999999996</v>
+        <v>7.691643</v>
       </c>
       <c r="I86">
-        <v>8.2723960000000005</v>
+        <v>9.3414070000000002</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>3.1179790000000009</v>
+        <v>1.6497640000000002</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="9"/>
-        <v>-0.7829869907407403</v>
+        <v>-0.91113964814814707</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0058596018518537</v>
+        <v>-2.637491777777778</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="11"/>
-        <v>0.61306862766924008</v>
+        <v>0.83017545842752927</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="12"/>
-        <v>1.0117535386375698</v>
+        <v>6.9563628778453834</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="13"/>
-        <v>0.78757498276166216</v>
+        <v>2.4031233303980755</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="14"/>
-        <v>9.7217930444410054</v>
+        <v>2.7217212556960009</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="15"/>
-        <v>4.4610483520336919</v>
+        <v>0.97560616299382708</v>
       </c>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
@@ -8407,42 +8485,42 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>4.8187790000000001</v>
+        <v>4.4755289999999999</v>
       </c>
       <c r="I87">
-        <v>5.093515</v>
+        <v>6.1767459999999996</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" si="8"/>
-        <v>0.27473599999999987</v>
+        <v>1.7012169999999998</v>
       </c>
       <c r="K87" s="2">
         <f t="shared" si="9"/>
-        <v>-3.9618679907407408</v>
+        <v>-4.0758006481481477</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3414976018518532</v>
+        <v>-5.8536057777777781</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="11"/>
-        <v>15.696397976056074</v>
+        <v>16.612150923444862</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="12"/>
-        <v>1.7996158157742732</v>
+        <v>34.264700601633386</v>
       </c>
       <c r="O87" s="2">
         <f t="shared" si="13"/>
-        <v>5.3148364084323241</v>
+        <v>23.858130223070411</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="14"/>
-        <v>7.5479869695999929E-2</v>
+        <v>2.8941392810889992</v>
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="15"/>
-        <v>1.1379803151855321</v>
+        <v>17.24233256181483</v>
       </c>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
@@ -8459,42 +8537,42 @@
         <v>31</v>
       </c>
       <c r="H88">
-        <v>4.3940149999999996</v>
+        <v>2.5244849999999999</v>
       </c>
       <c r="I88">
-        <v>3.808535</v>
+        <v>4.7506050000000002</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" si="8"/>
-        <v>-0.58547999999999956</v>
+        <v>2.2261200000000003</v>
       </c>
       <c r="K88" s="2">
         <f t="shared" si="9"/>
-        <v>-5.2468479907407408</v>
+        <v>-5.5019416481481471</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="10"/>
-        <v>-1.7662616018518538</v>
+        <v>-7.8046497777777777</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="11"/>
-        <v>27.529413837940147</v>
+        <v>30.271361899627149</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="12"/>
-        <v>3.1196800461762764</v>
+        <v>60.912558153766717</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="13"/>
-        <v>9.267306136798922</v>
+        <v>42.940727661565738</v>
       </c>
       <c r="P88" s="2">
         <f t="shared" si="14"/>
-        <v>0.34278683039999946</v>
+        <v>4.9556102544000016</v>
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="15"/>
-        <v>5.5306885618807211</v>
+        <v>31.119994481553384</v>
       </c>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
@@ -8511,42 +8589,42 @@
         <v>28</v>
       </c>
       <c r="H89">
-        <v>4.8048799999999998</v>
+        <v>4.1498359999999996</v>
       </c>
       <c r="I89">
-        <v>5.1422619999999997</v>
+        <v>6.3771940000000003</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" si="8"/>
-        <v>0.33738199999999985</v>
+        <v>2.2273580000000006</v>
       </c>
       <c r="K89" s="2">
         <f t="shared" si="9"/>
-        <v>-3.9131209907407412</v>
+        <v>-3.8753526481481471</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="10"/>
-        <v>-1.3553966018518535</v>
+        <v>-6.1792987777777784</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="11"/>
-        <v>15.312515888175799</v>
+        <v>15.018358147508856</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="12"/>
-        <v>1.837099948311552</v>
+        <v>38.183733385045947</v>
       </c>
       <c r="O89" s="2">
         <f t="shared" si="13"/>
-        <v>5.3038308934851592</v>
+        <v>23.946961882159723</v>
       </c>
       <c r="P89" s="2">
         <f t="shared" si="14"/>
-        <v>0.1138266139239999</v>
+        <v>4.9611236601640023</v>
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="15"/>
-        <v>1.0363537295835881</v>
+        <v>15.617835911062826</v>
       </c>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
@@ -8563,42 +8641,42 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>5.1158020000000004</v>
+        <v>5.8737279999999998</v>
       </c>
       <c r="I90">
-        <v>5.3439209999999999</v>
+        <v>7.0906229999999999</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" si="8"/>
-        <v>0.22811899999999952</v>
+        <v>1.2168950000000001</v>
       </c>
       <c r="K90" s="2">
         <f t="shared" si="9"/>
-        <v>-3.7114619907407409</v>
+        <v>-3.1619236481481474</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="10"/>
-        <v>-1.0444746018518529</v>
+        <v>-4.4554067777777782</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="11"/>
-        <v>13.774950108713224</v>
+        <v>9.9977611567184894</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="12"/>
-        <v>1.0909